--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Shivendra -PC Sync\Google AntiGravity\Paper Trading Simulator\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE65BA1A-E685-49B9-AE39-69562D1EC25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="TradeBook" sheetId="1" r:id="rId1"/>
@@ -18,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TradeBook!$A$1:$R$25</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="49">
   <si>
     <t>Buy Date</t>
   </si>
@@ -77,6 +71,15 @@
   </si>
   <si>
     <t>PnL_Percentage</t>
+  </si>
+  <si>
+    <t>12/29/2025</t>
+  </si>
+  <si>
+    <t>12/30/2025</t>
+  </si>
+  <si>
+    <t>2025-12-31</t>
   </si>
   <si>
     <t>ADANIENT</t>
@@ -166,8 +169,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,33 +228,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -289,7 +283,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -323,7 +317,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -358,10 +351,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -534,35 +526,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="8" width="18.6640625" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" customWidth="1"/>
-    <col min="16" max="16" width="16.6640625" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" customWidth="1"/>
-    <col min="18" max="18" width="16.6640625" customWidth="1"/>
+    <col min="1" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,24 +610,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>46020</v>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2203.1999999999998</v>
+        <v>2203.2</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -644,10 +636,10 @@
         <v>4</v>
       </c>
       <c r="I2">
-        <v>8812.7999999999993</v>
+        <v>8812.799999999999</v>
       </c>
       <c r="J2">
-        <v>2239.6999999999998</v>
+        <v>2239.7</v>
       </c>
       <c r="L2">
         <v>2093.04</v>
@@ -668,18 +660,18 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>46020</v>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -697,10 +689,10 @@
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1269.4000000000001</v>
+        <v>1269.4</v>
       </c>
       <c r="L3">
-        <v>1170.4000000000001</v>
+        <v>1170.4</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -718,18 +710,18 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>46020</v>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -768,18 +760,18 @@
         <v>-0.17</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>46020</v>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -794,7 +786,7 @@
         <v>3</v>
       </c>
       <c r="I5">
-        <v>8527.2000000000007</v>
+        <v>8527.200000000001</v>
       </c>
       <c r="J5">
         <v>2829</v>
@@ -809,33 +801,33 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>-40.200000000000003</v>
+        <v>-40.2</v>
       </c>
       <c r="Q5">
-        <v>-40.200000000000003</v>
+        <v>-40.2</v>
       </c>
       <c r="R5">
         <v>-0.47</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>46020</v>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2293.3000000000002</v>
+        <v>2293.3</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -844,7 +836,7 @@
         <v>4</v>
       </c>
       <c r="I6">
-        <v>9173.2000000000007</v>
+        <v>9173.200000000001</v>
       </c>
       <c r="J6">
         <v>2315.9</v>
@@ -859,27 +851,27 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>90.4</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="Q6">
-        <v>90.4</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="R6">
         <v>0.99</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>46020</v>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -918,18 +910,18 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>46020</v>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -968,18 +960,18 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>46020</v>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1015,21 +1007,21 @@
         <v>27</v>
       </c>
       <c r="R9">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>46020</v>
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1044,7 +1036,7 @@
         <v>3</v>
       </c>
       <c r="I10">
-        <v>9227.7000000000007</v>
+        <v>9227.700000000001</v>
       </c>
       <c r="J10">
         <v>3075</v>
@@ -1068,18 +1060,18 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>46020</v>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1115,21 +1107,21 @@
         <v>451.24</v>
       </c>
       <c r="R11">
-        <v>4.5199999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>46020</v>
+        <v>4.52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1168,18 +1160,18 @@
         <v>-1.33</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>46020</v>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1209,33 +1201,33 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>290.39999999999998</v>
+        <v>290.4</v>
       </c>
       <c r="Q13">
-        <v>290.39999999999998</v>
+        <v>290.4</v>
       </c>
       <c r="R13">
         <v>3.14</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>46020</v>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>651.20000000000005</v>
+        <v>651.2</v>
       </c>
       <c r="G14">
         <v>15</v>
@@ -1268,18 +1260,18 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>46020</v>
+    <row r="15" spans="1:18">
+      <c r="A15" t="s">
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1318,18 +1310,18 @@
         <v>-0.27</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>46020</v>
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1368,18 +1360,18 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>46021</v>
+    <row r="17" spans="1:18">
+      <c r="A17" t="s">
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1418,18 +1410,18 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>46021</v>
+    <row r="18" spans="1:18">
+      <c r="A18" t="s">
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1450,7 +1442,7 @@
         <v>287.45</v>
       </c>
       <c r="L18">
-        <v>268.66000000000003</v>
+        <v>268.66</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1468,18 +1460,18 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>46021</v>
+    <row r="19" spans="1:18">
+      <c r="A19" t="s">
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1518,18 +1510,18 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>46021</v>
+    <row r="20" spans="1:18">
+      <c r="A20" t="s">
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1568,18 +1560,18 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>46021</v>
+    <row r="21" spans="1:18">
+      <c r="A21" t="s">
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1594,7 +1586,7 @@
         <v>81</v>
       </c>
       <c r="I21">
-        <v>9912.7800000000007</v>
+        <v>9912.780000000001</v>
       </c>
       <c r="J21">
         <v>123.58</v>
@@ -1618,18 +1610,18 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>46021</v>
+    <row r="22" spans="1:18">
+      <c r="A22" t="s">
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1659,33 +1651,33 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>154.80000000000001</v>
+        <v>154.8</v>
       </c>
       <c r="Q22">
-        <v>154.80000000000001</v>
+        <v>154.8</v>
       </c>
       <c r="R22">
         <v>1.95</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>46021</v>
+    <row r="23" spans="1:18">
+      <c r="A23" t="s">
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1024.1500000000001</v>
+        <v>1024.15</v>
       </c>
       <c r="G23">
         <v>9</v>
@@ -1697,10 +1689,10 @@
         <v>9217.35</v>
       </c>
       <c r="J23">
-        <v>1027.3499999999999</v>
+        <v>1027.35</v>
       </c>
       <c r="L23">
-        <v>972.94</v>
+        <v>972.9400000000001</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1718,18 +1710,18 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>46022</v>
+    <row r="24" spans="1:18">
+      <c r="A24" t="s">
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1750,7 +1742,7 @@
         <v>166.46</v>
       </c>
       <c r="L24">
-        <v>158.13999999999999</v>
+        <v>158.14</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1768,18 +1760,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>46022</v>
+    <row r="25" spans="1:18">
+      <c r="A25" t="s">
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1794,7 +1786,7 @@
         <v>9</v>
       </c>
       <c r="I25">
-        <v>9484.2000000000007</v>
+        <v>9484.200000000001</v>
       </c>
       <c r="J25">
         <v>1053.8</v>
@@ -1819,8 +1811,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R25" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:R25"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -10,14 +10,14 @@
     <sheet name="TradeBook" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TradeBook!$A$1:$R$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TradeBook!$A$1:$R$26</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="51">
   <si>
     <t>Buy Date</t>
   </si>
@@ -82,6 +82,9 @@
     <t>2025-12-31</t>
   </si>
   <si>
+    <t>2026-01-01</t>
+  </si>
+  <si>
     <t>ADANIENT</t>
   </si>
   <si>
@@ -152,6 +155,9 @@
   </si>
   <si>
     <t>JINDALSTEL</t>
+  </si>
+  <si>
+    <t>WIPRO</t>
   </si>
   <si>
     <t>Value Buy</t>
@@ -527,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -615,13 +621,13 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -639,7 +645,7 @@
         <v>8812.799999999999</v>
       </c>
       <c r="J2">
-        <v>2239.7</v>
+        <v>2260</v>
       </c>
       <c r="L2">
         <v>2093.04</v>
@@ -651,13 +657,13 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>146</v>
+        <v>227.2</v>
       </c>
       <c r="Q2">
-        <v>146</v>
+        <v>227.2</v>
       </c>
       <c r="R2">
-        <v>1.66</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -665,13 +671,13 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -689,7 +695,7 @@
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1269.4</v>
+        <v>1274.4</v>
       </c>
       <c r="L3">
         <v>1170.4</v>
@@ -701,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>299.2</v>
+        <v>339.2</v>
       </c>
       <c r="Q3">
-        <v>299.2</v>
+        <v>339.2</v>
       </c>
       <c r="R3">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -715,13 +721,13 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -739,7 +745,7 @@
         <v>6041.5</v>
       </c>
       <c r="J4">
-        <v>6031</v>
+        <v>6009.5</v>
       </c>
       <c r="L4">
         <v>5739.43</v>
@@ -751,13 +757,13 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>-10.5</v>
+        <v>-32</v>
       </c>
       <c r="Q4">
-        <v>-10.5</v>
+        <v>-32</v>
       </c>
       <c r="R4">
-        <v>-0.17</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -765,13 +771,13 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -789,7 +795,7 @@
         <v>8527.200000000001</v>
       </c>
       <c r="J5">
-        <v>2829</v>
+        <v>2851.7</v>
       </c>
       <c r="L5">
         <v>2700.28</v>
@@ -801,13 +807,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>-40.2</v>
+        <v>27.9</v>
       </c>
       <c r="Q5">
-        <v>-40.2</v>
+        <v>27.9</v>
       </c>
       <c r="R5">
-        <v>-0.47</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -815,13 +821,13 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -839,7 +845,7 @@
         <v>9173.200000000001</v>
       </c>
       <c r="J6">
-        <v>2315.9</v>
+        <v>2323</v>
       </c>
       <c r="L6">
         <v>2178.64</v>
@@ -851,13 +857,13 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>90.40000000000001</v>
+        <v>118.8</v>
       </c>
       <c r="Q6">
-        <v>90.40000000000001</v>
+        <v>118.8</v>
       </c>
       <c r="R6">
-        <v>0.99</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -865,13 +871,13 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -889,7 +895,7 @@
         <v>8960</v>
       </c>
       <c r="J7">
-        <v>1288</v>
+        <v>1295</v>
       </c>
       <c r="L7">
         <v>1216</v>
@@ -901,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="Q7">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="R7">
-        <v>0.62</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -915,13 +921,13 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -939,7 +945,7 @@
         <v>9722.1</v>
       </c>
       <c r="J8">
-        <v>3238.2</v>
+        <v>3219.1</v>
       </c>
       <c r="L8">
         <v>3078.66</v>
@@ -951,13 +957,13 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>-7.5</v>
+        <v>-64.8</v>
       </c>
       <c r="Q8">
-        <v>-7.5</v>
+        <v>-64.8</v>
       </c>
       <c r="R8">
-        <v>-0.08</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -965,13 +971,13 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -989,7 +995,7 @@
         <v>9162.9</v>
       </c>
       <c r="J9">
-        <v>3063.3</v>
+        <v>3091.3</v>
       </c>
       <c r="L9">
         <v>2901.59</v>
@@ -1001,13 +1007,13 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="Q9">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="R9">
-        <v>0.29</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1015,13 +1021,13 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1039,7 +1045,7 @@
         <v>9227.700000000001</v>
       </c>
       <c r="J10">
-        <v>3075</v>
+        <v>3057.3</v>
       </c>
       <c r="L10">
         <v>2922.11</v>
@@ -1051,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>-2.7</v>
+        <v>-55.8</v>
       </c>
       <c r="Q10">
-        <v>-2.7</v>
+        <v>-55.8</v>
       </c>
       <c r="R10">
-        <v>-0.03</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1065,13 +1071,13 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1089,7 +1095,7 @@
         <v>9993.4</v>
       </c>
       <c r="J11">
-        <v>180.08</v>
+        <v>181.89</v>
       </c>
       <c r="L11">
         <v>163.69</v>
@@ -1101,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>451.24</v>
+        <v>556.22</v>
       </c>
       <c r="Q11">
-        <v>451.24</v>
+        <v>556.22</v>
       </c>
       <c r="R11">
-        <v>4.52</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1115,13 +1121,13 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1139,7 +1145,7 @@
         <v>9674.4</v>
       </c>
       <c r="J12">
-        <v>1590.9</v>
+        <v>1607.7</v>
       </c>
       <c r="L12">
         <v>1531.78</v>
@@ -1151,13 +1157,13 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>-129</v>
+        <v>-28.2</v>
       </c>
       <c r="Q12">
-        <v>-129</v>
+        <v>-28.2</v>
       </c>
       <c r="R12">
-        <v>-1.33</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1165,13 +1171,13 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1189,7 +1195,7 @@
         <v>9251.4</v>
       </c>
       <c r="J13">
-        <v>795.15</v>
+        <v>805.35</v>
       </c>
       <c r="L13">
         <v>732.4</v>
@@ -1201,13 +1207,13 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>290.4</v>
+        <v>412.8</v>
       </c>
       <c r="Q13">
-        <v>290.4</v>
+        <v>412.8</v>
       </c>
       <c r="R13">
-        <v>3.14</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1215,13 +1221,13 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1239,7 +1245,7 @@
         <v>9768</v>
       </c>
       <c r="J14">
-        <v>668.25</v>
+        <v>674.3</v>
       </c>
       <c r="L14">
         <v>618.64</v>
@@ -1251,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>255.75</v>
+        <v>346.5</v>
       </c>
       <c r="Q14">
-        <v>255.75</v>
+        <v>346.5</v>
       </c>
       <c r="R14">
-        <v>2.62</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1265,13 +1271,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1289,7 +1295,7 @@
         <v>9561.6</v>
       </c>
       <c r="J15">
-        <v>1192</v>
+        <v>1176.9</v>
       </c>
       <c r="L15">
         <v>1135.44</v>
@@ -1301,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>-25.6</v>
+        <v>-146.4</v>
       </c>
       <c r="Q15">
-        <v>-25.6</v>
+        <v>-146.4</v>
       </c>
       <c r="R15">
-        <v>-0.27</v>
+        <v>-1.53</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1315,13 +1321,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1339,7 +1345,7 @@
         <v>6033.5</v>
       </c>
       <c r="J16">
-        <v>6063.5</v>
+        <v>6112</v>
       </c>
       <c r="L16">
         <v>5731.82</v>
@@ -1351,13 +1357,13 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>30</v>
+        <v>78.5</v>
       </c>
       <c r="Q16">
-        <v>30</v>
+        <v>78.5</v>
       </c>
       <c r="R16">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1365,13 +1371,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1389,7 +1395,7 @@
         <v>9282</v>
       </c>
       <c r="J17">
-        <v>9343</v>
+        <v>9558</v>
       </c>
       <c r="L17">
         <v>8817.9</v>
@@ -1401,13 +1407,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>61</v>
+        <v>276</v>
       </c>
       <c r="Q17">
-        <v>61</v>
+        <v>276</v>
       </c>
       <c r="R17">
-        <v>0.66</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1415,13 +1421,13 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1439,7 +1445,7 @@
         <v>9898</v>
       </c>
       <c r="J18">
-        <v>287.45</v>
+        <v>291.45</v>
       </c>
       <c r="L18">
         <v>268.66</v>
@@ -1451,13 +1457,13 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>162.75</v>
+        <v>302.75</v>
       </c>
       <c r="Q18">
-        <v>162.75</v>
+        <v>302.75</v>
       </c>
       <c r="R18">
-        <v>1.64</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1465,13 +1471,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1489,7 +1495,7 @@
         <v>9891</v>
       </c>
       <c r="J19">
-        <v>1424.9</v>
+        <v>1417.5</v>
       </c>
       <c r="L19">
         <v>1342.35</v>
@@ -1501,13 +1507,13 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>83.3</v>
+        <v>31.5</v>
       </c>
       <c r="Q19">
-        <v>83.3</v>
+        <v>31.5</v>
       </c>
       <c r="R19">
-        <v>0.84</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1515,13 +1521,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1539,7 +1545,7 @@
         <v>5711</v>
       </c>
       <c r="J20">
-        <v>5771</v>
+        <v>5841.5</v>
       </c>
       <c r="L20">
         <v>5425.45</v>
@@ -1551,13 +1557,13 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>60</v>
+        <v>130.5</v>
       </c>
       <c r="Q20">
-        <v>60</v>
+        <v>130.5</v>
       </c>
       <c r="R20">
-        <v>1.05</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1565,13 +1571,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1589,7 +1595,7 @@
         <v>9912.780000000001</v>
       </c>
       <c r="J21">
-        <v>123.58</v>
+        <v>123.94</v>
       </c>
       <c r="L21">
         <v>116.26</v>
@@ -1601,13 +1607,13 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>97.2</v>
+        <v>126.36</v>
       </c>
       <c r="Q21">
-        <v>97.2</v>
+        <v>126.36</v>
       </c>
       <c r="R21">
-        <v>0.98</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1615,13 +1621,13 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1639,7 +1645,7 @@
         <v>7948.2</v>
       </c>
       <c r="J22">
-        <v>4051.5</v>
+        <v>4049.3</v>
       </c>
       <c r="L22">
         <v>3775.39</v>
@@ -1651,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>154.8</v>
+        <v>150.4</v>
       </c>
       <c r="Q22">
-        <v>154.8</v>
+        <v>150.4</v>
       </c>
       <c r="R22">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1665,13 +1671,13 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1689,7 +1695,7 @@
         <v>9217.35</v>
       </c>
       <c r="J23">
-        <v>1027.35</v>
+        <v>1046.4</v>
       </c>
       <c r="L23">
         <v>972.9400000000001</v>
@@ -1701,13 +1707,13 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>28.8</v>
+        <v>200.25</v>
       </c>
       <c r="Q23">
-        <v>28.8</v>
+        <v>200.25</v>
       </c>
       <c r="R23">
-        <v>0.31</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1715,13 +1721,13 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1739,7 +1745,7 @@
         <v>9987.6</v>
       </c>
       <c r="J24">
-        <v>166.46</v>
+        <v>165.88</v>
       </c>
       <c r="L24">
         <v>158.14</v>
@@ -1751,13 +1757,13 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>-34.8</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>-34.8</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -1765,13 +1771,13 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1789,7 +1795,7 @@
         <v>9484.200000000001</v>
       </c>
       <c r="J25">
-        <v>1053.8</v>
+        <v>1068.4</v>
       </c>
       <c r="L25">
         <v>1001.11</v>
@@ -1801,17 +1807,67 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>131.4</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>131.4</v>
       </c>
       <c r="R25">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>267.35</v>
+      </c>
+      <c r="G26">
+        <v>37</v>
+      </c>
+      <c r="H26">
+        <v>37</v>
+      </c>
+      <c r="I26">
+        <v>9891.950000000001</v>
+      </c>
+      <c r="J26">
+        <v>267.35</v>
+      </c>
+      <c r="L26">
+        <v>253.98</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R25"/>
+  <autoFilter ref="A1:R26"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -10,14 +10,14 @@
     <sheet name="TradeBook" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TradeBook!$A$1:$R$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TradeBook!$A$1:$R$28</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="54">
   <si>
     <t>Buy Date</t>
   </si>
@@ -85,6 +85,9 @@
     <t>2026-01-01</t>
   </si>
   <si>
+    <t>2026-01-02</t>
+  </si>
+  <si>
     <t>ADANIENT</t>
   </si>
   <si>
@@ -158,6 +161,12 @@
   </si>
   <si>
     <t>WIPRO</t>
+  </si>
+  <si>
+    <t>HDFCBANK</t>
+  </si>
+  <si>
+    <t>KOTAKBANK</t>
   </si>
   <si>
     <t>Value Buy</t>
@@ -533,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -621,13 +630,13 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -645,7 +654,7 @@
         <v>8812.799999999999</v>
       </c>
       <c r="J2">
-        <v>2260</v>
+        <v>2279.8</v>
       </c>
       <c r="L2">
         <v>2093.04</v>
@@ -657,13 +666,13 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>227.2</v>
+        <v>306.4</v>
       </c>
       <c r="Q2">
-        <v>227.2</v>
+        <v>306.4</v>
       </c>
       <c r="R2">
-        <v>2.58</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -671,13 +680,13 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -695,7 +704,7 @@
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1274.4</v>
+        <v>1266.9</v>
       </c>
       <c r="L3">
         <v>1170.4</v>
@@ -707,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>339.2</v>
+        <v>279.2</v>
       </c>
       <c r="Q3">
-        <v>339.2</v>
+        <v>279.2</v>
       </c>
       <c r="R3">
-        <v>3.44</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -721,13 +730,13 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -745,7 +754,7 @@
         <v>6041.5</v>
       </c>
       <c r="J4">
-        <v>6009.5</v>
+        <v>5984.5</v>
       </c>
       <c r="L4">
         <v>5739.43</v>
@@ -757,13 +766,13 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>-32</v>
+        <v>-57</v>
       </c>
       <c r="Q4">
-        <v>-32</v>
+        <v>-57</v>
       </c>
       <c r="R4">
-        <v>-0.53</v>
+        <v>-0.9399999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -771,13 +780,13 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -795,7 +804,7 @@
         <v>8527.200000000001</v>
       </c>
       <c r="J5">
-        <v>2851.7</v>
+        <v>2856.4</v>
       </c>
       <c r="L5">
         <v>2700.28</v>
@@ -807,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>27.9</v>
+        <v>42</v>
       </c>
       <c r="Q5">
-        <v>27.9</v>
+        <v>42</v>
       </c>
       <c r="R5">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -821,13 +830,13 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -845,7 +854,7 @@
         <v>9173.200000000001</v>
       </c>
       <c r="J6">
-        <v>2323</v>
+        <v>2348</v>
       </c>
       <c r="L6">
         <v>2178.64</v>
@@ -857,13 +866,13 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>118.8</v>
+        <v>218.8</v>
       </c>
       <c r="Q6">
-        <v>118.8</v>
+        <v>218.8</v>
       </c>
       <c r="R6">
-        <v>1.3</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -871,13 +880,13 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -895,7 +904,7 @@
         <v>8960</v>
       </c>
       <c r="J7">
-        <v>1295</v>
+        <v>1279.7</v>
       </c>
       <c r="L7">
         <v>1216</v>
@@ -907,13 +916,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>105</v>
+        <v>-2.1</v>
       </c>
       <c r="Q7">
-        <v>105</v>
+        <v>-2.1</v>
       </c>
       <c r="R7">
-        <v>1.17</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -921,13 +930,13 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -945,7 +954,7 @@
         <v>9722.1</v>
       </c>
       <c r="J8">
-        <v>3219.1</v>
+        <v>3256.6</v>
       </c>
       <c r="L8">
         <v>3078.66</v>
@@ -957,13 +966,13 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>-64.8</v>
+        <v>47.7</v>
       </c>
       <c r="Q8">
-        <v>-64.8</v>
+        <v>47.7</v>
       </c>
       <c r="R8">
-        <v>-0.67</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -971,13 +980,13 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -995,7 +1004,7 @@
         <v>9162.9</v>
       </c>
       <c r="J9">
-        <v>3091.3</v>
+        <v>3097.7</v>
       </c>
       <c r="L9">
         <v>2901.59</v>
@@ -1007,13 +1016,13 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>111</v>
+        <v>130.2</v>
       </c>
       <c r="Q9">
-        <v>111</v>
+        <v>130.2</v>
       </c>
       <c r="R9">
-        <v>1.21</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1021,13 +1030,13 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1045,7 +1054,7 @@
         <v>9227.700000000001</v>
       </c>
       <c r="J10">
-        <v>3057.3</v>
+        <v>3059.5</v>
       </c>
       <c r="L10">
         <v>2922.11</v>
@@ -1057,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>-55.8</v>
+        <v>-49.2</v>
       </c>
       <c r="Q10">
-        <v>-55.8</v>
+        <v>-49.2</v>
       </c>
       <c r="R10">
-        <v>-0.6</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1071,13 +1080,13 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1095,7 +1104,7 @@
         <v>9993.4</v>
       </c>
       <c r="J11">
-        <v>181.89</v>
+        <v>182.88</v>
       </c>
       <c r="L11">
         <v>163.69</v>
@@ -1107,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>556.22</v>
+        <v>613.64</v>
       </c>
       <c r="Q11">
-        <v>556.22</v>
+        <v>613.64</v>
       </c>
       <c r="R11">
-        <v>5.57</v>
+        <v>6.14</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1121,13 +1130,13 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1145,7 +1154,7 @@
         <v>9674.4</v>
       </c>
       <c r="J12">
-        <v>1607.7</v>
+        <v>1612</v>
       </c>
       <c r="L12">
         <v>1531.78</v>
@@ -1157,13 +1166,13 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>-28.2</v>
+        <v>-2.4</v>
       </c>
       <c r="Q12">
-        <v>-28.2</v>
+        <v>-2.4</v>
       </c>
       <c r="R12">
-        <v>-0.29</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1171,13 +1180,13 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1195,7 +1204,7 @@
         <v>9251.4</v>
       </c>
       <c r="J13">
-        <v>805.35</v>
+        <v>804.65</v>
       </c>
       <c r="L13">
         <v>732.4</v>
@@ -1207,13 +1216,13 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>412.8</v>
+        <v>404.4</v>
       </c>
       <c r="Q13">
-        <v>412.8</v>
+        <v>404.4</v>
       </c>
       <c r="R13">
-        <v>4.46</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1221,13 +1230,13 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1245,7 +1254,7 @@
         <v>9768</v>
       </c>
       <c r="J14">
-        <v>674.3</v>
+        <v>678.3</v>
       </c>
       <c r="L14">
         <v>618.64</v>
@@ -1257,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>346.5</v>
+        <v>406.5</v>
       </c>
       <c r="Q14">
-        <v>346.5</v>
+        <v>406.5</v>
       </c>
       <c r="R14">
-        <v>3.55</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1271,13 +1280,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1295,7 +1304,7 @@
         <v>9561.6</v>
       </c>
       <c r="J15">
-        <v>1176.9</v>
+        <v>1170.7</v>
       </c>
       <c r="L15">
         <v>1135.44</v>
@@ -1307,13 +1316,13 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>-146.4</v>
+        <v>-196</v>
       </c>
       <c r="Q15">
-        <v>-146.4</v>
+        <v>-196</v>
       </c>
       <c r="R15">
-        <v>-1.53</v>
+        <v>-2.05</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1321,13 +1330,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1345,7 +1354,7 @@
         <v>6033.5</v>
       </c>
       <c r="J16">
-        <v>6112</v>
+        <v>6067</v>
       </c>
       <c r="L16">
         <v>5731.82</v>
@@ -1357,13 +1366,13 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>78.5</v>
+        <v>33.5</v>
       </c>
       <c r="Q16">
-        <v>78.5</v>
+        <v>33.5</v>
       </c>
       <c r="R16">
-        <v>1.3</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1371,13 +1380,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1395,7 +1404,7 @@
         <v>9282</v>
       </c>
       <c r="J17">
-        <v>9558</v>
+        <v>9502.5</v>
       </c>
       <c r="L17">
         <v>8817.9</v>
@@ -1407,13 +1416,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>276</v>
+        <v>220.5</v>
       </c>
       <c r="Q17">
-        <v>276</v>
+        <v>220.5</v>
       </c>
       <c r="R17">
-        <v>2.97</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1421,13 +1430,13 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1445,7 +1454,7 @@
         <v>9898</v>
       </c>
       <c r="J18">
-        <v>291.45</v>
+        <v>299.5</v>
       </c>
       <c r="L18">
         <v>268.66</v>
@@ -1457,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>302.75</v>
+        <v>584.5</v>
       </c>
       <c r="Q18">
-        <v>302.75</v>
+        <v>584.5</v>
       </c>
       <c r="R18">
-        <v>3.06</v>
+        <v>5.91</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1471,13 +1480,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1495,7 +1504,7 @@
         <v>9891</v>
       </c>
       <c r="J19">
-        <v>1417.5</v>
+        <v>1439.9</v>
       </c>
       <c r="L19">
         <v>1342.35</v>
@@ -1507,13 +1516,13 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>31.5</v>
+        <v>188.3</v>
       </c>
       <c r="Q19">
-        <v>31.5</v>
+        <v>188.3</v>
       </c>
       <c r="R19">
-        <v>0.32</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1521,13 +1530,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1545,7 +1554,7 @@
         <v>5711</v>
       </c>
       <c r="J20">
-        <v>5841.5</v>
+        <v>5933</v>
       </c>
       <c r="L20">
         <v>5425.45</v>
@@ -1557,13 +1566,13 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>130.5</v>
+        <v>222</v>
       </c>
       <c r="Q20">
-        <v>130.5</v>
+        <v>222</v>
       </c>
       <c r="R20">
-        <v>2.29</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1571,13 +1580,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1595,7 +1604,7 @@
         <v>9912.780000000001</v>
       </c>
       <c r="J21">
-        <v>123.94</v>
+        <v>125.35</v>
       </c>
       <c r="L21">
         <v>116.26</v>
@@ -1607,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>126.36</v>
+        <v>240.57</v>
       </c>
       <c r="Q21">
-        <v>126.36</v>
+        <v>240.57</v>
       </c>
       <c r="R21">
-        <v>1.27</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1621,13 +1630,13 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1645,7 +1654,7 @@
         <v>7948.2</v>
       </c>
       <c r="J22">
-        <v>4049.3</v>
+        <v>4051.7</v>
       </c>
       <c r="L22">
         <v>3775.39</v>
@@ -1657,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>150.4</v>
+        <v>155.2</v>
       </c>
       <c r="Q22">
-        <v>150.4</v>
+        <v>155.2</v>
       </c>
       <c r="R22">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1671,13 +1680,13 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1695,7 +1704,7 @@
         <v>9217.35</v>
       </c>
       <c r="J23">
-        <v>1046.4</v>
+        <v>1057.9</v>
       </c>
       <c r="L23">
         <v>972.9400000000001</v>
@@ -1707,13 +1716,13 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>200.25</v>
+        <v>303.75</v>
       </c>
       <c r="Q23">
-        <v>200.25</v>
+        <v>303.75</v>
       </c>
       <c r="R23">
-        <v>2.17</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1721,13 +1730,13 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1745,7 +1754,7 @@
         <v>9987.6</v>
       </c>
       <c r="J24">
-        <v>165.88</v>
+        <v>166.79</v>
       </c>
       <c r="L24">
         <v>158.14</v>
@@ -1757,13 +1766,13 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>-34.8</v>
+        <v>19.8</v>
       </c>
       <c r="Q24">
-        <v>-34.8</v>
+        <v>19.8</v>
       </c>
       <c r="R24">
-        <v>-0.35</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -1771,13 +1780,13 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1795,7 +1804,7 @@
         <v>9484.200000000001</v>
       </c>
       <c r="J25">
-        <v>1068.4</v>
+        <v>1080.3</v>
       </c>
       <c r="L25">
         <v>1001.11</v>
@@ -1807,13 +1816,13 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>131.4</v>
+        <v>238.5</v>
       </c>
       <c r="Q25">
-        <v>131.4</v>
+        <v>238.5</v>
       </c>
       <c r="R25">
-        <v>1.39</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -1821,13 +1830,13 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1845,7 +1854,7 @@
         <v>9891.950000000001</v>
       </c>
       <c r="J26">
-        <v>267.35</v>
+        <v>269</v>
       </c>
       <c r="L26">
         <v>253.98</v>
@@ -1857,17 +1866,117 @@
         <v>0</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>61.05</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>61.05</v>
       </c>
       <c r="R26">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1001.6</v>
+      </c>
+      <c r="G27">
+        <v>9</v>
+      </c>
+      <c r="H27">
+        <v>9</v>
+      </c>
+      <c r="I27">
+        <v>9014.4</v>
+      </c>
+      <c r="J27">
+        <v>1001.6</v>
+      </c>
+      <c r="L27">
+        <v>951.52</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>439.02</v>
+      </c>
+      <c r="G28">
+        <v>22</v>
+      </c>
+      <c r="H28">
+        <v>22</v>
+      </c>
+      <c r="I28">
+        <v>9658.439999999999</v>
+      </c>
+      <c r="J28">
+        <v>439.02</v>
+      </c>
+      <c r="L28">
+        <v>417.07</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R26"/>
+  <autoFilter ref="A1:R28"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -10,14 +10,14 @@
     <sheet name="TradeBook" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TradeBook!$A$1:$R$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TradeBook!$A$1:$S$29</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="57">
   <si>
     <t>Buy Date</t>
   </si>
@@ -73,6 +73,9 @@
     <t>PnL_Percentage</t>
   </si>
   <si>
+    <t>Measurement_Date</t>
+  </si>
+  <si>
     <t>12/29/2025</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t>2026-01-02</t>
   </si>
   <si>
+    <t>2026-01-05</t>
+  </si>
+  <si>
     <t>ADANIENT</t>
   </si>
   <si>
@@ -167,6 +173,9 @@
   </si>
   <si>
     <t>KOTAKBANK</t>
+  </si>
+  <si>
+    <t>ICICIGI</t>
   </si>
   <si>
     <t>Value Buy</t>
@@ -542,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -563,13 +572,14 @@
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
     <col min="13" max="13" width="12.7109375" customWidth="1"/>
     <col min="14" max="14" width="13.7109375" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" customWidth="1"/>
     <col min="16" max="16" width="16.7109375" customWidth="1"/>
     <col min="17" max="17" width="11.7109375" customWidth="1"/>
     <col min="18" max="18" width="16.7109375" customWidth="1"/>
+    <col min="19" max="19" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,19 +634,22 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -654,7 +667,7 @@
         <v>8812.799999999999</v>
       </c>
       <c r="J2">
-        <v>2279.8</v>
+        <v>2279.5</v>
       </c>
       <c r="L2">
         <v>2093.04</v>
@@ -666,27 +679,27 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>306.4</v>
+        <v>305.2</v>
       </c>
       <c r="Q2">
-        <v>306.4</v>
+        <v>305.2</v>
       </c>
       <c r="R2">
-        <v>3.48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -704,7 +717,7 @@
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1266.9</v>
+        <v>1285.8</v>
       </c>
       <c r="L3">
         <v>1170.4</v>
@@ -716,27 +729,27 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>279.2</v>
+        <v>430.4</v>
       </c>
       <c r="Q3">
-        <v>279.2</v>
+        <v>430.4</v>
       </c>
       <c r="R3">
-        <v>2.83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -754,7 +767,7 @@
         <v>6041.5</v>
       </c>
       <c r="J4">
-        <v>5984.5</v>
+        <v>6026.5</v>
       </c>
       <c r="L4">
         <v>5739.43</v>
@@ -766,27 +779,27 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>-57</v>
+        <v>-15</v>
       </c>
       <c r="Q4">
-        <v>-57</v>
+        <v>-15</v>
       </c>
       <c r="R4">
-        <v>-0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -804,7 +817,7 @@
         <v>8527.200000000001</v>
       </c>
       <c r="J5">
-        <v>2856.4</v>
+        <v>2848.9</v>
       </c>
       <c r="L5">
         <v>2700.28</v>
@@ -816,27 +829,27 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>42</v>
+        <v>19.5</v>
       </c>
       <c r="Q5">
-        <v>42</v>
+        <v>19.5</v>
       </c>
       <c r="R5">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -854,7 +867,7 @@
         <v>9173.200000000001</v>
       </c>
       <c r="J6">
-        <v>2348</v>
+        <v>2384.1</v>
       </c>
       <c r="L6">
         <v>2178.64</v>
@@ -866,27 +879,27 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>218.8</v>
+        <v>363.2</v>
       </c>
       <c r="Q6">
-        <v>218.8</v>
+        <v>363.2</v>
       </c>
       <c r="R6">
-        <v>2.39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -904,7 +917,7 @@
         <v>8960</v>
       </c>
       <c r="J7">
-        <v>1279.7</v>
+        <v>1314.6</v>
       </c>
       <c r="L7">
         <v>1216</v>
@@ -916,27 +929,27 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>-2.1</v>
+        <v>242.2</v>
       </c>
       <c r="Q7">
-        <v>-2.1</v>
+        <v>242.2</v>
       </c>
       <c r="R7">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -954,7 +967,7 @@
         <v>9722.1</v>
       </c>
       <c r="J8">
-        <v>3256.6</v>
+        <v>3263.6</v>
       </c>
       <c r="L8">
         <v>3078.66</v>
@@ -966,27 +979,27 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>47.7</v>
+        <v>68.7</v>
       </c>
       <c r="Q8">
-        <v>47.7</v>
+        <v>68.7</v>
       </c>
       <c r="R8">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1004,7 +1017,7 @@
         <v>9162.9</v>
       </c>
       <c r="J9">
-        <v>3097.7</v>
+        <v>3086.6</v>
       </c>
       <c r="L9">
         <v>2901.59</v>
@@ -1016,27 +1029,27 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>130.2</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="Q9">
-        <v>130.2</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="R9">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1054,7 +1067,7 @@
         <v>9227.700000000001</v>
       </c>
       <c r="J10">
-        <v>3059.5</v>
+        <v>3089.3</v>
       </c>
       <c r="L10">
         <v>2922.11</v>
@@ -1066,30 +1079,30 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>-49.2</v>
+        <v>40.2</v>
       </c>
       <c r="Q10">
-        <v>-49.2</v>
+        <v>40.2</v>
       </c>
       <c r="R10">
-        <v>-0.53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>172.3</v>
@@ -1104,10 +1117,10 @@
         <v>9993.4</v>
       </c>
       <c r="J11">
-        <v>182.88</v>
+        <v>185.72</v>
       </c>
       <c r="L11">
-        <v>163.69</v>
+        <v>172.3</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1116,27 +1129,27 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>613.64</v>
+        <v>778.36</v>
       </c>
       <c r="Q11">
-        <v>613.64</v>
+        <v>778.36</v>
       </c>
       <c r="R11">
-        <v>6.14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>7.79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1154,7 +1167,7 @@
         <v>9674.4</v>
       </c>
       <c r="J12">
-        <v>1612</v>
+        <v>1596.9</v>
       </c>
       <c r="L12">
         <v>1531.78</v>
@@ -1166,27 +1179,27 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>-2.4</v>
+        <v>-93</v>
       </c>
       <c r="Q12">
-        <v>-2.4</v>
+        <v>-93</v>
       </c>
       <c r="R12">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>-0.96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1204,7 +1217,7 @@
         <v>9251.4</v>
       </c>
       <c r="J13">
-        <v>804.65</v>
+        <v>805.1</v>
       </c>
       <c r="L13">
         <v>732.4</v>
@@ -1216,27 +1229,27 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>404.4</v>
+        <v>409.8</v>
       </c>
       <c r="Q13">
-        <v>404.4</v>
+        <v>409.8</v>
       </c>
       <c r="R13">
-        <v>4.37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1254,7 +1267,7 @@
         <v>9768</v>
       </c>
       <c r="J14">
-        <v>678.3</v>
+        <v>683.85</v>
       </c>
       <c r="L14">
         <v>618.64</v>
@@ -1266,27 +1279,27 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>406.5</v>
+        <v>489.75</v>
       </c>
       <c r="Q14">
-        <v>406.5</v>
+        <v>489.75</v>
       </c>
       <c r="R14">
-        <v>4.16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1304,7 +1317,7 @@
         <v>9561.6</v>
       </c>
       <c r="J15">
-        <v>1170.7</v>
+        <v>1182.1</v>
       </c>
       <c r="L15">
         <v>1135.44</v>
@@ -1316,27 +1329,27 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>-196</v>
+        <v>-104.8</v>
       </c>
       <c r="Q15">
-        <v>-196</v>
+        <v>-104.8</v>
       </c>
       <c r="R15">
-        <v>-2.05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>-1.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1354,7 +1367,7 @@
         <v>6033.5</v>
       </c>
       <c r="J16">
-        <v>6067</v>
+        <v>6059</v>
       </c>
       <c r="L16">
         <v>5731.82</v>
@@ -1366,27 +1379,27 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>33.5</v>
+        <v>25.5</v>
       </c>
       <c r="Q16">
-        <v>33.5</v>
+        <v>25.5</v>
       </c>
       <c r="R16">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1404,7 +1417,7 @@
         <v>9282</v>
       </c>
       <c r="J17">
-        <v>9502.5</v>
+        <v>9497.5</v>
       </c>
       <c r="L17">
         <v>8817.9</v>
@@ -1416,27 +1429,27 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>220.5</v>
+        <v>215.5</v>
       </c>
       <c r="Q17">
-        <v>220.5</v>
+        <v>215.5</v>
       </c>
       <c r="R17">
-        <v>2.38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1454,7 +1467,7 @@
         <v>9898</v>
       </c>
       <c r="J18">
-        <v>299.5</v>
+        <v>300.05</v>
       </c>
       <c r="L18">
         <v>268.66</v>
@@ -1466,27 +1479,27 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>584.5</v>
+        <v>603.75</v>
       </c>
       <c r="Q18">
-        <v>584.5</v>
+        <v>603.75</v>
       </c>
       <c r="R18">
-        <v>5.91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1504,7 +1517,7 @@
         <v>9891</v>
       </c>
       <c r="J19">
-        <v>1439.9</v>
+        <v>1451.4</v>
       </c>
       <c r="L19">
         <v>1342.35</v>
@@ -1516,27 +1529,27 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>188.3</v>
+        <v>268.8</v>
       </c>
       <c r="Q19">
-        <v>188.3</v>
+        <v>268.8</v>
       </c>
       <c r="R19">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1554,7 +1567,7 @@
         <v>5711</v>
       </c>
       <c r="J20">
-        <v>5933</v>
+        <v>5985.5</v>
       </c>
       <c r="L20">
         <v>5425.45</v>
@@ -1566,27 +1579,27 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>222</v>
+        <v>274.5</v>
       </c>
       <c r="Q20">
-        <v>222</v>
+        <v>274.5</v>
       </c>
       <c r="R20">
-        <v>3.89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>4.81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1604,7 +1617,7 @@
         <v>9912.780000000001</v>
       </c>
       <c r="J21">
-        <v>125.35</v>
+        <v>125.08</v>
       </c>
       <c r="L21">
         <v>116.26</v>
@@ -1616,27 +1629,27 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>240.57</v>
+        <v>218.7</v>
       </c>
       <c r="Q21">
-        <v>240.57</v>
+        <v>218.7</v>
       </c>
       <c r="R21">
-        <v>2.43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1654,7 +1667,7 @@
         <v>7948.2</v>
       </c>
       <c r="J22">
-        <v>4051.7</v>
+        <v>4079.7</v>
       </c>
       <c r="L22">
         <v>3775.39</v>
@@ -1666,27 +1679,27 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>155.2</v>
+        <v>211.2</v>
       </c>
       <c r="Q22">
-        <v>155.2</v>
+        <v>211.2</v>
       </c>
       <c r="R22">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1704,7 +1717,7 @@
         <v>9217.35</v>
       </c>
       <c r="J23">
-        <v>1057.9</v>
+        <v>1044.9</v>
       </c>
       <c r="L23">
         <v>972.9400000000001</v>
@@ -1716,27 +1729,27 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>303.75</v>
+        <v>186.75</v>
       </c>
       <c r="Q23">
-        <v>303.75</v>
+        <v>186.75</v>
       </c>
       <c r="R23">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1754,7 +1767,7 @@
         <v>9987.6</v>
       </c>
       <c r="J24">
-        <v>166.79</v>
+        <v>165.01</v>
       </c>
       <c r="L24">
         <v>158.14</v>
@@ -1766,27 +1779,27 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>19.8</v>
+        <v>-87</v>
       </c>
       <c r="Q24">
-        <v>19.8</v>
+        <v>-87</v>
       </c>
       <c r="R24">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>-0.87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1804,7 +1817,7 @@
         <v>9484.200000000001</v>
       </c>
       <c r="J25">
-        <v>1080.3</v>
+        <v>1081.6</v>
       </c>
       <c r="L25">
         <v>1001.11</v>
@@ -1816,27 +1829,27 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>238.5</v>
+        <v>250.2</v>
       </c>
       <c r="Q25">
-        <v>238.5</v>
+        <v>250.2</v>
       </c>
       <c r="R25">
-        <v>2.51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1854,7 +1867,7 @@
         <v>9891.950000000001</v>
       </c>
       <c r="J26">
-        <v>269</v>
+        <v>263.3</v>
       </c>
       <c r="L26">
         <v>253.98</v>
@@ -1866,27 +1879,27 @@
         <v>0</v>
       </c>
       <c r="P26">
-        <v>61.05</v>
+        <v>-149.85</v>
       </c>
       <c r="Q26">
-        <v>61.05</v>
+        <v>-149.85</v>
       </c>
       <c r="R26">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
+        <v>-1.51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1904,7 +1917,7 @@
         <v>9014.4</v>
       </c>
       <c r="J27">
-        <v>1001.6</v>
+        <v>977.5</v>
       </c>
       <c r="L27">
         <v>951.52</v>
@@ -1916,30 +1929,30 @@
         <v>0</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>-216.9</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>-216.9</v>
       </c>
       <c r="R27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+        <v>-2.41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F28">
         <v>439.02</v>
@@ -1948,35 +1961,88 @@
         <v>22</v>
       </c>
       <c r="H28">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I28">
-        <v>9658.439999999999</v>
+        <v>9658.440000000001</v>
       </c>
       <c r="J28">
-        <v>439.02</v>
+        <v>2190.9</v>
       </c>
       <c r="L28">
-        <v>417.07</v>
+        <v>460.97</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>482.9220000000005</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>19270.68</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>19753.6</v>
       </c>
       <c r="R28">
+        <v>204.52</v>
+      </c>
+      <c r="S28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1979.9</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>9899.5</v>
+      </c>
+      <c r="J29">
+        <v>1979.9</v>
+      </c>
+      <c r="L29">
+        <v>1880.9</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R28"/>
+  <autoFilter ref="A1:S29"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -10,14 +10,14 @@
     <sheet name="TradeBook" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TradeBook!$A$1:$S$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TradeBook!$A$1:$S$34</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="65">
   <si>
     <t>Buy Date</t>
   </si>
@@ -94,6 +94,9 @@
     <t>2026-01-05</t>
   </si>
   <si>
+    <t>2026-01-06</t>
+  </si>
+  <si>
     <t>ADANIENT</t>
   </si>
   <si>
@@ -178,6 +181,21 @@
     <t>ICICIGI</t>
   </si>
   <si>
+    <t>SBICARD</t>
+  </si>
+  <si>
+    <t>DIVISLAB</t>
+  </si>
+  <si>
+    <t>ATGL</t>
+  </si>
+  <si>
+    <t>HDFCLIFE</t>
+  </si>
+  <si>
+    <t>IRCTC</t>
+  </si>
+  <si>
     <t>Value Buy</t>
   </si>
   <si>
@@ -188,6 +206,12 @@
   </si>
   <si>
     <t>OPEN</t>
+  </si>
+  <si>
+    <t>CLOSED</t>
+  </si>
+  <si>
+    <t>SL Hit</t>
   </si>
 </sst>
 </file>
@@ -551,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -568,11 +592,11 @@
     <col min="7" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
     <col min="13" max="13" width="12.7109375" customWidth="1"/>
     <col min="14" max="14" width="13.7109375" customWidth="1"/>
-    <col min="15" max="15" width="19.7109375" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" customWidth="1"/>
     <col min="16" max="16" width="16.7109375" customWidth="1"/>
     <col min="17" max="17" width="11.7109375" customWidth="1"/>
     <col min="18" max="18" width="16.7109375" customWidth="1"/>
@@ -643,13 +667,13 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -667,7 +691,7 @@
         <v>8812.799999999999</v>
       </c>
       <c r="J2">
-        <v>2279.5</v>
+        <v>2259.1</v>
       </c>
       <c r="L2">
         <v>2093.04</v>
@@ -679,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>305.2</v>
+        <v>223.6</v>
       </c>
       <c r="Q2">
-        <v>305.2</v>
+        <v>223.6</v>
       </c>
       <c r="R2">
-        <v>3.46</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -693,13 +717,13 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -717,7 +741,7 @@
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1285.8</v>
+        <v>1293.8</v>
       </c>
       <c r="L3">
         <v>1170.4</v>
@@ -729,13 +753,13 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>430.4</v>
+        <v>494.4</v>
       </c>
       <c r="Q3">
-        <v>430.4</v>
+        <v>494.4</v>
       </c>
       <c r="R3">
-        <v>4.37</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -743,13 +767,13 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -767,7 +791,7 @@
         <v>6041.5</v>
       </c>
       <c r="J4">
-        <v>6026.5</v>
+        <v>6129.5</v>
       </c>
       <c r="L4">
         <v>5739.43</v>
@@ -779,13 +803,13 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>-15</v>
+        <v>88</v>
       </c>
       <c r="Q4">
-        <v>-15</v>
+        <v>88</v>
       </c>
       <c r="R4">
-        <v>-0.25</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -793,13 +817,13 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -817,7 +841,7 @@
         <v>8527.200000000001</v>
       </c>
       <c r="J5">
-        <v>2848.9</v>
+        <v>2865.3</v>
       </c>
       <c r="L5">
         <v>2700.28</v>
@@ -829,13 +853,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>19.5</v>
+        <v>68.7</v>
       </c>
       <c r="Q5">
-        <v>19.5</v>
+        <v>68.7</v>
       </c>
       <c r="R5">
-        <v>0.23</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -843,13 +867,13 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -867,7 +891,7 @@
         <v>9173.200000000001</v>
       </c>
       <c r="J6">
-        <v>2384.1</v>
+        <v>2424.7</v>
       </c>
       <c r="L6">
         <v>2178.64</v>
@@ -879,13 +903,13 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>363.2</v>
+        <v>525.6</v>
       </c>
       <c r="Q6">
-        <v>363.2</v>
+        <v>525.6</v>
       </c>
       <c r="R6">
-        <v>3.96</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -893,13 +917,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -917,7 +941,7 @@
         <v>8960</v>
       </c>
       <c r="J7">
-        <v>1314.6</v>
+        <v>1319.9</v>
       </c>
       <c r="L7">
         <v>1216</v>
@@ -929,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>242.2</v>
+        <v>279.3</v>
       </c>
       <c r="Q7">
-        <v>242.2</v>
+        <v>279.3</v>
       </c>
       <c r="R7">
-        <v>2.7</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -943,13 +967,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -967,7 +991,7 @@
         <v>9722.1</v>
       </c>
       <c r="J8">
-        <v>3263.6</v>
+        <v>3275.5</v>
       </c>
       <c r="L8">
         <v>3078.66</v>
@@ -979,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>68.7</v>
+        <v>104.4</v>
       </c>
       <c r="Q8">
-        <v>68.7</v>
+        <v>104.4</v>
       </c>
       <c r="R8">
-        <v>0.71</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -993,13 +1017,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1017,7 +1041,7 @@
         <v>9162.9</v>
       </c>
       <c r="J9">
-        <v>3086.6</v>
+        <v>3128.1</v>
       </c>
       <c r="L9">
         <v>2901.59</v>
@@ -1029,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>96.90000000000001</v>
+        <v>221.4</v>
       </c>
       <c r="Q9">
-        <v>96.90000000000001</v>
+        <v>221.4</v>
       </c>
       <c r="R9">
-        <v>1.06</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1043,13 +1067,13 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1067,7 +1091,7 @@
         <v>9227.700000000001</v>
       </c>
       <c r="J10">
-        <v>3089.3</v>
+        <v>3051.4</v>
       </c>
       <c r="L10">
         <v>2922.11</v>
@@ -1079,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>40.2</v>
+        <v>-73.5</v>
       </c>
       <c r="Q10">
-        <v>40.2</v>
+        <v>-73.5</v>
       </c>
       <c r="R10">
-        <v>0.44</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1093,13 +1117,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1117,7 +1141,7 @@
         <v>9993.4</v>
       </c>
       <c r="J11">
-        <v>185.72</v>
+        <v>186.2</v>
       </c>
       <c r="L11">
         <v>172.3</v>
@@ -1129,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>778.36</v>
+        <v>806.2</v>
       </c>
       <c r="Q11">
-        <v>778.36</v>
+        <v>806.2</v>
       </c>
       <c r="R11">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1143,13 +1167,13 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1167,7 +1191,7 @@
         <v>9674.4</v>
       </c>
       <c r="J12">
-        <v>1596.9</v>
+        <v>1601.8</v>
       </c>
       <c r="L12">
         <v>1531.78</v>
@@ -1179,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>-93</v>
+        <v>-63.6</v>
       </c>
       <c r="Q12">
-        <v>-93</v>
+        <v>-63.6</v>
       </c>
       <c r="R12">
-        <v>-0.96</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1193,13 +1217,13 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1217,7 +1241,7 @@
         <v>9251.4</v>
       </c>
       <c r="J13">
-        <v>805.1</v>
+        <v>799.3</v>
       </c>
       <c r="L13">
         <v>732.4</v>
@@ -1229,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>409.8</v>
+        <v>340.2</v>
       </c>
       <c r="Q13">
-        <v>409.8</v>
+        <v>340.2</v>
       </c>
       <c r="R13">
-        <v>4.43</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1243,13 +1267,13 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1267,7 +1291,7 @@
         <v>9768</v>
       </c>
       <c r="J14">
-        <v>683.85</v>
+        <v>688.45</v>
       </c>
       <c r="L14">
         <v>618.64</v>
@@ -1279,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>489.75</v>
+        <v>558.75</v>
       </c>
       <c r="Q14">
-        <v>489.75</v>
+        <v>558.75</v>
       </c>
       <c r="R14">
-        <v>5.01</v>
+        <v>5.72</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1293,13 +1317,13 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1317,7 +1341,7 @@
         <v>9561.6</v>
       </c>
       <c r="J15">
-        <v>1182.1</v>
+        <v>1210.4</v>
       </c>
       <c r="L15">
         <v>1135.44</v>
@@ -1329,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>-104.8</v>
+        <v>121.6</v>
       </c>
       <c r="Q15">
-        <v>-104.8</v>
+        <v>121.6</v>
       </c>
       <c r="R15">
-        <v>-1.1</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1343,13 +1367,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1367,7 +1391,7 @@
         <v>6033.5</v>
       </c>
       <c r="J16">
-        <v>6059</v>
+        <v>5982.5</v>
       </c>
       <c r="L16">
         <v>5731.82</v>
@@ -1379,13 +1403,13 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>25.5</v>
+        <v>-51</v>
       </c>
       <c r="Q16">
-        <v>25.5</v>
+        <v>-51</v>
       </c>
       <c r="R16">
-        <v>0.42</v>
+        <v>-0.85</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1393,13 +1417,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1417,7 +1441,7 @@
         <v>9282</v>
       </c>
       <c r="J17">
-        <v>9497.5</v>
+        <v>9661</v>
       </c>
       <c r="L17">
         <v>8817.9</v>
@@ -1429,13 +1453,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>215.5</v>
+        <v>379</v>
       </c>
       <c r="Q17">
-        <v>215.5</v>
+        <v>379</v>
       </c>
       <c r="R17">
-        <v>2.32</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1443,13 +1467,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1467,7 +1491,7 @@
         <v>9898</v>
       </c>
       <c r="J18">
-        <v>300.05</v>
+        <v>296.95</v>
       </c>
       <c r="L18">
         <v>268.66</v>
@@ -1479,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>603.75</v>
+        <v>495.25</v>
       </c>
       <c r="Q18">
-        <v>603.75</v>
+        <v>495.25</v>
       </c>
       <c r="R18">
-        <v>6.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1493,13 +1517,13 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1517,7 +1541,7 @@
         <v>9891</v>
       </c>
       <c r="J19">
-        <v>1451.4</v>
+        <v>1501.7</v>
       </c>
       <c r="L19">
         <v>1342.35</v>
@@ -1529,13 +1553,13 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>268.8</v>
+        <v>620.9</v>
       </c>
       <c r="Q19">
-        <v>268.8</v>
+        <v>620.9</v>
       </c>
       <c r="R19">
-        <v>2.72</v>
+        <v>6.28</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -1543,13 +1567,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1567,7 +1591,7 @@
         <v>5711</v>
       </c>
       <c r="J20">
-        <v>5985.5</v>
+        <v>6000</v>
       </c>
       <c r="L20">
         <v>5425.45</v>
@@ -1579,13 +1603,13 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>274.5</v>
+        <v>289</v>
       </c>
       <c r="Q20">
-        <v>274.5</v>
+        <v>289</v>
       </c>
       <c r="R20">
-        <v>4.81</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -1593,13 +1617,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1617,7 +1641,7 @@
         <v>9912.780000000001</v>
       </c>
       <c r="J21">
-        <v>125.08</v>
+        <v>125.47</v>
       </c>
       <c r="L21">
         <v>116.26</v>
@@ -1629,13 +1653,13 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>218.7</v>
+        <v>250.29</v>
       </c>
       <c r="Q21">
-        <v>218.7</v>
+        <v>250.29</v>
       </c>
       <c r="R21">
-        <v>2.21</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -1643,13 +1667,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1667,7 +1691,7 @@
         <v>7948.2</v>
       </c>
       <c r="J22">
-        <v>4079.7</v>
+        <v>4111.8</v>
       </c>
       <c r="L22">
         <v>3775.39</v>
@@ -1679,13 +1703,13 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>211.2</v>
+        <v>275.4</v>
       </c>
       <c r="Q22">
-        <v>211.2</v>
+        <v>275.4</v>
       </c>
       <c r="R22">
-        <v>2.66</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -1693,13 +1717,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1717,7 +1741,7 @@
         <v>9217.35</v>
       </c>
       <c r="J23">
-        <v>1044.9</v>
+        <v>1044.1</v>
       </c>
       <c r="L23">
         <v>972.9400000000001</v>
@@ -1729,13 +1753,13 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>186.75</v>
+        <v>179.55</v>
       </c>
       <c r="Q23">
-        <v>186.75</v>
+        <v>179.55</v>
       </c>
       <c r="R23">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -1743,13 +1767,13 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1767,7 +1791,7 @@
         <v>9987.6</v>
       </c>
       <c r="J24">
-        <v>165.01</v>
+        <v>164</v>
       </c>
       <c r="L24">
         <v>158.14</v>
@@ -1779,13 +1803,13 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>-87</v>
+        <v>-147.6</v>
       </c>
       <c r="Q24">
-        <v>-87</v>
+        <v>-147.6</v>
       </c>
       <c r="R24">
-        <v>-0.87</v>
+        <v>-1.48</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -1793,13 +1817,13 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1817,7 +1841,7 @@
         <v>9484.200000000001</v>
       </c>
       <c r="J25">
-        <v>1081.6</v>
+        <v>1079.8</v>
       </c>
       <c r="L25">
         <v>1001.11</v>
@@ -1829,13 +1853,13 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>250.2</v>
+        <v>234</v>
       </c>
       <c r="Q25">
-        <v>250.2</v>
+        <v>234</v>
       </c>
       <c r="R25">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -1843,13 +1867,13 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1867,7 +1891,7 @@
         <v>9891.950000000001</v>
       </c>
       <c r="J26">
-        <v>263.3</v>
+        <v>265.6</v>
       </c>
       <c r="L26">
         <v>253.98</v>
@@ -1879,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="P26">
-        <v>-149.85</v>
+        <v>-64.75</v>
       </c>
       <c r="Q26">
-        <v>-149.85</v>
+        <v>-64.75</v>
       </c>
       <c r="R26">
-        <v>-1.51</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -1893,13 +1917,13 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1917,7 +1941,7 @@
         <v>9014.4</v>
       </c>
       <c r="J27">
-        <v>977.5</v>
+        <v>962.2</v>
       </c>
       <c r="L27">
         <v>951.52</v>
@@ -1929,13 +1953,13 @@
         <v>0</v>
       </c>
       <c r="P27">
-        <v>-216.9</v>
+        <v>-354.6</v>
       </c>
       <c r="Q27">
-        <v>-216.9</v>
+        <v>-354.6</v>
       </c>
       <c r="R27">
-        <v>-2.41</v>
+        <v>-3.93</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -1943,16 +1967,16 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>439.02</v>
@@ -1961,7 +1985,7 @@
         <v>22</v>
       </c>
       <c r="H28">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>9658.440000000001</v>
@@ -1969,20 +1993,26 @@
       <c r="J28">
         <v>2190.9</v>
       </c>
+      <c r="K28" t="s">
+        <v>25</v>
+      </c>
       <c r="L28">
-        <v>460.97</v>
+        <v>2190.9</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>2190.9</v>
+      </c>
+      <c r="N28" t="s">
+        <v>64</v>
       </c>
       <c r="O28">
-        <v>482.9220000000005</v>
+        <v>19753.602</v>
       </c>
       <c r="P28">
-        <v>19270.68</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>19753.6</v>
+        <v>19753.602</v>
       </c>
       <c r="R28">
         <v>204.52</v>
@@ -1996,13 +2026,13 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2020,7 +2050,7 @@
         <v>9899.5</v>
       </c>
       <c r="J29">
-        <v>1979.9</v>
+        <v>2010</v>
       </c>
       <c r="L29">
         <v>1880.9</v>
@@ -2032,17 +2062,267 @@
         <v>0</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>150.5</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>150.5</v>
       </c>
       <c r="R29">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>901.55</v>
+      </c>
+      <c r="G30">
+        <v>11</v>
+      </c>
+      <c r="H30">
+        <v>11</v>
+      </c>
+      <c r="I30">
+        <v>9917.049999999999</v>
+      </c>
+      <c r="J30">
+        <v>901.55</v>
+      </c>
+      <c r="L30">
+        <v>856.47</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>6642.5</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>6642.5</v>
+      </c>
+      <c r="J31">
+        <v>6642.5</v>
+      </c>
+      <c r="L31">
+        <v>6310.38</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>570.35</v>
+      </c>
+      <c r="G32">
+        <v>17</v>
+      </c>
+      <c r="H32">
+        <v>17</v>
+      </c>
+      <c r="I32">
+        <v>9695.950000000001</v>
+      </c>
+      <c r="J32">
+        <v>570.35</v>
+      </c>
+      <c r="L32">
+        <v>541.83</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>777.85</v>
+      </c>
+      <c r="G33">
+        <v>12</v>
+      </c>
+      <c r="H33">
+        <v>12</v>
+      </c>
+      <c r="I33">
+        <v>9334.200000000001</v>
+      </c>
+      <c r="J33">
+        <v>777.85</v>
+      </c>
+      <c r="L33">
+        <v>738.96</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>671.2</v>
+      </c>
+      <c r="G34">
+        <v>14</v>
+      </c>
+      <c r="H34">
+        <v>14</v>
+      </c>
+      <c r="I34">
+        <v>9396.800000000001</v>
+      </c>
+      <c r="J34">
+        <v>671.2</v>
+      </c>
+      <c r="L34">
+        <v>637.64</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S29"/>
+  <autoFilter ref="A1:S34"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -2297,7 +2297,7 @@
         <v>14</v>
       </c>
       <c r="I34">
-        <v>9396.800000000001</v>
+        <v>9396.799999999999</v>
       </c>
       <c r="J34">
         <v>671.2</v>

--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="64">
   <si>
     <t>Buy Date</t>
   </si>
@@ -97,6 +97,9 @@
     <t>2026-01-06</t>
   </si>
   <si>
+    <t>2022-12-02</t>
+  </si>
+  <si>
     <t>ADANIENT</t>
   </si>
   <si>
@@ -175,9 +178,6 @@
     <t>HDFCBANK</t>
   </si>
   <si>
-    <t>KOTAKBANK</t>
-  </si>
-  <si>
     <t>ICICIGI</t>
   </si>
   <si>
@@ -196,6 +196,9 @@
     <t>IRCTC</t>
   </si>
   <si>
+    <t>LTI</t>
+  </si>
+  <si>
     <t>Value Buy</t>
   </si>
   <si>
@@ -206,12 +209,6 @@
   </si>
   <si>
     <t>OPEN</t>
-  </si>
-  <si>
-    <t>CLOSED</t>
-  </si>
-  <si>
-    <t>SL Hit</t>
   </si>
 </sst>
 </file>
@@ -592,7 +589,7 @@
     <col min="7" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
     <col min="13" max="13" width="12.7109375" customWidth="1"/>
     <col min="14" max="14" width="13.7109375" customWidth="1"/>
@@ -667,13 +664,13 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -717,13 +714,13 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -767,13 +764,13 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -817,13 +814,13 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -867,13 +864,13 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -917,13 +914,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -967,13 +964,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1017,13 +1014,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1067,13 +1064,13 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1117,13 +1114,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1167,13 +1164,13 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1217,13 +1214,13 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1267,13 +1264,13 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1317,13 +1314,13 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1367,13 +1364,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1412,18 +1409,18 @@
         <v>-0.85</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1462,18 +1459,18 @@
         <v>4.08</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1512,18 +1509,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1562,18 +1559,18 @@
         <v>6.28</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1612,18 +1609,18 @@
         <v>5.06</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1662,18 +1659,18 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1712,18 +1709,18 @@
         <v>3.46</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1762,18 +1759,18 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1812,18 +1809,18 @@
         <v>-1.48</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1862,18 +1859,18 @@
         <v>2.47</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1912,18 +1909,18 @@
         <v>-0.65</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1962,98 +1959,89 @@
         <v>-3.93</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D28" t="s">
         <v>63</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>439.02</v>
+        <v>1979.9</v>
       </c>
       <c r="G28">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I28">
-        <v>9658.440000000001</v>
+        <v>9899.5</v>
       </c>
       <c r="J28">
-        <v>2190.9</v>
-      </c>
-      <c r="K28" t="s">
+        <v>2010</v>
+      </c>
+      <c r="L28">
+        <v>1880.9</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>150.5</v>
+      </c>
+      <c r="Q28">
+        <v>150.5</v>
+      </c>
+      <c r="R28">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="L28">
-        <v>2190.9</v>
-      </c>
-      <c r="M28">
-        <v>2190.9</v>
-      </c>
-      <c r="N28" t="s">
-        <v>64</v>
-      </c>
-      <c r="O28">
-        <v>19753.602</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>19753.602</v>
-      </c>
-      <c r="R28">
-        <v>204.52</v>
-      </c>
-      <c r="S28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1979.9</v>
+        <v>901.55</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I29">
-        <v>9899.5</v>
+        <v>9917.049999999999</v>
       </c>
       <c r="J29">
-        <v>2010</v>
+        <v>901.55</v>
       </c>
       <c r="L29">
-        <v>1880.9</v>
+        <v>856.47</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -2062,48 +2050,48 @@
         <v>0</v>
       </c>
       <c r="P29">
-        <v>150.5</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>150.5</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>901.55</v>
+        <v>6642.5</v>
       </c>
       <c r="G30">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>9917.049999999999</v>
+        <v>6642.5</v>
       </c>
       <c r="J30">
-        <v>901.55</v>
+        <v>6642.5</v>
       </c>
       <c r="L30">
-        <v>856.47</v>
+        <v>6310.38</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -2121,39 +2109,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>6642.5</v>
+        <v>570.35</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I31">
-        <v>6642.5</v>
+        <v>9695.950000000001</v>
       </c>
       <c r="J31">
-        <v>6642.5</v>
+        <v>570.35</v>
       </c>
       <c r="L31">
-        <v>6310.38</v>
+        <v>541.83</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -2171,39 +2159,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>570.35</v>
+        <v>777.85</v>
       </c>
       <c r="G32">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H32">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I32">
-        <v>9695.950000000001</v>
+        <v>9334.200000000001</v>
       </c>
       <c r="J32">
-        <v>570.35</v>
+        <v>777.85</v>
       </c>
       <c r="L32">
-        <v>541.83</v>
+        <v>738.96</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -2226,34 +2214,34 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>777.85</v>
+        <v>671.2</v>
       </c>
       <c r="G33">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H33">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I33">
-        <v>9334.200000000001</v>
+        <v>9396.799999999999</v>
       </c>
       <c r="J33">
-        <v>777.85</v>
+        <v>671.2</v>
       </c>
       <c r="L33">
-        <v>738.96</v>
+        <v>637.64</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -2273,37 +2261,37 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>671.2</v>
+        <v>5065.75</v>
       </c>
       <c r="G34">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>9396.799999999999</v>
+        <v>5065.75</v>
       </c>
       <c r="J34">
-        <v>671.2</v>
+        <v>5065.75</v>
       </c>
       <c r="L34">
-        <v>637.64</v>
+        <v>4812.46</v>
       </c>
       <c r="M34">
         <v>0</v>

--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="66">
   <si>
     <t>Buy Date</t>
   </si>
@@ -97,7 +97,7 @@
     <t>2026-01-06</t>
   </si>
   <si>
-    <t>2022-12-02</t>
+    <t>2026-01-07</t>
   </si>
   <si>
     <t>ADANIENT</t>
@@ -196,7 +196,7 @@
     <t>IRCTC</t>
   </si>
   <si>
-    <t>LTI</t>
+    <t>SUNPHARMA</t>
   </si>
   <si>
     <t>Value Buy</t>
@@ -209,6 +209,12 @@
   </si>
   <si>
     <t>OPEN</t>
+  </si>
+  <si>
+    <t>CLOSED</t>
+  </si>
+  <si>
+    <t>SL Hit</t>
   </si>
 </sst>
 </file>
@@ -589,13 +595,13 @@
     <col min="7" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
     <col min="13" max="13" width="12.7109375" customWidth="1"/>
     <col min="14" max="14" width="13.7109375" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" customWidth="1"/>
     <col min="16" max="16" width="16.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" customWidth="1"/>
     <col min="18" max="18" width="16.7109375" customWidth="1"/>
     <col min="19" max="19" width="18.7109375" customWidth="1"/>
   </cols>
@@ -688,7 +694,7 @@
         <v>8812.799999999999</v>
       </c>
       <c r="J2">
-        <v>2259.1</v>
+        <v>2274.1</v>
       </c>
       <c r="L2">
         <v>2093.04</v>
@@ -700,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>223.6</v>
+        <v>283.6</v>
       </c>
       <c r="Q2">
-        <v>223.6</v>
+        <v>283.6</v>
       </c>
       <c r="R2">
-        <v>2.54</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -738,7 +744,7 @@
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1293.8</v>
+        <v>1295.5</v>
       </c>
       <c r="L3">
         <v>1170.4</v>
@@ -750,13 +756,13 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>494.4</v>
+        <v>508</v>
       </c>
       <c r="Q3">
-        <v>494.4</v>
+        <v>508</v>
       </c>
       <c r="R3">
-        <v>5.02</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -788,7 +794,7 @@
         <v>6041.5</v>
       </c>
       <c r="J4">
-        <v>6129.5</v>
+        <v>6185</v>
       </c>
       <c r="L4">
         <v>5739.43</v>
@@ -800,13 +806,13 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>88</v>
+        <v>143.5</v>
       </c>
       <c r="Q4">
-        <v>88</v>
+        <v>143.5</v>
       </c>
       <c r="R4">
-        <v>1.46</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -838,7 +844,7 @@
         <v>8527.200000000001</v>
       </c>
       <c r="J5">
-        <v>2865.3</v>
+        <v>2837.1</v>
       </c>
       <c r="L5">
         <v>2700.28</v>
@@ -850,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>68.7</v>
+        <v>-15.9</v>
       </c>
       <c r="Q5">
-        <v>68.7</v>
+        <v>-15.9</v>
       </c>
       <c r="R5">
-        <v>0.8100000000000001</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -888,7 +894,7 @@
         <v>9173.200000000001</v>
       </c>
       <c r="J6">
-        <v>2424.7</v>
+        <v>2399.4</v>
       </c>
       <c r="L6">
         <v>2178.64</v>
@@ -900,13 +906,13 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>525.6</v>
+        <v>424.4</v>
       </c>
       <c r="Q6">
-        <v>525.6</v>
+        <v>424.4</v>
       </c>
       <c r="R6">
-        <v>5.73</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -938,7 +944,7 @@
         <v>8960</v>
       </c>
       <c r="J7">
-        <v>1319.9</v>
+        <v>1314.8</v>
       </c>
       <c r="L7">
         <v>1216</v>
@@ -950,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>279.3</v>
+        <v>243.6</v>
       </c>
       <c r="Q7">
-        <v>279.3</v>
+        <v>243.6</v>
       </c>
       <c r="R7">
-        <v>3.12</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -988,7 +994,7 @@
         <v>9722.1</v>
       </c>
       <c r="J8">
-        <v>3275.5</v>
+        <v>3283.8</v>
       </c>
       <c r="L8">
         <v>3078.66</v>
@@ -1000,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>104.4</v>
+        <v>129.3</v>
       </c>
       <c r="Q8">
-        <v>104.4</v>
+        <v>129.3</v>
       </c>
       <c r="R8">
-        <v>1.07</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1038,7 +1044,7 @@
         <v>9162.9</v>
       </c>
       <c r="J9">
-        <v>3128.1</v>
+        <v>3133.6</v>
       </c>
       <c r="L9">
         <v>2901.59</v>
@@ -1050,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>221.4</v>
+        <v>237.9</v>
       </c>
       <c r="Q9">
-        <v>221.4</v>
+        <v>237.9</v>
       </c>
       <c r="R9">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1088,7 +1094,7 @@
         <v>9227.700000000001</v>
       </c>
       <c r="J10">
-        <v>3051.4</v>
+        <v>3097.6</v>
       </c>
       <c r="L10">
         <v>2922.11</v>
@@ -1100,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>-73.5</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="Q10">
-        <v>-73.5</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="R10">
-        <v>-0.8</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1138,7 +1144,7 @@
         <v>9993.4</v>
       </c>
       <c r="J11">
-        <v>186.2</v>
+        <v>183.8</v>
       </c>
       <c r="L11">
         <v>172.3</v>
@@ -1150,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>806.2</v>
+        <v>667</v>
       </c>
       <c r="Q11">
-        <v>806.2</v>
+        <v>667</v>
       </c>
       <c r="R11">
-        <v>8.07</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1188,7 +1194,7 @@
         <v>9674.4</v>
       </c>
       <c r="J12">
-        <v>1601.8</v>
+        <v>1625.2</v>
       </c>
       <c r="L12">
         <v>1531.78</v>
@@ -1200,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>-63.6</v>
+        <v>76.8</v>
       </c>
       <c r="Q12">
-        <v>-63.6</v>
+        <v>76.8</v>
       </c>
       <c r="R12">
-        <v>-0.66</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1238,7 +1244,7 @@
         <v>9251.4</v>
       </c>
       <c r="J13">
-        <v>799.3</v>
+        <v>802.95</v>
       </c>
       <c r="L13">
         <v>732.4</v>
@@ -1250,13 +1256,13 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>340.2</v>
+        <v>384</v>
       </c>
       <c r="Q13">
-        <v>340.2</v>
+        <v>384</v>
       </c>
       <c r="R13">
-        <v>3.68</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1288,7 +1294,7 @@
         <v>9768</v>
       </c>
       <c r="J14">
-        <v>688.45</v>
+        <v>684.6</v>
       </c>
       <c r="L14">
         <v>618.64</v>
@@ -1300,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>558.75</v>
+        <v>501</v>
       </c>
       <c r="Q14">
-        <v>558.75</v>
+        <v>501</v>
       </c>
       <c r="R14">
-        <v>5.72</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1338,7 +1344,7 @@
         <v>9561.6</v>
       </c>
       <c r="J15">
-        <v>1210.4</v>
+        <v>1212.6</v>
       </c>
       <c r="L15">
         <v>1135.44</v>
@@ -1350,13 +1356,13 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>121.6</v>
+        <v>139.2</v>
       </c>
       <c r="Q15">
-        <v>121.6</v>
+        <v>139.2</v>
       </c>
       <c r="R15">
-        <v>1.27</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1388,7 +1394,7 @@
         <v>6033.5</v>
       </c>
       <c r="J16">
-        <v>5982.5</v>
+        <v>6102</v>
       </c>
       <c r="L16">
         <v>5731.82</v>
@@ -1400,13 +1406,13 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>-51</v>
+        <v>68.5</v>
       </c>
       <c r="Q16">
-        <v>-51</v>
+        <v>68.5</v>
       </c>
       <c r="R16">
-        <v>-0.85</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1438,7 +1444,7 @@
         <v>9282</v>
       </c>
       <c r="J17">
-        <v>9661</v>
+        <v>9789.5</v>
       </c>
       <c r="L17">
         <v>8817.9</v>
@@ -1450,13 +1456,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>379</v>
+        <v>507.5</v>
       </c>
       <c r="Q17">
-        <v>379</v>
+        <v>507.5</v>
       </c>
       <c r="R17">
-        <v>4.08</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1473,7 +1479,7 @@
         <v>63</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>282.8</v>
@@ -1488,10 +1494,10 @@
         <v>9898</v>
       </c>
       <c r="J18">
-        <v>296.95</v>
+        <v>303.55</v>
       </c>
       <c r="L18">
-        <v>268.66</v>
+        <v>282.8</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1500,13 +1506,13 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>495.25</v>
+        <v>726.25</v>
       </c>
       <c r="Q18">
-        <v>495.25</v>
+        <v>726.25</v>
       </c>
       <c r="R18">
-        <v>5</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1538,7 +1544,7 @@
         <v>9891</v>
       </c>
       <c r="J19">
-        <v>1501.7</v>
+        <v>1496.2</v>
       </c>
       <c r="L19">
         <v>1342.35</v>
@@ -1550,13 +1556,13 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>620.9</v>
+        <v>582.4</v>
       </c>
       <c r="Q19">
-        <v>620.9</v>
+        <v>582.4</v>
       </c>
       <c r="R19">
-        <v>6.28</v>
+        <v>5.89</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1588,7 +1594,7 @@
         <v>5711</v>
       </c>
       <c r="J20">
-        <v>6000</v>
+        <v>5981</v>
       </c>
       <c r="L20">
         <v>5425.45</v>
@@ -1600,13 +1606,13 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="Q20">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="R20">
-        <v>5.06</v>
+        <v>4.73</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1638,7 +1644,7 @@
         <v>9912.780000000001</v>
       </c>
       <c r="J21">
-        <v>125.47</v>
+        <v>125.68</v>
       </c>
       <c r="L21">
         <v>116.26</v>
@@ -1650,13 +1656,13 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>250.29</v>
+        <v>267.3</v>
       </c>
       <c r="Q21">
-        <v>250.29</v>
+        <v>267.3</v>
       </c>
       <c r="R21">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1673,7 +1679,7 @@
         <v>63</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>3974.1</v>
@@ -1688,10 +1694,10 @@
         <v>7948.2</v>
       </c>
       <c r="J22">
-        <v>4111.8</v>
+        <v>4273.2</v>
       </c>
       <c r="L22">
-        <v>3775.39</v>
+        <v>3974.1</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1700,13 +1706,13 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>275.4</v>
+        <v>598.2</v>
       </c>
       <c r="Q22">
-        <v>275.4</v>
+        <v>598.2</v>
       </c>
       <c r="R22">
-        <v>3.46</v>
+        <v>7.53</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1738,7 +1744,7 @@
         <v>9217.35</v>
       </c>
       <c r="J23">
-        <v>1044.1</v>
+        <v>1033.5</v>
       </c>
       <c r="L23">
         <v>972.9400000000001</v>
@@ -1750,13 +1756,13 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>179.55</v>
+        <v>84.15000000000001</v>
       </c>
       <c r="Q23">
-        <v>179.55</v>
+        <v>84.15000000000001</v>
       </c>
       <c r="R23">
-        <v>1.95</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1788,7 +1794,7 @@
         <v>9987.6</v>
       </c>
       <c r="J24">
-        <v>164</v>
+        <v>162.67</v>
       </c>
       <c r="L24">
         <v>158.14</v>
@@ -1800,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>-147.6</v>
+        <v>-227.4</v>
       </c>
       <c r="Q24">
-        <v>-147.6</v>
+        <v>-227.4</v>
       </c>
       <c r="R24">
-        <v>-1.48</v>
+        <v>-2.28</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -1838,7 +1844,7 @@
         <v>9484.200000000001</v>
       </c>
       <c r="J25">
-        <v>1079.8</v>
+        <v>1074.7</v>
       </c>
       <c r="L25">
         <v>1001.11</v>
@@ -1850,13 +1856,13 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>234</v>
+        <v>188.1</v>
       </c>
       <c r="Q25">
-        <v>234</v>
+        <v>188.1</v>
       </c>
       <c r="R25">
-        <v>2.47</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -1888,7 +1894,7 @@
         <v>9891.950000000001</v>
       </c>
       <c r="J26">
-        <v>265.6</v>
+        <v>270.8</v>
       </c>
       <c r="L26">
         <v>253.98</v>
@@ -1900,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="P26">
-        <v>-64.75</v>
+        <v>127.65</v>
       </c>
       <c r="Q26">
-        <v>-64.75</v>
+        <v>127.65</v>
       </c>
       <c r="R26">
-        <v>-0.65</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -1920,7 +1926,7 @@
         <v>62</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1932,7 +1938,7 @@
         <v>9</v>
       </c>
       <c r="H27">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>9014.4</v>
@@ -1940,23 +1946,29 @@
       <c r="J27">
         <v>962.2</v>
       </c>
+      <c r="K27" t="s">
+        <v>26</v>
+      </c>
       <c r="L27">
         <v>951.52</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>951.52</v>
+      </c>
+      <c r="N27" t="s">
+        <v>65</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>-450.7200000000004</v>
       </c>
       <c r="P27">
-        <v>-354.6</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>-354.6</v>
+        <v>-450.7200000000004</v>
       </c>
       <c r="R27">
-        <v>-3.93</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -1988,7 +2000,7 @@
         <v>9899.5</v>
       </c>
       <c r="J28">
-        <v>2010</v>
+        <v>1966.2</v>
       </c>
       <c r="L28">
         <v>1880.9</v>
@@ -2000,13 +2012,13 @@
         <v>0</v>
       </c>
       <c r="P28">
-        <v>150.5</v>
+        <v>-68.5</v>
       </c>
       <c r="Q28">
-        <v>150.5</v>
+        <v>-68.5</v>
       </c>
       <c r="R28">
-        <v>1.52</v>
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2038,7 +2050,7 @@
         <v>9917.049999999999</v>
       </c>
       <c r="J29">
-        <v>901.55</v>
+        <v>885.6</v>
       </c>
       <c r="L29">
         <v>856.47</v>
@@ -2050,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>-175.45</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-175.45</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>-1.77</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2138,7 +2150,7 @@
         <v>9695.950000000001</v>
       </c>
       <c r="J31">
-        <v>570.35</v>
+        <v>571.5</v>
       </c>
       <c r="L31">
         <v>541.83</v>
@@ -2150,13 +2162,13 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>19.55</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>19.55</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2188,7 +2200,7 @@
         <v>9334.200000000001</v>
       </c>
       <c r="J32">
-        <v>777.85</v>
+        <v>772.35</v>
       </c>
       <c r="L32">
         <v>738.96</v>
@@ -2200,13 +2212,13 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>-66</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>-66</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -2238,7 +2250,7 @@
         <v>9396.799999999999</v>
       </c>
       <c r="J33">
-        <v>671.2</v>
+        <v>672.8</v>
       </c>
       <c r="L33">
         <v>637.64</v>
@@ -2250,13 +2262,13 @@
         <v>0</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>22.4</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>22.4</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -2276,22 +2288,22 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>5065.75</v>
+        <v>1782.6</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I34">
-        <v>5065.75</v>
+        <v>8913</v>
       </c>
       <c r="J34">
-        <v>5065.75</v>
+        <v>1782.6</v>
       </c>
       <c r="L34">
-        <v>4812.46</v>
+        <v>1693.47</v>
       </c>
       <c r="M34">
         <v>0</v>

--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -10,14 +10,14 @@
     <sheet name="TradeBook" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TradeBook!$A$1:$S$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TradeBook!$A$1:$S$36</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="69">
   <si>
     <t>Buy Date</t>
   </si>
@@ -100,6 +100,9 @@
     <t>2026-01-07</t>
   </si>
   <si>
+    <t>2026-01-08</t>
+  </si>
+  <si>
     <t>ADANIENT</t>
   </si>
   <si>
@@ -197,6 +200,12 @@
   </si>
   <si>
     <t>SUNPHARMA</t>
+  </si>
+  <si>
+    <t>INDUSTOWER</t>
+  </si>
+  <si>
+    <t>ABB</t>
   </si>
   <si>
     <t>Value Buy</t>
@@ -578,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -599,9 +608,9 @@
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
     <col min="13" max="13" width="12.7109375" customWidth="1"/>
     <col min="14" max="14" width="13.7109375" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" customWidth="1"/>
     <col min="16" max="16" width="16.7109375" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" customWidth="1"/>
     <col min="18" max="18" width="16.7109375" customWidth="1"/>
     <col min="19" max="19" width="18.7109375" customWidth="1"/>
   </cols>
@@ -670,13 +679,13 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -694,7 +703,7 @@
         <v>8812.799999999999</v>
       </c>
       <c r="J2">
-        <v>2274.1</v>
+        <v>2214</v>
       </c>
       <c r="L2">
         <v>2093.04</v>
@@ -706,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>283.6</v>
+        <v>43.2</v>
       </c>
       <c r="Q2">
-        <v>283.6</v>
+        <v>43.2</v>
       </c>
       <c r="R2">
-        <v>3.22</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -720,13 +729,13 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -744,7 +753,7 @@
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1295.5</v>
+        <v>1286.8</v>
       </c>
       <c r="L3">
         <v>1170.4</v>
@@ -756,13 +765,13 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>508</v>
+        <v>438.4</v>
       </c>
       <c r="Q3">
-        <v>508</v>
+        <v>438.4</v>
       </c>
       <c r="R3">
-        <v>5.15</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -770,13 +779,13 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -794,7 +803,7 @@
         <v>6041.5</v>
       </c>
       <c r="J4">
-        <v>6185</v>
+        <v>6033.5</v>
       </c>
       <c r="L4">
         <v>5739.43</v>
@@ -806,13 +815,13 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>143.5</v>
+        <v>-8</v>
       </c>
       <c r="Q4">
-        <v>143.5</v>
+        <v>-8</v>
       </c>
       <c r="R4">
-        <v>2.38</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -820,13 +829,13 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -844,7 +853,7 @@
         <v>8527.200000000001</v>
       </c>
       <c r="J5">
-        <v>2837.1</v>
+        <v>2792</v>
       </c>
       <c r="L5">
         <v>2700.28</v>
@@ -856,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>-15.9</v>
+        <v>-151.2</v>
       </c>
       <c r="Q5">
-        <v>-15.9</v>
+        <v>-151.2</v>
       </c>
       <c r="R5">
-        <v>-0.19</v>
+        <v>-1.77</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -870,13 +879,13 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -894,7 +903,7 @@
         <v>9173.200000000001</v>
       </c>
       <c r="J6">
-        <v>2399.4</v>
+        <v>2386.7</v>
       </c>
       <c r="L6">
         <v>2178.64</v>
@@ -906,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>424.4</v>
+        <v>373.6</v>
       </c>
       <c r="Q6">
-        <v>424.4</v>
+        <v>373.6</v>
       </c>
       <c r="R6">
-        <v>4.63</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -920,13 +929,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -944,7 +953,7 @@
         <v>8960</v>
       </c>
       <c r="J7">
-        <v>1314.8</v>
+        <v>1306.9</v>
       </c>
       <c r="L7">
         <v>1216</v>
@@ -956,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>243.6</v>
+        <v>188.3</v>
       </c>
       <c r="Q7">
-        <v>243.6</v>
+        <v>188.3</v>
       </c>
       <c r="R7">
-        <v>2.72</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -970,13 +979,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -994,7 +1003,7 @@
         <v>9722.1</v>
       </c>
       <c r="J8">
-        <v>3283.8</v>
+        <v>3245.5</v>
       </c>
       <c r="L8">
         <v>3078.66</v>
@@ -1006,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>129.3</v>
+        <v>14.4</v>
       </c>
       <c r="Q8">
-        <v>129.3</v>
+        <v>14.4</v>
       </c>
       <c r="R8">
-        <v>1.33</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1020,13 +1029,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1044,7 +1053,7 @@
         <v>9162.9</v>
       </c>
       <c r="J9">
-        <v>3133.6</v>
+        <v>3009.5</v>
       </c>
       <c r="L9">
         <v>2901.59</v>
@@ -1056,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>237.9</v>
+        <v>-134.4</v>
       </c>
       <c r="Q9">
-        <v>237.9</v>
+        <v>-134.4</v>
       </c>
       <c r="R9">
-        <v>2.6</v>
+        <v>-1.47</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1070,13 +1079,13 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1094,7 +1103,7 @@
         <v>9227.700000000001</v>
       </c>
       <c r="J10">
-        <v>3097.6</v>
+        <v>3042.3</v>
       </c>
       <c r="L10">
         <v>2922.11</v>
@@ -1106,13 +1115,13 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>65.09999999999999</v>
+        <v>-100.8</v>
       </c>
       <c r="Q10">
-        <v>65.09999999999999</v>
+        <v>-100.8</v>
       </c>
       <c r="R10">
-        <v>0.71</v>
+        <v>-1.09</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1120,13 +1129,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1144,7 +1153,7 @@
         <v>9993.4</v>
       </c>
       <c r="J11">
-        <v>183.8</v>
+        <v>180.12</v>
       </c>
       <c r="L11">
         <v>172.3</v>
@@ -1156,13 +1165,13 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>667</v>
+        <v>453.56</v>
       </c>
       <c r="Q11">
-        <v>667</v>
+        <v>453.56</v>
       </c>
       <c r="R11">
-        <v>6.67</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1170,13 +1179,13 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1194,7 +1203,7 @@
         <v>9674.4</v>
       </c>
       <c r="J12">
-        <v>1625.2</v>
+        <v>1577.9</v>
       </c>
       <c r="L12">
         <v>1531.78</v>
@@ -1206,13 +1215,13 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>76.8</v>
+        <v>-207</v>
       </c>
       <c r="Q12">
-        <v>76.8</v>
+        <v>-207</v>
       </c>
       <c r="R12">
-        <v>0.79</v>
+        <v>-2.14</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1220,13 +1229,13 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1244,7 +1253,7 @@
         <v>9251.4</v>
       </c>
       <c r="J13">
-        <v>802.95</v>
+        <v>794.5</v>
       </c>
       <c r="L13">
         <v>732.4</v>
@@ -1256,13 +1265,13 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>384</v>
+        <v>282.6</v>
       </c>
       <c r="Q13">
-        <v>384</v>
+        <v>282.6</v>
       </c>
       <c r="R13">
-        <v>4.15</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1270,13 +1279,13 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1294,7 +1303,7 @@
         <v>9768</v>
       </c>
       <c r="J14">
-        <v>684.6</v>
+        <v>681.35</v>
       </c>
       <c r="L14">
         <v>618.64</v>
@@ -1306,13 +1315,13 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>501</v>
+        <v>452.25</v>
       </c>
       <c r="Q14">
-        <v>501</v>
+        <v>452.25</v>
       </c>
       <c r="R14">
-        <v>5.13</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1320,13 +1329,13 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1344,7 +1353,7 @@
         <v>9561.6</v>
       </c>
       <c r="J15">
-        <v>1212.6</v>
+        <v>1197.4</v>
       </c>
       <c r="L15">
         <v>1135.44</v>
@@ -1356,13 +1365,13 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>139.2</v>
+        <v>17.6</v>
       </c>
       <c r="Q15">
-        <v>139.2</v>
+        <v>17.6</v>
       </c>
       <c r="R15">
-        <v>1.46</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1370,13 +1379,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1394,7 +1403,7 @@
         <v>6033.5</v>
       </c>
       <c r="J16">
-        <v>6102</v>
+        <v>6018</v>
       </c>
       <c r="L16">
         <v>5731.82</v>
@@ -1406,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>68.5</v>
+        <v>-15.5</v>
       </c>
       <c r="Q16">
-        <v>68.5</v>
+        <v>-15.5</v>
       </c>
       <c r="R16">
-        <v>1.14</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1420,13 +1429,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1444,7 +1453,7 @@
         <v>9282</v>
       </c>
       <c r="J17">
-        <v>9789.5</v>
+        <v>9760.5</v>
       </c>
       <c r="L17">
         <v>8817.9</v>
@@ -1456,13 +1465,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>507.5</v>
+        <v>478.5</v>
       </c>
       <c r="Q17">
-        <v>507.5</v>
+        <v>478.5</v>
       </c>
       <c r="R17">
-        <v>5.47</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1470,13 +1479,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1488,7 +1497,7 @@
         <v>35</v>
       </c>
       <c r="H18">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>9898</v>
@@ -1496,23 +1505,29 @@
       <c r="J18">
         <v>303.55</v>
       </c>
+      <c r="K18" t="s">
+        <v>27</v>
+      </c>
       <c r="L18">
         <v>282.8</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>282.8</v>
+      </c>
+      <c r="N18" t="s">
+        <v>68</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>726.25</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>726.25</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>7.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1520,13 +1535,13 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1544,7 +1559,7 @@
         <v>9891</v>
       </c>
       <c r="J19">
-        <v>1496.2</v>
+        <v>1483.7</v>
       </c>
       <c r="L19">
         <v>1342.35</v>
@@ -1556,13 +1571,13 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>582.4</v>
+        <v>494.9</v>
       </c>
       <c r="Q19">
-        <v>582.4</v>
+        <v>494.9</v>
       </c>
       <c r="R19">
-        <v>5.89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1570,13 +1585,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1594,7 +1609,7 @@
         <v>5711</v>
       </c>
       <c r="J20">
-        <v>5981</v>
+        <v>5850</v>
       </c>
       <c r="L20">
         <v>5425.45</v>
@@ -1606,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>270</v>
+        <v>139</v>
       </c>
       <c r="Q20">
-        <v>270</v>
+        <v>139</v>
       </c>
       <c r="R20">
-        <v>4.73</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1620,13 +1635,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1644,7 +1659,7 @@
         <v>9912.780000000001</v>
       </c>
       <c r="J21">
-        <v>125.68</v>
+        <v>122.81</v>
       </c>
       <c r="L21">
         <v>116.26</v>
@@ -1656,13 +1671,13 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>267.3</v>
+        <v>34.83</v>
       </c>
       <c r="Q21">
-        <v>267.3</v>
+        <v>34.83</v>
       </c>
       <c r="R21">
-        <v>2.7</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1670,13 +1685,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1694,7 +1709,7 @@
         <v>7948.2</v>
       </c>
       <c r="J22">
-        <v>4273.2</v>
+        <v>4249</v>
       </c>
       <c r="L22">
         <v>3974.1</v>
@@ -1706,13 +1721,13 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>598.2</v>
+        <v>549.8</v>
       </c>
       <c r="Q22">
-        <v>598.2</v>
+        <v>549.8</v>
       </c>
       <c r="R22">
-        <v>7.53</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1720,13 +1735,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1744,7 +1759,7 @@
         <v>9217.35</v>
       </c>
       <c r="J23">
-        <v>1033.5</v>
+        <v>994.3</v>
       </c>
       <c r="L23">
         <v>972.9400000000001</v>
@@ -1756,13 +1771,13 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>84.15000000000001</v>
+        <v>-268.65</v>
       </c>
       <c r="Q23">
-        <v>84.15000000000001</v>
+        <v>-268.65</v>
       </c>
       <c r="R23">
-        <v>0.91</v>
+        <v>-2.91</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1770,13 +1785,13 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1788,7 +1803,7 @@
         <v>60</v>
       </c>
       <c r="H24">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>9987.6</v>
@@ -1796,23 +1811,29 @@
       <c r="J24">
         <v>162.67</v>
       </c>
+      <c r="K24" t="s">
+        <v>27</v>
+      </c>
       <c r="L24">
         <v>158.14</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>158.14</v>
+      </c>
+      <c r="N24" t="s">
+        <v>68</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>-499.2000000000013</v>
       </c>
       <c r="P24">
-        <v>-227.4</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>-227.4</v>
+        <v>-499.2000000000013</v>
       </c>
       <c r="R24">
-        <v>-2.28</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -1820,13 +1841,13 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1844,7 +1865,7 @@
         <v>9484.200000000001</v>
       </c>
       <c r="J25">
-        <v>1074.7</v>
+        <v>1013.6</v>
       </c>
       <c r="L25">
         <v>1001.11</v>
@@ -1856,13 +1877,13 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>188.1</v>
+        <v>-361.8</v>
       </c>
       <c r="Q25">
-        <v>188.1</v>
+        <v>-361.8</v>
       </c>
       <c r="R25">
-        <v>1.98</v>
+        <v>-3.81</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -1870,13 +1891,13 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1894,7 +1915,7 @@
         <v>9891.950000000001</v>
       </c>
       <c r="J26">
-        <v>270.8</v>
+        <v>262.2</v>
       </c>
       <c r="L26">
         <v>253.98</v>
@@ -1906,13 +1927,13 @@
         <v>0</v>
       </c>
       <c r="P26">
-        <v>127.65</v>
+        <v>-190.55</v>
       </c>
       <c r="Q26">
-        <v>127.65</v>
+        <v>-190.55</v>
       </c>
       <c r="R26">
-        <v>1.29</v>
+        <v>-1.93</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -1920,13 +1941,13 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1956,7 +1977,7 @@
         <v>951.52</v>
       </c>
       <c r="N27" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O27">
         <v>-450.7200000000004</v>
@@ -1976,13 +1997,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2000,7 +2021,7 @@
         <v>9899.5</v>
       </c>
       <c r="J28">
-        <v>1966.2</v>
+        <v>1908.2</v>
       </c>
       <c r="L28">
         <v>1880.9</v>
@@ -2012,13 +2033,13 @@
         <v>0</v>
       </c>
       <c r="P28">
-        <v>-68.5</v>
+        <v>-358.5</v>
       </c>
       <c r="Q28">
-        <v>-68.5</v>
+        <v>-358.5</v>
       </c>
       <c r="R28">
-        <v>-0.6899999999999999</v>
+        <v>-3.62</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2026,13 +2047,13 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2050,7 +2071,7 @@
         <v>9917.049999999999</v>
       </c>
       <c r="J29">
-        <v>885.6</v>
+        <v>872.15</v>
       </c>
       <c r="L29">
         <v>856.47</v>
@@ -2062,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="P29">
-        <v>-175.45</v>
+        <v>-323.4</v>
       </c>
       <c r="Q29">
-        <v>-175.45</v>
+        <v>-323.4</v>
       </c>
       <c r="R29">
-        <v>-1.77</v>
+        <v>-3.26</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2076,13 +2097,13 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2100,7 +2121,7 @@
         <v>6642.5</v>
       </c>
       <c r="J30">
-        <v>6642.5</v>
+        <v>6600.5</v>
       </c>
       <c r="L30">
         <v>6310.38</v>
@@ -2112,13 +2133,13 @@
         <v>0</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2126,13 +2147,13 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2150,7 +2171,7 @@
         <v>9695.950000000001</v>
       </c>
       <c r="J31">
-        <v>571.5</v>
+        <v>564.15</v>
       </c>
       <c r="L31">
         <v>541.83</v>
@@ -2162,13 +2183,13 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <v>19.55</v>
+        <v>-105.4</v>
       </c>
       <c r="Q31">
-        <v>19.55</v>
+        <v>-105.4</v>
       </c>
       <c r="R31">
-        <v>0.2</v>
+        <v>-1.09</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2176,13 +2197,13 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2200,7 +2221,7 @@
         <v>9334.200000000001</v>
       </c>
       <c r="J32">
-        <v>772.35</v>
+        <v>758.15</v>
       </c>
       <c r="L32">
         <v>738.96</v>
@@ -2212,13 +2233,13 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <v>-66</v>
+        <v>-236.4</v>
       </c>
       <c r="Q32">
-        <v>-66</v>
+        <v>-236.4</v>
       </c>
       <c r="R32">
-        <v>-0.71</v>
+        <v>-2.53</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -2226,13 +2247,13 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2250,7 +2271,7 @@
         <v>9396.799999999999</v>
       </c>
       <c r="J33">
-        <v>672.8</v>
+        <v>656.45</v>
       </c>
       <c r="L33">
         <v>637.64</v>
@@ -2262,13 +2283,13 @@
         <v>0</v>
       </c>
       <c r="P33">
-        <v>22.4</v>
+        <v>-206.5</v>
       </c>
       <c r="Q33">
-        <v>22.4</v>
+        <v>-206.5</v>
       </c>
       <c r="R33">
-        <v>0.24</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -2276,13 +2297,13 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2300,7 +2321,7 @@
         <v>8913</v>
       </c>
       <c r="J34">
-        <v>1782.6</v>
+        <v>1760.7</v>
       </c>
       <c r="L34">
         <v>1693.47</v>
@@ -2312,17 +2333,117 @@
         <v>0</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>-109.5</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>-109.5</v>
       </c>
       <c r="R34">
+        <v>-1.23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>430.85</v>
+      </c>
+      <c r="G35">
+        <v>23</v>
+      </c>
+      <c r="H35">
+        <v>23</v>
+      </c>
+      <c r="I35">
+        <v>9909.550000000001</v>
+      </c>
+      <c r="J35">
+        <v>430.85</v>
+      </c>
+      <c r="L35">
+        <v>409.31</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>5021</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>5021</v>
+      </c>
+      <c r="J36">
+        <v>5021</v>
+      </c>
+      <c r="L36">
+        <v>4769.95</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S34"/>
+  <autoFilter ref="A1:S36"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -10,14 +10,14 @@
     <sheet name="TradeBook" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TradeBook!$A$1:$S$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TradeBook!$A$1:$S$40</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="73">
   <si>
     <t>Buy Date</t>
   </si>
@@ -103,6 +103,9 @@
     <t>2026-01-08</t>
   </si>
   <si>
+    <t>2026-01-09</t>
+  </si>
+  <si>
     <t>ADANIENT</t>
   </si>
   <si>
@@ -206,6 +209,15 @@
   </si>
   <si>
     <t>ABB</t>
+  </si>
+  <si>
+    <t>MOTHERSON</t>
+  </si>
+  <si>
+    <t>COALINDIA</t>
+  </si>
+  <si>
+    <t>HCLTECH</t>
   </si>
   <si>
     <t>Value Buy</t>
@@ -587,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -679,13 +691,13 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -703,7 +715,7 @@
         <v>8812.799999999999</v>
       </c>
       <c r="J2">
-        <v>2214</v>
+        <v>2153.7</v>
       </c>
       <c r="L2">
         <v>2093.04</v>
@@ -715,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>43.2</v>
+        <v>-198</v>
       </c>
       <c r="Q2">
-        <v>43.2</v>
+        <v>-198</v>
       </c>
       <c r="R2">
-        <v>0.49</v>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -729,13 +741,13 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -753,7 +765,7 @@
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1286.8</v>
+        <v>1272</v>
       </c>
       <c r="L3">
         <v>1170.4</v>
@@ -765,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>438.4</v>
+        <v>320</v>
       </c>
       <c r="Q3">
-        <v>438.4</v>
+        <v>320</v>
       </c>
       <c r="R3">
-        <v>4.45</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -779,13 +791,13 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -803,7 +815,7 @@
         <v>6041.5</v>
       </c>
       <c r="J4">
-        <v>6033.5</v>
+        <v>5977.5</v>
       </c>
       <c r="L4">
         <v>5739.43</v>
@@ -815,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>-8</v>
+        <v>-64</v>
       </c>
       <c r="Q4">
-        <v>-8</v>
+        <v>-64</v>
       </c>
       <c r="R4">
-        <v>-0.13</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -829,13 +841,13 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -853,7 +865,7 @@
         <v>8527.200000000001</v>
       </c>
       <c r="J5">
-        <v>2792</v>
+        <v>2776.9</v>
       </c>
       <c r="L5">
         <v>2700.28</v>
@@ -865,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>-151.2</v>
+        <v>-196.5</v>
       </c>
       <c r="Q5">
-        <v>-151.2</v>
+        <v>-196.5</v>
       </c>
       <c r="R5">
-        <v>-1.77</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -879,13 +891,13 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -903,7 +915,7 @@
         <v>9173.200000000001</v>
       </c>
       <c r="J6">
-        <v>2386.7</v>
+        <v>2372.6</v>
       </c>
       <c r="L6">
         <v>2178.64</v>
@@ -915,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>373.6</v>
+        <v>317.2</v>
       </c>
       <c r="Q6">
-        <v>373.6</v>
+        <v>317.2</v>
       </c>
       <c r="R6">
-        <v>4.07</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -929,13 +941,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -953,7 +965,7 @@
         <v>8960</v>
       </c>
       <c r="J7">
-        <v>1306.9</v>
+        <v>1299.1</v>
       </c>
       <c r="L7">
         <v>1216</v>
@@ -965,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>188.3</v>
+        <v>133.7</v>
       </c>
       <c r="Q7">
-        <v>188.3</v>
+        <v>133.7</v>
       </c>
       <c r="R7">
-        <v>2.1</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -979,13 +991,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1003,7 +1015,7 @@
         <v>9722.1</v>
       </c>
       <c r="J8">
-        <v>3245.5</v>
+        <v>3201.4</v>
       </c>
       <c r="L8">
         <v>3078.66</v>
@@ -1015,13 +1027,13 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>14.4</v>
+        <v>-117.9</v>
       </c>
       <c r="Q8">
-        <v>14.4</v>
+        <v>-117.9</v>
       </c>
       <c r="R8">
-        <v>0.15</v>
+        <v>-1.21</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1029,13 +1041,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1053,7 +1065,7 @@
         <v>9162.9</v>
       </c>
       <c r="J9">
-        <v>3009.5</v>
+        <v>3043.8</v>
       </c>
       <c r="L9">
         <v>2901.59</v>
@@ -1065,13 +1077,13 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>-134.4</v>
+        <v>-31.5</v>
       </c>
       <c r="Q9">
-        <v>-134.4</v>
+        <v>-31.5</v>
       </c>
       <c r="R9">
-        <v>-1.47</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1079,13 +1091,13 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1103,7 +1115,7 @@
         <v>9227.700000000001</v>
       </c>
       <c r="J10">
-        <v>3042.3</v>
+        <v>3023.2</v>
       </c>
       <c r="L10">
         <v>2922.11</v>
@@ -1115,13 +1127,13 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>-100.8</v>
+        <v>-158.1</v>
       </c>
       <c r="Q10">
-        <v>-100.8</v>
+        <v>-158.1</v>
       </c>
       <c r="R10">
-        <v>-1.09</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1129,13 +1141,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1153,7 +1165,7 @@
         <v>9993.4</v>
       </c>
       <c r="J11">
-        <v>180.12</v>
+        <v>178.4</v>
       </c>
       <c r="L11">
         <v>172.3</v>
@@ -1165,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>453.56</v>
+        <v>353.8</v>
       </c>
       <c r="Q11">
-        <v>453.56</v>
+        <v>353.8</v>
       </c>
       <c r="R11">
-        <v>4.54</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1179,13 +1191,13 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1203,7 +1215,7 @@
         <v>9674.4</v>
       </c>
       <c r="J12">
-        <v>1577.9</v>
+        <v>1582.2</v>
       </c>
       <c r="L12">
         <v>1531.78</v>
@@ -1215,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>-207</v>
+        <v>-181.2</v>
       </c>
       <c r="Q12">
-        <v>-207</v>
+        <v>-181.2</v>
       </c>
       <c r="R12">
-        <v>-2.14</v>
+        <v>-1.87</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1229,13 +1241,13 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1253,7 +1265,7 @@
         <v>9251.4</v>
       </c>
       <c r="J13">
-        <v>794.5</v>
+        <v>771.7</v>
       </c>
       <c r="L13">
         <v>732.4</v>
@@ -1265,13 +1277,13 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>282.6</v>
+        <v>9</v>
       </c>
       <c r="Q13">
-        <v>282.6</v>
+        <v>9</v>
       </c>
       <c r="R13">
-        <v>3.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1279,13 +1291,13 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1303,7 +1315,7 @@
         <v>9768</v>
       </c>
       <c r="J14">
-        <v>681.35</v>
+        <v>685.45</v>
       </c>
       <c r="L14">
         <v>618.64</v>
@@ -1315,13 +1327,13 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>452.25</v>
+        <v>513.75</v>
       </c>
       <c r="Q14">
-        <v>452.25</v>
+        <v>513.75</v>
       </c>
       <c r="R14">
-        <v>4.63</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1329,13 +1341,13 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1353,7 +1365,7 @@
         <v>9561.6</v>
       </c>
       <c r="J15">
-        <v>1197.4</v>
+        <v>1175.9</v>
       </c>
       <c r="L15">
         <v>1135.44</v>
@@ -1365,13 +1377,13 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>17.6</v>
+        <v>-154.4</v>
       </c>
       <c r="Q15">
-        <v>17.6</v>
+        <v>-154.4</v>
       </c>
       <c r="R15">
-        <v>0.18</v>
+        <v>-1.61</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1379,13 +1391,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1403,7 +1415,7 @@
         <v>6033.5</v>
       </c>
       <c r="J16">
-        <v>6018</v>
+        <v>6037</v>
       </c>
       <c r="L16">
         <v>5731.82</v>
@@ -1415,13 +1427,13 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>-15.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q16">
-        <v>-15.5</v>
+        <v>3.5</v>
       </c>
       <c r="R16">
-        <v>-0.26</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1429,13 +1441,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1453,7 +1465,7 @@
         <v>9282</v>
       </c>
       <c r="J17">
-        <v>9760.5</v>
+        <v>9562.5</v>
       </c>
       <c r="L17">
         <v>8817.9</v>
@@ -1465,13 +1477,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>478.5</v>
+        <v>280.5</v>
       </c>
       <c r="Q17">
-        <v>478.5</v>
+        <v>280.5</v>
       </c>
       <c r="R17">
-        <v>5.16</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1479,13 +1491,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1515,7 +1527,7 @@
         <v>282.8</v>
       </c>
       <c r="N18" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1535,13 +1547,13 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1559,7 +1571,7 @@
         <v>9891</v>
       </c>
       <c r="J19">
-        <v>1483.7</v>
+        <v>1464.9</v>
       </c>
       <c r="L19">
         <v>1342.35</v>
@@ -1571,13 +1583,13 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>494.9</v>
+        <v>363.3</v>
       </c>
       <c r="Q19">
-        <v>494.9</v>
+        <v>363.3</v>
       </c>
       <c r="R19">
-        <v>5</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1585,13 +1597,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1609,7 +1621,7 @@
         <v>5711</v>
       </c>
       <c r="J20">
-        <v>5850</v>
+        <v>5773</v>
       </c>
       <c r="L20">
         <v>5425.45</v>
@@ -1621,13 +1633,13 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>139</v>
+        <v>62</v>
       </c>
       <c r="Q20">
-        <v>139</v>
+        <v>62</v>
       </c>
       <c r="R20">
-        <v>2.43</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1635,13 +1647,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1659,7 +1671,7 @@
         <v>9912.780000000001</v>
       </c>
       <c r="J21">
-        <v>122.81</v>
+        <v>122.9</v>
       </c>
       <c r="L21">
         <v>116.26</v>
@@ -1671,13 +1683,13 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>34.83</v>
+        <v>42.12</v>
       </c>
       <c r="Q21">
-        <v>34.83</v>
+        <v>42.12</v>
       </c>
       <c r="R21">
-        <v>0.35</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1685,13 +1697,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1709,7 +1721,7 @@
         <v>7948.2</v>
       </c>
       <c r="J22">
-        <v>4249</v>
+        <v>4201.8</v>
       </c>
       <c r="L22">
         <v>3974.1</v>
@@ -1721,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>549.8</v>
+        <v>455.4</v>
       </c>
       <c r="Q22">
-        <v>549.8</v>
+        <v>455.4</v>
       </c>
       <c r="R22">
-        <v>6.92</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1735,13 +1747,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1753,7 +1765,7 @@
         <v>9</v>
       </c>
       <c r="H23">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>9217.35</v>
@@ -1761,23 +1773,29 @@
       <c r="J23">
         <v>994.3</v>
       </c>
+      <c r="K23" t="s">
+        <v>28</v>
+      </c>
       <c r="L23">
         <v>972.9400000000001</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>972.9400000000001</v>
+      </c>
+      <c r="N23" t="s">
+        <v>72</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>-460.8900000000003</v>
       </c>
       <c r="P23">
-        <v>-268.65</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>-268.65</v>
+        <v>-460.8900000000003</v>
       </c>
       <c r="R23">
-        <v>-2.91</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1785,13 +1803,13 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1821,7 +1839,7 @@
         <v>158.14</v>
       </c>
       <c r="N24" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="O24">
         <v>-499.2000000000013</v>
@@ -1841,13 +1859,13 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1865,7 +1883,7 @@
         <v>9484.200000000001</v>
       </c>
       <c r="J25">
-        <v>1013.6</v>
+        <v>1010.3</v>
       </c>
       <c r="L25">
         <v>1001.11</v>
@@ -1877,13 +1895,13 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>-361.8</v>
+        <v>-391.5</v>
       </c>
       <c r="Q25">
-        <v>-361.8</v>
+        <v>-391.5</v>
       </c>
       <c r="R25">
-        <v>-3.81</v>
+        <v>-4.13</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -1891,13 +1909,13 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1915,7 +1933,7 @@
         <v>9891.950000000001</v>
       </c>
       <c r="J26">
-        <v>262.2</v>
+        <v>261.95</v>
       </c>
       <c r="L26">
         <v>253.98</v>
@@ -1927,13 +1945,13 @@
         <v>0</v>
       </c>
       <c r="P26">
-        <v>-190.55</v>
+        <v>-199.8</v>
       </c>
       <c r="Q26">
-        <v>-190.55</v>
+        <v>-199.8</v>
       </c>
       <c r="R26">
-        <v>-1.93</v>
+        <v>-2.02</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -1941,13 +1959,13 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1977,7 +1995,7 @@
         <v>951.52</v>
       </c>
       <c r="N27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="O27">
         <v>-450.7200000000004</v>
@@ -1997,13 +2015,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2015,7 +2033,7 @@
         <v>5</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>9899.5</v>
@@ -2023,23 +2041,29 @@
       <c r="J28">
         <v>1908.2</v>
       </c>
+      <c r="K28" t="s">
+        <v>28</v>
+      </c>
       <c r="L28">
         <v>1880.9</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>1880.9</v>
+      </c>
+      <c r="N28" t="s">
+        <v>72</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>-495</v>
       </c>
       <c r="P28">
-        <v>-358.5</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>-358.5</v>
+        <v>-495</v>
       </c>
       <c r="R28">
-        <v>-3.62</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2047,13 +2071,13 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2071,7 +2095,7 @@
         <v>9917.049999999999</v>
       </c>
       <c r="J29">
-        <v>872.15</v>
+        <v>863.2</v>
       </c>
       <c r="L29">
         <v>856.47</v>
@@ -2083,13 +2107,13 @@
         <v>0</v>
       </c>
       <c r="P29">
-        <v>-323.4</v>
+        <v>-421.85</v>
       </c>
       <c r="Q29">
-        <v>-323.4</v>
+        <v>-421.85</v>
       </c>
       <c r="R29">
-        <v>-3.26</v>
+        <v>-4.25</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2097,13 +2121,13 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2121,7 +2145,7 @@
         <v>6642.5</v>
       </c>
       <c r="J30">
-        <v>6600.5</v>
+        <v>6616.5</v>
       </c>
       <c r="L30">
         <v>6310.38</v>
@@ -2133,13 +2157,13 @@
         <v>0</v>
       </c>
       <c r="P30">
-        <v>-42</v>
+        <v>-26</v>
       </c>
       <c r="Q30">
-        <v>-42</v>
+        <v>-26</v>
       </c>
       <c r="R30">
-        <v>-0.63</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2147,13 +2171,13 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2171,7 +2195,7 @@
         <v>9695.950000000001</v>
       </c>
       <c r="J31">
-        <v>564.15</v>
+        <v>556.55</v>
       </c>
       <c r="L31">
         <v>541.83</v>
@@ -2183,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <v>-105.4</v>
+        <v>-234.6</v>
       </c>
       <c r="Q31">
-        <v>-105.4</v>
+        <v>-234.6</v>
       </c>
       <c r="R31">
-        <v>-1.09</v>
+        <v>-2.42</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2197,13 +2221,13 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2221,7 +2245,7 @@
         <v>9334.200000000001</v>
       </c>
       <c r="J32">
-        <v>758.15</v>
+        <v>749.9</v>
       </c>
       <c r="L32">
         <v>738.96</v>
@@ -2233,13 +2257,13 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <v>-236.4</v>
+        <v>-335.4</v>
       </c>
       <c r="Q32">
-        <v>-236.4</v>
+        <v>-335.4</v>
       </c>
       <c r="R32">
-        <v>-2.53</v>
+        <v>-3.59</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -2247,13 +2271,13 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2265,7 +2289,7 @@
         <v>14</v>
       </c>
       <c r="H33">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>9396.799999999999</v>
@@ -2273,23 +2297,29 @@
       <c r="J33">
         <v>656.45</v>
       </c>
+      <c r="K33" t="s">
+        <v>28</v>
+      </c>
       <c r="L33">
         <v>637.64</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>637.64</v>
+      </c>
+      <c r="N33" t="s">
+        <v>72</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>-469.8400000000008</v>
       </c>
       <c r="P33">
-        <v>-206.5</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>-206.5</v>
+        <v>-469.8400000000008</v>
       </c>
       <c r="R33">
-        <v>-2.2</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -2297,13 +2327,13 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2321,7 +2351,7 @@
         <v>8913</v>
       </c>
       <c r="J34">
-        <v>1760.7</v>
+        <v>1729.9</v>
       </c>
       <c r="L34">
         <v>1693.47</v>
@@ -2333,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="P34">
-        <v>-109.5</v>
+        <v>-263.5</v>
       </c>
       <c r="Q34">
-        <v>-109.5</v>
+        <v>-263.5</v>
       </c>
       <c r="R34">
-        <v>-1.23</v>
+        <v>-2.96</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -2347,13 +2377,13 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2368,10 +2398,10 @@
         <v>23</v>
       </c>
       <c r="I35">
-        <v>9909.550000000001</v>
+        <v>9909.549999999999</v>
       </c>
       <c r="J35">
-        <v>430.85</v>
+        <v>433.4</v>
       </c>
       <c r="L35">
         <v>409.31</v>
@@ -2383,13 +2413,13 @@
         <v>0</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>58.65</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>58.65</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -2397,13 +2427,13 @@
         <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2421,7 +2451,7 @@
         <v>5021</v>
       </c>
       <c r="J36">
-        <v>5021</v>
+        <v>5093</v>
       </c>
       <c r="L36">
         <v>4769.95</v>
@@ -2433,17 +2463,217 @@
         <v>0</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="R36">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>115.64</v>
+      </c>
+      <c r="G37">
+        <v>86</v>
+      </c>
+      <c r="H37">
+        <v>86</v>
+      </c>
+      <c r="I37">
+        <v>9945.040000000001</v>
+      </c>
+      <c r="J37">
+        <v>115.64</v>
+      </c>
+      <c r="L37">
+        <v>109.86</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>418.35</v>
+      </c>
+      <c r="G38">
+        <v>23</v>
+      </c>
+      <c r="H38">
+        <v>23</v>
+      </c>
+      <c r="I38">
+        <v>9622.050000000001</v>
+      </c>
+      <c r="J38">
+        <v>418.35</v>
+      </c>
+      <c r="L38">
+        <v>397.43</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>274.25</v>
+      </c>
+      <c r="G39">
+        <v>36</v>
+      </c>
+      <c r="H39">
+        <v>36</v>
+      </c>
+      <c r="I39">
+        <v>9873</v>
+      </c>
+      <c r="J39">
+        <v>274.25</v>
+      </c>
+      <c r="L39">
+        <v>260.54</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1661.4</v>
+      </c>
+      <c r="G40">
+        <v>6</v>
+      </c>
+      <c r="H40">
+        <v>6</v>
+      </c>
+      <c r="I40">
+        <v>9968.400000000001</v>
+      </c>
+      <c r="J40">
+        <v>1661.4</v>
+      </c>
+      <c r="L40">
+        <v>1578.33</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S36"/>
+  <autoFilter ref="A1:S40"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -2548,7 +2548,7 @@
         <v>23</v>
       </c>
       <c r="I38">
-        <v>9622.050000000001</v>
+        <v>9622.049999999999</v>
       </c>
       <c r="J38">
         <v>418.35</v>
@@ -2648,7 +2648,7 @@
         <v>6</v>
       </c>
       <c r="I40">
-        <v>9968.400000000001</v>
+        <v>9968.4</v>
       </c>
       <c r="J40">
         <v>1661.4</v>

--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -10,14 +10,14 @@
     <sheet name="TradeBook" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TradeBook!$A$1:$S$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TradeBook!$A$1:$S$44</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="79">
   <si>
     <t>Buy Date</t>
   </si>
@@ -106,6 +106,9 @@
     <t>2026-01-09</t>
   </si>
   <si>
+    <t>2026-01-12</t>
+  </si>
+  <si>
     <t>ADANIENT</t>
   </si>
   <si>
@@ -220,6 +223,18 @@
     <t>HCLTECH</t>
   </si>
   <si>
+    <t>ASIANPAINT</t>
+  </si>
+  <si>
+    <t>ICICIBANK</t>
+  </si>
+  <si>
+    <t>TRENT</t>
+  </si>
+  <si>
+    <t>BPCL</t>
+  </si>
+  <si>
     <t>Value Buy</t>
   </si>
   <si>
@@ -236,6 +251,9 @@
   </si>
   <si>
     <t>SL Hit</t>
+  </si>
+  <si>
+    <t>SL Hit (Gap)</t>
   </si>
 </sst>
 </file>
@@ -599,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -619,10 +637,10 @@
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
     <col min="13" max="13" width="12.7109375" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" customWidth="1"/>
     <col min="16" max="16" width="16.7109375" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" customWidth="1"/>
     <col min="18" max="18" width="16.7109375" customWidth="1"/>
     <col min="19" max="19" width="18.7109375" customWidth="1"/>
   </cols>
@@ -691,13 +709,13 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -715,7 +733,7 @@
         <v>8812.799999999999</v>
       </c>
       <c r="J2">
-        <v>2153.7</v>
+        <v>2171.6</v>
       </c>
       <c r="L2">
         <v>2093.04</v>
@@ -727,13 +745,13 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>-198</v>
+        <v>-126.4</v>
       </c>
       <c r="Q2">
-        <v>-198</v>
+        <v>-126.4</v>
       </c>
       <c r="R2">
-        <v>-2.25</v>
+        <v>-1.43</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -741,13 +759,13 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -765,7 +783,7 @@
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1272</v>
+        <v>1274.2</v>
       </c>
       <c r="L3">
         <v>1170.4</v>
@@ -777,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>320</v>
+        <v>337.6</v>
       </c>
       <c r="Q3">
-        <v>320</v>
+        <v>337.6</v>
       </c>
       <c r="R3">
-        <v>3.25</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -791,13 +809,13 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -815,7 +833,7 @@
         <v>6041.5</v>
       </c>
       <c r="J4">
-        <v>5977.5</v>
+        <v>5943.5</v>
       </c>
       <c r="L4">
         <v>5739.43</v>
@@ -827,13 +845,13 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>-64</v>
+        <v>-98</v>
       </c>
       <c r="Q4">
-        <v>-64</v>
+        <v>-98</v>
       </c>
       <c r="R4">
-        <v>-1.06</v>
+        <v>-1.62</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -841,13 +859,13 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -865,7 +883,7 @@
         <v>8527.200000000001</v>
       </c>
       <c r="J5">
-        <v>2776.9</v>
+        <v>2806.7</v>
       </c>
       <c r="L5">
         <v>2700.28</v>
@@ -877,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>-196.5</v>
+        <v>-107.1</v>
       </c>
       <c r="Q5">
-        <v>-196.5</v>
+        <v>-107.1</v>
       </c>
       <c r="R5">
-        <v>-2.3</v>
+        <v>-1.26</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -891,13 +909,13 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -915,7 +933,7 @@
         <v>9173.200000000001</v>
       </c>
       <c r="J6">
-        <v>2372.6</v>
+        <v>2406.2</v>
       </c>
       <c r="L6">
         <v>2178.64</v>
@@ -927,13 +945,13 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>317.2</v>
+        <v>451.6</v>
       </c>
       <c r="Q6">
-        <v>317.2</v>
+        <v>451.6</v>
       </c>
       <c r="R6">
-        <v>3.46</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -941,13 +959,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -965,7 +983,7 @@
         <v>8960</v>
       </c>
       <c r="J7">
-        <v>1299.1</v>
+        <v>1312.4</v>
       </c>
       <c r="L7">
         <v>1216</v>
@@ -977,13 +995,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>133.7</v>
+        <v>226.8</v>
       </c>
       <c r="Q7">
-        <v>133.7</v>
+        <v>226.8</v>
       </c>
       <c r="R7">
-        <v>1.49</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -991,13 +1009,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1015,7 +1033,7 @@
         <v>9722.1</v>
       </c>
       <c r="J8">
-        <v>3201.4</v>
+        <v>3256.4</v>
       </c>
       <c r="L8">
         <v>3078.66</v>
@@ -1027,13 +1045,13 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>-117.9</v>
+        <v>47.1</v>
       </c>
       <c r="Q8">
-        <v>-117.9</v>
+        <v>47.1</v>
       </c>
       <c r="R8">
-        <v>-1.21</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1041,13 +1059,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1065,7 +1083,7 @@
         <v>9162.9</v>
       </c>
       <c r="J9">
-        <v>3043.8</v>
+        <v>2980.8</v>
       </c>
       <c r="L9">
         <v>2901.59</v>
@@ -1077,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>-31.5</v>
+        <v>-220.5</v>
       </c>
       <c r="Q9">
-        <v>-31.5</v>
+        <v>-220.5</v>
       </c>
       <c r="R9">
-        <v>-0.34</v>
+        <v>-2.41</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1091,13 +1109,13 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1115,7 +1133,7 @@
         <v>9227.700000000001</v>
       </c>
       <c r="J10">
-        <v>3023.2</v>
+        <v>3046</v>
       </c>
       <c r="L10">
         <v>2922.11</v>
@@ -1127,13 +1145,13 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>-158.1</v>
+        <v>-89.7</v>
       </c>
       <c r="Q10">
-        <v>-158.1</v>
+        <v>-89.7</v>
       </c>
       <c r="R10">
-        <v>-1.71</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1141,13 +1159,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1165,7 +1183,7 @@
         <v>9993.4</v>
       </c>
       <c r="J11">
-        <v>178.4</v>
+        <v>183.24</v>
       </c>
       <c r="L11">
         <v>172.3</v>
@@ -1177,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>353.8</v>
+        <v>634.52</v>
       </c>
       <c r="Q11">
-        <v>353.8</v>
+        <v>634.52</v>
       </c>
       <c r="R11">
-        <v>3.54</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1191,13 +1209,13 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1215,7 +1233,7 @@
         <v>9674.4</v>
       </c>
       <c r="J12">
-        <v>1582.2</v>
+        <v>1586.1</v>
       </c>
       <c r="L12">
         <v>1531.78</v>
@@ -1227,13 +1245,13 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>-181.2</v>
+        <v>-157.8</v>
       </c>
       <c r="Q12">
-        <v>-181.2</v>
+        <v>-157.8</v>
       </c>
       <c r="R12">
-        <v>-1.87</v>
+        <v>-1.63</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1241,13 +1259,13 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1265,7 +1283,7 @@
         <v>9251.4</v>
       </c>
       <c r="J13">
-        <v>771.7</v>
+        <v>773.85</v>
       </c>
       <c r="L13">
         <v>732.4</v>
@@ -1277,13 +1295,13 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>9</v>
+        <v>34.8</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>34.8</v>
       </c>
       <c r="R13">
-        <v>0.1</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1291,13 +1309,13 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1315,7 +1333,7 @@
         <v>9768</v>
       </c>
       <c r="J14">
-        <v>685.45</v>
+        <v>680.75</v>
       </c>
       <c r="L14">
         <v>618.64</v>
@@ -1327,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>513.75</v>
+        <v>443.25</v>
       </c>
       <c r="Q14">
-        <v>513.75</v>
+        <v>443.25</v>
       </c>
       <c r="R14">
-        <v>5.26</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1341,13 +1359,13 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1365,7 +1383,7 @@
         <v>9561.6</v>
       </c>
       <c r="J15">
-        <v>1175.9</v>
+        <v>1192.3</v>
       </c>
       <c r="L15">
         <v>1135.44</v>
@@ -1377,13 +1395,13 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>-154.4</v>
+        <v>-23.2</v>
       </c>
       <c r="Q15">
-        <v>-154.4</v>
+        <v>-23.2</v>
       </c>
       <c r="R15">
-        <v>-1.61</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1391,13 +1409,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1415,7 +1433,7 @@
         <v>6033.5</v>
       </c>
       <c r="J16">
-        <v>6037</v>
+        <v>6000.5</v>
       </c>
       <c r="L16">
         <v>5731.82</v>
@@ -1427,13 +1445,13 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>3.5</v>
+        <v>-33</v>
       </c>
       <c r="Q16">
-        <v>3.5</v>
+        <v>-33</v>
       </c>
       <c r="R16">
-        <v>0.06</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1441,13 +1459,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1465,7 +1483,7 @@
         <v>9282</v>
       </c>
       <c r="J17">
-        <v>9562.5</v>
+        <v>9491</v>
       </c>
       <c r="L17">
         <v>8817.9</v>
@@ -1477,13 +1495,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>280.5</v>
+        <v>209</v>
       </c>
       <c r="Q17">
-        <v>280.5</v>
+        <v>209</v>
       </c>
       <c r="R17">
-        <v>3.02</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1491,13 +1509,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1527,7 +1545,7 @@
         <v>282.8</v>
       </c>
       <c r="N18" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1547,13 +1565,13 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1571,7 +1589,7 @@
         <v>9891</v>
       </c>
       <c r="J19">
-        <v>1464.9</v>
+        <v>1450.4</v>
       </c>
       <c r="L19">
         <v>1342.35</v>
@@ -1583,13 +1601,13 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>363.3</v>
+        <v>261.8</v>
       </c>
       <c r="Q19">
-        <v>363.3</v>
+        <v>261.8</v>
       </c>
       <c r="R19">
-        <v>3.67</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1597,13 +1615,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1621,7 +1639,7 @@
         <v>5711</v>
       </c>
       <c r="J20">
-        <v>5773</v>
+        <v>5726.5</v>
       </c>
       <c r="L20">
         <v>5425.45</v>
@@ -1633,13 +1651,13 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>62</v>
+        <v>15.5</v>
       </c>
       <c r="Q20">
-        <v>62</v>
+        <v>15.5</v>
       </c>
       <c r="R20">
-        <v>1.09</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1647,13 +1665,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1671,7 +1689,7 @@
         <v>9912.780000000001</v>
       </c>
       <c r="J21">
-        <v>122.9</v>
+        <v>123.16</v>
       </c>
       <c r="L21">
         <v>116.26</v>
@@ -1683,13 +1701,13 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>42.12</v>
+        <v>63.18</v>
       </c>
       <c r="Q21">
-        <v>42.12</v>
+        <v>63.18</v>
       </c>
       <c r="R21">
-        <v>0.42</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1697,13 +1715,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1721,7 +1739,7 @@
         <v>7948.2</v>
       </c>
       <c r="J22">
-        <v>4201.8</v>
+        <v>4231.6</v>
       </c>
       <c r="L22">
         <v>3974.1</v>
@@ -1733,13 +1751,13 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>455.4</v>
+        <v>515</v>
       </c>
       <c r="Q22">
-        <v>455.4</v>
+        <v>515</v>
       </c>
       <c r="R22">
-        <v>5.73</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1747,13 +1765,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1783,7 +1801,7 @@
         <v>972.9400000000001</v>
       </c>
       <c r="N23" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="O23">
         <v>-460.8900000000003</v>
@@ -1803,13 +1821,13 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1839,7 +1857,7 @@
         <v>158.14</v>
       </c>
       <c r="N24" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="O24">
         <v>-499.2000000000013</v>
@@ -1859,13 +1877,13 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1877,7 +1895,7 @@
         <v>9</v>
       </c>
       <c r="H25">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>9484.200000000001</v>
@@ -1885,23 +1903,29 @@
       <c r="J25">
         <v>1010.3</v>
       </c>
+      <c r="K25" t="s">
+        <v>29</v>
+      </c>
       <c r="L25">
         <v>1001.11</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1001.11</v>
+      </c>
+      <c r="N25" t="s">
+        <v>77</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>-474.2099999999995</v>
       </c>
       <c r="P25">
-        <v>-391.5</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>-391.5</v>
+        <v>-474.2099999999995</v>
       </c>
       <c r="R25">
-        <v>-4.13</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -1909,13 +1933,13 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1933,7 +1957,7 @@
         <v>9891.950000000001</v>
       </c>
       <c r="J26">
-        <v>261.95</v>
+        <v>263.1</v>
       </c>
       <c r="L26">
         <v>253.98</v>
@@ -1945,13 +1969,13 @@
         <v>0</v>
       </c>
       <c r="P26">
-        <v>-199.8</v>
+        <v>-157.25</v>
       </c>
       <c r="Q26">
-        <v>-199.8</v>
+        <v>-157.25</v>
       </c>
       <c r="R26">
-        <v>-2.02</v>
+        <v>-1.59</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -1959,13 +1983,13 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1995,7 +2019,7 @@
         <v>951.52</v>
       </c>
       <c r="N27" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="O27">
         <v>-450.7200000000004</v>
@@ -2015,13 +2039,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2051,7 +2075,7 @@
         <v>1880.9</v>
       </c>
       <c r="N28" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="O28">
         <v>-495</v>
@@ -2071,13 +2095,13 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2089,7 +2113,7 @@
         <v>11</v>
       </c>
       <c r="H29">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>9917.049999999999</v>
@@ -2097,23 +2121,29 @@
       <c r="J29">
         <v>863.2</v>
       </c>
+      <c r="K29" t="s">
+        <v>29</v>
+      </c>
       <c r="L29">
         <v>856.47</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>854</v>
+      </c>
+      <c r="N29" t="s">
+        <v>78</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>-523.0499999999995</v>
       </c>
       <c r="P29">
-        <v>-421.85</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>-421.85</v>
+        <v>-523.0499999999995</v>
       </c>
       <c r="R29">
-        <v>-4.25</v>
+        <v>-5.27</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2121,13 +2151,13 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2145,7 +2175,7 @@
         <v>6642.5</v>
       </c>
       <c r="J30">
-        <v>6616.5</v>
+        <v>6485.5</v>
       </c>
       <c r="L30">
         <v>6310.38</v>
@@ -2157,13 +2187,13 @@
         <v>0</v>
       </c>
       <c r="P30">
-        <v>-26</v>
+        <v>-157</v>
       </c>
       <c r="Q30">
-        <v>-26</v>
+        <v>-157</v>
       </c>
       <c r="R30">
-        <v>-0.39</v>
+        <v>-2.36</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2171,13 +2201,13 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2195,7 +2225,7 @@
         <v>9695.950000000001</v>
       </c>
       <c r="J31">
-        <v>556.55</v>
+        <v>557.25</v>
       </c>
       <c r="L31">
         <v>541.83</v>
@@ -2207,13 +2237,13 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <v>-234.6</v>
+        <v>-222.7</v>
       </c>
       <c r="Q31">
-        <v>-234.6</v>
+        <v>-222.7</v>
       </c>
       <c r="R31">
-        <v>-2.42</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2221,13 +2251,13 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2245,7 +2275,7 @@
         <v>9334.200000000001</v>
       </c>
       <c r="J32">
-        <v>749.9</v>
+        <v>754.65</v>
       </c>
       <c r="L32">
         <v>738.96</v>
@@ -2257,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <v>-335.4</v>
+        <v>-278.4</v>
       </c>
       <c r="Q32">
-        <v>-335.4</v>
+        <v>-278.4</v>
       </c>
       <c r="R32">
-        <v>-3.59</v>
+        <v>-2.98</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -2271,13 +2301,13 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2307,7 +2337,7 @@
         <v>637.64</v>
       </c>
       <c r="N33" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="O33">
         <v>-469.8400000000008</v>
@@ -2327,13 +2357,13 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2351,7 +2381,7 @@
         <v>8913</v>
       </c>
       <c r="J34">
-        <v>1729.9</v>
+        <v>1736</v>
       </c>
       <c r="L34">
         <v>1693.47</v>
@@ -2363,13 +2393,13 @@
         <v>0</v>
       </c>
       <c r="P34">
-        <v>-263.5</v>
+        <v>-233</v>
       </c>
       <c r="Q34">
-        <v>-263.5</v>
+        <v>-233</v>
       </c>
       <c r="R34">
-        <v>-2.96</v>
+        <v>-2.61</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -2377,13 +2407,13 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2401,7 +2431,7 @@
         <v>9909.549999999999</v>
       </c>
       <c r="J35">
-        <v>433.4</v>
+        <v>432.6</v>
       </c>
       <c r="L35">
         <v>409.31</v>
@@ -2413,13 +2443,13 @@
         <v>0</v>
       </c>
       <c r="P35">
-        <v>58.65</v>
+        <v>40.25</v>
       </c>
       <c r="Q35">
-        <v>58.65</v>
+        <v>40.25</v>
       </c>
       <c r="R35">
-        <v>0.59</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -2427,13 +2457,13 @@
         <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2451,7 +2481,7 @@
         <v>5021</v>
       </c>
       <c r="J36">
-        <v>5093</v>
+        <v>5048</v>
       </c>
       <c r="L36">
         <v>4769.95</v>
@@ -2463,13 +2493,13 @@
         <v>0</v>
       </c>
       <c r="P36">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="Q36">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="R36">
-        <v>1.43</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -2477,13 +2507,13 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2501,7 +2531,7 @@
         <v>9945.040000000001</v>
       </c>
       <c r="J37">
-        <v>115.64</v>
+        <v>114.99</v>
       </c>
       <c r="L37">
         <v>109.86</v>
@@ -2513,13 +2543,13 @@
         <v>0</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>-55.9</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>-55.9</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>-0.5600000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -2527,13 +2557,13 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2551,7 +2581,7 @@
         <v>9622.049999999999</v>
       </c>
       <c r="J38">
-        <v>418.35</v>
+        <v>432.3</v>
       </c>
       <c r="L38">
         <v>397.43</v>
@@ -2563,13 +2593,13 @@
         <v>0</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>320.85</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>320.85</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -2577,13 +2607,13 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D39" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2595,7 +2625,7 @@
         <v>36</v>
       </c>
       <c r="H39">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>9873</v>
@@ -2603,23 +2633,29 @@
       <c r="J39">
         <v>274.25</v>
       </c>
+      <c r="K39" t="s">
+        <v>29</v>
+      </c>
       <c r="L39">
         <v>260.54</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>260.54</v>
+      </c>
+      <c r="N39" t="s">
+        <v>77</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>-493.5599999999993</v>
       </c>
       <c r="P39">
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-493.5599999999993</v>
       </c>
       <c r="R39">
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -2627,13 +2663,13 @@
         <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2651,7 +2687,7 @@
         <v>9968.4</v>
       </c>
       <c r="J40">
-        <v>1661.4</v>
+        <v>1667.6</v>
       </c>
       <c r="L40">
         <v>1578.33</v>
@@ -2663,17 +2699,217 @@
         <v>0</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>37.2</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>37.2</v>
       </c>
       <c r="R40">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>2896.4</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>8689.200000000001</v>
+      </c>
+      <c r="J41">
+        <v>2896.4</v>
+      </c>
+      <c r="L41">
+        <v>2751.58</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1413.1</v>
+      </c>
+      <c r="G42">
+        <v>7</v>
+      </c>
+      <c r="H42">
+        <v>7</v>
+      </c>
+      <c r="I42">
+        <v>9891.699999999999</v>
+      </c>
+      <c r="J42">
+        <v>1413.1</v>
+      </c>
+      <c r="L42">
+        <v>1342.44</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>4056.4</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>8112.8</v>
+      </c>
+      <c r="J43">
+        <v>4056.4</v>
+      </c>
+      <c r="L43">
+        <v>3853.58</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>358.75</v>
+      </c>
+      <c r="G44">
+        <v>27</v>
+      </c>
+      <c r="H44">
+        <v>27</v>
+      </c>
+      <c r="I44">
+        <v>9686.25</v>
+      </c>
+      <c r="J44">
+        <v>358.75</v>
+      </c>
+      <c r="L44">
+        <v>340.81</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S40"/>
+  <autoFilter ref="A1:S44"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -2784,7 +2784,7 @@
         <v>7</v>
       </c>
       <c r="I42">
-        <v>9891.699999999999</v>
+        <v>9891.700000000001</v>
       </c>
       <c r="J42">
         <v>1413.1</v>

--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="80">
   <si>
     <t>Buy Date</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>CLOSED</t>
+  </si>
+  <si>
+    <t>2026-01-13</t>
   </si>
   <si>
     <t>SL Hit</t>
@@ -733,7 +736,7 @@
         <v>8812.799999999999</v>
       </c>
       <c r="J2">
-        <v>2171.6</v>
+        <v>2158.5</v>
       </c>
       <c r="L2">
         <v>2093.04</v>
@@ -745,13 +748,13 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>-126.4</v>
+        <v>-178.8</v>
       </c>
       <c r="Q2">
-        <v>-126.4</v>
+        <v>-178.8</v>
       </c>
       <c r="R2">
-        <v>-1.43</v>
+        <v>-2.03</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -783,7 +786,7 @@
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1274.2</v>
+        <v>1262</v>
       </c>
       <c r="L3">
         <v>1170.4</v>
@@ -795,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>337.6</v>
+        <v>240</v>
       </c>
       <c r="Q3">
-        <v>337.6</v>
+        <v>240</v>
       </c>
       <c r="R3">
-        <v>3.43</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -833,7 +836,7 @@
         <v>6041.5</v>
       </c>
       <c r="J4">
-        <v>5943.5</v>
+        <v>5918</v>
       </c>
       <c r="L4">
         <v>5739.43</v>
@@ -845,13 +848,13 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>-98</v>
+        <v>-123.5</v>
       </c>
       <c r="Q4">
-        <v>-98</v>
+        <v>-123.5</v>
       </c>
       <c r="R4">
-        <v>-1.62</v>
+        <v>-2.04</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -883,7 +886,7 @@
         <v>8527.200000000001</v>
       </c>
       <c r="J5">
-        <v>2806.7</v>
+        <v>2774.2</v>
       </c>
       <c r="L5">
         <v>2700.28</v>
@@ -895,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>-107.1</v>
+        <v>-204.6</v>
       </c>
       <c r="Q5">
-        <v>-107.1</v>
+        <v>-204.6</v>
       </c>
       <c r="R5">
-        <v>-1.26</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -933,7 +936,7 @@
         <v>9173.200000000001</v>
       </c>
       <c r="J6">
-        <v>2406.2</v>
+        <v>2389.5</v>
       </c>
       <c r="L6">
         <v>2178.64</v>
@@ -945,13 +948,13 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>451.6</v>
+        <v>384.8</v>
       </c>
       <c r="Q6">
-        <v>451.6</v>
+        <v>384.8</v>
       </c>
       <c r="R6">
-        <v>4.92</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -983,7 +986,7 @@
         <v>8960</v>
       </c>
       <c r="J7">
-        <v>1312.4</v>
+        <v>1318.7</v>
       </c>
       <c r="L7">
         <v>1216</v>
@@ -995,13 +998,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>226.8</v>
+        <v>270.9</v>
       </c>
       <c r="Q7">
-        <v>226.8</v>
+        <v>270.9</v>
       </c>
       <c r="R7">
-        <v>2.53</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1033,7 +1036,7 @@
         <v>9722.1</v>
       </c>
       <c r="J8">
-        <v>3256.4</v>
+        <v>3267</v>
       </c>
       <c r="L8">
         <v>3078.66</v>
@@ -1045,13 +1048,13 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>47.1</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="Q8">
-        <v>47.1</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="R8">
-        <v>0.48</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1083,7 +1086,7 @@
         <v>9162.9</v>
       </c>
       <c r="J9">
-        <v>2980.8</v>
+        <v>2947.7</v>
       </c>
       <c r="L9">
         <v>2901.59</v>
@@ -1095,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>-220.5</v>
+        <v>-319.8</v>
       </c>
       <c r="Q9">
-        <v>-220.5</v>
+        <v>-319.8</v>
       </c>
       <c r="R9">
-        <v>-2.41</v>
+        <v>-3.49</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1133,7 +1136,7 @@
         <v>9227.700000000001</v>
       </c>
       <c r="J10">
-        <v>3046</v>
+        <v>3039.6</v>
       </c>
       <c r="L10">
         <v>2922.11</v>
@@ -1145,13 +1148,13 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>-89.7</v>
+        <v>-108.9</v>
       </c>
       <c r="Q10">
-        <v>-89.7</v>
+        <v>-108.9</v>
       </c>
       <c r="R10">
-        <v>-0.97</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1183,7 +1186,7 @@
         <v>9993.4</v>
       </c>
       <c r="J11">
-        <v>183.24</v>
+        <v>182.57</v>
       </c>
       <c r="L11">
         <v>172.3</v>
@@ -1195,13 +1198,13 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>634.52</v>
+        <v>595.66</v>
       </c>
       <c r="Q11">
-        <v>634.52</v>
+        <v>595.66</v>
       </c>
       <c r="R11">
-        <v>6.35</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1233,7 +1236,7 @@
         <v>9674.4</v>
       </c>
       <c r="J12">
-        <v>1586.1</v>
+        <v>1614.8</v>
       </c>
       <c r="L12">
         <v>1531.78</v>
@@ -1245,13 +1248,13 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>-157.8</v>
+        <v>14.4</v>
       </c>
       <c r="Q12">
-        <v>-157.8</v>
+        <v>14.4</v>
       </c>
       <c r="R12">
-        <v>-1.63</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1283,7 +1286,7 @@
         <v>9251.4</v>
       </c>
       <c r="J13">
-        <v>773.85</v>
+        <v>773.45</v>
       </c>
       <c r="L13">
         <v>732.4</v>
@@ -1295,13 +1298,13 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>34.8</v>
+        <v>30</v>
       </c>
       <c r="Q13">
-        <v>34.8</v>
+        <v>30</v>
       </c>
       <c r="R13">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1318,7 +1321,7 @@
         <v>75</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>651.2</v>
@@ -1333,10 +1336,10 @@
         <v>9768</v>
       </c>
       <c r="J14">
-        <v>680.75</v>
+        <v>681.45</v>
       </c>
       <c r="L14">
-        <v>618.64</v>
+        <v>651.2</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1345,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>443.25</v>
+        <v>453.75</v>
       </c>
       <c r="Q14">
-        <v>443.25</v>
+        <v>453.75</v>
       </c>
       <c r="R14">
-        <v>4.54</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1383,7 +1386,7 @@
         <v>9561.6</v>
       </c>
       <c r="J15">
-        <v>1192.3</v>
+        <v>1189.4</v>
       </c>
       <c r="L15">
         <v>1135.44</v>
@@ -1395,13 +1398,13 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>-23.2</v>
+        <v>-46.4</v>
       </c>
       <c r="Q15">
-        <v>-23.2</v>
+        <v>-46.4</v>
       </c>
       <c r="R15">
-        <v>-0.24</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1433,7 +1436,7 @@
         <v>6033.5</v>
       </c>
       <c r="J16">
-        <v>6000.5</v>
+        <v>6100.5</v>
       </c>
       <c r="L16">
         <v>5731.82</v>
@@ -1445,13 +1448,13 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>-33</v>
+        <v>67</v>
       </c>
       <c r="Q16">
-        <v>-33</v>
+        <v>67</v>
       </c>
       <c r="R16">
-        <v>-0.55</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1483,7 +1486,7 @@
         <v>9282</v>
       </c>
       <c r="J17">
-        <v>9491</v>
+        <v>9554</v>
       </c>
       <c r="L17">
         <v>8817.9</v>
@@ -1495,13 +1498,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>209</v>
+        <v>272</v>
       </c>
       <c r="Q17">
-        <v>209</v>
+        <v>272</v>
       </c>
       <c r="R17">
-        <v>2.25</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1545,7 +1548,7 @@
         <v>282.8</v>
       </c>
       <c r="N18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1589,7 +1592,7 @@
         <v>9891</v>
       </c>
       <c r="J19">
-        <v>1450.4</v>
+        <v>1431.7</v>
       </c>
       <c r="L19">
         <v>1342.35</v>
@@ -1601,13 +1604,13 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>261.8</v>
+        <v>130.9</v>
       </c>
       <c r="Q19">
-        <v>261.8</v>
+        <v>130.9</v>
       </c>
       <c r="R19">
-        <v>2.65</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1639,7 +1642,7 @@
         <v>5711</v>
       </c>
       <c r="J20">
-        <v>5726.5</v>
+        <v>5734.5</v>
       </c>
       <c r="L20">
         <v>5425.45</v>
@@ -1651,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>15.5</v>
+        <v>23.5</v>
       </c>
       <c r="Q20">
-        <v>15.5</v>
+        <v>23.5</v>
       </c>
       <c r="R20">
-        <v>0.27</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1689,7 +1692,7 @@
         <v>9912.780000000001</v>
       </c>
       <c r="J21">
-        <v>123.16</v>
+        <v>124.52</v>
       </c>
       <c r="L21">
         <v>116.26</v>
@@ -1701,13 +1704,13 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>63.18</v>
+        <v>173.34</v>
       </c>
       <c r="Q21">
-        <v>63.18</v>
+        <v>173.34</v>
       </c>
       <c r="R21">
-        <v>0.64</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1739,7 +1742,7 @@
         <v>7948.2</v>
       </c>
       <c r="J22">
-        <v>4231.6</v>
+        <v>4239.2</v>
       </c>
       <c r="L22">
         <v>3974.1</v>
@@ -1751,13 +1754,13 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>515</v>
+        <v>530.2</v>
       </c>
       <c r="Q22">
-        <v>515</v>
+        <v>530.2</v>
       </c>
       <c r="R22">
-        <v>6.48</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1801,7 +1804,7 @@
         <v>972.9400000000001</v>
       </c>
       <c r="N23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O23">
         <v>-460.8900000000003</v>
@@ -1857,7 +1860,7 @@
         <v>158.14</v>
       </c>
       <c r="N24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24">
         <v>-499.2000000000013</v>
@@ -1913,7 +1916,7 @@
         <v>1001.11</v>
       </c>
       <c r="N25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25">
         <v>-474.2099999999995</v>
@@ -1957,7 +1960,7 @@
         <v>9891.950000000001</v>
       </c>
       <c r="J26">
-        <v>263.1</v>
+        <v>264.2</v>
       </c>
       <c r="L26">
         <v>253.98</v>
@@ -1969,13 +1972,13 @@
         <v>0</v>
       </c>
       <c r="P26">
-        <v>-157.25</v>
+        <v>-116.55</v>
       </c>
       <c r="Q26">
-        <v>-157.25</v>
+        <v>-116.55</v>
       </c>
       <c r="R26">
-        <v>-1.59</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2019,7 +2022,7 @@
         <v>951.52</v>
       </c>
       <c r="N27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O27">
         <v>-450.7200000000004</v>
@@ -2075,7 +2078,7 @@
         <v>1880.9</v>
       </c>
       <c r="N28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O28">
         <v>-495</v>
@@ -2131,7 +2134,7 @@
         <v>854</v>
       </c>
       <c r="N29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O29">
         <v>-523.0499999999995</v>
@@ -2175,7 +2178,7 @@
         <v>6642.5</v>
       </c>
       <c r="J30">
-        <v>6485.5</v>
+        <v>6436.5</v>
       </c>
       <c r="L30">
         <v>6310.38</v>
@@ -2187,13 +2190,13 @@
         <v>0</v>
       </c>
       <c r="P30">
-        <v>-157</v>
+        <v>-206</v>
       </c>
       <c r="Q30">
-        <v>-157</v>
+        <v>-206</v>
       </c>
       <c r="R30">
-        <v>-2.36</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2225,7 +2228,7 @@
         <v>9695.950000000001</v>
       </c>
       <c r="J31">
-        <v>557.25</v>
+        <v>555.45</v>
       </c>
       <c r="L31">
         <v>541.83</v>
@@ -2237,13 +2240,13 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <v>-222.7</v>
+        <v>-253.3</v>
       </c>
       <c r="Q31">
-        <v>-222.7</v>
+        <v>-253.3</v>
       </c>
       <c r="R31">
-        <v>-2.3</v>
+        <v>-2.61</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2275,7 +2278,7 @@
         <v>9334.200000000001</v>
       </c>
       <c r="J32">
-        <v>754.65</v>
+        <v>748.5</v>
       </c>
       <c r="L32">
         <v>738.96</v>
@@ -2287,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <v>-278.4</v>
+        <v>-352.2</v>
       </c>
       <c r="Q32">
-        <v>-278.4</v>
+        <v>-352.2</v>
       </c>
       <c r="R32">
-        <v>-2.98</v>
+        <v>-3.77</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -2337,7 +2340,7 @@
         <v>637.64</v>
       </c>
       <c r="N33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O33">
         <v>-469.8400000000008</v>
@@ -2381,7 +2384,7 @@
         <v>8913</v>
       </c>
       <c r="J34">
-        <v>1736</v>
+        <v>1728.7</v>
       </c>
       <c r="L34">
         <v>1693.47</v>
@@ -2393,13 +2396,13 @@
         <v>0</v>
       </c>
       <c r="P34">
-        <v>-233</v>
+        <v>-269.5</v>
       </c>
       <c r="Q34">
-        <v>-233</v>
+        <v>-269.5</v>
       </c>
       <c r="R34">
-        <v>-2.61</v>
+        <v>-3.02</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -2431,7 +2434,7 @@
         <v>9909.549999999999</v>
       </c>
       <c r="J35">
-        <v>432.6</v>
+        <v>427.9</v>
       </c>
       <c r="L35">
         <v>409.31</v>
@@ -2443,13 +2446,13 @@
         <v>0</v>
       </c>
       <c r="P35">
-        <v>40.25</v>
+        <v>-67.84999999999999</v>
       </c>
       <c r="Q35">
-        <v>40.25</v>
+        <v>-67.84999999999999</v>
       </c>
       <c r="R35">
-        <v>0.41</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -2481,7 +2484,7 @@
         <v>5021</v>
       </c>
       <c r="J36">
-        <v>5048</v>
+        <v>4966</v>
       </c>
       <c r="L36">
         <v>4769.95</v>
@@ -2493,13 +2496,13 @@
         <v>0</v>
       </c>
       <c r="P36">
-        <v>27</v>
+        <v>-55</v>
       </c>
       <c r="Q36">
-        <v>27</v>
+        <v>-55</v>
       </c>
       <c r="R36">
-        <v>0.54</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -2531,7 +2534,7 @@
         <v>9945.040000000001</v>
       </c>
       <c r="J37">
-        <v>114.99</v>
+        <v>114.93</v>
       </c>
       <c r="L37">
         <v>109.86</v>
@@ -2543,13 +2546,13 @@
         <v>0</v>
       </c>
       <c r="P37">
-        <v>-55.9</v>
+        <v>-61.06</v>
       </c>
       <c r="Q37">
-        <v>-55.9</v>
+        <v>-61.06</v>
       </c>
       <c r="R37">
-        <v>-0.5600000000000001</v>
+        <v>-0.61</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -2581,7 +2584,7 @@
         <v>9622.049999999999</v>
       </c>
       <c r="J38">
-        <v>432.3</v>
+        <v>428.9</v>
       </c>
       <c r="L38">
         <v>397.43</v>
@@ -2593,13 +2596,13 @@
         <v>0</v>
       </c>
       <c r="P38">
-        <v>320.85</v>
+        <v>242.65</v>
       </c>
       <c r="Q38">
-        <v>320.85</v>
+        <v>242.65</v>
       </c>
       <c r="R38">
-        <v>3.33</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -2643,7 +2646,7 @@
         <v>260.54</v>
       </c>
       <c r="N39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O39">
         <v>-493.5599999999993</v>
@@ -2687,7 +2690,7 @@
         <v>9968.4</v>
       </c>
       <c r="J40">
-        <v>1667.6</v>
+        <v>1665</v>
       </c>
       <c r="L40">
         <v>1578.33</v>
@@ -2699,13 +2702,13 @@
         <v>0</v>
       </c>
       <c r="P40">
-        <v>37.2</v>
+        <v>21.6</v>
       </c>
       <c r="Q40">
-        <v>37.2</v>
+        <v>21.6</v>
       </c>
       <c r="R40">
-        <v>0.37</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -2737,7 +2740,7 @@
         <v>8689.200000000001</v>
       </c>
       <c r="J41">
-        <v>2896.4</v>
+        <v>2886.3</v>
       </c>
       <c r="L41">
         <v>2751.58</v>
@@ -2749,13 +2752,13 @@
         <v>0</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>-30.3</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>-30.3</v>
       </c>
       <c r="R41">
-        <v>0</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -2787,7 +2790,7 @@
         <v>9891.700000000001</v>
       </c>
       <c r="J42">
-        <v>1413.1</v>
+        <v>1437</v>
       </c>
       <c r="L42">
         <v>1342.44</v>
@@ -2799,13 +2802,13 @@
         <v>0</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>167.3</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>167.3</v>
       </c>
       <c r="R42">
-        <v>0</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -2819,7 +2822,7 @@
         <v>72</v>
       </c>
       <c r="D43" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2831,7 +2834,7 @@
         <v>2</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>8112.8</v>
@@ -2839,23 +2842,29 @@
       <c r="J43">
         <v>4056.4</v>
       </c>
+      <c r="K43" t="s">
+        <v>77</v>
+      </c>
       <c r="L43">
         <v>3853.58</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>3853.58</v>
+      </c>
+      <c r="N43" t="s">
+        <v>78</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>-405.6400000000003</v>
       </c>
       <c r="P43">
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>-405.6400000000003</v>
       </c>
       <c r="R43">
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -2887,7 +2896,7 @@
         <v>9686.25</v>
       </c>
       <c r="J44">
-        <v>358.75</v>
+        <v>355.1</v>
       </c>
       <c r="L44">
         <v>340.81</v>
@@ -2899,13 +2908,13 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>-98.55</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>-98.55</v>
       </c>
       <c r="R44">
-        <v>0</v>
+        <v>-1.02</v>
       </c>
     </row>
   </sheetData>

--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="81">
   <si>
     <t>Buy Date</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>CLOSED</t>
+  </si>
+  <si>
+    <t>2026-01-14</t>
   </si>
   <si>
     <t>2026-01-13</t>
@@ -736,7 +739,7 @@
         <v>8812.799999999999</v>
       </c>
       <c r="J2">
-        <v>2158.5</v>
+        <v>2153.3</v>
       </c>
       <c r="L2">
         <v>2093.04</v>
@@ -748,13 +751,13 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>-178.8</v>
+        <v>-199.6</v>
       </c>
       <c r="Q2">
-        <v>-178.8</v>
+        <v>-199.6</v>
       </c>
       <c r="R2">
-        <v>-2.03</v>
+        <v>-2.26</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -786,7 +789,7 @@
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1262</v>
+        <v>1298.8</v>
       </c>
       <c r="L3">
         <v>1170.4</v>
@@ -798,13 +801,13 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>240</v>
+        <v>534.4</v>
       </c>
       <c r="Q3">
-        <v>240</v>
+        <v>534.4</v>
       </c>
       <c r="R3">
-        <v>2.44</v>
+        <v>5.42</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -836,7 +839,7 @@
         <v>6041.5</v>
       </c>
       <c r="J4">
-        <v>5918</v>
+        <v>5906.5</v>
       </c>
       <c r="L4">
         <v>5739.43</v>
@@ -848,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>-123.5</v>
+        <v>-135</v>
       </c>
       <c r="Q4">
-        <v>-123.5</v>
+        <v>-135</v>
       </c>
       <c r="R4">
-        <v>-2.04</v>
+        <v>-2.23</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -886,7 +889,7 @@
         <v>8527.200000000001</v>
       </c>
       <c r="J5">
-        <v>2774.2</v>
+        <v>2795.8</v>
       </c>
       <c r="L5">
         <v>2700.28</v>
@@ -898,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>-204.6</v>
+        <v>-139.8</v>
       </c>
       <c r="Q5">
-        <v>-204.6</v>
+        <v>-139.8</v>
       </c>
       <c r="R5">
-        <v>-2.4</v>
+        <v>-1.64</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -936,7 +939,7 @@
         <v>9173.200000000001</v>
       </c>
       <c r="J6">
-        <v>2389.5</v>
+        <v>2353.5</v>
       </c>
       <c r="L6">
         <v>2178.64</v>
@@ -948,13 +951,13 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>384.8</v>
+        <v>240.8</v>
       </c>
       <c r="Q6">
-        <v>384.8</v>
+        <v>240.8</v>
       </c>
       <c r="R6">
-        <v>4.19</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -986,7 +989,7 @@
         <v>8960</v>
       </c>
       <c r="J7">
-        <v>1318.7</v>
+        <v>1307.1</v>
       </c>
       <c r="L7">
         <v>1216</v>
@@ -998,13 +1001,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>270.9</v>
+        <v>189.7</v>
       </c>
       <c r="Q7">
-        <v>270.9</v>
+        <v>189.7</v>
       </c>
       <c r="R7">
-        <v>3.02</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1036,7 +1039,7 @@
         <v>9722.1</v>
       </c>
       <c r="J8">
-        <v>3267</v>
+        <v>3287.6</v>
       </c>
       <c r="L8">
         <v>3078.66</v>
@@ -1048,13 +1051,13 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>78.90000000000001</v>
+        <v>140.7</v>
       </c>
       <c r="Q8">
-        <v>78.90000000000001</v>
+        <v>140.7</v>
       </c>
       <c r="R8">
-        <v>0.8100000000000001</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1086,7 +1089,7 @@
         <v>9162.9</v>
       </c>
       <c r="J9">
-        <v>2947.7</v>
+        <v>2970.8</v>
       </c>
       <c r="L9">
         <v>2901.59</v>
@@ -1098,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>-319.8</v>
+        <v>-250.5</v>
       </c>
       <c r="Q9">
-        <v>-319.8</v>
+        <v>-250.5</v>
       </c>
       <c r="R9">
-        <v>-3.49</v>
+        <v>-2.73</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1136,7 +1139,7 @@
         <v>9227.700000000001</v>
       </c>
       <c r="J10">
-        <v>3039.6</v>
+        <v>3032</v>
       </c>
       <c r="L10">
         <v>2922.11</v>
@@ -1148,13 +1151,13 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>-108.9</v>
+        <v>-131.7</v>
       </c>
       <c r="Q10">
-        <v>-108.9</v>
+        <v>-131.7</v>
       </c>
       <c r="R10">
-        <v>-1.18</v>
+        <v>-1.43</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1171,7 +1174,7 @@
         <v>75</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>172.3</v>
@@ -1180,31 +1183,34 @@
         <v>58</v>
       </c>
       <c r="H11">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="I11">
         <v>9993.4</v>
       </c>
       <c r="J11">
-        <v>182.57</v>
+        <v>189.25</v>
       </c>
       <c r="L11">
-        <v>172.3</v>
+        <v>180.92</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>499.6700000000005</v>
       </c>
       <c r="P11">
-        <v>595.66</v>
+        <v>491.55</v>
       </c>
       <c r="Q11">
-        <v>595.66</v>
+        <v>991.22</v>
       </c>
       <c r="R11">
-        <v>5.96</v>
+        <v>9.92</v>
+      </c>
+      <c r="S11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1236,7 +1242,7 @@
         <v>9674.4</v>
       </c>
       <c r="J12">
-        <v>1614.8</v>
+        <v>1588.5</v>
       </c>
       <c r="L12">
         <v>1531.78</v>
@@ -1248,13 +1254,13 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>14.4</v>
+        <v>-143.4</v>
       </c>
       <c r="Q12">
-        <v>14.4</v>
+        <v>-143.4</v>
       </c>
       <c r="R12">
-        <v>0.15</v>
+        <v>-1.48</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1286,7 +1292,7 @@
         <v>9251.4</v>
       </c>
       <c r="J13">
-        <v>773.45</v>
+        <v>780.4</v>
       </c>
       <c r="L13">
         <v>732.4</v>
@@ -1298,13 +1304,13 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>30</v>
+        <v>113.4</v>
       </c>
       <c r="Q13">
-        <v>30</v>
+        <v>113.4</v>
       </c>
       <c r="R13">
-        <v>0.32</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1336,7 +1342,7 @@
         <v>9768</v>
       </c>
       <c r="J14">
-        <v>681.45</v>
+        <v>669.25</v>
       </c>
       <c r="L14">
         <v>651.2</v>
@@ -1348,13 +1354,13 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>453.75</v>
+        <v>270.75</v>
       </c>
       <c r="Q14">
-        <v>453.75</v>
+        <v>270.75</v>
       </c>
       <c r="R14">
-        <v>4.65</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1386,7 +1392,7 @@
         <v>9561.6</v>
       </c>
       <c r="J15">
-        <v>1189.4</v>
+        <v>1171.4</v>
       </c>
       <c r="L15">
         <v>1135.44</v>
@@ -1398,13 +1404,13 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>-46.4</v>
+        <v>-190.4</v>
       </c>
       <c r="Q15">
-        <v>-46.4</v>
+        <v>-190.4</v>
       </c>
       <c r="R15">
-        <v>-0.49</v>
+        <v>-1.99</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1436,7 +1442,7 @@
         <v>6033.5</v>
       </c>
       <c r="J16">
-        <v>6100.5</v>
+        <v>6030.5</v>
       </c>
       <c r="L16">
         <v>5731.82</v>
@@ -1448,13 +1454,13 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>67</v>
+        <v>-3</v>
       </c>
       <c r="Q16">
-        <v>67</v>
+        <v>-3</v>
       </c>
       <c r="R16">
-        <v>1.11</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1486,7 +1492,7 @@
         <v>9282</v>
       </c>
       <c r="J17">
-        <v>9554</v>
+        <v>9579.5</v>
       </c>
       <c r="L17">
         <v>8817.9</v>
@@ -1498,13 +1504,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>272</v>
+        <v>297.5</v>
       </c>
       <c r="Q17">
-        <v>272</v>
+        <v>297.5</v>
       </c>
       <c r="R17">
-        <v>2.93</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1548,7 +1554,7 @@
         <v>282.8</v>
       </c>
       <c r="N18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1592,7 +1598,7 @@
         <v>9891</v>
       </c>
       <c r="J19">
-        <v>1431.7</v>
+        <v>1437.1</v>
       </c>
       <c r="L19">
         <v>1342.35</v>
@@ -1604,13 +1610,13 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>130.9</v>
+        <v>168.7</v>
       </c>
       <c r="Q19">
-        <v>130.9</v>
+        <v>168.7</v>
       </c>
       <c r="R19">
-        <v>1.32</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1642,7 +1648,7 @@
         <v>5711</v>
       </c>
       <c r="J20">
-        <v>5734.5</v>
+        <v>5676.5</v>
       </c>
       <c r="L20">
         <v>5425.45</v>
@@ -1654,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>23.5</v>
+        <v>-34.5</v>
       </c>
       <c r="Q20">
-        <v>23.5</v>
+        <v>-34.5</v>
       </c>
       <c r="R20">
-        <v>0.41</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1692,7 +1698,7 @@
         <v>9912.780000000001</v>
       </c>
       <c r="J21">
-        <v>124.52</v>
+        <v>128.68</v>
       </c>
       <c r="L21">
         <v>116.26</v>
@@ -1704,13 +1710,13 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>173.34</v>
+        <v>510.3</v>
       </c>
       <c r="Q21">
-        <v>173.34</v>
+        <v>510.3</v>
       </c>
       <c r="R21">
-        <v>1.75</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1742,7 +1748,7 @@
         <v>7948.2</v>
       </c>
       <c r="J22">
-        <v>4239.2</v>
+        <v>4221.5</v>
       </c>
       <c r="L22">
         <v>3974.1</v>
@@ -1754,13 +1760,13 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>530.2</v>
+        <v>494.8</v>
       </c>
       <c r="Q22">
-        <v>530.2</v>
+        <v>494.8</v>
       </c>
       <c r="R22">
-        <v>6.67</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1804,7 +1810,7 @@
         <v>972.9400000000001</v>
       </c>
       <c r="N23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O23">
         <v>-460.8900000000003</v>
@@ -1860,7 +1866,7 @@
         <v>158.14</v>
       </c>
       <c r="N24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O24">
         <v>-499.2000000000013</v>
@@ -1916,7 +1922,7 @@
         <v>1001.11</v>
       </c>
       <c r="N25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25">
         <v>-474.2099999999995</v>
@@ -1960,7 +1966,7 @@
         <v>9891.950000000001</v>
       </c>
       <c r="J26">
-        <v>264.2</v>
+        <v>260.2</v>
       </c>
       <c r="L26">
         <v>253.98</v>
@@ -1972,13 +1978,13 @@
         <v>0</v>
       </c>
       <c r="P26">
-        <v>-116.55</v>
+        <v>-264.55</v>
       </c>
       <c r="Q26">
-        <v>-116.55</v>
+        <v>-264.55</v>
       </c>
       <c r="R26">
-        <v>-1.18</v>
+        <v>-2.67</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2022,7 +2028,7 @@
         <v>951.52</v>
       </c>
       <c r="N27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O27">
         <v>-450.7200000000004</v>
@@ -2078,7 +2084,7 @@
         <v>1880.9</v>
       </c>
       <c r="N28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O28">
         <v>-495</v>
@@ -2134,7 +2140,7 @@
         <v>854</v>
       </c>
       <c r="N29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O29">
         <v>-523.0499999999995</v>
@@ -2178,7 +2184,7 @@
         <v>6642.5</v>
       </c>
       <c r="J30">
-        <v>6436.5</v>
+        <v>6355.5</v>
       </c>
       <c r="L30">
         <v>6310.38</v>
@@ -2190,13 +2196,13 @@
         <v>0</v>
       </c>
       <c r="P30">
-        <v>-206</v>
+        <v>-287</v>
       </c>
       <c r="Q30">
-        <v>-206</v>
+        <v>-287</v>
       </c>
       <c r="R30">
-        <v>-3.1</v>
+        <v>-4.32</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2228,7 +2234,7 @@
         <v>9695.950000000001</v>
       </c>
       <c r="J31">
-        <v>555.45</v>
+        <v>554.4</v>
       </c>
       <c r="L31">
         <v>541.83</v>
@@ -2240,13 +2246,13 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <v>-253.3</v>
+        <v>-271.15</v>
       </c>
       <c r="Q31">
-        <v>-253.3</v>
+        <v>-271.15</v>
       </c>
       <c r="R31">
-        <v>-2.61</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2278,7 +2284,7 @@
         <v>9334.200000000001</v>
       </c>
       <c r="J32">
-        <v>748.5</v>
+        <v>743.2</v>
       </c>
       <c r="L32">
         <v>738.96</v>
@@ -2290,13 +2296,13 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <v>-352.2</v>
+        <v>-415.8</v>
       </c>
       <c r="Q32">
-        <v>-352.2</v>
+        <v>-415.8</v>
       </c>
       <c r="R32">
-        <v>-3.77</v>
+        <v>-4.45</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -2340,7 +2346,7 @@
         <v>637.64</v>
       </c>
       <c r="N33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O33">
         <v>-469.8400000000008</v>
@@ -2366,7 +2372,7 @@
         <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2378,7 +2384,7 @@
         <v>5</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>8913</v>
@@ -2386,23 +2392,29 @@
       <c r="J34">
         <v>1728.7</v>
       </c>
+      <c r="K34" t="s">
+        <v>77</v>
+      </c>
       <c r="L34">
         <v>1693.47</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>1693.47</v>
+      </c>
+      <c r="N34" t="s">
+        <v>79</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>-445.6499999999994</v>
       </c>
       <c r="P34">
-        <v>-269.5</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>-269.5</v>
+        <v>-445.6499999999994</v>
       </c>
       <c r="R34">
-        <v>-3.02</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -2434,7 +2446,7 @@
         <v>9909.549999999999</v>
       </c>
       <c r="J35">
-        <v>427.9</v>
+        <v>438.4</v>
       </c>
       <c r="L35">
         <v>409.31</v>
@@ -2446,13 +2458,13 @@
         <v>0</v>
       </c>
       <c r="P35">
-        <v>-67.84999999999999</v>
+        <v>173.65</v>
       </c>
       <c r="Q35">
-        <v>-67.84999999999999</v>
+        <v>173.65</v>
       </c>
       <c r="R35">
-        <v>-0.68</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -2484,7 +2496,7 @@
         <v>5021</v>
       </c>
       <c r="J36">
-        <v>4966</v>
+        <v>4935</v>
       </c>
       <c r="L36">
         <v>4769.95</v>
@@ -2496,13 +2508,13 @@
         <v>0</v>
       </c>
       <c r="P36">
-        <v>-55</v>
+        <v>-86</v>
       </c>
       <c r="Q36">
-        <v>-55</v>
+        <v>-86</v>
       </c>
       <c r="R36">
-        <v>-1.1</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -2534,7 +2546,7 @@
         <v>9945.040000000001</v>
       </c>
       <c r="J37">
-        <v>114.93</v>
+        <v>113.55</v>
       </c>
       <c r="L37">
         <v>109.86</v>
@@ -2546,13 +2558,13 @@
         <v>0</v>
       </c>
       <c r="P37">
-        <v>-61.06</v>
+        <v>-179.74</v>
       </c>
       <c r="Q37">
-        <v>-61.06</v>
+        <v>-179.74</v>
       </c>
       <c r="R37">
-        <v>-0.61</v>
+        <v>-1.81</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -2584,7 +2596,7 @@
         <v>9622.049999999999</v>
       </c>
       <c r="J38">
-        <v>428.9</v>
+        <v>432.2</v>
       </c>
       <c r="L38">
         <v>397.43</v>
@@ -2596,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="P38">
-        <v>242.65</v>
+        <v>318.55</v>
       </c>
       <c r="Q38">
-        <v>242.65</v>
+        <v>318.55</v>
       </c>
       <c r="R38">
-        <v>2.52</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -2646,7 +2658,7 @@
         <v>260.54</v>
       </c>
       <c r="N39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O39">
         <v>-493.5599999999993</v>
@@ -2690,7 +2702,7 @@
         <v>9968.4</v>
       </c>
       <c r="J40">
-        <v>1665</v>
+        <v>1668.5</v>
       </c>
       <c r="L40">
         <v>1578.33</v>
@@ -2702,13 +2714,13 @@
         <v>0</v>
       </c>
       <c r="P40">
-        <v>21.6</v>
+        <v>42.6</v>
       </c>
       <c r="Q40">
-        <v>21.6</v>
+        <v>42.6</v>
       </c>
       <c r="R40">
-        <v>0.22</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -2740,7 +2752,7 @@
         <v>8689.200000000001</v>
       </c>
       <c r="J41">
-        <v>2886.3</v>
+        <v>2813.9</v>
       </c>
       <c r="L41">
         <v>2751.58</v>
@@ -2752,13 +2764,13 @@
         <v>0</v>
       </c>
       <c r="P41">
-        <v>-30.3</v>
+        <v>-247.5</v>
       </c>
       <c r="Q41">
-        <v>-30.3</v>
+        <v>-247.5</v>
       </c>
       <c r="R41">
-        <v>-0.35</v>
+        <v>-2.85</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -2790,7 +2802,7 @@
         <v>9891.700000000001</v>
       </c>
       <c r="J42">
-        <v>1437</v>
+        <v>1418.4</v>
       </c>
       <c r="L42">
         <v>1342.44</v>
@@ -2802,13 +2814,13 @@
         <v>0</v>
       </c>
       <c r="P42">
-        <v>167.3</v>
+        <v>37.1</v>
       </c>
       <c r="Q42">
-        <v>167.3</v>
+        <v>37.1</v>
       </c>
       <c r="R42">
-        <v>1.69</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -2843,7 +2855,7 @@
         <v>4056.4</v>
       </c>
       <c r="K43" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L43">
         <v>3853.58</v>
@@ -2852,7 +2864,7 @@
         <v>3853.58</v>
       </c>
       <c r="N43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O43">
         <v>-405.6400000000003</v>
@@ -2896,7 +2908,7 @@
         <v>9686.25</v>
       </c>
       <c r="J44">
-        <v>355.1</v>
+        <v>356.9</v>
       </c>
       <c r="L44">
         <v>340.81</v>
@@ -2908,13 +2920,13 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>-98.55</v>
+        <v>-49.95</v>
       </c>
       <c r="Q44">
-        <v>-98.55</v>
+        <v>-49.95</v>
       </c>
       <c r="R44">
-        <v>-1.02</v>
+        <v>-0.52</v>
       </c>
     </row>
   </sheetData>

--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -10,14 +10,14 @@
     <sheet name="TradeBook" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TradeBook!$A$1:$S$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TradeBook!$A$1:$S$46</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="84">
   <si>
     <t>Buy Date</t>
   </si>
@@ -109,6 +109,9 @@
     <t>2026-01-12</t>
   </si>
   <si>
+    <t>2026-01-16</t>
+  </si>
+  <si>
     <t>ADANIENT</t>
   </si>
   <si>
@@ -233,6 +236,12 @@
   </si>
   <si>
     <t>BPCL</t>
+  </si>
+  <si>
+    <t>INFY</t>
+  </si>
+  <si>
+    <t>NTPC</t>
   </si>
   <si>
     <t>Value Buy</t>
@@ -623,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S44"/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -715,13 +724,13 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -739,7 +748,7 @@
         <v>8812.799999999999</v>
       </c>
       <c r="J2">
-        <v>2153.3</v>
+        <v>2157.3</v>
       </c>
       <c r="L2">
         <v>2093.04</v>
@@ -751,13 +760,13 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>-199.6</v>
+        <v>-183.6</v>
       </c>
       <c r="Q2">
-        <v>-199.6</v>
+        <v>-183.6</v>
       </c>
       <c r="R2">
-        <v>-2.26</v>
+        <v>-2.08</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -765,13 +774,13 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -789,7 +798,7 @@
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1298.8</v>
+        <v>1294.2</v>
       </c>
       <c r="L3">
         <v>1170.4</v>
@@ -801,13 +810,13 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>534.4</v>
+        <v>497.6</v>
       </c>
       <c r="Q3">
-        <v>534.4</v>
+        <v>497.6</v>
       </c>
       <c r="R3">
-        <v>5.42</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -815,13 +824,13 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -839,7 +848,7 @@
         <v>6041.5</v>
       </c>
       <c r="J4">
-        <v>5906.5</v>
+        <v>5898.5</v>
       </c>
       <c r="L4">
         <v>5739.43</v>
@@ -851,13 +860,13 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>-135</v>
+        <v>-143</v>
       </c>
       <c r="Q4">
-        <v>-135</v>
+        <v>-143</v>
       </c>
       <c r="R4">
-        <v>-2.23</v>
+        <v>-2.37</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -865,13 +874,13 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -889,7 +898,7 @@
         <v>8527.200000000001</v>
       </c>
       <c r="J5">
-        <v>2795.8</v>
+        <v>2809.6</v>
       </c>
       <c r="L5">
         <v>2700.28</v>
@@ -901,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>-139.8</v>
+        <v>-98.40000000000001</v>
       </c>
       <c r="Q5">
-        <v>-139.8</v>
+        <v>-98.40000000000001</v>
       </c>
       <c r="R5">
-        <v>-1.64</v>
+        <v>-1.15</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -915,13 +924,13 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -939,7 +948,7 @@
         <v>9173.200000000001</v>
       </c>
       <c r="J6">
-        <v>2353.5</v>
+        <v>2360.4</v>
       </c>
       <c r="L6">
         <v>2178.64</v>
@@ -951,13 +960,13 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>240.8</v>
+        <v>268.4</v>
       </c>
       <c r="Q6">
-        <v>240.8</v>
+        <v>268.4</v>
       </c>
       <c r="R6">
-        <v>2.63</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -965,13 +974,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -989,7 +998,7 @@
         <v>8960</v>
       </c>
       <c r="J7">
-        <v>1307.1</v>
+        <v>1315.9</v>
       </c>
       <c r="L7">
         <v>1216</v>
@@ -1001,13 +1010,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>189.7</v>
+        <v>251.3</v>
       </c>
       <c r="Q7">
-        <v>189.7</v>
+        <v>251.3</v>
       </c>
       <c r="R7">
-        <v>2.12</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1015,13 +1024,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1039,7 +1048,7 @@
         <v>9722.1</v>
       </c>
       <c r="J8">
-        <v>3287.6</v>
+        <v>3267.9</v>
       </c>
       <c r="L8">
         <v>3078.66</v>
@@ -1051,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>140.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="Q8">
-        <v>140.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="R8">
-        <v>1.45</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1065,13 +1074,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1089,7 +1098,7 @@
         <v>9162.9</v>
       </c>
       <c r="J9">
-        <v>2970.8</v>
+        <v>2919.2</v>
       </c>
       <c r="L9">
         <v>2901.59</v>
@@ -1101,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>-250.5</v>
+        <v>-405.3</v>
       </c>
       <c r="Q9">
-        <v>-250.5</v>
+        <v>-405.3</v>
       </c>
       <c r="R9">
-        <v>-2.73</v>
+        <v>-4.42</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1115,13 +1124,13 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1139,7 +1148,7 @@
         <v>9227.700000000001</v>
       </c>
       <c r="J10">
-        <v>3032</v>
+        <v>3027.4</v>
       </c>
       <c r="L10">
         <v>2922.11</v>
@@ -1151,13 +1160,13 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>-131.7</v>
+        <v>-145.5</v>
       </c>
       <c r="Q10">
-        <v>-131.7</v>
+        <v>-145.5</v>
       </c>
       <c r="R10">
-        <v>-1.43</v>
+        <v>-1.58</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1165,13 +1174,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1189,7 +1198,7 @@
         <v>9993.4</v>
       </c>
       <c r="J11">
-        <v>189.25</v>
+        <v>188.21</v>
       </c>
       <c r="L11">
         <v>180.92</v>
@@ -1201,16 +1210,16 @@
         <v>499.6700000000005</v>
       </c>
       <c r="P11">
-        <v>491.55</v>
+        <v>461.39</v>
       </c>
       <c r="Q11">
-        <v>991.22</v>
+        <v>961.0599999999999</v>
       </c>
       <c r="R11">
-        <v>9.92</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="S11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1218,13 +1227,13 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1242,7 +1251,7 @@
         <v>9674.4</v>
       </c>
       <c r="J12">
-        <v>1588.5</v>
+        <v>1670.5</v>
       </c>
       <c r="L12">
         <v>1531.78</v>
@@ -1254,13 +1263,13 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>-143.4</v>
+        <v>348.6</v>
       </c>
       <c r="Q12">
-        <v>-143.4</v>
+        <v>348.6</v>
       </c>
       <c r="R12">
-        <v>-1.48</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1268,13 +1277,13 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1292,7 +1301,7 @@
         <v>9251.4</v>
       </c>
       <c r="J13">
-        <v>780.4</v>
+        <v>790.15</v>
       </c>
       <c r="L13">
         <v>732.4</v>
@@ -1304,13 +1313,13 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>113.4</v>
+        <v>230.4</v>
       </c>
       <c r="Q13">
-        <v>113.4</v>
+        <v>230.4</v>
       </c>
       <c r="R13">
-        <v>1.23</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1318,13 +1327,13 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1342,7 +1351,7 @@
         <v>9768</v>
       </c>
       <c r="J14">
-        <v>669.25</v>
+        <v>678</v>
       </c>
       <c r="L14">
         <v>651.2</v>
@@ -1354,13 +1363,13 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>270.75</v>
+        <v>402</v>
       </c>
       <c r="Q14">
-        <v>270.75</v>
+        <v>402</v>
       </c>
       <c r="R14">
-        <v>2.77</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1368,13 +1377,13 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1392,7 +1401,7 @@
         <v>9561.6</v>
       </c>
       <c r="J15">
-        <v>1171.4</v>
+        <v>1189.1</v>
       </c>
       <c r="L15">
         <v>1135.44</v>
@@ -1404,13 +1413,13 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>-190.4</v>
+        <v>-48.8</v>
       </c>
       <c r="Q15">
-        <v>-190.4</v>
+        <v>-48.8</v>
       </c>
       <c r="R15">
-        <v>-1.99</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1418,13 +1427,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1442,7 +1451,7 @@
         <v>6033.5</v>
       </c>
       <c r="J16">
-        <v>6030.5</v>
+        <v>6308</v>
       </c>
       <c r="L16">
         <v>5731.82</v>
@@ -1454,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>-3</v>
+        <v>274.5</v>
       </c>
       <c r="Q16">
-        <v>-3</v>
+        <v>274.5</v>
       </c>
       <c r="R16">
-        <v>-0.05</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1468,13 +1477,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1492,7 +1501,7 @@
         <v>9282</v>
       </c>
       <c r="J17">
-        <v>9579.5</v>
+        <v>9489</v>
       </c>
       <c r="L17">
         <v>8817.9</v>
@@ -1504,13 +1513,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>297.5</v>
+        <v>207</v>
       </c>
       <c r="Q17">
-        <v>297.5</v>
+        <v>207</v>
       </c>
       <c r="R17">
-        <v>3.21</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1518,13 +1527,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1554,7 +1563,7 @@
         <v>282.8</v>
       </c>
       <c r="N18" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1574,13 +1583,13 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1598,7 +1607,7 @@
         <v>9891</v>
       </c>
       <c r="J19">
-        <v>1437.1</v>
+        <v>1426.1</v>
       </c>
       <c r="L19">
         <v>1342.35</v>
@@ -1610,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>168.7</v>
+        <v>91.7</v>
       </c>
       <c r="Q19">
-        <v>168.7</v>
+        <v>91.7</v>
       </c>
       <c r="R19">
-        <v>1.71</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1624,13 +1633,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1648,7 +1657,7 @@
         <v>5711</v>
       </c>
       <c r="J20">
-        <v>5676.5</v>
+        <v>5651.5</v>
       </c>
       <c r="L20">
         <v>5425.45</v>
@@ -1660,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>-34.5</v>
+        <v>-59.5</v>
       </c>
       <c r="Q20">
-        <v>-34.5</v>
+        <v>-59.5</v>
       </c>
       <c r="R20">
-        <v>-0.6</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1674,16 +1683,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>122.38</v>
@@ -1698,10 +1707,10 @@
         <v>9912.780000000001</v>
       </c>
       <c r="J21">
-        <v>128.68</v>
+        <v>132.36</v>
       </c>
       <c r="L21">
-        <v>116.26</v>
+        <v>122.38</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1710,13 +1719,13 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>510.3</v>
+        <v>808.38</v>
       </c>
       <c r="Q21">
-        <v>510.3</v>
+        <v>808.38</v>
       </c>
       <c r="R21">
-        <v>5.15</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1724,13 +1733,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1748,7 +1757,7 @@
         <v>7948.2</v>
       </c>
       <c r="J22">
-        <v>4221.5</v>
+        <v>4196.9</v>
       </c>
       <c r="L22">
         <v>3974.1</v>
@@ -1760,13 +1769,13 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>494.8</v>
+        <v>445.6</v>
       </c>
       <c r="Q22">
-        <v>494.8</v>
+        <v>445.6</v>
       </c>
       <c r="R22">
-        <v>6.23</v>
+        <v>5.61</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1774,13 +1783,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1810,7 +1819,7 @@
         <v>972.9400000000001</v>
       </c>
       <c r="N23" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O23">
         <v>-460.8900000000003</v>
@@ -1830,13 +1839,13 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1866,7 +1875,7 @@
         <v>158.14</v>
       </c>
       <c r="N24" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O24">
         <v>-499.2000000000013</v>
@@ -1886,13 +1895,13 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1922,7 +1931,7 @@
         <v>1001.11</v>
       </c>
       <c r="N25" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O25">
         <v>-474.2099999999995</v>
@@ -1942,13 +1951,13 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1966,7 +1975,7 @@
         <v>9891.950000000001</v>
       </c>
       <c r="J26">
-        <v>260.2</v>
+        <v>267.45</v>
       </c>
       <c r="L26">
         <v>253.98</v>
@@ -1978,13 +1987,13 @@
         <v>0</v>
       </c>
       <c r="P26">
-        <v>-264.55</v>
+        <v>3.7</v>
       </c>
       <c r="Q26">
-        <v>-264.55</v>
+        <v>3.7</v>
       </c>
       <c r="R26">
-        <v>-2.67</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -1992,13 +2001,13 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2028,7 +2037,7 @@
         <v>951.52</v>
       </c>
       <c r="N27" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O27">
         <v>-450.7200000000004</v>
@@ -2048,13 +2057,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2084,7 +2093,7 @@
         <v>1880.9</v>
       </c>
       <c r="N28" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O28">
         <v>-495</v>
@@ -2104,13 +2113,13 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2140,7 +2149,7 @@
         <v>854</v>
       </c>
       <c r="N29" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="O29">
         <v>-523.0499999999995</v>
@@ -2160,13 +2169,13 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2178,7 +2187,7 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>6642.5</v>
@@ -2186,23 +2195,29 @@
       <c r="J30">
         <v>6355.5</v>
       </c>
+      <c r="K30" t="s">
+        <v>30</v>
+      </c>
       <c r="L30">
         <v>6310.38</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>6310.38</v>
+      </c>
+      <c r="N30" t="s">
+        <v>82</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>-332.1199999999999</v>
       </c>
       <c r="P30">
-        <v>-287</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>-287</v>
+        <v>-332.1199999999999</v>
       </c>
       <c r="R30">
-        <v>-4.32</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2210,13 +2225,13 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2234,7 +2249,7 @@
         <v>9695.950000000001</v>
       </c>
       <c r="J31">
-        <v>554.4</v>
+        <v>546.75</v>
       </c>
       <c r="L31">
         <v>541.83</v>
@@ -2246,13 +2261,13 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <v>-271.15</v>
+        <v>-401.2</v>
       </c>
       <c r="Q31">
-        <v>-271.15</v>
+        <v>-401.2</v>
       </c>
       <c r="R31">
-        <v>-2.8</v>
+        <v>-4.14</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2260,13 +2275,13 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2278,7 +2293,7 @@
         <v>12</v>
       </c>
       <c r="H32">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>9334.200000000001</v>
@@ -2286,23 +2301,29 @@
       <c r="J32">
         <v>743.2</v>
       </c>
+      <c r="K32" t="s">
+        <v>30</v>
+      </c>
       <c r="L32">
         <v>738.96</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>738.96</v>
+      </c>
+      <c r="N32" t="s">
+        <v>82</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>-466.6799999999998</v>
       </c>
       <c r="P32">
-        <v>-415.8</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>-415.8</v>
+        <v>-466.6799999999998</v>
       </c>
       <c r="R32">
-        <v>-4.45</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -2310,13 +2331,13 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D33" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2346,7 +2367,7 @@
         <v>637.64</v>
       </c>
       <c r="N33" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O33">
         <v>-469.8400000000008</v>
@@ -2366,13 +2387,13 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D34" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2393,7 +2414,7 @@
         <v>1728.7</v>
       </c>
       <c r="K34" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L34">
         <v>1693.47</v>
@@ -2402,7 +2423,7 @@
         <v>1693.47</v>
       </c>
       <c r="N34" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O34">
         <v>-445.6499999999994</v>
@@ -2422,13 +2443,13 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D35" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2446,7 +2467,7 @@
         <v>9909.549999999999</v>
       </c>
       <c r="J35">
-        <v>438.4</v>
+        <v>433.85</v>
       </c>
       <c r="L35">
         <v>409.31</v>
@@ -2458,13 +2479,13 @@
         <v>0</v>
       </c>
       <c r="P35">
-        <v>173.65</v>
+        <v>69</v>
       </c>
       <c r="Q35">
-        <v>173.65</v>
+        <v>69</v>
       </c>
       <c r="R35">
-        <v>1.75</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -2472,13 +2493,13 @@
         <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D36" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2496,7 +2517,7 @@
         <v>5021</v>
       </c>
       <c r="J36">
-        <v>4935</v>
+        <v>4872.5</v>
       </c>
       <c r="L36">
         <v>4769.95</v>
@@ -2508,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="P36">
-        <v>-86</v>
+        <v>-148.5</v>
       </c>
       <c r="Q36">
-        <v>-86</v>
+        <v>-148.5</v>
       </c>
       <c r="R36">
-        <v>-1.71</v>
+        <v>-2.96</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -2522,13 +2543,13 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2546,7 +2567,7 @@
         <v>9945.040000000001</v>
       </c>
       <c r="J37">
-        <v>113.55</v>
+        <v>114.79</v>
       </c>
       <c r="L37">
         <v>109.86</v>
@@ -2558,13 +2579,13 @@
         <v>0</v>
       </c>
       <c r="P37">
-        <v>-179.74</v>
+        <v>-73.09999999999999</v>
       </c>
       <c r="Q37">
-        <v>-179.74</v>
+        <v>-73.09999999999999</v>
       </c>
       <c r="R37">
-        <v>-1.81</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -2572,13 +2593,13 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D38" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2596,7 +2617,7 @@
         <v>9622.049999999999</v>
       </c>
       <c r="J38">
-        <v>432.2</v>
+        <v>431</v>
       </c>
       <c r="L38">
         <v>397.43</v>
@@ -2608,13 +2629,13 @@
         <v>0</v>
       </c>
       <c r="P38">
-        <v>318.55</v>
+        <v>290.95</v>
       </c>
       <c r="Q38">
-        <v>318.55</v>
+        <v>290.95</v>
       </c>
       <c r="R38">
-        <v>3.31</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -2622,13 +2643,13 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D39" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2658,7 +2679,7 @@
         <v>260.54</v>
       </c>
       <c r="N39" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O39">
         <v>-493.5599999999993</v>
@@ -2678,13 +2699,13 @@
         <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2702,7 +2723,7 @@
         <v>9968.4</v>
       </c>
       <c r="J40">
-        <v>1668.5</v>
+        <v>1698</v>
       </c>
       <c r="L40">
         <v>1578.33</v>
@@ -2714,13 +2735,13 @@
         <v>0</v>
       </c>
       <c r="P40">
-        <v>42.6</v>
+        <v>219.6</v>
       </c>
       <c r="Q40">
-        <v>42.6</v>
+        <v>219.6</v>
       </c>
       <c r="R40">
-        <v>0.43</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -2728,13 +2749,13 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D41" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2746,7 +2767,7 @@
         <v>3</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>8689.200000000001</v>
@@ -2754,23 +2775,29 @@
       <c r="J41">
         <v>2813.9</v>
       </c>
+      <c r="K41" t="s">
+        <v>30</v>
+      </c>
       <c r="L41">
         <v>2751.58</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>2751.58</v>
+      </c>
+      <c r="N41" t="s">
+        <v>82</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>-434.4600000000005</v>
       </c>
       <c r="P41">
-        <v>-247.5</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>-247.5</v>
+        <v>-434.4600000000005</v>
       </c>
       <c r="R41">
-        <v>-2.85</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -2778,13 +2805,13 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C42" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2802,7 +2829,7 @@
         <v>9891.700000000001</v>
       </c>
       <c r="J42">
-        <v>1418.4</v>
+        <v>1410.8</v>
       </c>
       <c r="L42">
         <v>1342.44</v>
@@ -2814,13 +2841,13 @@
         <v>0</v>
       </c>
       <c r="P42">
-        <v>37.1</v>
+        <v>-16.1</v>
       </c>
       <c r="Q42">
-        <v>37.1</v>
+        <v>-16.1</v>
       </c>
       <c r="R42">
-        <v>0.38</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -2828,13 +2855,13 @@
         <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C43" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2855,7 +2882,7 @@
         <v>4056.4</v>
       </c>
       <c r="K43" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L43">
         <v>3853.58</v>
@@ -2864,7 +2891,7 @@
         <v>3853.58</v>
       </c>
       <c r="N43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O43">
         <v>-405.6400000000003</v>
@@ -2884,13 +2911,13 @@
         <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C44" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D44" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2908,7 +2935,7 @@
         <v>9686.25</v>
       </c>
       <c r="J44">
-        <v>356.9</v>
+        <v>363.2</v>
       </c>
       <c r="L44">
         <v>340.81</v>
@@ -2920,17 +2947,117 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>-49.95</v>
+        <v>120.15</v>
       </c>
       <c r="Q44">
-        <v>-49.95</v>
+        <v>120.15</v>
       </c>
       <c r="R44">
-        <v>-0.52</v>
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" t="s">
+        <v>78</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1689.8</v>
+      </c>
+      <c r="G45">
+        <v>5</v>
+      </c>
+      <c r="H45">
+        <v>5</v>
+      </c>
+      <c r="I45">
+        <v>8449</v>
+      </c>
+      <c r="J45">
+        <v>1689.8</v>
+      </c>
+      <c r="L45">
+        <v>1605.31</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>346.35</v>
+      </c>
+      <c r="G46">
+        <v>28</v>
+      </c>
+      <c r="H46">
+        <v>28</v>
+      </c>
+      <c r="I46">
+        <v>9697.800000000001</v>
+      </c>
+      <c r="J46">
+        <v>346.35</v>
+      </c>
+      <c r="L46">
+        <v>329.03</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S44"/>
+  <autoFilter ref="A1:S46"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="85">
   <si>
     <t>Buy Date</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>CLOSED</t>
+  </si>
+  <si>
+    <t>2026-01-19</t>
   </si>
   <si>
     <t>2026-01-14</t>
@@ -748,7 +751,7 @@
         <v>8812.799999999999</v>
       </c>
       <c r="J2">
-        <v>2157.3</v>
+        <v>2134.6</v>
       </c>
       <c r="L2">
         <v>2093.04</v>
@@ -760,13 +763,13 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>-183.6</v>
+        <v>-274.4</v>
       </c>
       <c r="Q2">
-        <v>-183.6</v>
+        <v>-274.4</v>
       </c>
       <c r="R2">
-        <v>-2.08</v>
+        <v>-3.11</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -798,7 +801,7 @@
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1294.2</v>
+        <v>1307.5</v>
       </c>
       <c r="L3">
         <v>1170.4</v>
@@ -810,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>497.6</v>
+        <v>604</v>
       </c>
       <c r="Q3">
-        <v>497.6</v>
+        <v>604</v>
       </c>
       <c r="R3">
-        <v>5.05</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -848,7 +851,7 @@
         <v>6041.5</v>
       </c>
       <c r="J4">
-        <v>5898.5</v>
+        <v>5943.5</v>
       </c>
       <c r="L4">
         <v>5739.43</v>
@@ -860,13 +863,13 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>-143</v>
+        <v>-98</v>
       </c>
       <c r="Q4">
-        <v>-143</v>
+        <v>-98</v>
       </c>
       <c r="R4">
-        <v>-2.37</v>
+        <v>-1.62</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -898,7 +901,7 @@
         <v>8527.200000000001</v>
       </c>
       <c r="J5">
-        <v>2809.6</v>
+        <v>2780</v>
       </c>
       <c r="L5">
         <v>2700.28</v>
@@ -910,13 +913,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>-98.40000000000001</v>
+        <v>-187.2</v>
       </c>
       <c r="Q5">
-        <v>-98.40000000000001</v>
+        <v>-187.2</v>
       </c>
       <c r="R5">
-        <v>-1.15</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -948,7 +951,7 @@
         <v>9173.200000000001</v>
       </c>
       <c r="J6">
-        <v>2360.4</v>
+        <v>2413.9</v>
       </c>
       <c r="L6">
         <v>2178.64</v>
@@ -960,13 +963,13 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>268.4</v>
+        <v>482.4</v>
       </c>
       <c r="Q6">
-        <v>268.4</v>
+        <v>482.4</v>
       </c>
       <c r="R6">
-        <v>2.93</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -998,7 +1001,7 @@
         <v>8960</v>
       </c>
       <c r="J7">
-        <v>1315.9</v>
+        <v>1315.6</v>
       </c>
       <c r="L7">
         <v>1216</v>
@@ -1010,13 +1013,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>251.3</v>
+        <v>249.2</v>
       </c>
       <c r="Q7">
-        <v>251.3</v>
+        <v>249.2</v>
       </c>
       <c r="R7">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1048,7 +1051,7 @@
         <v>9722.1</v>
       </c>
       <c r="J8">
-        <v>3267.9</v>
+        <v>3221</v>
       </c>
       <c r="L8">
         <v>3078.66</v>
@@ -1060,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>81.59999999999999</v>
+        <v>-59.1</v>
       </c>
       <c r="Q8">
-        <v>81.59999999999999</v>
+        <v>-59.1</v>
       </c>
       <c r="R8">
-        <v>0.84</v>
+        <v>-0.61</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1098,7 +1101,7 @@
         <v>9162.9</v>
       </c>
       <c r="J9">
-        <v>2919.2</v>
+        <v>2952.6</v>
       </c>
       <c r="L9">
         <v>2901.59</v>
@@ -1110,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>-405.3</v>
+        <v>-305.1</v>
       </c>
       <c r="Q9">
-        <v>-405.3</v>
+        <v>-305.1</v>
       </c>
       <c r="R9">
-        <v>-4.42</v>
+        <v>-3.33</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1148,7 +1151,7 @@
         <v>9227.700000000001</v>
       </c>
       <c r="J10">
-        <v>3027.4</v>
+        <v>2962.5</v>
       </c>
       <c r="L10">
         <v>2922.11</v>
@@ -1160,13 +1163,13 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>-145.5</v>
+        <v>-340.2</v>
       </c>
       <c r="Q10">
-        <v>-145.5</v>
+        <v>-340.2</v>
       </c>
       <c r="R10">
-        <v>-1.58</v>
+        <v>-3.69</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1198,7 +1201,7 @@
         <v>9993.4</v>
       </c>
       <c r="J11">
-        <v>188.21</v>
+        <v>188.27</v>
       </c>
       <c r="L11">
         <v>180.92</v>
@@ -1210,16 +1213,16 @@
         <v>499.6700000000005</v>
       </c>
       <c r="P11">
-        <v>461.39</v>
+        <v>463.13</v>
       </c>
       <c r="Q11">
-        <v>961.0599999999999</v>
+        <v>962.8</v>
       </c>
       <c r="R11">
-        <v>9.619999999999999</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="S11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1251,7 +1254,7 @@
         <v>9674.4</v>
       </c>
       <c r="J12">
-        <v>1670.5</v>
+        <v>1718.3</v>
       </c>
       <c r="L12">
         <v>1531.78</v>
@@ -1263,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>348.6</v>
+        <v>635.4</v>
       </c>
       <c r="Q12">
-        <v>348.6</v>
+        <v>635.4</v>
       </c>
       <c r="R12">
-        <v>3.6</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1301,7 +1304,7 @@
         <v>9251.4</v>
       </c>
       <c r="J13">
-        <v>790.15</v>
+        <v>787.15</v>
       </c>
       <c r="L13">
         <v>732.4</v>
@@ -1313,13 +1316,13 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>230.4</v>
+        <v>194.4</v>
       </c>
       <c r="Q13">
-        <v>230.4</v>
+        <v>194.4</v>
       </c>
       <c r="R13">
-        <v>2.49</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1351,7 +1354,7 @@
         <v>9768</v>
       </c>
       <c r="J14">
-        <v>678</v>
+        <v>660.95</v>
       </c>
       <c r="L14">
         <v>651.2</v>
@@ -1363,13 +1366,13 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>402</v>
+        <v>146.25</v>
       </c>
       <c r="Q14">
-        <v>402</v>
+        <v>146.25</v>
       </c>
       <c r="R14">
-        <v>4.12</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1401,7 +1404,7 @@
         <v>9561.6</v>
       </c>
       <c r="J15">
-        <v>1189.1</v>
+        <v>1180.2</v>
       </c>
       <c r="L15">
         <v>1135.44</v>
@@ -1413,13 +1416,13 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>-48.8</v>
+        <v>-120</v>
       </c>
       <c r="Q15">
-        <v>-48.8</v>
+        <v>-120</v>
       </c>
       <c r="R15">
-        <v>-0.51</v>
+        <v>-1.26</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1451,7 +1454,7 @@
         <v>6033.5</v>
       </c>
       <c r="J16">
-        <v>6308</v>
+        <v>6407</v>
       </c>
       <c r="L16">
         <v>5731.82</v>
@@ -1463,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>274.5</v>
+        <v>373.5</v>
       </c>
       <c r="Q16">
-        <v>274.5</v>
+        <v>373.5</v>
       </c>
       <c r="R16">
-        <v>4.55</v>
+        <v>6.19</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1501,7 +1504,7 @@
         <v>9282</v>
       </c>
       <c r="J17">
-        <v>9489</v>
+        <v>9429.5</v>
       </c>
       <c r="L17">
         <v>8817.9</v>
@@ -1513,13 +1516,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>207</v>
+        <v>147.5</v>
       </c>
       <c r="Q17">
-        <v>207</v>
+        <v>147.5</v>
       </c>
       <c r="R17">
-        <v>2.23</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1563,7 +1566,7 @@
         <v>282.8</v>
       </c>
       <c r="N18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1607,7 +1610,7 @@
         <v>9891</v>
       </c>
       <c r="J19">
-        <v>1426.1</v>
+        <v>1447.1</v>
       </c>
       <c r="L19">
         <v>1342.35</v>
@@ -1619,13 +1622,13 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>91.7</v>
+        <v>238.7</v>
       </c>
       <c r="Q19">
-        <v>91.7</v>
+        <v>238.7</v>
       </c>
       <c r="R19">
-        <v>0.93</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1657,7 +1660,7 @@
         <v>5711</v>
       </c>
       <c r="J20">
-        <v>5651.5</v>
+        <v>5762.5</v>
       </c>
       <c r="L20">
         <v>5425.45</v>
@@ -1669,13 +1672,13 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>-59.5</v>
+        <v>51.5</v>
       </c>
       <c r="Q20">
-        <v>-59.5</v>
+        <v>51.5</v>
       </c>
       <c r="R20">
-        <v>-1.04</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1689,10 +1692,10 @@
         <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>122.38</v>
@@ -1701,7 +1704,7 @@
         <v>81</v>
       </c>
       <c r="H21">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>9912.780000000001</v>
@@ -1709,23 +1712,29 @@
       <c r="J21">
         <v>132.36</v>
       </c>
+      <c r="K21" t="s">
+        <v>80</v>
+      </c>
       <c r="L21">
-        <v>122.38</v>
+        <v>128.5</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>128.499</v>
+      </c>
+      <c r="N21" t="s">
+        <v>83</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>495.639</v>
       </c>
       <c r="P21">
-        <v>808.38</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>808.38</v>
+        <v>495.639</v>
       </c>
       <c r="R21">
-        <v>8.15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1757,7 +1766,7 @@
         <v>7948.2</v>
       </c>
       <c r="J22">
-        <v>4196.9</v>
+        <v>4144.1</v>
       </c>
       <c r="L22">
         <v>3974.1</v>
@@ -1769,13 +1778,13 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>445.6</v>
+        <v>340</v>
       </c>
       <c r="Q22">
-        <v>445.6</v>
+        <v>340</v>
       </c>
       <c r="R22">
-        <v>5.61</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1819,7 +1828,7 @@
         <v>972.9400000000001</v>
       </c>
       <c r="N23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O23">
         <v>-460.8900000000003</v>
@@ -1875,7 +1884,7 @@
         <v>158.14</v>
       </c>
       <c r="N24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O24">
         <v>-499.2000000000013</v>
@@ -1931,7 +1940,7 @@
         <v>1001.11</v>
       </c>
       <c r="N25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O25">
         <v>-474.2099999999995</v>
@@ -1957,7 +1966,7 @@
         <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1969,7 +1978,7 @@
         <v>37</v>
       </c>
       <c r="H26">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>9891.950000000001</v>
@@ -1977,23 +1986,29 @@
       <c r="J26">
         <v>267.45</v>
       </c>
+      <c r="K26" t="s">
+        <v>80</v>
+      </c>
       <c r="L26">
         <v>253.98</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>252</v>
+      </c>
+      <c r="N26" t="s">
+        <v>84</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>-567.9500000000008</v>
       </c>
       <c r="P26">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>3.7</v>
+        <v>-567.9500000000008</v>
       </c>
       <c r="R26">
-        <v>0.04</v>
+        <v>-5.74</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2037,7 +2052,7 @@
         <v>951.52</v>
       </c>
       <c r="N27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27">
         <v>-450.7200000000004</v>
@@ -2093,7 +2108,7 @@
         <v>1880.9</v>
       </c>
       <c r="N28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O28">
         <v>-495</v>
@@ -2149,7 +2164,7 @@
         <v>854</v>
       </c>
       <c r="N29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O29">
         <v>-523.0499999999995</v>
@@ -2205,7 +2220,7 @@
         <v>6310.38</v>
       </c>
       <c r="N30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O30">
         <v>-332.1199999999999</v>
@@ -2231,7 +2246,7 @@
         <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2243,7 +2258,7 @@
         <v>17</v>
       </c>
       <c r="H31">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>9695.950000000001</v>
@@ -2251,23 +2266,29 @@
       <c r="J31">
         <v>546.75</v>
       </c>
+      <c r="K31" t="s">
+        <v>80</v>
+      </c>
       <c r="L31">
         <v>541.83</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>541.83</v>
+      </c>
+      <c r="N31" t="s">
+        <v>83</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>-484.8399999999997</v>
       </c>
       <c r="P31">
-        <v>-401.2</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>-401.2</v>
+        <v>-484.8399999999997</v>
       </c>
       <c r="R31">
-        <v>-4.14</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2311,7 +2332,7 @@
         <v>738.96</v>
       </c>
       <c r="N32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O32">
         <v>-466.6799999999998</v>
@@ -2367,7 +2388,7 @@
         <v>637.64</v>
       </c>
       <c r="N33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O33">
         <v>-469.8400000000008</v>
@@ -2414,7 +2435,7 @@
         <v>1728.7</v>
       </c>
       <c r="K34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L34">
         <v>1693.47</v>
@@ -2423,7 +2444,7 @@
         <v>1693.47</v>
       </c>
       <c r="N34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O34">
         <v>-445.6499999999994</v>
@@ -2467,7 +2488,7 @@
         <v>9909.549999999999</v>
       </c>
       <c r="J35">
-        <v>433.85</v>
+        <v>428.4</v>
       </c>
       <c r="L35">
         <v>409.31</v>
@@ -2479,13 +2500,13 @@
         <v>0</v>
       </c>
       <c r="P35">
-        <v>69</v>
+        <v>-56.35</v>
       </c>
       <c r="Q35">
-        <v>69</v>
+        <v>-56.35</v>
       </c>
       <c r="R35">
-        <v>0.7</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -2517,7 +2538,7 @@
         <v>5021</v>
       </c>
       <c r="J36">
-        <v>4872.5</v>
+        <v>4865.5</v>
       </c>
       <c r="L36">
         <v>4769.95</v>
@@ -2529,13 +2550,13 @@
         <v>0</v>
       </c>
       <c r="P36">
-        <v>-148.5</v>
+        <v>-155.5</v>
       </c>
       <c r="Q36">
-        <v>-148.5</v>
+        <v>-155.5</v>
       </c>
       <c r="R36">
-        <v>-2.96</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -2567,7 +2588,7 @@
         <v>9945.040000000001</v>
       </c>
       <c r="J37">
-        <v>114.79</v>
+        <v>112.33</v>
       </c>
       <c r="L37">
         <v>109.86</v>
@@ -2579,13 +2600,13 @@
         <v>0</v>
       </c>
       <c r="P37">
-        <v>-73.09999999999999</v>
+        <v>-284.66</v>
       </c>
       <c r="Q37">
-        <v>-73.09999999999999</v>
+        <v>-284.66</v>
       </c>
       <c r="R37">
-        <v>-0.74</v>
+        <v>-2.86</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -2617,7 +2638,7 @@
         <v>9622.049999999999</v>
       </c>
       <c r="J38">
-        <v>431</v>
+        <v>430.15</v>
       </c>
       <c r="L38">
         <v>397.43</v>
@@ -2629,13 +2650,13 @@
         <v>0</v>
       </c>
       <c r="P38">
-        <v>290.95</v>
+        <v>271.4</v>
       </c>
       <c r="Q38">
-        <v>290.95</v>
+        <v>271.4</v>
       </c>
       <c r="R38">
-        <v>3.02</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -2679,7 +2700,7 @@
         <v>260.54</v>
       </c>
       <c r="N39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O39">
         <v>-493.5599999999993</v>
@@ -2723,7 +2744,7 @@
         <v>9968.4</v>
       </c>
       <c r="J40">
-        <v>1698</v>
+        <v>1716.8</v>
       </c>
       <c r="L40">
         <v>1578.33</v>
@@ -2735,13 +2756,13 @@
         <v>0</v>
       </c>
       <c r="P40">
-        <v>219.6</v>
+        <v>332.4</v>
       </c>
       <c r="Q40">
-        <v>219.6</v>
+        <v>332.4</v>
       </c>
       <c r="R40">
-        <v>2.2</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -2785,7 +2806,7 @@
         <v>2751.58</v>
       </c>
       <c r="N41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O41">
         <v>-434.4600000000005</v>
@@ -2829,7 +2850,7 @@
         <v>9891.700000000001</v>
       </c>
       <c r="J42">
-        <v>1410.8</v>
+        <v>1380.6</v>
       </c>
       <c r="L42">
         <v>1342.44</v>
@@ -2841,13 +2862,13 @@
         <v>0</v>
       </c>
       <c r="P42">
-        <v>-16.1</v>
+        <v>-227.5</v>
       </c>
       <c r="Q42">
-        <v>-16.1</v>
+        <v>-227.5</v>
       </c>
       <c r="R42">
-        <v>-0.16</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -2882,7 +2903,7 @@
         <v>4056.4</v>
       </c>
       <c r="K43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L43">
         <v>3853.58</v>
@@ -2891,7 +2912,7 @@
         <v>3853.58</v>
       </c>
       <c r="N43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O43">
         <v>-405.6400000000003</v>
@@ -2935,7 +2956,7 @@
         <v>9686.25</v>
       </c>
       <c r="J44">
-        <v>363.2</v>
+        <v>361.25</v>
       </c>
       <c r="L44">
         <v>340.81</v>
@@ -2947,13 +2968,13 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>120.15</v>
+        <v>67.5</v>
       </c>
       <c r="Q44">
-        <v>120.15</v>
+        <v>67.5</v>
       </c>
       <c r="R44">
-        <v>1.24</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -2985,7 +3006,7 @@
         <v>8449</v>
       </c>
       <c r="J45">
-        <v>1689.8</v>
+        <v>1681.2</v>
       </c>
       <c r="L45">
         <v>1605.31</v>
@@ -2997,13 +3018,13 @@
         <v>0</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>-43</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>-43</v>
       </c>
       <c r="R45">
-        <v>0</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3032,10 +3053,10 @@
         <v>28</v>
       </c>
       <c r="I46">
-        <v>9697.800000000001</v>
+        <v>9697.799999999999</v>
       </c>
       <c r="J46">
-        <v>346.35</v>
+        <v>343.35</v>
       </c>
       <c r="L46">
         <v>329.03</v>
@@ -3047,13 +3068,13 @@
         <v>0</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>-84</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>-84</v>
       </c>
       <c r="R46">
-        <v>0</v>
+        <v>-0.87</v>
       </c>
     </row>
   </sheetData>

--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -10,14 +10,14 @@
     <sheet name="TradeBook" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TradeBook!$A$1:$S$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TradeBook!$A$1:$S$47</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="87">
   <si>
     <t>Buy Date</t>
   </si>
@@ -112,6 +112,9 @@
     <t>2026-01-16</t>
   </si>
   <si>
+    <t>2026-01-20</t>
+  </si>
+  <si>
     <t>ADANIENT</t>
   </si>
   <si>
@@ -244,6 +247,9 @@
     <t>NTPC</t>
   </si>
   <si>
+    <t>TCS</t>
+  </si>
+  <si>
     <t>Value Buy</t>
   </si>
   <si>
@@ -253,10 +259,10 @@
     <t>AGFS</t>
   </si>
   <si>
+    <t>CLOSED</t>
+  </si>
+  <si>
     <t>OPEN</t>
-  </si>
-  <si>
-    <t>CLOSED</t>
   </si>
   <si>
     <t>2026-01-19</t>
@@ -635,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S46"/>
+  <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -727,13 +733,13 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -745,7 +751,7 @@
         <v>4</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>8812.799999999999</v>
@@ -753,23 +759,29 @@
       <c r="J2">
         <v>2134.6</v>
       </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
       <c r="L2">
         <v>2093.04</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>2093.04</v>
+      </c>
+      <c r="N2" t="s">
+        <v>85</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-440.6399999999994</v>
       </c>
       <c r="P2">
-        <v>-274.4</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>-274.4</v>
+        <v>-440.6399999999994</v>
       </c>
       <c r="R2">
-        <v>-3.11</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -777,13 +789,13 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -801,7 +813,7 @@
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1307.5</v>
+        <v>1293.5</v>
       </c>
       <c r="L3">
         <v>1170.4</v>
@@ -813,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>604</v>
+        <v>492</v>
       </c>
       <c r="Q3">
-        <v>604</v>
+        <v>492</v>
       </c>
       <c r="R3">
-        <v>6.13</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -827,13 +839,13 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -851,7 +863,7 @@
         <v>6041.5</v>
       </c>
       <c r="J4">
-        <v>5943.5</v>
+        <v>5884</v>
       </c>
       <c r="L4">
         <v>5739.43</v>
@@ -863,13 +875,13 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>-98</v>
+        <v>-157.5</v>
       </c>
       <c r="Q4">
-        <v>-98</v>
+        <v>-157.5</v>
       </c>
       <c r="R4">
-        <v>-1.62</v>
+        <v>-2.61</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -877,13 +889,13 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -901,7 +913,7 @@
         <v>8527.200000000001</v>
       </c>
       <c r="J5">
-        <v>2780</v>
+        <v>2713.6</v>
       </c>
       <c r="L5">
         <v>2700.28</v>
@@ -913,13 +925,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>-187.2</v>
+        <v>-386.4</v>
       </c>
       <c r="Q5">
-        <v>-187.2</v>
+        <v>-386.4</v>
       </c>
       <c r="R5">
-        <v>-2.2</v>
+        <v>-4.53</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -927,13 +939,13 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -951,7 +963,7 @@
         <v>9173.200000000001</v>
       </c>
       <c r="J6">
-        <v>2413.9</v>
+        <v>2379.1</v>
       </c>
       <c r="L6">
         <v>2178.64</v>
@@ -963,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>482.4</v>
+        <v>343.2</v>
       </c>
       <c r="Q6">
-        <v>482.4</v>
+        <v>343.2</v>
       </c>
       <c r="R6">
-        <v>5.26</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -977,13 +989,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1001,7 +1013,7 @@
         <v>8960</v>
       </c>
       <c r="J7">
-        <v>1315.6</v>
+        <v>1295.7</v>
       </c>
       <c r="L7">
         <v>1216</v>
@@ -1013,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>249.2</v>
+        <v>109.9</v>
       </c>
       <c r="Q7">
-        <v>249.2</v>
+        <v>109.9</v>
       </c>
       <c r="R7">
-        <v>2.78</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1027,13 +1039,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1051,7 +1063,7 @@
         <v>9722.1</v>
       </c>
       <c r="J8">
-        <v>3221</v>
+        <v>3153.2</v>
       </c>
       <c r="L8">
         <v>3078.66</v>
@@ -1063,13 +1075,13 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>-59.1</v>
+        <v>-262.5</v>
       </c>
       <c r="Q8">
-        <v>-59.1</v>
+        <v>-262.5</v>
       </c>
       <c r="R8">
-        <v>-0.61</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1077,13 +1089,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1095,7 +1107,7 @@
         <v>3</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>9162.9</v>
@@ -1103,23 +1115,29 @@
       <c r="J9">
         <v>2952.6</v>
       </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
       <c r="L9">
         <v>2901.59</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>2901.59</v>
+      </c>
+      <c r="N9" t="s">
+        <v>85</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>-458.1300000000001</v>
       </c>
       <c r="P9">
-        <v>-305.1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>-305.1</v>
+        <v>-458.1300000000001</v>
       </c>
       <c r="R9">
-        <v>-3.33</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1127,13 +1145,13 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1145,7 +1163,7 @@
         <v>3</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>9227.700000000001</v>
@@ -1153,23 +1171,29 @@
       <c r="J10">
         <v>2962.5</v>
       </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
       <c r="L10">
         <v>2922.11</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2922.11</v>
+      </c>
+      <c r="N10" t="s">
+        <v>85</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>-461.3699999999999</v>
       </c>
       <c r="P10">
-        <v>-340.2</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>-340.2</v>
+        <v>-461.3699999999999</v>
       </c>
       <c r="R10">
-        <v>-3.69</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1177,13 +1201,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1201,7 +1225,7 @@
         <v>9993.4</v>
       </c>
       <c r="J11">
-        <v>188.27</v>
+        <v>183.56</v>
       </c>
       <c r="L11">
         <v>180.92</v>
@@ -1213,16 +1237,16 @@
         <v>499.6700000000005</v>
       </c>
       <c r="P11">
-        <v>463.13</v>
+        <v>326.54</v>
       </c>
       <c r="Q11">
-        <v>962.8</v>
+        <v>826.21</v>
       </c>
       <c r="R11">
-        <v>9.630000000000001</v>
+        <v>8.27</v>
       </c>
       <c r="S11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1230,13 +1254,13 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1254,7 +1278,7 @@
         <v>9674.4</v>
       </c>
       <c r="J12">
-        <v>1718.3</v>
+        <v>1678.5</v>
       </c>
       <c r="L12">
         <v>1531.78</v>
@@ -1266,13 +1290,13 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>635.4</v>
+        <v>396.6</v>
       </c>
       <c r="Q12">
-        <v>635.4</v>
+        <v>396.6</v>
       </c>
       <c r="R12">
-        <v>6.57</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1280,13 +1304,13 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1298,7 +1322,7 @@
         <v>12</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>9251.4</v>
@@ -1306,23 +1330,29 @@
       <c r="J13">
         <v>787.15</v>
       </c>
+      <c r="K13" t="s">
+        <v>31</v>
+      </c>
       <c r="L13">
         <v>732.4</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>732.4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>85</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>-462.6000000000008</v>
       </c>
       <c r="P13">
-        <v>194.4</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>194.4</v>
+        <v>-462.6000000000008</v>
       </c>
       <c r="R13">
-        <v>2.1</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1330,13 +1360,13 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1348,7 +1378,7 @@
         <v>15</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>9768</v>
@@ -1356,23 +1386,29 @@
       <c r="J14">
         <v>660.95</v>
       </c>
+      <c r="K14" t="s">
+        <v>31</v>
+      </c>
       <c r="L14">
         <v>651.2</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>651.2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>85</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>146.25</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>146.25</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1380,13 +1416,13 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1404,7 +1440,7 @@
         <v>9561.6</v>
       </c>
       <c r="J15">
-        <v>1180.2</v>
+        <v>1185</v>
       </c>
       <c r="L15">
         <v>1135.44</v>
@@ -1416,13 +1452,13 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>-120</v>
+        <v>-81.59999999999999</v>
       </c>
       <c r="Q15">
-        <v>-120</v>
+        <v>-81.59999999999999</v>
       </c>
       <c r="R15">
-        <v>-1.26</v>
+        <v>-0.85</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1430,13 +1466,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1454,7 +1490,7 @@
         <v>6033.5</v>
       </c>
       <c r="J16">
-        <v>6407</v>
+        <v>5976.5</v>
       </c>
       <c r="L16">
         <v>5731.82</v>
@@ -1466,13 +1502,13 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>373.5</v>
+        <v>-57</v>
       </c>
       <c r="Q16">
-        <v>373.5</v>
+        <v>-57</v>
       </c>
       <c r="R16">
-        <v>6.19</v>
+        <v>-0.9399999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1480,13 +1516,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1504,7 +1540,7 @@
         <v>9282</v>
       </c>
       <c r="J17">
-        <v>9429.5</v>
+        <v>9180</v>
       </c>
       <c r="L17">
         <v>8817.9</v>
@@ -1516,13 +1552,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>147.5</v>
+        <v>-102</v>
       </c>
       <c r="Q17">
-        <v>147.5</v>
+        <v>-102</v>
       </c>
       <c r="R17">
-        <v>1.59</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1530,13 +1566,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1566,7 +1602,7 @@
         <v>282.8</v>
       </c>
       <c r="N18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1586,13 +1622,13 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1604,7 +1640,7 @@
         <v>7</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>9891</v>
@@ -1612,23 +1648,29 @@
       <c r="J19">
         <v>1447.1</v>
       </c>
+      <c r="K19" t="s">
+        <v>31</v>
+      </c>
       <c r="L19">
         <v>1342.35</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1342.35</v>
+      </c>
+      <c r="N19" t="s">
+        <v>85</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>-494.5500000000006</v>
       </c>
       <c r="P19">
-        <v>238.7</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>238.7</v>
+        <v>-494.5500000000006</v>
       </c>
       <c r="R19">
-        <v>2.41</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1636,13 +1678,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1660,7 +1702,7 @@
         <v>5711</v>
       </c>
       <c r="J20">
-        <v>5762.5</v>
+        <v>5580.5</v>
       </c>
       <c r="L20">
         <v>5425.45</v>
@@ -1672,13 +1714,13 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>51.5</v>
+        <v>-130.5</v>
       </c>
       <c r="Q20">
-        <v>51.5</v>
+        <v>-130.5</v>
       </c>
       <c r="R20">
-        <v>0.9</v>
+        <v>-2.29</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1686,13 +1728,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1713,7 +1755,7 @@
         <v>132.36</v>
       </c>
       <c r="K21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L21">
         <v>128.5</v>
@@ -1722,7 +1764,7 @@
         <v>128.499</v>
       </c>
       <c r="N21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O21">
         <v>495.639</v>
@@ -1742,13 +1784,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1766,7 +1808,7 @@
         <v>7948.2</v>
       </c>
       <c r="J22">
-        <v>4144.1</v>
+        <v>4075.5</v>
       </c>
       <c r="L22">
         <v>3974.1</v>
@@ -1778,13 +1820,13 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>340</v>
+        <v>202.8</v>
       </c>
       <c r="Q22">
-        <v>340</v>
+        <v>202.8</v>
       </c>
       <c r="R22">
-        <v>4.28</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1792,13 +1834,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1828,7 +1870,7 @@
         <v>972.9400000000001</v>
       </c>
       <c r="N23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O23">
         <v>-460.8900000000003</v>
@@ -1848,13 +1890,13 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1884,7 +1926,7 @@
         <v>158.14</v>
       </c>
       <c r="N24" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O24">
         <v>-499.2000000000013</v>
@@ -1904,13 +1946,13 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1940,7 +1982,7 @@
         <v>1001.11</v>
       </c>
       <c r="N25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O25">
         <v>-474.2099999999995</v>
@@ -1960,13 +2002,13 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1987,7 +2029,7 @@
         <v>267.45</v>
       </c>
       <c r="K26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L26">
         <v>253.98</v>
@@ -1996,7 +2038,7 @@
         <v>252</v>
       </c>
       <c r="N26" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O26">
         <v>-567.9500000000008</v>
@@ -2016,13 +2058,13 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2052,7 +2094,7 @@
         <v>951.52</v>
       </c>
       <c r="N27" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O27">
         <v>-450.7200000000004</v>
@@ -2072,13 +2114,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2108,7 +2150,7 @@
         <v>1880.9</v>
       </c>
       <c r="N28" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O28">
         <v>-495</v>
@@ -2128,13 +2170,13 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2164,7 +2206,7 @@
         <v>854</v>
       </c>
       <c r="N29" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O29">
         <v>-523.0499999999995</v>
@@ -2184,13 +2226,13 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2220,7 +2262,7 @@
         <v>6310.38</v>
       </c>
       <c r="N30" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O30">
         <v>-332.1199999999999</v>
@@ -2240,13 +2282,13 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2267,7 +2309,7 @@
         <v>546.75</v>
       </c>
       <c r="K31" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L31">
         <v>541.83</v>
@@ -2276,7 +2318,7 @@
         <v>541.83</v>
       </c>
       <c r="N31" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O31">
         <v>-484.8399999999997</v>
@@ -2296,13 +2338,13 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2332,7 +2374,7 @@
         <v>738.96</v>
       </c>
       <c r="N32" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O32">
         <v>-466.6799999999998</v>
@@ -2352,13 +2394,13 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2388,7 +2430,7 @@
         <v>637.64</v>
       </c>
       <c r="N33" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O33">
         <v>-469.8400000000008</v>
@@ -2408,13 +2450,13 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2435,7 +2477,7 @@
         <v>1728.7</v>
       </c>
       <c r="K34" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L34">
         <v>1693.47</v>
@@ -2444,7 +2486,7 @@
         <v>1693.47</v>
       </c>
       <c r="N34" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O34">
         <v>-445.6499999999994</v>
@@ -2464,13 +2506,13 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2488,7 +2530,7 @@
         <v>9909.549999999999</v>
       </c>
       <c r="J35">
-        <v>428.4</v>
+        <v>414.55</v>
       </c>
       <c r="L35">
         <v>409.31</v>
@@ -2500,13 +2542,13 @@
         <v>0</v>
       </c>
       <c r="P35">
-        <v>-56.35</v>
+        <v>-374.9</v>
       </c>
       <c r="Q35">
-        <v>-56.35</v>
+        <v>-374.9</v>
       </c>
       <c r="R35">
-        <v>-0.57</v>
+        <v>-3.78</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -2514,13 +2556,13 @@
         <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D36" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2532,7 +2574,7 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>5021</v>
@@ -2540,23 +2582,29 @@
       <c r="J36">
         <v>4865.5</v>
       </c>
+      <c r="K36" t="s">
+        <v>31</v>
+      </c>
       <c r="L36">
         <v>4769.95</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>4769.95</v>
+      </c>
+      <c r="N36" t="s">
+        <v>85</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>-251.0500000000002</v>
       </c>
       <c r="P36">
-        <v>-155.5</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>-155.5</v>
+        <v>-251.0500000000002</v>
       </c>
       <c r="R36">
-        <v>-3.1</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -2564,13 +2612,13 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D37" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2582,7 +2630,7 @@
         <v>86</v>
       </c>
       <c r="H37">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>9945.040000000001</v>
@@ -2590,23 +2638,29 @@
       <c r="J37">
         <v>112.33</v>
       </c>
+      <c r="K37" t="s">
+        <v>31</v>
+      </c>
       <c r="L37">
         <v>109.86</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>109.86</v>
+      </c>
+      <c r="N37" t="s">
+        <v>85</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>-497.0800000000001</v>
       </c>
       <c r="P37">
-        <v>-284.66</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>-284.66</v>
+        <v>-497.0800000000001</v>
       </c>
       <c r="R37">
-        <v>-2.86</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -2614,13 +2668,13 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D38" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2638,7 +2692,7 @@
         <v>9622.049999999999</v>
       </c>
       <c r="J38">
-        <v>430.15</v>
+        <v>415.3</v>
       </c>
       <c r="L38">
         <v>397.43</v>
@@ -2650,13 +2704,13 @@
         <v>0</v>
       </c>
       <c r="P38">
-        <v>271.4</v>
+        <v>-70.15000000000001</v>
       </c>
       <c r="Q38">
-        <v>271.4</v>
+        <v>-70.15000000000001</v>
       </c>
       <c r="R38">
-        <v>2.82</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -2664,13 +2718,13 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2700,7 +2754,7 @@
         <v>260.54</v>
       </c>
       <c r="N39" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O39">
         <v>-493.5599999999993</v>
@@ -2720,13 +2774,13 @@
         <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D40" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2744,7 +2798,7 @@
         <v>9968.4</v>
       </c>
       <c r="J40">
-        <v>1716.8</v>
+        <v>1687.3</v>
       </c>
       <c r="L40">
         <v>1578.33</v>
@@ -2756,13 +2810,13 @@
         <v>0</v>
       </c>
       <c r="P40">
-        <v>332.4</v>
+        <v>155.4</v>
       </c>
       <c r="Q40">
-        <v>332.4</v>
+        <v>155.4</v>
       </c>
       <c r="R40">
-        <v>3.33</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -2770,13 +2824,13 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2806,7 +2860,7 @@
         <v>2751.58</v>
       </c>
       <c r="N41" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O41">
         <v>-434.4600000000005</v>
@@ -2826,13 +2880,13 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D42" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2850,7 +2904,7 @@
         <v>9891.700000000001</v>
       </c>
       <c r="J42">
-        <v>1380.6</v>
+        <v>1375.8</v>
       </c>
       <c r="L42">
         <v>1342.44</v>
@@ -2862,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="P42">
-        <v>-227.5</v>
+        <v>-261.1</v>
       </c>
       <c r="Q42">
-        <v>-227.5</v>
+        <v>-261.1</v>
       </c>
       <c r="R42">
-        <v>-2.3</v>
+        <v>-2.64</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -2876,13 +2930,13 @@
         <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C43" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2903,7 +2957,7 @@
         <v>4056.4</v>
       </c>
       <c r="K43" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L43">
         <v>3853.58</v>
@@ -2912,7 +2966,7 @@
         <v>3853.58</v>
       </c>
       <c r="N43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O43">
         <v>-405.6400000000003</v>
@@ -2932,13 +2986,13 @@
         <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C44" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D44" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2956,7 +3010,7 @@
         <v>9686.25</v>
       </c>
       <c r="J44">
-        <v>361.25</v>
+        <v>355.2</v>
       </c>
       <c r="L44">
         <v>340.81</v>
@@ -2968,13 +3022,13 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>67.5</v>
+        <v>-95.84999999999999</v>
       </c>
       <c r="Q44">
-        <v>67.5</v>
+        <v>-95.84999999999999</v>
       </c>
       <c r="R44">
-        <v>0.7</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -2982,13 +3036,13 @@
         <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C45" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3006,7 +3060,7 @@
         <v>8449</v>
       </c>
       <c r="J45">
-        <v>1681.2</v>
+        <v>1658.9</v>
       </c>
       <c r="L45">
         <v>1605.31</v>
@@ -3018,13 +3072,13 @@
         <v>0</v>
       </c>
       <c r="P45">
-        <v>-43</v>
+        <v>-154.5</v>
       </c>
       <c r="Q45">
-        <v>-43</v>
+        <v>-154.5</v>
       </c>
       <c r="R45">
-        <v>-0.51</v>
+        <v>-1.83</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3032,13 +3086,13 @@
         <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D46" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3056,7 +3110,7 @@
         <v>9697.799999999999</v>
       </c>
       <c r="J46">
-        <v>343.35</v>
+        <v>338.75</v>
       </c>
       <c r="L46">
         <v>329.03</v>
@@ -3068,17 +3122,67 @@
         <v>0</v>
       </c>
       <c r="P46">
-        <v>-84</v>
+        <v>-212.8</v>
       </c>
       <c r="Q46">
-        <v>-84</v>
+        <v>-212.8</v>
       </c>
       <c r="R46">
-        <v>-0.87</v>
+        <v>-2.19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>3102.3</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>9306.900000000001</v>
+      </c>
+      <c r="J47">
+        <v>3102.3</v>
+      </c>
+      <c r="L47">
+        <v>2947.18</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S46"/>
+  <autoFilter ref="A1:S47"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="88">
   <si>
     <t>Buy Date</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>OPEN</t>
+  </si>
+  <si>
+    <t>2026-01-21</t>
   </si>
   <si>
     <t>2026-01-19</t>
@@ -769,7 +772,7 @@
         <v>2093.04</v>
       </c>
       <c r="N2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O2">
         <v>-440.6399999999994</v>
@@ -813,7 +816,7 @@
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1293.5</v>
+        <v>1284.9</v>
       </c>
       <c r="L3">
         <v>1170.4</v>
@@ -825,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>492</v>
+        <v>423.2</v>
       </c>
       <c r="Q3">
-        <v>492</v>
+        <v>423.2</v>
       </c>
       <c r="R3">
-        <v>4.99</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -863,7 +866,7 @@
         <v>6041.5</v>
       </c>
       <c r="J4">
-        <v>5884</v>
+        <v>5802.5</v>
       </c>
       <c r="L4">
         <v>5739.43</v>
@@ -875,13 +878,13 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>-157.5</v>
+        <v>-239</v>
       </c>
       <c r="Q4">
-        <v>-157.5</v>
+        <v>-239</v>
       </c>
       <c r="R4">
-        <v>-2.61</v>
+        <v>-3.96</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -913,7 +916,7 @@
         <v>8527.200000000001</v>
       </c>
       <c r="J5">
-        <v>2713.6</v>
+        <v>2735.6</v>
       </c>
       <c r="L5">
         <v>2700.28</v>
@@ -925,13 +928,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>-386.4</v>
+        <v>-320.4</v>
       </c>
       <c r="Q5">
-        <v>-386.4</v>
+        <v>-320.4</v>
       </c>
       <c r="R5">
-        <v>-4.53</v>
+        <v>-3.76</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -963,7 +966,7 @@
         <v>9173.200000000001</v>
       </c>
       <c r="J6">
-        <v>2379.1</v>
+        <v>2368</v>
       </c>
       <c r="L6">
         <v>2178.64</v>
@@ -975,13 +978,13 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>343.2</v>
+        <v>298.8</v>
       </c>
       <c r="Q6">
-        <v>343.2</v>
+        <v>298.8</v>
       </c>
       <c r="R6">
-        <v>3.74</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1013,7 +1016,7 @@
         <v>8960</v>
       </c>
       <c r="J7">
-        <v>1295.7</v>
+        <v>1283.2</v>
       </c>
       <c r="L7">
         <v>1216</v>
@@ -1025,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>109.9</v>
+        <v>22.4</v>
       </c>
       <c r="Q7">
-        <v>109.9</v>
+        <v>22.4</v>
       </c>
       <c r="R7">
-        <v>1.23</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1063,7 +1066,7 @@
         <v>9722.1</v>
       </c>
       <c r="J8">
-        <v>3153.2</v>
+        <v>3112.7</v>
       </c>
       <c r="L8">
         <v>3078.66</v>
@@ -1075,13 +1078,13 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>-262.5</v>
+        <v>-384</v>
       </c>
       <c r="Q8">
-        <v>-262.5</v>
+        <v>-384</v>
       </c>
       <c r="R8">
-        <v>-2.7</v>
+        <v>-3.95</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1125,7 +1128,7 @@
         <v>2901.59</v>
       </c>
       <c r="N9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O9">
         <v>-458.1300000000001</v>
@@ -1181,7 +1184,7 @@
         <v>2922.11</v>
       </c>
       <c r="N10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O10">
         <v>-461.3699999999999</v>
@@ -1207,7 +1210,7 @@
         <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1219,7 +1222,7 @@
         <v>58</v>
       </c>
       <c r="H11">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>9993.4</v>
@@ -1227,26 +1230,32 @@
       <c r="J11">
         <v>183.56</v>
       </c>
+      <c r="K11" t="s">
+        <v>82</v>
+      </c>
       <c r="L11">
         <v>180.92</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>180.92</v>
+      </c>
+      <c r="N11" t="s">
+        <v>86</v>
       </c>
       <c r="O11">
-        <v>499.6700000000005</v>
+        <v>749.6499999999999</v>
       </c>
       <c r="P11">
-        <v>326.54</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>826.21</v>
+        <v>749.6499999999999</v>
       </c>
       <c r="R11">
-        <v>8.27</v>
+        <v>7.5</v>
       </c>
       <c r="S11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1278,7 +1287,7 @@
         <v>9674.4</v>
       </c>
       <c r="J12">
-        <v>1678.5</v>
+        <v>1686.7</v>
       </c>
       <c r="L12">
         <v>1531.78</v>
@@ -1290,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>396.6</v>
+        <v>445.8</v>
       </c>
       <c r="Q12">
-        <v>396.6</v>
+        <v>445.8</v>
       </c>
       <c r="R12">
-        <v>4.1</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1340,7 +1349,7 @@
         <v>732.4</v>
       </c>
       <c r="N13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O13">
         <v>-462.6000000000008</v>
@@ -1396,7 +1405,7 @@
         <v>651.2</v>
       </c>
       <c r="N14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1440,7 +1449,7 @@
         <v>9561.6</v>
       </c>
       <c r="J15">
-        <v>1185</v>
+        <v>1163.6</v>
       </c>
       <c r="L15">
         <v>1135.44</v>
@@ -1452,13 +1461,13 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>-81.59999999999999</v>
+        <v>-252.8</v>
       </c>
       <c r="Q15">
-        <v>-81.59999999999999</v>
+        <v>-252.8</v>
       </c>
       <c r="R15">
-        <v>-0.85</v>
+        <v>-2.64</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1490,7 +1499,7 @@
         <v>6033.5</v>
       </c>
       <c r="J16">
-        <v>5976.5</v>
+        <v>5844</v>
       </c>
       <c r="L16">
         <v>5731.82</v>
@@ -1502,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>-57</v>
+        <v>-189.5</v>
       </c>
       <c r="Q16">
-        <v>-57</v>
+        <v>-189.5</v>
       </c>
       <c r="R16">
-        <v>-0.9399999999999999</v>
+        <v>-3.14</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1540,7 +1549,7 @@
         <v>9282</v>
       </c>
       <c r="J17">
-        <v>9180</v>
+        <v>9179</v>
       </c>
       <c r="L17">
         <v>8817.9</v>
@@ -1552,13 +1561,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>-102</v>
+        <v>-103</v>
       </c>
       <c r="Q17">
-        <v>-102</v>
+        <v>-103</v>
       </c>
       <c r="R17">
-        <v>-1.1</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1602,7 +1611,7 @@
         <v>282.8</v>
       </c>
       <c r="N18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1658,7 +1667,7 @@
         <v>1342.35</v>
       </c>
       <c r="N19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O19">
         <v>-494.5500000000006</v>
@@ -1702,7 +1711,7 @@
         <v>5711</v>
       </c>
       <c r="J20">
-        <v>5580.5</v>
+        <v>5538.5</v>
       </c>
       <c r="L20">
         <v>5425.45</v>
@@ -1714,13 +1723,13 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>-130.5</v>
+        <v>-172.5</v>
       </c>
       <c r="Q20">
-        <v>-130.5</v>
+        <v>-172.5</v>
       </c>
       <c r="R20">
-        <v>-2.29</v>
+        <v>-3.02</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1755,7 +1764,7 @@
         <v>132.36</v>
       </c>
       <c r="K21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L21">
         <v>128.5</v>
@@ -1764,7 +1773,7 @@
         <v>128.499</v>
       </c>
       <c r="N21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O21">
         <v>495.639</v>
@@ -1808,7 +1817,7 @@
         <v>7948.2</v>
       </c>
       <c r="J22">
-        <v>4075.5</v>
+        <v>4079.2</v>
       </c>
       <c r="L22">
         <v>3974.1</v>
@@ -1820,13 +1829,13 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>202.8</v>
+        <v>210.2</v>
       </c>
       <c r="Q22">
-        <v>202.8</v>
+        <v>210.2</v>
       </c>
       <c r="R22">
-        <v>2.55</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1870,7 +1879,7 @@
         <v>972.9400000000001</v>
       </c>
       <c r="N23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O23">
         <v>-460.8900000000003</v>
@@ -1926,7 +1935,7 @@
         <v>158.14</v>
       </c>
       <c r="N24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O24">
         <v>-499.2000000000013</v>
@@ -1982,7 +1991,7 @@
         <v>1001.11</v>
       </c>
       <c r="N25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O25">
         <v>-474.2099999999995</v>
@@ -2029,7 +2038,7 @@
         <v>267.45</v>
       </c>
       <c r="K26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L26">
         <v>253.98</v>
@@ -2038,7 +2047,7 @@
         <v>252</v>
       </c>
       <c r="N26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O26">
         <v>-567.9500000000008</v>
@@ -2094,7 +2103,7 @@
         <v>951.52</v>
       </c>
       <c r="N27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27">
         <v>-450.7200000000004</v>
@@ -2150,7 +2159,7 @@
         <v>1880.9</v>
       </c>
       <c r="N28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28">
         <v>-495</v>
@@ -2206,7 +2215,7 @@
         <v>854</v>
       </c>
       <c r="N29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O29">
         <v>-523.0499999999995</v>
@@ -2262,7 +2271,7 @@
         <v>6310.38</v>
       </c>
       <c r="N30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O30">
         <v>-332.1199999999999</v>
@@ -2309,7 +2318,7 @@
         <v>546.75</v>
       </c>
       <c r="K31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L31">
         <v>541.83</v>
@@ -2318,7 +2327,7 @@
         <v>541.83</v>
       </c>
       <c r="N31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O31">
         <v>-484.8399999999997</v>
@@ -2374,7 +2383,7 @@
         <v>738.96</v>
       </c>
       <c r="N32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O32">
         <v>-466.6799999999998</v>
@@ -2430,7 +2439,7 @@
         <v>637.64</v>
       </c>
       <c r="N33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O33">
         <v>-469.8400000000008</v>
@@ -2477,7 +2486,7 @@
         <v>1728.7</v>
       </c>
       <c r="K34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L34">
         <v>1693.47</v>
@@ -2486,7 +2495,7 @@
         <v>1693.47</v>
       </c>
       <c r="N34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O34">
         <v>-445.6499999999994</v>
@@ -2512,7 +2521,7 @@
         <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2524,7 +2533,7 @@
         <v>23</v>
       </c>
       <c r="H35">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>9909.549999999999</v>
@@ -2532,23 +2541,29 @@
       <c r="J35">
         <v>414.55</v>
       </c>
+      <c r="K35" t="s">
+        <v>82</v>
+      </c>
       <c r="L35">
         <v>409.31</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>409.31</v>
+      </c>
+      <c r="N35" t="s">
+        <v>86</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>-495.4200000000005</v>
       </c>
       <c r="P35">
-        <v>-374.9</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>-374.9</v>
+        <v>-495.4200000000005</v>
       </c>
       <c r="R35">
-        <v>-3.78</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -2592,7 +2607,7 @@
         <v>4769.95</v>
       </c>
       <c r="N36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O36">
         <v>-251.0500000000002</v>
@@ -2648,7 +2663,7 @@
         <v>109.86</v>
       </c>
       <c r="N37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O37">
         <v>-497.0800000000001</v>
@@ -2692,7 +2707,7 @@
         <v>9622.049999999999</v>
       </c>
       <c r="J38">
-        <v>415.3</v>
+        <v>414.05</v>
       </c>
       <c r="L38">
         <v>397.43</v>
@@ -2704,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="P38">
-        <v>-70.15000000000001</v>
+        <v>-98.90000000000001</v>
       </c>
       <c r="Q38">
-        <v>-70.15000000000001</v>
+        <v>-98.90000000000001</v>
       </c>
       <c r="R38">
-        <v>-0.73</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -2754,7 +2769,7 @@
         <v>260.54</v>
       </c>
       <c r="N39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O39">
         <v>-493.5599999999993</v>
@@ -2798,7 +2813,7 @@
         <v>9968.4</v>
       </c>
       <c r="J40">
-        <v>1687.3</v>
+        <v>1682.5</v>
       </c>
       <c r="L40">
         <v>1578.33</v>
@@ -2810,13 +2825,13 @@
         <v>0</v>
       </c>
       <c r="P40">
-        <v>155.4</v>
+        <v>126.6</v>
       </c>
       <c r="Q40">
-        <v>155.4</v>
+        <v>126.6</v>
       </c>
       <c r="R40">
-        <v>1.56</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -2860,7 +2875,7 @@
         <v>2751.58</v>
       </c>
       <c r="N41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O41">
         <v>-434.4600000000005</v>
@@ -2886,7 +2901,7 @@
         <v>79</v>
       </c>
       <c r="D42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2898,7 +2913,7 @@
         <v>7</v>
       </c>
       <c r="H42">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>9891.700000000001</v>
@@ -2906,23 +2921,29 @@
       <c r="J42">
         <v>1375.8</v>
       </c>
+      <c r="K42" t="s">
+        <v>82</v>
+      </c>
       <c r="L42">
         <v>1342.44</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>1342.44</v>
+      </c>
+      <c r="N42" t="s">
+        <v>86</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>-494.619999999999</v>
       </c>
       <c r="P42">
-        <v>-261.1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>-261.1</v>
+        <v>-494.619999999999</v>
       </c>
       <c r="R42">
-        <v>-2.64</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -2957,7 +2978,7 @@
         <v>4056.4</v>
       </c>
       <c r="K43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L43">
         <v>3853.58</v>
@@ -2966,7 +2987,7 @@
         <v>3853.58</v>
       </c>
       <c r="N43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O43">
         <v>-405.6400000000003</v>
@@ -3010,7 +3031,7 @@
         <v>9686.25</v>
       </c>
       <c r="J44">
-        <v>355.2</v>
+        <v>351.95</v>
       </c>
       <c r="L44">
         <v>340.81</v>
@@ -3022,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>-95.84999999999999</v>
+        <v>-183.6</v>
       </c>
       <c r="Q44">
-        <v>-95.84999999999999</v>
+        <v>-183.6</v>
       </c>
       <c r="R44">
-        <v>-0.99</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3060,7 +3081,7 @@
         <v>8449</v>
       </c>
       <c r="J45">
-        <v>1658.9</v>
+        <v>1654.4</v>
       </c>
       <c r="L45">
         <v>1605.31</v>
@@ -3072,13 +3093,13 @@
         <v>0</v>
       </c>
       <c r="P45">
-        <v>-154.5</v>
+        <v>-177</v>
       </c>
       <c r="Q45">
-        <v>-154.5</v>
+        <v>-177</v>
       </c>
       <c r="R45">
-        <v>-1.83</v>
+        <v>-2.09</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3110,7 +3131,7 @@
         <v>9697.799999999999</v>
       </c>
       <c r="J46">
-        <v>338.75</v>
+        <v>338.7</v>
       </c>
       <c r="L46">
         <v>329.03</v>
@@ -3122,13 +3143,13 @@
         <v>0</v>
       </c>
       <c r="P46">
-        <v>-212.8</v>
+        <v>-214.2</v>
       </c>
       <c r="Q46">
-        <v>-212.8</v>
+        <v>-214.2</v>
       </c>
       <c r="R46">
-        <v>-2.19</v>
+        <v>-2.21</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -3157,10 +3178,10 @@
         <v>3</v>
       </c>
       <c r="I47">
-        <v>9306.900000000001</v>
+        <v>9306.9</v>
       </c>
       <c r="J47">
-        <v>3102.3</v>
+        <v>3122.6</v>
       </c>
       <c r="L47">
         <v>2947.18</v>
@@ -3172,13 +3193,13 @@
         <v>0</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>60.9</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>60.9</v>
       </c>
       <c r="R47">
-        <v>0</v>
+        <v>0.65</v>
       </c>
     </row>
   </sheetData>

--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -9,15 +9,12 @@
   <sheets>
     <sheet name="TradeBook" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TradeBook!$A$1:$S$47</definedName>
-  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="90">
   <si>
     <t>Buy Date</t>
   </si>
@@ -115,6 +112,9 @@
     <t>2026-01-20</t>
   </si>
   <si>
+    <t>2026-01-22</t>
+  </si>
+  <si>
     <t>ADANIENT</t>
   </si>
   <si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>TCS</t>
+  </si>
+  <si>
+    <t>DMART</t>
   </si>
   <si>
     <t>Value Buy</t>
@@ -644,12 +647,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S47"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -661,15 +661,6 @@
     <col min="7" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" customWidth="1"/>
-    <col min="19" max="19" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -703,31 +694,31 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -736,13 +727,13 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -772,7 +763,7 @@
         <v>2093.04</v>
       </c>
       <c r="N2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O2">
         <v>-440.6399999999994</v>
@@ -792,13 +783,13 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -816,7 +807,7 @@
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1284.9</v>
+        <v>1294.8</v>
       </c>
       <c r="L3">
         <v>1170.4</v>
@@ -828,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>423.2</v>
+        <v>502.4</v>
       </c>
       <c r="Q3">
-        <v>423.2</v>
+        <v>502.4</v>
       </c>
       <c r="R3">
-        <v>4.29</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -842,13 +833,13 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -866,7 +857,7 @@
         <v>6041.5</v>
       </c>
       <c r="J4">
-        <v>5802.5</v>
+        <v>5932</v>
       </c>
       <c r="L4">
         <v>5739.43</v>
@@ -878,13 +869,13 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>-239</v>
+        <v>-109.5</v>
       </c>
       <c r="Q4">
-        <v>-239</v>
+        <v>-109.5</v>
       </c>
       <c r="R4">
-        <v>-3.96</v>
+        <v>-1.81</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -892,13 +883,13 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -916,7 +907,7 @@
         <v>8527.200000000001</v>
       </c>
       <c r="J5">
-        <v>2735.6</v>
+        <v>2787.6</v>
       </c>
       <c r="L5">
         <v>2700.28</v>
@@ -928,13 +919,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>-320.4</v>
+        <v>-164.4</v>
       </c>
       <c r="Q5">
-        <v>-320.4</v>
+        <v>-164.4</v>
       </c>
       <c r="R5">
-        <v>-3.76</v>
+        <v>-1.93</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -942,13 +933,13 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -966,7 +957,7 @@
         <v>9173.200000000001</v>
       </c>
       <c r="J6">
-        <v>2368</v>
+        <v>2390.6</v>
       </c>
       <c r="L6">
         <v>2178.64</v>
@@ -978,13 +969,13 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>298.8</v>
+        <v>389.2</v>
       </c>
       <c r="Q6">
-        <v>298.8</v>
+        <v>389.2</v>
       </c>
       <c r="R6">
-        <v>3.26</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -992,13 +983,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1016,7 +1007,7 @@
         <v>8960</v>
       </c>
       <c r="J7">
-        <v>1283.2</v>
+        <v>1306</v>
       </c>
       <c r="L7">
         <v>1216</v>
@@ -1028,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>22.4</v>
+        <v>182</v>
       </c>
       <c r="Q7">
-        <v>22.4</v>
+        <v>182</v>
       </c>
       <c r="R7">
-        <v>0.25</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1042,13 +1033,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1066,7 +1057,7 @@
         <v>9722.1</v>
       </c>
       <c r="J8">
-        <v>3112.7</v>
+        <v>3170.4</v>
       </c>
       <c r="L8">
         <v>3078.66</v>
@@ -1078,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>-384</v>
+        <v>-210.9</v>
       </c>
       <c r="Q8">
-        <v>-384</v>
+        <v>-210.9</v>
       </c>
       <c r="R8">
-        <v>-3.95</v>
+        <v>-2.17</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1092,13 +1083,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1128,7 +1119,7 @@
         <v>2901.59</v>
       </c>
       <c r="N9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O9">
         <v>-458.1300000000001</v>
@@ -1148,13 +1139,13 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1184,7 +1175,7 @@
         <v>2922.11</v>
       </c>
       <c r="N10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O10">
         <v>-461.3699999999999</v>
@@ -1204,13 +1195,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1231,7 +1222,7 @@
         <v>183.56</v>
       </c>
       <c r="K11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L11">
         <v>180.92</v>
@@ -1240,7 +1231,7 @@
         <v>180.92</v>
       </c>
       <c r="N11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O11">
         <v>749.6499999999999</v>
@@ -1255,7 +1246,7 @@
         <v>7.5</v>
       </c>
       <c r="S11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1263,13 +1254,13 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1287,7 +1278,7 @@
         <v>9674.4</v>
       </c>
       <c r="J12">
-        <v>1686.7</v>
+        <v>1687.4</v>
       </c>
       <c r="L12">
         <v>1531.78</v>
@@ -1299,13 +1290,13 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>445.8</v>
+        <v>450</v>
       </c>
       <c r="Q12">
-        <v>445.8</v>
+        <v>450</v>
       </c>
       <c r="R12">
-        <v>4.61</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1313,13 +1304,13 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1349,7 +1340,7 @@
         <v>732.4</v>
       </c>
       <c r="N13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O13">
         <v>-462.6000000000008</v>
@@ -1369,13 +1360,13 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1405,7 +1396,7 @@
         <v>651.2</v>
       </c>
       <c r="N14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1425,13 +1416,13 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1449,7 +1440,7 @@
         <v>9561.6</v>
       </c>
       <c r="J15">
-        <v>1163.6</v>
+        <v>1175.2</v>
       </c>
       <c r="L15">
         <v>1135.44</v>
@@ -1461,13 +1452,13 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>-252.8</v>
+        <v>-160</v>
       </c>
       <c r="Q15">
-        <v>-252.8</v>
+        <v>-160</v>
       </c>
       <c r="R15">
-        <v>-2.64</v>
+        <v>-1.67</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1475,13 +1466,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1499,7 +1490,7 @@
         <v>6033.5</v>
       </c>
       <c r="J16">
-        <v>5844</v>
+        <v>5947</v>
       </c>
       <c r="L16">
         <v>5731.82</v>
@@ -1511,13 +1502,13 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>-189.5</v>
+        <v>-86.5</v>
       </c>
       <c r="Q16">
-        <v>-189.5</v>
+        <v>-86.5</v>
       </c>
       <c r="R16">
-        <v>-3.14</v>
+        <v>-1.43</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1525,13 +1516,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1549,7 +1540,7 @@
         <v>9282</v>
       </c>
       <c r="J17">
-        <v>9179</v>
+        <v>9370</v>
       </c>
       <c r="L17">
         <v>8817.9</v>
@@ -1561,13 +1552,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>-103</v>
+        <v>88</v>
       </c>
       <c r="Q17">
-        <v>-103</v>
+        <v>88</v>
       </c>
       <c r="R17">
-        <v>-1.11</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1575,13 +1566,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1611,7 +1602,7 @@
         <v>282.8</v>
       </c>
       <c r="N18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1631,13 +1622,13 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1667,7 +1658,7 @@
         <v>1342.35</v>
       </c>
       <c r="N19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O19">
         <v>-494.5500000000006</v>
@@ -1687,13 +1678,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1711,7 +1702,7 @@
         <v>5711</v>
       </c>
       <c r="J20">
-        <v>5538.5</v>
+        <v>5488.5</v>
       </c>
       <c r="L20">
         <v>5425.45</v>
@@ -1723,13 +1714,13 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>-172.5</v>
+        <v>-222.5</v>
       </c>
       <c r="Q20">
-        <v>-172.5</v>
+        <v>-222.5</v>
       </c>
       <c r="R20">
-        <v>-3.02</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1737,13 +1728,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1764,7 +1755,7 @@
         <v>132.36</v>
       </c>
       <c r="K21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L21">
         <v>128.5</v>
@@ -1773,7 +1764,7 @@
         <v>128.499</v>
       </c>
       <c r="N21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O21">
         <v>495.639</v>
@@ -1793,13 +1784,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1817,7 +1808,7 @@
         <v>7948.2</v>
       </c>
       <c r="J22">
-        <v>4079.2</v>
+        <v>4018.6</v>
       </c>
       <c r="L22">
         <v>3974.1</v>
@@ -1829,13 +1820,13 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>210.2</v>
+        <v>89</v>
       </c>
       <c r="Q22">
-        <v>210.2</v>
+        <v>89</v>
       </c>
       <c r="R22">
-        <v>2.64</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1843,13 +1834,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1879,7 +1870,7 @@
         <v>972.9400000000001</v>
       </c>
       <c r="N23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O23">
         <v>-460.8900000000003</v>
@@ -1899,13 +1890,13 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1935,7 +1926,7 @@
         <v>158.14</v>
       </c>
       <c r="N24" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O24">
         <v>-499.2000000000013</v>
@@ -1955,13 +1946,13 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1991,7 +1982,7 @@
         <v>1001.11</v>
       </c>
       <c r="N25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O25">
         <v>-474.2099999999995</v>
@@ -2011,13 +2002,13 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2038,7 +2029,7 @@
         <v>267.45</v>
       </c>
       <c r="K26" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L26">
         <v>253.98</v>
@@ -2047,7 +2038,7 @@
         <v>252</v>
       </c>
       <c r="N26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O26">
         <v>-567.9500000000008</v>
@@ -2067,13 +2058,13 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2103,7 +2094,7 @@
         <v>951.52</v>
       </c>
       <c r="N27" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O27">
         <v>-450.7200000000004</v>
@@ -2123,13 +2114,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2159,7 +2150,7 @@
         <v>1880.9</v>
       </c>
       <c r="N28" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O28">
         <v>-495</v>
@@ -2179,13 +2170,13 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2215,7 +2206,7 @@
         <v>854</v>
       </c>
       <c r="N29" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O29">
         <v>-523.0499999999995</v>
@@ -2235,13 +2226,13 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2271,7 +2262,7 @@
         <v>6310.38</v>
       </c>
       <c r="N30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O30">
         <v>-332.1199999999999</v>
@@ -2291,13 +2282,13 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2318,7 +2309,7 @@
         <v>546.75</v>
       </c>
       <c r="K31" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L31">
         <v>541.83</v>
@@ -2327,7 +2318,7 @@
         <v>541.83</v>
       </c>
       <c r="N31" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O31">
         <v>-484.8399999999997</v>
@@ -2347,13 +2338,13 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2383,7 +2374,7 @@
         <v>738.96</v>
       </c>
       <c r="N32" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O32">
         <v>-466.6799999999998</v>
@@ -2403,13 +2394,13 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2439,7 +2430,7 @@
         <v>637.64</v>
       </c>
       <c r="N33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O33">
         <v>-469.8400000000008</v>
@@ -2459,13 +2450,13 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2486,7 +2477,7 @@
         <v>1728.7</v>
       </c>
       <c r="K34" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L34">
         <v>1693.47</v>
@@ -2495,7 +2486,7 @@
         <v>1693.47</v>
       </c>
       <c r="N34" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O34">
         <v>-445.6499999999994</v>
@@ -2515,13 +2506,13 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2542,7 +2533,7 @@
         <v>414.55</v>
       </c>
       <c r="K35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L35">
         <v>409.31</v>
@@ -2551,7 +2542,7 @@
         <v>409.31</v>
       </c>
       <c r="N35" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O35">
         <v>-495.4200000000005</v>
@@ -2571,13 +2562,13 @@
         <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D36" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2607,16 +2598,16 @@
         <v>4769.95</v>
       </c>
       <c r="N36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O36">
-        <v>-251.0500000000002</v>
+        <v>-251.0500000000001</v>
       </c>
       <c r="P36">
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>-251.0500000000002</v>
+        <v>-251.0500000000001</v>
       </c>
       <c r="R36">
         <v>-5</v>
@@ -2627,13 +2618,13 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D37" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2663,7 +2654,7 @@
         <v>109.86</v>
       </c>
       <c r="N37" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O37">
         <v>-497.0800000000001</v>
@@ -2683,13 +2674,13 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D38" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2707,7 +2698,7 @@
         <v>9622.049999999999</v>
       </c>
       <c r="J38">
-        <v>414.05</v>
+        <v>423.2</v>
       </c>
       <c r="L38">
         <v>397.43</v>
@@ -2719,13 +2710,13 @@
         <v>0</v>
       </c>
       <c r="P38">
-        <v>-98.90000000000001</v>
+        <v>111.55</v>
       </c>
       <c r="Q38">
-        <v>-98.90000000000001</v>
+        <v>111.55</v>
       </c>
       <c r="R38">
-        <v>-1.03</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -2733,13 +2724,13 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2769,7 +2760,7 @@
         <v>260.54</v>
       </c>
       <c r="N39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O39">
         <v>-493.5599999999993</v>
@@ -2789,13 +2780,13 @@
         <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2813,7 +2804,7 @@
         <v>9968.4</v>
       </c>
       <c r="J40">
-        <v>1682.5</v>
+        <v>1703.1</v>
       </c>
       <c r="L40">
         <v>1578.33</v>
@@ -2825,13 +2816,13 @@
         <v>0</v>
       </c>
       <c r="P40">
-        <v>126.6</v>
+        <v>250.2</v>
       </c>
       <c r="Q40">
-        <v>126.6</v>
+        <v>250.2</v>
       </c>
       <c r="R40">
-        <v>1.27</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -2839,13 +2830,13 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D41" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2875,7 +2866,7 @@
         <v>2751.58</v>
       </c>
       <c r="N41" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O41">
         <v>-434.4600000000005</v>
@@ -2895,13 +2886,13 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D42" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2922,7 +2913,7 @@
         <v>1375.8</v>
       </c>
       <c r="K42" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L42">
         <v>1342.44</v>
@@ -2931,7 +2922,7 @@
         <v>1342.44</v>
       </c>
       <c r="N42" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O42">
         <v>-494.619999999999</v>
@@ -2951,13 +2942,13 @@
         <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2978,7 +2969,7 @@
         <v>4056.4</v>
       </c>
       <c r="K43" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L43">
         <v>3853.58</v>
@@ -2987,7 +2978,7 @@
         <v>3853.58</v>
       </c>
       <c r="N43" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O43">
         <v>-405.6400000000003</v>
@@ -3007,13 +2998,13 @@
         <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3031,7 +3022,7 @@
         <v>9686.25</v>
       </c>
       <c r="J44">
-        <v>351.95</v>
+        <v>354.15</v>
       </c>
       <c r="L44">
         <v>340.81</v>
@@ -3043,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>-183.6</v>
+        <v>-124.2</v>
       </c>
       <c r="Q44">
-        <v>-183.6</v>
+        <v>-124.2</v>
       </c>
       <c r="R44">
-        <v>-1.9</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3057,13 +3048,13 @@
         <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D45" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3081,7 +3072,7 @@
         <v>8449</v>
       </c>
       <c r="J45">
-        <v>1654.4</v>
+        <v>1663.5</v>
       </c>
       <c r="L45">
         <v>1605.31</v>
@@ -3093,13 +3084,13 @@
         <v>0</v>
       </c>
       <c r="P45">
-        <v>-177</v>
+        <v>-131.5</v>
       </c>
       <c r="Q45">
-        <v>-177</v>
+        <v>-131.5</v>
       </c>
       <c r="R45">
-        <v>-2.09</v>
+        <v>-1.56</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3107,13 +3098,13 @@
         <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D46" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3131,7 +3122,7 @@
         <v>9697.799999999999</v>
       </c>
       <c r="J46">
-        <v>338.7</v>
+        <v>342.45</v>
       </c>
       <c r="L46">
         <v>329.03</v>
@@ -3143,13 +3134,13 @@
         <v>0</v>
       </c>
       <c r="P46">
-        <v>-214.2</v>
+        <v>-109.2</v>
       </c>
       <c r="Q46">
-        <v>-214.2</v>
+        <v>-109.2</v>
       </c>
       <c r="R46">
-        <v>-2.21</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -3157,13 +3148,13 @@
         <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D47" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3181,7 +3172,7 @@
         <v>9306.9</v>
       </c>
       <c r="J47">
-        <v>3122.6</v>
+        <v>3150.4</v>
       </c>
       <c r="L47">
         <v>2947.18</v>
@@ -3193,17 +3184,216 @@
         <v>0</v>
       </c>
       <c r="P47">
-        <v>60.9</v>
+        <v>144.3</v>
       </c>
       <c r="Q47">
-        <v>60.9</v>
+        <v>144.3</v>
       </c>
       <c r="R47">
-        <v>0.65</v>
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>3724.1</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <v>7448.2</v>
+      </c>
+      <c r="J48">
+        <v>3724.1</v>
+      </c>
+      <c r="L48">
+        <v>3537.89</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>2928.2</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <v>8784.599999999999</v>
+      </c>
+      <c r="J49">
+        <v>2928.2</v>
+      </c>
+      <c r="L49">
+        <v>2781.79</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>2086.4</v>
+      </c>
+      <c r="G50">
+        <v>4</v>
+      </c>
+      <c r="H50">
+        <v>4</v>
+      </c>
+      <c r="I50">
+        <v>8345.6</v>
+      </c>
+      <c r="J50">
+        <v>2086.4</v>
+      </c>
+      <c r="L50">
+        <v>1982.08</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>548</v>
+      </c>
+      <c r="G51">
+        <v>18</v>
+      </c>
+      <c r="H51">
+        <v>18</v>
+      </c>
+      <c r="I51">
+        <v>9864</v>
+      </c>
+      <c r="J51">
+        <v>548</v>
+      </c>
+      <c r="L51">
+        <v>520.6</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S47"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="91">
   <si>
     <t>Buy Date</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>2026-01-22</t>
+  </si>
+  <si>
+    <t>2026-01-23</t>
   </si>
   <si>
     <t>ADANIENT</t>
@@ -647,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -727,13 +730,13 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -763,7 +766,7 @@
         <v>2093.04</v>
       </c>
       <c r="N2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O2">
         <v>-440.6399999999994</v>
@@ -783,13 +786,13 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -807,7 +810,7 @@
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1294.8</v>
+        <v>1258</v>
       </c>
       <c r="L3">
         <v>1170.4</v>
@@ -819,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>502.4</v>
+        <v>208</v>
       </c>
       <c r="Q3">
-        <v>502.4</v>
+        <v>208</v>
       </c>
       <c r="R3">
-        <v>5.1</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -833,13 +836,13 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -857,7 +860,7 @@
         <v>6041.5</v>
       </c>
       <c r="J4">
-        <v>5932</v>
+        <v>5835</v>
       </c>
       <c r="L4">
         <v>5739.43</v>
@@ -869,13 +872,13 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>-109.5</v>
+        <v>-206.5</v>
       </c>
       <c r="Q4">
-        <v>-109.5</v>
+        <v>-206.5</v>
       </c>
       <c r="R4">
-        <v>-1.81</v>
+        <v>-3.42</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -883,13 +886,13 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -907,7 +910,7 @@
         <v>8527.200000000001</v>
       </c>
       <c r="J5">
-        <v>2787.6</v>
+        <v>2759</v>
       </c>
       <c r="L5">
         <v>2700.28</v>
@@ -919,13 +922,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>-164.4</v>
+        <v>-250.2</v>
       </c>
       <c r="Q5">
-        <v>-164.4</v>
+        <v>-250.2</v>
       </c>
       <c r="R5">
-        <v>-1.93</v>
+        <v>-2.93</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -933,13 +936,13 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -957,7 +960,7 @@
         <v>9173.200000000001</v>
       </c>
       <c r="J6">
-        <v>2390.6</v>
+        <v>2409.5</v>
       </c>
       <c r="L6">
         <v>2178.64</v>
@@ -969,13 +972,13 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>389.2</v>
+        <v>464.8</v>
       </c>
       <c r="Q6">
-        <v>389.2</v>
+        <v>464.8</v>
       </c>
       <c r="R6">
-        <v>4.24</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -983,13 +986,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1007,7 +1010,7 @@
         <v>8960</v>
       </c>
       <c r="J7">
-        <v>1306</v>
+        <v>1293.8</v>
       </c>
       <c r="L7">
         <v>1216</v>
@@ -1019,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>182</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="Q7">
-        <v>182</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="R7">
-        <v>2.03</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1033,13 +1036,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1057,7 +1060,7 @@
         <v>9722.1</v>
       </c>
       <c r="J8">
-        <v>3170.4</v>
+        <v>3175.4</v>
       </c>
       <c r="L8">
         <v>3078.66</v>
@@ -1069,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>-210.9</v>
+        <v>-195.9</v>
       </c>
       <c r="Q8">
-        <v>-210.9</v>
+        <v>-195.9</v>
       </c>
       <c r="R8">
-        <v>-2.17</v>
+        <v>-2.01</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1083,13 +1086,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1119,7 +1122,7 @@
         <v>2901.59</v>
       </c>
       <c r="N9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O9">
         <v>-458.1300000000001</v>
@@ -1139,13 +1142,13 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1175,7 +1178,7 @@
         <v>2922.11</v>
       </c>
       <c r="N10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O10">
         <v>-461.3699999999999</v>
@@ -1195,13 +1198,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1222,7 +1225,7 @@
         <v>183.56</v>
       </c>
       <c r="K11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L11">
         <v>180.92</v>
@@ -1231,7 +1234,7 @@
         <v>180.92</v>
       </c>
       <c r="N11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O11">
         <v>749.6499999999999</v>
@@ -1246,7 +1249,7 @@
         <v>7.5</v>
       </c>
       <c r="S11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1254,13 +1257,13 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1278,7 +1281,7 @@
         <v>9674.4</v>
       </c>
       <c r="J12">
-        <v>1687.4</v>
+        <v>1701.1</v>
       </c>
       <c r="L12">
         <v>1531.78</v>
@@ -1290,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>450</v>
+        <v>532.2</v>
       </c>
       <c r="Q12">
-        <v>450</v>
+        <v>532.2</v>
       </c>
       <c r="R12">
-        <v>4.65</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1304,13 +1307,13 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1340,7 +1343,7 @@
         <v>732.4</v>
       </c>
       <c r="N13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O13">
         <v>-462.6000000000008</v>
@@ -1360,13 +1363,13 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1396,7 +1399,7 @@
         <v>651.2</v>
       </c>
       <c r="N14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1416,13 +1419,13 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1440,7 +1443,7 @@
         <v>9561.6</v>
       </c>
       <c r="J15">
-        <v>1175.2</v>
+        <v>1153.5</v>
       </c>
       <c r="L15">
         <v>1135.44</v>
@@ -1452,13 +1455,13 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>-160</v>
+        <v>-333.6</v>
       </c>
       <c r="Q15">
-        <v>-160</v>
+        <v>-333.6</v>
       </c>
       <c r="R15">
-        <v>-1.67</v>
+        <v>-3.49</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1466,13 +1469,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1490,7 +1493,7 @@
         <v>6033.5</v>
       </c>
       <c r="J16">
-        <v>5947</v>
+        <v>5893.5</v>
       </c>
       <c r="L16">
         <v>5731.82</v>
@@ -1502,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>-86.5</v>
+        <v>-140</v>
       </c>
       <c r="Q16">
-        <v>-86.5</v>
+        <v>-140</v>
       </c>
       <c r="R16">
-        <v>-1.43</v>
+        <v>-2.32</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1516,13 +1519,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1540,7 +1543,7 @@
         <v>9282</v>
       </c>
       <c r="J17">
-        <v>9370</v>
+        <v>9413.5</v>
       </c>
       <c r="L17">
         <v>8817.9</v>
@@ -1552,13 +1555,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>88</v>
+        <v>131.5</v>
       </c>
       <c r="Q17">
-        <v>88</v>
+        <v>131.5</v>
       </c>
       <c r="R17">
-        <v>0.95</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1566,13 +1569,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1602,7 +1605,7 @@
         <v>282.8</v>
       </c>
       <c r="N18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1622,13 +1625,13 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1658,7 +1661,7 @@
         <v>1342.35</v>
       </c>
       <c r="N19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O19">
         <v>-494.5500000000006</v>
@@ -1678,10 +1681,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
         <v>83</v>
@@ -1696,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>5711</v>
@@ -1704,23 +1707,29 @@
       <c r="J20">
         <v>5488.5</v>
       </c>
+      <c r="K20" t="s">
+        <v>33</v>
+      </c>
       <c r="L20">
         <v>5425.45</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>5425.45</v>
+      </c>
+      <c r="N20" t="s">
+        <v>89</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>-285.5500000000002</v>
       </c>
       <c r="P20">
-        <v>-222.5</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>-222.5</v>
+        <v>-285.5500000000002</v>
       </c>
       <c r="R20">
-        <v>-3.9</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1728,13 +1737,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1755,7 +1764,7 @@
         <v>132.36</v>
       </c>
       <c r="K21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L21">
         <v>128.5</v>
@@ -1764,7 +1773,7 @@
         <v>128.499</v>
       </c>
       <c r="N21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O21">
         <v>495.639</v>
@@ -1784,13 +1793,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1808,7 +1817,7 @@
         <v>7948.2</v>
       </c>
       <c r="J22">
-        <v>4018.6</v>
+        <v>4021.8</v>
       </c>
       <c r="L22">
         <v>3974.1</v>
@@ -1820,13 +1829,13 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>89</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="Q22">
-        <v>89</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="R22">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1834,13 +1843,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1870,7 +1879,7 @@
         <v>972.9400000000001</v>
       </c>
       <c r="N23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O23">
         <v>-460.8900000000003</v>
@@ -1890,13 +1899,13 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1926,7 +1935,7 @@
         <v>158.14</v>
       </c>
       <c r="N24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O24">
         <v>-499.2000000000013</v>
@@ -1946,13 +1955,13 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1982,7 +1991,7 @@
         <v>1001.11</v>
       </c>
       <c r="N25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O25">
         <v>-474.2099999999995</v>
@@ -2002,13 +2011,13 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2029,7 +2038,7 @@
         <v>267.45</v>
       </c>
       <c r="K26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L26">
         <v>253.98</v>
@@ -2038,7 +2047,7 @@
         <v>252</v>
       </c>
       <c r="N26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O26">
         <v>-567.9500000000008</v>
@@ -2058,13 +2067,13 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2094,7 +2103,7 @@
         <v>951.52</v>
       </c>
       <c r="N27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O27">
         <v>-450.7200000000004</v>
@@ -2114,13 +2123,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2150,7 +2159,7 @@
         <v>1880.9</v>
       </c>
       <c r="N28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28">
         <v>-495</v>
@@ -2170,13 +2179,13 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2206,7 +2215,7 @@
         <v>854</v>
       </c>
       <c r="N29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29">
         <v>-523.0499999999995</v>
@@ -2226,13 +2235,13 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2262,7 +2271,7 @@
         <v>6310.38</v>
       </c>
       <c r="N30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O30">
         <v>-332.1199999999999</v>
@@ -2282,13 +2291,13 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2309,7 +2318,7 @@
         <v>546.75</v>
       </c>
       <c r="K31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L31">
         <v>541.83</v>
@@ -2318,7 +2327,7 @@
         <v>541.83</v>
       </c>
       <c r="N31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O31">
         <v>-484.8399999999997</v>
@@ -2338,13 +2347,13 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2374,7 +2383,7 @@
         <v>738.96</v>
       </c>
       <c r="N32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O32">
         <v>-466.6799999999998</v>
@@ -2394,13 +2403,13 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2430,7 +2439,7 @@
         <v>637.64</v>
       </c>
       <c r="N33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O33">
         <v>-469.8400000000008</v>
@@ -2450,13 +2459,13 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2477,7 +2486,7 @@
         <v>1728.7</v>
       </c>
       <c r="K34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L34">
         <v>1693.47</v>
@@ -2486,7 +2495,7 @@
         <v>1693.47</v>
       </c>
       <c r="N34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O34">
         <v>-445.6499999999994</v>
@@ -2506,13 +2515,13 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2533,7 +2542,7 @@
         <v>414.55</v>
       </c>
       <c r="K35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L35">
         <v>409.31</v>
@@ -2542,7 +2551,7 @@
         <v>409.31</v>
       </c>
       <c r="N35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O35">
         <v>-495.4200000000005</v>
@@ -2562,13 +2571,13 @@
         <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2598,7 +2607,7 @@
         <v>4769.95</v>
       </c>
       <c r="N36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O36">
         <v>-251.0500000000001</v>
@@ -2618,13 +2627,13 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2654,7 +2663,7 @@
         <v>109.86</v>
       </c>
       <c r="N37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O37">
         <v>-497.0800000000001</v>
@@ -2674,13 +2683,13 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2698,7 +2707,7 @@
         <v>9622.049999999999</v>
       </c>
       <c r="J38">
-        <v>423.2</v>
+        <v>418.4</v>
       </c>
       <c r="L38">
         <v>397.43</v>
@@ -2710,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="P38">
-        <v>111.55</v>
+        <v>1.15</v>
       </c>
       <c r="Q38">
-        <v>111.55</v>
+        <v>1.15</v>
       </c>
       <c r="R38">
-        <v>1.16</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -2724,13 +2733,13 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2760,7 +2769,7 @@
         <v>260.54</v>
       </c>
       <c r="N39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O39">
         <v>-493.5599999999993</v>
@@ -2780,13 +2789,13 @@
         <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2804,7 +2813,7 @@
         <v>9968.4</v>
       </c>
       <c r="J40">
-        <v>1703.1</v>
+        <v>1707</v>
       </c>
       <c r="L40">
         <v>1578.33</v>
@@ -2816,13 +2825,13 @@
         <v>0</v>
       </c>
       <c r="P40">
-        <v>250.2</v>
+        <v>273.6</v>
       </c>
       <c r="Q40">
-        <v>250.2</v>
+        <v>273.6</v>
       </c>
       <c r="R40">
-        <v>2.51</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -2830,13 +2839,13 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2866,7 +2875,7 @@
         <v>2751.58</v>
       </c>
       <c r="N41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O41">
         <v>-434.4600000000005</v>
@@ -2886,13 +2895,13 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2913,7 +2922,7 @@
         <v>1375.8</v>
       </c>
       <c r="K42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L42">
         <v>1342.44</v>
@@ -2922,7 +2931,7 @@
         <v>1342.44</v>
       </c>
       <c r="N42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O42">
         <v>-494.619999999999</v>
@@ -2942,13 +2951,13 @@
         <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2969,7 +2978,7 @@
         <v>4056.4</v>
       </c>
       <c r="K43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L43">
         <v>3853.58</v>
@@ -2978,7 +2987,7 @@
         <v>3853.58</v>
       </c>
       <c r="N43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O43">
         <v>-405.6400000000003</v>
@@ -2998,13 +3007,13 @@
         <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3022,7 +3031,7 @@
         <v>9686.25</v>
       </c>
       <c r="J44">
-        <v>354.15</v>
+        <v>349.15</v>
       </c>
       <c r="L44">
         <v>340.81</v>
@@ -3034,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>-124.2</v>
+        <v>-259.2</v>
       </c>
       <c r="Q44">
-        <v>-124.2</v>
+        <v>-259.2</v>
       </c>
       <c r="R44">
-        <v>-1.28</v>
+        <v>-2.68</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3048,13 +3057,13 @@
         <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3072,7 +3081,7 @@
         <v>8449</v>
       </c>
       <c r="J45">
-        <v>1663.5</v>
+        <v>1670.8</v>
       </c>
       <c r="L45">
         <v>1605.31</v>
@@ -3084,13 +3093,13 @@
         <v>0</v>
       </c>
       <c r="P45">
-        <v>-131.5</v>
+        <v>-95</v>
       </c>
       <c r="Q45">
-        <v>-131.5</v>
+        <v>-95</v>
       </c>
       <c r="R45">
-        <v>-1.56</v>
+        <v>-1.12</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3098,13 +3107,13 @@
         <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D46" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3122,7 +3131,7 @@
         <v>9697.799999999999</v>
       </c>
       <c r="J46">
-        <v>342.45</v>
+        <v>336.7</v>
       </c>
       <c r="L46">
         <v>329.03</v>
@@ -3134,13 +3143,13 @@
         <v>0</v>
       </c>
       <c r="P46">
-        <v>-109.2</v>
+        <v>-270.2</v>
       </c>
       <c r="Q46">
-        <v>-109.2</v>
+        <v>-270.2</v>
       </c>
       <c r="R46">
-        <v>-1.13</v>
+        <v>-2.79</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -3148,13 +3157,13 @@
         <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3172,7 +3181,7 @@
         <v>9306.9</v>
       </c>
       <c r="J47">
-        <v>3150.4</v>
+        <v>3162.5</v>
       </c>
       <c r="L47">
         <v>2947.18</v>
@@ -3184,13 +3193,13 @@
         <v>0</v>
       </c>
       <c r="P47">
-        <v>144.3</v>
+        <v>180.6</v>
       </c>
       <c r="Q47">
-        <v>144.3</v>
+        <v>180.6</v>
       </c>
       <c r="R47">
-        <v>1.55</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -3198,13 +3207,13 @@
         <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D48" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3222,7 +3231,7 @@
         <v>7448.2</v>
       </c>
       <c r="J48">
-        <v>3724.1</v>
+        <v>3665.6</v>
       </c>
       <c r="L48">
         <v>3537.89</v>
@@ -3234,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>-117</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>-117</v>
       </c>
       <c r="R48">
-        <v>0</v>
+        <v>-1.57</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -3248,13 +3257,13 @@
         <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C49" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3272,7 +3281,7 @@
         <v>8784.599999999999</v>
       </c>
       <c r="J49">
-        <v>2928.2</v>
+        <v>2900.4</v>
       </c>
       <c r="L49">
         <v>2781.79</v>
@@ -3284,13 +3293,13 @@
         <v>0</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>-83.40000000000001</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>-83.40000000000001</v>
       </c>
       <c r="R49">
-        <v>0</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -3298,10 +3307,10 @@
         <v>32</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C50" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D50" t="s">
         <v>83</v>
@@ -3316,7 +3325,7 @@
         <v>4</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>8345.6</v>
@@ -3324,23 +3333,29 @@
       <c r="J50">
         <v>2086.4</v>
       </c>
+      <c r="K50" t="s">
+        <v>33</v>
+      </c>
       <c r="L50">
         <v>1982.08</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>1982.08</v>
+      </c>
+      <c r="N50" t="s">
+        <v>89</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>-417.2800000000007</v>
       </c>
       <c r="P50">
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>-417.2800000000007</v>
       </c>
       <c r="R50">
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -3348,10 +3363,10 @@
         <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C51" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D51" t="s">
         <v>83</v>
@@ -3366,7 +3381,7 @@
         <v>18</v>
       </c>
       <c r="H51">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>9864</v>
@@ -3374,22 +3389,128 @@
       <c r="J51">
         <v>548</v>
       </c>
+      <c r="K51" t="s">
+        <v>33</v>
+      </c>
       <c r="L51">
         <v>520.6</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>520.6</v>
+      </c>
+      <c r="N51" t="s">
+        <v>89</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>-493.1999999999996</v>
       </c>
       <c r="P51">
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>-493.1999999999996</v>
       </c>
       <c r="R51">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>413.15</v>
+      </c>
+      <c r="G52">
+        <v>24</v>
+      </c>
+      <c r="H52">
+        <v>24</v>
+      </c>
+      <c r="I52">
+        <v>9915.599999999999</v>
+      </c>
+      <c r="J52">
+        <v>413.15</v>
+      </c>
+      <c r="L52">
+        <v>392.49</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>187.61</v>
+      </c>
+      <c r="G53">
+        <v>53</v>
+      </c>
+      <c r="H53">
+        <v>53</v>
+      </c>
+      <c r="I53">
+        <v>9943.33</v>
+      </c>
+      <c r="J53">
+        <v>187.61</v>
+      </c>
+      <c r="L53">
+        <v>178.23</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
         <v>0</v>
       </c>
     </row>

--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -3440,7 +3440,7 @@
         <v>24</v>
       </c>
       <c r="I52">
-        <v>9915.599999999999</v>
+        <v>9915.6</v>
       </c>
       <c r="J52">
         <v>413.15</v>

--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="92">
   <si>
     <t>Buy Date</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>2026-01-19</t>
+  </si>
+  <si>
+    <t>2026-01-27</t>
   </si>
   <si>
     <t>2026-01-14</t>
@@ -766,7 +769,7 @@
         <v>2093.04</v>
       </c>
       <c r="N2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O2">
         <v>-440.6399999999994</v>
@@ -795,7 +798,7 @@
         <v>84</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1232</v>
@@ -810,10 +813,10 @@
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1258</v>
+        <v>1315.8</v>
       </c>
       <c r="L3">
-        <v>1170.4</v>
+        <v>1232</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -822,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>208</v>
+        <v>670.4</v>
       </c>
       <c r="Q3">
-        <v>208</v>
+        <v>670.4</v>
       </c>
       <c r="R3">
-        <v>2.11</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -860,7 +863,7 @@
         <v>6041.5</v>
       </c>
       <c r="J4">
-        <v>5835</v>
+        <v>5886</v>
       </c>
       <c r="L4">
         <v>5739.43</v>
@@ -872,13 +875,13 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>-206.5</v>
+        <v>-155.5</v>
       </c>
       <c r="Q4">
-        <v>-206.5</v>
+        <v>-155.5</v>
       </c>
       <c r="R4">
-        <v>-3.42</v>
+        <v>-2.57</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -910,7 +913,7 @@
         <v>8527.200000000001</v>
       </c>
       <c r="J5">
-        <v>2759</v>
+        <v>2856.2</v>
       </c>
       <c r="L5">
         <v>2700.28</v>
@@ -922,13 +925,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>-250.2</v>
+        <v>41.4</v>
       </c>
       <c r="Q5">
-        <v>-250.2</v>
+        <v>41.4</v>
       </c>
       <c r="R5">
-        <v>-2.93</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -960,7 +963,7 @@
         <v>9173.200000000001</v>
       </c>
       <c r="J6">
-        <v>2409.5</v>
+        <v>2400.9</v>
       </c>
       <c r="L6">
         <v>2178.64</v>
@@ -972,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>464.8</v>
+        <v>430.4</v>
       </c>
       <c r="Q6">
-        <v>464.8</v>
+        <v>430.4</v>
       </c>
       <c r="R6">
-        <v>5.07</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1010,7 +1013,7 @@
         <v>8960</v>
       </c>
       <c r="J7">
-        <v>1293.8</v>
+        <v>1303.3</v>
       </c>
       <c r="L7">
         <v>1216</v>
@@ -1022,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>96.59999999999999</v>
+        <v>163.1</v>
       </c>
       <c r="Q7">
-        <v>96.59999999999999</v>
+        <v>163.1</v>
       </c>
       <c r="R7">
-        <v>1.08</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1060,7 +1063,7 @@
         <v>9722.1</v>
       </c>
       <c r="J8">
-        <v>3175.4</v>
+        <v>3157.2</v>
       </c>
       <c r="L8">
         <v>3078.66</v>
@@ -1072,13 +1075,13 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>-195.9</v>
+        <v>-250.5</v>
       </c>
       <c r="Q8">
-        <v>-195.9</v>
+        <v>-250.5</v>
       </c>
       <c r="R8">
-        <v>-2.01</v>
+        <v>-2.58</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1122,7 +1125,7 @@
         <v>2901.59</v>
       </c>
       <c r="N9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O9">
         <v>-458.1300000000001</v>
@@ -1178,7 +1181,7 @@
         <v>2922.11</v>
       </c>
       <c r="N10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O10">
         <v>-461.3699999999999</v>
@@ -1234,7 +1237,7 @@
         <v>180.92</v>
       </c>
       <c r="N11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O11">
         <v>749.6499999999999</v>
@@ -1249,7 +1252,7 @@
         <v>7.5</v>
       </c>
       <c r="S11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1266,7 +1269,7 @@
         <v>84</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>1612.4</v>
@@ -1281,10 +1284,10 @@
         <v>9674.4</v>
       </c>
       <c r="J12">
-        <v>1701.1</v>
+        <v>1745.1</v>
       </c>
       <c r="L12">
-        <v>1531.78</v>
+        <v>1612.4</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1293,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>532.2</v>
+        <v>796.2</v>
       </c>
       <c r="Q12">
-        <v>532.2</v>
+        <v>796.2</v>
       </c>
       <c r="R12">
-        <v>5.5</v>
+        <v>8.23</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1343,7 +1346,7 @@
         <v>732.4</v>
       </c>
       <c r="N13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O13">
         <v>-462.6000000000008</v>
@@ -1399,7 +1402,7 @@
         <v>651.2</v>
       </c>
       <c r="N14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1443,7 +1446,7 @@
         <v>9561.6</v>
       </c>
       <c r="J15">
-        <v>1153.5</v>
+        <v>1187.4</v>
       </c>
       <c r="L15">
         <v>1135.44</v>
@@ -1455,13 +1458,13 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>-333.6</v>
+        <v>-62.4</v>
       </c>
       <c r="Q15">
-        <v>-333.6</v>
+        <v>-62.4</v>
       </c>
       <c r="R15">
-        <v>-3.49</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1493,7 +1496,7 @@
         <v>6033.5</v>
       </c>
       <c r="J16">
-        <v>5893.5</v>
+        <v>5940.5</v>
       </c>
       <c r="L16">
         <v>5731.82</v>
@@ -1505,13 +1508,13 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>-140</v>
+        <v>-93</v>
       </c>
       <c r="Q16">
-        <v>-140</v>
+        <v>-93</v>
       </c>
       <c r="R16">
-        <v>-2.32</v>
+        <v>-1.54</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1543,7 +1546,7 @@
         <v>9282</v>
       </c>
       <c r="J17">
-        <v>9413.5</v>
+        <v>9492</v>
       </c>
       <c r="L17">
         <v>8817.9</v>
@@ -1555,13 +1558,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>131.5</v>
+        <v>210</v>
       </c>
       <c r="Q17">
-        <v>131.5</v>
+        <v>210</v>
       </c>
       <c r="R17">
-        <v>1.42</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1605,7 +1608,7 @@
         <v>282.8</v>
       </c>
       <c r="N18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1661,7 +1664,7 @@
         <v>1342.35</v>
       </c>
       <c r="N19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O19">
         <v>-494.5500000000006</v>
@@ -1717,7 +1720,7 @@
         <v>5425.45</v>
       </c>
       <c r="N20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O20">
         <v>-285.5500000000002</v>
@@ -1773,7 +1776,7 @@
         <v>128.499</v>
       </c>
       <c r="N21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O21">
         <v>495.639</v>
@@ -1799,7 +1802,7 @@
         <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1811,7 +1814,7 @@
         <v>2</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>7948.2</v>
@@ -1819,23 +1822,29 @@
       <c r="J22">
         <v>4021.8</v>
       </c>
+      <c r="K22" t="s">
+        <v>87</v>
+      </c>
       <c r="L22">
         <v>3974.1</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>3974.1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>90</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>95.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>95.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>1.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1879,7 +1888,7 @@
         <v>972.9400000000001</v>
       </c>
       <c r="N23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O23">
         <v>-460.8900000000003</v>
@@ -1935,7 +1944,7 @@
         <v>158.14</v>
       </c>
       <c r="N24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O24">
         <v>-499.2000000000013</v>
@@ -1991,7 +2000,7 @@
         <v>1001.11</v>
       </c>
       <c r="N25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O25">
         <v>-474.2099999999995</v>
@@ -2047,7 +2056,7 @@
         <v>252</v>
       </c>
       <c r="N26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O26">
         <v>-567.9500000000008</v>
@@ -2103,7 +2112,7 @@
         <v>951.52</v>
       </c>
       <c r="N27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O27">
         <v>-450.7200000000004</v>
@@ -2159,7 +2168,7 @@
         <v>1880.9</v>
       </c>
       <c r="N28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28">
         <v>-495</v>
@@ -2215,7 +2224,7 @@
         <v>854</v>
       </c>
       <c r="N29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29">
         <v>-523.0499999999995</v>
@@ -2271,7 +2280,7 @@
         <v>6310.38</v>
       </c>
       <c r="N30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O30">
         <v>-332.1199999999999</v>
@@ -2327,7 +2336,7 @@
         <v>541.83</v>
       </c>
       <c r="N31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O31">
         <v>-484.8399999999997</v>
@@ -2383,7 +2392,7 @@
         <v>738.96</v>
       </c>
       <c r="N32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O32">
         <v>-466.6799999999998</v>
@@ -2439,7 +2448,7 @@
         <v>637.64</v>
       </c>
       <c r="N33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O33">
         <v>-469.8400000000008</v>
@@ -2486,7 +2495,7 @@
         <v>1728.7</v>
       </c>
       <c r="K34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L34">
         <v>1693.47</v>
@@ -2495,7 +2504,7 @@
         <v>1693.47</v>
       </c>
       <c r="N34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O34">
         <v>-445.6499999999994</v>
@@ -2551,7 +2560,7 @@
         <v>409.31</v>
       </c>
       <c r="N35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O35">
         <v>-495.4200000000005</v>
@@ -2607,7 +2616,7 @@
         <v>4769.95</v>
       </c>
       <c r="N36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O36">
         <v>-251.0500000000001</v>
@@ -2663,7 +2672,7 @@
         <v>109.86</v>
       </c>
       <c r="N37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O37">
         <v>-497.0800000000001</v>
@@ -2707,7 +2716,7 @@
         <v>9622.049999999999</v>
       </c>
       <c r="J38">
-        <v>418.4</v>
+        <v>422.9</v>
       </c>
       <c r="L38">
         <v>397.43</v>
@@ -2719,13 +2728,13 @@
         <v>0</v>
       </c>
       <c r="P38">
-        <v>1.15</v>
+        <v>104.65</v>
       </c>
       <c r="Q38">
-        <v>1.15</v>
+        <v>104.65</v>
       </c>
       <c r="R38">
-        <v>0.01</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -2769,7 +2778,7 @@
         <v>260.54</v>
       </c>
       <c r="N39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O39">
         <v>-493.5599999999993</v>
@@ -2813,7 +2822,7 @@
         <v>9968.4</v>
       </c>
       <c r="J40">
-        <v>1707</v>
+        <v>1720.2</v>
       </c>
       <c r="L40">
         <v>1578.33</v>
@@ -2825,13 +2834,13 @@
         <v>0</v>
       </c>
       <c r="P40">
-        <v>273.6</v>
+        <v>352.8</v>
       </c>
       <c r="Q40">
-        <v>273.6</v>
+        <v>352.8</v>
       </c>
       <c r="R40">
-        <v>2.74</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -2875,7 +2884,7 @@
         <v>2751.58</v>
       </c>
       <c r="N41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O41">
         <v>-434.4600000000005</v>
@@ -2931,7 +2940,7 @@
         <v>1342.44</v>
       </c>
       <c r="N42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O42">
         <v>-494.619999999999</v>
@@ -2978,7 +2987,7 @@
         <v>4056.4</v>
       </c>
       <c r="K43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L43">
         <v>3853.58</v>
@@ -2987,7 +2996,7 @@
         <v>3853.58</v>
       </c>
       <c r="N43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O43">
         <v>-405.6400000000003</v>
@@ -3031,7 +3040,7 @@
         <v>9686.25</v>
       </c>
       <c r="J44">
-        <v>349.15</v>
+        <v>357.4</v>
       </c>
       <c r="L44">
         <v>340.81</v>
@@ -3043,13 +3052,13 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>-259.2</v>
+        <v>-36.45</v>
       </c>
       <c r="Q44">
-        <v>-259.2</v>
+        <v>-36.45</v>
       </c>
       <c r="R44">
-        <v>-2.68</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3081,7 +3090,7 @@
         <v>8449</v>
       </c>
       <c r="J45">
-        <v>1670.8</v>
+        <v>1682.7</v>
       </c>
       <c r="L45">
         <v>1605.31</v>
@@ -3093,13 +3102,13 @@
         <v>0</v>
       </c>
       <c r="P45">
-        <v>-95</v>
+        <v>-35.5</v>
       </c>
       <c r="Q45">
-        <v>-95</v>
+        <v>-35.5</v>
       </c>
       <c r="R45">
-        <v>-1.12</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3131,7 +3140,7 @@
         <v>9697.799999999999</v>
       </c>
       <c r="J46">
-        <v>336.7</v>
+        <v>344.7</v>
       </c>
       <c r="L46">
         <v>329.03</v>
@@ -3143,13 +3152,13 @@
         <v>0</v>
       </c>
       <c r="P46">
-        <v>-270.2</v>
+        <v>-46.2</v>
       </c>
       <c r="Q46">
-        <v>-270.2</v>
+        <v>-46.2</v>
       </c>
       <c r="R46">
-        <v>-2.79</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -3181,7 +3190,7 @@
         <v>9306.9</v>
       </c>
       <c r="J47">
-        <v>3162.5</v>
+        <v>3158</v>
       </c>
       <c r="L47">
         <v>2947.18</v>
@@ -3193,13 +3202,13 @@
         <v>0</v>
       </c>
       <c r="P47">
-        <v>180.6</v>
+        <v>167.1</v>
       </c>
       <c r="Q47">
-        <v>180.6</v>
+        <v>167.1</v>
       </c>
       <c r="R47">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -3231,7 +3240,7 @@
         <v>7448.2</v>
       </c>
       <c r="J48">
-        <v>3665.6</v>
+        <v>3670.6</v>
       </c>
       <c r="L48">
         <v>3537.89</v>
@@ -3243,13 +3252,13 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>-117</v>
+        <v>-107</v>
       </c>
       <c r="Q48">
-        <v>-117</v>
+        <v>-107</v>
       </c>
       <c r="R48">
-        <v>-1.57</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -3281,7 +3290,7 @@
         <v>8784.599999999999</v>
       </c>
       <c r="J49">
-        <v>2900.4</v>
+        <v>2894</v>
       </c>
       <c r="L49">
         <v>2781.79</v>
@@ -3293,13 +3302,13 @@
         <v>0</v>
       </c>
       <c r="P49">
-        <v>-83.40000000000001</v>
+        <v>-102.6</v>
       </c>
       <c r="Q49">
-        <v>-83.40000000000001</v>
+        <v>-102.6</v>
       </c>
       <c r="R49">
-        <v>-0.95</v>
+        <v>-1.17</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -3343,7 +3352,7 @@
         <v>1982.08</v>
       </c>
       <c r="N50" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O50">
         <v>-417.2800000000007</v>
@@ -3399,7 +3408,7 @@
         <v>520.6</v>
       </c>
       <c r="N51" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O51">
         <v>-493.1999999999996</v>
@@ -3443,7 +3452,7 @@
         <v>9915.6</v>
       </c>
       <c r="J52">
-        <v>413.15</v>
+        <v>422.55</v>
       </c>
       <c r="L52">
         <v>392.49</v>
@@ -3455,13 +3464,13 @@
         <v>0</v>
       </c>
       <c r="P52">
-        <v>0</v>
+        <v>225.6</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>225.6</v>
       </c>
       <c r="R52">
-        <v>0</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -3493,7 +3502,7 @@
         <v>9943.33</v>
       </c>
       <c r="J53">
-        <v>187.61</v>
+        <v>192.28</v>
       </c>
       <c r="L53">
         <v>178.23</v>
@@ -3505,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="P53">
-        <v>0</v>
+        <v>247.51</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>247.51</v>
       </c>
       <c r="R53">
-        <v>0</v>
+        <v>2.49</v>
       </c>
     </row>
   </sheetData>

--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="93">
   <si>
     <t>Buy Date</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>2026-01-23</t>
+  </si>
+  <si>
+    <t>2026-01-28</t>
   </si>
   <si>
     <t>ADANIENT</t>
@@ -653,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S53"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,13 +736,13 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -769,7 +772,7 @@
         <v>2093.04</v>
       </c>
       <c r="N2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O2">
         <v>-440.6399999999994</v>
@@ -789,16 +792,16 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1232</v>
@@ -807,31 +810,34 @@
         <v>8</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1315.8</v>
+        <v>1319.8</v>
       </c>
       <c r="L3">
-        <v>1232</v>
+        <v>1293.6</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>492.8000000000002</v>
       </c>
       <c r="P3">
-        <v>670.4</v>
+        <v>351.2</v>
       </c>
       <c r="Q3">
-        <v>670.4</v>
+        <v>844</v>
       </c>
       <c r="R3">
-        <v>6.8</v>
+        <v>8.56</v>
+      </c>
+      <c r="S3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -839,10 +845,10 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -857,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>6041.5</v>
@@ -865,23 +871,29 @@
       <c r="J4">
         <v>5886</v>
       </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
       <c r="L4">
         <v>5739.43</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>5739.43</v>
+      </c>
+      <c r="N4" t="s">
+        <v>91</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>-302.0699999999997</v>
       </c>
       <c r="P4">
-        <v>-155.5</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>-155.5</v>
+        <v>-302.0699999999997</v>
       </c>
       <c r="R4">
-        <v>-2.57</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -889,13 +901,13 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -913,7 +925,7 @@
         <v>8527.200000000001</v>
       </c>
       <c r="J5">
-        <v>2856.2</v>
+        <v>2839.1</v>
       </c>
       <c r="L5">
         <v>2700.28</v>
@@ -925,13 +937,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>41.4</v>
+        <v>-9.9</v>
       </c>
       <c r="Q5">
-        <v>41.4</v>
+        <v>-9.9</v>
       </c>
       <c r="R5">
-        <v>0.49</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -939,13 +951,13 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -963,7 +975,7 @@
         <v>9173.200000000001</v>
       </c>
       <c r="J6">
-        <v>2400.9</v>
+        <v>2378.4</v>
       </c>
       <c r="L6">
         <v>2178.64</v>
@@ -975,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>430.4</v>
+        <v>340.4</v>
       </c>
       <c r="Q6">
-        <v>430.4</v>
+        <v>340.4</v>
       </c>
       <c r="R6">
-        <v>4.69</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -989,13 +1001,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1013,7 +1025,7 @@
         <v>8960</v>
       </c>
       <c r="J7">
-        <v>1303.3</v>
+        <v>1292.4</v>
       </c>
       <c r="L7">
         <v>1216</v>
@@ -1025,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>163.1</v>
+        <v>86.8</v>
       </c>
       <c r="Q7">
-        <v>163.1</v>
+        <v>86.8</v>
       </c>
       <c r="R7">
-        <v>1.82</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1039,13 +1051,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1063,7 +1075,7 @@
         <v>9722.1</v>
       </c>
       <c r="J8">
-        <v>3157.2</v>
+        <v>3220.8</v>
       </c>
       <c r="L8">
         <v>3078.66</v>
@@ -1075,13 +1087,13 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>-250.5</v>
+        <v>-59.7</v>
       </c>
       <c r="Q8">
-        <v>-250.5</v>
+        <v>-59.7</v>
       </c>
       <c r="R8">
-        <v>-2.58</v>
+        <v>-0.61</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1089,13 +1101,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1125,7 +1137,7 @@
         <v>2901.59</v>
       </c>
       <c r="N9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O9">
         <v>-458.1300000000001</v>
@@ -1145,13 +1157,13 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1181,7 +1193,7 @@
         <v>2922.11</v>
       </c>
       <c r="N10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O10">
         <v>-461.3699999999999</v>
@@ -1201,13 +1213,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1228,7 +1240,7 @@
         <v>183.56</v>
       </c>
       <c r="K11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L11">
         <v>180.92</v>
@@ -1237,7 +1249,7 @@
         <v>180.92</v>
       </c>
       <c r="N11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O11">
         <v>749.6499999999999</v>
@@ -1252,7 +1264,7 @@
         <v>7.5</v>
       </c>
       <c r="S11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1260,13 +1272,13 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1284,7 +1296,7 @@
         <v>9674.4</v>
       </c>
       <c r="J12">
-        <v>1745.1</v>
+        <v>1762.9</v>
       </c>
       <c r="L12">
         <v>1612.4</v>
@@ -1296,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>796.2</v>
+        <v>903</v>
       </c>
       <c r="Q12">
-        <v>796.2</v>
+        <v>903</v>
       </c>
       <c r="R12">
-        <v>8.23</v>
+        <v>9.33</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1310,13 +1322,13 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1346,7 +1358,7 @@
         <v>732.4</v>
       </c>
       <c r="N13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O13">
         <v>-462.6000000000008</v>
@@ -1366,13 +1378,13 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1402,7 +1414,7 @@
         <v>651.2</v>
       </c>
       <c r="N14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1422,10 +1434,10 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s">
         <v>84</v>
@@ -1440,7 +1452,7 @@
         <v>8</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>9561.6</v>
@@ -1448,23 +1460,29 @@
       <c r="J15">
         <v>1187.4</v>
       </c>
+      <c r="K15" t="s">
+        <v>34</v>
+      </c>
       <c r="L15">
         <v>1135.44</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1135.44</v>
+      </c>
+      <c r="N15" t="s">
+        <v>91</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>-478.0799999999999</v>
       </c>
       <c r="P15">
-        <v>-62.4</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>-62.4</v>
+        <v>-478.0799999999999</v>
       </c>
       <c r="R15">
-        <v>-0.65</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1472,13 +1490,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1496,7 +1514,7 @@
         <v>6033.5</v>
       </c>
       <c r="J16">
-        <v>5940.5</v>
+        <v>6015.5</v>
       </c>
       <c r="L16">
         <v>5731.82</v>
@@ -1508,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>-93</v>
+        <v>-18</v>
       </c>
       <c r="Q16">
-        <v>-93</v>
+        <v>-18</v>
       </c>
       <c r="R16">
-        <v>-1.54</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1522,13 +1540,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1546,7 +1564,7 @@
         <v>9282</v>
       </c>
       <c r="J17">
-        <v>9492</v>
+        <v>9433.5</v>
       </c>
       <c r="L17">
         <v>8817.9</v>
@@ -1558,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>210</v>
+        <v>151.5</v>
       </c>
       <c r="Q17">
-        <v>210</v>
+        <v>151.5</v>
       </c>
       <c r="R17">
-        <v>2.26</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1572,13 +1590,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1608,7 +1626,7 @@
         <v>282.8</v>
       </c>
       <c r="N18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1628,13 +1646,13 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1664,7 +1682,7 @@
         <v>1342.35</v>
       </c>
       <c r="N19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O19">
         <v>-494.5500000000006</v>
@@ -1684,13 +1702,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1720,7 +1738,7 @@
         <v>5425.45</v>
       </c>
       <c r="N20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O20">
         <v>-285.5500000000002</v>
@@ -1740,13 +1758,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1767,7 +1785,7 @@
         <v>132.36</v>
       </c>
       <c r="K21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L21">
         <v>128.5</v>
@@ -1776,7 +1794,7 @@
         <v>128.499</v>
       </c>
       <c r="N21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O21">
         <v>495.639</v>
@@ -1796,13 +1814,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1823,7 +1841,7 @@
         <v>4021.8</v>
       </c>
       <c r="K22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L22">
         <v>3974.1</v>
@@ -1832,7 +1850,7 @@
         <v>3974.1</v>
       </c>
       <c r="N22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1852,13 +1870,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1888,7 +1906,7 @@
         <v>972.9400000000001</v>
       </c>
       <c r="N23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O23">
         <v>-460.8900000000003</v>
@@ -1908,13 +1926,13 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1944,7 +1962,7 @@
         <v>158.14</v>
       </c>
       <c r="N24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O24">
         <v>-499.2000000000013</v>
@@ -1964,13 +1982,13 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2000,7 +2018,7 @@
         <v>1001.11</v>
       </c>
       <c r="N25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O25">
         <v>-474.2099999999995</v>
@@ -2020,13 +2038,13 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2047,7 +2065,7 @@
         <v>267.45</v>
       </c>
       <c r="K26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L26">
         <v>253.98</v>
@@ -2056,7 +2074,7 @@
         <v>252</v>
       </c>
       <c r="N26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O26">
         <v>-567.9500000000008</v>
@@ -2076,13 +2094,13 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2112,7 +2130,7 @@
         <v>951.52</v>
       </c>
       <c r="N27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O27">
         <v>-450.7200000000004</v>
@@ -2132,13 +2150,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2168,7 +2186,7 @@
         <v>1880.9</v>
       </c>
       <c r="N28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O28">
         <v>-495</v>
@@ -2188,13 +2206,13 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2224,7 +2242,7 @@
         <v>854</v>
       </c>
       <c r="N29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29">
         <v>-523.0499999999995</v>
@@ -2244,13 +2262,13 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2280,7 +2298,7 @@
         <v>6310.38</v>
       </c>
       <c r="N30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30">
         <v>-332.1199999999999</v>
@@ -2300,13 +2318,13 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2327,7 +2345,7 @@
         <v>546.75</v>
       </c>
       <c r="K31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L31">
         <v>541.83</v>
@@ -2336,7 +2354,7 @@
         <v>541.83</v>
       </c>
       <c r="N31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O31">
         <v>-484.8399999999997</v>
@@ -2356,13 +2374,13 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2392,7 +2410,7 @@
         <v>738.96</v>
       </c>
       <c r="N32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O32">
         <v>-466.6799999999998</v>
@@ -2412,13 +2430,13 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2448,7 +2466,7 @@
         <v>637.64</v>
       </c>
       <c r="N33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O33">
         <v>-469.8400000000008</v>
@@ -2468,13 +2486,13 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2495,7 +2513,7 @@
         <v>1728.7</v>
       </c>
       <c r="K34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L34">
         <v>1693.47</v>
@@ -2504,7 +2522,7 @@
         <v>1693.47</v>
       </c>
       <c r="N34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O34">
         <v>-445.6499999999994</v>
@@ -2524,13 +2542,13 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2551,7 +2569,7 @@
         <v>414.55</v>
       </c>
       <c r="K35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L35">
         <v>409.31</v>
@@ -2560,7 +2578,7 @@
         <v>409.31</v>
       </c>
       <c r="N35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O35">
         <v>-495.4200000000005</v>
@@ -2580,13 +2598,13 @@
         <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2616,7 +2634,7 @@
         <v>4769.95</v>
       </c>
       <c r="N36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O36">
         <v>-251.0500000000001</v>
@@ -2636,13 +2654,13 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2672,7 +2690,7 @@
         <v>109.86</v>
       </c>
       <c r="N37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O37">
         <v>-497.0800000000001</v>
@@ -2692,13 +2710,13 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2716,7 +2734,7 @@
         <v>9622.049999999999</v>
       </c>
       <c r="J38">
-        <v>422.9</v>
+        <v>444.05</v>
       </c>
       <c r="L38">
         <v>397.43</v>
@@ -2728,13 +2746,13 @@
         <v>0</v>
       </c>
       <c r="P38">
-        <v>104.65</v>
+        <v>591.1</v>
       </c>
       <c r="Q38">
-        <v>104.65</v>
+        <v>591.1</v>
       </c>
       <c r="R38">
-        <v>1.09</v>
+        <v>6.14</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -2742,13 +2760,13 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2778,7 +2796,7 @@
         <v>260.54</v>
       </c>
       <c r="N39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O39">
         <v>-493.5599999999993</v>
@@ -2798,13 +2816,13 @@
         <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2822,7 +2840,7 @@
         <v>9968.4</v>
       </c>
       <c r="J40">
-        <v>1720.2</v>
+        <v>1729.6</v>
       </c>
       <c r="L40">
         <v>1578.33</v>
@@ -2834,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="P40">
-        <v>352.8</v>
+        <v>409.2</v>
       </c>
       <c r="Q40">
-        <v>352.8</v>
+        <v>409.2</v>
       </c>
       <c r="R40">
-        <v>3.54</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -2848,13 +2866,13 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2884,7 +2902,7 @@
         <v>2751.58</v>
       </c>
       <c r="N41" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O41">
         <v>-434.4600000000005</v>
@@ -2904,13 +2922,13 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2931,7 +2949,7 @@
         <v>1375.8</v>
       </c>
       <c r="K42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L42">
         <v>1342.44</v>
@@ -2940,7 +2958,7 @@
         <v>1342.44</v>
       </c>
       <c r="N42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O42">
         <v>-494.619999999999</v>
@@ -2960,13 +2978,13 @@
         <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2987,7 +3005,7 @@
         <v>4056.4</v>
       </c>
       <c r="K43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L43">
         <v>3853.58</v>
@@ -2996,7 +3014,7 @@
         <v>3853.58</v>
       </c>
       <c r="N43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O43">
         <v>-405.6400000000003</v>
@@ -3016,13 +3034,13 @@
         <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3040,7 +3058,7 @@
         <v>9686.25</v>
       </c>
       <c r="J44">
-        <v>357.4</v>
+        <v>362.35</v>
       </c>
       <c r="L44">
         <v>340.81</v>
@@ -3052,13 +3070,13 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>-36.45</v>
+        <v>97.2</v>
       </c>
       <c r="Q44">
-        <v>-36.45</v>
+        <v>97.2</v>
       </c>
       <c r="R44">
-        <v>-0.38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3066,13 +3084,13 @@
         <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3090,7 +3108,7 @@
         <v>8449</v>
       </c>
       <c r="J45">
-        <v>1682.7</v>
+        <v>1666.5</v>
       </c>
       <c r="L45">
         <v>1605.31</v>
@@ -3102,13 +3120,13 @@
         <v>0</v>
       </c>
       <c r="P45">
-        <v>-35.5</v>
+        <v>-116.5</v>
       </c>
       <c r="Q45">
-        <v>-35.5</v>
+        <v>-116.5</v>
       </c>
       <c r="R45">
-        <v>-0.42</v>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3116,13 +3134,13 @@
         <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3140,7 +3158,7 @@
         <v>9697.799999999999</v>
       </c>
       <c r="J46">
-        <v>344.7</v>
+        <v>348.05</v>
       </c>
       <c r="L46">
         <v>329.03</v>
@@ -3152,13 +3170,13 @@
         <v>0</v>
       </c>
       <c r="P46">
-        <v>-46.2</v>
+        <v>47.6</v>
       </c>
       <c r="Q46">
-        <v>-46.2</v>
+        <v>47.6</v>
       </c>
       <c r="R46">
-        <v>-0.48</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -3166,13 +3184,13 @@
         <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3190,7 +3208,7 @@
         <v>9306.9</v>
       </c>
       <c r="J47">
-        <v>3158</v>
+        <v>3200.1</v>
       </c>
       <c r="L47">
         <v>2947.18</v>
@@ -3202,13 +3220,13 @@
         <v>0</v>
       </c>
       <c r="P47">
-        <v>167.1</v>
+        <v>293.4</v>
       </c>
       <c r="Q47">
-        <v>167.1</v>
+        <v>293.4</v>
       </c>
       <c r="R47">
-        <v>1.8</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -3216,13 +3234,13 @@
         <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3240,7 +3258,7 @@
         <v>7448.2</v>
       </c>
       <c r="J48">
-        <v>3670.6</v>
+        <v>3735.7</v>
       </c>
       <c r="L48">
         <v>3537.89</v>
@@ -3252,13 +3270,13 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>-107</v>
+        <v>23.2</v>
       </c>
       <c r="Q48">
-        <v>-107</v>
+        <v>23.2</v>
       </c>
       <c r="R48">
-        <v>-1.44</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -3266,13 +3284,13 @@
         <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C49" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D49" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3290,7 +3308,7 @@
         <v>8784.599999999999</v>
       </c>
       <c r="J49">
-        <v>2894</v>
+        <v>2980.8</v>
       </c>
       <c r="L49">
         <v>2781.79</v>
@@ -3302,13 +3320,13 @@
         <v>0</v>
       </c>
       <c r="P49">
-        <v>-102.6</v>
+        <v>157.8</v>
       </c>
       <c r="Q49">
-        <v>-102.6</v>
+        <v>157.8</v>
       </c>
       <c r="R49">
-        <v>-1.17</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -3316,13 +3334,13 @@
         <v>32</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3352,7 +3370,7 @@
         <v>1982.08</v>
       </c>
       <c r="N50" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O50">
         <v>-417.2800000000007</v>
@@ -3372,13 +3390,13 @@
         <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D51" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3408,7 +3426,7 @@
         <v>520.6</v>
       </c>
       <c r="N51" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O51">
         <v>-493.1999999999996</v>
@@ -3428,13 +3446,13 @@
         <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3452,7 +3470,7 @@
         <v>9915.6</v>
       </c>
       <c r="J52">
-        <v>422.55</v>
+        <v>425.3</v>
       </c>
       <c r="L52">
         <v>392.49</v>
@@ -3464,13 +3482,13 @@
         <v>0</v>
       </c>
       <c r="P52">
-        <v>225.6</v>
+        <v>291.6</v>
       </c>
       <c r="Q52">
-        <v>225.6</v>
+        <v>291.6</v>
       </c>
       <c r="R52">
-        <v>2.28</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -3478,13 +3496,13 @@
         <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3502,7 +3520,7 @@
         <v>9943.33</v>
       </c>
       <c r="J53">
-        <v>192.28</v>
+        <v>193.85</v>
       </c>
       <c r="L53">
         <v>178.23</v>
@@ -3514,13 +3532,113 @@
         <v>0</v>
       </c>
       <c r="P53">
-        <v>247.51</v>
+        <v>330.72</v>
       </c>
       <c r="Q53">
-        <v>247.51</v>
+        <v>330.72</v>
       </c>
       <c r="R53">
-        <v>2.49</v>
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" t="s">
+        <v>85</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>3975.2</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
+        <v>7950.4</v>
+      </c>
+      <c r="J54">
+        <v>3975.2</v>
+      </c>
+      <c r="L54">
+        <v>3776.44</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" t="s">
+        <v>85</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1994.7</v>
+      </c>
+      <c r="G55">
+        <v>5</v>
+      </c>
+      <c r="H55">
+        <v>5</v>
+      </c>
+      <c r="I55">
+        <v>9973.5</v>
+      </c>
+      <c r="J55">
+        <v>1994.7</v>
+      </c>
+      <c r="L55">
+        <v>1894.96</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="96">
   <si>
     <t>Buy Date</t>
   </si>
@@ -121,6 +121,9 @@
     <t>2026-01-28</t>
   </si>
   <si>
+    <t>2026-01-29</t>
+  </si>
+  <si>
     <t>ADANIENT</t>
   </si>
   <si>
@@ -257,6 +260,12 @@
   </si>
   <si>
     <t>DMART</t>
+  </si>
+  <si>
+    <t>ADANIGREEN</t>
+  </si>
+  <si>
+    <t>DLF</t>
   </si>
   <si>
     <t>Value Buy</t>
@@ -656,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S55"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -736,13 +745,13 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -772,7 +781,7 @@
         <v>2093.04</v>
       </c>
       <c r="N2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O2">
         <v>-440.6399999999994</v>
@@ -792,13 +801,13 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -816,7 +825,7 @@
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1319.8</v>
+        <v>1363.7</v>
       </c>
       <c r="L3">
         <v>1293.6</v>
@@ -828,13 +837,13 @@
         <v>492.8000000000002</v>
       </c>
       <c r="P3">
-        <v>351.2</v>
+        <v>526.8</v>
       </c>
       <c r="Q3">
-        <v>844</v>
+        <v>1019.6</v>
       </c>
       <c r="R3">
-        <v>8.56</v>
+        <v>10.34</v>
       </c>
       <c r="S3" t="s">
         <v>34</v>
@@ -845,13 +854,13 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -881,7 +890,7 @@
         <v>5739.43</v>
       </c>
       <c r="N4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O4">
         <v>-302.0699999999997</v>
@@ -901,13 +910,13 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -925,7 +934,7 @@
         <v>8527.200000000001</v>
       </c>
       <c r="J5">
-        <v>2839.1</v>
+        <v>2831.7</v>
       </c>
       <c r="L5">
         <v>2700.28</v>
@@ -937,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>-9.9</v>
+        <v>-32.1</v>
       </c>
       <c r="Q5">
-        <v>-9.9</v>
+        <v>-32.1</v>
       </c>
       <c r="R5">
-        <v>-0.12</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -951,13 +960,13 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -975,7 +984,7 @@
         <v>9173.200000000001</v>
       </c>
       <c r="J6">
-        <v>2378.4</v>
+        <v>2352.6</v>
       </c>
       <c r="L6">
         <v>2178.64</v>
@@ -987,13 +996,13 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>340.4</v>
+        <v>237.2</v>
       </c>
       <c r="Q6">
-        <v>340.4</v>
+        <v>237.2</v>
       </c>
       <c r="R6">
-        <v>3.71</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1001,13 +1010,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1025,7 +1034,7 @@
         <v>8960</v>
       </c>
       <c r="J7">
-        <v>1292.4</v>
+        <v>1287.9</v>
       </c>
       <c r="L7">
         <v>1216</v>
@@ -1037,13 +1046,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>86.8</v>
+        <v>55.3</v>
       </c>
       <c r="Q7">
-        <v>86.8</v>
+        <v>55.3</v>
       </c>
       <c r="R7">
-        <v>0.97</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1051,13 +1060,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1075,7 +1084,7 @@
         <v>9722.1</v>
       </c>
       <c r="J8">
-        <v>3220.8</v>
+        <v>3159</v>
       </c>
       <c r="L8">
         <v>3078.66</v>
@@ -1087,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>-59.7</v>
+        <v>-245.1</v>
       </c>
       <c r="Q8">
-        <v>-59.7</v>
+        <v>-245.1</v>
       </c>
       <c r="R8">
-        <v>-0.61</v>
+        <v>-2.52</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1101,13 +1110,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1137,7 +1146,7 @@
         <v>2901.59</v>
       </c>
       <c r="N9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O9">
         <v>-458.1300000000001</v>
@@ -1157,13 +1166,13 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1193,7 +1202,7 @@
         <v>2922.11</v>
       </c>
       <c r="N10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O10">
         <v>-461.3699999999999</v>
@@ -1213,13 +1222,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1240,7 +1249,7 @@
         <v>183.56</v>
       </c>
       <c r="K11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L11">
         <v>180.92</v>
@@ -1249,7 +1258,7 @@
         <v>180.92</v>
       </c>
       <c r="N11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O11">
         <v>749.6499999999999</v>
@@ -1264,7 +1273,7 @@
         <v>7.5</v>
       </c>
       <c r="S11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1272,16 +1281,16 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1612.4</v>
@@ -1290,31 +1299,34 @@
         <v>6</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I12">
         <v>9674.4</v>
       </c>
       <c r="J12">
-        <v>1762.9</v>
+        <v>1768.4</v>
       </c>
       <c r="L12">
-        <v>1612.4</v>
+        <v>1693.02</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>483.7200000000007</v>
       </c>
       <c r="P12">
-        <v>903</v>
+        <v>468</v>
       </c>
       <c r="Q12">
-        <v>903</v>
+        <v>951.72</v>
       </c>
       <c r="R12">
-        <v>9.33</v>
+        <v>9.84</v>
+      </c>
+      <c r="S12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1322,13 +1334,13 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1358,7 +1370,7 @@
         <v>732.4</v>
       </c>
       <c r="N13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O13">
         <v>-462.6000000000008</v>
@@ -1378,13 +1390,13 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1414,7 +1426,7 @@
         <v>651.2</v>
       </c>
       <c r="N14" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1434,13 +1446,13 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1470,7 +1482,7 @@
         <v>1135.44</v>
       </c>
       <c r="N15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O15">
         <v>-478.0799999999999</v>
@@ -1490,13 +1502,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1514,7 +1526,7 @@
         <v>6033.5</v>
       </c>
       <c r="J16">
-        <v>6015.5</v>
+        <v>5995</v>
       </c>
       <c r="L16">
         <v>5731.82</v>
@@ -1526,13 +1538,13 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>-18</v>
+        <v>-38.5</v>
       </c>
       <c r="Q16">
-        <v>-18</v>
+        <v>-38.5</v>
       </c>
       <c r="R16">
-        <v>-0.3</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1540,13 +1552,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1564,7 +1576,7 @@
         <v>9282</v>
       </c>
       <c r="J17">
-        <v>9433.5</v>
+        <v>9512</v>
       </c>
       <c r="L17">
         <v>8817.9</v>
@@ -1576,13 +1588,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>151.5</v>
+        <v>230</v>
       </c>
       <c r="Q17">
-        <v>151.5</v>
+        <v>230</v>
       </c>
       <c r="R17">
-        <v>1.63</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1590,13 +1602,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1626,7 +1638,7 @@
         <v>282.8</v>
       </c>
       <c r="N18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1646,13 +1658,13 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1682,7 +1694,7 @@
         <v>1342.35</v>
       </c>
       <c r="N19" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O19">
         <v>-494.5500000000006</v>
@@ -1702,13 +1714,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1738,7 +1750,7 @@
         <v>5425.45</v>
       </c>
       <c r="N20" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O20">
         <v>-285.5500000000002</v>
@@ -1758,13 +1770,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1785,7 +1797,7 @@
         <v>132.36</v>
       </c>
       <c r="K21" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L21">
         <v>128.5</v>
@@ -1794,7 +1806,7 @@
         <v>128.499</v>
       </c>
       <c r="N21" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O21">
         <v>495.639</v>
@@ -1814,13 +1826,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1841,7 +1853,7 @@
         <v>4021.8</v>
       </c>
       <c r="K22" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L22">
         <v>3974.1</v>
@@ -1850,7 +1862,7 @@
         <v>3974.1</v>
       </c>
       <c r="N22" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1870,13 +1882,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1906,7 +1918,7 @@
         <v>972.9400000000001</v>
       </c>
       <c r="N23" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O23">
         <v>-460.8900000000003</v>
@@ -1926,13 +1938,13 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1962,7 +1974,7 @@
         <v>158.14</v>
       </c>
       <c r="N24" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O24">
         <v>-499.2000000000013</v>
@@ -1982,13 +1994,13 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2018,7 +2030,7 @@
         <v>1001.11</v>
       </c>
       <c r="N25" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O25">
         <v>-474.2099999999995</v>
@@ -2038,13 +2050,13 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2065,7 +2077,7 @@
         <v>267.45</v>
       </c>
       <c r="K26" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L26">
         <v>253.98</v>
@@ -2074,7 +2086,7 @@
         <v>252</v>
       </c>
       <c r="N26" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O26">
         <v>-567.9500000000008</v>
@@ -2094,13 +2106,13 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2130,7 +2142,7 @@
         <v>951.52</v>
       </c>
       <c r="N27" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O27">
         <v>-450.7200000000004</v>
@@ -2150,13 +2162,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2186,7 +2198,7 @@
         <v>1880.9</v>
       </c>
       <c r="N28" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O28">
         <v>-495</v>
@@ -2206,13 +2218,13 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2242,7 +2254,7 @@
         <v>854</v>
       </c>
       <c r="N29" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O29">
         <v>-523.0499999999995</v>
@@ -2262,13 +2274,13 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2298,7 +2310,7 @@
         <v>6310.38</v>
       </c>
       <c r="N30" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O30">
         <v>-332.1199999999999</v>
@@ -2318,13 +2330,13 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2345,7 +2357,7 @@
         <v>546.75</v>
       </c>
       <c r="K31" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L31">
         <v>541.83</v>
@@ -2354,7 +2366,7 @@
         <v>541.83</v>
       </c>
       <c r="N31" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O31">
         <v>-484.8399999999997</v>
@@ -2374,13 +2386,13 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2410,7 +2422,7 @@
         <v>738.96</v>
       </c>
       <c r="N32" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O32">
         <v>-466.6799999999998</v>
@@ -2425,18 +2437,18 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:19">
       <c r="A33" t="s">
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D33" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2466,7 +2478,7 @@
         <v>637.64</v>
       </c>
       <c r="N33" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O33">
         <v>-469.8400000000008</v>
@@ -2481,18 +2493,18 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:19">
       <c r="A34" t="s">
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D34" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2513,7 +2525,7 @@
         <v>1728.7</v>
       </c>
       <c r="K34" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L34">
         <v>1693.47</v>
@@ -2522,7 +2534,7 @@
         <v>1693.47</v>
       </c>
       <c r="N34" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O34">
         <v>-445.6499999999994</v>
@@ -2537,18 +2549,18 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:19">
       <c r="A35" t="s">
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2569,7 +2581,7 @@
         <v>414.55</v>
       </c>
       <c r="K35" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L35">
         <v>409.31</v>
@@ -2578,7 +2590,7 @@
         <v>409.31</v>
       </c>
       <c r="N35" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O35">
         <v>-495.4200000000005</v>
@@ -2593,18 +2605,18 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:19">
       <c r="A36" t="s">
         <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2634,7 +2646,7 @@
         <v>4769.95</v>
       </c>
       <c r="N36" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O36">
         <v>-251.0500000000001</v>
@@ -2649,18 +2661,18 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:19">
       <c r="A37" t="s">
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2690,7 +2702,7 @@
         <v>109.86</v>
       </c>
       <c r="N37" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O37">
         <v>-497.0800000000001</v>
@@ -2705,21 +2717,21 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:19">
       <c r="A38" t="s">
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D38" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F38">
         <v>418.35</v>
@@ -2728,45 +2740,48 @@
         <v>23</v>
       </c>
       <c r="H38">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I38">
         <v>9622.049999999999</v>
       </c>
       <c r="J38">
-        <v>444.05</v>
+        <v>455.75</v>
       </c>
       <c r="L38">
-        <v>397.43</v>
+        <v>439.27</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>460.1850000000004</v>
       </c>
       <c r="P38">
-        <v>591.1</v>
+        <v>448.8</v>
       </c>
       <c r="Q38">
-        <v>591.1</v>
+        <v>908.98</v>
       </c>
       <c r="R38">
-        <v>6.14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="S38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" t="s">
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2796,7 +2811,7 @@
         <v>260.54</v>
       </c>
       <c r="N39" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O39">
         <v>-493.5599999999993</v>
@@ -2811,18 +2826,18 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:19">
       <c r="A40" t="s">
         <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D40" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2840,7 +2855,7 @@
         <v>9968.4</v>
       </c>
       <c r="J40">
-        <v>1729.6</v>
+        <v>1721.6</v>
       </c>
       <c r="L40">
         <v>1578.33</v>
@@ -2852,27 +2867,27 @@
         <v>0</v>
       </c>
       <c r="P40">
-        <v>409.2</v>
+        <v>361.2</v>
       </c>
       <c r="Q40">
-        <v>409.2</v>
+        <v>361.2</v>
       </c>
       <c r="R40">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" t="s">
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D41" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2902,7 +2917,7 @@
         <v>2751.58</v>
       </c>
       <c r="N41" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O41">
         <v>-434.4600000000005</v>
@@ -2917,18 +2932,18 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:19">
       <c r="A42" t="s">
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D42" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2949,7 +2964,7 @@
         <v>1375.8</v>
       </c>
       <c r="K42" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L42">
         <v>1342.44</v>
@@ -2958,7 +2973,7 @@
         <v>1342.44</v>
       </c>
       <c r="N42" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O42">
         <v>-494.619999999999</v>
@@ -2973,18 +2988,18 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:19">
       <c r="A43" t="s">
         <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C43" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D43" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3005,7 +3020,7 @@
         <v>4056.4</v>
       </c>
       <c r="K43" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L43">
         <v>3853.58</v>
@@ -3014,7 +3029,7 @@
         <v>3853.58</v>
       </c>
       <c r="N43" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O43">
         <v>-405.6400000000003</v>
@@ -3029,18 +3044,18 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:19">
       <c r="A44" t="s">
         <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D44" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3058,7 +3073,7 @@
         <v>9686.25</v>
       </c>
       <c r="J44">
-        <v>362.35</v>
+        <v>366.95</v>
       </c>
       <c r="L44">
         <v>340.81</v>
@@ -3070,27 +3085,27 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>97.2</v>
+        <v>221.4</v>
       </c>
       <c r="Q44">
-        <v>97.2</v>
+        <v>221.4</v>
       </c>
       <c r="R44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" t="s">
         <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D45" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3108,7 +3123,7 @@
         <v>8449</v>
       </c>
       <c r="J45">
-        <v>1666.5</v>
+        <v>1659.5</v>
       </c>
       <c r="L45">
         <v>1605.31</v>
@@ -3120,27 +3135,27 @@
         <v>0</v>
       </c>
       <c r="P45">
-        <v>-116.5</v>
+        <v>-151.5</v>
       </c>
       <c r="Q45">
-        <v>-116.5</v>
+        <v>-151.5</v>
       </c>
       <c r="R45">
-        <v>-1.38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
+        <v>-1.79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" t="s">
         <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D46" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3158,7 +3173,7 @@
         <v>9697.799999999999</v>
       </c>
       <c r="J46">
-        <v>348.05</v>
+        <v>358.15</v>
       </c>
       <c r="L46">
         <v>329.03</v>
@@ -3170,27 +3185,27 @@
         <v>0</v>
       </c>
       <c r="P46">
-        <v>47.6</v>
+        <v>330.4</v>
       </c>
       <c r="Q46">
-        <v>47.6</v>
+        <v>330.4</v>
       </c>
       <c r="R46">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" t="s">
         <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C47" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D47" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3208,7 +3223,7 @@
         <v>9306.9</v>
       </c>
       <c r="J47">
-        <v>3200.1</v>
+        <v>3144.4</v>
       </c>
       <c r="L47">
         <v>2947.18</v>
@@ -3220,27 +3235,27 @@
         <v>0</v>
       </c>
       <c r="P47">
-        <v>293.4</v>
+        <v>126.3</v>
       </c>
       <c r="Q47">
-        <v>293.4</v>
+        <v>126.3</v>
       </c>
       <c r="R47">
-        <v>3.15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" t="s">
         <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D48" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3258,7 +3273,7 @@
         <v>7448.2</v>
       </c>
       <c r="J48">
-        <v>3735.7</v>
+        <v>3667.2</v>
       </c>
       <c r="L48">
         <v>3537.89</v>
@@ -3270,13 +3285,13 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>23.2</v>
+        <v>-113.8</v>
       </c>
       <c r="Q48">
-        <v>23.2</v>
+        <v>-113.8</v>
       </c>
       <c r="R48">
-        <v>0.31</v>
+        <v>-1.53</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -3284,13 +3299,13 @@
         <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D49" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3308,7 +3323,7 @@
         <v>8784.599999999999</v>
       </c>
       <c r="J49">
-        <v>2980.8</v>
+        <v>3096.3</v>
       </c>
       <c r="L49">
         <v>2781.79</v>
@@ -3320,13 +3335,13 @@
         <v>0</v>
       </c>
       <c r="P49">
-        <v>157.8</v>
+        <v>504.3</v>
       </c>
       <c r="Q49">
-        <v>157.8</v>
+        <v>504.3</v>
       </c>
       <c r="R49">
-        <v>1.8</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -3334,13 +3349,13 @@
         <v>32</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C50" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D50" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3370,7 +3385,7 @@
         <v>1982.08</v>
       </c>
       <c r="N50" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O50">
         <v>-417.2800000000007</v>
@@ -3390,13 +3405,13 @@
         <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C51" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3426,7 +3441,7 @@
         <v>520.6</v>
       </c>
       <c r="N51" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O51">
         <v>-493.1999999999996</v>
@@ -3446,13 +3461,13 @@
         <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C52" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3470,7 +3485,7 @@
         <v>9915.6</v>
       </c>
       <c r="J52">
-        <v>425.3</v>
+        <v>441.55</v>
       </c>
       <c r="L52">
         <v>392.49</v>
@@ -3482,13 +3497,13 @@
         <v>0</v>
       </c>
       <c r="P52">
-        <v>291.6</v>
+        <v>681.6</v>
       </c>
       <c r="Q52">
-        <v>291.6</v>
+        <v>681.6</v>
       </c>
       <c r="R52">
-        <v>2.94</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -3496,16 +3511,16 @@
         <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C53" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D53" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
         <v>187.61</v>
@@ -3520,10 +3535,10 @@
         <v>9943.33</v>
       </c>
       <c r="J53">
-        <v>193.85</v>
+        <v>202.32</v>
       </c>
       <c r="L53">
-        <v>178.23</v>
+        <v>187.61</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -3532,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="P53">
-        <v>330.72</v>
+        <v>779.63</v>
       </c>
       <c r="Q53">
-        <v>330.72</v>
+        <v>779.63</v>
       </c>
       <c r="R53">
-        <v>3.33</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -3546,13 +3561,13 @@
         <v>34</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D54" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3570,7 +3585,7 @@
         <v>7950.4</v>
       </c>
       <c r="J54">
-        <v>3975.2</v>
+        <v>3939.7</v>
       </c>
       <c r="L54">
         <v>3776.44</v>
@@ -3582,13 +3597,13 @@
         <v>0</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>-71</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>-71</v>
       </c>
       <c r="R54">
-        <v>0</v>
+        <v>-0.89</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -3596,13 +3611,13 @@
         <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C55" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D55" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3620,7 +3635,7 @@
         <v>9973.5</v>
       </c>
       <c r="J55">
-        <v>1994.7</v>
+        <v>2019.2</v>
       </c>
       <c r="L55">
         <v>1894.96</v>
@@ -3632,12 +3647,112 @@
         <v>0</v>
       </c>
       <c r="P55">
-        <v>0</v>
+        <v>122.5</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>122.5</v>
       </c>
       <c r="R55">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>858.8</v>
+      </c>
+      <c r="G56">
+        <v>11</v>
+      </c>
+      <c r="H56">
+        <v>11</v>
+      </c>
+      <c r="I56">
+        <v>9446.799999999999</v>
+      </c>
+      <c r="J56">
+        <v>858.8</v>
+      </c>
+      <c r="L56">
+        <v>815.86</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" t="s">
+        <v>88</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>638.55</v>
+      </c>
+      <c r="G57">
+        <v>15</v>
+      </c>
+      <c r="H57">
+        <v>15</v>
+      </c>
+      <c r="I57">
+        <v>9578.25</v>
+      </c>
+      <c r="J57">
+        <v>638.55</v>
+      </c>
+      <c r="L57">
+        <v>606.62</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
         <v>0</v>
       </c>
     </row>

--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="98">
   <si>
     <t>Buy Date</t>
   </si>
@@ -124,6 +124,9 @@
     <t>2026-01-29</t>
   </si>
   <si>
+    <t>2026-01-30</t>
+  </si>
+  <si>
     <t>ADANIENT</t>
   </si>
   <si>
@@ -266,6 +269,9 @@
   </si>
   <si>
     <t>DLF</t>
+  </si>
+  <si>
+    <t>LODHA</t>
   </si>
   <si>
     <t>Value Buy</t>
@@ -665,7 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S57"/>
+  <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -745,13 +751,13 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -781,7 +787,7 @@
         <v>2093.04</v>
       </c>
       <c r="N2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O2">
         <v>-440.6399999999994</v>
@@ -801,13 +807,13 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -825,7 +831,7 @@
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1363.7</v>
+        <v>1370.4</v>
       </c>
       <c r="L3">
         <v>1293.6</v>
@@ -837,13 +843,13 @@
         <v>492.8000000000002</v>
       </c>
       <c r="P3">
-        <v>526.8</v>
+        <v>553.6</v>
       </c>
       <c r="Q3">
-        <v>1019.6</v>
+        <v>1046.4</v>
       </c>
       <c r="R3">
-        <v>10.34</v>
+        <v>10.62</v>
       </c>
       <c r="S3" t="s">
         <v>34</v>
@@ -854,13 +860,13 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -890,7 +896,7 @@
         <v>5739.43</v>
       </c>
       <c r="N4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O4">
         <v>-302.0699999999997</v>
@@ -910,13 +916,13 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -934,7 +940,7 @@
         <v>8527.200000000001</v>
       </c>
       <c r="J5">
-        <v>2831.7</v>
+        <v>2819</v>
       </c>
       <c r="L5">
         <v>2700.28</v>
@@ -946,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>-32.1</v>
+        <v>-70.2</v>
       </c>
       <c r="Q5">
-        <v>-32.1</v>
+        <v>-70.2</v>
       </c>
       <c r="R5">
-        <v>-0.38</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -960,13 +966,13 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -984,7 +990,7 @@
         <v>9173.200000000001</v>
       </c>
       <c r="J6">
-        <v>2352.6</v>
+        <v>2373</v>
       </c>
       <c r="L6">
         <v>2178.64</v>
@@ -996,13 +1002,13 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>237.2</v>
+        <v>318.8</v>
       </c>
       <c r="Q6">
-        <v>237.2</v>
+        <v>318.8</v>
       </c>
       <c r="R6">
-        <v>2.59</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1010,13 +1016,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1034,7 +1040,7 @@
         <v>8960</v>
       </c>
       <c r="J7">
-        <v>1287.9</v>
+        <v>1332.4</v>
       </c>
       <c r="L7">
         <v>1216</v>
@@ -1046,13 +1052,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>55.3</v>
+        <v>366.8</v>
       </c>
       <c r="Q7">
-        <v>55.3</v>
+        <v>366.8</v>
       </c>
       <c r="R7">
-        <v>0.62</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1060,13 +1066,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1084,7 +1090,7 @@
         <v>9722.1</v>
       </c>
       <c r="J8">
-        <v>3159</v>
+        <v>3195.4</v>
       </c>
       <c r="L8">
         <v>3078.66</v>
@@ -1096,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>-245.1</v>
+        <v>-135.9</v>
       </c>
       <c r="Q8">
-        <v>-245.1</v>
+        <v>-135.9</v>
       </c>
       <c r="R8">
-        <v>-2.52</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1110,13 +1116,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1146,7 +1152,7 @@
         <v>2901.59</v>
       </c>
       <c r="N9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O9">
         <v>-458.1300000000001</v>
@@ -1166,13 +1172,13 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1202,7 +1208,7 @@
         <v>2922.11</v>
       </c>
       <c r="N10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O10">
         <v>-461.3699999999999</v>
@@ -1222,13 +1228,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1249,7 +1255,7 @@
         <v>183.56</v>
       </c>
       <c r="K11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L11">
         <v>180.92</v>
@@ -1258,7 +1264,7 @@
         <v>180.92</v>
       </c>
       <c r="N11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O11">
         <v>749.6499999999999</v>
@@ -1273,7 +1279,7 @@
         <v>7.5</v>
       </c>
       <c r="S11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1281,13 +1287,13 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1305,7 +1311,7 @@
         <v>9674.4</v>
       </c>
       <c r="J12">
-        <v>1768.4</v>
+        <v>1743.1</v>
       </c>
       <c r="L12">
         <v>1693.02</v>
@@ -1317,13 +1323,13 @@
         <v>483.7200000000007</v>
       </c>
       <c r="P12">
-        <v>468</v>
+        <v>392.1</v>
       </c>
       <c r="Q12">
-        <v>951.72</v>
+        <v>875.8200000000001</v>
       </c>
       <c r="R12">
-        <v>9.84</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="S12" t="s">
         <v>35</v>
@@ -1334,13 +1340,13 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1370,7 +1376,7 @@
         <v>732.4</v>
       </c>
       <c r="N13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O13">
         <v>-462.6000000000008</v>
@@ -1390,13 +1396,13 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1426,7 +1432,7 @@
         <v>651.2</v>
       </c>
       <c r="N14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1446,13 +1452,13 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1482,7 +1488,7 @@
         <v>1135.44</v>
       </c>
       <c r="N15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O15">
         <v>-478.0799999999999</v>
@@ -1502,13 +1508,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1526,7 +1532,7 @@
         <v>6033.5</v>
       </c>
       <c r="J16">
-        <v>5995</v>
+        <v>5974.5</v>
       </c>
       <c r="L16">
         <v>5731.82</v>
@@ -1538,13 +1544,13 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>-38.5</v>
+        <v>-59</v>
       </c>
       <c r="Q16">
-        <v>-38.5</v>
+        <v>-59</v>
       </c>
       <c r="R16">
-        <v>-0.64</v>
+        <v>-0.98</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1552,13 +1558,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1576,7 +1582,7 @@
         <v>9282</v>
       </c>
       <c r="J17">
-        <v>9512</v>
+        <v>9597.5</v>
       </c>
       <c r="L17">
         <v>8817.9</v>
@@ -1588,13 +1594,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>230</v>
+        <v>315.5</v>
       </c>
       <c r="Q17">
-        <v>230</v>
+        <v>315.5</v>
       </c>
       <c r="R17">
-        <v>2.48</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1602,13 +1608,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1638,7 +1644,7 @@
         <v>282.8</v>
       </c>
       <c r="N18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1658,13 +1664,13 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1694,7 +1700,7 @@
         <v>1342.35</v>
       </c>
       <c r="N19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O19">
         <v>-494.5500000000006</v>
@@ -1714,13 +1720,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1750,7 +1756,7 @@
         <v>5425.45</v>
       </c>
       <c r="N20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O20">
         <v>-285.5500000000002</v>
@@ -1770,13 +1776,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1797,7 +1803,7 @@
         <v>132.36</v>
       </c>
       <c r="K21" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L21">
         <v>128.5</v>
@@ -1806,7 +1812,7 @@
         <v>128.499</v>
       </c>
       <c r="N21" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O21">
         <v>495.639</v>
@@ -1826,13 +1832,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1853,7 +1859,7 @@
         <v>4021.8</v>
       </c>
       <c r="K22" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L22">
         <v>3974.1</v>
@@ -1862,7 +1868,7 @@
         <v>3974.1</v>
       </c>
       <c r="N22" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1882,13 +1888,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1918,7 +1924,7 @@
         <v>972.9400000000001</v>
       </c>
       <c r="N23" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O23">
         <v>-460.8900000000003</v>
@@ -1938,13 +1944,13 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1974,7 +1980,7 @@
         <v>158.14</v>
       </c>
       <c r="N24" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O24">
         <v>-499.2000000000013</v>
@@ -1994,13 +2000,13 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2030,7 +2036,7 @@
         <v>1001.11</v>
       </c>
       <c r="N25" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O25">
         <v>-474.2099999999995</v>
@@ -2050,13 +2056,13 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2077,7 +2083,7 @@
         <v>267.45</v>
       </c>
       <c r="K26" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L26">
         <v>253.98</v>
@@ -2086,7 +2092,7 @@
         <v>252</v>
       </c>
       <c r="N26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O26">
         <v>-567.9500000000008</v>
@@ -2106,13 +2112,13 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2142,7 +2148,7 @@
         <v>951.52</v>
       </c>
       <c r="N27" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O27">
         <v>-450.7200000000004</v>
@@ -2162,13 +2168,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2198,7 +2204,7 @@
         <v>1880.9</v>
       </c>
       <c r="N28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O28">
         <v>-495</v>
@@ -2218,13 +2224,13 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2254,7 +2260,7 @@
         <v>854</v>
       </c>
       <c r="N29" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O29">
         <v>-523.0499999999995</v>
@@ -2274,13 +2280,13 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2310,7 +2316,7 @@
         <v>6310.38</v>
       </c>
       <c r="N30" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O30">
         <v>-332.1199999999999</v>
@@ -2330,13 +2336,13 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2357,7 +2363,7 @@
         <v>546.75</v>
       </c>
       <c r="K31" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L31">
         <v>541.83</v>
@@ -2366,7 +2372,7 @@
         <v>541.83</v>
       </c>
       <c r="N31" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O31">
         <v>-484.8399999999997</v>
@@ -2386,13 +2392,13 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2422,7 +2428,7 @@
         <v>738.96</v>
       </c>
       <c r="N32" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O32">
         <v>-466.6799999999998</v>
@@ -2442,13 +2448,13 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2478,7 +2484,7 @@
         <v>637.64</v>
       </c>
       <c r="N33" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O33">
         <v>-469.8400000000008</v>
@@ -2498,13 +2504,13 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D34" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2525,7 +2531,7 @@
         <v>1728.7</v>
       </c>
       <c r="K34" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L34">
         <v>1693.47</v>
@@ -2534,7 +2540,7 @@
         <v>1693.47</v>
       </c>
       <c r="N34" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O34">
         <v>-445.6499999999994</v>
@@ -2554,13 +2560,13 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D35" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2581,7 +2587,7 @@
         <v>414.55</v>
       </c>
       <c r="K35" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L35">
         <v>409.31</v>
@@ -2590,7 +2596,7 @@
         <v>409.31</v>
       </c>
       <c r="N35" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O35">
         <v>-495.4200000000005</v>
@@ -2610,13 +2616,13 @@
         <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2646,7 +2652,7 @@
         <v>4769.95</v>
       </c>
       <c r="N36" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O36">
         <v>-251.0500000000001</v>
@@ -2666,13 +2672,13 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D37" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2702,7 +2708,7 @@
         <v>109.86</v>
       </c>
       <c r="N37" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O37">
         <v>-497.0800000000001</v>
@@ -2722,13 +2728,13 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -2740,7 +2746,7 @@
         <v>23</v>
       </c>
       <c r="H38">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>9622.049999999999</v>
@@ -2748,23 +2754,29 @@
       <c r="J38">
         <v>455.75</v>
       </c>
+      <c r="K38" t="s">
+        <v>36</v>
+      </c>
       <c r="L38">
         <v>439.27</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>439.27</v>
+      </c>
+      <c r="N38" t="s">
+        <v>96</v>
       </c>
       <c r="O38">
-        <v>460.1850000000004</v>
+        <v>711.2249999999999</v>
       </c>
       <c r="P38">
-        <v>448.8</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>908.98</v>
+        <v>711.2249999999999</v>
       </c>
       <c r="R38">
-        <v>9.449999999999999</v>
+        <v>7.39</v>
       </c>
       <c r="S38" t="s">
         <v>35</v>
@@ -2775,13 +2787,13 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D39" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2811,7 +2823,7 @@
         <v>260.54</v>
       </c>
       <c r="N39" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O39">
         <v>-493.5599999999993</v>
@@ -2831,13 +2843,13 @@
         <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D40" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2855,7 +2867,7 @@
         <v>9968.4</v>
       </c>
       <c r="J40">
-        <v>1721.6</v>
+        <v>1695.6</v>
       </c>
       <c r="L40">
         <v>1578.33</v>
@@ -2867,13 +2879,13 @@
         <v>0</v>
       </c>
       <c r="P40">
-        <v>361.2</v>
+        <v>205.2</v>
       </c>
       <c r="Q40">
-        <v>361.2</v>
+        <v>205.2</v>
       </c>
       <c r="R40">
-        <v>3.62</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -2881,13 +2893,13 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D41" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2917,7 +2929,7 @@
         <v>2751.58</v>
       </c>
       <c r="N41" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O41">
         <v>-434.4600000000005</v>
@@ -2937,13 +2949,13 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D42" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2964,7 +2976,7 @@
         <v>1375.8</v>
       </c>
       <c r="K42" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L42">
         <v>1342.44</v>
@@ -2973,7 +2985,7 @@
         <v>1342.44</v>
       </c>
       <c r="N42" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O42">
         <v>-494.619999999999</v>
@@ -2993,13 +3005,13 @@
         <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D43" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3020,7 +3032,7 @@
         <v>4056.4</v>
       </c>
       <c r="K43" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L43">
         <v>3853.58</v>
@@ -3029,7 +3041,7 @@
         <v>3853.58</v>
       </c>
       <c r="N43" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O43">
         <v>-405.6400000000003</v>
@@ -3049,13 +3061,13 @@
         <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D44" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3073,7 +3085,7 @@
         <v>9686.25</v>
       </c>
       <c r="J44">
-        <v>366.95</v>
+        <v>364.5</v>
       </c>
       <c r="L44">
         <v>340.81</v>
@@ -3085,13 +3097,13 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>221.4</v>
+        <v>155.25</v>
       </c>
       <c r="Q44">
-        <v>221.4</v>
+        <v>155.25</v>
       </c>
       <c r="R44">
-        <v>2.29</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -3099,13 +3111,13 @@
         <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D45" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3123,7 +3135,7 @@
         <v>8449</v>
       </c>
       <c r="J45">
-        <v>1659.5</v>
+        <v>1641</v>
       </c>
       <c r="L45">
         <v>1605.31</v>
@@ -3135,13 +3147,13 @@
         <v>0</v>
       </c>
       <c r="P45">
-        <v>-151.5</v>
+        <v>-244</v>
       </c>
       <c r="Q45">
-        <v>-151.5</v>
+        <v>-244</v>
       </c>
       <c r="R45">
-        <v>-1.79</v>
+        <v>-2.89</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -3149,13 +3161,13 @@
         <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C46" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D46" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3173,7 +3185,7 @@
         <v>9697.799999999999</v>
       </c>
       <c r="J46">
-        <v>358.15</v>
+        <v>356</v>
       </c>
       <c r="L46">
         <v>329.03</v>
@@ -3185,13 +3197,13 @@
         <v>0</v>
       </c>
       <c r="P46">
-        <v>330.4</v>
+        <v>270.2</v>
       </c>
       <c r="Q46">
-        <v>330.4</v>
+        <v>270.2</v>
       </c>
       <c r="R46">
-        <v>3.41</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -3199,13 +3211,13 @@
         <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D47" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3223,7 +3235,7 @@
         <v>9306.9</v>
       </c>
       <c r="J47">
-        <v>3144.4</v>
+        <v>3123.9</v>
       </c>
       <c r="L47">
         <v>2947.18</v>
@@ -3235,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="P47">
-        <v>126.3</v>
+        <v>64.8</v>
       </c>
       <c r="Q47">
-        <v>126.3</v>
+        <v>64.8</v>
       </c>
       <c r="R47">
-        <v>1.36</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -3249,13 +3261,13 @@
         <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D48" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3273,7 +3285,7 @@
         <v>7448.2</v>
       </c>
       <c r="J48">
-        <v>3667.2</v>
+        <v>3689.5</v>
       </c>
       <c r="L48">
         <v>3537.89</v>
@@ -3285,13 +3297,13 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>-113.8</v>
+        <v>-69.2</v>
       </c>
       <c r="Q48">
-        <v>-113.8</v>
+        <v>-69.2</v>
       </c>
       <c r="R48">
-        <v>-1.53</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -3299,13 +3311,13 @@
         <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C49" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3323,7 +3335,7 @@
         <v>8784.599999999999</v>
       </c>
       <c r="J49">
-        <v>3096.3</v>
+        <v>3101.3</v>
       </c>
       <c r="L49">
         <v>2781.79</v>
@@ -3335,13 +3347,13 @@
         <v>0</v>
       </c>
       <c r="P49">
-        <v>504.3</v>
+        <v>519.3</v>
       </c>
       <c r="Q49">
-        <v>504.3</v>
+        <v>519.3</v>
       </c>
       <c r="R49">
-        <v>5.74</v>
+        <v>5.91</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -3349,13 +3361,13 @@
         <v>32</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C50" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D50" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3385,7 +3397,7 @@
         <v>1982.08</v>
       </c>
       <c r="N50" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O50">
         <v>-417.2800000000007</v>
@@ -3405,13 +3417,13 @@
         <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C51" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D51" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3441,7 +3453,7 @@
         <v>520.6</v>
       </c>
       <c r="N51" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O51">
         <v>-493.1999999999996</v>
@@ -3461,16 +3473,16 @@
         <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C52" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D52" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
         <v>413.15</v>
@@ -3485,10 +3497,10 @@
         <v>9915.6</v>
       </c>
       <c r="J52">
-        <v>441.55</v>
+        <v>444.3</v>
       </c>
       <c r="L52">
-        <v>392.49</v>
+        <v>413.15</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -3497,13 +3509,13 @@
         <v>0</v>
       </c>
       <c r="P52">
-        <v>681.6</v>
+        <v>747.6</v>
       </c>
       <c r="Q52">
-        <v>681.6</v>
+        <v>747.6</v>
       </c>
       <c r="R52">
-        <v>6.87</v>
+        <v>7.54</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -3511,13 +3523,13 @@
         <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C53" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D53" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3535,7 +3547,7 @@
         <v>9943.33</v>
       </c>
       <c r="J53">
-        <v>202.32</v>
+        <v>193.13</v>
       </c>
       <c r="L53">
         <v>187.61</v>
@@ -3547,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="P53">
-        <v>779.63</v>
+        <v>292.56</v>
       </c>
       <c r="Q53">
-        <v>779.63</v>
+        <v>292.56</v>
       </c>
       <c r="R53">
-        <v>7.84</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -3561,13 +3573,13 @@
         <v>34</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D54" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3585,7 +3597,7 @@
         <v>7950.4</v>
       </c>
       <c r="J54">
-        <v>3939.7</v>
+        <v>3977.4</v>
       </c>
       <c r="L54">
         <v>3776.44</v>
@@ -3597,13 +3609,13 @@
         <v>0</v>
       </c>
       <c r="P54">
-        <v>-71</v>
+        <v>4.4</v>
       </c>
       <c r="Q54">
-        <v>-71</v>
+        <v>4.4</v>
       </c>
       <c r="R54">
-        <v>-0.89</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -3611,13 +3623,13 @@
         <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C55" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3635,7 +3647,7 @@
         <v>9973.5</v>
       </c>
       <c r="J55">
-        <v>2019.2</v>
+        <v>2020.4</v>
       </c>
       <c r="L55">
         <v>1894.96</v>
@@ -3647,13 +3659,13 @@
         <v>0</v>
       </c>
       <c r="P55">
-        <v>122.5</v>
+        <v>128.5</v>
       </c>
       <c r="Q55">
-        <v>122.5</v>
+        <v>128.5</v>
       </c>
       <c r="R55">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -3661,13 +3673,13 @@
         <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C56" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D56" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3685,7 +3697,7 @@
         <v>9446.799999999999</v>
       </c>
       <c r="J56">
-        <v>858.8</v>
+        <v>852.3</v>
       </c>
       <c r="L56">
         <v>815.86</v>
@@ -3697,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="P56">
-        <v>0</v>
+        <v>-71.5</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>-71.5</v>
       </c>
       <c r="R56">
-        <v>0</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -3711,13 +3723,13 @@
         <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D57" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3735,7 +3747,7 @@
         <v>9578.25</v>
       </c>
       <c r="J57">
-        <v>638.55</v>
+        <v>635.75</v>
       </c>
       <c r="L57">
         <v>606.62</v>
@@ -3747,12 +3759,62 @@
         <v>0</v>
       </c>
       <c r="P57">
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="Q57">
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="R57">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" t="s">
+        <v>90</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>971.5</v>
+      </c>
+      <c r="G58">
+        <v>10</v>
+      </c>
+      <c r="H58">
+        <v>10</v>
+      </c>
+      <c r="I58">
+        <v>9715</v>
+      </c>
+      <c r="J58">
+        <v>971.5</v>
+      </c>
+      <c r="L58">
+        <v>922.92</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
         <v>0</v>
       </c>
     </row>

--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="101">
   <si>
     <t>Buy Date</t>
   </si>
@@ -127,6 +127,9 @@
     <t>2026-01-30</t>
   </si>
   <si>
+    <t>2026-02-02</t>
+  </si>
+  <si>
     <t>ADANIENT</t>
   </si>
   <si>
@@ -272,6 +275,12 @@
   </si>
   <si>
     <t>LODHA</t>
+  </si>
+  <si>
+    <t>GAIL</t>
+  </si>
+  <si>
+    <t>JSWENERGY</t>
   </si>
   <si>
     <t>Value Buy</t>
@@ -671,7 +680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S58"/>
+  <dimension ref="A1:S61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -751,13 +760,13 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -787,7 +796,7 @@
         <v>2093.04</v>
       </c>
       <c r="N2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O2">
         <v>-440.6399999999994</v>
@@ -807,13 +816,13 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -831,7 +840,7 @@
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1370.4</v>
+        <v>1311.5</v>
       </c>
       <c r="L3">
         <v>1293.6</v>
@@ -843,13 +852,13 @@
         <v>492.8000000000002</v>
       </c>
       <c r="P3">
-        <v>553.6</v>
+        <v>318</v>
       </c>
       <c r="Q3">
-        <v>1046.4</v>
+        <v>810.8</v>
       </c>
       <c r="R3">
-        <v>10.62</v>
+        <v>8.23</v>
       </c>
       <c r="S3" t="s">
         <v>34</v>
@@ -860,13 +869,13 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -896,7 +905,7 @@
         <v>5739.43</v>
       </c>
       <c r="N4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O4">
         <v>-302.0699999999997</v>
@@ -916,13 +925,13 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -940,7 +949,7 @@
         <v>8527.200000000001</v>
       </c>
       <c r="J5">
-        <v>2819</v>
+        <v>2774.6</v>
       </c>
       <c r="L5">
         <v>2700.28</v>
@@ -952,13 +961,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>-70.2</v>
+        <v>-203.4</v>
       </c>
       <c r="Q5">
-        <v>-70.2</v>
+        <v>-203.4</v>
       </c>
       <c r="R5">
-        <v>-0.82</v>
+        <v>-2.39</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -966,13 +975,13 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -990,7 +999,7 @@
         <v>9173.200000000001</v>
       </c>
       <c r="J6">
-        <v>2373</v>
+        <v>2357.3</v>
       </c>
       <c r="L6">
         <v>2178.64</v>
@@ -1002,13 +1011,13 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>318.8</v>
+        <v>256</v>
       </c>
       <c r="Q6">
-        <v>318.8</v>
+        <v>256</v>
       </c>
       <c r="R6">
-        <v>3.48</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1016,13 +1025,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1040,7 +1049,7 @@
         <v>8960</v>
       </c>
       <c r="J7">
-        <v>1332.4</v>
+        <v>1308.3</v>
       </c>
       <c r="L7">
         <v>1216</v>
@@ -1052,13 +1061,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>366.8</v>
+        <v>198.1</v>
       </c>
       <c r="Q7">
-        <v>366.8</v>
+        <v>198.1</v>
       </c>
       <c r="R7">
-        <v>4.09</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1066,13 +1075,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1084,7 +1093,7 @@
         <v>3</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>9722.1</v>
@@ -1092,23 +1101,29 @@
       <c r="J8">
         <v>3195.4</v>
       </c>
+      <c r="K8" t="s">
+        <v>37</v>
+      </c>
       <c r="L8">
         <v>3078.66</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>3066.4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>-522.8999999999992</v>
       </c>
       <c r="P8">
-        <v>-135.9</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>-135.9</v>
+        <v>-522.8999999999992</v>
       </c>
       <c r="R8">
-        <v>-1.4</v>
+        <v>-5.38</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1116,13 +1131,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1152,7 +1167,7 @@
         <v>2901.59</v>
       </c>
       <c r="N9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O9">
         <v>-458.1300000000001</v>
@@ -1172,13 +1187,13 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1208,7 +1223,7 @@
         <v>2922.11</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O10">
         <v>-461.3699999999999</v>
@@ -1228,13 +1243,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1255,7 +1270,7 @@
         <v>183.56</v>
       </c>
       <c r="K11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L11">
         <v>180.92</v>
@@ -1264,7 +1279,7 @@
         <v>180.92</v>
       </c>
       <c r="N11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O11">
         <v>749.6499999999999</v>
@@ -1279,7 +1294,7 @@
         <v>7.5</v>
       </c>
       <c r="S11" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1287,13 +1302,13 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1311,7 +1326,7 @@
         <v>9674.4</v>
       </c>
       <c r="J12">
-        <v>1743.1</v>
+        <v>1724</v>
       </c>
       <c r="L12">
         <v>1693.02</v>
@@ -1323,13 +1338,13 @@
         <v>483.7200000000007</v>
       </c>
       <c r="P12">
-        <v>392.1</v>
+        <v>334.8</v>
       </c>
       <c r="Q12">
-        <v>875.8200000000001</v>
+        <v>818.52</v>
       </c>
       <c r="R12">
-        <v>9.050000000000001</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="S12" t="s">
         <v>35</v>
@@ -1340,13 +1355,13 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1376,7 +1391,7 @@
         <v>732.4</v>
       </c>
       <c r="N13" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O13">
         <v>-462.6000000000008</v>
@@ -1396,13 +1411,13 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1432,7 +1447,7 @@
         <v>651.2</v>
       </c>
       <c r="N14" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1452,13 +1467,13 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1488,7 +1503,7 @@
         <v>1135.44</v>
       </c>
       <c r="N15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O15">
         <v>-478.0799999999999</v>
@@ -1508,13 +1523,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1532,7 +1547,7 @@
         <v>6033.5</v>
       </c>
       <c r="J16">
-        <v>5974.5</v>
+        <v>5986</v>
       </c>
       <c r="L16">
         <v>5731.82</v>
@@ -1544,13 +1559,13 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>-59</v>
+        <v>-47.5</v>
       </c>
       <c r="Q16">
-        <v>-59</v>
+        <v>-47.5</v>
       </c>
       <c r="R16">
-        <v>-0.98</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1558,13 +1573,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1582,7 +1597,7 @@
         <v>9282</v>
       </c>
       <c r="J17">
-        <v>9597.5</v>
+        <v>9496.5</v>
       </c>
       <c r="L17">
         <v>8817.9</v>
@@ -1594,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>315.5</v>
+        <v>214.5</v>
       </c>
       <c r="Q17">
-        <v>315.5</v>
+        <v>214.5</v>
       </c>
       <c r="R17">
-        <v>3.4</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1608,13 +1623,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1644,7 +1659,7 @@
         <v>282.8</v>
       </c>
       <c r="N18" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1664,13 +1679,13 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1700,7 +1715,7 @@
         <v>1342.35</v>
       </c>
       <c r="N19" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O19">
         <v>-494.5500000000006</v>
@@ -1720,13 +1735,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1756,7 +1771,7 @@
         <v>5425.45</v>
       </c>
       <c r="N20" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O20">
         <v>-285.5500000000002</v>
@@ -1776,13 +1791,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1803,7 +1818,7 @@
         <v>132.36</v>
       </c>
       <c r="K21" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L21">
         <v>128.5</v>
@@ -1812,7 +1827,7 @@
         <v>128.499</v>
       </c>
       <c r="N21" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O21">
         <v>495.639</v>
@@ -1832,13 +1847,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1859,7 +1874,7 @@
         <v>4021.8</v>
       </c>
       <c r="K22" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L22">
         <v>3974.1</v>
@@ -1868,7 +1883,7 @@
         <v>3974.1</v>
       </c>
       <c r="N22" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1888,13 +1903,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1924,7 +1939,7 @@
         <v>972.9400000000001</v>
       </c>
       <c r="N23" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O23">
         <v>-460.8900000000003</v>
@@ -1944,13 +1959,13 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1980,7 +1995,7 @@
         <v>158.14</v>
       </c>
       <c r="N24" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O24">
         <v>-499.2000000000013</v>
@@ -2000,13 +2015,13 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2036,7 +2051,7 @@
         <v>1001.11</v>
       </c>
       <c r="N25" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O25">
         <v>-474.2099999999995</v>
@@ -2056,13 +2071,13 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2083,7 +2098,7 @@
         <v>267.45</v>
       </c>
       <c r="K26" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L26">
         <v>253.98</v>
@@ -2092,7 +2107,7 @@
         <v>252</v>
       </c>
       <c r="N26" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O26">
         <v>-567.9500000000008</v>
@@ -2112,13 +2127,13 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2148,7 +2163,7 @@
         <v>951.52</v>
       </c>
       <c r="N27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O27">
         <v>-450.7200000000004</v>
@@ -2168,13 +2183,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2204,7 +2219,7 @@
         <v>1880.9</v>
       </c>
       <c r="N28" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O28">
         <v>-495</v>
@@ -2224,13 +2239,13 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2260,7 +2275,7 @@
         <v>854</v>
       </c>
       <c r="N29" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O29">
         <v>-523.0499999999995</v>
@@ -2280,13 +2295,13 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2316,7 +2331,7 @@
         <v>6310.38</v>
       </c>
       <c r="N30" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O30">
         <v>-332.1199999999999</v>
@@ -2336,13 +2351,13 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2363,7 +2378,7 @@
         <v>546.75</v>
       </c>
       <c r="K31" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L31">
         <v>541.83</v>
@@ -2372,7 +2387,7 @@
         <v>541.83</v>
       </c>
       <c r="N31" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O31">
         <v>-484.8399999999997</v>
@@ -2392,13 +2407,13 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2428,7 +2443,7 @@
         <v>738.96</v>
       </c>
       <c r="N32" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O32">
         <v>-466.6799999999998</v>
@@ -2448,13 +2463,13 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2484,7 +2499,7 @@
         <v>637.64</v>
       </c>
       <c r="N33" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O33">
         <v>-469.8400000000008</v>
@@ -2504,13 +2519,13 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2531,7 +2546,7 @@
         <v>1728.7</v>
       </c>
       <c r="K34" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L34">
         <v>1693.47</v>
@@ -2540,7 +2555,7 @@
         <v>1693.47</v>
       </c>
       <c r="N34" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O34">
         <v>-445.6499999999994</v>
@@ -2560,13 +2575,13 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D35" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2587,7 +2602,7 @@
         <v>414.55</v>
       </c>
       <c r="K35" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L35">
         <v>409.31</v>
@@ -2596,7 +2611,7 @@
         <v>409.31</v>
       </c>
       <c r="N35" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O35">
         <v>-495.4200000000005</v>
@@ -2616,13 +2631,13 @@
         <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D36" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2652,7 +2667,7 @@
         <v>4769.95</v>
       </c>
       <c r="N36" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O36">
         <v>-251.0500000000001</v>
@@ -2672,13 +2687,13 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D37" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2708,7 +2723,7 @@
         <v>109.86</v>
       </c>
       <c r="N37" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O37">
         <v>-497.0800000000001</v>
@@ -2728,13 +2743,13 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D38" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -2764,7 +2779,7 @@
         <v>439.27</v>
       </c>
       <c r="N38" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O38">
         <v>711.2249999999999</v>
@@ -2787,13 +2802,13 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D39" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2823,7 +2838,7 @@
         <v>260.54</v>
       </c>
       <c r="N39" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O39">
         <v>-493.5599999999993</v>
@@ -2843,13 +2858,13 @@
         <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2867,7 +2882,7 @@
         <v>9968.4</v>
       </c>
       <c r="J40">
-        <v>1695.6</v>
+        <v>1676.8</v>
       </c>
       <c r="L40">
         <v>1578.33</v>
@@ -2879,13 +2894,13 @@
         <v>0</v>
       </c>
       <c r="P40">
-        <v>205.2</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="Q40">
-        <v>205.2</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="R40">
-        <v>2.06</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -2893,13 +2908,13 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2929,7 +2944,7 @@
         <v>2751.58</v>
       </c>
       <c r="N41" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O41">
         <v>-434.4600000000005</v>
@@ -2949,13 +2964,13 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D42" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2976,7 +2991,7 @@
         <v>1375.8</v>
       </c>
       <c r="K42" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L42">
         <v>1342.44</v>
@@ -2985,7 +3000,7 @@
         <v>1342.44</v>
       </c>
       <c r="N42" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O42">
         <v>-494.619999999999</v>
@@ -3005,13 +3020,13 @@
         <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D43" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3032,7 +3047,7 @@
         <v>4056.4</v>
       </c>
       <c r="K43" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L43">
         <v>3853.58</v>
@@ -3041,7 +3056,7 @@
         <v>3853.58</v>
       </c>
       <c r="N43" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O43">
         <v>-405.6400000000003</v>
@@ -3061,13 +3076,13 @@
         <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D44" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3085,7 +3100,7 @@
         <v>9686.25</v>
       </c>
       <c r="J44">
-        <v>364.5</v>
+        <v>366.7</v>
       </c>
       <c r="L44">
         <v>340.81</v>
@@ -3097,13 +3112,13 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>155.25</v>
+        <v>214.65</v>
       </c>
       <c r="Q44">
-        <v>155.25</v>
+        <v>214.65</v>
       </c>
       <c r="R44">
-        <v>1.6</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -3111,13 +3126,13 @@
         <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D45" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3135,7 +3150,7 @@
         <v>8449</v>
       </c>
       <c r="J45">
-        <v>1641</v>
+        <v>1629.4</v>
       </c>
       <c r="L45">
         <v>1605.31</v>
@@ -3147,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="P45">
-        <v>-244</v>
+        <v>-302</v>
       </c>
       <c r="Q45">
-        <v>-244</v>
+        <v>-302</v>
       </c>
       <c r="R45">
-        <v>-2.89</v>
+        <v>-3.57</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -3161,13 +3176,13 @@
         <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D46" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3185,7 +3200,7 @@
         <v>9697.799999999999</v>
       </c>
       <c r="J46">
-        <v>356</v>
+        <v>350.35</v>
       </c>
       <c r="L46">
         <v>329.03</v>
@@ -3197,13 +3212,13 @@
         <v>0</v>
       </c>
       <c r="P46">
-        <v>270.2</v>
+        <v>112</v>
       </c>
       <c r="Q46">
-        <v>270.2</v>
+        <v>112</v>
       </c>
       <c r="R46">
-        <v>2.79</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -3211,13 +3226,13 @@
         <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D47" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3235,7 +3250,7 @@
         <v>9306.9</v>
       </c>
       <c r="J47">
-        <v>3123.9</v>
+        <v>3169.6</v>
       </c>
       <c r="L47">
         <v>2947.18</v>
@@ -3247,13 +3262,13 @@
         <v>0</v>
       </c>
       <c r="P47">
-        <v>64.8</v>
+        <v>201.9</v>
       </c>
       <c r="Q47">
-        <v>64.8</v>
+        <v>201.9</v>
       </c>
       <c r="R47">
-        <v>0.7</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -3261,13 +3276,13 @@
         <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C48" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D48" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3285,7 +3300,7 @@
         <v>7448.2</v>
       </c>
       <c r="J48">
-        <v>3689.5</v>
+        <v>3674.2</v>
       </c>
       <c r="L48">
         <v>3537.89</v>
@@ -3297,13 +3312,13 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>-69.2</v>
+        <v>-99.8</v>
       </c>
       <c r="Q48">
-        <v>-69.2</v>
+        <v>-99.8</v>
       </c>
       <c r="R48">
-        <v>-0.93</v>
+        <v>-1.34</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -3311,13 +3326,13 @@
         <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D49" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3335,7 +3350,7 @@
         <v>8784.599999999999</v>
       </c>
       <c r="J49">
-        <v>3101.3</v>
+        <v>3089.9</v>
       </c>
       <c r="L49">
         <v>2781.79</v>
@@ -3347,13 +3362,13 @@
         <v>0</v>
       </c>
       <c r="P49">
-        <v>519.3</v>
+        <v>485.1</v>
       </c>
       <c r="Q49">
-        <v>519.3</v>
+        <v>485.1</v>
       </c>
       <c r="R49">
-        <v>5.91</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -3361,13 +3376,13 @@
         <v>32</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C50" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D50" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3397,7 +3412,7 @@
         <v>1982.08</v>
       </c>
       <c r="N50" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O50">
         <v>-417.2800000000007</v>
@@ -3417,13 +3432,13 @@
         <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D51" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3453,7 +3468,7 @@
         <v>520.6</v>
       </c>
       <c r="N51" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O51">
         <v>-493.1999999999996</v>
@@ -3473,13 +3488,13 @@
         <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D52" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3497,7 +3512,7 @@
         <v>9915.6</v>
       </c>
       <c r="J52">
-        <v>444.3</v>
+        <v>431.8</v>
       </c>
       <c r="L52">
         <v>413.15</v>
@@ -3509,13 +3524,13 @@
         <v>0</v>
       </c>
       <c r="P52">
-        <v>747.6</v>
+        <v>447.6</v>
       </c>
       <c r="Q52">
-        <v>747.6</v>
+        <v>447.6</v>
       </c>
       <c r="R52">
-        <v>7.54</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -3523,13 +3538,13 @@
         <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C53" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3541,7 +3556,7 @@
         <v>53</v>
       </c>
       <c r="H53">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>9943.33</v>
@@ -3549,23 +3564,29 @@
       <c r="J53">
         <v>193.13</v>
       </c>
+      <c r="K53" t="s">
+        <v>37</v>
+      </c>
       <c r="L53">
         <v>187.61</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>185.38</v>
+      </c>
+      <c r="N53" t="s">
+        <v>100</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>-118.190000000001</v>
       </c>
       <c r="P53">
-        <v>292.56</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>292.56</v>
+        <v>-118.190000000001</v>
       </c>
       <c r="R53">
-        <v>2.94</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -3573,13 +3594,13 @@
         <v>34</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D54" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3597,7 +3618,7 @@
         <v>7950.4</v>
       </c>
       <c r="J54">
-        <v>3977.4</v>
+        <v>3953.2</v>
       </c>
       <c r="L54">
         <v>3776.44</v>
@@ -3609,13 +3630,13 @@
         <v>0</v>
       </c>
       <c r="P54">
-        <v>4.4</v>
+        <v>-44</v>
       </c>
       <c r="Q54">
-        <v>4.4</v>
+        <v>-44</v>
       </c>
       <c r="R54">
-        <v>0.06</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -3623,13 +3644,13 @@
         <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C55" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D55" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3647,7 +3668,7 @@
         <v>9973.5</v>
       </c>
       <c r="J55">
-        <v>2020.4</v>
+        <v>1995.4</v>
       </c>
       <c r="L55">
         <v>1894.96</v>
@@ -3659,13 +3680,13 @@
         <v>0</v>
       </c>
       <c r="P55">
-        <v>128.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q55">
-        <v>128.5</v>
+        <v>3.5</v>
       </c>
       <c r="R55">
-        <v>1.29</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -3673,13 +3694,13 @@
         <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C56" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D56" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3691,7 +3712,7 @@
         <v>11</v>
       </c>
       <c r="H56">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>9446.799999999999</v>
@@ -3699,23 +3720,29 @@
       <c r="J56">
         <v>852.3</v>
       </c>
+      <c r="K56" t="s">
+        <v>37</v>
+      </c>
       <c r="L56">
         <v>815.86</v>
       </c>
       <c r="M56">
-        <v>0</v>
+        <v>814.2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>100</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>-490.599999999999</v>
       </c>
       <c r="P56">
-        <v>-71.5</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>-71.5</v>
+        <v>-490.599999999999</v>
       </c>
       <c r="R56">
-        <v>-0.76</v>
+        <v>-5.19</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -3723,13 +3750,13 @@
         <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C57" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3747,7 +3774,7 @@
         <v>9578.25</v>
       </c>
       <c r="J57">
-        <v>635.75</v>
+        <v>626.3</v>
       </c>
       <c r="L57">
         <v>606.62</v>
@@ -3759,13 +3786,13 @@
         <v>0</v>
       </c>
       <c r="P57">
-        <v>-42</v>
+        <v>-183.75</v>
       </c>
       <c r="Q57">
-        <v>-42</v>
+        <v>-183.75</v>
       </c>
       <c r="R57">
-        <v>-0.44</v>
+        <v>-1.92</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -3773,13 +3800,13 @@
         <v>36</v>
       </c>
       <c r="B58" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C58" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D58" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3791,7 +3818,7 @@
         <v>10</v>
       </c>
       <c r="H58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>9715</v>
@@ -3799,22 +3826,178 @@
       <c r="J58">
         <v>971.5</v>
       </c>
+      <c r="K58" t="s">
+        <v>37</v>
+      </c>
       <c r="L58">
         <v>922.92</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>922.92</v>
+      </c>
+      <c r="N58" t="s">
+        <v>99</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>-485.8000000000004</v>
       </c>
       <c r="P58">
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>0</v>
+        <v>-485.8000000000004</v>
       </c>
       <c r="R58">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="A59" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" t="s">
+        <v>93</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>164.61</v>
+      </c>
+      <c r="G59">
+        <v>60</v>
+      </c>
+      <c r="H59">
+        <v>60</v>
+      </c>
+      <c r="I59">
+        <v>9876.6</v>
+      </c>
+      <c r="J59">
+        <v>164.61</v>
+      </c>
+      <c r="L59">
+        <v>156.38</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" t="s">
+        <v>89</v>
+      </c>
+      <c r="D60" t="s">
+        <v>93</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>160.39</v>
+      </c>
+      <c r="G60">
+        <v>62</v>
+      </c>
+      <c r="H60">
+        <v>62</v>
+      </c>
+      <c r="I60">
+        <v>9944.179999999998</v>
+      </c>
+      <c r="J60">
+        <v>160.39</v>
+      </c>
+      <c r="L60">
+        <v>152.37</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" t="s">
+        <v>93</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>451.5</v>
+      </c>
+      <c r="G61">
+        <v>22</v>
+      </c>
+      <c r="H61">
+        <v>22</v>
+      </c>
+      <c r="I61">
+        <v>9933</v>
+      </c>
+      <c r="J61">
+        <v>451.5</v>
+      </c>
+      <c r="L61">
+        <v>428.92</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
         <v>0</v>
       </c>
     </row>

--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="101">
   <si>
     <t>Buy Date</t>
   </si>
@@ -680,7 +680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S61"/>
+  <dimension ref="A1:S62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4001,6 +4001,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="62" spans="1:18">
+      <c r="A62" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" t="s">
+        <v>89</v>
+      </c>
+      <c r="D62" t="s">
+        <v>93</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>843.95</v>
+      </c>
+      <c r="G62">
+        <v>11</v>
+      </c>
+      <c r="H62">
+        <v>11</v>
+      </c>
+      <c r="I62">
+        <v>9283.450000000001</v>
+      </c>
+      <c r="J62">
+        <v>843.95</v>
+      </c>
+      <c r="L62">
+        <v>801.75</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="106">
   <si>
     <t>Buy Date</t>
   </si>
@@ -130,6 +130,9 @@
     <t>2026-02-02</t>
   </si>
   <si>
+    <t>2026-02-04</t>
+  </si>
+  <si>
     <t>ADANIENT</t>
   </si>
   <si>
@@ -281,6 +284,18 @@
   </si>
   <si>
     <t>JSWENERGY</t>
+  </si>
+  <si>
+    <t>ADANIPORTS</t>
+  </si>
+  <si>
+    <t>ONGC</t>
+  </si>
+  <si>
+    <t>BERGEPAINT</t>
+  </si>
+  <si>
+    <t>CHOLAFIN</t>
   </si>
   <si>
     <t>Value Buy</t>
@@ -680,7 +695,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:S69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -760,13 +775,13 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -796,7 +811,7 @@
         <v>2093.04</v>
       </c>
       <c r="N2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O2">
         <v>-440.6399999999994</v>
@@ -816,13 +831,13 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -840,7 +855,7 @@
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1311.5</v>
+        <v>1338.7</v>
       </c>
       <c r="L3">
         <v>1293.6</v>
@@ -852,13 +867,13 @@
         <v>492.8000000000002</v>
       </c>
       <c r="P3">
-        <v>318</v>
+        <v>426.8</v>
       </c>
       <c r="Q3">
-        <v>810.8</v>
+        <v>919.6</v>
       </c>
       <c r="R3">
-        <v>8.23</v>
+        <v>9.33</v>
       </c>
       <c r="S3" t="s">
         <v>34</v>
@@ -869,13 +884,13 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -905,7 +920,7 @@
         <v>5739.43</v>
       </c>
       <c r="N4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O4">
         <v>-302.0699999999997</v>
@@ -925,13 +940,13 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -949,7 +964,7 @@
         <v>8527.200000000001</v>
       </c>
       <c r="J5">
-        <v>2774.6</v>
+        <v>2844.9</v>
       </c>
       <c r="L5">
         <v>2700.28</v>
@@ -961,13 +976,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>-203.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q5">
-        <v>-203.4</v>
+        <v>7.5</v>
       </c>
       <c r="R5">
-        <v>-2.39</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -975,13 +990,13 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -999,7 +1014,7 @@
         <v>9173.200000000001</v>
       </c>
       <c r="J6">
-        <v>2357.3</v>
+        <v>2371</v>
       </c>
       <c r="L6">
         <v>2178.64</v>
@@ -1011,13 +1026,13 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>256</v>
+        <v>310.8</v>
       </c>
       <c r="Q6">
-        <v>256</v>
+        <v>310.8</v>
       </c>
       <c r="R6">
-        <v>2.79</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1025,13 +1040,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1049,7 +1064,7 @@
         <v>8960</v>
       </c>
       <c r="J7">
-        <v>1308.3</v>
+        <v>1303.2</v>
       </c>
       <c r="L7">
         <v>1216</v>
@@ -1061,13 +1076,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>198.1</v>
+        <v>162.4</v>
       </c>
       <c r="Q7">
-        <v>198.1</v>
+        <v>162.4</v>
       </c>
       <c r="R7">
-        <v>2.21</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1075,13 +1090,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1111,7 +1126,7 @@
         <v>3066.4</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="O8">
         <v>-522.8999999999992</v>
@@ -1131,13 +1146,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1167,7 +1182,7 @@
         <v>2901.59</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O9">
         <v>-458.1300000000001</v>
@@ -1187,13 +1202,13 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1223,7 +1238,7 @@
         <v>2922.11</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O10">
         <v>-461.3699999999999</v>
@@ -1243,13 +1258,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1270,7 +1285,7 @@
         <v>183.56</v>
       </c>
       <c r="K11" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="L11">
         <v>180.92</v>
@@ -1279,7 +1294,7 @@
         <v>180.92</v>
       </c>
       <c r="N11" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O11">
         <v>749.6499999999999</v>
@@ -1294,7 +1309,7 @@
         <v>7.5</v>
       </c>
       <c r="S11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1302,13 +1317,13 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1320,7 +1335,7 @@
         <v>6</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>9674.4</v>
@@ -1328,23 +1343,29 @@
       <c r="J12">
         <v>1724</v>
       </c>
+      <c r="K12" t="s">
+        <v>38</v>
+      </c>
       <c r="L12">
         <v>1693.02</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1651</v>
+      </c>
+      <c r="N12" t="s">
+        <v>105</v>
       </c>
       <c r="O12">
-        <v>483.7200000000007</v>
+        <v>599.5200000000004</v>
       </c>
       <c r="P12">
-        <v>334.8</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>818.52</v>
+        <v>599.5200000000004</v>
       </c>
       <c r="R12">
-        <v>8.460000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="S12" t="s">
         <v>35</v>
@@ -1355,13 +1376,13 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1391,7 +1412,7 @@
         <v>732.4</v>
       </c>
       <c r="N13" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O13">
         <v>-462.6000000000008</v>
@@ -1411,13 +1432,13 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1447,7 +1468,7 @@
         <v>651.2</v>
       </c>
       <c r="N14" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1467,13 +1488,13 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1503,7 +1524,7 @@
         <v>1135.44</v>
       </c>
       <c r="N15" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O15">
         <v>-478.0799999999999</v>
@@ -1523,13 +1544,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1541,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>6033.5</v>
@@ -1549,23 +1570,29 @@
       <c r="J16">
         <v>5986</v>
       </c>
+      <c r="K16" t="s">
+        <v>38</v>
+      </c>
       <c r="L16">
         <v>5731.82</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>5731.82</v>
+      </c>
+      <c r="N16" t="s">
+        <v>104</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>-301.6800000000003</v>
       </c>
       <c r="P16">
-        <v>-47.5</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>-47.5</v>
+        <v>-301.6800000000003</v>
       </c>
       <c r="R16">
-        <v>-0.79</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1573,13 +1600,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1597,7 +1624,7 @@
         <v>9282</v>
       </c>
       <c r="J17">
-        <v>9496.5</v>
+        <v>9639</v>
       </c>
       <c r="L17">
         <v>8817.9</v>
@@ -1609,13 +1636,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>214.5</v>
+        <v>357</v>
       </c>
       <c r="Q17">
-        <v>214.5</v>
+        <v>357</v>
       </c>
       <c r="R17">
-        <v>2.31</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1623,13 +1650,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1659,7 +1686,7 @@
         <v>282.8</v>
       </c>
       <c r="N18" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1679,13 +1706,13 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1715,7 +1742,7 @@
         <v>1342.35</v>
       </c>
       <c r="N19" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O19">
         <v>-494.5500000000006</v>
@@ -1735,13 +1762,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1771,7 +1798,7 @@
         <v>5425.45</v>
       </c>
       <c r="N20" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O20">
         <v>-285.5500000000002</v>
@@ -1791,13 +1818,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1818,7 +1845,7 @@
         <v>132.36</v>
       </c>
       <c r="K21" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L21">
         <v>128.5</v>
@@ -1827,7 +1854,7 @@
         <v>128.499</v>
       </c>
       <c r="N21" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O21">
         <v>495.639</v>
@@ -1847,13 +1874,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1874,7 +1901,7 @@
         <v>4021.8</v>
       </c>
       <c r="K22" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="L22">
         <v>3974.1</v>
@@ -1883,7 +1910,7 @@
         <v>3974.1</v>
       </c>
       <c r="N22" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1903,13 +1930,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1939,7 +1966,7 @@
         <v>972.9400000000001</v>
       </c>
       <c r="N23" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O23">
         <v>-460.8900000000003</v>
@@ -1959,13 +1986,13 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1995,7 +2022,7 @@
         <v>158.14</v>
       </c>
       <c r="N24" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O24">
         <v>-499.2000000000013</v>
@@ -2015,13 +2042,13 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2051,7 +2078,7 @@
         <v>1001.11</v>
       </c>
       <c r="N25" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O25">
         <v>-474.2099999999995</v>
@@ -2071,13 +2098,13 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2098,7 +2125,7 @@
         <v>267.45</v>
       </c>
       <c r="K26" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L26">
         <v>253.98</v>
@@ -2107,7 +2134,7 @@
         <v>252</v>
       </c>
       <c r="N26" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="O26">
         <v>-567.9500000000008</v>
@@ -2127,13 +2154,13 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2163,7 +2190,7 @@
         <v>951.52</v>
       </c>
       <c r="N27" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O27">
         <v>-450.7200000000004</v>
@@ -2183,13 +2210,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2219,7 +2246,7 @@
         <v>1880.9</v>
       </c>
       <c r="N28" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O28">
         <v>-495</v>
@@ -2239,13 +2266,13 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2275,7 +2302,7 @@
         <v>854</v>
       </c>
       <c r="N29" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="O29">
         <v>-523.0499999999995</v>
@@ -2295,13 +2322,13 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2331,7 +2358,7 @@
         <v>6310.38</v>
       </c>
       <c r="N30" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O30">
         <v>-332.1199999999999</v>
@@ -2351,13 +2378,13 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D31" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2378,7 +2405,7 @@
         <v>546.75</v>
       </c>
       <c r="K31" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L31">
         <v>541.83</v>
@@ -2387,7 +2414,7 @@
         <v>541.83</v>
       </c>
       <c r="N31" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O31">
         <v>-484.8399999999997</v>
@@ -2407,13 +2434,13 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D32" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2443,7 +2470,7 @@
         <v>738.96</v>
       </c>
       <c r="N32" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O32">
         <v>-466.6799999999998</v>
@@ -2463,13 +2490,13 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2499,7 +2526,7 @@
         <v>637.64</v>
       </c>
       <c r="N33" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O33">
         <v>-469.8400000000008</v>
@@ -2519,13 +2546,13 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D34" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2546,7 +2573,7 @@
         <v>1728.7</v>
       </c>
       <c r="K34" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L34">
         <v>1693.47</v>
@@ -2555,7 +2582,7 @@
         <v>1693.47</v>
       </c>
       <c r="N34" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O34">
         <v>-445.6499999999994</v>
@@ -2575,13 +2602,13 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D35" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2602,7 +2629,7 @@
         <v>414.55</v>
       </c>
       <c r="K35" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="L35">
         <v>409.31</v>
@@ -2611,7 +2638,7 @@
         <v>409.31</v>
       </c>
       <c r="N35" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O35">
         <v>-495.4200000000005</v>
@@ -2631,13 +2658,13 @@
         <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D36" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2667,7 +2694,7 @@
         <v>4769.95</v>
       </c>
       <c r="N36" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O36">
         <v>-251.0500000000001</v>
@@ -2687,13 +2714,13 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2723,7 +2750,7 @@
         <v>109.86</v>
       </c>
       <c r="N37" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O37">
         <v>-497.0800000000001</v>
@@ -2743,13 +2770,13 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D38" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -2779,7 +2806,7 @@
         <v>439.27</v>
       </c>
       <c r="N38" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O38">
         <v>711.2249999999999</v>
@@ -2802,13 +2829,13 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D39" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2838,7 +2865,7 @@
         <v>260.54</v>
       </c>
       <c r="N39" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O39">
         <v>-493.5599999999993</v>
@@ -2858,13 +2885,13 @@
         <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D40" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2882,7 +2909,7 @@
         <v>9968.4</v>
       </c>
       <c r="J40">
-        <v>1676.8</v>
+        <v>1621.8</v>
       </c>
       <c r="L40">
         <v>1578.33</v>
@@ -2894,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="P40">
-        <v>92.40000000000001</v>
+        <v>-237.6</v>
       </c>
       <c r="Q40">
-        <v>92.40000000000001</v>
+        <v>-237.6</v>
       </c>
       <c r="R40">
-        <v>0.93</v>
+        <v>-2.38</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -2908,13 +2935,13 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2944,7 +2971,7 @@
         <v>2751.58</v>
       </c>
       <c r="N41" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O41">
         <v>-434.4600000000005</v>
@@ -2964,13 +2991,13 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D42" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2991,7 +3018,7 @@
         <v>1375.8</v>
       </c>
       <c r="K42" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="L42">
         <v>1342.44</v>
@@ -3000,7 +3027,7 @@
         <v>1342.44</v>
       </c>
       <c r="N42" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O42">
         <v>-494.619999999999</v>
@@ -3020,13 +3047,13 @@
         <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D43" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3047,7 +3074,7 @@
         <v>4056.4</v>
       </c>
       <c r="K43" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L43">
         <v>3853.58</v>
@@ -3056,7 +3083,7 @@
         <v>3853.58</v>
       </c>
       <c r="N43" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O43">
         <v>-405.6400000000003</v>
@@ -3076,13 +3103,13 @@
         <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D44" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3100,7 +3127,7 @@
         <v>9686.25</v>
       </c>
       <c r="J44">
-        <v>366.7</v>
+        <v>382.45</v>
       </c>
       <c r="L44">
         <v>340.81</v>
@@ -3112,13 +3139,13 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>214.65</v>
+        <v>639.9</v>
       </c>
       <c r="Q44">
-        <v>214.65</v>
+        <v>639.9</v>
       </c>
       <c r="R44">
-        <v>2.22</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -3126,13 +3153,13 @@
         <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D45" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3144,7 +3171,7 @@
         <v>5</v>
       </c>
       <c r="H45">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>8449</v>
@@ -3152,23 +3179,29 @@
       <c r="J45">
         <v>1629.4</v>
       </c>
+      <c r="K45" t="s">
+        <v>38</v>
+      </c>
       <c r="L45">
         <v>1605.31</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>1574</v>
+      </c>
+      <c r="N45" t="s">
+        <v>105</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>-578.9999999999998</v>
       </c>
       <c r="P45">
-        <v>-302</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>-302</v>
+        <v>-578.9999999999998</v>
       </c>
       <c r="R45">
-        <v>-3.57</v>
+        <v>-6.85</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -3176,13 +3209,13 @@
         <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D46" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3200,7 +3233,7 @@
         <v>9697.799999999999</v>
       </c>
       <c r="J46">
-        <v>350.35</v>
+        <v>367.25</v>
       </c>
       <c r="L46">
         <v>329.03</v>
@@ -3212,13 +3245,13 @@
         <v>0</v>
       </c>
       <c r="P46">
-        <v>112</v>
+        <v>585.2</v>
       </c>
       <c r="Q46">
-        <v>112</v>
+        <v>585.2</v>
       </c>
       <c r="R46">
-        <v>1.15</v>
+        <v>6.03</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -3226,13 +3259,13 @@
         <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C47" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D47" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3250,7 +3283,7 @@
         <v>9306.9</v>
       </c>
       <c r="J47">
-        <v>3169.6</v>
+        <v>2999.1</v>
       </c>
       <c r="L47">
         <v>2947.18</v>
@@ -3262,13 +3295,13 @@
         <v>0</v>
       </c>
       <c r="P47">
-        <v>201.9</v>
+        <v>-309.6</v>
       </c>
       <c r="Q47">
-        <v>201.9</v>
+        <v>-309.6</v>
       </c>
       <c r="R47">
-        <v>2.17</v>
+        <v>-3.33</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -3276,13 +3309,13 @@
         <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D48" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3300,7 +3333,7 @@
         <v>7448.2</v>
       </c>
       <c r="J48">
-        <v>3674.2</v>
+        <v>3824.3</v>
       </c>
       <c r="L48">
         <v>3537.89</v>
@@ -3312,30 +3345,30 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>-99.8</v>
+        <v>200.4</v>
       </c>
       <c r="Q48">
-        <v>-99.8</v>
+        <v>200.4</v>
       </c>
       <c r="R48">
-        <v>-1.34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" t="s">
         <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C49" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D49" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F49">
         <v>2928.2</v>
@@ -3344,45 +3377,48 @@
         <v>3</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49">
         <v>8784.599999999999</v>
       </c>
       <c r="J49">
-        <v>3089.9</v>
+        <v>3290.5</v>
       </c>
       <c r="L49">
-        <v>2781.79</v>
+        <v>3074.61</v>
       </c>
       <c r="M49">
         <v>0</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>292.8200000000002</v>
       </c>
       <c r="P49">
-        <v>485.1</v>
+        <v>724.6</v>
       </c>
       <c r="Q49">
-        <v>485.1</v>
+        <v>1017.42</v>
       </c>
       <c r="R49">
-        <v>5.52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18">
+        <v>11.58</v>
+      </c>
+      <c r="S49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" t="s">
         <v>32</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C50" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D50" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3412,7 +3448,7 @@
         <v>1982.08</v>
       </c>
       <c r="N50" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O50">
         <v>-417.2800000000007</v>
@@ -3427,18 +3463,18 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:19">
       <c r="A51" t="s">
         <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C51" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D51" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3468,7 +3504,7 @@
         <v>520.6</v>
       </c>
       <c r="N51" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O51">
         <v>-493.1999999999996</v>
@@ -3483,18 +3519,18 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:19">
       <c r="A52" t="s">
         <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C52" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D52" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3512,7 +3548,7 @@
         <v>9915.6</v>
       </c>
       <c r="J52">
-        <v>431.8</v>
+        <v>445.1</v>
       </c>
       <c r="L52">
         <v>413.15</v>
@@ -3524,27 +3560,27 @@
         <v>0</v>
       </c>
       <c r="P52">
-        <v>447.6</v>
+        <v>766.8</v>
       </c>
       <c r="Q52">
-        <v>447.6</v>
+        <v>766.8</v>
       </c>
       <c r="R52">
-        <v>4.51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18">
+        <v>7.73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" t="s">
         <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C53" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D53" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3574,7 +3610,7 @@
         <v>185.38</v>
       </c>
       <c r="N53" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="O53">
         <v>-118.190000000001</v>
@@ -3589,18 +3625,18 @@
         <v>-1.19</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:19">
       <c r="A54" t="s">
         <v>34</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D54" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3618,7 +3654,7 @@
         <v>7950.4</v>
       </c>
       <c r="J54">
-        <v>3953.2</v>
+        <v>4144</v>
       </c>
       <c r="L54">
         <v>3776.44</v>
@@ -3630,30 +3666,30 @@
         <v>0</v>
       </c>
       <c r="P54">
-        <v>-44</v>
+        <v>337.6</v>
       </c>
       <c r="Q54">
-        <v>-44</v>
+        <v>337.6</v>
       </c>
       <c r="R54">
-        <v>-0.55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" t="s">
         <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C55" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D55" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F55">
         <v>1994.7</v>
@@ -3662,45 +3698,48 @@
         <v>5</v>
       </c>
       <c r="H55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I55">
         <v>9973.5</v>
       </c>
       <c r="J55">
-        <v>1995.4</v>
+        <v>2228.2</v>
       </c>
       <c r="L55">
-        <v>1894.96</v>
+        <v>2094.43</v>
       </c>
       <c r="M55">
         <v>0</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>398.9400000000001</v>
       </c>
       <c r="P55">
-        <v>3.5</v>
+        <v>700.5</v>
       </c>
       <c r="Q55">
-        <v>3.5</v>
+        <v>1099.44</v>
       </c>
       <c r="R55">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18">
+        <v>11.02</v>
+      </c>
+      <c r="S55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" t="s">
         <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C56" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D56" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3730,7 +3769,7 @@
         <v>814.2</v>
       </c>
       <c r="N56" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="O56">
         <v>-490.599999999999</v>
@@ -3745,18 +3784,18 @@
         <v>-5.19</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:19">
       <c r="A57" t="s">
         <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C57" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D57" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3774,7 +3813,7 @@
         <v>9578.25</v>
       </c>
       <c r="J57">
-        <v>626.3</v>
+        <v>659.85</v>
       </c>
       <c r="L57">
         <v>606.62</v>
@@ -3786,27 +3825,27 @@
         <v>0</v>
       </c>
       <c r="P57">
-        <v>-183.75</v>
+        <v>319.5</v>
       </c>
       <c r="Q57">
-        <v>-183.75</v>
+        <v>319.5</v>
       </c>
       <c r="R57">
-        <v>-1.92</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58" t="s">
         <v>36</v>
       </c>
       <c r="B58" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C58" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D58" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3836,7 +3875,7 @@
         <v>922.92</v>
       </c>
       <c r="N58" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O58">
         <v>-485.8000000000004</v>
@@ -3851,18 +3890,18 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:19">
       <c r="A59" t="s">
         <v>37</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D59" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3880,7 +3919,7 @@
         <v>9876.6</v>
       </c>
       <c r="J59">
-        <v>164.61</v>
+        <v>172.78</v>
       </c>
       <c r="L59">
         <v>156.38</v>
@@ -3892,27 +3931,27 @@
         <v>0</v>
       </c>
       <c r="P59">
-        <v>0</v>
+        <v>490.2</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>490.2</v>
       </c>
       <c r="R59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60" t="s">
         <v>37</v>
       </c>
       <c r="B60" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C60" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3930,7 +3969,7 @@
         <v>9944.179999999998</v>
       </c>
       <c r="J60">
-        <v>160.39</v>
+        <v>165.41</v>
       </c>
       <c r="L60">
         <v>152.37</v>
@@ -3942,27 +3981,27 @@
         <v>0</v>
       </c>
       <c r="P60">
-        <v>0</v>
+        <v>311.24</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>311.24</v>
       </c>
       <c r="R60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61" t="s">
         <v>37</v>
       </c>
       <c r="B61" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C61" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D61" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3980,7 +4019,7 @@
         <v>9933</v>
       </c>
       <c r="J61">
-        <v>451.5</v>
+        <v>468.85</v>
       </c>
       <c r="L61">
         <v>428.92</v>
@@ -3992,30 +4031,30 @@
         <v>0</v>
       </c>
       <c r="P61">
-        <v>0</v>
+        <v>381.7</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>381.7</v>
       </c>
       <c r="R61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62" t="s">
         <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C62" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D62" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F62">
         <v>843.95</v>
@@ -4024,30 +4063,383 @@
         <v>11</v>
       </c>
       <c r="H62">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I62">
         <v>9283.450000000001</v>
       </c>
       <c r="J62">
-        <v>843.95</v>
+        <v>954.45</v>
       </c>
       <c r="L62">
-        <v>801.75</v>
+        <v>886.15</v>
       </c>
       <c r="M62">
         <v>0</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>421.9750000000005</v>
       </c>
       <c r="P62">
-        <v>0</v>
+        <v>663</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>1084.98</v>
       </c>
       <c r="R62">
+        <v>11.69</v>
+      </c>
+      <c r="S62" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="A63" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" t="s">
+        <v>98</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>122.62</v>
+      </c>
+      <c r="G63">
+        <v>81</v>
+      </c>
+      <c r="H63">
+        <v>81</v>
+      </c>
+      <c r="I63">
+        <v>9932.220000000001</v>
+      </c>
+      <c r="J63">
+        <v>122.62</v>
+      </c>
+      <c r="L63">
+        <v>116.49</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="A64" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" t="s">
+        <v>96</v>
+      </c>
+      <c r="D64" t="s">
+        <v>98</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>434.9</v>
+      </c>
+      <c r="G64">
+        <v>22</v>
+      </c>
+      <c r="H64">
+        <v>22</v>
+      </c>
+      <c r="I64">
+        <v>9567.799999999999</v>
+      </c>
+      <c r="J64">
+        <v>434.9</v>
+      </c>
+      <c r="L64">
+        <v>413.15</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="A65" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65" t="s">
+        <v>96</v>
+      </c>
+      <c r="D65" t="s">
+        <v>98</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>1567.9</v>
+      </c>
+      <c r="G65">
+        <v>6</v>
+      </c>
+      <c r="H65">
+        <v>6</v>
+      </c>
+      <c r="I65">
+        <v>9407.400000000001</v>
+      </c>
+      <c r="J65">
+        <v>1567.9</v>
+      </c>
+      <c r="L65">
+        <v>1489.51</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="A66" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" t="s">
+        <v>96</v>
+      </c>
+      <c r="D66" t="s">
+        <v>98</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>266.95</v>
+      </c>
+      <c r="G66">
+        <v>37</v>
+      </c>
+      <c r="H66">
+        <v>37</v>
+      </c>
+      <c r="I66">
+        <v>9877.15</v>
+      </c>
+      <c r="J66">
+        <v>266.95</v>
+      </c>
+      <c r="L66">
+        <v>253.6</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="A67" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" t="s">
+        <v>96</v>
+      </c>
+      <c r="D67" t="s">
+        <v>98</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>5851.5</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>5851.5</v>
+      </c>
+      <c r="J67">
+        <v>5851.5</v>
+      </c>
+      <c r="L67">
+        <v>5558.93</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="A68" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68" t="s">
+        <v>94</v>
+      </c>
+      <c r="D68" t="s">
+        <v>98</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>480.1</v>
+      </c>
+      <c r="G68">
+        <v>20</v>
+      </c>
+      <c r="H68">
+        <v>20</v>
+      </c>
+      <c r="I68">
+        <v>9602</v>
+      </c>
+      <c r="J68">
+        <v>480.1</v>
+      </c>
+      <c r="L68">
+        <v>456.1</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" t="s">
+        <v>93</v>
+      </c>
+      <c r="C69" t="s">
+        <v>96</v>
+      </c>
+      <c r="D69" t="s">
+        <v>98</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>1739.5</v>
+      </c>
+      <c r="G69">
+        <v>5</v>
+      </c>
+      <c r="H69">
+        <v>5</v>
+      </c>
+      <c r="I69">
+        <v>8697.5</v>
+      </c>
+      <c r="J69">
+        <v>1739.5</v>
+      </c>
+      <c r="L69">
+        <v>1652.52</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
         <v>0</v>
       </c>
     </row>

--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="107">
   <si>
     <t>Buy Date</t>
   </si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>SL Hit (Gap)</t>
+  </si>
+  <si>
+    <t>2026-02-05</t>
   </si>
 </sst>
 </file>
@@ -855,7 +858,7 @@
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1338.7</v>
+        <v>1330.6</v>
       </c>
       <c r="L3">
         <v>1293.6</v>
@@ -867,13 +870,13 @@
         <v>492.8000000000002</v>
       </c>
       <c r="P3">
-        <v>426.8</v>
+        <v>394.4</v>
       </c>
       <c r="Q3">
-        <v>919.6</v>
+        <v>887.2</v>
       </c>
       <c r="R3">
-        <v>9.33</v>
+        <v>9</v>
       </c>
       <c r="S3" t="s">
         <v>34</v>
@@ -964,7 +967,7 @@
         <v>8527.200000000001</v>
       </c>
       <c r="J5">
-        <v>2844.9</v>
+        <v>2863.9</v>
       </c>
       <c r="L5">
         <v>2700.28</v>
@@ -976,13 +979,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>7.5</v>
+        <v>64.5</v>
       </c>
       <c r="Q5">
-        <v>7.5</v>
+        <v>64.5</v>
       </c>
       <c r="R5">
-        <v>0.09</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1014,7 +1017,7 @@
         <v>9173.200000000001</v>
       </c>
       <c r="J6">
-        <v>2371</v>
+        <v>2354.4</v>
       </c>
       <c r="L6">
         <v>2178.64</v>
@@ -1026,13 +1029,13 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>310.8</v>
+        <v>244.4</v>
       </c>
       <c r="Q6">
-        <v>310.8</v>
+        <v>244.4</v>
       </c>
       <c r="R6">
-        <v>3.39</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1064,7 +1067,7 @@
         <v>8960</v>
       </c>
       <c r="J7">
-        <v>1303.2</v>
+        <v>1303.5</v>
       </c>
       <c r="L7">
         <v>1216</v>
@@ -1076,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>162.4</v>
+        <v>164.5</v>
       </c>
       <c r="Q7">
-        <v>162.4</v>
+        <v>164.5</v>
       </c>
       <c r="R7">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1624,7 +1627,7 @@
         <v>9282</v>
       </c>
       <c r="J17">
-        <v>9639</v>
+        <v>9647</v>
       </c>
       <c r="L17">
         <v>8817.9</v>
@@ -1636,13 +1639,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="Q17">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="R17">
-        <v>3.85</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2909,7 +2912,7 @@
         <v>9968.4</v>
       </c>
       <c r="J40">
-        <v>1621.8</v>
+        <v>1610</v>
       </c>
       <c r="L40">
         <v>1578.33</v>
@@ -2921,13 +2924,13 @@
         <v>0</v>
       </c>
       <c r="P40">
-        <v>-237.6</v>
+        <v>-308.4</v>
       </c>
       <c r="Q40">
-        <v>-237.6</v>
+        <v>-308.4</v>
       </c>
       <c r="R40">
-        <v>-2.38</v>
+        <v>-3.09</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -3112,7 +3115,7 @@
         <v>98</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
         <v>358.75</v>
@@ -3127,10 +3130,10 @@
         <v>9686.25</v>
       </c>
       <c r="J44">
-        <v>382.45</v>
+        <v>382.05</v>
       </c>
       <c r="L44">
-        <v>340.81</v>
+        <v>358.75</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -3139,13 +3142,13 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>639.9</v>
+        <v>629.1</v>
       </c>
       <c r="Q44">
-        <v>639.9</v>
+        <v>629.1</v>
       </c>
       <c r="R44">
-        <v>6.61</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -3233,7 +3236,7 @@
         <v>9697.799999999999</v>
       </c>
       <c r="J46">
-        <v>367.25</v>
+        <v>367</v>
       </c>
       <c r="L46">
         <v>329.03</v>
@@ -3245,13 +3248,13 @@
         <v>0</v>
       </c>
       <c r="P46">
-        <v>585.2</v>
+        <v>578.2</v>
       </c>
       <c r="Q46">
-        <v>585.2</v>
+        <v>578.2</v>
       </c>
       <c r="R46">
-        <v>6.03</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -3283,7 +3286,7 @@
         <v>9306.9</v>
       </c>
       <c r="J47">
-        <v>2999.1</v>
+        <v>2991.5</v>
       </c>
       <c r="L47">
         <v>2947.18</v>
@@ -3295,13 +3298,13 @@
         <v>0</v>
       </c>
       <c r="P47">
-        <v>-309.6</v>
+        <v>-332.4</v>
       </c>
       <c r="Q47">
-        <v>-309.6</v>
+        <v>-332.4</v>
       </c>
       <c r="R47">
-        <v>-3.33</v>
+        <v>-3.57</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -3333,7 +3336,7 @@
         <v>7448.2</v>
       </c>
       <c r="J48">
-        <v>3824.3</v>
+        <v>3934.9</v>
       </c>
       <c r="L48">
         <v>3537.89</v>
@@ -3345,13 +3348,13 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>200.4</v>
+        <v>421.6</v>
       </c>
       <c r="Q48">
-        <v>200.4</v>
+        <v>421.6</v>
       </c>
       <c r="R48">
-        <v>2.69</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -3383,7 +3386,7 @@
         <v>8784.599999999999</v>
       </c>
       <c r="J49">
-        <v>3290.5</v>
+        <v>3300</v>
       </c>
       <c r="L49">
         <v>3074.61</v>
@@ -3395,13 +3398,13 @@
         <v>292.8200000000002</v>
       </c>
       <c r="P49">
-        <v>724.6</v>
+        <v>743.6</v>
       </c>
       <c r="Q49">
-        <v>1017.42</v>
+        <v>1036.42</v>
       </c>
       <c r="R49">
-        <v>11.58</v>
+        <v>11.8</v>
       </c>
       <c r="S49" t="s">
         <v>38</v>
@@ -3548,7 +3551,7 @@
         <v>9915.6</v>
       </c>
       <c r="J52">
-        <v>445.1</v>
+        <v>442.4</v>
       </c>
       <c r="L52">
         <v>413.15</v>
@@ -3560,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="P52">
-        <v>766.8</v>
+        <v>702</v>
       </c>
       <c r="Q52">
-        <v>766.8</v>
+        <v>702</v>
       </c>
       <c r="R52">
-        <v>7.73</v>
+        <v>7.08</v>
       </c>
     </row>
     <row r="53" spans="1:19">
@@ -3654,7 +3657,7 @@
         <v>7950.4</v>
       </c>
       <c r="J54">
-        <v>4144</v>
+        <v>4097.6</v>
       </c>
       <c r="L54">
         <v>3776.44</v>
@@ -3666,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="P54">
-        <v>337.6</v>
+        <v>244.8</v>
       </c>
       <c r="Q54">
-        <v>337.6</v>
+        <v>244.8</v>
       </c>
       <c r="R54">
-        <v>4.25</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -3704,7 +3707,7 @@
         <v>9973.5</v>
       </c>
       <c r="J55">
-        <v>2228.2</v>
+        <v>2236.6</v>
       </c>
       <c r="L55">
         <v>2094.43</v>
@@ -3716,13 +3719,13 @@
         <v>398.9400000000001</v>
       </c>
       <c r="P55">
-        <v>700.5</v>
+        <v>725.7</v>
       </c>
       <c r="Q55">
-        <v>1099.44</v>
+        <v>1124.64</v>
       </c>
       <c r="R55">
-        <v>11.02</v>
+        <v>11.28</v>
       </c>
       <c r="S55" t="s">
         <v>38</v>
@@ -3813,7 +3816,7 @@
         <v>9578.25</v>
       </c>
       <c r="J57">
-        <v>659.85</v>
+        <v>661.3</v>
       </c>
       <c r="L57">
         <v>606.62</v>
@@ -3825,13 +3828,13 @@
         <v>0</v>
       </c>
       <c r="P57">
-        <v>319.5</v>
+        <v>341.25</v>
       </c>
       <c r="Q57">
-        <v>319.5</v>
+        <v>341.25</v>
       </c>
       <c r="R57">
-        <v>3.34</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -3904,7 +3907,7 @@
         <v>98</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
         <v>164.61</v>
@@ -3919,10 +3922,10 @@
         <v>9876.6</v>
       </c>
       <c r="J59">
-        <v>172.78</v>
+        <v>175.77</v>
       </c>
       <c r="L59">
-        <v>156.38</v>
+        <v>164.61</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -3931,13 +3934,13 @@
         <v>0</v>
       </c>
       <c r="P59">
-        <v>490.2</v>
+        <v>669.6</v>
       </c>
       <c r="Q59">
-        <v>490.2</v>
+        <v>669.6</v>
       </c>
       <c r="R59">
-        <v>4.96</v>
+        <v>6.78</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -3969,7 +3972,7 @@
         <v>9944.179999999998</v>
       </c>
       <c r="J60">
-        <v>165.41</v>
+        <v>160.18</v>
       </c>
       <c r="L60">
         <v>152.37</v>
@@ -3981,13 +3984,13 @@
         <v>0</v>
       </c>
       <c r="P60">
-        <v>311.24</v>
+        <v>-13.02</v>
       </c>
       <c r="Q60">
-        <v>311.24</v>
+        <v>-13.02</v>
       </c>
       <c r="R60">
-        <v>3.13</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -4019,7 +4022,7 @@
         <v>9933</v>
       </c>
       <c r="J61">
-        <v>468.85</v>
+        <v>473.95</v>
       </c>
       <c r="L61">
         <v>428.92</v>
@@ -4031,13 +4034,13 @@
         <v>0</v>
       </c>
       <c r="P61">
-        <v>381.7</v>
+        <v>493.9</v>
       </c>
       <c r="Q61">
-        <v>381.7</v>
+        <v>493.9</v>
       </c>
       <c r="R61">
-        <v>3.84</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -4054,7 +4057,7 @@
         <v>98</v>
       </c>
       <c r="E62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62">
         <v>843.95</v>
@@ -4063,34 +4066,34 @@
         <v>11</v>
       </c>
       <c r="H62">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I62">
         <v>9283.450000000001</v>
       </c>
       <c r="J62">
-        <v>954.45</v>
+        <v>967.15</v>
       </c>
       <c r="L62">
-        <v>886.15</v>
+        <v>928.35</v>
       </c>
       <c r="M62">
         <v>0</v>
       </c>
       <c r="O62">
-        <v>421.9750000000005</v>
+        <v>675.1600000000004</v>
       </c>
       <c r="P62">
-        <v>663</v>
+        <v>492.8</v>
       </c>
       <c r="Q62">
-        <v>1084.98</v>
+        <v>1167.96</v>
       </c>
       <c r="R62">
-        <v>11.69</v>
+        <v>12.58</v>
       </c>
       <c r="S62" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -4119,10 +4122,10 @@
         <v>81</v>
       </c>
       <c r="I63">
-        <v>9932.220000000001</v>
+        <v>9932.219999999999</v>
       </c>
       <c r="J63">
-        <v>122.62</v>
+        <v>120.99</v>
       </c>
       <c r="L63">
         <v>116.49</v>
@@ -4134,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="P63">
-        <v>0</v>
+        <v>-132.03</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>-132.03</v>
       </c>
       <c r="R63">
-        <v>0</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="64" spans="1:19">
@@ -4172,7 +4175,7 @@
         <v>9567.799999999999</v>
       </c>
       <c r="J64">
-        <v>434.9</v>
+        <v>431.85</v>
       </c>
       <c r="L64">
         <v>413.15</v>
@@ -4184,13 +4187,13 @@
         <v>0</v>
       </c>
       <c r="P64">
-        <v>0</v>
+        <v>-67.09999999999999</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>-67.09999999999999</v>
       </c>
       <c r="R64">
-        <v>0</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4219,10 +4222,10 @@
         <v>6</v>
       </c>
       <c r="I65">
-        <v>9407.400000000001</v>
+        <v>9407.4</v>
       </c>
       <c r="J65">
-        <v>1567.9</v>
+        <v>1570.2</v>
       </c>
       <c r="L65">
         <v>1489.51</v>
@@ -4234,13 +4237,13 @@
         <v>0</v>
       </c>
       <c r="P65">
-        <v>0</v>
+        <v>13.8</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>13.8</v>
       </c>
       <c r="R65">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4272,7 +4275,7 @@
         <v>9877.15</v>
       </c>
       <c r="J66">
-        <v>266.95</v>
+        <v>269.2</v>
       </c>
       <c r="L66">
         <v>253.6</v>
@@ -4284,13 +4287,13 @@
         <v>0</v>
       </c>
       <c r="P66">
-        <v>0</v>
+        <v>83.25</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>83.25</v>
       </c>
       <c r="R66">
-        <v>0</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4322,7 +4325,7 @@
         <v>5851.5</v>
       </c>
       <c r="J67">
-        <v>5851.5</v>
+        <v>5766</v>
       </c>
       <c r="L67">
         <v>5558.93</v>
@@ -4334,13 +4337,13 @@
         <v>0</v>
       </c>
       <c r="P67">
-        <v>0</v>
+        <v>-85.5</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>-85.5</v>
       </c>
       <c r="R67">
-        <v>0</v>
+        <v>-1.46</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -4372,7 +4375,7 @@
         <v>9602</v>
       </c>
       <c r="J68">
-        <v>480.1</v>
+        <v>472.3</v>
       </c>
       <c r="L68">
         <v>456.1</v>
@@ -4384,13 +4387,13 @@
         <v>0</v>
       </c>
       <c r="P68">
-        <v>0</v>
+        <v>-156</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>-156</v>
       </c>
       <c r="R68">
-        <v>0</v>
+        <v>-1.62</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -4422,7 +4425,7 @@
         <v>8697.5</v>
       </c>
       <c r="J69">
-        <v>1739.5</v>
+        <v>1722.3</v>
       </c>
       <c r="L69">
         <v>1652.52</v>
@@ -4434,13 +4437,13 @@
         <v>0</v>
       </c>
       <c r="P69">
-        <v>0</v>
+        <v>-86</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>-86</v>
       </c>
       <c r="R69">
-        <v>0</v>
+        <v>-0.99</v>
       </c>
     </row>
   </sheetData>

--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="110">
   <si>
     <t>Buy Date</t>
   </si>
@@ -133,6 +133,9 @@
     <t>2026-02-04</t>
   </si>
   <si>
+    <t>2026-02-06</t>
+  </si>
+  <si>
     <t>ADANIENT</t>
   </si>
   <si>
@@ -296,6 +299,12 @@
   </si>
   <si>
     <t>CHOLAFIN</t>
+  </si>
+  <si>
+    <t>TATAELXSI</t>
+  </si>
+  <si>
+    <t>MARICO</t>
   </si>
   <si>
     <t>Value Buy</t>
@@ -698,7 +707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S69"/>
+  <dimension ref="A1:S71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -778,13 +787,13 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -814,7 +823,7 @@
         <v>2093.04</v>
       </c>
       <c r="N2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O2">
         <v>-440.6399999999994</v>
@@ -834,13 +843,13 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -858,7 +867,7 @@
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1330.6</v>
+        <v>1341.6</v>
       </c>
       <c r="L3">
         <v>1293.6</v>
@@ -870,13 +879,13 @@
         <v>492.8000000000002</v>
       </c>
       <c r="P3">
-        <v>394.4</v>
+        <v>438.4</v>
       </c>
       <c r="Q3">
-        <v>887.2</v>
+        <v>931.2</v>
       </c>
       <c r="R3">
-        <v>9</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="S3" t="s">
         <v>34</v>
@@ -887,13 +896,13 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -923,7 +932,7 @@
         <v>5739.43</v>
       </c>
       <c r="N4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O4">
         <v>-302.0699999999997</v>
@@ -943,13 +952,13 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -967,7 +976,7 @@
         <v>8527.200000000001</v>
       </c>
       <c r="J5">
-        <v>2863.9</v>
+        <v>2836.9</v>
       </c>
       <c r="L5">
         <v>2700.28</v>
@@ -979,13 +988,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>64.5</v>
+        <v>-16.5</v>
       </c>
       <c r="Q5">
-        <v>64.5</v>
+        <v>-16.5</v>
       </c>
       <c r="R5">
-        <v>0.76</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -993,13 +1002,13 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1017,7 +1026,7 @@
         <v>9173.200000000001</v>
       </c>
       <c r="J6">
-        <v>2354.4</v>
+        <v>2424.2</v>
       </c>
       <c r="L6">
         <v>2178.64</v>
@@ -1029,13 +1038,13 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>244.4</v>
+        <v>523.6</v>
       </c>
       <c r="Q6">
-        <v>244.4</v>
+        <v>523.6</v>
       </c>
       <c r="R6">
-        <v>2.66</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1043,13 +1052,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1067,7 +1076,7 @@
         <v>8960</v>
       </c>
       <c r="J7">
-        <v>1303.5</v>
+        <v>1303.3</v>
       </c>
       <c r="L7">
         <v>1216</v>
@@ -1079,13 +1088,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>164.5</v>
+        <v>163.1</v>
       </c>
       <c r="Q7">
-        <v>164.5</v>
+        <v>163.1</v>
       </c>
       <c r="R7">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1093,13 +1102,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1129,7 +1138,7 @@
         <v>3066.4</v>
       </c>
       <c r="N8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O8">
         <v>-522.8999999999992</v>
@@ -1149,13 +1158,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1185,7 +1194,7 @@
         <v>2901.59</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O9">
         <v>-458.1300000000001</v>
@@ -1205,13 +1214,13 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1241,7 +1250,7 @@
         <v>2922.11</v>
       </c>
       <c r="N10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O10">
         <v>-461.3699999999999</v>
@@ -1261,13 +1270,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1288,7 +1297,7 @@
         <v>183.56</v>
       </c>
       <c r="K11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L11">
         <v>180.92</v>
@@ -1297,7 +1306,7 @@
         <v>180.92</v>
       </c>
       <c r="N11" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O11">
         <v>749.6499999999999</v>
@@ -1312,7 +1321,7 @@
         <v>7.5</v>
       </c>
       <c r="S11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1320,13 +1329,13 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1356,7 +1365,7 @@
         <v>1651</v>
       </c>
       <c r="N12" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O12">
         <v>599.5200000000004</v>
@@ -1379,13 +1388,13 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1415,7 +1424,7 @@
         <v>732.4</v>
       </c>
       <c r="N13" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O13">
         <v>-462.6000000000008</v>
@@ -1435,13 +1444,13 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1471,7 +1480,7 @@
         <v>651.2</v>
       </c>
       <c r="N14" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1491,13 +1500,13 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1527,7 +1536,7 @@
         <v>1135.44</v>
       </c>
       <c r="N15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O15">
         <v>-478.0799999999999</v>
@@ -1547,13 +1556,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1583,7 +1592,7 @@
         <v>5731.82</v>
       </c>
       <c r="N16" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O16">
         <v>-301.6800000000003</v>
@@ -1603,13 +1612,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1627,7 +1636,7 @@
         <v>9282</v>
       </c>
       <c r="J17">
-        <v>9647</v>
+        <v>9518.5</v>
       </c>
       <c r="L17">
         <v>8817.9</v>
@@ -1639,13 +1648,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>365</v>
+        <v>236.5</v>
       </c>
       <c r="Q17">
-        <v>365</v>
+        <v>236.5</v>
       </c>
       <c r="R17">
-        <v>3.93</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1653,13 +1662,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1689,7 +1698,7 @@
         <v>282.8</v>
       </c>
       <c r="N18" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1709,13 +1718,13 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1745,7 +1754,7 @@
         <v>1342.35</v>
       </c>
       <c r="N19" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O19">
         <v>-494.5500000000006</v>
@@ -1765,13 +1774,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1801,7 +1810,7 @@
         <v>5425.45</v>
       </c>
       <c r="N20" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O20">
         <v>-285.5500000000002</v>
@@ -1821,13 +1830,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1848,7 +1857,7 @@
         <v>132.36</v>
       </c>
       <c r="K21" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L21">
         <v>128.5</v>
@@ -1857,7 +1866,7 @@
         <v>128.499</v>
       </c>
       <c r="N21" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O21">
         <v>495.639</v>
@@ -1877,13 +1886,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1904,7 +1913,7 @@
         <v>4021.8</v>
       </c>
       <c r="K22" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L22">
         <v>3974.1</v>
@@ -1913,7 +1922,7 @@
         <v>3974.1</v>
       </c>
       <c r="N22" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1933,13 +1942,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1969,7 +1978,7 @@
         <v>972.9400000000001</v>
       </c>
       <c r="N23" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O23">
         <v>-460.8900000000003</v>
@@ -1989,13 +1998,13 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2025,7 +2034,7 @@
         <v>158.14</v>
       </c>
       <c r="N24" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O24">
         <v>-499.2000000000013</v>
@@ -2045,13 +2054,13 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2081,7 +2090,7 @@
         <v>1001.11</v>
       </c>
       <c r="N25" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O25">
         <v>-474.2099999999995</v>
@@ -2101,13 +2110,13 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2128,7 +2137,7 @@
         <v>267.45</v>
       </c>
       <c r="K26" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L26">
         <v>253.98</v>
@@ -2137,7 +2146,7 @@
         <v>252</v>
       </c>
       <c r="N26" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O26">
         <v>-567.9500000000008</v>
@@ -2157,13 +2166,13 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2193,7 +2202,7 @@
         <v>951.52</v>
       </c>
       <c r="N27" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O27">
         <v>-450.7200000000004</v>
@@ -2213,13 +2222,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2249,7 +2258,7 @@
         <v>1880.9</v>
       </c>
       <c r="N28" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O28">
         <v>-495</v>
@@ -2269,13 +2278,13 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D29" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2305,7 +2314,7 @@
         <v>854</v>
       </c>
       <c r="N29" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O29">
         <v>-523.0499999999995</v>
@@ -2325,13 +2334,13 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2361,7 +2370,7 @@
         <v>6310.38</v>
       </c>
       <c r="N30" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O30">
         <v>-332.1199999999999</v>
@@ -2381,13 +2390,13 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2408,7 +2417,7 @@
         <v>546.75</v>
       </c>
       <c r="K31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L31">
         <v>541.83</v>
@@ -2417,7 +2426,7 @@
         <v>541.83</v>
       </c>
       <c r="N31" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O31">
         <v>-484.8399999999997</v>
@@ -2437,13 +2446,13 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2473,7 +2482,7 @@
         <v>738.96</v>
       </c>
       <c r="N32" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O32">
         <v>-466.6799999999998</v>
@@ -2493,13 +2502,13 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2529,7 +2538,7 @@
         <v>637.64</v>
       </c>
       <c r="N33" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O33">
         <v>-469.8400000000008</v>
@@ -2549,13 +2558,13 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2576,7 +2585,7 @@
         <v>1728.7</v>
       </c>
       <c r="K34" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L34">
         <v>1693.47</v>
@@ -2585,7 +2594,7 @@
         <v>1693.47</v>
       </c>
       <c r="N34" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O34">
         <v>-445.6499999999994</v>
@@ -2605,13 +2614,13 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D35" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2632,7 +2641,7 @@
         <v>414.55</v>
       </c>
       <c r="K35" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L35">
         <v>409.31</v>
@@ -2641,7 +2650,7 @@
         <v>409.31</v>
       </c>
       <c r="N35" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O35">
         <v>-495.4200000000005</v>
@@ -2661,13 +2670,13 @@
         <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D36" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2697,7 +2706,7 @@
         <v>4769.95</v>
       </c>
       <c r="N36" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O36">
         <v>-251.0500000000001</v>
@@ -2717,13 +2726,13 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D37" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2753,7 +2762,7 @@
         <v>109.86</v>
       </c>
       <c r="N37" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O37">
         <v>-497.0800000000001</v>
@@ -2773,13 +2782,13 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D38" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -2809,7 +2818,7 @@
         <v>439.27</v>
       </c>
       <c r="N38" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O38">
         <v>711.2249999999999</v>
@@ -2832,13 +2841,13 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2868,7 +2877,7 @@
         <v>260.54</v>
       </c>
       <c r="N39" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O39">
         <v>-493.5599999999993</v>
@@ -2888,13 +2897,13 @@
         <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D40" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2906,7 +2915,7 @@
         <v>6</v>
       </c>
       <c r="H40">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>9968.4</v>
@@ -2914,23 +2923,29 @@
       <c r="J40">
         <v>1610</v>
       </c>
+      <c r="K40" t="s">
+        <v>39</v>
+      </c>
       <c r="L40">
         <v>1578.33</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>1578.33</v>
+      </c>
+      <c r="N40" t="s">
+        <v>107</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>-498.420000000001</v>
       </c>
       <c r="P40">
-        <v>-308.4</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>-308.4</v>
+        <v>-498.420000000001</v>
       </c>
       <c r="R40">
-        <v>-3.09</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -2938,13 +2953,13 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D41" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2974,7 +2989,7 @@
         <v>2751.58</v>
       </c>
       <c r="N41" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O41">
         <v>-434.4600000000005</v>
@@ -2994,13 +3009,13 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D42" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3021,7 +3036,7 @@
         <v>1375.8</v>
       </c>
       <c r="K42" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L42">
         <v>1342.44</v>
@@ -3030,7 +3045,7 @@
         <v>1342.44</v>
       </c>
       <c r="N42" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O42">
         <v>-494.619999999999</v>
@@ -3050,13 +3065,13 @@
         <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D43" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3077,7 +3092,7 @@
         <v>4056.4</v>
       </c>
       <c r="K43" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L43">
         <v>3853.58</v>
@@ -3086,7 +3101,7 @@
         <v>3853.58</v>
       </c>
       <c r="N43" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O43">
         <v>-405.6400000000003</v>
@@ -3106,13 +3121,13 @@
         <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D44" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3130,7 +3145,7 @@
         <v>9686.25</v>
       </c>
       <c r="J44">
-        <v>382.05</v>
+        <v>386.35</v>
       </c>
       <c r="L44">
         <v>358.75</v>
@@ -3142,13 +3157,13 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>629.1</v>
+        <v>745.2</v>
       </c>
       <c r="Q44">
-        <v>629.1</v>
+        <v>745.2</v>
       </c>
       <c r="R44">
-        <v>6.49</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -3156,13 +3171,13 @@
         <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D45" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3192,7 +3207,7 @@
         <v>1574</v>
       </c>
       <c r="N45" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O45">
         <v>-578.9999999999998</v>
@@ -3212,13 +3227,13 @@
         <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D46" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3236,7 +3251,7 @@
         <v>9697.799999999999</v>
       </c>
       <c r="J46">
-        <v>367</v>
+        <v>365.05</v>
       </c>
       <c r="L46">
         <v>329.03</v>
@@ -3248,13 +3263,13 @@
         <v>0</v>
       </c>
       <c r="P46">
-        <v>578.2</v>
+        <v>523.6</v>
       </c>
       <c r="Q46">
-        <v>578.2</v>
+        <v>523.6</v>
       </c>
       <c r="R46">
-        <v>5.96</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -3262,13 +3277,13 @@
         <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D47" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3280,7 +3295,7 @@
         <v>3</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>9306.9</v>
@@ -3288,23 +3303,29 @@
       <c r="J47">
         <v>2991.5</v>
       </c>
+      <c r="K47" t="s">
+        <v>39</v>
+      </c>
       <c r="L47">
         <v>2947.18</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>2947.18</v>
+      </c>
+      <c r="N47" t="s">
+        <v>107</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>-465.360000000001</v>
       </c>
       <c r="P47">
-        <v>-332.4</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>-332.4</v>
+        <v>-465.360000000001</v>
       </c>
       <c r="R47">
-        <v>-3.57</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -3312,13 +3333,13 @@
         <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D48" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3336,7 +3357,7 @@
         <v>7448.2</v>
       </c>
       <c r="J48">
-        <v>3934.9</v>
+        <v>3889.9</v>
       </c>
       <c r="L48">
         <v>3537.89</v>
@@ -3348,13 +3369,13 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>421.6</v>
+        <v>331.6</v>
       </c>
       <c r="Q48">
-        <v>421.6</v>
+        <v>331.6</v>
       </c>
       <c r="R48">
-        <v>5.66</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -3362,13 +3383,13 @@
         <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D49" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -3386,7 +3407,7 @@
         <v>8784.599999999999</v>
       </c>
       <c r="J49">
-        <v>3300</v>
+        <v>3176.2</v>
       </c>
       <c r="L49">
         <v>3074.61</v>
@@ -3398,13 +3419,13 @@
         <v>292.8200000000002</v>
       </c>
       <c r="P49">
-        <v>743.6</v>
+        <v>496</v>
       </c>
       <c r="Q49">
-        <v>1036.42</v>
+        <v>788.8200000000001</v>
       </c>
       <c r="R49">
-        <v>11.8</v>
+        <v>8.98</v>
       </c>
       <c r="S49" t="s">
         <v>38</v>
@@ -3415,13 +3436,13 @@
         <v>32</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C50" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D50" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3451,7 +3472,7 @@
         <v>1982.08</v>
       </c>
       <c r="N50" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O50">
         <v>-417.2800000000007</v>
@@ -3471,13 +3492,13 @@
         <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C51" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D51" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3507,7 +3528,7 @@
         <v>520.6</v>
       </c>
       <c r="N51" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O51">
         <v>-493.1999999999996</v>
@@ -3527,13 +3548,13 @@
         <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C52" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D52" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3551,7 +3572,7 @@
         <v>9915.6</v>
       </c>
       <c r="J52">
-        <v>442.4</v>
+        <v>443.35</v>
       </c>
       <c r="L52">
         <v>413.15</v>
@@ -3563,13 +3584,13 @@
         <v>0</v>
       </c>
       <c r="P52">
-        <v>702</v>
+        <v>724.8</v>
       </c>
       <c r="Q52">
-        <v>702</v>
+        <v>724.8</v>
       </c>
       <c r="R52">
-        <v>7.08</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="53" spans="1:19">
@@ -3577,13 +3598,13 @@
         <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D53" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3613,7 +3634,7 @@
         <v>185.38</v>
       </c>
       <c r="N53" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O53">
         <v>-118.190000000001</v>
@@ -3633,13 +3654,13 @@
         <v>34</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D54" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3657,7 +3678,7 @@
         <v>7950.4</v>
       </c>
       <c r="J54">
-        <v>4097.6</v>
+        <v>4141</v>
       </c>
       <c r="L54">
         <v>3776.44</v>
@@ -3669,13 +3690,13 @@
         <v>0</v>
       </c>
       <c r="P54">
-        <v>244.8</v>
+        <v>331.6</v>
       </c>
       <c r="Q54">
-        <v>244.8</v>
+        <v>331.6</v>
       </c>
       <c r="R54">
-        <v>3.08</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -3683,13 +3704,13 @@
         <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D55" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -3707,7 +3728,7 @@
         <v>9973.5</v>
       </c>
       <c r="J55">
-        <v>2236.6</v>
+        <v>2226.4</v>
       </c>
       <c r="L55">
         <v>2094.43</v>
@@ -3719,13 +3740,13 @@
         <v>398.9400000000001</v>
       </c>
       <c r="P55">
-        <v>725.7</v>
+        <v>695.1</v>
       </c>
       <c r="Q55">
-        <v>1124.64</v>
+        <v>1094.04</v>
       </c>
       <c r="R55">
-        <v>11.28</v>
+        <v>10.97</v>
       </c>
       <c r="S55" t="s">
         <v>38</v>
@@ -3736,13 +3757,13 @@
         <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C56" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D56" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3772,7 +3793,7 @@
         <v>814.2</v>
       </c>
       <c r="N56" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O56">
         <v>-490.599999999999</v>
@@ -3792,13 +3813,13 @@
         <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C57" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D57" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3816,7 +3837,7 @@
         <v>9578.25</v>
       </c>
       <c r="J57">
-        <v>661.3</v>
+        <v>663.75</v>
       </c>
       <c r="L57">
         <v>606.62</v>
@@ -3828,13 +3849,13 @@
         <v>0</v>
       </c>
       <c r="P57">
-        <v>341.25</v>
+        <v>378</v>
       </c>
       <c r="Q57">
-        <v>341.25</v>
+        <v>378</v>
       </c>
       <c r="R57">
-        <v>3.56</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -3842,13 +3863,13 @@
         <v>36</v>
       </c>
       <c r="B58" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C58" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D58" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3878,7 +3899,7 @@
         <v>922.92</v>
       </c>
       <c r="N58" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O58">
         <v>-485.8000000000004</v>
@@ -3898,13 +3919,13 @@
         <v>37</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D59" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3922,7 +3943,7 @@
         <v>9876.6</v>
       </c>
       <c r="J59">
-        <v>175.77</v>
+        <v>175.2</v>
       </c>
       <c r="L59">
         <v>164.61</v>
@@ -3934,13 +3955,13 @@
         <v>0</v>
       </c>
       <c r="P59">
-        <v>669.6</v>
+        <v>635.4</v>
       </c>
       <c r="Q59">
-        <v>669.6</v>
+        <v>635.4</v>
       </c>
       <c r="R59">
-        <v>6.78</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -3948,13 +3969,13 @@
         <v>37</v>
       </c>
       <c r="B60" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C60" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D60" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3972,7 +3993,7 @@
         <v>9944.179999999998</v>
       </c>
       <c r="J60">
-        <v>160.18</v>
+        <v>162.99</v>
       </c>
       <c r="L60">
         <v>152.37</v>
@@ -3984,13 +4005,13 @@
         <v>0</v>
       </c>
       <c r="P60">
-        <v>-13.02</v>
+        <v>161.2</v>
       </c>
       <c r="Q60">
-        <v>-13.02</v>
+        <v>161.2</v>
       </c>
       <c r="R60">
-        <v>-0.13</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -3998,13 +4019,13 @@
         <v>37</v>
       </c>
       <c r="B61" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C61" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D61" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -4022,7 +4043,7 @@
         <v>9933</v>
       </c>
       <c r="J61">
-        <v>473.95</v>
+        <v>473.15</v>
       </c>
       <c r="L61">
         <v>428.92</v>
@@ -4034,13 +4055,13 @@
         <v>0</v>
       </c>
       <c r="P61">
-        <v>493.9</v>
+        <v>476.3</v>
       </c>
       <c r="Q61">
-        <v>493.9</v>
+        <v>476.3</v>
       </c>
       <c r="R61">
-        <v>4.97</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -4048,13 +4069,13 @@
         <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C62" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D62" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E62">
         <v>3</v>
@@ -4072,10 +4093,10 @@
         <v>9283.450000000001</v>
       </c>
       <c r="J62">
-        <v>967.15</v>
+        <v>971.85</v>
       </c>
       <c r="L62">
-        <v>928.35</v>
+        <v>932.1</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -4084,16 +4105,16 @@
         <v>675.1600000000004</v>
       </c>
       <c r="P62">
-        <v>492.8</v>
+        <v>511.6</v>
       </c>
       <c r="Q62">
-        <v>1167.96</v>
+        <v>1186.76</v>
       </c>
       <c r="R62">
-        <v>12.58</v>
+        <v>12.78</v>
       </c>
       <c r="S62" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -4101,13 +4122,13 @@
         <v>38</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D63" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -4119,7 +4140,7 @@
         <v>81</v>
       </c>
       <c r="H63">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>9932.219999999999</v>
@@ -4127,23 +4148,29 @@
       <c r="J63">
         <v>120.99</v>
       </c>
+      <c r="K63" t="s">
+        <v>39</v>
+      </c>
       <c r="L63">
         <v>116.49</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>116.49</v>
+      </c>
+      <c r="N63" t="s">
+        <v>107</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>-496.5300000000008</v>
       </c>
       <c r="P63">
-        <v>-132.03</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>-132.03</v>
+        <v>-496.5300000000008</v>
       </c>
       <c r="R63">
-        <v>-1.33</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="64" spans="1:19">
@@ -4151,13 +4178,13 @@
         <v>38</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C64" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D64" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -4175,7 +4202,7 @@
         <v>9567.799999999999</v>
       </c>
       <c r="J64">
-        <v>431.85</v>
+        <v>432.8</v>
       </c>
       <c r="L64">
         <v>413.15</v>
@@ -4187,13 +4214,13 @@
         <v>0</v>
       </c>
       <c r="P64">
-        <v>-67.09999999999999</v>
+        <v>-46.2</v>
       </c>
       <c r="Q64">
-        <v>-67.09999999999999</v>
+        <v>-46.2</v>
       </c>
       <c r="R64">
-        <v>-0.7</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4201,13 +4228,13 @@
         <v>38</v>
       </c>
       <c r="B65" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C65" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -4225,7 +4252,7 @@
         <v>9407.4</v>
       </c>
       <c r="J65">
-        <v>1570.2</v>
+        <v>1550.7</v>
       </c>
       <c r="L65">
         <v>1489.51</v>
@@ -4237,13 +4264,13 @@
         <v>0</v>
       </c>
       <c r="P65">
-        <v>13.8</v>
+        <v>-103.2</v>
       </c>
       <c r="Q65">
-        <v>13.8</v>
+        <v>-103.2</v>
       </c>
       <c r="R65">
-        <v>0.15</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4251,13 +4278,13 @@
         <v>38</v>
       </c>
       <c r="B66" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C66" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D66" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -4275,7 +4302,7 @@
         <v>9877.15</v>
       </c>
       <c r="J66">
-        <v>269.2</v>
+        <v>268.95</v>
       </c>
       <c r="L66">
         <v>253.6</v>
@@ -4287,13 +4314,13 @@
         <v>0</v>
       </c>
       <c r="P66">
-        <v>83.25</v>
+        <v>74</v>
       </c>
       <c r="Q66">
-        <v>83.25</v>
+        <v>74</v>
       </c>
       <c r="R66">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4301,13 +4328,13 @@
         <v>38</v>
       </c>
       <c r="B67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C67" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D67" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -4325,7 +4352,7 @@
         <v>5851.5</v>
       </c>
       <c r="J67">
-        <v>5766</v>
+        <v>5753.5</v>
       </c>
       <c r="L67">
         <v>5558.93</v>
@@ -4337,13 +4364,13 @@
         <v>0</v>
       </c>
       <c r="P67">
-        <v>-85.5</v>
+        <v>-98</v>
       </c>
       <c r="Q67">
-        <v>-85.5</v>
+        <v>-98</v>
       </c>
       <c r="R67">
-        <v>-1.46</v>
+        <v>-1.67</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -4351,13 +4378,13 @@
         <v>38</v>
       </c>
       <c r="B68" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C68" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D68" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -4375,7 +4402,7 @@
         <v>9602</v>
       </c>
       <c r="J68">
-        <v>472.3</v>
+        <v>472.4</v>
       </c>
       <c r="L68">
         <v>456.1</v>
@@ -4387,13 +4414,13 @@
         <v>0</v>
       </c>
       <c r="P68">
-        <v>-156</v>
+        <v>-154</v>
       </c>
       <c r="Q68">
-        <v>-156</v>
+        <v>-154</v>
       </c>
       <c r="R68">
-        <v>-1.62</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -4401,13 +4428,13 @@
         <v>38</v>
       </c>
       <c r="B69" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C69" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D69" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -4425,7 +4452,7 @@
         <v>8697.5</v>
       </c>
       <c r="J69">
-        <v>1722.3</v>
+        <v>1742.2</v>
       </c>
       <c r="L69">
         <v>1652.52</v>
@@ -4437,13 +4464,113 @@
         <v>0</v>
       </c>
       <c r="P69">
-        <v>-86</v>
+        <v>13.5</v>
       </c>
       <c r="Q69">
-        <v>-86</v>
+        <v>13.5</v>
       </c>
       <c r="R69">
-        <v>-0.99</v>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70" t="s">
+        <v>97</v>
+      </c>
+      <c r="D70" t="s">
+        <v>101</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>5198.5</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>5198.5</v>
+      </c>
+      <c r="J70">
+        <v>5198.5</v>
+      </c>
+      <c r="L70">
+        <v>4938.57</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="A71" t="s">
+        <v>39</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" t="s">
+        <v>99</v>
+      </c>
+      <c r="D71" t="s">
+        <v>101</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>752.75</v>
+      </c>
+      <c r="G71">
+        <v>13</v>
+      </c>
+      <c r="H71">
+        <v>13</v>
+      </c>
+      <c r="I71">
+        <v>9785.75</v>
+      </c>
+      <c r="J71">
+        <v>752.75</v>
+      </c>
+      <c r="L71">
+        <v>715.11</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="111">
   <si>
     <t>Buy Date</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>2026-02-06</t>
+  </si>
+  <si>
+    <t>2026-02-09</t>
   </si>
   <si>
     <t>ADANIENT</t>
@@ -707,7 +710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S71"/>
+  <dimension ref="A1:S73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -787,13 +790,13 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -823,7 +826,7 @@
         <v>2093.04</v>
       </c>
       <c r="N2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O2">
         <v>-440.6399999999994</v>
@@ -843,13 +846,13 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -867,7 +870,7 @@
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1341.6</v>
+        <v>1341.4</v>
       </c>
       <c r="L3">
         <v>1293.6</v>
@@ -879,13 +882,13 @@
         <v>492.8000000000002</v>
       </c>
       <c r="P3">
-        <v>438.4</v>
+        <v>437.6</v>
       </c>
       <c r="Q3">
-        <v>931.2</v>
+        <v>930.4</v>
       </c>
       <c r="R3">
-        <v>9.449999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="S3" t="s">
         <v>34</v>
@@ -896,13 +899,13 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -932,7 +935,7 @@
         <v>5739.43</v>
       </c>
       <c r="N4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O4">
         <v>-302.0699999999997</v>
@@ -952,13 +955,13 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -976,7 +979,7 @@
         <v>8527.200000000001</v>
       </c>
       <c r="J5">
-        <v>2836.9</v>
+        <v>2926.3</v>
       </c>
       <c r="L5">
         <v>2700.28</v>
@@ -988,13 +991,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>-16.5</v>
+        <v>251.7</v>
       </c>
       <c r="Q5">
-        <v>-16.5</v>
+        <v>251.7</v>
       </c>
       <c r="R5">
-        <v>-0.19</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1002,13 +1005,13 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1026,7 +1029,7 @@
         <v>9173.200000000001</v>
       </c>
       <c r="J6">
-        <v>2424.2</v>
+        <v>2435</v>
       </c>
       <c r="L6">
         <v>2178.64</v>
@@ -1038,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>523.6</v>
+        <v>566.8</v>
       </c>
       <c r="Q6">
-        <v>523.6</v>
+        <v>566.8</v>
       </c>
       <c r="R6">
-        <v>5.71</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1052,13 +1055,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1076,7 +1079,7 @@
         <v>8960</v>
       </c>
       <c r="J7">
-        <v>1303.3</v>
+        <v>1295.6</v>
       </c>
       <c r="L7">
         <v>1216</v>
@@ -1088,13 +1091,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>163.1</v>
+        <v>109.2</v>
       </c>
       <c r="Q7">
-        <v>163.1</v>
+        <v>109.2</v>
       </c>
       <c r="R7">
-        <v>1.82</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1102,13 +1105,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1138,7 +1141,7 @@
         <v>3066.4</v>
       </c>
       <c r="N8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O8">
         <v>-522.8999999999992</v>
@@ -1158,13 +1161,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1194,7 +1197,7 @@
         <v>2901.59</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O9">
         <v>-458.1300000000001</v>
@@ -1214,13 +1217,13 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1250,7 +1253,7 @@
         <v>2922.11</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O10">
         <v>-461.3699999999999</v>
@@ -1270,13 +1273,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1297,7 +1300,7 @@
         <v>183.56</v>
       </c>
       <c r="K11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L11">
         <v>180.92</v>
@@ -1306,7 +1309,7 @@
         <v>180.92</v>
       </c>
       <c r="N11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O11">
         <v>749.6499999999999</v>
@@ -1321,7 +1324,7 @@
         <v>7.5</v>
       </c>
       <c r="S11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1329,13 +1332,13 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1365,7 +1368,7 @@
         <v>1651</v>
       </c>
       <c r="N12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O12">
         <v>599.5200000000004</v>
@@ -1388,13 +1391,13 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1424,7 +1427,7 @@
         <v>732.4</v>
       </c>
       <c r="N13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O13">
         <v>-462.6000000000008</v>
@@ -1444,13 +1447,13 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1480,7 +1483,7 @@
         <v>651.2</v>
       </c>
       <c r="N14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1500,13 +1503,13 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1536,7 +1539,7 @@
         <v>1135.44</v>
       </c>
       <c r="N15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O15">
         <v>-478.0799999999999</v>
@@ -1556,13 +1559,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1592,7 +1595,7 @@
         <v>5731.82</v>
       </c>
       <c r="N16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O16">
         <v>-301.6800000000003</v>
@@ -1612,13 +1615,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1636,7 +1639,7 @@
         <v>9282</v>
       </c>
       <c r="J17">
-        <v>9518.5</v>
+        <v>9590</v>
       </c>
       <c r="L17">
         <v>8817.9</v>
@@ -1648,13 +1651,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>236.5</v>
+        <v>308</v>
       </c>
       <c r="Q17">
-        <v>236.5</v>
+        <v>308</v>
       </c>
       <c r="R17">
-        <v>2.55</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1662,13 +1665,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1698,7 +1701,7 @@
         <v>282.8</v>
       </c>
       <c r="N18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1718,13 +1721,13 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1754,7 +1757,7 @@
         <v>1342.35</v>
       </c>
       <c r="N19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O19">
         <v>-494.5500000000006</v>
@@ -1774,13 +1777,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1810,7 +1813,7 @@
         <v>5425.45</v>
       </c>
       <c r="N20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O20">
         <v>-285.5500000000002</v>
@@ -1830,13 +1833,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1857,7 +1860,7 @@
         <v>132.36</v>
       </c>
       <c r="K21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L21">
         <v>128.5</v>
@@ -1866,7 +1869,7 @@
         <v>128.499</v>
       </c>
       <c r="N21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O21">
         <v>495.639</v>
@@ -1886,13 +1889,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1913,7 +1916,7 @@
         <v>4021.8</v>
       </c>
       <c r="K22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L22">
         <v>3974.1</v>
@@ -1922,7 +1925,7 @@
         <v>3974.1</v>
       </c>
       <c r="N22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1942,13 +1945,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1978,7 +1981,7 @@
         <v>972.9400000000001</v>
       </c>
       <c r="N23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O23">
         <v>-460.8900000000003</v>
@@ -1998,13 +2001,13 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2034,7 +2037,7 @@
         <v>158.14</v>
       </c>
       <c r="N24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O24">
         <v>-499.2000000000013</v>
@@ -2054,13 +2057,13 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2090,7 +2093,7 @@
         <v>1001.11</v>
       </c>
       <c r="N25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O25">
         <v>-474.2099999999995</v>
@@ -2110,13 +2113,13 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2137,7 +2140,7 @@
         <v>267.45</v>
       </c>
       <c r="K26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L26">
         <v>253.98</v>
@@ -2146,7 +2149,7 @@
         <v>252</v>
       </c>
       <c r="N26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O26">
         <v>-567.9500000000008</v>
@@ -2166,13 +2169,13 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2202,7 +2205,7 @@
         <v>951.52</v>
       </c>
       <c r="N27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O27">
         <v>-450.7200000000004</v>
@@ -2222,13 +2225,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2258,7 +2261,7 @@
         <v>1880.9</v>
       </c>
       <c r="N28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O28">
         <v>-495</v>
@@ -2278,13 +2281,13 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2314,7 +2317,7 @@
         <v>854</v>
       </c>
       <c r="N29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O29">
         <v>-523.0499999999995</v>
@@ -2334,13 +2337,13 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2370,7 +2373,7 @@
         <v>6310.38</v>
       </c>
       <c r="N30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O30">
         <v>-332.1199999999999</v>
@@ -2390,13 +2393,13 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2417,7 +2420,7 @@
         <v>546.75</v>
       </c>
       <c r="K31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L31">
         <v>541.83</v>
@@ -2426,7 +2429,7 @@
         <v>541.83</v>
       </c>
       <c r="N31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O31">
         <v>-484.8399999999997</v>
@@ -2446,13 +2449,13 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2482,7 +2485,7 @@
         <v>738.96</v>
       </c>
       <c r="N32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O32">
         <v>-466.6799999999998</v>
@@ -2502,13 +2505,13 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2538,7 +2541,7 @@
         <v>637.64</v>
       </c>
       <c r="N33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O33">
         <v>-469.8400000000008</v>
@@ -2558,13 +2561,13 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2585,7 +2588,7 @@
         <v>1728.7</v>
       </c>
       <c r="K34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L34">
         <v>1693.47</v>
@@ -2594,7 +2597,7 @@
         <v>1693.47</v>
       </c>
       <c r="N34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34">
         <v>-445.6499999999994</v>
@@ -2614,13 +2617,13 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2641,7 +2644,7 @@
         <v>414.55</v>
       </c>
       <c r="K35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L35">
         <v>409.31</v>
@@ -2650,7 +2653,7 @@
         <v>409.31</v>
       </c>
       <c r="N35" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35">
         <v>-495.4200000000005</v>
@@ -2670,13 +2673,13 @@
         <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2706,7 +2709,7 @@
         <v>4769.95</v>
       </c>
       <c r="N36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O36">
         <v>-251.0500000000001</v>
@@ -2726,13 +2729,13 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D37" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2762,7 +2765,7 @@
         <v>109.86</v>
       </c>
       <c r="N37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O37">
         <v>-497.0800000000001</v>
@@ -2782,13 +2785,13 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -2818,7 +2821,7 @@
         <v>439.27</v>
       </c>
       <c r="N38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O38">
         <v>711.2249999999999</v>
@@ -2841,13 +2844,13 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2877,7 +2880,7 @@
         <v>260.54</v>
       </c>
       <c r="N39" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O39">
         <v>-493.5599999999993</v>
@@ -2897,13 +2900,13 @@
         <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2933,7 +2936,7 @@
         <v>1578.33</v>
       </c>
       <c r="N40" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O40">
         <v>-498.420000000001</v>
@@ -2953,13 +2956,13 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D41" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2989,7 +2992,7 @@
         <v>2751.58</v>
       </c>
       <c r="N41" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O41">
         <v>-434.4600000000005</v>
@@ -3009,13 +3012,13 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D42" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3036,7 +3039,7 @@
         <v>1375.8</v>
       </c>
       <c r="K42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L42">
         <v>1342.44</v>
@@ -3045,7 +3048,7 @@
         <v>1342.44</v>
       </c>
       <c r="N42" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O42">
         <v>-494.619999999999</v>
@@ -3065,13 +3068,13 @@
         <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D43" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3092,7 +3095,7 @@
         <v>4056.4</v>
       </c>
       <c r="K43" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L43">
         <v>3853.58</v>
@@ -3101,7 +3104,7 @@
         <v>3853.58</v>
       </c>
       <c r="N43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O43">
         <v>-405.6400000000003</v>
@@ -3121,13 +3124,13 @@
         <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D44" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3145,7 +3148,7 @@
         <v>9686.25</v>
       </c>
       <c r="J44">
-        <v>386.35</v>
+        <v>388.3</v>
       </c>
       <c r="L44">
         <v>358.75</v>
@@ -3157,13 +3160,13 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>745.2</v>
+        <v>797.85</v>
       </c>
       <c r="Q44">
-        <v>745.2</v>
+        <v>797.85</v>
       </c>
       <c r="R44">
-        <v>7.69</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -3171,13 +3174,13 @@
         <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D45" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3207,7 +3210,7 @@
         <v>1574</v>
       </c>
       <c r="N45" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O45">
         <v>-578.9999999999998</v>
@@ -3227,13 +3230,13 @@
         <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3251,7 +3254,7 @@
         <v>9697.799999999999</v>
       </c>
       <c r="J46">
-        <v>365.05</v>
+        <v>361.9</v>
       </c>
       <c r="L46">
         <v>329.03</v>
@@ -3263,13 +3266,13 @@
         <v>0</v>
       </c>
       <c r="P46">
-        <v>523.6</v>
+        <v>435.4</v>
       </c>
       <c r="Q46">
-        <v>523.6</v>
+        <v>435.4</v>
       </c>
       <c r="R46">
-        <v>5.4</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -3277,13 +3280,13 @@
         <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D47" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3313,7 +3316,7 @@
         <v>2947.18</v>
       </c>
       <c r="N47" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O47">
         <v>-465.360000000001</v>
@@ -3333,13 +3336,13 @@
         <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D48" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3357,7 +3360,7 @@
         <v>7448.2</v>
       </c>
       <c r="J48">
-        <v>3889.9</v>
+        <v>3922.4</v>
       </c>
       <c r="L48">
         <v>3537.89</v>
@@ -3369,13 +3372,13 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>331.6</v>
+        <v>396.6</v>
       </c>
       <c r="Q48">
-        <v>331.6</v>
+        <v>396.6</v>
       </c>
       <c r="R48">
-        <v>4.45</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -3383,10 +3386,10 @@
         <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D49" t="s">
         <v>101</v>
@@ -3401,7 +3404,7 @@
         <v>3</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>8784.599999999999</v>
@@ -3409,23 +3412,29 @@
       <c r="J49">
         <v>3176.2</v>
       </c>
+      <c r="K49" t="s">
+        <v>40</v>
+      </c>
       <c r="L49">
         <v>3074.61</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>3074.61</v>
+      </c>
+      <c r="N49" t="s">
+        <v>108</v>
       </c>
       <c r="O49">
-        <v>292.8200000000002</v>
+        <v>585.6400000000008</v>
       </c>
       <c r="P49">
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>788.8200000000001</v>
+        <v>585.6400000000008</v>
       </c>
       <c r="R49">
-        <v>8.98</v>
+        <v>6.67</v>
       </c>
       <c r="S49" t="s">
         <v>38</v>
@@ -3436,13 +3445,13 @@
         <v>32</v>
       </c>
       <c r="B50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D50" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3472,7 +3481,7 @@
         <v>1982.08</v>
       </c>
       <c r="N50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O50">
         <v>-417.2800000000007</v>
@@ -3492,13 +3501,13 @@
         <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D51" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3528,7 +3537,7 @@
         <v>520.6</v>
       </c>
       <c r="N51" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O51">
         <v>-493.1999999999996</v>
@@ -3548,16 +3557,16 @@
         <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D52" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52">
         <v>413.15</v>
@@ -3566,31 +3575,34 @@
         <v>24</v>
       </c>
       <c r="H52">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I52">
         <v>9915.6</v>
       </c>
       <c r="J52">
-        <v>443.35</v>
+        <v>456.15</v>
       </c>
       <c r="L52">
-        <v>413.15</v>
+        <v>433.81</v>
       </c>
       <c r="M52">
         <v>0</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>495.7800000000007</v>
       </c>
       <c r="P52">
-        <v>724.8</v>
+        <v>516</v>
       </c>
       <c r="Q52">
-        <v>724.8</v>
+        <v>1011.78</v>
       </c>
       <c r="R52">
-        <v>7.31</v>
+        <v>10.2</v>
+      </c>
+      <c r="S52" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:19">
@@ -3598,13 +3610,13 @@
         <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D53" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3634,7 +3646,7 @@
         <v>185.38</v>
       </c>
       <c r="N53" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O53">
         <v>-118.190000000001</v>
@@ -3654,13 +3666,13 @@
         <v>34</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D54" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3678,7 +3690,7 @@
         <v>7950.4</v>
       </c>
       <c r="J54">
-        <v>4141</v>
+        <v>4257.8</v>
       </c>
       <c r="L54">
         <v>3776.44</v>
@@ -3690,13 +3702,13 @@
         <v>0</v>
       </c>
       <c r="P54">
-        <v>331.6</v>
+        <v>565.2</v>
       </c>
       <c r="Q54">
-        <v>331.6</v>
+        <v>565.2</v>
       </c>
       <c r="R54">
-        <v>4.17</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -3704,13 +3716,13 @@
         <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C55" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D55" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -3728,7 +3740,7 @@
         <v>9973.5</v>
       </c>
       <c r="J55">
-        <v>2226.4</v>
+        <v>2250.1</v>
       </c>
       <c r="L55">
         <v>2094.43</v>
@@ -3740,13 +3752,13 @@
         <v>398.9400000000001</v>
       </c>
       <c r="P55">
-        <v>695.1</v>
+        <v>766.2</v>
       </c>
       <c r="Q55">
-        <v>1094.04</v>
+        <v>1165.14</v>
       </c>
       <c r="R55">
-        <v>10.97</v>
+        <v>11.68</v>
       </c>
       <c r="S55" t="s">
         <v>38</v>
@@ -3757,13 +3769,13 @@
         <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C56" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D56" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3793,7 +3805,7 @@
         <v>814.2</v>
       </c>
       <c r="N56" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O56">
         <v>-490.599999999999</v>
@@ -3813,13 +3825,13 @@
         <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C57" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D57" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3837,7 +3849,7 @@
         <v>9578.25</v>
       </c>
       <c r="J57">
-        <v>663.75</v>
+        <v>671.15</v>
       </c>
       <c r="L57">
         <v>606.62</v>
@@ -3849,13 +3861,13 @@
         <v>0</v>
       </c>
       <c r="P57">
-        <v>378</v>
+        <v>489</v>
       </c>
       <c r="Q57">
-        <v>378</v>
+        <v>489</v>
       </c>
       <c r="R57">
-        <v>3.95</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -3863,13 +3875,13 @@
         <v>36</v>
       </c>
       <c r="B58" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C58" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D58" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3899,7 +3911,7 @@
         <v>922.92</v>
       </c>
       <c r="N58" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O58">
         <v>-485.8000000000004</v>
@@ -3919,13 +3931,13 @@
         <v>37</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C59" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D59" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3943,7 +3955,7 @@
         <v>9876.6</v>
       </c>
       <c r="J59">
-        <v>175.2</v>
+        <v>176.16</v>
       </c>
       <c r="L59">
         <v>164.61</v>
@@ -3955,13 +3967,13 @@
         <v>0</v>
       </c>
       <c r="P59">
-        <v>635.4</v>
+        <v>693</v>
       </c>
       <c r="Q59">
-        <v>635.4</v>
+        <v>693</v>
       </c>
       <c r="R59">
-        <v>6.43</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -3969,13 +3981,13 @@
         <v>37</v>
       </c>
       <c r="B60" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C60" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D60" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3993,7 +4005,7 @@
         <v>9944.179999999998</v>
       </c>
       <c r="J60">
-        <v>162.99</v>
+        <v>163.64</v>
       </c>
       <c r="L60">
         <v>152.37</v>
@@ -4005,13 +4017,13 @@
         <v>0</v>
       </c>
       <c r="P60">
-        <v>161.2</v>
+        <v>201.5</v>
       </c>
       <c r="Q60">
-        <v>161.2</v>
+        <v>201.5</v>
       </c>
       <c r="R60">
-        <v>1.62</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -4019,13 +4031,13 @@
         <v>37</v>
       </c>
       <c r="B61" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C61" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D61" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -4043,7 +4055,7 @@
         <v>9933</v>
       </c>
       <c r="J61">
-        <v>473.15</v>
+        <v>480.1</v>
       </c>
       <c r="L61">
         <v>428.92</v>
@@ -4055,13 +4067,13 @@
         <v>0</v>
       </c>
       <c r="P61">
-        <v>476.3</v>
+        <v>629.2</v>
       </c>
       <c r="Q61">
-        <v>476.3</v>
+        <v>629.2</v>
       </c>
       <c r="R61">
-        <v>4.8</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -4069,13 +4081,13 @@
         <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C62" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D62" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E62">
         <v>3</v>
@@ -4093,10 +4105,10 @@
         <v>9283.450000000001</v>
       </c>
       <c r="J62">
-        <v>971.85</v>
+        <v>982.65</v>
       </c>
       <c r="L62">
-        <v>932.1</v>
+        <v>954.45</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -4105,16 +4117,16 @@
         <v>675.1600000000004</v>
       </c>
       <c r="P62">
-        <v>511.6</v>
+        <v>554.8</v>
       </c>
       <c r="Q62">
-        <v>1186.76</v>
+        <v>1229.96</v>
       </c>
       <c r="R62">
-        <v>12.78</v>
+        <v>13.25</v>
       </c>
       <c r="S62" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -4122,13 +4134,13 @@
         <v>38</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C63" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D63" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -4158,7 +4170,7 @@
         <v>116.49</v>
       </c>
       <c r="N63" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O63">
         <v>-496.5300000000008</v>
@@ -4178,13 +4190,13 @@
         <v>38</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C64" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D64" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -4202,7 +4214,7 @@
         <v>9567.799999999999</v>
       </c>
       <c r="J64">
-        <v>432.8</v>
+        <v>431.7</v>
       </c>
       <c r="L64">
         <v>413.15</v>
@@ -4214,13 +4226,13 @@
         <v>0</v>
       </c>
       <c r="P64">
-        <v>-46.2</v>
+        <v>-70.40000000000001</v>
       </c>
       <c r="Q64">
-        <v>-46.2</v>
+        <v>-70.40000000000001</v>
       </c>
       <c r="R64">
-        <v>-0.48</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4228,13 +4240,13 @@
         <v>38</v>
       </c>
       <c r="B65" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C65" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D65" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -4252,7 +4264,7 @@
         <v>9407.4</v>
       </c>
       <c r="J65">
-        <v>1550.7</v>
+        <v>1561.7</v>
       </c>
       <c r="L65">
         <v>1489.51</v>
@@ -4264,13 +4276,13 @@
         <v>0</v>
       </c>
       <c r="P65">
-        <v>-103.2</v>
+        <v>-37.2</v>
       </c>
       <c r="Q65">
-        <v>-103.2</v>
+        <v>-37.2</v>
       </c>
       <c r="R65">
-        <v>-1.1</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4278,13 +4290,13 @@
         <v>38</v>
       </c>
       <c r="B66" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D66" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -4302,7 +4314,7 @@
         <v>9877.15</v>
       </c>
       <c r="J66">
-        <v>268.95</v>
+        <v>266.6</v>
       </c>
       <c r="L66">
         <v>253.6</v>
@@ -4314,13 +4326,13 @@
         <v>0</v>
       </c>
       <c r="P66">
-        <v>74</v>
+        <v>-12.95</v>
       </c>
       <c r="Q66">
-        <v>74</v>
+        <v>-12.95</v>
       </c>
       <c r="R66">
-        <v>0.75</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4328,13 +4340,13 @@
         <v>38</v>
       </c>
       <c r="B67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C67" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D67" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -4352,7 +4364,7 @@
         <v>5851.5</v>
       </c>
       <c r="J67">
-        <v>5753.5</v>
+        <v>5756.5</v>
       </c>
       <c r="L67">
         <v>5558.93</v>
@@ -4364,13 +4376,13 @@
         <v>0</v>
       </c>
       <c r="P67">
-        <v>-98</v>
+        <v>-95</v>
       </c>
       <c r="Q67">
-        <v>-98</v>
+        <v>-95</v>
       </c>
       <c r="R67">
-        <v>-1.67</v>
+        <v>-1.62</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -4378,13 +4390,13 @@
         <v>38</v>
       </c>
       <c r="B68" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C68" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -4402,7 +4414,7 @@
         <v>9602</v>
       </c>
       <c r="J68">
-        <v>472.4</v>
+        <v>467.15</v>
       </c>
       <c r="L68">
         <v>456.1</v>
@@ -4414,13 +4426,13 @@
         <v>0</v>
       </c>
       <c r="P68">
-        <v>-154</v>
+        <v>-259</v>
       </c>
       <c r="Q68">
-        <v>-154</v>
+        <v>-259</v>
       </c>
       <c r="R68">
-        <v>-1.6</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -4428,13 +4440,13 @@
         <v>38</v>
       </c>
       <c r="B69" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C69" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D69" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -4452,7 +4464,7 @@
         <v>8697.5</v>
       </c>
       <c r="J69">
-        <v>1742.2</v>
+        <v>1770.2</v>
       </c>
       <c r="L69">
         <v>1652.52</v>
@@ -4464,13 +4476,13 @@
         <v>0</v>
       </c>
       <c r="P69">
-        <v>13.5</v>
+        <v>153.5</v>
       </c>
       <c r="Q69">
-        <v>13.5</v>
+        <v>153.5</v>
       </c>
       <c r="R69">
-        <v>0.16</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -4478,13 +4490,13 @@
         <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C70" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D70" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -4502,7 +4514,7 @@
         <v>5198.5</v>
       </c>
       <c r="J70">
-        <v>5198.5</v>
+        <v>5233</v>
       </c>
       <c r="L70">
         <v>4938.57</v>
@@ -4514,13 +4526,13 @@
         <v>0</v>
       </c>
       <c r="P70">
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="R70">
-        <v>0</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -4528,13 +4540,13 @@
         <v>39</v>
       </c>
       <c r="B71" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C71" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D71" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -4552,7 +4564,7 @@
         <v>9785.75</v>
       </c>
       <c r="J71">
-        <v>752.75</v>
+        <v>754.85</v>
       </c>
       <c r="L71">
         <v>715.11</v>
@@ -4564,12 +4576,112 @@
         <v>0</v>
       </c>
       <c r="P71">
-        <v>0</v>
+        <v>27.3</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>27.3</v>
       </c>
       <c r="R71">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="A72" t="s">
+        <v>40</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" t="s">
+        <v>100</v>
+      </c>
+      <c r="D72" t="s">
+        <v>102</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>124.41</v>
+      </c>
+      <c r="G72">
+        <v>80</v>
+      </c>
+      <c r="H72">
+        <v>80</v>
+      </c>
+      <c r="I72">
+        <v>9952.799999999999</v>
+      </c>
+      <c r="J72">
+        <v>124.41</v>
+      </c>
+      <c r="L72">
+        <v>118.19</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
+      <c r="A73" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" t="s">
+        <v>99</v>
+      </c>
+      <c r="D73" t="s">
+        <v>102</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1621.7</v>
+      </c>
+      <c r="G73">
+        <v>6</v>
+      </c>
+      <c r="H73">
+        <v>6</v>
+      </c>
+      <c r="I73">
+        <v>9730.200000000001</v>
+      </c>
+      <c r="J73">
+        <v>1621.7</v>
+      </c>
+      <c r="L73">
+        <v>1540.62</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
         <v>0</v>
       </c>
     </row>

--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="114">
   <si>
     <t>Buy Date</t>
   </si>
@@ -139,6 +139,9 @@
     <t>2026-02-09</t>
   </si>
   <si>
+    <t>2026-02-10</t>
+  </si>
+  <si>
     <t>ADANIENT</t>
   </si>
   <si>
@@ -308,6 +311,12 @@
   </si>
   <si>
     <t>MARICO</t>
+  </si>
+  <si>
+    <t>ADANIPOWER</t>
+  </si>
+  <si>
+    <t>NAUKRI</t>
   </si>
   <si>
     <t>Value Buy</t>
@@ -710,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S73"/>
+  <dimension ref="A1:S77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -790,13 +799,13 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -826,7 +835,7 @@
         <v>2093.04</v>
       </c>
       <c r="N2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O2">
         <v>-440.6399999999994</v>
@@ -846,13 +855,13 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -870,7 +879,7 @@
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1341.4</v>
+        <v>1356.7</v>
       </c>
       <c r="L3">
         <v>1293.6</v>
@@ -882,13 +891,13 @@
         <v>492.8000000000002</v>
       </c>
       <c r="P3">
-        <v>437.6</v>
+        <v>498.8</v>
       </c>
       <c r="Q3">
-        <v>930.4</v>
+        <v>991.6</v>
       </c>
       <c r="R3">
-        <v>9.44</v>
+        <v>10.06</v>
       </c>
       <c r="S3" t="s">
         <v>34</v>
@@ -899,13 +908,13 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -935,7 +944,7 @@
         <v>5739.43</v>
       </c>
       <c r="N4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O4">
         <v>-302.0699999999997</v>
@@ -955,13 +964,13 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -979,7 +988,7 @@
         <v>8527.200000000001</v>
       </c>
       <c r="J5">
-        <v>2926.3</v>
+        <v>2953.9</v>
       </c>
       <c r="L5">
         <v>2700.28</v>
@@ -991,13 +1000,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>251.7</v>
+        <v>334.5</v>
       </c>
       <c r="Q5">
-        <v>251.7</v>
+        <v>334.5</v>
       </c>
       <c r="R5">
-        <v>2.95</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1005,13 +1014,13 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1029,7 +1038,7 @@
         <v>9173.200000000001</v>
       </c>
       <c r="J6">
-        <v>2435</v>
+        <v>2453.6</v>
       </c>
       <c r="L6">
         <v>2178.64</v>
@@ -1041,13 +1050,13 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>566.8</v>
+        <v>641.2</v>
       </c>
       <c r="Q6">
-        <v>566.8</v>
+        <v>641.2</v>
       </c>
       <c r="R6">
-        <v>6.18</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1055,13 +1064,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1079,7 +1088,7 @@
         <v>8960</v>
       </c>
       <c r="J7">
-        <v>1295.6</v>
+        <v>1308.6</v>
       </c>
       <c r="L7">
         <v>1216</v>
@@ -1091,13 +1100,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>109.2</v>
+        <v>200.2</v>
       </c>
       <c r="Q7">
-        <v>109.2</v>
+        <v>200.2</v>
       </c>
       <c r="R7">
-        <v>1.22</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1105,13 +1114,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1141,7 +1150,7 @@
         <v>3066.4</v>
       </c>
       <c r="N8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O8">
         <v>-522.8999999999992</v>
@@ -1161,13 +1170,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1197,7 +1206,7 @@
         <v>2901.59</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O9">
         <v>-458.1300000000001</v>
@@ -1217,13 +1226,13 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1253,7 +1262,7 @@
         <v>2922.11</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O10">
         <v>-461.3699999999999</v>
@@ -1273,13 +1282,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1300,7 +1309,7 @@
         <v>183.56</v>
       </c>
       <c r="K11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L11">
         <v>180.92</v>
@@ -1309,7 +1318,7 @@
         <v>180.92</v>
       </c>
       <c r="N11" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O11">
         <v>749.6499999999999</v>
@@ -1324,7 +1333,7 @@
         <v>7.5</v>
       </c>
       <c r="S11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1332,13 +1341,13 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1368,7 +1377,7 @@
         <v>1651</v>
       </c>
       <c r="N12" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O12">
         <v>599.5200000000004</v>
@@ -1391,13 +1400,13 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1427,7 +1436,7 @@
         <v>732.4</v>
       </c>
       <c r="N13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O13">
         <v>-462.6000000000008</v>
@@ -1447,13 +1456,13 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1483,7 +1492,7 @@
         <v>651.2</v>
       </c>
       <c r="N14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1503,13 +1512,13 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1539,7 +1548,7 @@
         <v>1135.44</v>
       </c>
       <c r="N15" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O15">
         <v>-478.0799999999999</v>
@@ -1559,13 +1568,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1595,7 +1604,7 @@
         <v>5731.82</v>
       </c>
       <c r="N16" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O16">
         <v>-301.6800000000003</v>
@@ -1615,13 +1624,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1639,7 +1648,7 @@
         <v>9282</v>
       </c>
       <c r="J17">
-        <v>9590</v>
+        <v>9774</v>
       </c>
       <c r="L17">
         <v>8817.9</v>
@@ -1651,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>308</v>
+        <v>492</v>
       </c>
       <c r="Q17">
-        <v>308</v>
+        <v>492</v>
       </c>
       <c r="R17">
-        <v>3.32</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1665,13 +1674,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1701,7 +1710,7 @@
         <v>282.8</v>
       </c>
       <c r="N18" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1721,13 +1730,13 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D19" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1757,7 +1766,7 @@
         <v>1342.35</v>
       </c>
       <c r="N19" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O19">
         <v>-494.5500000000006</v>
@@ -1777,13 +1786,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1813,7 +1822,7 @@
         <v>5425.45</v>
       </c>
       <c r="N20" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O20">
         <v>-285.5500000000002</v>
@@ -1833,13 +1842,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1860,7 +1869,7 @@
         <v>132.36</v>
       </c>
       <c r="K21" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L21">
         <v>128.5</v>
@@ -1869,7 +1878,7 @@
         <v>128.499</v>
       </c>
       <c r="N21" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O21">
         <v>495.639</v>
@@ -1889,13 +1898,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1916,7 +1925,7 @@
         <v>4021.8</v>
       </c>
       <c r="K22" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L22">
         <v>3974.1</v>
@@ -1925,7 +1934,7 @@
         <v>3974.1</v>
       </c>
       <c r="N22" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1945,13 +1954,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1981,7 +1990,7 @@
         <v>972.9400000000001</v>
       </c>
       <c r="N23" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O23">
         <v>-460.8900000000003</v>
@@ -2001,13 +2010,13 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2037,7 +2046,7 @@
         <v>158.14</v>
       </c>
       <c r="N24" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O24">
         <v>-499.2000000000013</v>
@@ -2057,13 +2066,13 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2093,7 +2102,7 @@
         <v>1001.11</v>
       </c>
       <c r="N25" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O25">
         <v>-474.2099999999995</v>
@@ -2113,13 +2122,13 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2140,7 +2149,7 @@
         <v>267.45</v>
       </c>
       <c r="K26" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L26">
         <v>253.98</v>
@@ -2149,7 +2158,7 @@
         <v>252</v>
       </c>
       <c r="N26" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O26">
         <v>-567.9500000000008</v>
@@ -2169,13 +2178,13 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2205,7 +2214,7 @@
         <v>951.52</v>
       </c>
       <c r="N27" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O27">
         <v>-450.7200000000004</v>
@@ -2225,13 +2234,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2261,7 +2270,7 @@
         <v>1880.9</v>
       </c>
       <c r="N28" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O28">
         <v>-495</v>
@@ -2281,13 +2290,13 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2317,7 +2326,7 @@
         <v>854</v>
       </c>
       <c r="N29" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O29">
         <v>-523.0499999999995</v>
@@ -2337,13 +2346,13 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2373,7 +2382,7 @@
         <v>6310.38</v>
       </c>
       <c r="N30" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O30">
         <v>-332.1199999999999</v>
@@ -2393,13 +2402,13 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2420,7 +2429,7 @@
         <v>546.75</v>
       </c>
       <c r="K31" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L31">
         <v>541.83</v>
@@ -2429,7 +2438,7 @@
         <v>541.83</v>
       </c>
       <c r="N31" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O31">
         <v>-484.8399999999997</v>
@@ -2449,13 +2458,13 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2485,7 +2494,7 @@
         <v>738.96</v>
       </c>
       <c r="N32" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O32">
         <v>-466.6799999999998</v>
@@ -2505,13 +2514,13 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2541,7 +2550,7 @@
         <v>637.64</v>
       </c>
       <c r="N33" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O33">
         <v>-469.8400000000008</v>
@@ -2561,13 +2570,13 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D34" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2588,7 +2597,7 @@
         <v>1728.7</v>
       </c>
       <c r="K34" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L34">
         <v>1693.47</v>
@@ -2597,7 +2606,7 @@
         <v>1693.47</v>
       </c>
       <c r="N34" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O34">
         <v>-445.6499999999994</v>
@@ -2617,13 +2626,13 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D35" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2644,7 +2653,7 @@
         <v>414.55</v>
       </c>
       <c r="K35" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L35">
         <v>409.31</v>
@@ -2653,7 +2662,7 @@
         <v>409.31</v>
       </c>
       <c r="N35" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O35">
         <v>-495.4200000000005</v>
@@ -2673,13 +2682,13 @@
         <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D36" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2709,7 +2718,7 @@
         <v>4769.95</v>
       </c>
       <c r="N36" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O36">
         <v>-251.0500000000001</v>
@@ -2729,13 +2738,13 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2765,7 +2774,7 @@
         <v>109.86</v>
       </c>
       <c r="N37" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O37">
         <v>-497.0800000000001</v>
@@ -2785,13 +2794,13 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -2821,7 +2830,7 @@
         <v>439.27</v>
       </c>
       <c r="N38" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O38">
         <v>711.2249999999999</v>
@@ -2844,13 +2853,13 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D39" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2880,7 +2889,7 @@
         <v>260.54</v>
       </c>
       <c r="N39" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O39">
         <v>-493.5599999999993</v>
@@ -2900,13 +2909,13 @@
         <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D40" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2936,7 +2945,7 @@
         <v>1578.33</v>
       </c>
       <c r="N40" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O40">
         <v>-498.420000000001</v>
@@ -2956,13 +2965,13 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D41" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2992,7 +3001,7 @@
         <v>2751.58</v>
       </c>
       <c r="N41" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O41">
         <v>-434.4600000000005</v>
@@ -3012,13 +3021,13 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D42" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3039,7 +3048,7 @@
         <v>1375.8</v>
       </c>
       <c r="K42" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L42">
         <v>1342.44</v>
@@ -3048,7 +3057,7 @@
         <v>1342.44</v>
       </c>
       <c r="N42" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O42">
         <v>-494.619999999999</v>
@@ -3068,13 +3077,13 @@
         <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D43" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3095,7 +3104,7 @@
         <v>4056.4</v>
       </c>
       <c r="K43" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L43">
         <v>3853.58</v>
@@ -3104,7 +3113,7 @@
         <v>3853.58</v>
       </c>
       <c r="N43" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O43">
         <v>-405.6400000000003</v>
@@ -3124,13 +3133,13 @@
         <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D44" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3148,7 +3157,7 @@
         <v>9686.25</v>
       </c>
       <c r="J44">
-        <v>388.3</v>
+        <v>386.35</v>
       </c>
       <c r="L44">
         <v>358.75</v>
@@ -3160,13 +3169,13 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>797.85</v>
+        <v>745.2</v>
       </c>
       <c r="Q44">
-        <v>797.85</v>
+        <v>745.2</v>
       </c>
       <c r="R44">
-        <v>8.24</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -3174,13 +3183,13 @@
         <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D45" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3210,7 +3219,7 @@
         <v>1574</v>
       </c>
       <c r="N45" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O45">
         <v>-578.9999999999998</v>
@@ -3230,13 +3239,13 @@
         <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3254,7 +3263,7 @@
         <v>9697.799999999999</v>
       </c>
       <c r="J46">
-        <v>361.9</v>
+        <v>366.9</v>
       </c>
       <c r="L46">
         <v>329.03</v>
@@ -3266,13 +3275,13 @@
         <v>0</v>
       </c>
       <c r="P46">
-        <v>435.4</v>
+        <v>575.4</v>
       </c>
       <c r="Q46">
-        <v>435.4</v>
+        <v>575.4</v>
       </c>
       <c r="R46">
-        <v>4.49</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -3280,13 +3289,13 @@
         <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D47" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3316,7 +3325,7 @@
         <v>2947.18</v>
       </c>
       <c r="N47" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O47">
         <v>-465.360000000001</v>
@@ -3336,13 +3345,13 @@
         <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D48" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3360,7 +3369,7 @@
         <v>7448.2</v>
       </c>
       <c r="J48">
-        <v>3922.4</v>
+        <v>4002.2</v>
       </c>
       <c r="L48">
         <v>3537.89</v>
@@ -3372,13 +3381,13 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>396.6</v>
+        <v>556.2</v>
       </c>
       <c r="Q48">
-        <v>396.6</v>
+        <v>556.2</v>
       </c>
       <c r="R48">
-        <v>5.32</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -3386,13 +3395,13 @@
         <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D49" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -3422,7 +3431,7 @@
         <v>3074.61</v>
       </c>
       <c r="N49" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O49">
         <v>585.6400000000008</v>
@@ -3445,13 +3454,13 @@
         <v>32</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D50" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3481,7 +3490,7 @@
         <v>1982.08</v>
       </c>
       <c r="N50" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O50">
         <v>-417.2800000000007</v>
@@ -3501,13 +3510,13 @@
         <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D51" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3537,7 +3546,7 @@
         <v>520.6</v>
       </c>
       <c r="N51" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O51">
         <v>-493.1999999999996</v>
@@ -3557,13 +3566,13 @@
         <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D52" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -3581,7 +3590,7 @@
         <v>9915.6</v>
       </c>
       <c r="J52">
-        <v>456.15</v>
+        <v>459.15</v>
       </c>
       <c r="L52">
         <v>433.81</v>
@@ -3593,13 +3602,13 @@
         <v>495.7800000000007</v>
       </c>
       <c r="P52">
-        <v>516</v>
+        <v>552</v>
       </c>
       <c r="Q52">
-        <v>1011.78</v>
+        <v>1047.78</v>
       </c>
       <c r="R52">
-        <v>10.2</v>
+        <v>10.57</v>
       </c>
       <c r="S52" t="s">
         <v>40</v>
@@ -3610,13 +3619,13 @@
         <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D53" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3646,7 +3655,7 @@
         <v>185.38</v>
       </c>
       <c r="N53" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O53">
         <v>-118.190000000001</v>
@@ -3666,16 +3675,16 @@
         <v>34</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D54" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
         <v>3975.2</v>
@@ -3690,10 +3699,10 @@
         <v>7950.4</v>
       </c>
       <c r="J54">
-        <v>4257.8</v>
+        <v>4269.1</v>
       </c>
       <c r="L54">
-        <v>3776.44</v>
+        <v>3975.2</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -3702,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="P54">
-        <v>565.2</v>
+        <v>587.8</v>
       </c>
       <c r="Q54">
-        <v>565.2</v>
+        <v>587.8</v>
       </c>
       <c r="R54">
-        <v>7.11</v>
+        <v>7.39</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -3716,13 +3725,13 @@
         <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C55" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D55" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -3740,7 +3749,7 @@
         <v>9973.5</v>
       </c>
       <c r="J55">
-        <v>2250.1</v>
+        <v>2228.4</v>
       </c>
       <c r="L55">
         <v>2094.43</v>
@@ -3752,13 +3761,13 @@
         <v>398.9400000000001</v>
       </c>
       <c r="P55">
-        <v>766.2</v>
+        <v>701.1</v>
       </c>
       <c r="Q55">
-        <v>1165.14</v>
+        <v>1100.04</v>
       </c>
       <c r="R55">
-        <v>11.68</v>
+        <v>11.03</v>
       </c>
       <c r="S55" t="s">
         <v>38</v>
@@ -3769,13 +3778,13 @@
         <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C56" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D56" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3805,7 +3814,7 @@
         <v>814.2</v>
       </c>
       <c r="N56" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O56">
         <v>-490.599999999999</v>
@@ -3825,13 +3834,13 @@
         <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C57" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D57" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3849,7 +3858,7 @@
         <v>9578.25</v>
       </c>
       <c r="J57">
-        <v>671.15</v>
+        <v>671.8</v>
       </c>
       <c r="L57">
         <v>606.62</v>
@@ -3861,13 +3870,13 @@
         <v>0</v>
       </c>
       <c r="P57">
-        <v>489</v>
+        <v>498.75</v>
       </c>
       <c r="Q57">
-        <v>489</v>
+        <v>498.75</v>
       </c>
       <c r="R57">
-        <v>5.11</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -3875,13 +3884,13 @@
         <v>36</v>
       </c>
       <c r="B58" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C58" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D58" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3911,7 +3920,7 @@
         <v>922.92</v>
       </c>
       <c r="N58" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O58">
         <v>-485.8000000000004</v>
@@ -3931,13 +3940,13 @@
         <v>37</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D59" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3955,7 +3964,7 @@
         <v>9876.6</v>
       </c>
       <c r="J59">
-        <v>176.16</v>
+        <v>178.21</v>
       </c>
       <c r="L59">
         <v>164.61</v>
@@ -3967,13 +3976,13 @@
         <v>0</v>
       </c>
       <c r="P59">
-        <v>693</v>
+        <v>816</v>
       </c>
       <c r="Q59">
-        <v>693</v>
+        <v>816</v>
       </c>
       <c r="R59">
-        <v>7.02</v>
+        <v>8.26</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -3981,13 +3990,13 @@
         <v>37</v>
       </c>
       <c r="B60" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C60" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D60" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -4005,7 +4014,7 @@
         <v>9944.179999999998</v>
       </c>
       <c r="J60">
-        <v>163.64</v>
+        <v>164.55</v>
       </c>
       <c r="L60">
         <v>152.37</v>
@@ -4017,13 +4026,13 @@
         <v>0</v>
       </c>
       <c r="P60">
-        <v>201.5</v>
+        <v>257.92</v>
       </c>
       <c r="Q60">
-        <v>201.5</v>
+        <v>257.92</v>
       </c>
       <c r="R60">
-        <v>2.03</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -4031,13 +4040,13 @@
         <v>37</v>
       </c>
       <c r="B61" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C61" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D61" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -4055,7 +4064,7 @@
         <v>9933</v>
       </c>
       <c r="J61">
-        <v>480.1</v>
+        <v>483.7</v>
       </c>
       <c r="L61">
         <v>428.92</v>
@@ -4067,13 +4076,13 @@
         <v>0</v>
       </c>
       <c r="P61">
-        <v>629.2</v>
+        <v>708.4</v>
       </c>
       <c r="Q61">
-        <v>629.2</v>
+        <v>708.4</v>
       </c>
       <c r="R61">
-        <v>6.33</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -4081,13 +4090,13 @@
         <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C62" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D62" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E62">
         <v>3</v>
@@ -4099,7 +4108,7 @@
         <v>11</v>
       </c>
       <c r="H62">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <v>9283.450000000001</v>
@@ -4107,26 +4116,32 @@
       <c r="J62">
         <v>982.65</v>
       </c>
+      <c r="K62" t="s">
+        <v>41</v>
+      </c>
       <c r="L62">
-        <v>954.45</v>
+        <v>967.15</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <v>967.15</v>
+      </c>
+      <c r="N62" t="s">
+        <v>111</v>
       </c>
       <c r="O62">
-        <v>675.1600000000004</v>
+        <v>1167.96</v>
       </c>
       <c r="P62">
-        <v>554.8</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>1229.96</v>
+        <v>1167.96</v>
       </c>
       <c r="R62">
-        <v>13.25</v>
+        <v>12.58</v>
       </c>
       <c r="S62" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -4134,13 +4149,13 @@
         <v>38</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C63" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D63" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -4170,7 +4185,7 @@
         <v>116.49</v>
       </c>
       <c r="N63" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O63">
         <v>-496.5300000000008</v>
@@ -4190,13 +4205,13 @@
         <v>38</v>
       </c>
       <c r="B64" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C64" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D64" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -4214,7 +4229,7 @@
         <v>9567.799999999999</v>
       </c>
       <c r="J64">
-        <v>431.7</v>
+        <v>430.95</v>
       </c>
       <c r="L64">
         <v>413.15</v>
@@ -4226,13 +4241,13 @@
         <v>0</v>
       </c>
       <c r="P64">
-        <v>-70.40000000000001</v>
+        <v>-86.90000000000001</v>
       </c>
       <c r="Q64">
-        <v>-70.40000000000001</v>
+        <v>-86.90000000000001</v>
       </c>
       <c r="R64">
-        <v>-0.74</v>
+        <v>-0.91</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4240,13 +4255,13 @@
         <v>38</v>
       </c>
       <c r="B65" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C65" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D65" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -4264,7 +4279,7 @@
         <v>9407.4</v>
       </c>
       <c r="J65">
-        <v>1561.7</v>
+        <v>1554.7</v>
       </c>
       <c r="L65">
         <v>1489.51</v>
@@ -4276,13 +4291,13 @@
         <v>0</v>
       </c>
       <c r="P65">
-        <v>-37.2</v>
+        <v>-79.2</v>
       </c>
       <c r="Q65">
-        <v>-37.2</v>
+        <v>-79.2</v>
       </c>
       <c r="R65">
-        <v>-0.4</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4290,13 +4305,13 @@
         <v>38</v>
       </c>
       <c r="B66" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C66" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D66" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -4314,7 +4329,7 @@
         <v>9877.15</v>
       </c>
       <c r="J66">
-        <v>266.6</v>
+        <v>272.15</v>
       </c>
       <c r="L66">
         <v>253.6</v>
@@ -4326,13 +4341,13 @@
         <v>0</v>
       </c>
       <c r="P66">
-        <v>-12.95</v>
+        <v>192.4</v>
       </c>
       <c r="Q66">
-        <v>-12.95</v>
+        <v>192.4</v>
       </c>
       <c r="R66">
-        <v>-0.13</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4340,13 +4355,13 @@
         <v>38</v>
       </c>
       <c r="B67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C67" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D67" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -4364,7 +4379,7 @@
         <v>5851.5</v>
       </c>
       <c r="J67">
-        <v>5756.5</v>
+        <v>5753.5</v>
       </c>
       <c r="L67">
         <v>5558.93</v>
@@ -4376,13 +4391,13 @@
         <v>0</v>
       </c>
       <c r="P67">
-        <v>-95</v>
+        <v>-98</v>
       </c>
       <c r="Q67">
-        <v>-95</v>
+        <v>-98</v>
       </c>
       <c r="R67">
-        <v>-1.62</v>
+        <v>-1.67</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -4390,13 +4405,13 @@
         <v>38</v>
       </c>
       <c r="B68" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C68" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D68" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -4414,7 +4429,7 @@
         <v>9602</v>
       </c>
       <c r="J68">
-        <v>467.15</v>
+        <v>458.65</v>
       </c>
       <c r="L68">
         <v>456.1</v>
@@ -4426,13 +4441,13 @@
         <v>0</v>
       </c>
       <c r="P68">
-        <v>-259</v>
+        <v>-429</v>
       </c>
       <c r="Q68">
-        <v>-259</v>
+        <v>-429</v>
       </c>
       <c r="R68">
-        <v>-2.7</v>
+        <v>-4.47</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -4440,13 +4455,13 @@
         <v>38</v>
       </c>
       <c r="B69" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C69" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -4464,7 +4479,7 @@
         <v>8697.5</v>
       </c>
       <c r="J69">
-        <v>1770.2</v>
+        <v>1726.2</v>
       </c>
       <c r="L69">
         <v>1652.52</v>
@@ -4476,13 +4491,13 @@
         <v>0</v>
       </c>
       <c r="P69">
-        <v>153.5</v>
+        <v>-66.5</v>
       </c>
       <c r="Q69">
-        <v>153.5</v>
+        <v>-66.5</v>
       </c>
       <c r="R69">
-        <v>1.76</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -4490,13 +4505,13 @@
         <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C70" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D70" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -4514,7 +4529,7 @@
         <v>5198.5</v>
       </c>
       <c r="J70">
-        <v>5233</v>
+        <v>5381</v>
       </c>
       <c r="L70">
         <v>4938.57</v>
@@ -4526,13 +4541,13 @@
         <v>0</v>
       </c>
       <c r="P70">
-        <v>34.5</v>
+        <v>182.5</v>
       </c>
       <c r="Q70">
-        <v>34.5</v>
+        <v>182.5</v>
       </c>
       <c r="R70">
-        <v>0.66</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -4540,13 +4555,13 @@
         <v>39</v>
       </c>
       <c r="B71" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C71" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D71" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -4564,7 +4579,7 @@
         <v>9785.75</v>
       </c>
       <c r="J71">
-        <v>754.85</v>
+        <v>764.85</v>
       </c>
       <c r="L71">
         <v>715.11</v>
@@ -4576,13 +4591,13 @@
         <v>0</v>
       </c>
       <c r="P71">
-        <v>27.3</v>
+        <v>157.3</v>
       </c>
       <c r="Q71">
-        <v>27.3</v>
+        <v>157.3</v>
       </c>
       <c r="R71">
-        <v>0.28</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -4590,13 +4605,13 @@
         <v>40</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C72" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D72" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -4614,7 +4629,7 @@
         <v>9952.799999999999</v>
       </c>
       <c r="J72">
-        <v>124.41</v>
+        <v>129.43</v>
       </c>
       <c r="L72">
         <v>118.19</v>
@@ -4626,13 +4641,13 @@
         <v>0</v>
       </c>
       <c r="P72">
-        <v>0</v>
+        <v>401.6</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>401.6</v>
       </c>
       <c r="R72">
-        <v>0</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -4640,13 +4655,13 @@
         <v>40</v>
       </c>
       <c r="B73" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C73" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D73" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -4664,7 +4679,7 @@
         <v>9730.200000000001</v>
       </c>
       <c r="J73">
-        <v>1621.7</v>
+        <v>1644.6</v>
       </c>
       <c r="L73">
         <v>1540.62</v>
@@ -4676,12 +4691,212 @@
         <v>0</v>
       </c>
       <c r="P73">
-        <v>0</v>
+        <v>137.4</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>137.4</v>
       </c>
       <c r="R73">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="A74" t="s">
+        <v>41</v>
+      </c>
+      <c r="B74" t="s">
+        <v>58</v>
+      </c>
+      <c r="C74" t="s">
+        <v>103</v>
+      </c>
+      <c r="D74" t="s">
+        <v>105</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>276.1</v>
+      </c>
+      <c r="G74">
+        <v>36</v>
+      </c>
+      <c r="H74">
+        <v>36</v>
+      </c>
+      <c r="I74">
+        <v>9939.6</v>
+      </c>
+      <c r="J74">
+        <v>276.1</v>
+      </c>
+      <c r="L74">
+        <v>262.3</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75" t="s">
+        <v>41</v>
+      </c>
+      <c r="B75" t="s">
+        <v>99</v>
+      </c>
+      <c r="C75" t="s">
+        <v>103</v>
+      </c>
+      <c r="D75" t="s">
+        <v>105</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>149.05</v>
+      </c>
+      <c r="G75">
+        <v>67</v>
+      </c>
+      <c r="H75">
+        <v>67</v>
+      </c>
+      <c r="I75">
+        <v>9986.35</v>
+      </c>
+      <c r="J75">
+        <v>149.05</v>
+      </c>
+      <c r="L75">
+        <v>141.6</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
+      <c r="A76" t="s">
+        <v>41</v>
+      </c>
+      <c r="B76" t="s">
+        <v>100</v>
+      </c>
+      <c r="C76" t="s">
+        <v>101</v>
+      </c>
+      <c r="D76" t="s">
+        <v>105</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1194.3</v>
+      </c>
+      <c r="G76">
+        <v>8</v>
+      </c>
+      <c r="H76">
+        <v>8</v>
+      </c>
+      <c r="I76">
+        <v>9554.4</v>
+      </c>
+      <c r="J76">
+        <v>1194.3</v>
+      </c>
+      <c r="L76">
+        <v>1134.58</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="A77" t="s">
+        <v>41</v>
+      </c>
+      <c r="B77" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77" t="s">
+        <v>101</v>
+      </c>
+      <c r="D77" t="s">
+        <v>105</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>2984.6</v>
+      </c>
+      <c r="G77">
+        <v>3</v>
+      </c>
+      <c r="H77">
+        <v>3</v>
+      </c>
+      <c r="I77">
+        <v>8953.799999999999</v>
+      </c>
+      <c r="J77">
+        <v>2984.6</v>
+      </c>
+      <c r="L77">
+        <v>2835.37</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
         <v>0</v>
       </c>
     </row>

--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="115">
   <si>
     <t>Buy Date</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>2026-02-10</t>
+  </si>
+  <si>
+    <t>2026-02-11</t>
   </si>
   <si>
     <t>ADANIENT</t>
@@ -719,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S77"/>
+  <dimension ref="A1:S78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -799,13 +802,13 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -835,7 +838,7 @@
         <v>2093.04</v>
       </c>
       <c r="N2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O2">
         <v>-440.6399999999994</v>
@@ -855,13 +858,13 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -879,7 +882,7 @@
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1356.7</v>
+        <v>1347.3</v>
       </c>
       <c r="L3">
         <v>1293.6</v>
@@ -891,13 +894,13 @@
         <v>492.8000000000002</v>
       </c>
       <c r="P3">
-        <v>498.8</v>
+        <v>461.2</v>
       </c>
       <c r="Q3">
-        <v>991.6</v>
+        <v>954</v>
       </c>
       <c r="R3">
-        <v>10.06</v>
+        <v>9.68</v>
       </c>
       <c r="S3" t="s">
         <v>34</v>
@@ -908,13 +911,13 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -944,7 +947,7 @@
         <v>5739.43</v>
       </c>
       <c r="N4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O4">
         <v>-302.0699999999997</v>
@@ -964,13 +967,13 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -988,7 +991,7 @@
         <v>8527.200000000001</v>
       </c>
       <c r="J5">
-        <v>2953.9</v>
+        <v>2932.6</v>
       </c>
       <c r="L5">
         <v>2700.28</v>
@@ -1000,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>334.5</v>
+        <v>270.6</v>
       </c>
       <c r="Q5">
-        <v>334.5</v>
+        <v>270.6</v>
       </c>
       <c r="R5">
-        <v>3.92</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1014,13 +1017,13 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1038,7 +1041,7 @@
         <v>9173.200000000001</v>
       </c>
       <c r="J6">
-        <v>2453.6</v>
+        <v>2462.9</v>
       </c>
       <c r="L6">
         <v>2178.64</v>
@@ -1050,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>641.2</v>
+        <v>678.4</v>
       </c>
       <c r="Q6">
-        <v>641.2</v>
+        <v>678.4</v>
       </c>
       <c r="R6">
-        <v>6.99</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1064,13 +1067,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1088,7 +1091,7 @@
         <v>8960</v>
       </c>
       <c r="J7">
-        <v>1308.6</v>
+        <v>1305.3</v>
       </c>
       <c r="L7">
         <v>1216</v>
@@ -1100,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>200.2</v>
+        <v>177.1</v>
       </c>
       <c r="Q7">
-        <v>200.2</v>
+        <v>177.1</v>
       </c>
       <c r="R7">
-        <v>2.23</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1114,13 +1117,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1150,7 +1153,7 @@
         <v>3066.4</v>
       </c>
       <c r="N8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O8">
         <v>-522.8999999999992</v>
@@ -1170,13 +1173,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1206,7 +1209,7 @@
         <v>2901.59</v>
       </c>
       <c r="N9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O9">
         <v>-458.1300000000001</v>
@@ -1226,13 +1229,13 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1262,7 +1265,7 @@
         <v>2922.11</v>
       </c>
       <c r="N10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O10">
         <v>-461.3699999999999</v>
@@ -1282,13 +1285,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1309,7 +1312,7 @@
         <v>183.56</v>
       </c>
       <c r="K11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L11">
         <v>180.92</v>
@@ -1318,7 +1321,7 @@
         <v>180.92</v>
       </c>
       <c r="N11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O11">
         <v>749.6499999999999</v>
@@ -1333,7 +1336,7 @@
         <v>7.5</v>
       </c>
       <c r="S11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1341,13 +1344,13 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1377,7 +1380,7 @@
         <v>1651</v>
       </c>
       <c r="N12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O12">
         <v>599.5200000000004</v>
@@ -1400,13 +1403,13 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1436,7 +1439,7 @@
         <v>732.4</v>
       </c>
       <c r="N13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O13">
         <v>-462.6000000000008</v>
@@ -1456,13 +1459,13 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1492,7 +1495,7 @@
         <v>651.2</v>
       </c>
       <c r="N14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1512,13 +1515,13 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1548,7 +1551,7 @@
         <v>1135.44</v>
       </c>
       <c r="N15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O15">
         <v>-478.0799999999999</v>
@@ -1568,13 +1571,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1604,7 +1607,7 @@
         <v>5731.82</v>
       </c>
       <c r="N16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O16">
         <v>-301.6800000000003</v>
@@ -1624,13 +1627,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1648,7 +1651,7 @@
         <v>9282</v>
       </c>
       <c r="J17">
-        <v>9774</v>
+        <v>9869.5</v>
       </c>
       <c r="L17">
         <v>8817.9</v>
@@ -1660,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>492</v>
+        <v>587.5</v>
       </c>
       <c r="Q17">
-        <v>492</v>
+        <v>587.5</v>
       </c>
       <c r="R17">
-        <v>5.3</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1674,13 +1677,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1710,7 +1713,7 @@
         <v>282.8</v>
       </c>
       <c r="N18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1730,13 +1733,13 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1766,7 +1769,7 @@
         <v>1342.35</v>
       </c>
       <c r="N19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O19">
         <v>-494.5500000000006</v>
@@ -1786,13 +1789,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1822,7 +1825,7 @@
         <v>5425.45</v>
       </c>
       <c r="N20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O20">
         <v>-285.5500000000002</v>
@@ -1842,13 +1845,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1869,7 +1872,7 @@
         <v>132.36</v>
       </c>
       <c r="K21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L21">
         <v>128.5</v>
@@ -1878,7 +1881,7 @@
         <v>128.499</v>
       </c>
       <c r="N21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O21">
         <v>495.639</v>
@@ -1898,13 +1901,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1925,7 +1928,7 @@
         <v>4021.8</v>
       </c>
       <c r="K22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L22">
         <v>3974.1</v>
@@ -1934,7 +1937,7 @@
         <v>3974.1</v>
       </c>
       <c r="N22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1954,13 +1957,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1990,7 +1993,7 @@
         <v>972.9400000000001</v>
       </c>
       <c r="N23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O23">
         <v>-460.8900000000003</v>
@@ -2010,13 +2013,13 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2046,7 +2049,7 @@
         <v>158.14</v>
       </c>
       <c r="N24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O24">
         <v>-499.2000000000013</v>
@@ -2066,13 +2069,13 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2102,7 +2105,7 @@
         <v>1001.11</v>
       </c>
       <c r="N25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O25">
         <v>-474.2099999999995</v>
@@ -2122,13 +2125,13 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2149,7 +2152,7 @@
         <v>267.45</v>
       </c>
       <c r="K26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L26">
         <v>253.98</v>
@@ -2158,7 +2161,7 @@
         <v>252</v>
       </c>
       <c r="N26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O26">
         <v>-567.9500000000008</v>
@@ -2178,13 +2181,13 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2214,7 +2217,7 @@
         <v>951.52</v>
       </c>
       <c r="N27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O27">
         <v>-450.7200000000004</v>
@@ -2234,13 +2237,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2270,7 +2273,7 @@
         <v>1880.9</v>
       </c>
       <c r="N28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O28">
         <v>-495</v>
@@ -2290,13 +2293,13 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2326,7 +2329,7 @@
         <v>854</v>
       </c>
       <c r="N29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O29">
         <v>-523.0499999999995</v>
@@ -2346,13 +2349,13 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2382,7 +2385,7 @@
         <v>6310.38</v>
       </c>
       <c r="N30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O30">
         <v>-332.1199999999999</v>
@@ -2402,13 +2405,13 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2429,7 +2432,7 @@
         <v>546.75</v>
       </c>
       <c r="K31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L31">
         <v>541.83</v>
@@ -2438,7 +2441,7 @@
         <v>541.83</v>
       </c>
       <c r="N31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O31">
         <v>-484.8399999999997</v>
@@ -2458,13 +2461,13 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2494,7 +2497,7 @@
         <v>738.96</v>
       </c>
       <c r="N32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O32">
         <v>-466.6799999999998</v>
@@ -2514,13 +2517,13 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2550,7 +2553,7 @@
         <v>637.64</v>
       </c>
       <c r="N33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O33">
         <v>-469.8400000000008</v>
@@ -2570,13 +2573,13 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2597,7 +2600,7 @@
         <v>1728.7</v>
       </c>
       <c r="K34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L34">
         <v>1693.47</v>
@@ -2606,7 +2609,7 @@
         <v>1693.47</v>
       </c>
       <c r="N34" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O34">
         <v>-445.6499999999994</v>
@@ -2626,13 +2629,13 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2653,7 +2656,7 @@
         <v>414.55</v>
       </c>
       <c r="K35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L35">
         <v>409.31</v>
@@ -2662,7 +2665,7 @@
         <v>409.31</v>
       </c>
       <c r="N35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O35">
         <v>-495.4200000000005</v>
@@ -2682,13 +2685,13 @@
         <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2718,7 +2721,7 @@
         <v>4769.95</v>
       </c>
       <c r="N36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36">
         <v>-251.0500000000001</v>
@@ -2738,13 +2741,13 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2774,7 +2777,7 @@
         <v>109.86</v>
       </c>
       <c r="N37" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O37">
         <v>-497.0800000000001</v>
@@ -2794,13 +2797,13 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -2830,7 +2833,7 @@
         <v>439.27</v>
       </c>
       <c r="N38" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O38">
         <v>711.2249999999999</v>
@@ -2853,13 +2856,13 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2889,7 +2892,7 @@
         <v>260.54</v>
       </c>
       <c r="N39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O39">
         <v>-493.5599999999993</v>
@@ -2909,13 +2912,13 @@
         <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2945,7 +2948,7 @@
         <v>1578.33</v>
       </c>
       <c r="N40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O40">
         <v>-498.420000000001</v>
@@ -2965,13 +2968,13 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D41" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -3001,7 +3004,7 @@
         <v>2751.58</v>
       </c>
       <c r="N41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O41">
         <v>-434.4600000000005</v>
@@ -3021,13 +3024,13 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3048,7 +3051,7 @@
         <v>1375.8</v>
       </c>
       <c r="K42" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L42">
         <v>1342.44</v>
@@ -3057,7 +3060,7 @@
         <v>1342.44</v>
       </c>
       <c r="N42" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O42">
         <v>-494.619999999999</v>
@@ -3077,13 +3080,13 @@
         <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C43" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3104,7 +3107,7 @@
         <v>4056.4</v>
       </c>
       <c r="K43" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L43">
         <v>3853.58</v>
@@ -3113,7 +3116,7 @@
         <v>3853.58</v>
       </c>
       <c r="N43" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O43">
         <v>-405.6400000000003</v>
@@ -3133,13 +3136,13 @@
         <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3157,7 +3160,7 @@
         <v>9686.25</v>
       </c>
       <c r="J44">
-        <v>386.35</v>
+        <v>387.6</v>
       </c>
       <c r="L44">
         <v>358.75</v>
@@ -3169,13 +3172,13 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>745.2</v>
+        <v>778.95</v>
       </c>
       <c r="Q44">
-        <v>745.2</v>
+        <v>778.95</v>
       </c>
       <c r="R44">
-        <v>7.69</v>
+        <v>8.039999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -3183,13 +3186,13 @@
         <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D45" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3219,7 +3222,7 @@
         <v>1574</v>
       </c>
       <c r="N45" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O45">
         <v>-578.9999999999998</v>
@@ -3239,13 +3242,13 @@
         <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3263,7 +3266,7 @@
         <v>9697.799999999999</v>
       </c>
       <c r="J46">
-        <v>366.9</v>
+        <v>368.45</v>
       </c>
       <c r="L46">
         <v>329.03</v>
@@ -3275,13 +3278,13 @@
         <v>0</v>
       </c>
       <c r="P46">
-        <v>575.4</v>
+        <v>618.8</v>
       </c>
       <c r="Q46">
-        <v>575.4</v>
+        <v>618.8</v>
       </c>
       <c r="R46">
-        <v>5.93</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -3289,13 +3292,13 @@
         <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D47" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3325,7 +3328,7 @@
         <v>2947.18</v>
       </c>
       <c r="N47" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O47">
         <v>-465.360000000001</v>
@@ -3345,16 +3348,16 @@
         <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
         <v>3724.1</v>
@@ -3369,10 +3372,10 @@
         <v>7448.2</v>
       </c>
       <c r="J48">
-        <v>4002.2</v>
+        <v>4003.7</v>
       </c>
       <c r="L48">
-        <v>3537.89</v>
+        <v>3724.1</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -3381,13 +3384,13 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>556.2</v>
+        <v>559.2</v>
       </c>
       <c r="Q48">
-        <v>556.2</v>
+        <v>559.2</v>
       </c>
       <c r="R48">
-        <v>7.47</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -3395,13 +3398,13 @@
         <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D49" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -3431,7 +3434,7 @@
         <v>3074.61</v>
       </c>
       <c r="N49" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O49">
         <v>585.6400000000008</v>
@@ -3454,13 +3457,13 @@
         <v>32</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D50" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3490,7 +3493,7 @@
         <v>1982.08</v>
       </c>
       <c r="N50" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O50">
         <v>-417.2800000000007</v>
@@ -3510,13 +3513,13 @@
         <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D51" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3546,7 +3549,7 @@
         <v>520.6</v>
       </c>
       <c r="N51" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O51">
         <v>-493.1999999999996</v>
@@ -3566,13 +3569,13 @@
         <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D52" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -3590,7 +3593,7 @@
         <v>9915.6</v>
       </c>
       <c r="J52">
-        <v>459.15</v>
+        <v>467.05</v>
       </c>
       <c r="L52">
         <v>433.81</v>
@@ -3602,13 +3605,13 @@
         <v>495.7800000000007</v>
       </c>
       <c r="P52">
-        <v>552</v>
+        <v>646.8</v>
       </c>
       <c r="Q52">
-        <v>1047.78</v>
+        <v>1142.58</v>
       </c>
       <c r="R52">
-        <v>10.57</v>
+        <v>11.52</v>
       </c>
       <c r="S52" t="s">
         <v>40</v>
@@ -3619,13 +3622,13 @@
         <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D53" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3655,7 +3658,7 @@
         <v>185.38</v>
       </c>
       <c r="N53" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O53">
         <v>-118.190000000001</v>
@@ -3675,16 +3678,16 @@
         <v>34</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54">
         <v>3975.2</v>
@@ -3693,31 +3696,34 @@
         <v>2</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54">
         <v>7950.4</v>
       </c>
       <c r="J54">
-        <v>4269.1</v>
+        <v>4249.1</v>
       </c>
       <c r="L54">
-        <v>3975.2</v>
+        <v>4173.96</v>
       </c>
       <c r="M54">
         <v>0</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>397.5200000000004</v>
       </c>
       <c r="P54">
-        <v>587.8</v>
+        <v>273.9</v>
       </c>
       <c r="Q54">
-        <v>587.8</v>
+        <v>671.42</v>
       </c>
       <c r="R54">
-        <v>7.39</v>
+        <v>8.449999999999999</v>
+      </c>
+      <c r="S54" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -3725,13 +3731,13 @@
         <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C55" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D55" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -3749,7 +3755,7 @@
         <v>9973.5</v>
       </c>
       <c r="J55">
-        <v>2228.4</v>
+        <v>2234.4</v>
       </c>
       <c r="L55">
         <v>2094.43</v>
@@ -3761,13 +3767,13 @@
         <v>398.9400000000001</v>
       </c>
       <c r="P55">
-        <v>701.1</v>
+        <v>719.1</v>
       </c>
       <c r="Q55">
-        <v>1100.04</v>
+        <v>1118.04</v>
       </c>
       <c r="R55">
-        <v>11.03</v>
+        <v>11.21</v>
       </c>
       <c r="S55" t="s">
         <v>38</v>
@@ -3778,13 +3784,13 @@
         <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C56" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D56" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3814,7 +3820,7 @@
         <v>814.2</v>
       </c>
       <c r="N56" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O56">
         <v>-490.599999999999</v>
@@ -3834,13 +3840,13 @@
         <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C57" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D57" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3858,7 +3864,7 @@
         <v>9578.25</v>
       </c>
       <c r="J57">
-        <v>671.8</v>
+        <v>672.05</v>
       </c>
       <c r="L57">
         <v>606.62</v>
@@ -3870,13 +3876,13 @@
         <v>0</v>
       </c>
       <c r="P57">
-        <v>498.75</v>
+        <v>502.5</v>
       </c>
       <c r="Q57">
-        <v>498.75</v>
+        <v>502.5</v>
       </c>
       <c r="R57">
-        <v>5.21</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -3884,13 +3890,13 @@
         <v>36</v>
       </c>
       <c r="B58" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C58" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D58" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3920,7 +3926,7 @@
         <v>922.92</v>
       </c>
       <c r="N58" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O58">
         <v>-485.8000000000004</v>
@@ -3940,16 +3946,16 @@
         <v>37</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D59" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59">
         <v>164.61</v>
@@ -3958,31 +3964,34 @@
         <v>60</v>
       </c>
       <c r="H59">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I59">
         <v>9876.6</v>
       </c>
       <c r="J59">
-        <v>178.21</v>
+        <v>181.31</v>
       </c>
       <c r="L59">
-        <v>164.61</v>
+        <v>172.84</v>
       </c>
       <c r="M59">
         <v>0</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>493.8300000000004</v>
       </c>
       <c r="P59">
-        <v>816</v>
+        <v>501</v>
       </c>
       <c r="Q59">
-        <v>816</v>
+        <v>994.83</v>
       </c>
       <c r="R59">
-        <v>8.26</v>
+        <v>10.07</v>
+      </c>
+      <c r="S59" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -3990,13 +3999,13 @@
         <v>37</v>
       </c>
       <c r="B60" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C60" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -4014,7 +4023,7 @@
         <v>9944.179999999998</v>
       </c>
       <c r="J60">
-        <v>164.55</v>
+        <v>163.47</v>
       </c>
       <c r="L60">
         <v>152.37</v>
@@ -4026,13 +4035,13 @@
         <v>0</v>
       </c>
       <c r="P60">
-        <v>257.92</v>
+        <v>190.96</v>
       </c>
       <c r="Q60">
-        <v>257.92</v>
+        <v>190.96</v>
       </c>
       <c r="R60">
-        <v>2.59</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -4040,13 +4049,13 @@
         <v>37</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C61" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -4064,7 +4073,7 @@
         <v>9933</v>
       </c>
       <c r="J61">
-        <v>483.7</v>
+        <v>482.35</v>
       </c>
       <c r="L61">
         <v>428.92</v>
@@ -4076,13 +4085,13 @@
         <v>0</v>
       </c>
       <c r="P61">
-        <v>708.4</v>
+        <v>678.7</v>
       </c>
       <c r="Q61">
-        <v>708.4</v>
+        <v>678.7</v>
       </c>
       <c r="R61">
-        <v>7.13</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -4090,13 +4099,13 @@
         <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C62" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D62" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E62">
         <v>3</v>
@@ -4126,7 +4135,7 @@
         <v>967.15</v>
       </c>
       <c r="N62" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O62">
         <v>1167.96</v>
@@ -4141,7 +4150,7 @@
         <v>12.58</v>
       </c>
       <c r="S62" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -4149,13 +4158,13 @@
         <v>38</v>
       </c>
       <c r="B63" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C63" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D63" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -4185,7 +4194,7 @@
         <v>116.49</v>
       </c>
       <c r="N63" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O63">
         <v>-496.5300000000008</v>
@@ -4205,13 +4214,13 @@
         <v>38</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C64" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D64" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -4229,7 +4238,7 @@
         <v>9567.799999999999</v>
       </c>
       <c r="J64">
-        <v>430.95</v>
+        <v>423.25</v>
       </c>
       <c r="L64">
         <v>413.15</v>
@@ -4241,13 +4250,13 @@
         <v>0</v>
       </c>
       <c r="P64">
-        <v>-86.90000000000001</v>
+        <v>-256.3</v>
       </c>
       <c r="Q64">
-        <v>-86.90000000000001</v>
+        <v>-256.3</v>
       </c>
       <c r="R64">
-        <v>-0.91</v>
+        <v>-2.68</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4255,13 +4264,13 @@
         <v>38</v>
       </c>
       <c r="B65" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C65" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D65" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -4279,7 +4288,7 @@
         <v>9407.4</v>
       </c>
       <c r="J65">
-        <v>1554.7</v>
+        <v>1553.4</v>
       </c>
       <c r="L65">
         <v>1489.51</v>
@@ -4291,13 +4300,13 @@
         <v>0</v>
       </c>
       <c r="P65">
-        <v>-79.2</v>
+        <v>-87</v>
       </c>
       <c r="Q65">
-        <v>-79.2</v>
+        <v>-87</v>
       </c>
       <c r="R65">
-        <v>-0.84</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4305,13 +4314,13 @@
         <v>38</v>
       </c>
       <c r="B66" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C66" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D66" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -4329,7 +4338,7 @@
         <v>9877.15</v>
       </c>
       <c r="J66">
-        <v>272.15</v>
+        <v>274.6</v>
       </c>
       <c r="L66">
         <v>253.6</v>
@@ -4341,13 +4350,13 @@
         <v>0</v>
       </c>
       <c r="P66">
-        <v>192.4</v>
+        <v>283.05</v>
       </c>
       <c r="Q66">
-        <v>192.4</v>
+        <v>283.05</v>
       </c>
       <c r="R66">
-        <v>1.95</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4355,10 +4364,10 @@
         <v>38</v>
       </c>
       <c r="B67" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C67" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D67" t="s">
         <v>105</v>
@@ -4373,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67">
         <v>5851.5</v>
@@ -4381,23 +4390,29 @@
       <c r="J67">
         <v>5753.5</v>
       </c>
+      <c r="K67" t="s">
+        <v>42</v>
+      </c>
       <c r="L67">
         <v>5558.93</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>5558.93</v>
+      </c>
+      <c r="N67" t="s">
+        <v>112</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>-292.5699999999997</v>
       </c>
       <c r="P67">
-        <v>-98</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>-98</v>
+        <v>-292.5699999999997</v>
       </c>
       <c r="R67">
-        <v>-1.67</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -4405,10 +4420,10 @@
         <v>38</v>
       </c>
       <c r="B68" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D68" t="s">
         <v>105</v>
@@ -4423,7 +4438,7 @@
         <v>20</v>
       </c>
       <c r="H68">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>9602</v>
@@ -4431,23 +4446,29 @@
       <c r="J68">
         <v>458.65</v>
       </c>
+      <c r="K68" t="s">
+        <v>42</v>
+      </c>
       <c r="L68">
         <v>456.1</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>456.1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>112</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>-480</v>
       </c>
       <c r="P68">
-        <v>-429</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>-429</v>
+        <v>-480</v>
       </c>
       <c r="R68">
-        <v>-4.47</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -4455,13 +4476,13 @@
         <v>38</v>
       </c>
       <c r="B69" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C69" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D69" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -4479,7 +4500,7 @@
         <v>8697.5</v>
       </c>
       <c r="J69">
-        <v>1726.2</v>
+        <v>1723</v>
       </c>
       <c r="L69">
         <v>1652.52</v>
@@ -4491,13 +4512,13 @@
         <v>0</v>
       </c>
       <c r="P69">
-        <v>-66.5</v>
+        <v>-82.5</v>
       </c>
       <c r="Q69">
-        <v>-66.5</v>
+        <v>-82.5</v>
       </c>
       <c r="R69">
-        <v>-0.76</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -4505,13 +4526,13 @@
         <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C70" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D70" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -4529,7 +4550,7 @@
         <v>5198.5</v>
       </c>
       <c r="J70">
-        <v>5381</v>
+        <v>5250.5</v>
       </c>
       <c r="L70">
         <v>4938.57</v>
@@ -4541,13 +4562,13 @@
         <v>0</v>
       </c>
       <c r="P70">
-        <v>182.5</v>
+        <v>52</v>
       </c>
       <c r="Q70">
-        <v>182.5</v>
+        <v>52</v>
       </c>
       <c r="R70">
-        <v>3.51</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -4555,13 +4576,13 @@
         <v>39</v>
       </c>
       <c r="B71" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C71" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D71" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -4579,7 +4600,7 @@
         <v>9785.75</v>
       </c>
       <c r="J71">
-        <v>764.85</v>
+        <v>770.4</v>
       </c>
       <c r="L71">
         <v>715.11</v>
@@ -4591,13 +4612,13 @@
         <v>0</v>
       </c>
       <c r="P71">
-        <v>157.3</v>
+        <v>229.45</v>
       </c>
       <c r="Q71">
-        <v>157.3</v>
+        <v>229.45</v>
       </c>
       <c r="R71">
-        <v>1.61</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -4605,16 +4626,16 @@
         <v>40</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C72" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
         <v>124.41</v>
@@ -4629,10 +4650,10 @@
         <v>9952.799999999999</v>
       </c>
       <c r="J72">
-        <v>129.43</v>
+        <v>130.17</v>
       </c>
       <c r="L72">
-        <v>118.19</v>
+        <v>124.41</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -4641,13 +4662,13 @@
         <v>0</v>
       </c>
       <c r="P72">
-        <v>401.6</v>
+        <v>460.8</v>
       </c>
       <c r="Q72">
-        <v>401.6</v>
+        <v>460.8</v>
       </c>
       <c r="R72">
-        <v>4.04</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -4655,13 +4676,13 @@
         <v>40</v>
       </c>
       <c r="B73" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C73" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D73" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -4679,7 +4700,7 @@
         <v>9730.200000000001</v>
       </c>
       <c r="J73">
-        <v>1644.6</v>
+        <v>1634.4</v>
       </c>
       <c r="L73">
         <v>1540.62</v>
@@ -4691,13 +4712,13 @@
         <v>0</v>
       </c>
       <c r="P73">
-        <v>137.4</v>
+        <v>76.2</v>
       </c>
       <c r="Q73">
-        <v>137.4</v>
+        <v>76.2</v>
       </c>
       <c r="R73">
-        <v>1.41</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -4705,10 +4726,10 @@
         <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C74" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D74" t="s">
         <v>105</v>
@@ -4723,7 +4744,7 @@
         <v>36</v>
       </c>
       <c r="H74">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>9939.6</v>
@@ -4731,23 +4752,29 @@
       <c r="J74">
         <v>276.1</v>
       </c>
+      <c r="K74" t="s">
+        <v>42</v>
+      </c>
       <c r="L74">
         <v>262.3</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>261.9</v>
+      </c>
+      <c r="N74" t="s">
+        <v>113</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>-511.2000000000016</v>
       </c>
       <c r="P74">
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>-511.2000000000016</v>
       </c>
       <c r="R74">
-        <v>0</v>
+        <v>-5.14</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -4755,13 +4782,13 @@
         <v>41</v>
       </c>
       <c r="B75" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C75" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D75" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -4779,7 +4806,7 @@
         <v>9986.35</v>
       </c>
       <c r="J75">
-        <v>149.05</v>
+        <v>150.91</v>
       </c>
       <c r="L75">
         <v>141.6</v>
@@ -4791,13 +4818,13 @@
         <v>0</v>
       </c>
       <c r="P75">
-        <v>0</v>
+        <v>124.62</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>124.62</v>
       </c>
       <c r="R75">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -4805,13 +4832,13 @@
         <v>41</v>
       </c>
       <c r="B76" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C76" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D76" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -4829,7 +4856,7 @@
         <v>9554.4</v>
       </c>
       <c r="J76">
-        <v>1194.3</v>
+        <v>1171.7</v>
       </c>
       <c r="L76">
         <v>1134.58</v>
@@ -4841,13 +4868,13 @@
         <v>0</v>
       </c>
       <c r="P76">
-        <v>0</v>
+        <v>-180.8</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>-180.8</v>
       </c>
       <c r="R76">
-        <v>0</v>
+        <v>-1.89</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -4855,13 +4882,13 @@
         <v>41</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C77" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D77" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -4879,7 +4906,7 @@
         <v>8953.799999999999</v>
       </c>
       <c r="J77">
-        <v>2984.6</v>
+        <v>2909.8</v>
       </c>
       <c r="L77">
         <v>2835.37</v>
@@ -4891,12 +4918,62 @@
         <v>0</v>
       </c>
       <c r="P77">
-        <v>0</v>
+        <v>-224.4</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>-224.4</v>
       </c>
       <c r="R77">
+        <v>-2.51</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="A78" t="s">
+        <v>42</v>
+      </c>
+      <c r="B78" t="s">
+        <v>45</v>
+      </c>
+      <c r="C78" t="s">
+        <v>104</v>
+      </c>
+      <c r="D78" t="s">
+        <v>106</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>6019</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>6019</v>
+      </c>
+      <c r="J78">
+        <v>6019</v>
+      </c>
+      <c r="L78">
+        <v>5718.05</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
         <v>0</v>
       </c>
     </row>

--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="116">
   <si>
     <t>Buy Date</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>2026-02-11</t>
+  </si>
+  <si>
+    <t>2026-02-12</t>
   </si>
   <si>
     <t>ADANIENT</t>
@@ -722,7 +725,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S78"/>
+  <dimension ref="A1:S79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -802,13 +805,13 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -838,7 +841,7 @@
         <v>2093.04</v>
       </c>
       <c r="N2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O2">
         <v>-440.6399999999994</v>
@@ -858,13 +861,13 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -882,7 +885,7 @@
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1347.3</v>
+        <v>1340</v>
       </c>
       <c r="L3">
         <v>1293.6</v>
@@ -894,13 +897,13 @@
         <v>492.8000000000002</v>
       </c>
       <c r="P3">
-        <v>461.2</v>
+        <v>432</v>
       </c>
       <c r="Q3">
-        <v>954</v>
+        <v>924.8</v>
       </c>
       <c r="R3">
-        <v>9.68</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="S3" t="s">
         <v>34</v>
@@ -911,13 +914,13 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -947,7 +950,7 @@
         <v>5739.43</v>
       </c>
       <c r="N4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O4">
         <v>-302.0699999999997</v>
@@ -967,13 +970,13 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -991,7 +994,7 @@
         <v>8527.200000000001</v>
       </c>
       <c r="J5">
-        <v>2932.6</v>
+        <v>2925.5</v>
       </c>
       <c r="L5">
         <v>2700.28</v>
@@ -1003,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>270.6</v>
+        <v>249.3</v>
       </c>
       <c r="Q5">
-        <v>270.6</v>
+        <v>249.3</v>
       </c>
       <c r="R5">
-        <v>3.17</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1017,16 +1020,16 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>2293.3</v>
@@ -1041,10 +1044,10 @@
         <v>9173.200000000001</v>
       </c>
       <c r="J6">
-        <v>2462.9</v>
+        <v>2409.7</v>
       </c>
       <c r="L6">
-        <v>2178.64</v>
+        <v>2293.3</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1053,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>678.4</v>
+        <v>465.6</v>
       </c>
       <c r="Q6">
-        <v>678.4</v>
+        <v>465.6</v>
       </c>
       <c r="R6">
-        <v>7.4</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1067,13 +1070,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1091,7 +1094,7 @@
         <v>8960</v>
       </c>
       <c r="J7">
-        <v>1305.3</v>
+        <v>1305.5</v>
       </c>
       <c r="L7">
         <v>1216</v>
@@ -1103,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>177.1</v>
+        <v>178.5</v>
       </c>
       <c r="Q7">
-        <v>177.1</v>
+        <v>178.5</v>
       </c>
       <c r="R7">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1117,13 +1120,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1153,7 +1156,7 @@
         <v>3066.4</v>
       </c>
       <c r="N8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O8">
         <v>-522.8999999999992</v>
@@ -1173,13 +1176,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1209,7 +1212,7 @@
         <v>2901.59</v>
       </c>
       <c r="N9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O9">
         <v>-458.1300000000001</v>
@@ -1229,13 +1232,13 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1265,7 +1268,7 @@
         <v>2922.11</v>
       </c>
       <c r="N10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O10">
         <v>-461.3699999999999</v>
@@ -1285,13 +1288,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1312,7 +1315,7 @@
         <v>183.56</v>
       </c>
       <c r="K11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L11">
         <v>180.92</v>
@@ -1321,7 +1324,7 @@
         <v>180.92</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O11">
         <v>749.6499999999999</v>
@@ -1336,7 +1339,7 @@
         <v>7.5</v>
       </c>
       <c r="S11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1344,13 +1347,13 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1380,7 +1383,7 @@
         <v>1651</v>
       </c>
       <c r="N12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O12">
         <v>599.5200000000004</v>
@@ -1403,13 +1406,13 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1439,7 +1442,7 @@
         <v>732.4</v>
       </c>
       <c r="N13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O13">
         <v>-462.6000000000008</v>
@@ -1459,13 +1462,13 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1495,7 +1498,7 @@
         <v>651.2</v>
       </c>
       <c r="N14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1515,13 +1518,13 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1551,7 +1554,7 @@
         <v>1135.44</v>
       </c>
       <c r="N15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O15">
         <v>-478.0799999999999</v>
@@ -1571,13 +1574,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1607,7 +1610,7 @@
         <v>5731.82</v>
       </c>
       <c r="N16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O16">
         <v>-301.6800000000003</v>
@@ -1627,13 +1630,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1651,7 +1654,7 @@
         <v>9282</v>
       </c>
       <c r="J17">
-        <v>9869.5</v>
+        <v>9840</v>
       </c>
       <c r="L17">
         <v>8817.9</v>
@@ -1663,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>587.5</v>
+        <v>558</v>
       </c>
       <c r="Q17">
-        <v>587.5</v>
+        <v>558</v>
       </c>
       <c r="R17">
-        <v>6.33</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1677,13 +1680,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1713,7 +1716,7 @@
         <v>282.8</v>
       </c>
       <c r="N18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1733,13 +1736,13 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1769,7 +1772,7 @@
         <v>1342.35</v>
       </c>
       <c r="N19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O19">
         <v>-494.5500000000006</v>
@@ -1789,13 +1792,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1825,7 +1828,7 @@
         <v>5425.45</v>
       </c>
       <c r="N20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O20">
         <v>-285.5500000000002</v>
@@ -1845,13 +1848,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1872,7 +1875,7 @@
         <v>132.36</v>
       </c>
       <c r="K21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L21">
         <v>128.5</v>
@@ -1881,7 +1884,7 @@
         <v>128.499</v>
       </c>
       <c r="N21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O21">
         <v>495.639</v>
@@ -1901,13 +1904,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1928,7 +1931,7 @@
         <v>4021.8</v>
       </c>
       <c r="K22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L22">
         <v>3974.1</v>
@@ -1937,7 +1940,7 @@
         <v>3974.1</v>
       </c>
       <c r="N22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1957,13 +1960,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1993,7 +1996,7 @@
         <v>972.9400000000001</v>
       </c>
       <c r="N23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O23">
         <v>-460.8900000000003</v>
@@ -2013,13 +2016,13 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2049,7 +2052,7 @@
         <v>158.14</v>
       </c>
       <c r="N24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O24">
         <v>-499.2000000000013</v>
@@ -2069,13 +2072,13 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2105,7 +2108,7 @@
         <v>1001.11</v>
       </c>
       <c r="N25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O25">
         <v>-474.2099999999995</v>
@@ -2125,13 +2128,13 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2152,7 +2155,7 @@
         <v>267.45</v>
       </c>
       <c r="K26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L26">
         <v>253.98</v>
@@ -2161,7 +2164,7 @@
         <v>252</v>
       </c>
       <c r="N26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O26">
         <v>-567.9500000000008</v>
@@ -2181,13 +2184,13 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2217,7 +2220,7 @@
         <v>951.52</v>
       </c>
       <c r="N27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O27">
         <v>-450.7200000000004</v>
@@ -2237,13 +2240,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2273,7 +2276,7 @@
         <v>1880.9</v>
       </c>
       <c r="N28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O28">
         <v>-495</v>
@@ -2293,13 +2296,13 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2329,7 +2332,7 @@
         <v>854</v>
       </c>
       <c r="N29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O29">
         <v>-523.0499999999995</v>
@@ -2349,13 +2352,13 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2385,7 +2388,7 @@
         <v>6310.38</v>
       </c>
       <c r="N30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O30">
         <v>-332.1199999999999</v>
@@ -2405,13 +2408,13 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2432,7 +2435,7 @@
         <v>546.75</v>
       </c>
       <c r="K31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L31">
         <v>541.83</v>
@@ -2441,7 +2444,7 @@
         <v>541.83</v>
       </c>
       <c r="N31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O31">
         <v>-484.8399999999997</v>
@@ -2461,13 +2464,13 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2497,7 +2500,7 @@
         <v>738.96</v>
       </c>
       <c r="N32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O32">
         <v>-466.6799999999998</v>
@@ -2517,13 +2520,13 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2553,7 +2556,7 @@
         <v>637.64</v>
       </c>
       <c r="N33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O33">
         <v>-469.8400000000008</v>
@@ -2573,13 +2576,13 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2600,7 +2603,7 @@
         <v>1728.7</v>
       </c>
       <c r="K34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L34">
         <v>1693.47</v>
@@ -2609,7 +2612,7 @@
         <v>1693.47</v>
       </c>
       <c r="N34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O34">
         <v>-445.6499999999994</v>
@@ -2629,13 +2632,13 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2656,7 +2659,7 @@
         <v>414.55</v>
       </c>
       <c r="K35" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L35">
         <v>409.31</v>
@@ -2665,7 +2668,7 @@
         <v>409.31</v>
       </c>
       <c r="N35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O35">
         <v>-495.4200000000005</v>
@@ -2685,13 +2688,13 @@
         <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2721,7 +2724,7 @@
         <v>4769.95</v>
       </c>
       <c r="N36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36">
         <v>-251.0500000000001</v>
@@ -2741,13 +2744,13 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2777,7 +2780,7 @@
         <v>109.86</v>
       </c>
       <c r="N37" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O37">
         <v>-497.0800000000001</v>
@@ -2797,13 +2800,13 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -2833,7 +2836,7 @@
         <v>439.27</v>
       </c>
       <c r="N38" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O38">
         <v>711.2249999999999</v>
@@ -2856,13 +2859,13 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2892,7 +2895,7 @@
         <v>260.54</v>
       </c>
       <c r="N39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O39">
         <v>-493.5599999999993</v>
@@ -2912,13 +2915,13 @@
         <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2948,7 +2951,7 @@
         <v>1578.33</v>
       </c>
       <c r="N40" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O40">
         <v>-498.420000000001</v>
@@ -2968,13 +2971,13 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D41" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -3004,7 +3007,7 @@
         <v>2751.58</v>
       </c>
       <c r="N41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O41">
         <v>-434.4600000000005</v>
@@ -3024,13 +3027,13 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D42" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3051,7 +3054,7 @@
         <v>1375.8</v>
       </c>
       <c r="K42" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L42">
         <v>1342.44</v>
@@ -3060,7 +3063,7 @@
         <v>1342.44</v>
       </c>
       <c r="N42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O42">
         <v>-494.619999999999</v>
@@ -3080,13 +3083,13 @@
         <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D43" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3107,7 +3110,7 @@
         <v>4056.4</v>
       </c>
       <c r="K43" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L43">
         <v>3853.58</v>
@@ -3116,7 +3119,7 @@
         <v>3853.58</v>
       </c>
       <c r="N43" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O43">
         <v>-405.6400000000003</v>
@@ -3136,13 +3139,13 @@
         <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D44" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3160,7 +3163,7 @@
         <v>9686.25</v>
       </c>
       <c r="J44">
-        <v>387.6</v>
+        <v>377.7</v>
       </c>
       <c r="L44">
         <v>358.75</v>
@@ -3172,13 +3175,13 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>778.95</v>
+        <v>511.65</v>
       </c>
       <c r="Q44">
-        <v>778.95</v>
+        <v>511.65</v>
       </c>
       <c r="R44">
-        <v>8.039999999999999</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -3186,13 +3189,13 @@
         <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3222,7 +3225,7 @@
         <v>1574</v>
       </c>
       <c r="N45" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O45">
         <v>-578.9999999999998</v>
@@ -3242,13 +3245,13 @@
         <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D46" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3266,7 +3269,7 @@
         <v>9697.799999999999</v>
       </c>
       <c r="J46">
-        <v>368.45</v>
+        <v>368.25</v>
       </c>
       <c r="L46">
         <v>329.03</v>
@@ -3278,13 +3281,13 @@
         <v>0</v>
       </c>
       <c r="P46">
-        <v>618.8</v>
+        <v>613.2</v>
       </c>
       <c r="Q46">
-        <v>618.8</v>
+        <v>613.2</v>
       </c>
       <c r="R46">
-        <v>6.38</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -3292,13 +3295,13 @@
         <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D47" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3328,7 +3331,7 @@
         <v>2947.18</v>
       </c>
       <c r="N47" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O47">
         <v>-465.360000000001</v>
@@ -3348,13 +3351,13 @@
         <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C48" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D48" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3372,7 +3375,7 @@
         <v>7448.2</v>
       </c>
       <c r="J48">
-        <v>4003.7</v>
+        <v>3963</v>
       </c>
       <c r="L48">
         <v>3724.1</v>
@@ -3384,13 +3387,13 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>559.2</v>
+        <v>477.8</v>
       </c>
       <c r="Q48">
-        <v>559.2</v>
+        <v>477.8</v>
       </c>
       <c r="R48">
-        <v>7.51</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -3398,13 +3401,13 @@
         <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D49" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -3434,7 +3437,7 @@
         <v>3074.61</v>
       </c>
       <c r="N49" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O49">
         <v>585.6400000000008</v>
@@ -3457,13 +3460,13 @@
         <v>32</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D50" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3493,7 +3496,7 @@
         <v>1982.08</v>
       </c>
       <c r="N50" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O50">
         <v>-417.2800000000007</v>
@@ -3513,13 +3516,13 @@
         <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C51" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D51" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3549,7 +3552,7 @@
         <v>520.6</v>
       </c>
       <c r="N51" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O51">
         <v>-493.1999999999996</v>
@@ -3569,13 +3572,13 @@
         <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -3593,7 +3596,7 @@
         <v>9915.6</v>
       </c>
       <c r="J52">
-        <v>467.05</v>
+        <v>474</v>
       </c>
       <c r="L52">
         <v>433.81</v>
@@ -3605,13 +3608,13 @@
         <v>495.7800000000007</v>
       </c>
       <c r="P52">
-        <v>646.8</v>
+        <v>730.2</v>
       </c>
       <c r="Q52">
-        <v>1142.58</v>
+        <v>1225.98</v>
       </c>
       <c r="R52">
-        <v>11.52</v>
+        <v>12.36</v>
       </c>
       <c r="S52" t="s">
         <v>40</v>
@@ -3622,13 +3625,13 @@
         <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D53" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3658,7 +3661,7 @@
         <v>185.38</v>
       </c>
       <c r="N53" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O53">
         <v>-118.190000000001</v>
@@ -3678,13 +3681,13 @@
         <v>34</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D54" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -3702,7 +3705,7 @@
         <v>7950.4</v>
       </c>
       <c r="J54">
-        <v>4249.1</v>
+        <v>4275.8</v>
       </c>
       <c r="L54">
         <v>4173.96</v>
@@ -3711,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="O54">
-        <v>397.5200000000004</v>
+        <v>397.5200000000005</v>
       </c>
       <c r="P54">
-        <v>273.9</v>
+        <v>300.6</v>
       </c>
       <c r="Q54">
-        <v>671.42</v>
+        <v>698.12</v>
       </c>
       <c r="R54">
-        <v>8.449999999999999</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="S54" t="s">
         <v>42</v>
@@ -3731,13 +3734,13 @@
         <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C55" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D55" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -3755,7 +3758,7 @@
         <v>9973.5</v>
       </c>
       <c r="J55">
-        <v>2234.4</v>
+        <v>2211.8</v>
       </c>
       <c r="L55">
         <v>2094.43</v>
@@ -3767,13 +3770,13 @@
         <v>398.9400000000001</v>
       </c>
       <c r="P55">
-        <v>719.1</v>
+        <v>651.3</v>
       </c>
       <c r="Q55">
-        <v>1118.04</v>
+        <v>1050.24</v>
       </c>
       <c r="R55">
-        <v>11.21</v>
+        <v>10.53</v>
       </c>
       <c r="S55" t="s">
         <v>38</v>
@@ -3784,13 +3787,13 @@
         <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C56" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D56" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3820,7 +3823,7 @@
         <v>814.2</v>
       </c>
       <c r="N56" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O56">
         <v>-490.599999999999</v>
@@ -3840,13 +3843,13 @@
         <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C57" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D57" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3864,7 +3867,7 @@
         <v>9578.25</v>
       </c>
       <c r="J57">
-        <v>672.05</v>
+        <v>651.8</v>
       </c>
       <c r="L57">
         <v>606.62</v>
@@ -3876,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="P57">
-        <v>502.5</v>
+        <v>198.75</v>
       </c>
       <c r="Q57">
-        <v>502.5</v>
+        <v>198.75</v>
       </c>
       <c r="R57">
-        <v>5.25</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -3890,13 +3893,13 @@
         <v>36</v>
       </c>
       <c r="B58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C58" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3926,7 +3929,7 @@
         <v>922.92</v>
       </c>
       <c r="N58" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O58">
         <v>-485.8000000000004</v>
@@ -3946,13 +3949,13 @@
         <v>37</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D59" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -3970,7 +3973,7 @@
         <v>9876.6</v>
       </c>
       <c r="J59">
-        <v>181.31</v>
+        <v>178.11</v>
       </c>
       <c r="L59">
         <v>172.84</v>
@@ -3982,13 +3985,13 @@
         <v>493.8300000000004</v>
       </c>
       <c r="P59">
-        <v>501</v>
+        <v>405</v>
       </c>
       <c r="Q59">
-        <v>994.83</v>
+        <v>898.83</v>
       </c>
       <c r="R59">
-        <v>10.07</v>
+        <v>9.1</v>
       </c>
       <c r="S59" t="s">
         <v>42</v>
@@ -3999,13 +4002,13 @@
         <v>37</v>
       </c>
       <c r="B60" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C60" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D60" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -4023,7 +4026,7 @@
         <v>9944.179999999998</v>
       </c>
       <c r="J60">
-        <v>163.47</v>
+        <v>163.72</v>
       </c>
       <c r="L60">
         <v>152.37</v>
@@ -4035,13 +4038,13 @@
         <v>0</v>
       </c>
       <c r="P60">
-        <v>190.96</v>
+        <v>206.46</v>
       </c>
       <c r="Q60">
-        <v>190.96</v>
+        <v>206.46</v>
       </c>
       <c r="R60">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -4049,13 +4052,13 @@
         <v>37</v>
       </c>
       <c r="B61" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C61" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D61" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -4073,7 +4076,7 @@
         <v>9933</v>
       </c>
       <c r="J61">
-        <v>482.35</v>
+        <v>479.5</v>
       </c>
       <c r="L61">
         <v>428.92</v>
@@ -4085,13 +4088,13 @@
         <v>0</v>
       </c>
       <c r="P61">
-        <v>678.7</v>
+        <v>616</v>
       </c>
       <c r="Q61">
-        <v>678.7</v>
+        <v>616</v>
       </c>
       <c r="R61">
-        <v>6.83</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -4099,13 +4102,13 @@
         <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C62" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D62" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E62">
         <v>3</v>
@@ -4135,7 +4138,7 @@
         <v>967.15</v>
       </c>
       <c r="N62" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O62">
         <v>1167.96</v>
@@ -4150,7 +4153,7 @@
         <v>12.58</v>
       </c>
       <c r="S62" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -4158,13 +4161,13 @@
         <v>38</v>
       </c>
       <c r="B63" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C63" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D63" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -4194,7 +4197,7 @@
         <v>116.49</v>
       </c>
       <c r="N63" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O63">
         <v>-496.5300000000008</v>
@@ -4214,13 +4217,13 @@
         <v>38</v>
       </c>
       <c r="B64" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C64" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D64" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -4238,7 +4241,7 @@
         <v>9567.799999999999</v>
       </c>
       <c r="J64">
-        <v>423.25</v>
+        <v>419.15</v>
       </c>
       <c r="L64">
         <v>413.15</v>
@@ -4250,13 +4253,13 @@
         <v>0</v>
       </c>
       <c r="P64">
-        <v>-256.3</v>
+        <v>-346.5</v>
       </c>
       <c r="Q64">
-        <v>-256.3</v>
+        <v>-346.5</v>
       </c>
       <c r="R64">
-        <v>-2.68</v>
+        <v>-3.62</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4264,13 +4267,13 @@
         <v>38</v>
       </c>
       <c r="B65" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C65" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D65" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -4288,7 +4291,7 @@
         <v>9407.4</v>
       </c>
       <c r="J65">
-        <v>1553.4</v>
+        <v>1543.7</v>
       </c>
       <c r="L65">
         <v>1489.51</v>
@@ -4300,13 +4303,13 @@
         <v>0</v>
       </c>
       <c r="P65">
-        <v>-87</v>
+        <v>-145.2</v>
       </c>
       <c r="Q65">
-        <v>-87</v>
+        <v>-145.2</v>
       </c>
       <c r="R65">
-        <v>-0.92</v>
+        <v>-1.54</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4314,13 +4317,13 @@
         <v>38</v>
       </c>
       <c r="B66" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C66" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D66" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -4338,7 +4341,7 @@
         <v>9877.15</v>
       </c>
       <c r="J66">
-        <v>274.6</v>
+        <v>276.35</v>
       </c>
       <c r="L66">
         <v>253.6</v>
@@ -4350,13 +4353,13 @@
         <v>0</v>
       </c>
       <c r="P66">
-        <v>283.05</v>
+        <v>347.8</v>
       </c>
       <c r="Q66">
-        <v>283.05</v>
+        <v>347.8</v>
       </c>
       <c r="R66">
-        <v>2.87</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4364,13 +4367,13 @@
         <v>38</v>
       </c>
       <c r="B67" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C67" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D67" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -4400,7 +4403,7 @@
         <v>5558.93</v>
       </c>
       <c r="N67" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O67">
         <v>-292.5699999999997</v>
@@ -4420,13 +4423,13 @@
         <v>38</v>
       </c>
       <c r="B68" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C68" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D68" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -4456,7 +4459,7 @@
         <v>456.1</v>
       </c>
       <c r="N68" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O68">
         <v>-480</v>
@@ -4476,13 +4479,13 @@
         <v>38</v>
       </c>
       <c r="B69" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C69" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D69" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -4500,7 +4503,7 @@
         <v>8697.5</v>
       </c>
       <c r="J69">
-        <v>1723</v>
+        <v>1731.8</v>
       </c>
       <c r="L69">
         <v>1652.52</v>
@@ -4512,13 +4515,13 @@
         <v>0</v>
       </c>
       <c r="P69">
-        <v>-82.5</v>
+        <v>-38.5</v>
       </c>
       <c r="Q69">
-        <v>-82.5</v>
+        <v>-38.5</v>
       </c>
       <c r="R69">
-        <v>-0.95</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -4526,13 +4529,13 @@
         <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C70" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D70" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -4550,7 +4553,7 @@
         <v>5198.5</v>
       </c>
       <c r="J70">
-        <v>5250.5</v>
+        <v>4976</v>
       </c>
       <c r="L70">
         <v>4938.57</v>
@@ -4562,13 +4565,13 @@
         <v>0</v>
       </c>
       <c r="P70">
-        <v>52</v>
+        <v>-222.5</v>
       </c>
       <c r="Q70">
-        <v>52</v>
+        <v>-222.5</v>
       </c>
       <c r="R70">
-        <v>1</v>
+        <v>-4.28</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -4576,13 +4579,13 @@
         <v>39</v>
       </c>
       <c r="B71" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D71" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -4600,7 +4603,7 @@
         <v>9785.75</v>
       </c>
       <c r="J71">
-        <v>770.4</v>
+        <v>770.65</v>
       </c>
       <c r="L71">
         <v>715.11</v>
@@ -4612,13 +4615,13 @@
         <v>0</v>
       </c>
       <c r="P71">
-        <v>229.45</v>
+        <v>232.7</v>
       </c>
       <c r="Q71">
-        <v>229.45</v>
+        <v>232.7</v>
       </c>
       <c r="R71">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -4626,13 +4629,13 @@
         <v>40</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D72" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -4650,7 +4653,7 @@
         <v>9952.799999999999</v>
       </c>
       <c r="J72">
-        <v>130.17</v>
+        <v>132.74</v>
       </c>
       <c r="L72">
         <v>124.41</v>
@@ -4662,13 +4665,13 @@
         <v>0</v>
       </c>
       <c r="P72">
-        <v>460.8</v>
+        <v>666.4</v>
       </c>
       <c r="Q72">
-        <v>460.8</v>
+        <v>666.4</v>
       </c>
       <c r="R72">
-        <v>4.63</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -4676,10 +4679,10 @@
         <v>40</v>
       </c>
       <c r="B73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C73" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D73" t="s">
         <v>106</v>
@@ -4694,7 +4697,7 @@
         <v>6</v>
       </c>
       <c r="H73">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>9730.200000000001</v>
@@ -4702,23 +4705,29 @@
       <c r="J73">
         <v>1634.4</v>
       </c>
+      <c r="K73" t="s">
+        <v>43</v>
+      </c>
       <c r="L73">
         <v>1540.62</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>1540.62</v>
+      </c>
+      <c r="N73" t="s">
+        <v>113</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>-486.4800000000009</v>
       </c>
       <c r="P73">
-        <v>76.2</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>76.2</v>
+        <v>-486.4800000000009</v>
       </c>
       <c r="R73">
-        <v>0.78</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -4726,13 +4735,13 @@
         <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C74" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D74" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -4762,7 +4771,7 @@
         <v>261.9</v>
       </c>
       <c r="N74" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O74">
         <v>-511.2000000000016</v>
@@ -4782,13 +4791,13 @@
         <v>41</v>
       </c>
       <c r="B75" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C75" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D75" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -4806,7 +4815,7 @@
         <v>9986.35</v>
       </c>
       <c r="J75">
-        <v>150.91</v>
+        <v>149.79</v>
       </c>
       <c r="L75">
         <v>141.6</v>
@@ -4818,13 +4827,13 @@
         <v>0</v>
       </c>
       <c r="P75">
-        <v>124.62</v>
+        <v>49.58</v>
       </c>
       <c r="Q75">
-        <v>124.62</v>
+        <v>49.58</v>
       </c>
       <c r="R75">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -4832,10 +4841,10 @@
         <v>41</v>
       </c>
       <c r="B76" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C76" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D76" t="s">
         <v>106</v>
@@ -4850,7 +4859,7 @@
         <v>8</v>
       </c>
       <c r="H76">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>9554.4</v>
@@ -4858,23 +4867,29 @@
       <c r="J76">
         <v>1171.7</v>
       </c>
+      <c r="K76" t="s">
+        <v>43</v>
+      </c>
       <c r="L76">
         <v>1134.58</v>
       </c>
       <c r="M76">
-        <v>0</v>
+        <v>1134.58</v>
+      </c>
+      <c r="N76" t="s">
+        <v>113</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>-477.7600000000002</v>
       </c>
       <c r="P76">
-        <v>-180.8</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>-180.8</v>
+        <v>-477.7600000000002</v>
       </c>
       <c r="R76">
-        <v>-1.89</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -4882,10 +4897,10 @@
         <v>41</v>
       </c>
       <c r="B77" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C77" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D77" t="s">
         <v>106</v>
@@ -4900,7 +4915,7 @@
         <v>3</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>8953.799999999999</v>
@@ -4908,23 +4923,29 @@
       <c r="J77">
         <v>2909.8</v>
       </c>
+      <c r="K77" t="s">
+        <v>43</v>
+      </c>
       <c r="L77">
         <v>2835.37</v>
       </c>
       <c r="M77">
-        <v>0</v>
+        <v>2835.37</v>
+      </c>
+      <c r="N77" t="s">
+        <v>113</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>-447.6900000000001</v>
       </c>
       <c r="P77">
-        <v>-224.4</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>-224.4</v>
+        <v>-447.6900000000001</v>
       </c>
       <c r="R77">
-        <v>-2.51</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -4932,13 +4953,13 @@
         <v>42</v>
       </c>
       <c r="B78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C78" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D78" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -4956,7 +4977,7 @@
         <v>6019</v>
       </c>
       <c r="J78">
-        <v>6019</v>
+        <v>6102</v>
       </c>
       <c r="L78">
         <v>5718.05</v>
@@ -4968,12 +4989,62 @@
         <v>0</v>
       </c>
       <c r="P78">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="Q78">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="R78">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="A79" t="s">
+        <v>43</v>
+      </c>
+      <c r="B79" t="s">
+        <v>73</v>
+      </c>
+      <c r="C79" t="s">
+        <v>103</v>
+      </c>
+      <c r="D79" t="s">
+        <v>107</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>535.95</v>
+      </c>
+      <c r="G79">
+        <v>18</v>
+      </c>
+      <c r="H79">
+        <v>18</v>
+      </c>
+      <c r="I79">
+        <v>9647.1</v>
+      </c>
+      <c r="J79">
+        <v>535.95</v>
+      </c>
+      <c r="L79">
+        <v>509.15</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
         <v>0</v>
       </c>
     </row>

--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="120">
   <si>
     <t>Buy Date</t>
   </si>
@@ -148,6 +148,9 @@
     <t>2026-02-12</t>
   </si>
   <si>
+    <t>2026-02-13</t>
+  </si>
+  <si>
     <t>ADANIENT</t>
   </si>
   <si>
@@ -323,6 +326,15 @@
   </si>
   <si>
     <t>NAUKRI</t>
+  </si>
+  <si>
+    <t>RECLTD</t>
+  </si>
+  <si>
+    <t>BANKBARODA</t>
+  </si>
+  <si>
+    <t>HINDZINC</t>
   </si>
   <si>
     <t>Value Buy</t>
@@ -725,7 +737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S79"/>
+  <dimension ref="A1:S83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -805,13 +817,13 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -841,7 +853,7 @@
         <v>2093.04</v>
       </c>
       <c r="N2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O2">
         <v>-440.6399999999994</v>
@@ -861,13 +873,13 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -885,7 +897,7 @@
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1340</v>
+        <v>1332.3</v>
       </c>
       <c r="L3">
         <v>1293.6</v>
@@ -897,13 +909,13 @@
         <v>492.8000000000002</v>
       </c>
       <c r="P3">
-        <v>432</v>
+        <v>401.2</v>
       </c>
       <c r="Q3">
-        <v>924.8</v>
+        <v>894</v>
       </c>
       <c r="R3">
-        <v>9.380000000000001</v>
+        <v>9.07</v>
       </c>
       <c r="S3" t="s">
         <v>34</v>
@@ -914,13 +926,13 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -950,7 +962,7 @@
         <v>5739.43</v>
       </c>
       <c r="N4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O4">
         <v>-302.0699999999997</v>
@@ -970,13 +982,13 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -994,7 +1006,7 @@
         <v>8527.200000000001</v>
       </c>
       <c r="J5">
-        <v>2925.5</v>
+        <v>2888</v>
       </c>
       <c r="L5">
         <v>2700.28</v>
@@ -1006,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>249.3</v>
+        <v>136.8</v>
       </c>
       <c r="Q5">
-        <v>249.3</v>
+        <v>136.8</v>
       </c>
       <c r="R5">
-        <v>2.92</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1020,13 +1032,13 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1044,7 +1056,7 @@
         <v>9173.200000000001</v>
       </c>
       <c r="J6">
-        <v>2409.7</v>
+        <v>2305.2</v>
       </c>
       <c r="L6">
         <v>2293.3</v>
@@ -1056,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>465.6</v>
+        <v>47.6</v>
       </c>
       <c r="Q6">
-        <v>465.6</v>
+        <v>47.6</v>
       </c>
       <c r="R6">
-        <v>5.08</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1070,13 +1082,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1094,7 +1106,7 @@
         <v>8960</v>
       </c>
       <c r="J7">
-        <v>1305.5</v>
+        <v>1282.6</v>
       </c>
       <c r="L7">
         <v>1216</v>
@@ -1106,13 +1118,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>178.5</v>
+        <v>18.2</v>
       </c>
       <c r="Q7">
-        <v>178.5</v>
+        <v>18.2</v>
       </c>
       <c r="R7">
-        <v>1.99</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1120,13 +1132,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1156,7 +1168,7 @@
         <v>3066.4</v>
       </c>
       <c r="N8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="O8">
         <v>-522.8999999999992</v>
@@ -1176,13 +1188,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1212,7 +1224,7 @@
         <v>2901.59</v>
       </c>
       <c r="N9" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O9">
         <v>-458.1300000000001</v>
@@ -1232,13 +1244,13 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1268,7 +1280,7 @@
         <v>2922.11</v>
       </c>
       <c r="N10" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O10">
         <v>-461.3699999999999</v>
@@ -1288,13 +1300,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1315,7 +1327,7 @@
         <v>183.56</v>
       </c>
       <c r="K11" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L11">
         <v>180.92</v>
@@ -1324,7 +1336,7 @@
         <v>180.92</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O11">
         <v>749.6499999999999</v>
@@ -1339,7 +1351,7 @@
         <v>7.5</v>
       </c>
       <c r="S11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1347,13 +1359,13 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1383,7 +1395,7 @@
         <v>1651</v>
       </c>
       <c r="N12" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="O12">
         <v>599.5200000000004</v>
@@ -1406,13 +1418,13 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1442,7 +1454,7 @@
         <v>732.4</v>
       </c>
       <c r="N13" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O13">
         <v>-462.6000000000008</v>
@@ -1462,13 +1474,13 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1498,7 +1510,7 @@
         <v>651.2</v>
       </c>
       <c r="N14" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1518,13 +1530,13 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1554,7 +1566,7 @@
         <v>1135.44</v>
       </c>
       <c r="N15" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O15">
         <v>-478.0799999999999</v>
@@ -1574,13 +1586,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1610,7 +1622,7 @@
         <v>5731.82</v>
       </c>
       <c r="N16" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O16">
         <v>-301.6800000000003</v>
@@ -1630,13 +1642,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1654,7 +1666,7 @@
         <v>9282</v>
       </c>
       <c r="J17">
-        <v>9840</v>
+        <v>9760</v>
       </c>
       <c r="L17">
         <v>8817.9</v>
@@ -1666,13 +1678,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>558</v>
+        <v>478</v>
       </c>
       <c r="Q17">
-        <v>558</v>
+        <v>478</v>
       </c>
       <c r="R17">
-        <v>6.01</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1680,13 +1692,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1716,7 +1728,7 @@
         <v>282.8</v>
       </c>
       <c r="N18" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1736,13 +1748,13 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1772,7 +1784,7 @@
         <v>1342.35</v>
       </c>
       <c r="N19" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O19">
         <v>-494.5500000000006</v>
@@ -1792,13 +1804,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1828,7 +1840,7 @@
         <v>5425.45</v>
       </c>
       <c r="N20" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O20">
         <v>-285.5500000000002</v>
@@ -1848,13 +1860,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1875,7 +1887,7 @@
         <v>132.36</v>
       </c>
       <c r="K21" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L21">
         <v>128.5</v>
@@ -1884,7 +1896,7 @@
         <v>128.499</v>
       </c>
       <c r="N21" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O21">
         <v>495.639</v>
@@ -1904,13 +1916,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1931,7 +1943,7 @@
         <v>4021.8</v>
       </c>
       <c r="K22" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L22">
         <v>3974.1</v>
@@ -1940,7 +1952,7 @@
         <v>3974.1</v>
       </c>
       <c r="N22" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1960,13 +1972,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D23" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1996,7 +2008,7 @@
         <v>972.9400000000001</v>
       </c>
       <c r="N23" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O23">
         <v>-460.8900000000003</v>
@@ -2016,13 +2028,13 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D24" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2052,7 +2064,7 @@
         <v>158.14</v>
       </c>
       <c r="N24" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O24">
         <v>-499.2000000000013</v>
@@ -2072,13 +2084,13 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D25" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2108,7 +2120,7 @@
         <v>1001.11</v>
       </c>
       <c r="N25" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O25">
         <v>-474.2099999999995</v>
@@ -2128,13 +2140,13 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D26" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2155,7 +2167,7 @@
         <v>267.45</v>
       </c>
       <c r="K26" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L26">
         <v>253.98</v>
@@ -2164,7 +2176,7 @@
         <v>252</v>
       </c>
       <c r="N26" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="O26">
         <v>-567.9500000000008</v>
@@ -2184,13 +2196,13 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D27" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2220,7 +2232,7 @@
         <v>951.52</v>
       </c>
       <c r="N27" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O27">
         <v>-450.7200000000004</v>
@@ -2240,13 +2252,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2276,7 +2288,7 @@
         <v>1880.9</v>
       </c>
       <c r="N28" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O28">
         <v>-495</v>
@@ -2296,13 +2308,13 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2332,7 +2344,7 @@
         <v>854</v>
       </c>
       <c r="N29" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="O29">
         <v>-523.0499999999995</v>
@@ -2352,13 +2364,13 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2388,7 +2400,7 @@
         <v>6310.38</v>
       </c>
       <c r="N30" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O30">
         <v>-332.1199999999999</v>
@@ -2408,13 +2420,13 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2435,7 +2447,7 @@
         <v>546.75</v>
       </c>
       <c r="K31" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L31">
         <v>541.83</v>
@@ -2444,7 +2456,7 @@
         <v>541.83</v>
       </c>
       <c r="N31" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O31">
         <v>-484.8399999999997</v>
@@ -2464,13 +2476,13 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2500,7 +2512,7 @@
         <v>738.96</v>
       </c>
       <c r="N32" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O32">
         <v>-466.6799999999998</v>
@@ -2520,13 +2532,13 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2556,7 +2568,7 @@
         <v>637.64</v>
       </c>
       <c r="N33" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O33">
         <v>-469.8400000000008</v>
@@ -2576,13 +2588,13 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2603,7 +2615,7 @@
         <v>1728.7</v>
       </c>
       <c r="K34" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L34">
         <v>1693.47</v>
@@ -2612,7 +2624,7 @@
         <v>1693.47</v>
       </c>
       <c r="N34" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O34">
         <v>-445.6499999999994</v>
@@ -2632,13 +2644,13 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D35" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2659,7 +2671,7 @@
         <v>414.55</v>
       </c>
       <c r="K35" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L35">
         <v>409.31</v>
@@ -2668,7 +2680,7 @@
         <v>409.31</v>
       </c>
       <c r="N35" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O35">
         <v>-495.4200000000005</v>
@@ -2688,13 +2700,13 @@
         <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2724,7 +2736,7 @@
         <v>4769.95</v>
       </c>
       <c r="N36" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O36">
         <v>-251.0500000000001</v>
@@ -2744,13 +2756,13 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D37" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2780,7 +2792,7 @@
         <v>109.86</v>
       </c>
       <c r="N37" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O37">
         <v>-497.0800000000001</v>
@@ -2800,13 +2812,13 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -2836,7 +2848,7 @@
         <v>439.27</v>
       </c>
       <c r="N38" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O38">
         <v>711.2249999999999</v>
@@ -2859,13 +2871,13 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D39" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2895,7 +2907,7 @@
         <v>260.54</v>
       </c>
       <c r="N39" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O39">
         <v>-493.5599999999993</v>
@@ -2915,13 +2927,13 @@
         <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D40" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2951,7 +2963,7 @@
         <v>1578.33</v>
       </c>
       <c r="N40" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O40">
         <v>-498.420000000001</v>
@@ -2971,13 +2983,13 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -3007,7 +3019,7 @@
         <v>2751.58</v>
       </c>
       <c r="N41" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O41">
         <v>-434.4600000000005</v>
@@ -3027,13 +3039,13 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D42" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3054,7 +3066,7 @@
         <v>1375.8</v>
       </c>
       <c r="K42" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L42">
         <v>1342.44</v>
@@ -3063,7 +3075,7 @@
         <v>1342.44</v>
       </c>
       <c r="N42" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O42">
         <v>-494.619999999999</v>
@@ -3083,13 +3095,13 @@
         <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D43" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3110,7 +3122,7 @@
         <v>4056.4</v>
       </c>
       <c r="K43" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L43">
         <v>3853.58</v>
@@ -3119,7 +3131,7 @@
         <v>3853.58</v>
       </c>
       <c r="N43" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O43">
         <v>-405.6400000000003</v>
@@ -3139,13 +3151,13 @@
         <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C44" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D44" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3163,7 +3175,7 @@
         <v>9686.25</v>
       </c>
       <c r="J44">
-        <v>377.7</v>
+        <v>374.1</v>
       </c>
       <c r="L44">
         <v>358.75</v>
@@ -3175,13 +3187,13 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>511.65</v>
+        <v>414.45</v>
       </c>
       <c r="Q44">
-        <v>511.65</v>
+        <v>414.45</v>
       </c>
       <c r="R44">
-        <v>5.28</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -3189,13 +3201,13 @@
         <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C45" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D45" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3225,7 +3237,7 @@
         <v>1574</v>
       </c>
       <c r="N45" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="O45">
         <v>-578.9999999999998</v>
@@ -3245,13 +3257,13 @@
         <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C46" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3269,7 +3281,7 @@
         <v>9697.799999999999</v>
       </c>
       <c r="J46">
-        <v>368.25</v>
+        <v>363</v>
       </c>
       <c r="L46">
         <v>329.03</v>
@@ -3281,13 +3293,13 @@
         <v>0</v>
       </c>
       <c r="P46">
-        <v>613.2</v>
+        <v>466.2</v>
       </c>
       <c r="Q46">
-        <v>613.2</v>
+        <v>466.2</v>
       </c>
       <c r="R46">
-        <v>6.32</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -3295,13 +3307,13 @@
         <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D47" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3331,7 +3343,7 @@
         <v>2947.18</v>
       </c>
       <c r="N47" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O47">
         <v>-465.360000000001</v>
@@ -3351,13 +3363,13 @@
         <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D48" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3375,7 +3387,7 @@
         <v>7448.2</v>
       </c>
       <c r="J48">
-        <v>3963</v>
+        <v>3909.2</v>
       </c>
       <c r="L48">
         <v>3724.1</v>
@@ -3387,13 +3399,13 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>477.8</v>
+        <v>370.2</v>
       </c>
       <c r="Q48">
-        <v>477.8</v>
+        <v>370.2</v>
       </c>
       <c r="R48">
-        <v>6.41</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -3401,13 +3413,13 @@
         <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D49" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -3437,7 +3449,7 @@
         <v>3074.61</v>
       </c>
       <c r="N49" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O49">
         <v>585.6400000000008</v>
@@ -3460,13 +3472,13 @@
         <v>32</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D50" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3496,7 +3508,7 @@
         <v>1982.08</v>
       </c>
       <c r="N50" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O50">
         <v>-417.2800000000007</v>
@@ -3516,13 +3528,13 @@
         <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D51" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3552,7 +3564,7 @@
         <v>520.6</v>
       </c>
       <c r="N51" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O51">
         <v>-493.1999999999996</v>
@@ -3572,13 +3584,13 @@
         <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C52" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D52" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -3596,7 +3608,7 @@
         <v>9915.6</v>
       </c>
       <c r="J52">
-        <v>474</v>
+        <v>466.6</v>
       </c>
       <c r="L52">
         <v>433.81</v>
@@ -3608,13 +3620,13 @@
         <v>495.7800000000007</v>
       </c>
       <c r="P52">
-        <v>730.2</v>
+        <v>641.4</v>
       </c>
       <c r="Q52">
-        <v>1225.98</v>
+        <v>1137.18</v>
       </c>
       <c r="R52">
-        <v>12.36</v>
+        <v>11.47</v>
       </c>
       <c r="S52" t="s">
         <v>40</v>
@@ -3625,13 +3637,13 @@
         <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D53" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3661,7 +3673,7 @@
         <v>185.38</v>
       </c>
       <c r="N53" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="O53">
         <v>-118.190000000001</v>
@@ -3681,13 +3693,13 @@
         <v>34</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D54" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -3699,7 +3711,7 @@
         <v>2</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>7950.4</v>
@@ -3707,23 +3719,29 @@
       <c r="J54">
         <v>4275.8</v>
       </c>
+      <c r="K54" t="s">
+        <v>44</v>
+      </c>
       <c r="L54">
         <v>4173.96</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <v>4173.96</v>
+      </c>
+      <c r="N54" t="s">
+        <v>117</v>
       </c>
       <c r="O54">
-        <v>397.5200000000005</v>
+        <v>596.2800000000007</v>
       </c>
       <c r="P54">
-        <v>300.6</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>698.12</v>
+        <v>596.2800000000007</v>
       </c>
       <c r="R54">
-        <v>8.779999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="S54" t="s">
         <v>42</v>
@@ -3734,13 +3752,13 @@
         <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D55" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -3758,7 +3776,7 @@
         <v>9973.5</v>
       </c>
       <c r="J55">
-        <v>2211.8</v>
+        <v>2136.6</v>
       </c>
       <c r="L55">
         <v>2094.43</v>
@@ -3770,13 +3788,13 @@
         <v>398.9400000000001</v>
       </c>
       <c r="P55">
-        <v>651.3</v>
+        <v>425.7</v>
       </c>
       <c r="Q55">
-        <v>1050.24</v>
+        <v>824.64</v>
       </c>
       <c r="R55">
-        <v>10.53</v>
+        <v>8.27</v>
       </c>
       <c r="S55" t="s">
         <v>38</v>
@@ -3787,13 +3805,13 @@
         <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C56" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D56" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3823,7 +3841,7 @@
         <v>814.2</v>
       </c>
       <c r="N56" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="O56">
         <v>-490.599999999999</v>
@@ -3843,13 +3861,13 @@
         <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C57" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D57" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3867,7 +3885,7 @@
         <v>9578.25</v>
       </c>
       <c r="J57">
-        <v>651.8</v>
+        <v>626.4</v>
       </c>
       <c r="L57">
         <v>606.62</v>
@@ -3879,13 +3897,13 @@
         <v>0</v>
       </c>
       <c r="P57">
-        <v>198.75</v>
+        <v>-182.25</v>
       </c>
       <c r="Q57">
-        <v>198.75</v>
+        <v>-182.25</v>
       </c>
       <c r="R57">
-        <v>2.08</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -3893,13 +3911,13 @@
         <v>36</v>
       </c>
       <c r="B58" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C58" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D58" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3929,7 +3947,7 @@
         <v>922.92</v>
       </c>
       <c r="N58" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O58">
         <v>-485.8000000000004</v>
@@ -3949,13 +3967,13 @@
         <v>37</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C59" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D59" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -3973,7 +3991,7 @@
         <v>9876.6</v>
       </c>
       <c r="J59">
-        <v>178.11</v>
+        <v>176.77</v>
       </c>
       <c r="L59">
         <v>172.84</v>
@@ -3985,13 +4003,13 @@
         <v>493.8300000000004</v>
       </c>
       <c r="P59">
-        <v>405</v>
+        <v>364.8</v>
       </c>
       <c r="Q59">
-        <v>898.83</v>
+        <v>858.63</v>
       </c>
       <c r="R59">
-        <v>9.1</v>
+        <v>8.69</v>
       </c>
       <c r="S59" t="s">
         <v>42</v>
@@ -4002,13 +4020,13 @@
         <v>37</v>
       </c>
       <c r="B60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C60" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D60" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -4026,7 +4044,7 @@
         <v>9944.179999999998</v>
       </c>
       <c r="J60">
-        <v>163.72</v>
+        <v>161.69</v>
       </c>
       <c r="L60">
         <v>152.37</v>
@@ -4038,13 +4056,13 @@
         <v>0</v>
       </c>
       <c r="P60">
-        <v>206.46</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="Q60">
-        <v>206.46</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="R60">
-        <v>2.08</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -4052,13 +4070,13 @@
         <v>37</v>
       </c>
       <c r="B61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C61" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D61" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -4076,7 +4094,7 @@
         <v>9933</v>
       </c>
       <c r="J61">
-        <v>479.5</v>
+        <v>474.7</v>
       </c>
       <c r="L61">
         <v>428.92</v>
@@ -4088,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="P61">
-        <v>616</v>
+        <v>510.4</v>
       </c>
       <c r="Q61">
-        <v>616</v>
+        <v>510.4</v>
       </c>
       <c r="R61">
-        <v>6.2</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -4102,13 +4120,13 @@
         <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C62" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D62" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E62">
         <v>3</v>
@@ -4138,7 +4156,7 @@
         <v>967.15</v>
       </c>
       <c r="N62" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O62">
         <v>1167.96</v>
@@ -4153,7 +4171,7 @@
         <v>12.58</v>
       </c>
       <c r="S62" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -4161,13 +4179,13 @@
         <v>38</v>
       </c>
       <c r="B63" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C63" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D63" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -4197,7 +4215,7 @@
         <v>116.49</v>
       </c>
       <c r="N63" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O63">
         <v>-496.5300000000008</v>
@@ -4217,13 +4235,13 @@
         <v>38</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C64" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D64" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -4235,7 +4253,7 @@
         <v>22</v>
       </c>
       <c r="H64">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>9567.799999999999</v>
@@ -4243,23 +4261,29 @@
       <c r="J64">
         <v>419.15</v>
       </c>
+      <c r="K64" t="s">
+        <v>44</v>
+      </c>
       <c r="L64">
         <v>413.15</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>412.3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>118</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>-497.1999999999992</v>
       </c>
       <c r="P64">
-        <v>-346.5</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>-346.5</v>
+        <v>-497.1999999999992</v>
       </c>
       <c r="R64">
-        <v>-3.62</v>
+        <v>-5.2</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4267,13 +4291,13 @@
         <v>38</v>
       </c>
       <c r="B65" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C65" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D65" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -4291,7 +4315,7 @@
         <v>9407.4</v>
       </c>
       <c r="J65">
-        <v>1543.7</v>
+        <v>1519</v>
       </c>
       <c r="L65">
         <v>1489.51</v>
@@ -4303,13 +4327,13 @@
         <v>0</v>
       </c>
       <c r="P65">
-        <v>-145.2</v>
+        <v>-293.4</v>
       </c>
       <c r="Q65">
-        <v>-145.2</v>
+        <v>-293.4</v>
       </c>
       <c r="R65">
-        <v>-1.54</v>
+        <v>-3.12</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4317,13 +4341,13 @@
         <v>38</v>
       </c>
       <c r="B66" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C66" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D66" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -4341,7 +4365,7 @@
         <v>9877.15</v>
       </c>
       <c r="J66">
-        <v>276.35</v>
+        <v>267.4</v>
       </c>
       <c r="L66">
         <v>253.6</v>
@@ -4353,13 +4377,13 @@
         <v>0</v>
       </c>
       <c r="P66">
-        <v>347.8</v>
+        <v>16.65</v>
       </c>
       <c r="Q66">
-        <v>347.8</v>
+        <v>16.65</v>
       </c>
       <c r="R66">
-        <v>3.52</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4367,13 +4391,13 @@
         <v>38</v>
       </c>
       <c r="B67" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D67" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -4403,7 +4427,7 @@
         <v>5558.93</v>
       </c>
       <c r="N67" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O67">
         <v>-292.5699999999997</v>
@@ -4423,13 +4447,13 @@
         <v>38</v>
       </c>
       <c r="B68" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C68" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D68" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -4459,7 +4483,7 @@
         <v>456.1</v>
       </c>
       <c r="N68" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O68">
         <v>-480</v>
@@ -4479,13 +4503,13 @@
         <v>38</v>
       </c>
       <c r="B69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C69" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D69" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -4503,7 +4527,7 @@
         <v>8697.5</v>
       </c>
       <c r="J69">
-        <v>1731.8</v>
+        <v>1709.4</v>
       </c>
       <c r="L69">
         <v>1652.52</v>
@@ -4515,13 +4539,13 @@
         <v>0</v>
       </c>
       <c r="P69">
-        <v>-38.5</v>
+        <v>-150.5</v>
       </c>
       <c r="Q69">
-        <v>-38.5</v>
+        <v>-150.5</v>
       </c>
       <c r="R69">
-        <v>-0.44</v>
+        <v>-1.73</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -4529,13 +4553,13 @@
         <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C70" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D70" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -4547,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>5198.5</v>
@@ -4555,23 +4579,29 @@
       <c r="J70">
         <v>4976</v>
       </c>
+      <c r="K70" t="s">
+        <v>44</v>
+      </c>
       <c r="L70">
         <v>4938.57</v>
       </c>
       <c r="M70">
-        <v>0</v>
+        <v>4850</v>
+      </c>
+      <c r="N70" t="s">
+        <v>118</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>-348.5</v>
       </c>
       <c r="P70">
-        <v>-222.5</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>-222.5</v>
+        <v>-348.5</v>
       </c>
       <c r="R70">
-        <v>-4.28</v>
+        <v>-6.7</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -4579,13 +4609,13 @@
         <v>39</v>
       </c>
       <c r="B71" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C71" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D71" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -4603,7 +4633,7 @@
         <v>9785.75</v>
       </c>
       <c r="J71">
-        <v>770.65</v>
+        <v>760.15</v>
       </c>
       <c r="L71">
         <v>715.11</v>
@@ -4615,13 +4645,13 @@
         <v>0</v>
       </c>
       <c r="P71">
-        <v>232.7</v>
+        <v>96.2</v>
       </c>
       <c r="Q71">
-        <v>232.7</v>
+        <v>96.2</v>
       </c>
       <c r="R71">
-        <v>2.38</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -4629,13 +4659,13 @@
         <v>40</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C72" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D72" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -4653,7 +4683,7 @@
         <v>9952.799999999999</v>
       </c>
       <c r="J72">
-        <v>132.74</v>
+        <v>131.26</v>
       </c>
       <c r="L72">
         <v>124.41</v>
@@ -4665,13 +4695,13 @@
         <v>0</v>
       </c>
       <c r="P72">
-        <v>666.4</v>
+        <v>548</v>
       </c>
       <c r="Q72">
-        <v>666.4</v>
+        <v>548</v>
       </c>
       <c r="R72">
-        <v>6.7</v>
+        <v>5.51</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -4679,13 +4709,13 @@
         <v>40</v>
       </c>
       <c r="B73" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C73" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -4715,7 +4745,7 @@
         <v>1540.62</v>
       </c>
       <c r="N73" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O73">
         <v>-486.4800000000009</v>
@@ -4735,13 +4765,13 @@
         <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C74" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D74" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -4771,7 +4801,7 @@
         <v>261.9</v>
       </c>
       <c r="N74" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="O74">
         <v>-511.2000000000016</v>
@@ -4791,13 +4821,13 @@
         <v>41</v>
       </c>
       <c r="B75" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C75" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D75" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -4809,7 +4839,7 @@
         <v>67</v>
       </c>
       <c r="H75">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>9986.35</v>
@@ -4817,23 +4847,29 @@
       <c r="J75">
         <v>149.79</v>
       </c>
+      <c r="K75" t="s">
+        <v>44</v>
+      </c>
       <c r="L75">
         <v>141.6</v>
       </c>
       <c r="M75">
-        <v>0</v>
+        <v>141.6</v>
+      </c>
+      <c r="N75" t="s">
+        <v>117</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>-499.1500000000011</v>
       </c>
       <c r="P75">
-        <v>49.58</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>49.58</v>
+        <v>-499.1500000000011</v>
       </c>
       <c r="R75">
-        <v>0.5</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -4841,13 +4877,13 @@
         <v>41</v>
       </c>
       <c r="B76" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C76" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D76" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -4877,7 +4913,7 @@
         <v>1134.58</v>
       </c>
       <c r="N76" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O76">
         <v>-477.7600000000002</v>
@@ -4897,13 +4933,13 @@
         <v>41</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C77" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D77" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -4933,7 +4969,7 @@
         <v>2835.37</v>
       </c>
       <c r="N77" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O77">
         <v>-447.6900000000001</v>
@@ -4953,13 +4989,13 @@
         <v>42</v>
       </c>
       <c r="B78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C78" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D78" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -4977,7 +5013,7 @@
         <v>6019</v>
       </c>
       <c r="J78">
-        <v>6102</v>
+        <v>5980.5</v>
       </c>
       <c r="L78">
         <v>5718.05</v>
@@ -4989,13 +5025,13 @@
         <v>0</v>
       </c>
       <c r="P78">
-        <v>83</v>
+        <v>-38.5</v>
       </c>
       <c r="Q78">
-        <v>83</v>
+        <v>-38.5</v>
       </c>
       <c r="R78">
-        <v>1.38</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5003,13 +5039,13 @@
         <v>43</v>
       </c>
       <c r="B79" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C79" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D79" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -5027,7 +5063,7 @@
         <v>9647.1</v>
       </c>
       <c r="J79">
-        <v>535.95</v>
+        <v>519.9</v>
       </c>
       <c r="L79">
         <v>509.15</v>
@@ -5039,12 +5075,212 @@
         <v>0</v>
       </c>
       <c r="P79">
-        <v>0</v>
+        <v>-288.9</v>
       </c>
       <c r="Q79">
-        <v>0</v>
+        <v>-288.9</v>
       </c>
       <c r="R79">
+        <v>-2.99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="A80" t="s">
+        <v>44</v>
+      </c>
+      <c r="B80" t="s">
+        <v>104</v>
+      </c>
+      <c r="C80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D80" t="s">
+        <v>111</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>346.9</v>
+      </c>
+      <c r="G80">
+        <v>28</v>
+      </c>
+      <c r="H80">
+        <v>28</v>
+      </c>
+      <c r="I80">
+        <v>9713.199999999999</v>
+      </c>
+      <c r="J80">
+        <v>346.9</v>
+      </c>
+      <c r="L80">
+        <v>329.55</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
+      <c r="A81" t="s">
+        <v>44</v>
+      </c>
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81" t="s">
+        <v>109</v>
+      </c>
+      <c r="D81" t="s">
+        <v>111</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>1414.6</v>
+      </c>
+      <c r="G81">
+        <v>7</v>
+      </c>
+      <c r="H81">
+        <v>7</v>
+      </c>
+      <c r="I81">
+        <v>9902.199999999999</v>
+      </c>
+      <c r="J81">
+        <v>1414.6</v>
+      </c>
+      <c r="L81">
+        <v>1343.87</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
+      <c r="A82" t="s">
+        <v>44</v>
+      </c>
+      <c r="B82" t="s">
+        <v>105</v>
+      </c>
+      <c r="C82" t="s">
+        <v>108</v>
+      </c>
+      <c r="D82" t="s">
+        <v>111</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>287.45</v>
+      </c>
+      <c r="G82">
+        <v>34</v>
+      </c>
+      <c r="H82">
+        <v>34</v>
+      </c>
+      <c r="I82">
+        <v>9773.299999999999</v>
+      </c>
+      <c r="J82">
+        <v>287.45</v>
+      </c>
+      <c r="L82">
+        <v>273.08</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
+      <c r="A83" t="s">
+        <v>44</v>
+      </c>
+      <c r="B83" t="s">
+        <v>106</v>
+      </c>
+      <c r="C83" t="s">
+        <v>108</v>
+      </c>
+      <c r="D83" t="s">
+        <v>111</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>592.85</v>
+      </c>
+      <c r="G83">
+        <v>16</v>
+      </c>
+      <c r="H83">
+        <v>16</v>
+      </c>
+      <c r="I83">
+        <v>9485.6</v>
+      </c>
+      <c r="J83">
+        <v>592.85</v>
+      </c>
+      <c r="L83">
+        <v>563.21</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
         <v>0</v>
       </c>
     </row>

--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="122">
   <si>
     <t>Buy Date</t>
   </si>
@@ -151,6 +151,9 @@
     <t>2026-02-13</t>
   </si>
   <si>
+    <t>2026-02-16</t>
+  </si>
+  <si>
     <t>ADANIENT</t>
   </si>
   <si>
@@ -335,6 +338,9 @@
   </si>
   <si>
     <t>HINDZINC</t>
+  </si>
+  <si>
+    <t>BAJFINANCE</t>
   </si>
   <si>
     <t>Value Buy</t>
@@ -737,7 +743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S83"/>
+  <dimension ref="A1:S85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -817,13 +823,13 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -853,7 +859,7 @@
         <v>2093.04</v>
       </c>
       <c r="N2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O2">
         <v>-440.6399999999994</v>
@@ -873,13 +879,13 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -897,7 +903,7 @@
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1332.3</v>
+        <v>1358.3</v>
       </c>
       <c r="L3">
         <v>1293.6</v>
@@ -909,13 +915,13 @@
         <v>492.8000000000002</v>
       </c>
       <c r="P3">
-        <v>401.2</v>
+        <v>505.2</v>
       </c>
       <c r="Q3">
-        <v>894</v>
+        <v>998</v>
       </c>
       <c r="R3">
-        <v>9.07</v>
+        <v>10.13</v>
       </c>
       <c r="S3" t="s">
         <v>34</v>
@@ -926,13 +932,13 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -962,7 +968,7 @@
         <v>5739.43</v>
       </c>
       <c r="N4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O4">
         <v>-302.0699999999997</v>
@@ -982,13 +988,13 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1006,7 +1012,7 @@
         <v>8527.200000000001</v>
       </c>
       <c r="J5">
-        <v>2888</v>
+        <v>2912.7</v>
       </c>
       <c r="L5">
         <v>2700.28</v>
@@ -1018,13 +1024,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>136.8</v>
+        <v>210.9</v>
       </c>
       <c r="Q5">
-        <v>136.8</v>
+        <v>210.9</v>
       </c>
       <c r="R5">
-        <v>1.6</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1032,13 +1038,13 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1050,7 +1056,7 @@
         <v>4</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>9173.200000000001</v>
@@ -1058,23 +1064,29 @@
       <c r="J6">
         <v>2305.2</v>
       </c>
+      <c r="K6" t="s">
+        <v>45</v>
+      </c>
       <c r="L6">
         <v>2293.3</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2293.3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>119</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1082,13 +1094,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1106,7 +1118,7 @@
         <v>8960</v>
       </c>
       <c r="J7">
-        <v>1282.6</v>
+        <v>1289.8</v>
       </c>
       <c r="L7">
         <v>1216</v>
@@ -1118,13 +1130,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>18.2</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="Q7">
-        <v>18.2</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="R7">
-        <v>0.2</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1132,13 +1144,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1168,7 +1180,7 @@
         <v>3066.4</v>
       </c>
       <c r="N8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O8">
         <v>-522.8999999999992</v>
@@ -1188,13 +1200,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1224,7 +1236,7 @@
         <v>2901.59</v>
       </c>
       <c r="N9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O9">
         <v>-458.1300000000001</v>
@@ -1244,13 +1256,13 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1280,7 +1292,7 @@
         <v>2922.11</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O10">
         <v>-461.3699999999999</v>
@@ -1300,13 +1312,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1327,7 +1339,7 @@
         <v>183.56</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L11">
         <v>180.92</v>
@@ -1336,7 +1348,7 @@
         <v>180.92</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O11">
         <v>749.6499999999999</v>
@@ -1351,7 +1363,7 @@
         <v>7.5</v>
       </c>
       <c r="S11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1359,13 +1371,13 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1395,7 +1407,7 @@
         <v>1651</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O12">
         <v>599.5200000000004</v>
@@ -1418,13 +1430,13 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1454,7 +1466,7 @@
         <v>732.4</v>
       </c>
       <c r="N13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O13">
         <v>-462.6000000000008</v>
@@ -1474,13 +1486,13 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1510,7 +1522,7 @@
         <v>651.2</v>
       </c>
       <c r="N14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1530,13 +1542,13 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1566,7 +1578,7 @@
         <v>1135.44</v>
       </c>
       <c r="N15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O15">
         <v>-478.0799999999999</v>
@@ -1586,13 +1598,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1622,7 +1634,7 @@
         <v>5731.82</v>
       </c>
       <c r="N16" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O16">
         <v>-301.6800000000003</v>
@@ -1642,13 +1654,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1666,7 +1678,7 @@
         <v>9282</v>
       </c>
       <c r="J17">
-        <v>9760</v>
+        <v>9697.5</v>
       </c>
       <c r="L17">
         <v>8817.9</v>
@@ -1678,13 +1690,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>478</v>
+        <v>415.5</v>
       </c>
       <c r="Q17">
-        <v>478</v>
+        <v>415.5</v>
       </c>
       <c r="R17">
-        <v>5.15</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1692,13 +1704,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1728,7 +1740,7 @@
         <v>282.8</v>
       </c>
       <c r="N18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1748,13 +1760,13 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1784,7 +1796,7 @@
         <v>1342.35</v>
       </c>
       <c r="N19" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O19">
         <v>-494.5500000000006</v>
@@ -1804,13 +1816,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1840,7 +1852,7 @@
         <v>5425.45</v>
       </c>
       <c r="N20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O20">
         <v>-285.5500000000002</v>
@@ -1860,13 +1872,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1887,7 +1899,7 @@
         <v>132.36</v>
       </c>
       <c r="K21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L21">
         <v>128.5</v>
@@ -1896,7 +1908,7 @@
         <v>128.499</v>
       </c>
       <c r="N21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O21">
         <v>495.639</v>
@@ -1916,13 +1928,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1943,7 +1955,7 @@
         <v>4021.8</v>
       </c>
       <c r="K22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L22">
         <v>3974.1</v>
@@ -1952,7 +1964,7 @@
         <v>3974.1</v>
       </c>
       <c r="N22" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1972,13 +1984,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2008,7 +2020,7 @@
         <v>972.9400000000001</v>
       </c>
       <c r="N23" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O23">
         <v>-460.8900000000003</v>
@@ -2028,13 +2040,13 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2064,7 +2076,7 @@
         <v>158.14</v>
       </c>
       <c r="N24" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O24">
         <v>-499.2000000000013</v>
@@ -2084,13 +2096,13 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2120,7 +2132,7 @@
         <v>1001.11</v>
       </c>
       <c r="N25" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O25">
         <v>-474.2099999999995</v>
@@ -2140,13 +2152,13 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D26" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2167,7 +2179,7 @@
         <v>267.45</v>
       </c>
       <c r="K26" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L26">
         <v>253.98</v>
@@ -2176,7 +2188,7 @@
         <v>252</v>
       </c>
       <c r="N26" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O26">
         <v>-567.9500000000008</v>
@@ -2196,13 +2208,13 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2232,7 +2244,7 @@
         <v>951.52</v>
       </c>
       <c r="N27" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O27">
         <v>-450.7200000000004</v>
@@ -2252,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2288,7 +2300,7 @@
         <v>1880.9</v>
       </c>
       <c r="N28" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O28">
         <v>-495</v>
@@ -2308,13 +2320,13 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2344,7 +2356,7 @@
         <v>854</v>
       </c>
       <c r="N29" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O29">
         <v>-523.0499999999995</v>
@@ -2364,13 +2376,13 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2400,7 +2412,7 @@
         <v>6310.38</v>
       </c>
       <c r="N30" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O30">
         <v>-332.1199999999999</v>
@@ -2420,13 +2432,13 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2447,7 +2459,7 @@
         <v>546.75</v>
       </c>
       <c r="K31" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L31">
         <v>541.83</v>
@@ -2456,7 +2468,7 @@
         <v>541.83</v>
       </c>
       <c r="N31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O31">
         <v>-484.8399999999997</v>
@@ -2476,13 +2488,13 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2512,7 +2524,7 @@
         <v>738.96</v>
       </c>
       <c r="N32" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O32">
         <v>-466.6799999999998</v>
@@ -2532,13 +2544,13 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2568,7 +2580,7 @@
         <v>637.64</v>
       </c>
       <c r="N33" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O33">
         <v>-469.8400000000008</v>
@@ -2588,13 +2600,13 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2615,7 +2627,7 @@
         <v>1728.7</v>
       </c>
       <c r="K34" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L34">
         <v>1693.47</v>
@@ -2624,7 +2636,7 @@
         <v>1693.47</v>
       </c>
       <c r="N34" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O34">
         <v>-445.6499999999994</v>
@@ -2644,13 +2656,13 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2671,7 +2683,7 @@
         <v>414.55</v>
       </c>
       <c r="K35" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L35">
         <v>409.31</v>
@@ -2680,7 +2692,7 @@
         <v>409.31</v>
       </c>
       <c r="N35" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O35">
         <v>-495.4200000000005</v>
@@ -2700,13 +2712,13 @@
         <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2736,7 +2748,7 @@
         <v>4769.95</v>
       </c>
       <c r="N36" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O36">
         <v>-251.0500000000001</v>
@@ -2756,13 +2768,13 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D37" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2792,7 +2804,7 @@
         <v>109.86</v>
       </c>
       <c r="N37" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O37">
         <v>-497.0800000000001</v>
@@ -2812,13 +2824,13 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D38" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -2848,7 +2860,7 @@
         <v>439.27</v>
       </c>
       <c r="N38" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O38">
         <v>711.2249999999999</v>
@@ -2871,13 +2883,13 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D39" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2907,7 +2919,7 @@
         <v>260.54</v>
       </c>
       <c r="N39" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O39">
         <v>-493.5599999999993</v>
@@ -2927,13 +2939,13 @@
         <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D40" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2963,7 +2975,7 @@
         <v>1578.33</v>
       </c>
       <c r="N40" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O40">
         <v>-498.420000000001</v>
@@ -2983,13 +2995,13 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -3019,7 +3031,7 @@
         <v>2751.58</v>
       </c>
       <c r="N41" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O41">
         <v>-434.4600000000005</v>
@@ -3039,13 +3051,13 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3066,7 +3078,7 @@
         <v>1375.8</v>
       </c>
       <c r="K42" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L42">
         <v>1342.44</v>
@@ -3075,7 +3087,7 @@
         <v>1342.44</v>
       </c>
       <c r="N42" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O42">
         <v>-494.619999999999</v>
@@ -3095,13 +3107,13 @@
         <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D43" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3122,7 +3134,7 @@
         <v>4056.4</v>
       </c>
       <c r="K43" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L43">
         <v>3853.58</v>
@@ -3131,7 +3143,7 @@
         <v>3853.58</v>
       </c>
       <c r="N43" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O43">
         <v>-405.6400000000003</v>
@@ -3151,13 +3163,13 @@
         <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D44" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3175,7 +3187,7 @@
         <v>9686.25</v>
       </c>
       <c r="J44">
-        <v>374.1</v>
+        <v>374.35</v>
       </c>
       <c r="L44">
         <v>358.75</v>
@@ -3187,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>414.45</v>
+        <v>421.2</v>
       </c>
       <c r="Q44">
-        <v>414.45</v>
+        <v>421.2</v>
       </c>
       <c r="R44">
-        <v>4.28</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -3201,13 +3213,13 @@
         <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D45" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3237,7 +3249,7 @@
         <v>1574</v>
       </c>
       <c r="N45" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O45">
         <v>-578.9999999999998</v>
@@ -3257,13 +3269,13 @@
         <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C46" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D46" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3281,7 +3293,7 @@
         <v>9697.799999999999</v>
       </c>
       <c r="J46">
-        <v>363</v>
+        <v>369.1</v>
       </c>
       <c r="L46">
         <v>329.03</v>
@@ -3293,13 +3305,13 @@
         <v>0</v>
       </c>
       <c r="P46">
-        <v>466.2</v>
+        <v>637</v>
       </c>
       <c r="Q46">
-        <v>466.2</v>
+        <v>637</v>
       </c>
       <c r="R46">
-        <v>4.81</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -3307,13 +3319,13 @@
         <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D47" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3343,7 +3355,7 @@
         <v>2947.18</v>
       </c>
       <c r="N47" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O47">
         <v>-465.360000000001</v>
@@ -3363,13 +3375,13 @@
         <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D48" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3387,7 +3399,7 @@
         <v>7448.2</v>
       </c>
       <c r="J48">
-        <v>3909.2</v>
+        <v>3880.7</v>
       </c>
       <c r="L48">
         <v>3724.1</v>
@@ -3399,13 +3411,13 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>370.2</v>
+        <v>313.2</v>
       </c>
       <c r="Q48">
-        <v>370.2</v>
+        <v>313.2</v>
       </c>
       <c r="R48">
-        <v>4.97</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -3413,13 +3425,13 @@
         <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D49" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -3449,7 +3461,7 @@
         <v>3074.61</v>
       </c>
       <c r="N49" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O49">
         <v>585.6400000000008</v>
@@ -3472,13 +3484,13 @@
         <v>32</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D50" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3508,7 +3520,7 @@
         <v>1982.08</v>
       </c>
       <c r="N50" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O50">
         <v>-417.2800000000007</v>
@@ -3528,13 +3540,13 @@
         <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C51" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D51" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3564,7 +3576,7 @@
         <v>520.6</v>
       </c>
       <c r="N51" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O51">
         <v>-493.1999999999996</v>
@@ -3584,16 +3596,16 @@
         <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D52" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F52">
         <v>413.15</v>
@@ -3602,7 +3614,7 @@
         <v>24</v>
       </c>
       <c r="H52">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>9915.6</v>
@@ -3610,20 +3622,26 @@
       <c r="J52">
         <v>466.6</v>
       </c>
+      <c r="K52" t="s">
+        <v>45</v>
+      </c>
       <c r="L52">
-        <v>433.81</v>
+        <v>466.6</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>466.6</v>
+      </c>
+      <c r="N52" t="s">
+        <v>120</v>
       </c>
       <c r="O52">
-        <v>495.7800000000007</v>
+        <v>1137.180000000001</v>
       </c>
       <c r="P52">
-        <v>641.4</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>1137.18</v>
+        <v>1137.180000000001</v>
       </c>
       <c r="R52">
         <v>11.47</v>
@@ -3637,13 +3655,13 @@
         <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D53" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3673,7 +3691,7 @@
         <v>185.38</v>
       </c>
       <c r="N53" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O53">
         <v>-118.190000000001</v>
@@ -3693,13 +3711,13 @@
         <v>34</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C54" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D54" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -3729,7 +3747,7 @@
         <v>4173.96</v>
       </c>
       <c r="N54" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O54">
         <v>596.2800000000007</v>
@@ -3752,13 +3770,13 @@
         <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C55" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D55" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -3776,7 +3794,7 @@
         <v>9973.5</v>
       </c>
       <c r="J55">
-        <v>2136.6</v>
+        <v>2184.6</v>
       </c>
       <c r="L55">
         <v>2094.43</v>
@@ -3788,13 +3806,13 @@
         <v>398.9400000000001</v>
       </c>
       <c r="P55">
-        <v>425.7</v>
+        <v>569.7</v>
       </c>
       <c r="Q55">
-        <v>824.64</v>
+        <v>968.64</v>
       </c>
       <c r="R55">
-        <v>8.27</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="S55" t="s">
         <v>38</v>
@@ -3805,13 +3823,13 @@
         <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C56" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D56" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3841,7 +3859,7 @@
         <v>814.2</v>
       </c>
       <c r="N56" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O56">
         <v>-490.599999999999</v>
@@ -3861,13 +3879,13 @@
         <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C57" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3885,7 +3903,7 @@
         <v>9578.25</v>
       </c>
       <c r="J57">
-        <v>626.4</v>
+        <v>643.8</v>
       </c>
       <c r="L57">
         <v>606.62</v>
@@ -3897,13 +3915,13 @@
         <v>0</v>
       </c>
       <c r="P57">
-        <v>-182.25</v>
+        <v>78.75</v>
       </c>
       <c r="Q57">
-        <v>-182.25</v>
+        <v>78.75</v>
       </c>
       <c r="R57">
-        <v>-1.9</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -3911,13 +3929,13 @@
         <v>36</v>
       </c>
       <c r="B58" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C58" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D58" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3947,7 +3965,7 @@
         <v>922.92</v>
       </c>
       <c r="N58" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O58">
         <v>-485.8000000000004</v>
@@ -3967,13 +3985,13 @@
         <v>37</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D59" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -3991,7 +4009,7 @@
         <v>9876.6</v>
       </c>
       <c r="J59">
-        <v>176.77</v>
+        <v>175.15</v>
       </c>
       <c r="L59">
         <v>172.84</v>
@@ -4003,13 +4021,13 @@
         <v>493.8300000000004</v>
       </c>
       <c r="P59">
-        <v>364.8</v>
+        <v>316.2</v>
       </c>
       <c r="Q59">
-        <v>858.63</v>
+        <v>810.03</v>
       </c>
       <c r="R59">
-        <v>8.69</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S59" t="s">
         <v>42</v>
@@ -4020,13 +4038,13 @@
         <v>37</v>
       </c>
       <c r="B60" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C60" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D60" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -4044,7 +4062,7 @@
         <v>9944.179999999998</v>
       </c>
       <c r="J60">
-        <v>161.69</v>
+        <v>164.82</v>
       </c>
       <c r="L60">
         <v>152.37</v>
@@ -4056,13 +4074,13 @@
         <v>0</v>
       </c>
       <c r="P60">
-        <v>80.59999999999999</v>
+        <v>274.66</v>
       </c>
       <c r="Q60">
-        <v>80.59999999999999</v>
+        <v>274.66</v>
       </c>
       <c r="R60">
-        <v>0.8100000000000001</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -4070,16 +4088,16 @@
         <v>37</v>
       </c>
       <c r="B61" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C61" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D61" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
         <v>451.5</v>
@@ -4094,10 +4112,10 @@
         <v>9933</v>
       </c>
       <c r="J61">
-        <v>474.7</v>
+        <v>489.95</v>
       </c>
       <c r="L61">
-        <v>428.92</v>
+        <v>451.5</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -4106,13 +4124,13 @@
         <v>0</v>
       </c>
       <c r="P61">
-        <v>510.4</v>
+        <v>845.9</v>
       </c>
       <c r="Q61">
-        <v>510.4</v>
+        <v>845.9</v>
       </c>
       <c r="R61">
-        <v>5.14</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -4120,13 +4138,13 @@
         <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C62" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D62" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E62">
         <v>3</v>
@@ -4156,7 +4174,7 @@
         <v>967.15</v>
       </c>
       <c r="N62" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O62">
         <v>1167.96</v>
@@ -4171,7 +4189,7 @@
         <v>12.58</v>
       </c>
       <c r="S62" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -4179,13 +4197,13 @@
         <v>38</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C63" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D63" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -4215,7 +4233,7 @@
         <v>116.49</v>
       </c>
       <c r="N63" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O63">
         <v>-496.5300000000008</v>
@@ -4235,13 +4253,13 @@
         <v>38</v>
       </c>
       <c r="B64" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C64" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D64" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -4271,16 +4289,16 @@
         <v>412.3</v>
       </c>
       <c r="N64" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O64">
-        <v>-497.1999999999992</v>
+        <v>-497.1999999999993</v>
       </c>
       <c r="P64">
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>-497.1999999999992</v>
+        <v>-497.1999999999993</v>
       </c>
       <c r="R64">
         <v>-5.2</v>
@@ -4291,13 +4309,13 @@
         <v>38</v>
       </c>
       <c r="B65" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C65" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D65" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -4315,7 +4333,7 @@
         <v>9407.4</v>
       </c>
       <c r="J65">
-        <v>1519</v>
+        <v>1540.1</v>
       </c>
       <c r="L65">
         <v>1489.51</v>
@@ -4327,13 +4345,13 @@
         <v>0</v>
       </c>
       <c r="P65">
-        <v>-293.4</v>
+        <v>-166.8</v>
       </c>
       <c r="Q65">
-        <v>-293.4</v>
+        <v>-166.8</v>
       </c>
       <c r="R65">
-        <v>-3.12</v>
+        <v>-1.77</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4341,13 +4359,13 @@
         <v>38</v>
       </c>
       <c r="B66" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C66" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D66" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -4365,7 +4383,7 @@
         <v>9877.15</v>
       </c>
       <c r="J66">
-        <v>267.4</v>
+        <v>271.55</v>
       </c>
       <c r="L66">
         <v>253.6</v>
@@ -4377,13 +4395,13 @@
         <v>0</v>
       </c>
       <c r="P66">
-        <v>16.65</v>
+        <v>170.2</v>
       </c>
       <c r="Q66">
-        <v>16.65</v>
+        <v>170.2</v>
       </c>
       <c r="R66">
-        <v>0.17</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4391,13 +4409,13 @@
         <v>38</v>
       </c>
       <c r="B67" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D67" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -4427,7 +4445,7 @@
         <v>5558.93</v>
       </c>
       <c r="N67" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O67">
         <v>-292.5699999999997</v>
@@ -4447,13 +4465,13 @@
         <v>38</v>
       </c>
       <c r="B68" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C68" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D68" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -4483,7 +4501,7 @@
         <v>456.1</v>
       </c>
       <c r="N68" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O68">
         <v>-480</v>
@@ -4503,13 +4521,13 @@
         <v>38</v>
       </c>
       <c r="B69" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C69" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D69" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -4527,7 +4545,7 @@
         <v>8697.5</v>
       </c>
       <c r="J69">
-        <v>1709.4</v>
+        <v>1714.8</v>
       </c>
       <c r="L69">
         <v>1652.52</v>
@@ -4539,13 +4557,13 @@
         <v>0</v>
       </c>
       <c r="P69">
-        <v>-150.5</v>
+        <v>-123.5</v>
       </c>
       <c r="Q69">
-        <v>-150.5</v>
+        <v>-123.5</v>
       </c>
       <c r="R69">
-        <v>-1.73</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -4553,13 +4571,13 @@
         <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C70" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D70" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -4589,7 +4607,7 @@
         <v>4850</v>
       </c>
       <c r="N70" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O70">
         <v>-348.5</v>
@@ -4609,13 +4627,13 @@
         <v>39</v>
       </c>
       <c r="B71" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C71" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D71" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -4633,7 +4651,7 @@
         <v>9785.75</v>
       </c>
       <c r="J71">
-        <v>760.15</v>
+        <v>772.85</v>
       </c>
       <c r="L71">
         <v>715.11</v>
@@ -4645,13 +4663,13 @@
         <v>0</v>
       </c>
       <c r="P71">
-        <v>96.2</v>
+        <v>261.3</v>
       </c>
       <c r="Q71">
-        <v>96.2</v>
+        <v>261.3</v>
       </c>
       <c r="R71">
-        <v>0.98</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -4659,13 +4677,13 @@
         <v>40</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D72" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -4683,7 +4701,7 @@
         <v>9952.799999999999</v>
       </c>
       <c r="J72">
-        <v>131.26</v>
+        <v>132.31</v>
       </c>
       <c r="L72">
         <v>124.41</v>
@@ -4695,13 +4713,13 @@
         <v>0</v>
       </c>
       <c r="P72">
-        <v>548</v>
+        <v>632</v>
       </c>
       <c r="Q72">
-        <v>548</v>
+        <v>632</v>
       </c>
       <c r="R72">
-        <v>5.51</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -4709,13 +4727,13 @@
         <v>40</v>
       </c>
       <c r="B73" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C73" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D73" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -4745,7 +4763,7 @@
         <v>1540.62</v>
       </c>
       <c r="N73" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O73">
         <v>-486.4800000000009</v>
@@ -4765,13 +4783,13 @@
         <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C74" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D74" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -4801,7 +4819,7 @@
         <v>261.9</v>
       </c>
       <c r="N74" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O74">
         <v>-511.2000000000016</v>
@@ -4821,13 +4839,13 @@
         <v>41</v>
       </c>
       <c r="B75" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C75" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D75" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -4857,7 +4875,7 @@
         <v>141.6</v>
       </c>
       <c r="N75" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O75">
         <v>-499.1500000000011</v>
@@ -4877,13 +4895,13 @@
         <v>41</v>
       </c>
       <c r="B76" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C76" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D76" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -4913,7 +4931,7 @@
         <v>1134.58</v>
       </c>
       <c r="N76" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O76">
         <v>-477.7600000000002</v>
@@ -4933,13 +4951,13 @@
         <v>41</v>
       </c>
       <c r="B77" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C77" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -4969,7 +4987,7 @@
         <v>2835.37</v>
       </c>
       <c r="N77" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O77">
         <v>-447.6900000000001</v>
@@ -4989,13 +5007,13 @@
         <v>42</v>
       </c>
       <c r="B78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C78" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -5013,7 +5031,7 @@
         <v>6019</v>
       </c>
       <c r="J78">
-        <v>5980.5</v>
+        <v>6106</v>
       </c>
       <c r="L78">
         <v>5718.05</v>
@@ -5025,13 +5043,13 @@
         <v>0</v>
       </c>
       <c r="P78">
-        <v>-38.5</v>
+        <v>87</v>
       </c>
       <c r="Q78">
-        <v>-38.5</v>
+        <v>87</v>
       </c>
       <c r="R78">
-        <v>-0.64</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5039,13 +5057,13 @@
         <v>43</v>
       </c>
       <c r="B79" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C79" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D79" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -5063,7 +5081,7 @@
         <v>9647.1</v>
       </c>
       <c r="J79">
-        <v>519.9</v>
+        <v>529.05</v>
       </c>
       <c r="L79">
         <v>509.15</v>
@@ -5075,13 +5093,13 @@
         <v>0</v>
       </c>
       <c r="P79">
-        <v>-288.9</v>
+        <v>-124.2</v>
       </c>
       <c r="Q79">
-        <v>-288.9</v>
+        <v>-124.2</v>
       </c>
       <c r="R79">
-        <v>-2.99</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5089,13 +5107,13 @@
         <v>44</v>
       </c>
       <c r="B80" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C80" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D80" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -5110,10 +5128,10 @@
         <v>28</v>
       </c>
       <c r="I80">
-        <v>9713.199999999999</v>
+        <v>9713.200000000001</v>
       </c>
       <c r="J80">
-        <v>346.9</v>
+        <v>353.5</v>
       </c>
       <c r="L80">
         <v>329.55</v>
@@ -5125,13 +5143,13 @@
         <v>0</v>
       </c>
       <c r="P80">
-        <v>0</v>
+        <v>184.8</v>
       </c>
       <c r="Q80">
-        <v>0</v>
+        <v>184.8</v>
       </c>
       <c r="R80">
-        <v>0</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5139,13 +5157,13 @@
         <v>44</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C81" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D81" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -5160,10 +5178,10 @@
         <v>7</v>
       </c>
       <c r="I81">
-        <v>9902.199999999999</v>
+        <v>9902.200000000001</v>
       </c>
       <c r="J81">
-        <v>1414.6</v>
+        <v>1411.6</v>
       </c>
       <c r="L81">
         <v>1343.87</v>
@@ -5175,13 +5193,13 @@
         <v>0</v>
       </c>
       <c r="P81">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="R81">
-        <v>0</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5189,13 +5207,13 @@
         <v>44</v>
       </c>
       <c r="B82" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C82" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D82" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -5213,7 +5231,7 @@
         <v>9773.299999999999</v>
       </c>
       <c r="J82">
-        <v>287.45</v>
+        <v>292.55</v>
       </c>
       <c r="L82">
         <v>273.08</v>
@@ -5225,13 +5243,13 @@
         <v>0</v>
       </c>
       <c r="P82">
-        <v>0</v>
+        <v>173.4</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>173.4</v>
       </c>
       <c r="R82">
-        <v>0</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5239,13 +5257,13 @@
         <v>44</v>
       </c>
       <c r="B83" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C83" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D83" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -5263,7 +5281,7 @@
         <v>9485.6</v>
       </c>
       <c r="J83">
-        <v>592.85</v>
+        <v>594.1</v>
       </c>
       <c r="L83">
         <v>563.21</v>
@@ -5275,12 +5293,112 @@
         <v>0</v>
       </c>
       <c r="P83">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q83">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R83">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
+      <c r="A84" t="s">
+        <v>45</v>
+      </c>
+      <c r="B84" t="s">
+        <v>108</v>
+      </c>
+      <c r="C84" t="s">
+        <v>111</v>
+      </c>
+      <c r="D84" t="s">
+        <v>113</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>1012.75</v>
+      </c>
+      <c r="G84">
+        <v>9</v>
+      </c>
+      <c r="H84">
+        <v>9</v>
+      </c>
+      <c r="I84">
+        <v>9114.75</v>
+      </c>
+      <c r="J84">
+        <v>1012.75</v>
+      </c>
+      <c r="L84">
+        <v>962.11</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
+      <c r="A85" t="s">
+        <v>45</v>
+      </c>
+      <c r="B85" t="s">
+        <v>84</v>
+      </c>
+      <c r="C85" t="s">
+        <v>109</v>
+      </c>
+      <c r="D85" t="s">
+        <v>113</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>2397.2</v>
+      </c>
+      <c r="G85">
+        <v>4</v>
+      </c>
+      <c r="H85">
+        <v>4</v>
+      </c>
+      <c r="I85">
+        <v>9588.799999999999</v>
+      </c>
+      <c r="J85">
+        <v>2397.2</v>
+      </c>
+      <c r="L85">
+        <v>2277.34</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
         <v>0</v>
       </c>
     </row>

--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="126">
   <si>
     <t>Buy Date</t>
   </si>
@@ -154,6 +154,9 @@
     <t>2026-02-16</t>
   </si>
   <si>
+    <t>2026-02-17</t>
+  </si>
+  <si>
     <t>ADANIENT</t>
   </si>
   <si>
@@ -341,6 +344,15 @@
   </si>
   <si>
     <t>BAJFINANCE</t>
+  </si>
+  <si>
+    <t>PFC</t>
+  </si>
+  <si>
+    <t>DRREDDY</t>
+  </si>
+  <si>
+    <t>HINDALCO</t>
   </si>
   <si>
     <t>Value Buy</t>
@@ -743,7 +755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S85"/>
+  <dimension ref="A1:S89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -823,13 +835,13 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -859,7 +871,7 @@
         <v>2093.04</v>
       </c>
       <c r="N2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O2">
         <v>-440.6399999999994</v>
@@ -879,13 +891,13 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -903,7 +915,7 @@
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1358.3</v>
+        <v>1357.2</v>
       </c>
       <c r="L3">
         <v>1293.6</v>
@@ -915,13 +927,13 @@
         <v>492.8000000000002</v>
       </c>
       <c r="P3">
-        <v>505.2</v>
+        <v>500.8</v>
       </c>
       <c r="Q3">
-        <v>998</v>
+        <v>993.6</v>
       </c>
       <c r="R3">
-        <v>10.13</v>
+        <v>10.08</v>
       </c>
       <c r="S3" t="s">
         <v>34</v>
@@ -932,13 +944,13 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -968,7 +980,7 @@
         <v>5739.43</v>
       </c>
       <c r="N4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O4">
         <v>-302.0699999999997</v>
@@ -988,13 +1000,13 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1012,7 +1024,7 @@
         <v>8527.200000000001</v>
       </c>
       <c r="J5">
-        <v>2912.7</v>
+        <v>2900.4</v>
       </c>
       <c r="L5">
         <v>2700.28</v>
@@ -1024,13 +1036,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>210.9</v>
+        <v>174</v>
       </c>
       <c r="Q5">
-        <v>210.9</v>
+        <v>174</v>
       </c>
       <c r="R5">
-        <v>2.47</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1038,13 +1050,13 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1074,7 +1086,7 @@
         <v>2293.3</v>
       </c>
       <c r="N6" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1094,13 +1106,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1118,7 +1130,7 @@
         <v>8960</v>
       </c>
       <c r="J7">
-        <v>1289.8</v>
+        <v>1285.3</v>
       </c>
       <c r="L7">
         <v>1216</v>
@@ -1130,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>68.59999999999999</v>
+        <v>37.1</v>
       </c>
       <c r="Q7">
-        <v>68.59999999999999</v>
+        <v>37.1</v>
       </c>
       <c r="R7">
-        <v>0.77</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1144,13 +1156,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1180,7 +1192,7 @@
         <v>3066.4</v>
       </c>
       <c r="N8" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="O8">
         <v>-522.8999999999992</v>
@@ -1200,13 +1212,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1236,7 +1248,7 @@
         <v>2901.59</v>
       </c>
       <c r="N9" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O9">
         <v>-458.1300000000001</v>
@@ -1256,13 +1268,13 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1292,7 +1304,7 @@
         <v>2922.11</v>
       </c>
       <c r="N10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O10">
         <v>-461.3699999999999</v>
@@ -1312,13 +1324,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1339,7 +1351,7 @@
         <v>183.56</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L11">
         <v>180.92</v>
@@ -1348,7 +1360,7 @@
         <v>180.92</v>
       </c>
       <c r="N11" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O11">
         <v>749.6499999999999</v>
@@ -1363,7 +1375,7 @@
         <v>7.5</v>
       </c>
       <c r="S11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1371,13 +1383,13 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1407,7 +1419,7 @@
         <v>1651</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="O12">
         <v>599.5200000000004</v>
@@ -1430,13 +1442,13 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1466,7 +1478,7 @@
         <v>732.4</v>
       </c>
       <c r="N13" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O13">
         <v>-462.6000000000008</v>
@@ -1486,13 +1498,13 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1522,7 +1534,7 @@
         <v>651.2</v>
       </c>
       <c r="N14" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1542,13 +1554,13 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1578,7 +1590,7 @@
         <v>1135.44</v>
       </c>
       <c r="N15" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O15">
         <v>-478.0799999999999</v>
@@ -1598,13 +1610,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1634,7 +1646,7 @@
         <v>5731.82</v>
       </c>
       <c r="N16" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O16">
         <v>-301.6800000000003</v>
@@ -1654,13 +1666,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1678,7 +1690,7 @@
         <v>9282</v>
       </c>
       <c r="J17">
-        <v>9697.5</v>
+        <v>9826.5</v>
       </c>
       <c r="L17">
         <v>8817.9</v>
@@ -1690,13 +1702,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>415.5</v>
+        <v>544.5</v>
       </c>
       <c r="Q17">
-        <v>415.5</v>
+        <v>544.5</v>
       </c>
       <c r="R17">
-        <v>4.48</v>
+        <v>5.87</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1704,13 +1716,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1740,7 +1752,7 @@
         <v>282.8</v>
       </c>
       <c r="N18" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1760,13 +1772,13 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1796,7 +1808,7 @@
         <v>1342.35</v>
       </c>
       <c r="N19" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O19">
         <v>-494.5500000000006</v>
@@ -1816,13 +1828,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1852,7 +1864,7 @@
         <v>5425.45</v>
       </c>
       <c r="N20" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O20">
         <v>-285.5500000000002</v>
@@ -1872,13 +1884,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D21" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1899,7 +1911,7 @@
         <v>132.36</v>
       </c>
       <c r="K21" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L21">
         <v>128.5</v>
@@ -1908,7 +1920,7 @@
         <v>128.499</v>
       </c>
       <c r="N21" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O21">
         <v>495.639</v>
@@ -1928,13 +1940,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D22" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1955,7 +1967,7 @@
         <v>4021.8</v>
       </c>
       <c r="K22" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L22">
         <v>3974.1</v>
@@ -1964,7 +1976,7 @@
         <v>3974.1</v>
       </c>
       <c r="N22" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1984,13 +1996,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2020,7 +2032,7 @@
         <v>972.9400000000001</v>
       </c>
       <c r="N23" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O23">
         <v>-460.8900000000003</v>
@@ -2040,13 +2052,13 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2076,7 +2088,7 @@
         <v>158.14</v>
       </c>
       <c r="N24" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O24">
         <v>-499.2000000000013</v>
@@ -2096,13 +2108,13 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D25" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2132,7 +2144,7 @@
         <v>1001.11</v>
       </c>
       <c r="N25" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O25">
         <v>-474.2099999999995</v>
@@ -2152,13 +2164,13 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2179,7 +2191,7 @@
         <v>267.45</v>
       </c>
       <c r="K26" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L26">
         <v>253.98</v>
@@ -2188,7 +2200,7 @@
         <v>252</v>
       </c>
       <c r="N26" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="O26">
         <v>-567.9500000000008</v>
@@ -2208,13 +2220,13 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2244,7 +2256,7 @@
         <v>951.52</v>
       </c>
       <c r="N27" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O27">
         <v>-450.7200000000004</v>
@@ -2264,13 +2276,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D28" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2300,7 +2312,7 @@
         <v>1880.9</v>
       </c>
       <c r="N28" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O28">
         <v>-495</v>
@@ -2320,13 +2332,13 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2356,7 +2368,7 @@
         <v>854</v>
       </c>
       <c r="N29" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="O29">
         <v>-523.0499999999995</v>
@@ -2376,13 +2388,13 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2412,7 +2424,7 @@
         <v>6310.38</v>
       </c>
       <c r="N30" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O30">
         <v>-332.1199999999999</v>
@@ -2432,13 +2444,13 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2459,7 +2471,7 @@
         <v>546.75</v>
       </c>
       <c r="K31" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L31">
         <v>541.83</v>
@@ -2468,7 +2480,7 @@
         <v>541.83</v>
       </c>
       <c r="N31" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O31">
         <v>-484.8399999999997</v>
@@ -2488,13 +2500,13 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2524,7 +2536,7 @@
         <v>738.96</v>
       </c>
       <c r="N32" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O32">
         <v>-466.6799999999998</v>
@@ -2544,13 +2556,13 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D33" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2580,7 +2592,7 @@
         <v>637.64</v>
       </c>
       <c r="N33" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O33">
         <v>-469.8400000000008</v>
@@ -2600,13 +2612,13 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2627,7 +2639,7 @@
         <v>1728.7</v>
       </c>
       <c r="K34" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L34">
         <v>1693.47</v>
@@ -2636,7 +2648,7 @@
         <v>1693.47</v>
       </c>
       <c r="N34" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O34">
         <v>-445.6499999999994</v>
@@ -2656,13 +2668,13 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2683,7 +2695,7 @@
         <v>414.55</v>
       </c>
       <c r="K35" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L35">
         <v>409.31</v>
@@ -2692,7 +2704,7 @@
         <v>409.31</v>
       </c>
       <c r="N35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O35">
         <v>-495.4200000000005</v>
@@ -2712,13 +2724,13 @@
         <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2748,7 +2760,7 @@
         <v>4769.95</v>
       </c>
       <c r="N36" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O36">
         <v>-251.0500000000001</v>
@@ -2768,13 +2780,13 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D37" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2804,7 +2816,7 @@
         <v>109.86</v>
       </c>
       <c r="N37" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O37">
         <v>-497.0800000000001</v>
@@ -2824,13 +2836,13 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D38" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -2860,7 +2872,7 @@
         <v>439.27</v>
       </c>
       <c r="N38" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O38">
         <v>711.2249999999999</v>
@@ -2883,13 +2895,13 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D39" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2919,7 +2931,7 @@
         <v>260.54</v>
       </c>
       <c r="N39" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O39">
         <v>-493.5599999999993</v>
@@ -2939,13 +2951,13 @@
         <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2975,7 +2987,7 @@
         <v>1578.33</v>
       </c>
       <c r="N40" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O40">
         <v>-498.420000000001</v>
@@ -2995,13 +3007,13 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -3031,7 +3043,7 @@
         <v>2751.58</v>
       </c>
       <c r="N41" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O41">
         <v>-434.4600000000005</v>
@@ -3051,13 +3063,13 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3078,7 +3090,7 @@
         <v>1375.8</v>
       </c>
       <c r="K42" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L42">
         <v>1342.44</v>
@@ -3087,7 +3099,7 @@
         <v>1342.44</v>
       </c>
       <c r="N42" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O42">
         <v>-494.619999999999</v>
@@ -3107,13 +3119,13 @@
         <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3134,7 +3146,7 @@
         <v>4056.4</v>
       </c>
       <c r="K43" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="L43">
         <v>3853.58</v>
@@ -3143,7 +3155,7 @@
         <v>3853.58</v>
       </c>
       <c r="N43" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O43">
         <v>-405.6400000000003</v>
@@ -3163,13 +3175,13 @@
         <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3187,7 +3199,7 @@
         <v>9686.25</v>
       </c>
       <c r="J44">
-        <v>374.35</v>
+        <v>374.95</v>
       </c>
       <c r="L44">
         <v>358.75</v>
@@ -3199,13 +3211,13 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>421.2</v>
+        <v>437.4</v>
       </c>
       <c r="Q44">
-        <v>421.2</v>
+        <v>437.4</v>
       </c>
       <c r="R44">
-        <v>4.35</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -3213,13 +3225,13 @@
         <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C45" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D45" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3249,7 +3261,7 @@
         <v>1574</v>
       </c>
       <c r="N45" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="O45">
         <v>-578.9999999999998</v>
@@ -3269,13 +3281,13 @@
         <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D46" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3293,7 +3305,7 @@
         <v>9697.799999999999</v>
       </c>
       <c r="J46">
-        <v>369.1</v>
+        <v>368.4</v>
       </c>
       <c r="L46">
         <v>329.03</v>
@@ -3305,13 +3317,13 @@
         <v>0</v>
       </c>
       <c r="P46">
-        <v>637</v>
+        <v>617.4</v>
       </c>
       <c r="Q46">
-        <v>637</v>
+        <v>617.4</v>
       </c>
       <c r="R46">
-        <v>6.57</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -3319,13 +3331,13 @@
         <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D47" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3355,7 +3367,7 @@
         <v>2947.18</v>
       </c>
       <c r="N47" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O47">
         <v>-465.360000000001</v>
@@ -3375,13 +3387,13 @@
         <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D48" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3399,7 +3411,7 @@
         <v>7448.2</v>
       </c>
       <c r="J48">
-        <v>3880.7</v>
+        <v>3902.9</v>
       </c>
       <c r="L48">
         <v>3724.1</v>
@@ -3411,13 +3423,13 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>313.2</v>
+        <v>357.6</v>
       </c>
       <c r="Q48">
-        <v>313.2</v>
+        <v>357.6</v>
       </c>
       <c r="R48">
-        <v>4.21</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -3425,13 +3437,13 @@
         <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D49" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -3461,7 +3473,7 @@
         <v>3074.61</v>
       </c>
       <c r="N49" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O49">
         <v>585.6400000000008</v>
@@ -3484,13 +3496,13 @@
         <v>32</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D50" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3520,7 +3532,7 @@
         <v>1982.08</v>
       </c>
       <c r="N50" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O50">
         <v>-417.2800000000007</v>
@@ -3540,13 +3552,13 @@
         <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C51" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D51" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3576,7 +3588,7 @@
         <v>520.6</v>
       </c>
       <c r="N51" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O51">
         <v>-493.1999999999996</v>
@@ -3596,13 +3608,13 @@
         <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C52" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E52">
         <v>3</v>
@@ -3632,7 +3644,7 @@
         <v>466.6</v>
       </c>
       <c r="N52" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="O52">
         <v>1137.180000000001</v>
@@ -3655,13 +3667,13 @@
         <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3691,7 +3703,7 @@
         <v>185.38</v>
       </c>
       <c r="N53" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="O53">
         <v>-118.190000000001</v>
@@ -3711,13 +3723,13 @@
         <v>34</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D54" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -3747,7 +3759,7 @@
         <v>4173.96</v>
       </c>
       <c r="N54" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O54">
         <v>596.2800000000007</v>
@@ -3770,13 +3782,13 @@
         <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C55" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D55" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -3794,7 +3806,7 @@
         <v>9973.5</v>
       </c>
       <c r="J55">
-        <v>2184.6</v>
+        <v>2242.9</v>
       </c>
       <c r="L55">
         <v>2094.43</v>
@@ -3806,13 +3818,13 @@
         <v>398.9400000000001</v>
       </c>
       <c r="P55">
-        <v>569.7</v>
+        <v>744.6</v>
       </c>
       <c r="Q55">
-        <v>968.64</v>
+        <v>1143.54</v>
       </c>
       <c r="R55">
-        <v>9.710000000000001</v>
+        <v>11.47</v>
       </c>
       <c r="S55" t="s">
         <v>38</v>
@@ -3823,13 +3835,13 @@
         <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C56" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D56" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3859,7 +3871,7 @@
         <v>814.2</v>
       </c>
       <c r="N56" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="O56">
         <v>-490.599999999999</v>
@@ -3879,13 +3891,13 @@
         <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C57" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D57" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3903,7 +3915,7 @@
         <v>9578.25</v>
       </c>
       <c r="J57">
-        <v>643.8</v>
+        <v>639.05</v>
       </c>
       <c r="L57">
         <v>606.62</v>
@@ -3915,13 +3927,13 @@
         <v>0</v>
       </c>
       <c r="P57">
-        <v>78.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q57">
-        <v>78.75</v>
+        <v>7.5</v>
       </c>
       <c r="R57">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -3929,13 +3941,13 @@
         <v>36</v>
       </c>
       <c r="B58" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C58" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3965,7 +3977,7 @@
         <v>922.92</v>
       </c>
       <c r="N58" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O58">
         <v>-485.8000000000004</v>
@@ -3985,13 +3997,13 @@
         <v>37</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C59" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D59" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -4003,7 +4015,7 @@
         <v>60</v>
       </c>
       <c r="H59">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>9876.6</v>
@@ -4011,23 +4023,29 @@
       <c r="J59">
         <v>175.15</v>
       </c>
+      <c r="K59" t="s">
+        <v>46</v>
+      </c>
       <c r="L59">
         <v>172.84</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>172.84</v>
+      </c>
+      <c r="N59" t="s">
+        <v>123</v>
       </c>
       <c r="O59">
-        <v>493.8300000000004</v>
+        <v>740.73</v>
       </c>
       <c r="P59">
-        <v>316.2</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>810.03</v>
+        <v>740.73</v>
       </c>
       <c r="R59">
-        <v>8.199999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="S59" t="s">
         <v>42</v>
@@ -4038,13 +4056,13 @@
         <v>37</v>
       </c>
       <c r="B60" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C60" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D60" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -4062,7 +4080,7 @@
         <v>9944.179999999998</v>
       </c>
       <c r="J60">
-        <v>164.82</v>
+        <v>165.75</v>
       </c>
       <c r="L60">
         <v>152.37</v>
@@ -4074,13 +4092,13 @@
         <v>0</v>
       </c>
       <c r="P60">
-        <v>274.66</v>
+        <v>332.32</v>
       </c>
       <c r="Q60">
-        <v>274.66</v>
+        <v>332.32</v>
       </c>
       <c r="R60">
-        <v>2.76</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -4088,13 +4106,13 @@
         <v>37</v>
       </c>
       <c r="B61" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C61" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D61" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -4112,7 +4130,7 @@
         <v>9933</v>
       </c>
       <c r="J61">
-        <v>489.95</v>
+        <v>487.35</v>
       </c>
       <c r="L61">
         <v>451.5</v>
@@ -4124,13 +4142,13 @@
         <v>0</v>
       </c>
       <c r="P61">
-        <v>845.9</v>
+        <v>788.7</v>
       </c>
       <c r="Q61">
-        <v>845.9</v>
+        <v>788.7</v>
       </c>
       <c r="R61">
-        <v>8.52</v>
+        <v>7.94</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -4138,13 +4156,13 @@
         <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C62" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D62" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E62">
         <v>3</v>
@@ -4174,7 +4192,7 @@
         <v>967.15</v>
       </c>
       <c r="N62" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O62">
         <v>1167.96</v>
@@ -4189,7 +4207,7 @@
         <v>12.58</v>
       </c>
       <c r="S62" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -4197,13 +4215,13 @@
         <v>38</v>
       </c>
       <c r="B63" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C63" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D63" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -4233,7 +4251,7 @@
         <v>116.49</v>
       </c>
       <c r="N63" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O63">
         <v>-496.5300000000008</v>
@@ -4253,13 +4271,13 @@
         <v>38</v>
       </c>
       <c r="B64" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C64" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D64" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -4289,7 +4307,7 @@
         <v>412.3</v>
       </c>
       <c r="N64" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="O64">
         <v>-497.1999999999993</v>
@@ -4309,13 +4327,13 @@
         <v>38</v>
       </c>
       <c r="B65" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C65" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D65" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -4333,7 +4351,7 @@
         <v>9407.4</v>
       </c>
       <c r="J65">
-        <v>1540.1</v>
+        <v>1566.3</v>
       </c>
       <c r="L65">
         <v>1489.51</v>
@@ -4345,13 +4363,13 @@
         <v>0</v>
       </c>
       <c r="P65">
-        <v>-166.8</v>
+        <v>-9.6</v>
       </c>
       <c r="Q65">
-        <v>-166.8</v>
+        <v>-9.6</v>
       </c>
       <c r="R65">
-        <v>-1.77</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4359,13 +4377,13 @@
         <v>38</v>
       </c>
       <c r="B66" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C66" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D66" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -4383,7 +4401,7 @@
         <v>9877.15</v>
       </c>
       <c r="J66">
-        <v>271.55</v>
+        <v>271.85</v>
       </c>
       <c r="L66">
         <v>253.6</v>
@@ -4395,13 +4413,13 @@
         <v>0</v>
       </c>
       <c r="P66">
-        <v>170.2</v>
+        <v>181.3</v>
       </c>
       <c r="Q66">
-        <v>170.2</v>
+        <v>181.3</v>
       </c>
       <c r="R66">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4409,13 +4427,13 @@
         <v>38</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D67" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -4445,7 +4463,7 @@
         <v>5558.93</v>
       </c>
       <c r="N67" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O67">
         <v>-292.5699999999997</v>
@@ -4465,13 +4483,13 @@
         <v>38</v>
       </c>
       <c r="B68" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C68" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D68" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -4501,7 +4519,7 @@
         <v>456.1</v>
       </c>
       <c r="N68" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O68">
         <v>-480</v>
@@ -4521,13 +4539,13 @@
         <v>38</v>
       </c>
       <c r="B69" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C69" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D69" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -4545,7 +4563,7 @@
         <v>8697.5</v>
       </c>
       <c r="J69">
-        <v>1714.8</v>
+        <v>1732.1</v>
       </c>
       <c r="L69">
         <v>1652.52</v>
@@ -4557,13 +4575,13 @@
         <v>0</v>
       </c>
       <c r="P69">
-        <v>-123.5</v>
+        <v>-37</v>
       </c>
       <c r="Q69">
-        <v>-123.5</v>
+        <v>-37</v>
       </c>
       <c r="R69">
-        <v>-1.42</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -4571,13 +4589,13 @@
         <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C70" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D70" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -4607,7 +4625,7 @@
         <v>4850</v>
       </c>
       <c r="N70" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="O70">
         <v>-348.5</v>
@@ -4627,13 +4645,13 @@
         <v>39</v>
       </c>
       <c r="B71" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C71" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D71" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -4651,7 +4669,7 @@
         <v>9785.75</v>
       </c>
       <c r="J71">
-        <v>772.85</v>
+        <v>774.6</v>
       </c>
       <c r="L71">
         <v>715.11</v>
@@ -4663,13 +4681,13 @@
         <v>0</v>
       </c>
       <c r="P71">
-        <v>261.3</v>
+        <v>284.05</v>
       </c>
       <c r="Q71">
-        <v>261.3</v>
+        <v>284.05</v>
       </c>
       <c r="R71">
-        <v>2.67</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -4677,13 +4695,13 @@
         <v>40</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C72" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D72" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -4701,7 +4719,7 @@
         <v>9952.799999999999</v>
       </c>
       <c r="J72">
-        <v>132.31</v>
+        <v>132.66</v>
       </c>
       <c r="L72">
         <v>124.41</v>
@@ -4713,13 +4731,13 @@
         <v>0</v>
       </c>
       <c r="P72">
-        <v>632</v>
+        <v>660</v>
       </c>
       <c r="Q72">
-        <v>632</v>
+        <v>660</v>
       </c>
       <c r="R72">
-        <v>6.35</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -4727,13 +4745,13 @@
         <v>40</v>
       </c>
       <c r="B73" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C73" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D73" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -4763,7 +4781,7 @@
         <v>1540.62</v>
       </c>
       <c r="N73" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O73">
         <v>-486.4800000000009</v>
@@ -4783,13 +4801,13 @@
         <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C74" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D74" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -4819,7 +4837,7 @@
         <v>261.9</v>
       </c>
       <c r="N74" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="O74">
         <v>-511.2000000000016</v>
@@ -4839,13 +4857,13 @@
         <v>41</v>
       </c>
       <c r="B75" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C75" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D75" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -4875,7 +4893,7 @@
         <v>141.6</v>
       </c>
       <c r="N75" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O75">
         <v>-499.1500000000011</v>
@@ -4895,13 +4913,13 @@
         <v>41</v>
       </c>
       <c r="B76" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C76" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D76" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -4931,7 +4949,7 @@
         <v>1134.58</v>
       </c>
       <c r="N76" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O76">
         <v>-477.7600000000002</v>
@@ -4951,13 +4969,13 @@
         <v>41</v>
       </c>
       <c r="B77" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C77" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D77" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -4987,7 +5005,7 @@
         <v>2835.37</v>
       </c>
       <c r="N77" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O77">
         <v>-447.6900000000001</v>
@@ -5007,13 +5025,13 @@
         <v>42</v>
       </c>
       <c r="B78" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C78" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D78" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -5031,7 +5049,7 @@
         <v>6019</v>
       </c>
       <c r="J78">
-        <v>6106</v>
+        <v>6145.5</v>
       </c>
       <c r="L78">
         <v>5718.05</v>
@@ -5043,13 +5061,13 @@
         <v>0</v>
       </c>
       <c r="P78">
-        <v>87</v>
+        <v>126.5</v>
       </c>
       <c r="Q78">
-        <v>87</v>
+        <v>126.5</v>
       </c>
       <c r="R78">
-        <v>1.45</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5057,13 +5075,13 @@
         <v>43</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C79" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D79" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -5081,7 +5099,7 @@
         <v>9647.1</v>
       </c>
       <c r="J79">
-        <v>529.05</v>
+        <v>533.85</v>
       </c>
       <c r="L79">
         <v>509.15</v>
@@ -5093,13 +5111,13 @@
         <v>0</v>
       </c>
       <c r="P79">
-        <v>-124.2</v>
+        <v>-37.8</v>
       </c>
       <c r="Q79">
-        <v>-124.2</v>
+        <v>-37.8</v>
       </c>
       <c r="R79">
-        <v>-1.29</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5107,13 +5125,13 @@
         <v>44</v>
       </c>
       <c r="B80" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C80" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -5131,7 +5149,7 @@
         <v>9713.200000000001</v>
       </c>
       <c r="J80">
-        <v>353.5</v>
+        <v>358.6</v>
       </c>
       <c r="L80">
         <v>329.55</v>
@@ -5143,13 +5161,13 @@
         <v>0</v>
       </c>
       <c r="P80">
-        <v>184.8</v>
+        <v>327.6</v>
       </c>
       <c r="Q80">
-        <v>184.8</v>
+        <v>327.6</v>
       </c>
       <c r="R80">
-        <v>1.9</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5157,13 +5175,13 @@
         <v>44</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C81" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D81" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -5181,7 +5199,7 @@
         <v>9902.200000000001</v>
       </c>
       <c r="J81">
-        <v>1411.6</v>
+        <v>1407.5</v>
       </c>
       <c r="L81">
         <v>1343.87</v>
@@ -5193,13 +5211,13 @@
         <v>0</v>
       </c>
       <c r="P81">
-        <v>-21</v>
+        <v>-49.7</v>
       </c>
       <c r="Q81">
-        <v>-21</v>
+        <v>-49.7</v>
       </c>
       <c r="R81">
-        <v>-0.21</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5207,13 +5225,13 @@
         <v>44</v>
       </c>
       <c r="B82" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C82" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D82" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -5231,7 +5249,7 @@
         <v>9773.299999999999</v>
       </c>
       <c r="J82">
-        <v>292.55</v>
+        <v>303.25</v>
       </c>
       <c r="L82">
         <v>273.08</v>
@@ -5243,13 +5261,13 @@
         <v>0</v>
       </c>
       <c r="P82">
-        <v>173.4</v>
+        <v>537.2</v>
       </c>
       <c r="Q82">
-        <v>173.4</v>
+        <v>537.2</v>
       </c>
       <c r="R82">
-        <v>1.77</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5257,13 +5275,13 @@
         <v>44</v>
       </c>
       <c r="B83" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C83" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D83" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -5281,7 +5299,7 @@
         <v>9485.6</v>
       </c>
       <c r="J83">
-        <v>594.1</v>
+        <v>581.1</v>
       </c>
       <c r="L83">
         <v>563.21</v>
@@ -5293,13 +5311,13 @@
         <v>0</v>
       </c>
       <c r="P83">
-        <v>20</v>
+        <v>-188</v>
       </c>
       <c r="Q83">
-        <v>20</v>
+        <v>-188</v>
       </c>
       <c r="R83">
-        <v>0.21</v>
+        <v>-1.98</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5307,13 +5325,13 @@
         <v>45</v>
       </c>
       <c r="B84" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C84" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D84" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -5331,7 +5349,7 @@
         <v>9114.75</v>
       </c>
       <c r="J84">
-        <v>1012.75</v>
+        <v>1014.15</v>
       </c>
       <c r="L84">
         <v>962.11</v>
@@ -5343,13 +5361,13 @@
         <v>0</v>
       </c>
       <c r="P84">
-        <v>0</v>
+        <v>12.6</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>12.6</v>
       </c>
       <c r="R84">
-        <v>0</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5357,13 +5375,13 @@
         <v>45</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D85" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -5381,7 +5399,7 @@
         <v>9588.799999999999</v>
       </c>
       <c r="J85">
-        <v>2397.2</v>
+        <v>2437.4</v>
       </c>
       <c r="L85">
         <v>2277.34</v>
@@ -5393,12 +5411,212 @@
         <v>0</v>
       </c>
       <c r="P85">
-        <v>0</v>
+        <v>160.8</v>
       </c>
       <c r="Q85">
-        <v>0</v>
+        <v>160.8</v>
       </c>
       <c r="R85">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
+      <c r="A86" t="s">
+        <v>46</v>
+      </c>
+      <c r="B86" t="s">
+        <v>110</v>
+      </c>
+      <c r="C86" t="s">
+        <v>115</v>
+      </c>
+      <c r="D86" t="s">
+        <v>117</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>416.95</v>
+      </c>
+      <c r="G86">
+        <v>23</v>
+      </c>
+      <c r="H86">
+        <v>23</v>
+      </c>
+      <c r="I86">
+        <v>9589.85</v>
+      </c>
+      <c r="J86">
+        <v>416.95</v>
+      </c>
+      <c r="L86">
+        <v>396.1</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
+      <c r="A87" t="s">
+        <v>46</v>
+      </c>
+      <c r="B87" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87" t="s">
+        <v>115</v>
+      </c>
+      <c r="D87" t="s">
+        <v>117</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>1284.8</v>
+      </c>
+      <c r="G87">
+        <v>7</v>
+      </c>
+      <c r="H87">
+        <v>7</v>
+      </c>
+      <c r="I87">
+        <v>8993.6</v>
+      </c>
+      <c r="J87">
+        <v>1284.8</v>
+      </c>
+      <c r="L87">
+        <v>1220.56</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
+      <c r="A88" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88" t="s">
+        <v>102</v>
+      </c>
+      <c r="C88" t="s">
+        <v>113</v>
+      </c>
+      <c r="D88" t="s">
+        <v>117</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>4919</v>
+      </c>
+      <c r="G88">
+        <v>2</v>
+      </c>
+      <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88">
+        <v>9838</v>
+      </c>
+      <c r="J88">
+        <v>4919</v>
+      </c>
+      <c r="L88">
+        <v>4673.05</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
+      <c r="A89" t="s">
+        <v>46</v>
+      </c>
+      <c r="B89" t="s">
+        <v>112</v>
+      </c>
+      <c r="C89" t="s">
+        <v>114</v>
+      </c>
+      <c r="D89" t="s">
+        <v>117</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>890.1</v>
+      </c>
+      <c r="G89">
+        <v>11</v>
+      </c>
+      <c r="H89">
+        <v>11</v>
+      </c>
+      <c r="I89">
+        <v>9791.1</v>
+      </c>
+      <c r="J89">
+        <v>890.1</v>
+      </c>
+      <c r="L89">
+        <v>845.6</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
         <v>0</v>
       </c>
     </row>

--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -915,7 +915,7 @@
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1357.2</v>
+        <v>1377</v>
       </c>
       <c r="L3">
         <v>1293.6</v>
@@ -927,13 +927,13 @@
         <v>492.8000000000002</v>
       </c>
       <c r="P3">
-        <v>500.8</v>
+        <v>580</v>
       </c>
       <c r="Q3">
-        <v>993.6</v>
+        <v>1072.8</v>
       </c>
       <c r="R3">
-        <v>10.08</v>
+        <v>10.88</v>
       </c>
       <c r="S3" t="s">
         <v>34</v>
@@ -1024,7 +1024,7 @@
         <v>8527.200000000001</v>
       </c>
       <c r="J5">
-        <v>2900.4</v>
+        <v>2933.8</v>
       </c>
       <c r="L5">
         <v>2700.28</v>
@@ -1036,13 +1036,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>174</v>
+        <v>274.2</v>
       </c>
       <c r="Q5">
-        <v>174</v>
+        <v>274.2</v>
       </c>
       <c r="R5">
-        <v>2.04</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1130,7 +1130,7 @@
         <v>8960</v>
       </c>
       <c r="J7">
-        <v>1285.3</v>
+        <v>1300.9</v>
       </c>
       <c r="L7">
         <v>1216</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>37.1</v>
+        <v>146.3</v>
       </c>
       <c r="Q7">
-        <v>37.1</v>
+        <v>146.3</v>
       </c>
       <c r="R7">
-        <v>0.41</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1690,7 +1690,7 @@
         <v>9282</v>
       </c>
       <c r="J17">
-        <v>9826.5</v>
+        <v>9980</v>
       </c>
       <c r="L17">
         <v>8817.9</v>
@@ -1702,13 +1702,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>544.5</v>
+        <v>698</v>
       </c>
       <c r="Q17">
-        <v>544.5</v>
+        <v>698</v>
       </c>
       <c r="R17">
-        <v>5.87</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -3199,7 +3199,7 @@
         <v>9686.25</v>
       </c>
       <c r="J44">
-        <v>374.95</v>
+        <v>380.9</v>
       </c>
       <c r="L44">
         <v>358.75</v>
@@ -3211,13 +3211,13 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>437.4</v>
+        <v>598.05</v>
       </c>
       <c r="Q44">
-        <v>437.4</v>
+        <v>598.05</v>
       </c>
       <c r="R44">
-        <v>4.52</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -3411,7 +3411,7 @@
         <v>7448.2</v>
       </c>
       <c r="J48">
-        <v>3902.9</v>
+        <v>3915.2</v>
       </c>
       <c r="L48">
         <v>3724.1</v>
@@ -3423,13 +3423,13 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>357.6</v>
+        <v>382.2</v>
       </c>
       <c r="Q48">
-        <v>357.6</v>
+        <v>382.2</v>
       </c>
       <c r="R48">
-        <v>4.8</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -3806,7 +3806,7 @@
         <v>9973.5</v>
       </c>
       <c r="J55">
-        <v>2242.9</v>
+        <v>2211.2</v>
       </c>
       <c r="L55">
         <v>2094.43</v>
@@ -3818,13 +3818,13 @@
         <v>398.9400000000001</v>
       </c>
       <c r="P55">
-        <v>744.6</v>
+        <v>649.5</v>
       </c>
       <c r="Q55">
-        <v>1143.54</v>
+        <v>1048.44</v>
       </c>
       <c r="R55">
-        <v>11.47</v>
+        <v>10.51</v>
       </c>
       <c r="S55" t="s">
         <v>38</v>
@@ -3915,7 +3915,7 @@
         <v>9578.25</v>
       </c>
       <c r="J57">
-        <v>639.05</v>
+        <v>642.45</v>
       </c>
       <c r="L57">
         <v>606.62</v>
@@ -3927,13 +3927,13 @@
         <v>0</v>
       </c>
       <c r="P57">
-        <v>7.5</v>
+        <v>58.5</v>
       </c>
       <c r="Q57">
-        <v>7.5</v>
+        <v>58.5</v>
       </c>
       <c r="R57">
-        <v>0.08</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -4080,7 +4080,7 @@
         <v>9944.179999999998</v>
       </c>
       <c r="J60">
-        <v>165.75</v>
+        <v>167.31</v>
       </c>
       <c r="L60">
         <v>152.37</v>
@@ -4092,13 +4092,13 @@
         <v>0</v>
       </c>
       <c r="P60">
-        <v>332.32</v>
+        <v>429.04</v>
       </c>
       <c r="Q60">
-        <v>332.32</v>
+        <v>429.04</v>
       </c>
       <c r="R60">
-        <v>3.34</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -4130,7 +4130,7 @@
         <v>9933</v>
       </c>
       <c r="J61">
-        <v>487.35</v>
+        <v>486.25</v>
       </c>
       <c r="L61">
         <v>451.5</v>
@@ -4142,13 +4142,13 @@
         <v>0</v>
       </c>
       <c r="P61">
-        <v>788.7</v>
+        <v>764.5</v>
       </c>
       <c r="Q61">
-        <v>788.7</v>
+        <v>764.5</v>
       </c>
       <c r="R61">
-        <v>7.94</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -4351,7 +4351,7 @@
         <v>9407.4</v>
       </c>
       <c r="J65">
-        <v>1566.3</v>
+        <v>1550.8</v>
       </c>
       <c r="L65">
         <v>1489.51</v>
@@ -4363,13 +4363,13 @@
         <v>0</v>
       </c>
       <c r="P65">
-        <v>-9.6</v>
+        <v>-102.6</v>
       </c>
       <c r="Q65">
-        <v>-9.6</v>
+        <v>-102.6</v>
       </c>
       <c r="R65">
-        <v>-0.1</v>
+        <v>-1.09</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4401,7 +4401,7 @@
         <v>9877.15</v>
       </c>
       <c r="J66">
-        <v>271.85</v>
+        <v>264.6</v>
       </c>
       <c r="L66">
         <v>253.6</v>
@@ -4413,13 +4413,13 @@
         <v>0</v>
       </c>
       <c r="P66">
-        <v>181.3</v>
+        <v>-86.95</v>
       </c>
       <c r="Q66">
-        <v>181.3</v>
+        <v>-86.95</v>
       </c>
       <c r="R66">
-        <v>1.84</v>
+        <v>-0.88</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4563,7 +4563,7 @@
         <v>8697.5</v>
       </c>
       <c r="J69">
-        <v>1732.1</v>
+        <v>1717</v>
       </c>
       <c r="L69">
         <v>1652.52</v>
@@ -4575,13 +4575,13 @@
         <v>0</v>
       </c>
       <c r="P69">
-        <v>-37</v>
+        <v>-112.5</v>
       </c>
       <c r="Q69">
-        <v>-37</v>
+        <v>-112.5</v>
       </c>
       <c r="R69">
-        <v>-0.43</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -4669,7 +4669,7 @@
         <v>9785.75</v>
       </c>
       <c r="J71">
-        <v>774.6</v>
+        <v>795.95</v>
       </c>
       <c r="L71">
         <v>715.11</v>
@@ -4681,13 +4681,13 @@
         <v>0</v>
       </c>
       <c r="P71">
-        <v>284.05</v>
+        <v>561.6</v>
       </c>
       <c r="Q71">
-        <v>284.05</v>
+        <v>561.6</v>
       </c>
       <c r="R71">
-        <v>2.9</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -4719,7 +4719,7 @@
         <v>9952.799999999999</v>
       </c>
       <c r="J72">
-        <v>132.66</v>
+        <v>133.92</v>
       </c>
       <c r="L72">
         <v>124.41</v>
@@ -4731,13 +4731,13 @@
         <v>0</v>
       </c>
       <c r="P72">
-        <v>660</v>
+        <v>760.8</v>
       </c>
       <c r="Q72">
-        <v>660</v>
+        <v>760.8</v>
       </c>
       <c r="R72">
-        <v>6.63</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5049,7 +5049,7 @@
         <v>6019</v>
       </c>
       <c r="J78">
-        <v>6145.5</v>
+        <v>6176</v>
       </c>
       <c r="L78">
         <v>5718.05</v>
@@ -5061,13 +5061,13 @@
         <v>0</v>
       </c>
       <c r="P78">
-        <v>126.5</v>
+        <v>157</v>
       </c>
       <c r="Q78">
-        <v>126.5</v>
+        <v>157</v>
       </c>
       <c r="R78">
-        <v>2.1</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5099,7 +5099,7 @@
         <v>9647.1</v>
       </c>
       <c r="J79">
-        <v>533.85</v>
+        <v>531</v>
       </c>
       <c r="L79">
         <v>509.15</v>
@@ -5111,13 +5111,13 @@
         <v>0</v>
       </c>
       <c r="P79">
-        <v>-37.8</v>
+        <v>-89.09999999999999</v>
       </c>
       <c r="Q79">
-        <v>-37.8</v>
+        <v>-89.09999999999999</v>
       </c>
       <c r="R79">
-        <v>-0.39</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5149,7 +5149,7 @@
         <v>9713.200000000001</v>
       </c>
       <c r="J80">
-        <v>358.6</v>
+        <v>364.3</v>
       </c>
       <c r="L80">
         <v>329.55</v>
@@ -5161,13 +5161,13 @@
         <v>0</v>
       </c>
       <c r="P80">
-        <v>327.6</v>
+        <v>487.2</v>
       </c>
       <c r="Q80">
-        <v>327.6</v>
+        <v>487.2</v>
       </c>
       <c r="R80">
-        <v>3.37</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5199,7 +5199,7 @@
         <v>9902.200000000001</v>
       </c>
       <c r="J81">
-        <v>1407.5</v>
+        <v>1408.2</v>
       </c>
       <c r="L81">
         <v>1343.87</v>
@@ -5211,13 +5211,13 @@
         <v>0</v>
       </c>
       <c r="P81">
-        <v>-49.7</v>
+        <v>-44.8</v>
       </c>
       <c r="Q81">
-        <v>-49.7</v>
+        <v>-44.8</v>
       </c>
       <c r="R81">
-        <v>-0.5</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5249,7 +5249,7 @@
         <v>9773.299999999999</v>
       </c>
       <c r="J82">
-        <v>303.25</v>
+        <v>305.15</v>
       </c>
       <c r="L82">
         <v>273.08</v>
@@ -5261,13 +5261,13 @@
         <v>0</v>
       </c>
       <c r="P82">
-        <v>537.2</v>
+        <v>601.8</v>
       </c>
       <c r="Q82">
-        <v>537.2</v>
+        <v>601.8</v>
       </c>
       <c r="R82">
-        <v>5.5</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5299,7 +5299,7 @@
         <v>9485.6</v>
       </c>
       <c r="J83">
-        <v>581.1</v>
+        <v>585.25</v>
       </c>
       <c r="L83">
         <v>563.21</v>
@@ -5311,13 +5311,13 @@
         <v>0</v>
       </c>
       <c r="P83">
-        <v>-188</v>
+        <v>-121.6</v>
       </c>
       <c r="Q83">
-        <v>-188</v>
+        <v>-121.6</v>
       </c>
       <c r="R83">
-        <v>-1.98</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5349,7 +5349,7 @@
         <v>9114.75</v>
       </c>
       <c r="J84">
-        <v>1014.15</v>
+        <v>1023.8</v>
       </c>
       <c r="L84">
         <v>962.11</v>
@@ -5361,13 +5361,13 @@
         <v>0</v>
       </c>
       <c r="P84">
-        <v>12.6</v>
+        <v>99.45</v>
       </c>
       <c r="Q84">
-        <v>12.6</v>
+        <v>99.45</v>
       </c>
       <c r="R84">
-        <v>0.14</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5399,7 +5399,7 @@
         <v>9588.799999999999</v>
       </c>
       <c r="J85">
-        <v>2437.4</v>
+        <v>2432.1</v>
       </c>
       <c r="L85">
         <v>2277.34</v>
@@ -5411,13 +5411,13 @@
         <v>0</v>
       </c>
       <c r="P85">
-        <v>160.8</v>
+        <v>139.6</v>
       </c>
       <c r="Q85">
-        <v>160.8</v>
+        <v>139.6</v>
       </c>
       <c r="R85">
-        <v>1.68</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5449,7 +5449,7 @@
         <v>9589.85</v>
       </c>
       <c r="J86">
-        <v>416.95</v>
+        <v>420.45</v>
       </c>
       <c r="L86">
         <v>396.1</v>
@@ -5461,13 +5461,13 @@
         <v>0</v>
       </c>
       <c r="P86">
-        <v>0</v>
+        <v>80.5</v>
       </c>
       <c r="Q86">
-        <v>0</v>
+        <v>80.5</v>
       </c>
       <c r="R86">
-        <v>0</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5499,7 +5499,7 @@
         <v>8993.6</v>
       </c>
       <c r="J87">
-        <v>1284.8</v>
+        <v>1280.3</v>
       </c>
       <c r="L87">
         <v>1220.56</v>
@@ -5511,13 +5511,13 @@
         <v>0</v>
       </c>
       <c r="P87">
-        <v>0</v>
+        <v>-31.5</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>-31.5</v>
       </c>
       <c r="R87">
-        <v>0</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -5549,7 +5549,7 @@
         <v>9838</v>
       </c>
       <c r="J88">
-        <v>4919</v>
+        <v>4885</v>
       </c>
       <c r="L88">
         <v>4673.05</v>
@@ -5561,13 +5561,13 @@
         <v>0</v>
       </c>
       <c r="P88">
-        <v>0</v>
+        <v>-68</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>-68</v>
       </c>
       <c r="R88">
-        <v>0</v>
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -5599,7 +5599,7 @@
         <v>9791.1</v>
       </c>
       <c r="J89">
-        <v>890.1</v>
+        <v>899.25</v>
       </c>
       <c r="L89">
         <v>845.6</v>
@@ -5611,13 +5611,13 @@
         <v>0</v>
       </c>
       <c r="P89">
-        <v>0</v>
+        <v>100.65</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>100.65</v>
       </c>
       <c r="R89">
-        <v>0</v>
+        <v>1.03</v>
       </c>
     </row>
   </sheetData>

--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="128">
   <si>
     <t>Buy Date</t>
   </si>
@@ -157,6 +157,9 @@
     <t>2026-02-17</t>
   </si>
   <si>
+    <t>2026-02-19</t>
+  </si>
+  <si>
     <t>ADANIENT</t>
   </si>
   <si>
@@ -353,6 +356,9 @@
   </si>
   <si>
     <t>HINDALCO</t>
+  </si>
+  <si>
+    <t>POWERGRID</t>
   </si>
   <si>
     <t>Value Buy</t>
@@ -755,7 +761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S89"/>
+  <dimension ref="A1:S94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -835,13 +841,13 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -871,7 +877,7 @@
         <v>2093.04</v>
       </c>
       <c r="N2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O2">
         <v>-440.6399999999994</v>
@@ -891,13 +897,13 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -915,7 +921,7 @@
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1377</v>
+        <v>1356.6</v>
       </c>
       <c r="L3">
         <v>1293.6</v>
@@ -927,13 +933,13 @@
         <v>492.8000000000002</v>
       </c>
       <c r="P3">
-        <v>580</v>
+        <v>498.4</v>
       </c>
       <c r="Q3">
-        <v>1072.8</v>
+        <v>991.2</v>
       </c>
       <c r="R3">
-        <v>10.88</v>
+        <v>10.06</v>
       </c>
       <c r="S3" t="s">
         <v>34</v>
@@ -944,13 +950,13 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -980,7 +986,7 @@
         <v>5739.43</v>
       </c>
       <c r="N4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O4">
         <v>-302.0699999999997</v>
@@ -1000,13 +1006,13 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1024,7 +1030,7 @@
         <v>8527.200000000001</v>
       </c>
       <c r="J5">
-        <v>2933.8</v>
+        <v>2864.3</v>
       </c>
       <c r="L5">
         <v>2700.28</v>
@@ -1036,13 +1042,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>274.2</v>
+        <v>65.7</v>
       </c>
       <c r="Q5">
-        <v>274.2</v>
+        <v>65.7</v>
       </c>
       <c r="R5">
-        <v>3.22</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1050,13 +1056,13 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1086,7 +1092,7 @@
         <v>2293.3</v>
       </c>
       <c r="N6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1106,13 +1112,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1130,7 +1136,7 @@
         <v>8960</v>
       </c>
       <c r="J7">
-        <v>1300.9</v>
+        <v>1278.5</v>
       </c>
       <c r="L7">
         <v>1216</v>
@@ -1142,13 +1148,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>146.3</v>
+        <v>-10.5</v>
       </c>
       <c r="Q7">
-        <v>146.3</v>
+        <v>-10.5</v>
       </c>
       <c r="R7">
-        <v>1.63</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1156,13 +1162,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1192,7 +1198,7 @@
         <v>3066.4</v>
       </c>
       <c r="N8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O8">
         <v>-522.8999999999992</v>
@@ -1212,13 +1218,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1248,7 +1254,7 @@
         <v>2901.59</v>
       </c>
       <c r="N9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O9">
         <v>-458.1300000000001</v>
@@ -1268,13 +1274,13 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1304,7 +1310,7 @@
         <v>2922.11</v>
       </c>
       <c r="N10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O10">
         <v>-461.3699999999999</v>
@@ -1324,13 +1330,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1351,7 +1357,7 @@
         <v>183.56</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L11">
         <v>180.92</v>
@@ -1360,7 +1366,7 @@
         <v>180.92</v>
       </c>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O11">
         <v>749.6499999999999</v>
@@ -1375,7 +1381,7 @@
         <v>7.5</v>
       </c>
       <c r="S11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1383,13 +1389,13 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1419,7 +1425,7 @@
         <v>1651</v>
       </c>
       <c r="N12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O12">
         <v>599.5200000000004</v>
@@ -1442,13 +1448,13 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1478,7 +1484,7 @@
         <v>732.4</v>
       </c>
       <c r="N13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O13">
         <v>-462.6000000000008</v>
@@ -1498,13 +1504,13 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1534,7 +1540,7 @@
         <v>651.2</v>
       </c>
       <c r="N14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1554,13 +1560,13 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1590,7 +1596,7 @@
         <v>1135.44</v>
       </c>
       <c r="N15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O15">
         <v>-478.0799999999999</v>
@@ -1610,13 +1616,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1646,7 +1652,7 @@
         <v>5731.82</v>
       </c>
       <c r="N16" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O16">
         <v>-301.6800000000003</v>
@@ -1666,16 +1672,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>9282</v>
@@ -1690,10 +1696,10 @@
         <v>9282</v>
       </c>
       <c r="J17">
-        <v>9980</v>
+        <v>9729</v>
       </c>
       <c r="L17">
-        <v>8817.9</v>
+        <v>9282</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1702,13 +1708,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>698</v>
+        <v>447</v>
       </c>
       <c r="Q17">
-        <v>698</v>
+        <v>447</v>
       </c>
       <c r="R17">
-        <v>7.52</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1716,13 +1722,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1752,7 +1758,7 @@
         <v>282.8</v>
       </c>
       <c r="N18" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1772,13 +1778,13 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1808,7 +1814,7 @@
         <v>1342.35</v>
       </c>
       <c r="N19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O19">
         <v>-494.5500000000006</v>
@@ -1828,13 +1834,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D20" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1864,7 +1870,7 @@
         <v>5425.45</v>
       </c>
       <c r="N20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O20">
         <v>-285.5500000000002</v>
@@ -1884,13 +1890,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1911,7 +1917,7 @@
         <v>132.36</v>
       </c>
       <c r="K21" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L21">
         <v>128.5</v>
@@ -1920,7 +1926,7 @@
         <v>128.499</v>
       </c>
       <c r="N21" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O21">
         <v>495.639</v>
@@ -1940,13 +1946,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1967,7 +1973,7 @@
         <v>4021.8</v>
       </c>
       <c r="K22" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L22">
         <v>3974.1</v>
@@ -1976,7 +1982,7 @@
         <v>3974.1</v>
       </c>
       <c r="N22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1996,13 +2002,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2032,7 +2038,7 @@
         <v>972.9400000000001</v>
       </c>
       <c r="N23" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O23">
         <v>-460.8900000000003</v>
@@ -2052,13 +2058,13 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D24" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2088,7 +2094,7 @@
         <v>158.14</v>
       </c>
       <c r="N24" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O24">
         <v>-499.2000000000013</v>
@@ -2108,13 +2114,13 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D25" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2144,7 +2150,7 @@
         <v>1001.11</v>
       </c>
       <c r="N25" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O25">
         <v>-474.2099999999995</v>
@@ -2164,13 +2170,13 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D26" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2191,7 +2197,7 @@
         <v>267.45</v>
       </c>
       <c r="K26" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L26">
         <v>253.98</v>
@@ -2200,7 +2206,7 @@
         <v>252</v>
       </c>
       <c r="N26" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O26">
         <v>-567.9500000000008</v>
@@ -2220,13 +2226,13 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D27" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2256,7 +2262,7 @@
         <v>951.52</v>
       </c>
       <c r="N27" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O27">
         <v>-450.7200000000004</v>
@@ -2276,13 +2282,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D28" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2312,7 +2318,7 @@
         <v>1880.9</v>
       </c>
       <c r="N28" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O28">
         <v>-495</v>
@@ -2332,13 +2338,13 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2368,7 +2374,7 @@
         <v>854</v>
       </c>
       <c r="N29" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O29">
         <v>-523.0499999999995</v>
@@ -2388,13 +2394,13 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D30" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2424,7 +2430,7 @@
         <v>6310.38</v>
       </c>
       <c r="N30" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O30">
         <v>-332.1199999999999</v>
@@ -2444,13 +2450,13 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D31" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2471,7 +2477,7 @@
         <v>546.75</v>
       </c>
       <c r="K31" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L31">
         <v>541.83</v>
@@ -2480,7 +2486,7 @@
         <v>541.83</v>
       </c>
       <c r="N31" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O31">
         <v>-484.8399999999997</v>
@@ -2500,13 +2506,13 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D32" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2536,7 +2542,7 @@
         <v>738.96</v>
       </c>
       <c r="N32" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O32">
         <v>-466.6799999999998</v>
@@ -2556,13 +2562,13 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D33" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2592,7 +2598,7 @@
         <v>637.64</v>
       </c>
       <c r="N33" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O33">
         <v>-469.8400000000008</v>
@@ -2612,13 +2618,13 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D34" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2639,7 +2645,7 @@
         <v>1728.7</v>
       </c>
       <c r="K34" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L34">
         <v>1693.47</v>
@@ -2648,7 +2654,7 @@
         <v>1693.47</v>
       </c>
       <c r="N34" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O34">
         <v>-445.6499999999994</v>
@@ -2668,13 +2674,13 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D35" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2695,7 +2701,7 @@
         <v>414.55</v>
       </c>
       <c r="K35" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L35">
         <v>409.31</v>
@@ -2704,7 +2710,7 @@
         <v>409.31</v>
       </c>
       <c r="N35" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O35">
         <v>-495.4200000000005</v>
@@ -2724,13 +2730,13 @@
         <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D36" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2760,7 +2766,7 @@
         <v>4769.95</v>
       </c>
       <c r="N36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O36">
         <v>-251.0500000000001</v>
@@ -2780,13 +2786,13 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2816,7 +2822,7 @@
         <v>109.86</v>
       </c>
       <c r="N37" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O37">
         <v>-497.0800000000001</v>
@@ -2836,13 +2842,13 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D38" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -2872,7 +2878,7 @@
         <v>439.27</v>
       </c>
       <c r="N38" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O38">
         <v>711.2249999999999</v>
@@ -2895,13 +2901,13 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D39" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2931,7 +2937,7 @@
         <v>260.54</v>
       </c>
       <c r="N39" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O39">
         <v>-493.5599999999993</v>
@@ -2951,13 +2957,13 @@
         <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D40" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2987,7 +2993,7 @@
         <v>1578.33</v>
       </c>
       <c r="N40" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O40">
         <v>-498.420000000001</v>
@@ -3007,13 +3013,13 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D41" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -3043,7 +3049,7 @@
         <v>2751.58</v>
       </c>
       <c r="N41" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O41">
         <v>-434.4600000000005</v>
@@ -3063,13 +3069,13 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D42" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3090,7 +3096,7 @@
         <v>1375.8</v>
       </c>
       <c r="K42" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L42">
         <v>1342.44</v>
@@ -3099,7 +3105,7 @@
         <v>1342.44</v>
       </c>
       <c r="N42" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O42">
         <v>-494.619999999999</v>
@@ -3119,13 +3125,13 @@
         <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D43" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3146,7 +3152,7 @@
         <v>4056.4</v>
       </c>
       <c r="K43" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L43">
         <v>3853.58</v>
@@ -3155,7 +3161,7 @@
         <v>3853.58</v>
       </c>
       <c r="N43" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O43">
         <v>-405.6400000000003</v>
@@ -3175,13 +3181,13 @@
         <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D44" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3199,7 +3205,7 @@
         <v>9686.25</v>
       </c>
       <c r="J44">
-        <v>380.9</v>
+        <v>367.65</v>
       </c>
       <c r="L44">
         <v>358.75</v>
@@ -3211,13 +3217,13 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>598.05</v>
+        <v>240.3</v>
       </c>
       <c r="Q44">
-        <v>598.05</v>
+        <v>240.3</v>
       </c>
       <c r="R44">
-        <v>6.17</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -3225,13 +3231,13 @@
         <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D45" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3261,7 +3267,7 @@
         <v>1574</v>
       </c>
       <c r="N45" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O45">
         <v>-578.9999999999998</v>
@@ -3281,13 +3287,13 @@
         <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D46" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3305,7 +3311,7 @@
         <v>9697.799999999999</v>
       </c>
       <c r="J46">
-        <v>368.4</v>
+        <v>363.2</v>
       </c>
       <c r="L46">
         <v>329.03</v>
@@ -3317,13 +3323,13 @@
         <v>0</v>
       </c>
       <c r="P46">
-        <v>617.4</v>
+        <v>471.8</v>
       </c>
       <c r="Q46">
-        <v>617.4</v>
+        <v>471.8</v>
       </c>
       <c r="R46">
-        <v>6.37</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -3331,13 +3337,13 @@
         <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C47" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D47" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3367,7 +3373,7 @@
         <v>2947.18</v>
       </c>
       <c r="N47" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O47">
         <v>-465.360000000001</v>
@@ -3387,13 +3393,13 @@
         <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D48" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3411,7 +3417,7 @@
         <v>7448.2</v>
       </c>
       <c r="J48">
-        <v>3915.2</v>
+        <v>3834.1</v>
       </c>
       <c r="L48">
         <v>3724.1</v>
@@ -3423,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>382.2</v>
+        <v>220</v>
       </c>
       <c r="Q48">
-        <v>382.2</v>
+        <v>220</v>
       </c>
       <c r="R48">
-        <v>5.13</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -3437,13 +3443,13 @@
         <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D49" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -3473,7 +3479,7 @@
         <v>3074.61</v>
       </c>
       <c r="N49" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O49">
         <v>585.6400000000008</v>
@@ -3496,13 +3502,13 @@
         <v>32</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D50" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3532,7 +3538,7 @@
         <v>1982.08</v>
       </c>
       <c r="N50" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O50">
         <v>-417.2800000000007</v>
@@ -3552,13 +3558,13 @@
         <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C51" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D51" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3588,7 +3594,7 @@
         <v>520.6</v>
       </c>
       <c r="N51" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O51">
         <v>-493.1999999999996</v>
@@ -3608,13 +3614,13 @@
         <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C52" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D52" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E52">
         <v>3</v>
@@ -3644,7 +3650,7 @@
         <v>466.6</v>
       </c>
       <c r="N52" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O52">
         <v>1137.180000000001</v>
@@ -3667,13 +3673,13 @@
         <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D53" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3703,7 +3709,7 @@
         <v>185.38</v>
       </c>
       <c r="N53" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O53">
         <v>-118.190000000001</v>
@@ -3723,13 +3729,13 @@
         <v>34</v>
       </c>
       <c r="B54" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C54" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D54" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -3759,7 +3765,7 @@
         <v>4173.96</v>
       </c>
       <c r="N54" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O54">
         <v>596.2800000000007</v>
@@ -3782,13 +3788,13 @@
         <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C55" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D55" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -3806,7 +3812,7 @@
         <v>9973.5</v>
       </c>
       <c r="J55">
-        <v>2211.2</v>
+        <v>2156.7</v>
       </c>
       <c r="L55">
         <v>2094.43</v>
@@ -3818,13 +3824,13 @@
         <v>398.9400000000001</v>
       </c>
       <c r="P55">
-        <v>649.5</v>
+        <v>486</v>
       </c>
       <c r="Q55">
-        <v>1048.44</v>
+        <v>884.9400000000001</v>
       </c>
       <c r="R55">
-        <v>10.51</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="S55" t="s">
         <v>38</v>
@@ -3835,13 +3841,13 @@
         <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C56" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D56" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3871,7 +3877,7 @@
         <v>814.2</v>
       </c>
       <c r="N56" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O56">
         <v>-490.599999999999</v>
@@ -3891,13 +3897,13 @@
         <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C57" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D57" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3915,7 +3921,7 @@
         <v>9578.25</v>
       </c>
       <c r="J57">
-        <v>642.45</v>
+        <v>620.5</v>
       </c>
       <c r="L57">
         <v>606.62</v>
@@ -3927,13 +3933,13 @@
         <v>0</v>
       </c>
       <c r="P57">
-        <v>58.5</v>
+        <v>-270.75</v>
       </c>
       <c r="Q57">
-        <v>58.5</v>
+        <v>-270.75</v>
       </c>
       <c r="R57">
-        <v>0.61</v>
+        <v>-2.83</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -3941,13 +3947,13 @@
         <v>36</v>
       </c>
       <c r="B58" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C58" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D58" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3977,7 +3983,7 @@
         <v>922.92</v>
       </c>
       <c r="N58" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O58">
         <v>-485.8000000000004</v>
@@ -3997,13 +4003,13 @@
         <v>37</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C59" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D59" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -4033,7 +4039,7 @@
         <v>172.84</v>
       </c>
       <c r="N59" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O59">
         <v>740.73</v>
@@ -4056,13 +4062,13 @@
         <v>37</v>
       </c>
       <c r="B60" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C60" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D60" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -4080,7 +4086,7 @@
         <v>9944.179999999998</v>
       </c>
       <c r="J60">
-        <v>167.31</v>
+        <v>166.88</v>
       </c>
       <c r="L60">
         <v>152.37</v>
@@ -4092,13 +4098,13 @@
         <v>0</v>
       </c>
       <c r="P60">
-        <v>429.04</v>
+        <v>402.38</v>
       </c>
       <c r="Q60">
-        <v>429.04</v>
+        <v>402.38</v>
       </c>
       <c r="R60">
-        <v>4.31</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -4106,13 +4112,13 @@
         <v>37</v>
       </c>
       <c r="B61" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C61" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D61" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -4130,7 +4136,7 @@
         <v>9933</v>
       </c>
       <c r="J61">
-        <v>486.25</v>
+        <v>480.1</v>
       </c>
       <c r="L61">
         <v>451.5</v>
@@ -4142,13 +4148,13 @@
         <v>0</v>
       </c>
       <c r="P61">
-        <v>764.5</v>
+        <v>629.2</v>
       </c>
       <c r="Q61">
-        <v>764.5</v>
+        <v>629.2</v>
       </c>
       <c r="R61">
-        <v>7.7</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -4156,13 +4162,13 @@
         <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C62" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D62" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E62">
         <v>3</v>
@@ -4192,7 +4198,7 @@
         <v>967.15</v>
       </c>
       <c r="N62" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O62">
         <v>1167.96</v>
@@ -4207,7 +4213,7 @@
         <v>12.58</v>
       </c>
       <c r="S62" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -4215,13 +4221,13 @@
         <v>38</v>
       </c>
       <c r="B63" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C63" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D63" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -4251,7 +4257,7 @@
         <v>116.49</v>
       </c>
       <c r="N63" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O63">
         <v>-496.5300000000008</v>
@@ -4271,13 +4277,13 @@
         <v>38</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C64" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D64" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -4307,7 +4313,7 @@
         <v>412.3</v>
       </c>
       <c r="N64" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O64">
         <v>-497.1999999999993</v>
@@ -4327,13 +4333,13 @@
         <v>38</v>
       </c>
       <c r="B65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C65" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D65" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -4351,7 +4357,7 @@
         <v>9407.4</v>
       </c>
       <c r="J65">
-        <v>1550.8</v>
+        <v>1513.3</v>
       </c>
       <c r="L65">
         <v>1489.51</v>
@@ -4363,13 +4369,13 @@
         <v>0</v>
       </c>
       <c r="P65">
-        <v>-102.6</v>
+        <v>-327.6</v>
       </c>
       <c r="Q65">
-        <v>-102.6</v>
+        <v>-327.6</v>
       </c>
       <c r="R65">
-        <v>-1.09</v>
+        <v>-3.48</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4377,13 +4383,13 @@
         <v>38</v>
       </c>
       <c r="B66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C66" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D66" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -4401,7 +4407,7 @@
         <v>9877.15</v>
       </c>
       <c r="J66">
-        <v>264.6</v>
+        <v>274.65</v>
       </c>
       <c r="L66">
         <v>253.6</v>
@@ -4413,13 +4419,13 @@
         <v>0</v>
       </c>
       <c r="P66">
-        <v>-86.95</v>
+        <v>284.9</v>
       </c>
       <c r="Q66">
-        <v>-86.95</v>
+        <v>284.9</v>
       </c>
       <c r="R66">
-        <v>-0.88</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4427,13 +4433,13 @@
         <v>38</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D67" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -4463,7 +4469,7 @@
         <v>5558.93</v>
       </c>
       <c r="N67" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O67">
         <v>-292.5699999999997</v>
@@ -4483,13 +4489,13 @@
         <v>38</v>
       </c>
       <c r="B68" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C68" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D68" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -4519,7 +4525,7 @@
         <v>456.1</v>
       </c>
       <c r="N68" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O68">
         <v>-480</v>
@@ -4539,13 +4545,13 @@
         <v>38</v>
       </c>
       <c r="B69" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C69" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D69" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -4563,7 +4569,7 @@
         <v>8697.5</v>
       </c>
       <c r="J69">
-        <v>1717</v>
+        <v>1676.6</v>
       </c>
       <c r="L69">
         <v>1652.52</v>
@@ -4575,13 +4581,13 @@
         <v>0</v>
       </c>
       <c r="P69">
-        <v>-112.5</v>
+        <v>-314.5</v>
       </c>
       <c r="Q69">
-        <v>-112.5</v>
+        <v>-314.5</v>
       </c>
       <c r="R69">
-        <v>-1.29</v>
+        <v>-3.62</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -4589,13 +4595,13 @@
         <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C70" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D70" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -4625,7 +4631,7 @@
         <v>4850</v>
       </c>
       <c r="N70" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O70">
         <v>-348.5</v>
@@ -4645,13 +4651,13 @@
         <v>39</v>
       </c>
       <c r="B71" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C71" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D71" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -4669,7 +4675,7 @@
         <v>9785.75</v>
       </c>
       <c r="J71">
-        <v>795.95</v>
+        <v>780.15</v>
       </c>
       <c r="L71">
         <v>715.11</v>
@@ -4681,13 +4687,13 @@
         <v>0</v>
       </c>
       <c r="P71">
-        <v>561.6</v>
+        <v>356.2</v>
       </c>
       <c r="Q71">
-        <v>561.6</v>
+        <v>356.2</v>
       </c>
       <c r="R71">
-        <v>5.74</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -4695,13 +4701,13 @@
         <v>40</v>
       </c>
       <c r="B72" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C72" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D72" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -4719,7 +4725,7 @@
         <v>9952.799999999999</v>
       </c>
       <c r="J72">
-        <v>133.92</v>
+        <v>129.88</v>
       </c>
       <c r="L72">
         <v>124.41</v>
@@ -4731,13 +4737,13 @@
         <v>0</v>
       </c>
       <c r="P72">
-        <v>760.8</v>
+        <v>437.6</v>
       </c>
       <c r="Q72">
-        <v>760.8</v>
+        <v>437.6</v>
       </c>
       <c r="R72">
-        <v>7.64</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -4745,13 +4751,13 @@
         <v>40</v>
       </c>
       <c r="B73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C73" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D73" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -4781,7 +4787,7 @@
         <v>1540.62</v>
       </c>
       <c r="N73" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O73">
         <v>-486.4800000000009</v>
@@ -4801,13 +4807,13 @@
         <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C74" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D74" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -4837,7 +4843,7 @@
         <v>261.9</v>
       </c>
       <c r="N74" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O74">
         <v>-511.2000000000016</v>
@@ -4857,13 +4863,13 @@
         <v>41</v>
       </c>
       <c r="B75" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C75" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D75" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -4893,7 +4899,7 @@
         <v>141.6</v>
       </c>
       <c r="N75" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O75">
         <v>-499.1500000000011</v>
@@ -4913,13 +4919,13 @@
         <v>41</v>
       </c>
       <c r="B76" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C76" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D76" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -4949,7 +4955,7 @@
         <v>1134.58</v>
       </c>
       <c r="N76" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O76">
         <v>-477.7600000000002</v>
@@ -4969,13 +4975,13 @@
         <v>41</v>
       </c>
       <c r="B77" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C77" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D77" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -5005,7 +5011,7 @@
         <v>2835.37</v>
       </c>
       <c r="N77" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O77">
         <v>-447.6900000000001</v>
@@ -5025,13 +5031,13 @@
         <v>42</v>
       </c>
       <c r="B78" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C78" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D78" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -5049,7 +5055,7 @@
         <v>6019</v>
       </c>
       <c r="J78">
-        <v>6176</v>
+        <v>6108.5</v>
       </c>
       <c r="L78">
         <v>5718.05</v>
@@ -5061,13 +5067,13 @@
         <v>0</v>
       </c>
       <c r="P78">
-        <v>157</v>
+        <v>89.5</v>
       </c>
       <c r="Q78">
-        <v>157</v>
+        <v>89.5</v>
       </c>
       <c r="R78">
-        <v>2.61</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5075,13 +5081,13 @@
         <v>43</v>
       </c>
       <c r="B79" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C79" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D79" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -5099,7 +5105,7 @@
         <v>9647.1</v>
       </c>
       <c r="J79">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="L79">
         <v>509.15</v>
@@ -5111,13 +5117,13 @@
         <v>0</v>
       </c>
       <c r="P79">
-        <v>-89.09999999999999</v>
+        <v>-251.1</v>
       </c>
       <c r="Q79">
-        <v>-89.09999999999999</v>
+        <v>-251.1</v>
       </c>
       <c r="R79">
-        <v>-0.92</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5125,13 +5131,13 @@
         <v>44</v>
       </c>
       <c r="B80" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C80" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D80" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -5149,7 +5155,7 @@
         <v>9713.200000000001</v>
       </c>
       <c r="J80">
-        <v>364.3</v>
+        <v>353.55</v>
       </c>
       <c r="L80">
         <v>329.55</v>
@@ -5161,13 +5167,13 @@
         <v>0</v>
       </c>
       <c r="P80">
-        <v>487.2</v>
+        <v>186.2</v>
       </c>
       <c r="Q80">
-        <v>487.2</v>
+        <v>186.2</v>
       </c>
       <c r="R80">
-        <v>5.02</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5175,13 +5181,13 @@
         <v>44</v>
       </c>
       <c r="B81" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C81" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D81" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -5199,7 +5205,7 @@
         <v>9902.200000000001</v>
       </c>
       <c r="J81">
-        <v>1408.2</v>
+        <v>1388.8</v>
       </c>
       <c r="L81">
         <v>1343.87</v>
@@ -5211,13 +5217,13 @@
         <v>0</v>
       </c>
       <c r="P81">
-        <v>-44.8</v>
+        <v>-180.6</v>
       </c>
       <c r="Q81">
-        <v>-44.8</v>
+        <v>-180.6</v>
       </c>
       <c r="R81">
-        <v>-0.45</v>
+        <v>-1.82</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5225,13 +5231,13 @@
         <v>44</v>
       </c>
       <c r="B82" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C82" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D82" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -5249,7 +5255,7 @@
         <v>9773.299999999999</v>
       </c>
       <c r="J82">
-        <v>305.15</v>
+        <v>304.45</v>
       </c>
       <c r="L82">
         <v>273.08</v>
@@ -5261,13 +5267,13 @@
         <v>0</v>
       </c>
       <c r="P82">
-        <v>601.8</v>
+        <v>578</v>
       </c>
       <c r="Q82">
-        <v>601.8</v>
+        <v>578</v>
       </c>
       <c r="R82">
-        <v>6.16</v>
+        <v>5.91</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5275,13 +5281,13 @@
         <v>44</v>
       </c>
       <c r="B83" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C83" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D83" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -5299,7 +5305,7 @@
         <v>9485.6</v>
       </c>
       <c r="J83">
-        <v>585.25</v>
+        <v>584.1</v>
       </c>
       <c r="L83">
         <v>563.21</v>
@@ -5311,13 +5317,13 @@
         <v>0</v>
       </c>
       <c r="P83">
-        <v>-121.6</v>
+        <v>-140</v>
       </c>
       <c r="Q83">
-        <v>-121.6</v>
+        <v>-140</v>
       </c>
       <c r="R83">
-        <v>-1.28</v>
+        <v>-1.48</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5325,13 +5331,13 @@
         <v>45</v>
       </c>
       <c r="B84" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C84" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -5349,7 +5355,7 @@
         <v>9114.75</v>
       </c>
       <c r="J84">
-        <v>1023.8</v>
+        <v>1017.05</v>
       </c>
       <c r="L84">
         <v>962.11</v>
@@ -5361,13 +5367,13 @@
         <v>0</v>
       </c>
       <c r="P84">
-        <v>99.45</v>
+        <v>38.7</v>
       </c>
       <c r="Q84">
-        <v>99.45</v>
+        <v>38.7</v>
       </c>
       <c r="R84">
-        <v>1.09</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5375,13 +5381,13 @@
         <v>45</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D85" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -5399,7 +5405,7 @@
         <v>9588.799999999999</v>
       </c>
       <c r="J85">
-        <v>2432.1</v>
+        <v>2400.8</v>
       </c>
       <c r="L85">
         <v>2277.34</v>
@@ -5411,13 +5417,13 @@
         <v>0</v>
       </c>
       <c r="P85">
-        <v>139.6</v>
+        <v>14.4</v>
       </c>
       <c r="Q85">
-        <v>139.6</v>
+        <v>14.4</v>
       </c>
       <c r="R85">
-        <v>1.46</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5425,13 +5431,13 @@
         <v>46</v>
       </c>
       <c r="B86" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C86" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D86" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -5449,7 +5455,7 @@
         <v>9589.85</v>
       </c>
       <c r="J86">
-        <v>420.45</v>
+        <v>409.55</v>
       </c>
       <c r="L86">
         <v>396.1</v>
@@ -5461,13 +5467,13 @@
         <v>0</v>
       </c>
       <c r="P86">
-        <v>80.5</v>
+        <v>-170.2</v>
       </c>
       <c r="Q86">
-        <v>80.5</v>
+        <v>-170.2</v>
       </c>
       <c r="R86">
-        <v>0.84</v>
+        <v>-1.77</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5475,13 +5481,13 @@
         <v>46</v>
       </c>
       <c r="B87" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C87" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D87" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -5499,7 +5505,7 @@
         <v>8993.6</v>
       </c>
       <c r="J87">
-        <v>1280.3</v>
+        <v>1282.3</v>
       </c>
       <c r="L87">
         <v>1220.56</v>
@@ -5511,13 +5517,13 @@
         <v>0</v>
       </c>
       <c r="P87">
-        <v>-31.5</v>
+        <v>-17.5</v>
       </c>
       <c r="Q87">
-        <v>-31.5</v>
+        <v>-17.5</v>
       </c>
       <c r="R87">
-        <v>-0.35</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -5525,13 +5531,13 @@
         <v>46</v>
       </c>
       <c r="B88" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C88" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D88" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -5549,7 +5555,7 @@
         <v>9838</v>
       </c>
       <c r="J88">
-        <v>4885</v>
+        <v>4839.5</v>
       </c>
       <c r="L88">
         <v>4673.05</v>
@@ -5561,13 +5567,13 @@
         <v>0</v>
       </c>
       <c r="P88">
-        <v>-68</v>
+        <v>-159</v>
       </c>
       <c r="Q88">
-        <v>-68</v>
+        <v>-159</v>
       </c>
       <c r="R88">
-        <v>-0.6899999999999999</v>
+        <v>-1.62</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -5575,13 +5581,13 @@
         <v>46</v>
       </c>
       <c r="B89" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C89" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D89" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -5599,7 +5605,7 @@
         <v>9791.1</v>
       </c>
       <c r="J89">
-        <v>899.25</v>
+        <v>905.65</v>
       </c>
       <c r="L89">
         <v>845.6</v>
@@ -5611,13 +5617,263 @@
         <v>0</v>
       </c>
       <c r="P89">
-        <v>100.65</v>
+        <v>171.05</v>
       </c>
       <c r="Q89">
-        <v>100.65</v>
+        <v>171.05</v>
       </c>
       <c r="R89">
-        <v>1.03</v>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
+      <c r="A90" t="s">
+        <v>47</v>
+      </c>
+      <c r="B90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C90" t="s">
+        <v>115</v>
+      </c>
+      <c r="D90" t="s">
+        <v>119</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>2279.3</v>
+      </c>
+      <c r="G90">
+        <v>4</v>
+      </c>
+      <c r="H90">
+        <v>4</v>
+      </c>
+      <c r="I90">
+        <v>9117.200000000001</v>
+      </c>
+      <c r="J90">
+        <v>2279.3</v>
+      </c>
+      <c r="L90">
+        <v>2165.34</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
+      <c r="A91" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91" t="s">
+        <v>114</v>
+      </c>
+      <c r="C91" t="s">
+        <v>117</v>
+      </c>
+      <c r="D91" t="s">
+        <v>119</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>294.65</v>
+      </c>
+      <c r="G91">
+        <v>33</v>
+      </c>
+      <c r="H91">
+        <v>33</v>
+      </c>
+      <c r="I91">
+        <v>9723.449999999999</v>
+      </c>
+      <c r="J91">
+        <v>294.65</v>
+      </c>
+      <c r="L91">
+        <v>279.92</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
+      <c r="A92" t="s">
+        <v>47</v>
+      </c>
+      <c r="B92" t="s">
+        <v>59</v>
+      </c>
+      <c r="C92" t="s">
+        <v>117</v>
+      </c>
+      <c r="D92" t="s">
+        <v>119</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>765.05</v>
+      </c>
+      <c r="G92">
+        <v>13</v>
+      </c>
+      <c r="H92">
+        <v>13</v>
+      </c>
+      <c r="I92">
+        <v>9945.65</v>
+      </c>
+      <c r="J92">
+        <v>765.05</v>
+      </c>
+      <c r="L92">
+        <v>726.8</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
+      <c r="A93" t="s">
+        <v>47</v>
+      </c>
+      <c r="B93" t="s">
+        <v>67</v>
+      </c>
+      <c r="C93" t="s">
+        <v>117</v>
+      </c>
+      <c r="D93" t="s">
+        <v>119</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>126.1</v>
+      </c>
+      <c r="G93">
+        <v>79</v>
+      </c>
+      <c r="H93">
+        <v>79</v>
+      </c>
+      <c r="I93">
+        <v>9961.9</v>
+      </c>
+      <c r="J93">
+        <v>126.1</v>
+      </c>
+      <c r="L93">
+        <v>119.79</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
+      <c r="A94" t="s">
+        <v>47</v>
+      </c>
+      <c r="B94" t="s">
+        <v>70</v>
+      </c>
+      <c r="C94" t="s">
+        <v>117</v>
+      </c>
+      <c r="D94" t="s">
+        <v>119</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>174.3</v>
+      </c>
+      <c r="G94">
+        <v>57</v>
+      </c>
+      <c r="H94">
+        <v>57</v>
+      </c>
+      <c r="I94">
+        <v>9935.1</v>
+      </c>
+      <c r="J94">
+        <v>174.3</v>
+      </c>
+      <c r="L94">
+        <v>165.59</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -921,7 +921,7 @@
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1356.6</v>
+        <v>1368.3</v>
       </c>
       <c r="L3">
         <v>1293.6</v>
@@ -933,13 +933,13 @@
         <v>492.8000000000002</v>
       </c>
       <c r="P3">
-        <v>498.4</v>
+        <v>545.2</v>
       </c>
       <c r="Q3">
-        <v>991.2</v>
+        <v>1038</v>
       </c>
       <c r="R3">
-        <v>10.06</v>
+        <v>10.53</v>
       </c>
       <c r="S3" t="s">
         <v>34</v>
@@ -1030,7 +1030,7 @@
         <v>8527.200000000001</v>
       </c>
       <c r="J5">
-        <v>2864.3</v>
+        <v>2832.8</v>
       </c>
       <c r="L5">
         <v>2700.28</v>
@@ -1042,13 +1042,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>65.7</v>
+        <v>-28.8</v>
       </c>
       <c r="Q5">
-        <v>65.7</v>
+        <v>-28.8</v>
       </c>
       <c r="R5">
-        <v>0.77</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1136,7 +1136,7 @@
         <v>8960</v>
       </c>
       <c r="J7">
-        <v>1278.5</v>
+        <v>1293.8</v>
       </c>
       <c r="L7">
         <v>1216</v>
@@ -1148,13 +1148,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>-10.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="Q7">
-        <v>-10.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="R7">
-        <v>-0.12</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1696,7 +1696,7 @@
         <v>9282</v>
       </c>
       <c r="J17">
-        <v>9729</v>
+        <v>9807</v>
       </c>
       <c r="L17">
         <v>9282</v>
@@ -1708,13 +1708,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>447</v>
+        <v>525</v>
       </c>
       <c r="Q17">
-        <v>447</v>
+        <v>525</v>
       </c>
       <c r="R17">
-        <v>4.82</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -3205,7 +3205,7 @@
         <v>9686.25</v>
       </c>
       <c r="J44">
-        <v>367.65</v>
+        <v>366.3</v>
       </c>
       <c r="L44">
         <v>358.75</v>
@@ -3217,13 +3217,13 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>240.3</v>
+        <v>203.85</v>
       </c>
       <c r="Q44">
-        <v>240.3</v>
+        <v>203.85</v>
       </c>
       <c r="R44">
-        <v>2.48</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -3311,7 +3311,7 @@
         <v>9697.799999999999</v>
       </c>
       <c r="J46">
-        <v>363.2</v>
+        <v>372.95</v>
       </c>
       <c r="L46">
         <v>329.03</v>
@@ -3323,13 +3323,13 @@
         <v>0</v>
       </c>
       <c r="P46">
-        <v>471.8</v>
+        <v>744.8</v>
       </c>
       <c r="Q46">
-        <v>471.8</v>
+        <v>744.8</v>
       </c>
       <c r="R46">
-        <v>4.87</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -3417,7 +3417,7 @@
         <v>7448.2</v>
       </c>
       <c r="J48">
-        <v>3834.1</v>
+        <v>3866.4</v>
       </c>
       <c r="L48">
         <v>3724.1</v>
@@ -3429,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>220</v>
+        <v>284.6</v>
       </c>
       <c r="Q48">
-        <v>220</v>
+        <v>284.6</v>
       </c>
       <c r="R48">
-        <v>2.95</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -3812,7 +3812,7 @@
         <v>9973.5</v>
       </c>
       <c r="J55">
-        <v>2156.7</v>
+        <v>2160.8</v>
       </c>
       <c r="L55">
         <v>2094.43</v>
@@ -3824,13 +3824,13 @@
         <v>398.9400000000001</v>
       </c>
       <c r="P55">
-        <v>486</v>
+        <v>498.3</v>
       </c>
       <c r="Q55">
-        <v>884.9400000000001</v>
+        <v>897.24</v>
       </c>
       <c r="R55">
-        <v>8.869999999999999</v>
+        <v>9</v>
       </c>
       <c r="S55" t="s">
         <v>38</v>
@@ -3921,7 +3921,7 @@
         <v>9578.25</v>
       </c>
       <c r="J57">
-        <v>620.5</v>
+        <v>629.3</v>
       </c>
       <c r="L57">
         <v>606.62</v>
@@ -3933,13 +3933,13 @@
         <v>0</v>
       </c>
       <c r="P57">
-        <v>-270.75</v>
+        <v>-138.75</v>
       </c>
       <c r="Q57">
-        <v>-270.75</v>
+        <v>-138.75</v>
       </c>
       <c r="R57">
-        <v>-2.83</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -4086,7 +4086,7 @@
         <v>9944.179999999998</v>
       </c>
       <c r="J60">
-        <v>166.88</v>
+        <v>168.47</v>
       </c>
       <c r="L60">
         <v>152.37</v>
@@ -4098,13 +4098,13 @@
         <v>0</v>
       </c>
       <c r="P60">
-        <v>402.38</v>
+        <v>500.96</v>
       </c>
       <c r="Q60">
-        <v>402.38</v>
+        <v>500.96</v>
       </c>
       <c r="R60">
-        <v>4.05</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -4136,7 +4136,7 @@
         <v>9933</v>
       </c>
       <c r="J61">
-        <v>480.1</v>
+        <v>493.95</v>
       </c>
       <c r="L61">
         <v>451.5</v>
@@ -4148,13 +4148,13 @@
         <v>0</v>
       </c>
       <c r="P61">
-        <v>629.2</v>
+        <v>933.9</v>
       </c>
       <c r="Q61">
-        <v>629.2</v>
+        <v>933.9</v>
       </c>
       <c r="R61">
-        <v>6.33</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -4357,7 +4357,7 @@
         <v>9407.4</v>
       </c>
       <c r="J65">
-        <v>1513.3</v>
+        <v>1511.5</v>
       </c>
       <c r="L65">
         <v>1489.51</v>
@@ -4369,13 +4369,13 @@
         <v>0</v>
       </c>
       <c r="P65">
-        <v>-327.6</v>
+        <v>-338.4</v>
       </c>
       <c r="Q65">
-        <v>-327.6</v>
+        <v>-338.4</v>
       </c>
       <c r="R65">
-        <v>-3.48</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4407,7 +4407,7 @@
         <v>9877.15</v>
       </c>
       <c r="J66">
-        <v>274.65</v>
+        <v>278.65</v>
       </c>
       <c r="L66">
         <v>253.6</v>
@@ -4419,13 +4419,13 @@
         <v>0</v>
       </c>
       <c r="P66">
-        <v>284.9</v>
+        <v>432.9</v>
       </c>
       <c r="Q66">
-        <v>284.9</v>
+        <v>432.9</v>
       </c>
       <c r="R66">
-        <v>2.88</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4569,7 +4569,7 @@
         <v>8697.5</v>
       </c>
       <c r="J69">
-        <v>1676.6</v>
+        <v>1669.6</v>
       </c>
       <c r="L69">
         <v>1652.52</v>
@@ -4581,13 +4581,13 @@
         <v>0</v>
       </c>
       <c r="P69">
-        <v>-314.5</v>
+        <v>-349.5</v>
       </c>
       <c r="Q69">
-        <v>-314.5</v>
+        <v>-349.5</v>
       </c>
       <c r="R69">
-        <v>-3.62</v>
+        <v>-4.02</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -4675,7 +4675,7 @@
         <v>9785.75</v>
       </c>
       <c r="J71">
-        <v>780.15</v>
+        <v>788.2</v>
       </c>
       <c r="L71">
         <v>715.11</v>
@@ -4687,13 +4687,13 @@
         <v>0</v>
       </c>
       <c r="P71">
-        <v>356.2</v>
+        <v>460.85</v>
       </c>
       <c r="Q71">
-        <v>356.2</v>
+        <v>460.85</v>
       </c>
       <c r="R71">
-        <v>3.64</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -4725,7 +4725,7 @@
         <v>9952.799999999999</v>
       </c>
       <c r="J72">
-        <v>129.88</v>
+        <v>129.42</v>
       </c>
       <c r="L72">
         <v>124.41</v>
@@ -4737,13 +4737,13 @@
         <v>0</v>
       </c>
       <c r="P72">
-        <v>437.6</v>
+        <v>400.8</v>
       </c>
       <c r="Q72">
-        <v>437.6</v>
+        <v>400.8</v>
       </c>
       <c r="R72">
-        <v>4.4</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5055,7 +5055,7 @@
         <v>6019</v>
       </c>
       <c r="J78">
-        <v>6108.5</v>
+        <v>6098.5</v>
       </c>
       <c r="L78">
         <v>5718.05</v>
@@ -5067,13 +5067,13 @@
         <v>0</v>
       </c>
       <c r="P78">
-        <v>89.5</v>
+        <v>79.5</v>
       </c>
       <c r="Q78">
-        <v>89.5</v>
+        <v>79.5</v>
       </c>
       <c r="R78">
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5105,7 +5105,7 @@
         <v>9647.1</v>
       </c>
       <c r="J79">
-        <v>522</v>
+        <v>519.2</v>
       </c>
       <c r="L79">
         <v>509.15</v>
@@ -5117,13 +5117,13 @@
         <v>0</v>
       </c>
       <c r="P79">
-        <v>-251.1</v>
+        <v>-301.5</v>
       </c>
       <c r="Q79">
-        <v>-251.1</v>
+        <v>-301.5</v>
       </c>
       <c r="R79">
-        <v>-2.6</v>
+        <v>-3.13</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5155,7 +5155,7 @@
         <v>9713.200000000001</v>
       </c>
       <c r="J80">
-        <v>353.55</v>
+        <v>354.2</v>
       </c>
       <c r="L80">
         <v>329.55</v>
@@ -5167,13 +5167,13 @@
         <v>0</v>
       </c>
       <c r="P80">
-        <v>186.2</v>
+        <v>204.4</v>
       </c>
       <c r="Q80">
-        <v>186.2</v>
+        <v>204.4</v>
       </c>
       <c r="R80">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5205,7 +5205,7 @@
         <v>9902.200000000001</v>
       </c>
       <c r="J81">
-        <v>1388.8</v>
+        <v>1394.5</v>
       </c>
       <c r="L81">
         <v>1343.87</v>
@@ -5217,13 +5217,13 @@
         <v>0</v>
       </c>
       <c r="P81">
-        <v>-180.6</v>
+        <v>-140.7</v>
       </c>
       <c r="Q81">
-        <v>-180.6</v>
+        <v>-140.7</v>
       </c>
       <c r="R81">
-        <v>-1.82</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5240,7 +5240,7 @@
         <v>119</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
         <v>287.45</v>
@@ -5255,10 +5255,10 @@
         <v>9773.299999999999</v>
       </c>
       <c r="J82">
-        <v>304.45</v>
+        <v>309.05</v>
       </c>
       <c r="L82">
-        <v>273.08</v>
+        <v>287.45</v>
       </c>
       <c r="M82">
         <v>0</v>
@@ -5267,13 +5267,13 @@
         <v>0</v>
       </c>
       <c r="P82">
-        <v>578</v>
+        <v>734.4</v>
       </c>
       <c r="Q82">
-        <v>578</v>
+        <v>734.4</v>
       </c>
       <c r="R82">
-        <v>5.91</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5305,7 +5305,7 @@
         <v>9485.6</v>
       </c>
       <c r="J83">
-        <v>584.1</v>
+        <v>589.35</v>
       </c>
       <c r="L83">
         <v>563.21</v>
@@ -5317,13 +5317,13 @@
         <v>0</v>
       </c>
       <c r="P83">
-        <v>-140</v>
+        <v>-56</v>
       </c>
       <c r="Q83">
-        <v>-140</v>
+        <v>-56</v>
       </c>
       <c r="R83">
-        <v>-1.48</v>
+        <v>-0.59</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5355,7 +5355,7 @@
         <v>9114.75</v>
       </c>
       <c r="J84">
-        <v>1017.05</v>
+        <v>1030.2</v>
       </c>
       <c r="L84">
         <v>962.11</v>
@@ -5367,13 +5367,13 @@
         <v>0</v>
       </c>
       <c r="P84">
-        <v>38.7</v>
+        <v>157.05</v>
       </c>
       <c r="Q84">
-        <v>38.7</v>
+        <v>157.05</v>
       </c>
       <c r="R84">
-        <v>0.42</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5405,7 +5405,7 @@
         <v>9588.799999999999</v>
       </c>
       <c r="J85">
-        <v>2400.8</v>
+        <v>2428.1</v>
       </c>
       <c r="L85">
         <v>2277.34</v>
@@ -5417,13 +5417,13 @@
         <v>0</v>
       </c>
       <c r="P85">
-        <v>14.4</v>
+        <v>123.6</v>
       </c>
       <c r="Q85">
-        <v>14.4</v>
+        <v>123.6</v>
       </c>
       <c r="R85">
-        <v>0.15</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5455,7 +5455,7 @@
         <v>9589.85</v>
       </c>
       <c r="J86">
-        <v>409.55</v>
+        <v>410.1</v>
       </c>
       <c r="L86">
         <v>396.1</v>
@@ -5467,13 +5467,13 @@
         <v>0</v>
       </c>
       <c r="P86">
-        <v>-170.2</v>
+        <v>-157.55</v>
       </c>
       <c r="Q86">
-        <v>-170.2</v>
+        <v>-157.55</v>
       </c>
       <c r="R86">
-        <v>-1.77</v>
+        <v>-1.64</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5505,7 +5505,7 @@
         <v>8993.6</v>
       </c>
       <c r="J87">
-        <v>1282.3</v>
+        <v>1280.4</v>
       </c>
       <c r="L87">
         <v>1220.56</v>
@@ -5517,13 +5517,13 @@
         <v>0</v>
       </c>
       <c r="P87">
-        <v>-17.5</v>
+        <v>-30.8</v>
       </c>
       <c r="Q87">
-        <v>-17.5</v>
+        <v>-30.8</v>
       </c>
       <c r="R87">
-        <v>-0.19</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -5555,7 +5555,7 @@
         <v>9838</v>
       </c>
       <c r="J88">
-        <v>4839.5</v>
+        <v>4859</v>
       </c>
       <c r="L88">
         <v>4673.05</v>
@@ -5567,13 +5567,13 @@
         <v>0</v>
       </c>
       <c r="P88">
-        <v>-159</v>
+        <v>-120</v>
       </c>
       <c r="Q88">
-        <v>-159</v>
+        <v>-120</v>
       </c>
       <c r="R88">
-        <v>-1.62</v>
+        <v>-1.22</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -5605,7 +5605,7 @@
         <v>9791.1</v>
       </c>
       <c r="J89">
-        <v>905.65</v>
+        <v>935.7</v>
       </c>
       <c r="L89">
         <v>845.6</v>
@@ -5617,13 +5617,13 @@
         <v>0</v>
       </c>
       <c r="P89">
-        <v>171.05</v>
+        <v>501.6</v>
       </c>
       <c r="Q89">
-        <v>171.05</v>
+        <v>501.6</v>
       </c>
       <c r="R89">
-        <v>1.75</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -5655,7 +5655,7 @@
         <v>9117.200000000001</v>
       </c>
       <c r="J90">
-        <v>2279.3</v>
+        <v>2314.5</v>
       </c>
       <c r="L90">
         <v>2165.34</v>
@@ -5667,13 +5667,13 @@
         <v>0</v>
       </c>
       <c r="P90">
-        <v>0</v>
+        <v>140.8</v>
       </c>
       <c r="Q90">
-        <v>0</v>
+        <v>140.8</v>
       </c>
       <c r="R90">
-        <v>0</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -5702,10 +5702,10 @@
         <v>33</v>
       </c>
       <c r="I91">
-        <v>9723.449999999999</v>
+        <v>9723.450000000001</v>
       </c>
       <c r="J91">
-        <v>294.65</v>
+        <v>298.95</v>
       </c>
       <c r="L91">
         <v>279.92</v>
@@ -5717,13 +5717,13 @@
         <v>0</v>
       </c>
       <c r="P91">
-        <v>0</v>
+        <v>141.9</v>
       </c>
       <c r="Q91">
-        <v>0</v>
+        <v>141.9</v>
       </c>
       <c r="R91">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -5755,7 +5755,7 @@
         <v>9945.65</v>
       </c>
       <c r="J92">
-        <v>765.05</v>
+        <v>752.35</v>
       </c>
       <c r="L92">
         <v>726.8</v>
@@ -5767,13 +5767,13 @@
         <v>0</v>
       </c>
       <c r="P92">
-        <v>0</v>
+        <v>-165.1</v>
       </c>
       <c r="Q92">
-        <v>0</v>
+        <v>-165.1</v>
       </c>
       <c r="R92">
-        <v>0</v>
+        <v>-1.66</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -5805,7 +5805,7 @@
         <v>9961.9</v>
       </c>
       <c r="J93">
-        <v>126.1</v>
+        <v>129.59</v>
       </c>
       <c r="L93">
         <v>119.79</v>
@@ -5817,13 +5817,13 @@
         <v>0</v>
       </c>
       <c r="P93">
-        <v>0</v>
+        <v>275.71</v>
       </c>
       <c r="Q93">
-        <v>0</v>
+        <v>275.71</v>
       </c>
       <c r="R93">
-        <v>0</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -5855,7 +5855,7 @@
         <v>9935.1</v>
       </c>
       <c r="J94">
-        <v>174.3</v>
+        <v>173.79</v>
       </c>
       <c r="L94">
         <v>165.59</v>
@@ -5867,13 +5867,13 @@
         <v>0</v>
       </c>
       <c r="P94">
-        <v>0</v>
+        <v>-29.07</v>
       </c>
       <c r="Q94">
-        <v>0</v>
+        <v>-29.07</v>
       </c>
       <c r="R94">
-        <v>0</v>
+        <v>-0.29</v>
       </c>
     </row>
   </sheetData>

--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="130">
   <si>
     <t>Buy Date</t>
   </si>
@@ -160,6 +160,9 @@
     <t>2026-02-19</t>
   </si>
   <si>
+    <t>2026-02-23</t>
+  </si>
+  <si>
     <t>ADANIENT</t>
   </si>
   <si>
@@ -359,6 +362,9 @@
   </si>
   <si>
     <t>POWERGRID</t>
+  </si>
+  <si>
+    <t>KOTAKBANK</t>
   </si>
   <si>
     <t>Value Buy</t>
@@ -761,7 +767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S94"/>
+  <dimension ref="A1:S96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -841,13 +847,13 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -877,7 +883,7 @@
         <v>2093.04</v>
       </c>
       <c r="N2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O2">
         <v>-440.6399999999994</v>
@@ -897,13 +903,13 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -921,7 +927,7 @@
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1368.3</v>
+        <v>1386.7</v>
       </c>
       <c r="L3">
         <v>1293.6</v>
@@ -933,13 +939,13 @@
         <v>492.8000000000002</v>
       </c>
       <c r="P3">
-        <v>545.2</v>
+        <v>618.8</v>
       </c>
       <c r="Q3">
-        <v>1038</v>
+        <v>1111.6</v>
       </c>
       <c r="R3">
-        <v>10.53</v>
+        <v>11.28</v>
       </c>
       <c r="S3" t="s">
         <v>34</v>
@@ -950,13 +956,13 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -986,7 +992,7 @@
         <v>5739.43</v>
       </c>
       <c r="N4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O4">
         <v>-302.0699999999997</v>
@@ -1006,13 +1012,13 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1030,7 +1036,7 @@
         <v>8527.200000000001</v>
       </c>
       <c r="J5">
-        <v>2832.8</v>
+        <v>2873.4</v>
       </c>
       <c r="L5">
         <v>2700.28</v>
@@ -1042,13 +1048,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>-28.8</v>
+        <v>93</v>
       </c>
       <c r="Q5">
-        <v>-28.8</v>
+        <v>93</v>
       </c>
       <c r="R5">
-        <v>-0.34</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1056,13 +1062,13 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1092,7 +1098,7 @@
         <v>2293.3</v>
       </c>
       <c r="N6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1112,13 +1118,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1136,7 +1142,7 @@
         <v>8960</v>
       </c>
       <c r="J7">
-        <v>1293.8</v>
+        <v>1315.1</v>
       </c>
       <c r="L7">
         <v>1216</v>
@@ -1148,13 +1154,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>96.59999999999999</v>
+        <v>245.7</v>
       </c>
       <c r="Q7">
-        <v>96.59999999999999</v>
+        <v>245.7</v>
       </c>
       <c r="R7">
-        <v>1.08</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1162,13 +1168,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1198,7 +1204,7 @@
         <v>3066.4</v>
       </c>
       <c r="N8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O8">
         <v>-522.8999999999992</v>
@@ -1218,13 +1224,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1254,7 +1260,7 @@
         <v>2901.59</v>
       </c>
       <c r="N9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O9">
         <v>-458.1300000000001</v>
@@ -1274,13 +1280,13 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1310,7 +1316,7 @@
         <v>2922.11</v>
       </c>
       <c r="N10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O10">
         <v>-461.3699999999999</v>
@@ -1330,13 +1336,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1357,7 +1363,7 @@
         <v>183.56</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L11">
         <v>180.92</v>
@@ -1366,7 +1372,7 @@
         <v>180.92</v>
       </c>
       <c r="N11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O11">
         <v>749.6499999999999</v>
@@ -1381,7 +1387,7 @@
         <v>7.5</v>
       </c>
       <c r="S11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1389,13 +1395,13 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1425,7 +1431,7 @@
         <v>1651</v>
       </c>
       <c r="N12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O12">
         <v>599.5200000000004</v>
@@ -1448,13 +1454,13 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1484,7 +1490,7 @@
         <v>732.4</v>
       </c>
       <c r="N13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O13">
         <v>-462.6000000000008</v>
@@ -1504,13 +1510,13 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1540,7 +1546,7 @@
         <v>651.2</v>
       </c>
       <c r="N14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1560,13 +1566,13 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1596,7 +1602,7 @@
         <v>1135.44</v>
       </c>
       <c r="N15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O15">
         <v>-478.0799999999999</v>
@@ -1616,13 +1622,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1652,7 +1658,7 @@
         <v>5731.82</v>
       </c>
       <c r="N16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O16">
         <v>-301.6800000000003</v>
@@ -1672,13 +1678,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1696,7 +1702,7 @@
         <v>9282</v>
       </c>
       <c r="J17">
-        <v>9807</v>
+        <v>9905.5</v>
       </c>
       <c r="L17">
         <v>9282</v>
@@ -1708,13 +1714,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>525</v>
+        <v>623.5</v>
       </c>
       <c r="Q17">
-        <v>525</v>
+        <v>623.5</v>
       </c>
       <c r="R17">
-        <v>5.66</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1722,13 +1728,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1758,7 +1764,7 @@
         <v>282.8</v>
       </c>
       <c r="N18" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1778,13 +1784,13 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1814,7 +1820,7 @@
         <v>1342.35</v>
       </c>
       <c r="N19" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O19">
         <v>-494.5500000000006</v>
@@ -1834,13 +1840,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1870,7 +1876,7 @@
         <v>5425.45</v>
       </c>
       <c r="N20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O20">
         <v>-285.5500000000002</v>
@@ -1890,13 +1896,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1917,7 +1923,7 @@
         <v>132.36</v>
       </c>
       <c r="K21" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L21">
         <v>128.5</v>
@@ -1926,7 +1932,7 @@
         <v>128.499</v>
       </c>
       <c r="N21" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O21">
         <v>495.639</v>
@@ -1946,13 +1952,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1973,7 +1979,7 @@
         <v>4021.8</v>
       </c>
       <c r="K22" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L22">
         <v>3974.1</v>
@@ -1982,7 +1988,7 @@
         <v>3974.1</v>
       </c>
       <c r="N22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -2002,13 +2008,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2038,7 +2044,7 @@
         <v>972.9400000000001</v>
       </c>
       <c r="N23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O23">
         <v>-460.8900000000003</v>
@@ -2058,13 +2064,13 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2094,7 +2100,7 @@
         <v>158.14</v>
       </c>
       <c r="N24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O24">
         <v>-499.2000000000013</v>
@@ -2114,13 +2120,13 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2150,7 +2156,7 @@
         <v>1001.11</v>
       </c>
       <c r="N25" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O25">
         <v>-474.2099999999995</v>
@@ -2170,13 +2176,13 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D26" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2197,7 +2203,7 @@
         <v>267.45</v>
       </c>
       <c r="K26" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L26">
         <v>253.98</v>
@@ -2206,7 +2212,7 @@
         <v>252</v>
       </c>
       <c r="N26" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O26">
         <v>-567.9500000000008</v>
@@ -2226,13 +2232,13 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D27" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2262,7 +2268,7 @@
         <v>951.52</v>
       </c>
       <c r="N27" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O27">
         <v>-450.7200000000004</v>
@@ -2282,13 +2288,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D28" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2318,7 +2324,7 @@
         <v>1880.9</v>
       </c>
       <c r="N28" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O28">
         <v>-495</v>
@@ -2338,13 +2344,13 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D29" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2374,7 +2380,7 @@
         <v>854</v>
       </c>
       <c r="N29" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O29">
         <v>-523.0499999999995</v>
@@ -2394,13 +2400,13 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D30" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2430,7 +2436,7 @@
         <v>6310.38</v>
       </c>
       <c r="N30" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O30">
         <v>-332.1199999999999</v>
@@ -2450,13 +2456,13 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2477,7 +2483,7 @@
         <v>546.75</v>
       </c>
       <c r="K31" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L31">
         <v>541.83</v>
@@ -2486,7 +2492,7 @@
         <v>541.83</v>
       </c>
       <c r="N31" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O31">
         <v>-484.8399999999997</v>
@@ -2506,13 +2512,13 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2542,7 +2548,7 @@
         <v>738.96</v>
       </c>
       <c r="N32" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O32">
         <v>-466.6799999999998</v>
@@ -2562,13 +2568,13 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D33" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2598,7 +2604,7 @@
         <v>637.64</v>
       </c>
       <c r="N33" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O33">
         <v>-469.8400000000008</v>
@@ -2618,13 +2624,13 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2645,7 +2651,7 @@
         <v>1728.7</v>
       </c>
       <c r="K34" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L34">
         <v>1693.47</v>
@@ -2654,7 +2660,7 @@
         <v>1693.47</v>
       </c>
       <c r="N34" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O34">
         <v>-445.6499999999994</v>
@@ -2674,13 +2680,13 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D35" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2701,7 +2707,7 @@
         <v>414.55</v>
       </c>
       <c r="K35" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L35">
         <v>409.31</v>
@@ -2710,7 +2716,7 @@
         <v>409.31</v>
       </c>
       <c r="N35" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O35">
         <v>-495.4200000000005</v>
@@ -2730,13 +2736,13 @@
         <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D36" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2766,7 +2772,7 @@
         <v>4769.95</v>
       </c>
       <c r="N36" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O36">
         <v>-251.0500000000001</v>
@@ -2786,13 +2792,13 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D37" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2822,7 +2828,7 @@
         <v>109.86</v>
       </c>
       <c r="N37" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O37">
         <v>-497.0800000000001</v>
@@ -2842,13 +2848,13 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -2878,7 +2884,7 @@
         <v>439.27</v>
       </c>
       <c r="N38" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O38">
         <v>711.2249999999999</v>
@@ -2901,13 +2907,13 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D39" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2937,7 +2943,7 @@
         <v>260.54</v>
       </c>
       <c r="N39" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O39">
         <v>-493.5599999999993</v>
@@ -2957,13 +2963,13 @@
         <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D40" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2993,7 +2999,7 @@
         <v>1578.33</v>
       </c>
       <c r="N40" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O40">
         <v>-498.420000000001</v>
@@ -3013,13 +3019,13 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D41" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -3049,7 +3055,7 @@
         <v>2751.58</v>
       </c>
       <c r="N41" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O41">
         <v>-434.4600000000005</v>
@@ -3069,13 +3075,13 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D42" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3096,7 +3102,7 @@
         <v>1375.8</v>
       </c>
       <c r="K42" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L42">
         <v>1342.44</v>
@@ -3105,7 +3111,7 @@
         <v>1342.44</v>
       </c>
       <c r="N42" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O42">
         <v>-494.619999999999</v>
@@ -3125,13 +3131,13 @@
         <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D43" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3152,7 +3158,7 @@
         <v>4056.4</v>
       </c>
       <c r="K43" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L43">
         <v>3853.58</v>
@@ -3161,7 +3167,7 @@
         <v>3853.58</v>
       </c>
       <c r="N43" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O43">
         <v>-405.6400000000003</v>
@@ -3181,13 +3187,13 @@
         <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D44" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3205,7 +3211,7 @@
         <v>9686.25</v>
       </c>
       <c r="J44">
-        <v>366.3</v>
+        <v>372.1</v>
       </c>
       <c r="L44">
         <v>358.75</v>
@@ -3217,13 +3223,13 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>203.85</v>
+        <v>360.45</v>
       </c>
       <c r="Q44">
-        <v>203.85</v>
+        <v>360.45</v>
       </c>
       <c r="R44">
-        <v>2.1</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -3231,13 +3237,13 @@
         <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C45" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D45" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3267,7 +3273,7 @@
         <v>1574</v>
       </c>
       <c r="N45" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O45">
         <v>-578.9999999999998</v>
@@ -3287,16 +3293,16 @@
         <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D46" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
         <v>346.35</v>
@@ -3311,10 +3317,10 @@
         <v>9697.799999999999</v>
       </c>
       <c r="J46">
-        <v>372.95</v>
+        <v>375.45</v>
       </c>
       <c r="L46">
-        <v>329.03</v>
+        <v>346.35</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -3323,13 +3329,13 @@
         <v>0</v>
       </c>
       <c r="P46">
-        <v>744.8</v>
+        <v>814.8</v>
       </c>
       <c r="Q46">
-        <v>744.8</v>
+        <v>814.8</v>
       </c>
       <c r="R46">
-        <v>7.68</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -3337,13 +3343,13 @@
         <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C47" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D47" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3373,7 +3379,7 @@
         <v>2947.18</v>
       </c>
       <c r="N47" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O47">
         <v>-465.360000000001</v>
@@ -3393,13 +3399,13 @@
         <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D48" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3417,7 +3423,7 @@
         <v>7448.2</v>
       </c>
       <c r="J48">
-        <v>3866.4</v>
+        <v>3845.3</v>
       </c>
       <c r="L48">
         <v>3724.1</v>
@@ -3429,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>284.6</v>
+        <v>242.4</v>
       </c>
       <c r="Q48">
-        <v>284.6</v>
+        <v>242.4</v>
       </c>
       <c r="R48">
-        <v>3.82</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -3443,13 +3449,13 @@
         <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D49" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -3479,7 +3485,7 @@
         <v>3074.61</v>
       </c>
       <c r="N49" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O49">
         <v>585.6400000000008</v>
@@ -3502,13 +3508,13 @@
         <v>32</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D50" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3538,7 +3544,7 @@
         <v>1982.08</v>
       </c>
       <c r="N50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O50">
         <v>-417.2800000000007</v>
@@ -3558,13 +3564,13 @@
         <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C51" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D51" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3594,7 +3600,7 @@
         <v>520.6</v>
       </c>
       <c r="N51" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O51">
         <v>-493.1999999999996</v>
@@ -3614,13 +3620,13 @@
         <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C52" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D52" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E52">
         <v>3</v>
@@ -3650,7 +3656,7 @@
         <v>466.6</v>
       </c>
       <c r="N52" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O52">
         <v>1137.180000000001</v>
@@ -3673,13 +3679,13 @@
         <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D53" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3709,7 +3715,7 @@
         <v>185.38</v>
       </c>
       <c r="N53" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O53">
         <v>-118.190000000001</v>
@@ -3729,13 +3735,13 @@
         <v>34</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C54" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D54" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -3765,7 +3771,7 @@
         <v>4173.96</v>
       </c>
       <c r="N54" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O54">
         <v>596.2800000000007</v>
@@ -3788,13 +3794,13 @@
         <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C55" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D55" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -3812,7 +3818,7 @@
         <v>9973.5</v>
       </c>
       <c r="J55">
-        <v>2160.8</v>
+        <v>2191</v>
       </c>
       <c r="L55">
         <v>2094.43</v>
@@ -3824,13 +3830,13 @@
         <v>398.9400000000001</v>
       </c>
       <c r="P55">
-        <v>498.3</v>
+        <v>588.9</v>
       </c>
       <c r="Q55">
-        <v>897.24</v>
+        <v>987.84</v>
       </c>
       <c r="R55">
-        <v>9</v>
+        <v>9.9</v>
       </c>
       <c r="S55" t="s">
         <v>38</v>
@@ -3841,13 +3847,13 @@
         <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D56" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3877,7 +3883,7 @@
         <v>814.2</v>
       </c>
       <c r="N56" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O56">
         <v>-490.599999999999</v>
@@ -3897,13 +3903,13 @@
         <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C57" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D57" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3921,7 +3927,7 @@
         <v>9578.25</v>
       </c>
       <c r="J57">
-        <v>629.3</v>
+        <v>626.3</v>
       </c>
       <c r="L57">
         <v>606.62</v>
@@ -3933,13 +3939,13 @@
         <v>0</v>
       </c>
       <c r="P57">
-        <v>-138.75</v>
+        <v>-183.75</v>
       </c>
       <c r="Q57">
-        <v>-138.75</v>
+        <v>-183.75</v>
       </c>
       <c r="R57">
-        <v>-1.45</v>
+        <v>-1.92</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -3947,13 +3953,13 @@
         <v>36</v>
       </c>
       <c r="B58" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C58" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D58" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3983,7 +3989,7 @@
         <v>922.92</v>
       </c>
       <c r="N58" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O58">
         <v>-485.8000000000004</v>
@@ -4003,13 +4009,13 @@
         <v>37</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C59" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D59" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -4039,7 +4045,7 @@
         <v>172.84</v>
       </c>
       <c r="N59" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O59">
         <v>740.73</v>
@@ -4062,13 +4068,13 @@
         <v>37</v>
       </c>
       <c r="B60" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C60" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D60" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -4086,7 +4092,7 @@
         <v>9944.179999999998</v>
       </c>
       <c r="J60">
-        <v>168.47</v>
+        <v>167.13</v>
       </c>
       <c r="L60">
         <v>152.37</v>
@@ -4098,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="P60">
-        <v>500.96</v>
+        <v>417.88</v>
       </c>
       <c r="Q60">
-        <v>500.96</v>
+        <v>417.88</v>
       </c>
       <c r="R60">
-        <v>5.04</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -4112,16 +4118,16 @@
         <v>37</v>
       </c>
       <c r="B61" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C61" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D61" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61">
         <v>451.5</v>
@@ -4130,31 +4136,34 @@
         <v>22</v>
       </c>
       <c r="H61">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I61">
         <v>9933</v>
       </c>
       <c r="J61">
-        <v>493.95</v>
+        <v>486.4</v>
       </c>
       <c r="L61">
-        <v>451.5</v>
+        <v>474.08</v>
       </c>
       <c r="M61">
         <v>0</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>496.6500000000004</v>
       </c>
       <c r="P61">
-        <v>933.9</v>
+        <v>383.9</v>
       </c>
       <c r="Q61">
-        <v>933.9</v>
+        <v>880.55</v>
       </c>
       <c r="R61">
-        <v>9.4</v>
+        <v>8.859999999999999</v>
+      </c>
+      <c r="S61" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -4162,13 +4171,13 @@
         <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C62" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D62" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E62">
         <v>3</v>
@@ -4198,7 +4207,7 @@
         <v>967.15</v>
       </c>
       <c r="N62" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O62">
         <v>1167.96</v>
@@ -4213,7 +4222,7 @@
         <v>12.58</v>
       </c>
       <c r="S62" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -4221,13 +4230,13 @@
         <v>38</v>
       </c>
       <c r="B63" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D63" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -4257,7 +4266,7 @@
         <v>116.49</v>
       </c>
       <c r="N63" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O63">
         <v>-496.5300000000008</v>
@@ -4277,13 +4286,13 @@
         <v>38</v>
       </c>
       <c r="B64" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C64" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D64" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -4313,7 +4322,7 @@
         <v>412.3</v>
       </c>
       <c r="N64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O64">
         <v>-497.1999999999993</v>
@@ -4333,13 +4342,13 @@
         <v>38</v>
       </c>
       <c r="B65" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C65" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D65" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -4357,7 +4366,7 @@
         <v>9407.4</v>
       </c>
       <c r="J65">
-        <v>1511.5</v>
+        <v>1555.8</v>
       </c>
       <c r="L65">
         <v>1489.51</v>
@@ -4369,13 +4378,13 @@
         <v>0</v>
       </c>
       <c r="P65">
-        <v>-338.4</v>
+        <v>-72.59999999999999</v>
       </c>
       <c r="Q65">
-        <v>-338.4</v>
+        <v>-72.59999999999999</v>
       </c>
       <c r="R65">
-        <v>-3.6</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4383,13 +4392,13 @@
         <v>38</v>
       </c>
       <c r="B66" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C66" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D66" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -4407,7 +4416,7 @@
         <v>9877.15</v>
       </c>
       <c r="J66">
-        <v>278.65</v>
+        <v>275.65</v>
       </c>
       <c r="L66">
         <v>253.6</v>
@@ -4419,13 +4428,13 @@
         <v>0</v>
       </c>
       <c r="P66">
-        <v>432.9</v>
+        <v>321.9</v>
       </c>
       <c r="Q66">
-        <v>432.9</v>
+        <v>321.9</v>
       </c>
       <c r="R66">
-        <v>4.38</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4433,13 +4442,13 @@
         <v>38</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D67" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -4469,7 +4478,7 @@
         <v>5558.93</v>
       </c>
       <c r="N67" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O67">
         <v>-292.5699999999997</v>
@@ -4489,13 +4498,13 @@
         <v>38</v>
       </c>
       <c r="B68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C68" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D68" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -4525,7 +4534,7 @@
         <v>456.1</v>
       </c>
       <c r="N68" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O68">
         <v>-480</v>
@@ -4545,13 +4554,13 @@
         <v>38</v>
       </c>
       <c r="B69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C69" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D69" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -4569,7 +4578,7 @@
         <v>8697.5</v>
       </c>
       <c r="J69">
-        <v>1669.6</v>
+        <v>1689.8</v>
       </c>
       <c r="L69">
         <v>1652.52</v>
@@ -4581,13 +4590,13 @@
         <v>0</v>
       </c>
       <c r="P69">
-        <v>-349.5</v>
+        <v>-248.5</v>
       </c>
       <c r="Q69">
-        <v>-349.5</v>
+        <v>-248.5</v>
       </c>
       <c r="R69">
-        <v>-4.02</v>
+        <v>-2.86</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -4595,13 +4604,13 @@
         <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C70" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D70" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -4631,7 +4640,7 @@
         <v>4850</v>
       </c>
       <c r="N70" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O70">
         <v>-348.5</v>
@@ -4651,13 +4660,13 @@
         <v>39</v>
       </c>
       <c r="B71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C71" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D71" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -4675,7 +4684,7 @@
         <v>9785.75</v>
       </c>
       <c r="J71">
-        <v>788.2</v>
+        <v>801.45</v>
       </c>
       <c r="L71">
         <v>715.11</v>
@@ -4687,13 +4696,13 @@
         <v>0</v>
       </c>
       <c r="P71">
-        <v>460.85</v>
+        <v>633.1</v>
       </c>
       <c r="Q71">
-        <v>460.85</v>
+        <v>633.1</v>
       </c>
       <c r="R71">
-        <v>4.71</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -4701,13 +4710,13 @@
         <v>40</v>
       </c>
       <c r="B72" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C72" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D72" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -4725,7 +4734,7 @@
         <v>9952.799999999999</v>
       </c>
       <c r="J72">
-        <v>129.42</v>
+        <v>130.82</v>
       </c>
       <c r="L72">
         <v>124.41</v>
@@ -4737,13 +4746,13 @@
         <v>0</v>
       </c>
       <c r="P72">
-        <v>400.8</v>
+        <v>512.8</v>
       </c>
       <c r="Q72">
-        <v>400.8</v>
+        <v>512.8</v>
       </c>
       <c r="R72">
-        <v>4.03</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -4751,13 +4760,13 @@
         <v>40</v>
       </c>
       <c r="B73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C73" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D73" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -4787,7 +4796,7 @@
         <v>1540.62</v>
       </c>
       <c r="N73" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O73">
         <v>-486.4800000000009</v>
@@ -4807,13 +4816,13 @@
         <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C74" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D74" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -4843,7 +4852,7 @@
         <v>261.9</v>
       </c>
       <c r="N74" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O74">
         <v>-511.2000000000016</v>
@@ -4863,13 +4872,13 @@
         <v>41</v>
       </c>
       <c r="B75" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C75" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D75" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -4899,7 +4908,7 @@
         <v>141.6</v>
       </c>
       <c r="N75" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O75">
         <v>-499.1500000000011</v>
@@ -4919,13 +4928,13 @@
         <v>41</v>
       </c>
       <c r="B76" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C76" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D76" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -4955,7 +4964,7 @@
         <v>1134.58</v>
       </c>
       <c r="N76" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O76">
         <v>-477.7600000000002</v>
@@ -4975,13 +4984,13 @@
         <v>41</v>
       </c>
       <c r="B77" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C77" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D77" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -5011,7 +5020,7 @@
         <v>2835.37</v>
       </c>
       <c r="N77" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O77">
         <v>-447.6900000000001</v>
@@ -5031,13 +5040,13 @@
         <v>42</v>
       </c>
       <c r="B78" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C78" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D78" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -5055,7 +5064,7 @@
         <v>6019</v>
       </c>
       <c r="J78">
-        <v>6098.5</v>
+        <v>6122.5</v>
       </c>
       <c r="L78">
         <v>5718.05</v>
@@ -5067,13 +5076,13 @@
         <v>0</v>
       </c>
       <c r="P78">
-        <v>79.5</v>
+        <v>103.5</v>
       </c>
       <c r="Q78">
-        <v>79.5</v>
+        <v>103.5</v>
       </c>
       <c r="R78">
-        <v>1.32</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5081,13 +5090,13 @@
         <v>43</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D79" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -5105,7 +5114,7 @@
         <v>9647.1</v>
       </c>
       <c r="J79">
-        <v>519.2</v>
+        <v>525.6</v>
       </c>
       <c r="L79">
         <v>509.15</v>
@@ -5117,13 +5126,13 @@
         <v>0</v>
       </c>
       <c r="P79">
-        <v>-301.5</v>
+        <v>-186.3</v>
       </c>
       <c r="Q79">
-        <v>-301.5</v>
+        <v>-186.3</v>
       </c>
       <c r="R79">
-        <v>-3.13</v>
+        <v>-1.93</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5131,13 +5140,13 @@
         <v>44</v>
       </c>
       <c r="B80" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C80" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D80" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -5155,7 +5164,7 @@
         <v>9713.200000000001</v>
       </c>
       <c r="J80">
-        <v>354.2</v>
+        <v>352.2</v>
       </c>
       <c r="L80">
         <v>329.55</v>
@@ -5167,13 +5176,13 @@
         <v>0</v>
       </c>
       <c r="P80">
-        <v>204.4</v>
+        <v>148.4</v>
       </c>
       <c r="Q80">
-        <v>204.4</v>
+        <v>148.4</v>
       </c>
       <c r="R80">
-        <v>2.1</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5181,13 +5190,13 @@
         <v>44</v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D81" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -5205,7 +5214,7 @@
         <v>9902.200000000001</v>
       </c>
       <c r="J81">
-        <v>1394.5</v>
+        <v>1399.4</v>
       </c>
       <c r="L81">
         <v>1343.87</v>
@@ -5217,13 +5226,13 @@
         <v>0</v>
       </c>
       <c r="P81">
-        <v>-140.7</v>
+        <v>-106.4</v>
       </c>
       <c r="Q81">
-        <v>-140.7</v>
+        <v>-106.4</v>
       </c>
       <c r="R81">
-        <v>-1.42</v>
+        <v>-1.07</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5231,13 +5240,13 @@
         <v>44</v>
       </c>
       <c r="B82" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C82" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D82" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -5255,7 +5264,7 @@
         <v>9773.299999999999</v>
       </c>
       <c r="J82">
-        <v>309.05</v>
+        <v>313.35</v>
       </c>
       <c r="L82">
         <v>287.45</v>
@@ -5267,13 +5276,13 @@
         <v>0</v>
       </c>
       <c r="P82">
-        <v>734.4</v>
+        <v>880.6</v>
       </c>
       <c r="Q82">
-        <v>734.4</v>
+        <v>880.6</v>
       </c>
       <c r="R82">
-        <v>7.51</v>
+        <v>9.01</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5281,13 +5290,13 @@
         <v>44</v>
       </c>
       <c r="B83" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C83" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D83" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -5305,7 +5314,7 @@
         <v>9485.6</v>
       </c>
       <c r="J83">
-        <v>589.35</v>
+        <v>590.85</v>
       </c>
       <c r="L83">
         <v>563.21</v>
@@ -5317,13 +5326,13 @@
         <v>0</v>
       </c>
       <c r="P83">
-        <v>-56</v>
+        <v>-32</v>
       </c>
       <c r="Q83">
-        <v>-56</v>
+        <v>-32</v>
       </c>
       <c r="R83">
-        <v>-0.59</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5331,13 +5340,13 @@
         <v>45</v>
       </c>
       <c r="B84" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C84" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D84" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -5355,7 +5364,7 @@
         <v>9114.75</v>
       </c>
       <c r="J84">
-        <v>1030.2</v>
+        <v>1031</v>
       </c>
       <c r="L84">
         <v>962.11</v>
@@ -5367,13 +5376,13 @@
         <v>0</v>
       </c>
       <c r="P84">
-        <v>157.05</v>
+        <v>164.25</v>
       </c>
       <c r="Q84">
-        <v>157.05</v>
+        <v>164.25</v>
       </c>
       <c r="R84">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5381,13 +5390,13 @@
         <v>45</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D85" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -5405,7 +5414,7 @@
         <v>9588.799999999999</v>
       </c>
       <c r="J85">
-        <v>2428.1</v>
+        <v>2429.7</v>
       </c>
       <c r="L85">
         <v>2277.34</v>
@@ -5417,13 +5426,13 @@
         <v>0</v>
       </c>
       <c r="P85">
-        <v>123.6</v>
+        <v>130</v>
       </c>
       <c r="Q85">
-        <v>123.6</v>
+        <v>130</v>
       </c>
       <c r="R85">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5431,13 +5440,13 @@
         <v>46</v>
       </c>
       <c r="B86" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C86" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -5455,7 +5464,7 @@
         <v>9589.85</v>
       </c>
       <c r="J86">
-        <v>410.1</v>
+        <v>411.8</v>
       </c>
       <c r="L86">
         <v>396.1</v>
@@ -5467,13 +5476,13 @@
         <v>0</v>
       </c>
       <c r="P86">
-        <v>-157.55</v>
+        <v>-118.45</v>
       </c>
       <c r="Q86">
-        <v>-157.55</v>
+        <v>-118.45</v>
       </c>
       <c r="R86">
-        <v>-1.64</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5481,13 +5490,13 @@
         <v>46</v>
       </c>
       <c r="B87" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C87" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D87" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -5505,7 +5514,7 @@
         <v>8993.6</v>
       </c>
       <c r="J87">
-        <v>1280.4</v>
+        <v>1307.4</v>
       </c>
       <c r="L87">
         <v>1220.56</v>
@@ -5517,13 +5526,13 @@
         <v>0</v>
       </c>
       <c r="P87">
-        <v>-30.8</v>
+        <v>158.2</v>
       </c>
       <c r="Q87">
-        <v>-30.8</v>
+        <v>158.2</v>
       </c>
       <c r="R87">
-        <v>-0.34</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -5531,13 +5540,13 @@
         <v>46</v>
       </c>
       <c r="B88" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C88" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D88" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -5555,7 +5564,7 @@
         <v>9838</v>
       </c>
       <c r="J88">
-        <v>4859</v>
+        <v>4714</v>
       </c>
       <c r="L88">
         <v>4673.05</v>
@@ -5567,13 +5576,13 @@
         <v>0</v>
       </c>
       <c r="P88">
-        <v>-120</v>
+        <v>-410</v>
       </c>
       <c r="Q88">
-        <v>-120</v>
+        <v>-410</v>
       </c>
       <c r="R88">
-        <v>-1.22</v>
+        <v>-4.17</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -5581,13 +5590,13 @@
         <v>46</v>
       </c>
       <c r="B89" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C89" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D89" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -5605,7 +5614,7 @@
         <v>9791.1</v>
       </c>
       <c r="J89">
-        <v>935.7</v>
+        <v>916.2</v>
       </c>
       <c r="L89">
         <v>845.6</v>
@@ -5617,13 +5626,13 @@
         <v>0</v>
       </c>
       <c r="P89">
-        <v>501.6</v>
+        <v>287.1</v>
       </c>
       <c r="Q89">
-        <v>501.6</v>
+        <v>287.1</v>
       </c>
       <c r="R89">
-        <v>5.12</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -5631,13 +5640,13 @@
         <v>47</v>
       </c>
       <c r="B90" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C90" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D90" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -5655,7 +5664,7 @@
         <v>9117.200000000001</v>
       </c>
       <c r="J90">
-        <v>2314.5</v>
+        <v>2345.4</v>
       </c>
       <c r="L90">
         <v>2165.34</v>
@@ -5667,13 +5676,13 @@
         <v>0</v>
       </c>
       <c r="P90">
-        <v>140.8</v>
+        <v>264.4</v>
       </c>
       <c r="Q90">
-        <v>140.8</v>
+        <v>264.4</v>
       </c>
       <c r="R90">
-        <v>1.54</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -5681,13 +5690,13 @@
         <v>47</v>
       </c>
       <c r="B91" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C91" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D91" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -5705,7 +5714,7 @@
         <v>9723.450000000001</v>
       </c>
       <c r="J91">
-        <v>298.95</v>
+        <v>303.35</v>
       </c>
       <c r="L91">
         <v>279.92</v>
@@ -5717,13 +5726,13 @@
         <v>0</v>
       </c>
       <c r="P91">
-        <v>141.9</v>
+        <v>287.1</v>
       </c>
       <c r="Q91">
-        <v>141.9</v>
+        <v>287.1</v>
       </c>
       <c r="R91">
-        <v>1.46</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -5731,13 +5740,13 @@
         <v>47</v>
       </c>
       <c r="B92" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C92" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D92" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -5749,7 +5758,7 @@
         <v>13</v>
       </c>
       <c r="H92">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>9945.65</v>
@@ -5757,23 +5766,29 @@
       <c r="J92">
         <v>752.35</v>
       </c>
+      <c r="K92" t="s">
+        <v>48</v>
+      </c>
       <c r="L92">
         <v>726.8</v>
       </c>
       <c r="M92">
-        <v>0</v>
+        <v>714.75</v>
+      </c>
+      <c r="N92" t="s">
+        <v>128</v>
       </c>
       <c r="O92">
-        <v>0</v>
+        <v>-653.8999999999994</v>
       </c>
       <c r="P92">
-        <v>-165.1</v>
+        <v>0</v>
       </c>
       <c r="Q92">
-        <v>-165.1</v>
+        <v>-653.8999999999994</v>
       </c>
       <c r="R92">
-        <v>-1.66</v>
+        <v>-6.57</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -5781,13 +5796,13 @@
         <v>47</v>
       </c>
       <c r="B93" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C93" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D93" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -5805,7 +5820,7 @@
         <v>9961.9</v>
       </c>
       <c r="J93">
-        <v>129.59</v>
+        <v>130.27</v>
       </c>
       <c r="L93">
         <v>119.79</v>
@@ -5817,13 +5832,13 @@
         <v>0</v>
       </c>
       <c r="P93">
-        <v>275.71</v>
+        <v>329.43</v>
       </c>
       <c r="Q93">
-        <v>275.71</v>
+        <v>329.43</v>
       </c>
       <c r="R93">
-        <v>2.77</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -5831,13 +5846,13 @@
         <v>47</v>
       </c>
       <c r="B94" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C94" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D94" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -5855,7 +5870,7 @@
         <v>9935.1</v>
       </c>
       <c r="J94">
-        <v>173.79</v>
+        <v>176.46</v>
       </c>
       <c r="L94">
         <v>165.59</v>
@@ -5867,13 +5882,113 @@
         <v>0</v>
       </c>
       <c r="P94">
-        <v>-29.07</v>
+        <v>123.12</v>
       </c>
       <c r="Q94">
-        <v>-29.07</v>
+        <v>123.12</v>
       </c>
       <c r="R94">
-        <v>-0.29</v>
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
+      <c r="A95" t="s">
+        <v>48</v>
+      </c>
+      <c r="B95" t="s">
+        <v>61</v>
+      </c>
+      <c r="C95" t="s">
+        <v>119</v>
+      </c>
+      <c r="D95" t="s">
+        <v>121</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>664.15</v>
+      </c>
+      <c r="G95">
+        <v>15</v>
+      </c>
+      <c r="H95">
+        <v>15</v>
+      </c>
+      <c r="I95">
+        <v>9962.25</v>
+      </c>
+      <c r="J95">
+        <v>664.15</v>
+      </c>
+      <c r="L95">
+        <v>630.9400000000001</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
+      <c r="A96" t="s">
+        <v>48</v>
+      </c>
+      <c r="B96" t="s">
+        <v>116</v>
+      </c>
+      <c r="C96" t="s">
+        <v>119</v>
+      </c>
+      <c r="D96" t="s">
+        <v>121</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>430.7</v>
+      </c>
+      <c r="G96">
+        <v>23</v>
+      </c>
+      <c r="H96">
+        <v>23</v>
+      </c>
+      <c r="I96">
+        <v>9906.1</v>
+      </c>
+      <c r="J96">
+        <v>430.7</v>
+      </c>
+      <c r="L96">
+        <v>409.16</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="131">
   <si>
     <t>Buy Date</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>2026-02-23</t>
+  </si>
+  <si>
+    <t>2026-02-24</t>
   </si>
   <si>
     <t>ADANIENT</t>
@@ -767,7 +770,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S96"/>
+  <dimension ref="A1:S99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -847,13 +850,13 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -883,7 +886,7 @@
         <v>2093.04</v>
       </c>
       <c r="N2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O2">
         <v>-440.6399999999994</v>
@@ -903,13 +906,13 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -927,7 +930,7 @@
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1386.7</v>
+        <v>1387.6</v>
       </c>
       <c r="L3">
         <v>1293.6</v>
@@ -939,13 +942,13 @@
         <v>492.8000000000002</v>
       </c>
       <c r="P3">
-        <v>618.8</v>
+        <v>622.4</v>
       </c>
       <c r="Q3">
-        <v>1111.6</v>
+        <v>1115.2</v>
       </c>
       <c r="R3">
-        <v>11.28</v>
+        <v>11.31</v>
       </c>
       <c r="S3" t="s">
         <v>34</v>
@@ -956,13 +959,13 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -992,7 +995,7 @@
         <v>5739.43</v>
       </c>
       <c r="N4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O4">
         <v>-302.0699999999997</v>
@@ -1012,13 +1015,13 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1036,7 +1039,7 @@
         <v>8527.200000000001</v>
       </c>
       <c r="J5">
-        <v>2873.4</v>
+        <v>2879.3</v>
       </c>
       <c r="L5">
         <v>2700.28</v>
@@ -1048,13 +1051,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>93</v>
+        <v>110.7</v>
       </c>
       <c r="Q5">
-        <v>93</v>
+        <v>110.7</v>
       </c>
       <c r="R5">
-        <v>1.09</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1062,13 +1065,13 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1098,7 +1101,7 @@
         <v>2293.3</v>
       </c>
       <c r="N6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1118,13 +1121,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1142,7 +1145,7 @@
         <v>8960</v>
       </c>
       <c r="J7">
-        <v>1315.1</v>
+        <v>1320</v>
       </c>
       <c r="L7">
         <v>1216</v>
@@ -1154,13 +1157,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>245.7</v>
+        <v>280</v>
       </c>
       <c r="Q7">
-        <v>245.7</v>
+        <v>280</v>
       </c>
       <c r="R7">
-        <v>2.74</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1168,13 +1171,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1204,7 +1207,7 @@
         <v>3066.4</v>
       </c>
       <c r="N8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O8">
         <v>-522.8999999999992</v>
@@ -1224,13 +1227,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1260,7 +1263,7 @@
         <v>2901.59</v>
       </c>
       <c r="N9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O9">
         <v>-458.1300000000001</v>
@@ -1280,13 +1283,13 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1316,7 +1319,7 @@
         <v>2922.11</v>
       </c>
       <c r="N10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O10">
         <v>-461.3699999999999</v>
@@ -1336,13 +1339,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1363,7 +1366,7 @@
         <v>183.56</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L11">
         <v>180.92</v>
@@ -1372,7 +1375,7 @@
         <v>180.92</v>
       </c>
       <c r="N11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O11">
         <v>749.6499999999999</v>
@@ -1387,7 +1390,7 @@
         <v>7.5</v>
       </c>
       <c r="S11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1395,13 +1398,13 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1431,7 +1434,7 @@
         <v>1651</v>
       </c>
       <c r="N12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O12">
         <v>599.5200000000004</v>
@@ -1454,13 +1457,13 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1490,7 +1493,7 @@
         <v>732.4</v>
       </c>
       <c r="N13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O13">
         <v>-462.6000000000008</v>
@@ -1510,13 +1513,13 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1546,7 +1549,7 @@
         <v>651.2</v>
       </c>
       <c r="N14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1566,13 +1569,13 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1602,7 +1605,7 @@
         <v>1135.44</v>
       </c>
       <c r="N15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O15">
         <v>-478.0799999999999</v>
@@ -1622,13 +1625,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1658,7 +1661,7 @@
         <v>5731.82</v>
       </c>
       <c r="N16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O16">
         <v>-301.6800000000003</v>
@@ -1678,13 +1681,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1702,7 +1705,7 @@
         <v>9282</v>
       </c>
       <c r="J17">
-        <v>9905.5</v>
+        <v>9829</v>
       </c>
       <c r="L17">
         <v>9282</v>
@@ -1714,13 +1717,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>623.5</v>
+        <v>547</v>
       </c>
       <c r="Q17">
-        <v>623.5</v>
+        <v>547</v>
       </c>
       <c r="R17">
-        <v>6.72</v>
+        <v>5.89</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1728,13 +1731,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1764,7 +1767,7 @@
         <v>282.8</v>
       </c>
       <c r="N18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1784,13 +1787,13 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1820,7 +1823,7 @@
         <v>1342.35</v>
       </c>
       <c r="N19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O19">
         <v>-494.5500000000006</v>
@@ -1840,13 +1843,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1876,7 +1879,7 @@
         <v>5425.45</v>
       </c>
       <c r="N20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O20">
         <v>-285.5500000000002</v>
@@ -1896,13 +1899,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1923,7 +1926,7 @@
         <v>132.36</v>
       </c>
       <c r="K21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L21">
         <v>128.5</v>
@@ -1932,7 +1935,7 @@
         <v>128.499</v>
       </c>
       <c r="N21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O21">
         <v>495.639</v>
@@ -1952,13 +1955,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1979,7 +1982,7 @@
         <v>4021.8</v>
       </c>
       <c r="K22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L22">
         <v>3974.1</v>
@@ -1988,7 +1991,7 @@
         <v>3974.1</v>
       </c>
       <c r="N22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -2008,13 +2011,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2044,7 +2047,7 @@
         <v>972.9400000000001</v>
       </c>
       <c r="N23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O23">
         <v>-460.8900000000003</v>
@@ -2064,13 +2067,13 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2100,7 +2103,7 @@
         <v>158.14</v>
       </c>
       <c r="N24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O24">
         <v>-499.2000000000013</v>
@@ -2120,13 +2123,13 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2156,7 +2159,7 @@
         <v>1001.11</v>
       </c>
       <c r="N25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O25">
         <v>-474.2099999999995</v>
@@ -2176,13 +2179,13 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2203,7 +2206,7 @@
         <v>267.45</v>
       </c>
       <c r="K26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L26">
         <v>253.98</v>
@@ -2212,7 +2215,7 @@
         <v>252</v>
       </c>
       <c r="N26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O26">
         <v>-567.9500000000008</v>
@@ -2232,13 +2235,13 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2268,7 +2271,7 @@
         <v>951.52</v>
       </c>
       <c r="N27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O27">
         <v>-450.7200000000004</v>
@@ -2288,13 +2291,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2324,7 +2327,7 @@
         <v>1880.9</v>
       </c>
       <c r="N28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O28">
         <v>-495</v>
@@ -2344,13 +2347,13 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2380,7 +2383,7 @@
         <v>854</v>
       </c>
       <c r="N29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O29">
         <v>-523.0499999999995</v>
@@ -2400,13 +2403,13 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2436,7 +2439,7 @@
         <v>6310.38</v>
       </c>
       <c r="N30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O30">
         <v>-332.1199999999999</v>
@@ -2456,13 +2459,13 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2483,7 +2486,7 @@
         <v>546.75</v>
       </c>
       <c r="K31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L31">
         <v>541.83</v>
@@ -2492,7 +2495,7 @@
         <v>541.83</v>
       </c>
       <c r="N31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O31">
         <v>-484.8399999999997</v>
@@ -2512,13 +2515,13 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2548,7 +2551,7 @@
         <v>738.96</v>
       </c>
       <c r="N32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O32">
         <v>-466.6799999999998</v>
@@ -2568,13 +2571,13 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2604,7 +2607,7 @@
         <v>637.64</v>
       </c>
       <c r="N33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O33">
         <v>-469.8400000000008</v>
@@ -2624,13 +2627,13 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2651,7 +2654,7 @@
         <v>1728.7</v>
       </c>
       <c r="K34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L34">
         <v>1693.47</v>
@@ -2660,7 +2663,7 @@
         <v>1693.47</v>
       </c>
       <c r="N34" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O34">
         <v>-445.6499999999994</v>
@@ -2680,13 +2683,13 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2707,7 +2710,7 @@
         <v>414.55</v>
       </c>
       <c r="K35" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L35">
         <v>409.31</v>
@@ -2716,7 +2719,7 @@
         <v>409.31</v>
       </c>
       <c r="N35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O35">
         <v>-495.4200000000005</v>
@@ -2736,13 +2739,13 @@
         <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2772,7 +2775,7 @@
         <v>4769.95</v>
       </c>
       <c r="N36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O36">
         <v>-251.0500000000001</v>
@@ -2792,13 +2795,13 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C37" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D37" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2828,7 +2831,7 @@
         <v>109.86</v>
       </c>
       <c r="N37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O37">
         <v>-497.0800000000001</v>
@@ -2848,13 +2851,13 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -2884,7 +2887,7 @@
         <v>439.27</v>
       </c>
       <c r="N38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O38">
         <v>711.2249999999999</v>
@@ -2907,13 +2910,13 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2943,7 +2946,7 @@
         <v>260.54</v>
       </c>
       <c r="N39" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O39">
         <v>-493.5599999999993</v>
@@ -2963,13 +2966,13 @@
         <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2999,7 +3002,7 @@
         <v>1578.33</v>
       </c>
       <c r="N40" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O40">
         <v>-498.420000000001</v>
@@ -3019,13 +3022,13 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -3055,7 +3058,7 @@
         <v>2751.58</v>
       </c>
       <c r="N41" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41">
         <v>-434.4600000000005</v>
@@ -3075,13 +3078,13 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C42" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D42" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3102,7 +3105,7 @@
         <v>1375.8</v>
       </c>
       <c r="K42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L42">
         <v>1342.44</v>
@@ -3111,7 +3114,7 @@
         <v>1342.44</v>
       </c>
       <c r="N42" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O42">
         <v>-494.619999999999</v>
@@ -3131,13 +3134,13 @@
         <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D43" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3158,7 +3161,7 @@
         <v>4056.4</v>
       </c>
       <c r="K43" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L43">
         <v>3853.58</v>
@@ -3167,7 +3170,7 @@
         <v>3853.58</v>
       </c>
       <c r="N43" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O43">
         <v>-405.6400000000003</v>
@@ -3187,13 +3190,13 @@
         <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D44" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3211,7 +3214,7 @@
         <v>9686.25</v>
       </c>
       <c r="J44">
-        <v>372.1</v>
+        <v>374.45</v>
       </c>
       <c r="L44">
         <v>358.75</v>
@@ -3223,13 +3226,13 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>360.45</v>
+        <v>423.9</v>
       </c>
       <c r="Q44">
-        <v>360.45</v>
+        <v>423.9</v>
       </c>
       <c r="R44">
-        <v>3.72</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -3237,13 +3240,13 @@
         <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D45" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3273,7 +3276,7 @@
         <v>1574</v>
       </c>
       <c r="N45" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O45">
         <v>-578.9999999999998</v>
@@ -3293,16 +3296,16 @@
         <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C46" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D46" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46">
         <v>346.35</v>
@@ -3311,31 +3314,34 @@
         <v>28</v>
       </c>
       <c r="H46">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I46">
         <v>9697.799999999999</v>
       </c>
       <c r="J46">
-        <v>375.45</v>
+        <v>382.75</v>
       </c>
       <c r="L46">
-        <v>346.35</v>
+        <v>363.67</v>
       </c>
       <c r="M46">
         <v>0</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>484.8900000000007</v>
       </c>
       <c r="P46">
-        <v>814.8</v>
+        <v>509.6</v>
       </c>
       <c r="Q46">
-        <v>814.8</v>
+        <v>994.49</v>
       </c>
       <c r="R46">
-        <v>8.4</v>
+        <v>10.25</v>
+      </c>
+      <c r="S46" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -3343,13 +3349,13 @@
         <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C47" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D47" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3379,7 +3385,7 @@
         <v>2947.18</v>
       </c>
       <c r="N47" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O47">
         <v>-465.360000000001</v>
@@ -3399,13 +3405,13 @@
         <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C48" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3423,7 +3429,7 @@
         <v>7448.2</v>
       </c>
       <c r="J48">
-        <v>3845.3</v>
+        <v>3849.3</v>
       </c>
       <c r="L48">
         <v>3724.1</v>
@@ -3435,13 +3441,13 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>242.4</v>
+        <v>250.4</v>
       </c>
       <c r="Q48">
-        <v>242.4</v>
+        <v>250.4</v>
       </c>
       <c r="R48">
-        <v>3.25</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -3449,13 +3455,13 @@
         <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D49" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -3485,7 +3491,7 @@
         <v>3074.61</v>
       </c>
       <c r="N49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O49">
         <v>585.6400000000008</v>
@@ -3508,13 +3514,13 @@
         <v>32</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D50" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3544,7 +3550,7 @@
         <v>1982.08</v>
       </c>
       <c r="N50" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O50">
         <v>-417.2800000000007</v>
@@ -3564,13 +3570,13 @@
         <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C51" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D51" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3600,7 +3606,7 @@
         <v>520.6</v>
       </c>
       <c r="N51" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O51">
         <v>-493.1999999999996</v>
@@ -3620,13 +3626,13 @@
         <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C52" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D52" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E52">
         <v>3</v>
@@ -3656,7 +3662,7 @@
         <v>466.6</v>
       </c>
       <c r="N52" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O52">
         <v>1137.180000000001</v>
@@ -3679,13 +3685,13 @@
         <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D53" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3715,7 +3721,7 @@
         <v>185.38</v>
       </c>
       <c r="N53" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O53">
         <v>-118.190000000001</v>
@@ -3735,13 +3741,13 @@
         <v>34</v>
       </c>
       <c r="B54" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C54" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D54" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -3771,7 +3777,7 @@
         <v>4173.96</v>
       </c>
       <c r="N54" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O54">
         <v>596.2800000000007</v>
@@ -3794,13 +3800,13 @@
         <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C55" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D55" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -3818,7 +3824,7 @@
         <v>9973.5</v>
       </c>
       <c r="J55">
-        <v>2191</v>
+        <v>2183</v>
       </c>
       <c r="L55">
         <v>2094.43</v>
@@ -3830,13 +3836,13 @@
         <v>398.9400000000001</v>
       </c>
       <c r="P55">
-        <v>588.9</v>
+        <v>564.9</v>
       </c>
       <c r="Q55">
-        <v>987.84</v>
+        <v>963.84</v>
       </c>
       <c r="R55">
-        <v>9.9</v>
+        <v>9.66</v>
       </c>
       <c r="S55" t="s">
         <v>38</v>
@@ -3847,13 +3853,13 @@
         <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D56" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3883,7 +3889,7 @@
         <v>814.2</v>
       </c>
       <c r="N56" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O56">
         <v>-490.599999999999</v>
@@ -3903,13 +3909,13 @@
         <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C57" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D57" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3927,7 +3933,7 @@
         <v>9578.25</v>
       </c>
       <c r="J57">
-        <v>626.3</v>
+        <v>611.65</v>
       </c>
       <c r="L57">
         <v>606.62</v>
@@ -3939,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="P57">
-        <v>-183.75</v>
+        <v>-403.5</v>
       </c>
       <c r="Q57">
-        <v>-183.75</v>
+        <v>-403.5</v>
       </c>
       <c r="R57">
-        <v>-1.92</v>
+        <v>-4.21</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -3953,13 +3959,13 @@
         <v>36</v>
       </c>
       <c r="B58" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C58" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D58" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3989,7 +3995,7 @@
         <v>922.92</v>
       </c>
       <c r="N58" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O58">
         <v>-485.8000000000004</v>
@@ -4009,13 +4015,13 @@
         <v>37</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D59" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -4045,7 +4051,7 @@
         <v>172.84</v>
       </c>
       <c r="N59" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O59">
         <v>740.73</v>
@@ -4068,13 +4074,13 @@
         <v>37</v>
       </c>
       <c r="B60" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C60" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D60" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -4092,7 +4098,7 @@
         <v>9944.179999999998</v>
       </c>
       <c r="J60">
-        <v>167.13</v>
+        <v>167.86</v>
       </c>
       <c r="L60">
         <v>152.37</v>
@@ -4104,13 +4110,13 @@
         <v>0</v>
       </c>
       <c r="P60">
-        <v>417.88</v>
+        <v>463.14</v>
       </c>
       <c r="Q60">
-        <v>417.88</v>
+        <v>463.14</v>
       </c>
       <c r="R60">
-        <v>4.2</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -4118,13 +4124,13 @@
         <v>37</v>
       </c>
       <c r="B61" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C61" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D61" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E61">
         <v>2</v>
@@ -4142,7 +4148,7 @@
         <v>9933</v>
       </c>
       <c r="J61">
-        <v>486.4</v>
+        <v>490.25</v>
       </c>
       <c r="L61">
         <v>474.08</v>
@@ -4154,13 +4160,13 @@
         <v>496.6500000000004</v>
       </c>
       <c r="P61">
-        <v>383.9</v>
+        <v>426.25</v>
       </c>
       <c r="Q61">
-        <v>880.55</v>
+        <v>922.9</v>
       </c>
       <c r="R61">
-        <v>8.859999999999999</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="S61" t="s">
         <v>48</v>
@@ -4171,13 +4177,13 @@
         <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C62" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D62" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E62">
         <v>3</v>
@@ -4207,7 +4213,7 @@
         <v>967.15</v>
       </c>
       <c r="N62" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O62">
         <v>1167.96</v>
@@ -4222,7 +4228,7 @@
         <v>12.58</v>
       </c>
       <c r="S62" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -4230,13 +4236,13 @@
         <v>38</v>
       </c>
       <c r="B63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C63" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D63" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -4266,7 +4272,7 @@
         <v>116.49</v>
       </c>
       <c r="N63" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O63">
         <v>-496.5300000000008</v>
@@ -4286,13 +4292,13 @@
         <v>38</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C64" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D64" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -4322,7 +4328,7 @@
         <v>412.3</v>
       </c>
       <c r="N64" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O64">
         <v>-497.1999999999993</v>
@@ -4342,13 +4348,13 @@
         <v>38</v>
       </c>
       <c r="B65" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C65" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D65" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -4366,7 +4372,7 @@
         <v>9407.4</v>
       </c>
       <c r="J65">
-        <v>1555.8</v>
+        <v>1555.4</v>
       </c>
       <c r="L65">
         <v>1489.51</v>
@@ -4378,13 +4384,13 @@
         <v>0</v>
       </c>
       <c r="P65">
-        <v>-72.59999999999999</v>
+        <v>-75</v>
       </c>
       <c r="Q65">
-        <v>-72.59999999999999</v>
+        <v>-75</v>
       </c>
       <c r="R65">
-        <v>-0.77</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4392,13 +4398,13 @@
         <v>38</v>
       </c>
       <c r="B66" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C66" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D66" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -4416,7 +4422,7 @@
         <v>9877.15</v>
       </c>
       <c r="J66">
-        <v>275.65</v>
+        <v>276.5</v>
       </c>
       <c r="L66">
         <v>253.6</v>
@@ -4428,13 +4434,13 @@
         <v>0</v>
       </c>
       <c r="P66">
-        <v>321.9</v>
+        <v>353.35</v>
       </c>
       <c r="Q66">
-        <v>321.9</v>
+        <v>353.35</v>
       </c>
       <c r="R66">
-        <v>3.26</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4442,13 +4448,13 @@
         <v>38</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D67" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -4478,7 +4484,7 @@
         <v>5558.93</v>
       </c>
       <c r="N67" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O67">
         <v>-292.5699999999997</v>
@@ -4498,13 +4504,13 @@
         <v>38</v>
       </c>
       <c r="B68" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C68" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D68" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -4534,7 +4540,7 @@
         <v>456.1</v>
       </c>
       <c r="N68" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O68">
         <v>-480</v>
@@ -4554,13 +4560,13 @@
         <v>38</v>
       </c>
       <c r="B69" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C69" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D69" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -4578,7 +4584,7 @@
         <v>8697.5</v>
       </c>
       <c r="J69">
-        <v>1689.8</v>
+        <v>1735.1</v>
       </c>
       <c r="L69">
         <v>1652.52</v>
@@ -4590,13 +4596,13 @@
         <v>0</v>
       </c>
       <c r="P69">
-        <v>-248.5</v>
+        <v>-22</v>
       </c>
       <c r="Q69">
-        <v>-248.5</v>
+        <v>-22</v>
       </c>
       <c r="R69">
-        <v>-2.86</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -4604,13 +4610,13 @@
         <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C70" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D70" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -4640,7 +4646,7 @@
         <v>4850</v>
       </c>
       <c r="N70" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O70">
         <v>-348.5</v>
@@ -4660,16 +4666,16 @@
         <v>39</v>
       </c>
       <c r="B71" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C71" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D71" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
         <v>752.75</v>
@@ -4684,10 +4690,10 @@
         <v>9785.75</v>
       </c>
       <c r="J71">
-        <v>801.45</v>
+        <v>810.35</v>
       </c>
       <c r="L71">
-        <v>715.11</v>
+        <v>752.75</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -4696,13 +4702,13 @@
         <v>0</v>
       </c>
       <c r="P71">
-        <v>633.1</v>
+        <v>748.8</v>
       </c>
       <c r="Q71">
-        <v>633.1</v>
+        <v>748.8</v>
       </c>
       <c r="R71">
-        <v>6.47</v>
+        <v>7.65</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -4710,13 +4716,13 @@
         <v>40</v>
       </c>
       <c r="B72" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C72" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D72" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -4734,7 +4740,7 @@
         <v>9952.799999999999</v>
       </c>
       <c r="J72">
-        <v>130.82</v>
+        <v>131.56</v>
       </c>
       <c r="L72">
         <v>124.41</v>
@@ -4746,13 +4752,13 @@
         <v>0</v>
       </c>
       <c r="P72">
-        <v>512.8</v>
+        <v>572</v>
       </c>
       <c r="Q72">
-        <v>512.8</v>
+        <v>572</v>
       </c>
       <c r="R72">
-        <v>5.15</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -4760,13 +4766,13 @@
         <v>40</v>
       </c>
       <c r="B73" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C73" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D73" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -4796,7 +4802,7 @@
         <v>1540.62</v>
       </c>
       <c r="N73" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O73">
         <v>-486.4800000000009</v>
@@ -4816,13 +4822,13 @@
         <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C74" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D74" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -4852,7 +4858,7 @@
         <v>261.9</v>
       </c>
       <c r="N74" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O74">
         <v>-511.2000000000016</v>
@@ -4872,13 +4878,13 @@
         <v>41</v>
       </c>
       <c r="B75" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C75" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D75" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -4908,7 +4914,7 @@
         <v>141.6</v>
       </c>
       <c r="N75" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O75">
         <v>-499.1500000000011</v>
@@ -4928,13 +4934,13 @@
         <v>41</v>
       </c>
       <c r="B76" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C76" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D76" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -4964,7 +4970,7 @@
         <v>1134.58</v>
       </c>
       <c r="N76" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O76">
         <v>-477.7600000000002</v>
@@ -4984,13 +4990,13 @@
         <v>41</v>
       </c>
       <c r="B77" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C77" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D77" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -5020,7 +5026,7 @@
         <v>2835.37</v>
       </c>
       <c r="N77" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O77">
         <v>-447.6900000000001</v>
@@ -5040,13 +5046,13 @@
         <v>42</v>
       </c>
       <c r="B78" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C78" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -5064,7 +5070,7 @@
         <v>6019</v>
       </c>
       <c r="J78">
-        <v>6122.5</v>
+        <v>6162.5</v>
       </c>
       <c r="L78">
         <v>5718.05</v>
@@ -5076,13 +5082,13 @@
         <v>0</v>
       </c>
       <c r="P78">
-        <v>103.5</v>
+        <v>143.5</v>
       </c>
       <c r="Q78">
-        <v>103.5</v>
+        <v>143.5</v>
       </c>
       <c r="R78">
-        <v>1.72</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5090,13 +5096,13 @@
         <v>43</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D79" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -5114,7 +5120,7 @@
         <v>9647.1</v>
       </c>
       <c r="J79">
-        <v>525.6</v>
+        <v>518.15</v>
       </c>
       <c r="L79">
         <v>509.15</v>
@@ -5126,13 +5132,13 @@
         <v>0</v>
       </c>
       <c r="P79">
-        <v>-186.3</v>
+        <v>-320.4</v>
       </c>
       <c r="Q79">
-        <v>-186.3</v>
+        <v>-320.4</v>
       </c>
       <c r="R79">
-        <v>-1.93</v>
+        <v>-3.32</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5140,13 +5146,13 @@
         <v>44</v>
       </c>
       <c r="B80" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C80" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D80" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -5164,7 +5170,7 @@
         <v>9713.200000000001</v>
       </c>
       <c r="J80">
-        <v>352.2</v>
+        <v>354</v>
       </c>
       <c r="L80">
         <v>329.55</v>
@@ -5176,13 +5182,13 @@
         <v>0</v>
       </c>
       <c r="P80">
-        <v>148.4</v>
+        <v>198.8</v>
       </c>
       <c r="Q80">
-        <v>148.4</v>
+        <v>198.8</v>
       </c>
       <c r="R80">
-        <v>1.53</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5190,13 +5196,13 @@
         <v>44</v>
       </c>
       <c r="B81" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C81" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D81" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -5214,7 +5220,7 @@
         <v>9902.200000000001</v>
       </c>
       <c r="J81">
-        <v>1399.4</v>
+        <v>1384.8</v>
       </c>
       <c r="L81">
         <v>1343.87</v>
@@ -5226,13 +5232,13 @@
         <v>0</v>
       </c>
       <c r="P81">
-        <v>-106.4</v>
+        <v>-208.6</v>
       </c>
       <c r="Q81">
-        <v>-106.4</v>
+        <v>-208.6</v>
       </c>
       <c r="R81">
-        <v>-1.07</v>
+        <v>-2.11</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5240,13 +5246,13 @@
         <v>44</v>
       </c>
       <c r="B82" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C82" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D82" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -5264,7 +5270,7 @@
         <v>9773.299999999999</v>
       </c>
       <c r="J82">
-        <v>313.35</v>
+        <v>313.1</v>
       </c>
       <c r="L82">
         <v>287.45</v>
@@ -5276,13 +5282,13 @@
         <v>0</v>
       </c>
       <c r="P82">
-        <v>880.6</v>
+        <v>872.1</v>
       </c>
       <c r="Q82">
-        <v>880.6</v>
+        <v>872.1</v>
       </c>
       <c r="R82">
-        <v>9.01</v>
+        <v>8.92</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5290,13 +5296,13 @@
         <v>44</v>
       </c>
       <c r="B83" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C83" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D83" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -5314,7 +5320,7 @@
         <v>9485.6</v>
       </c>
       <c r="J83">
-        <v>590.85</v>
+        <v>597.35</v>
       </c>
       <c r="L83">
         <v>563.21</v>
@@ -5326,13 +5332,13 @@
         <v>0</v>
       </c>
       <c r="P83">
-        <v>-32</v>
+        <v>72</v>
       </c>
       <c r="Q83">
-        <v>-32</v>
+        <v>72</v>
       </c>
       <c r="R83">
-        <v>-0.34</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5340,13 +5346,13 @@
         <v>45</v>
       </c>
       <c r="B84" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C84" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D84" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -5364,7 +5370,7 @@
         <v>9114.75</v>
       </c>
       <c r="J84">
-        <v>1031</v>
+        <v>1023.55</v>
       </c>
       <c r="L84">
         <v>962.11</v>
@@ -5376,13 +5382,13 @@
         <v>0</v>
       </c>
       <c r="P84">
-        <v>164.25</v>
+        <v>97.2</v>
       </c>
       <c r="Q84">
-        <v>164.25</v>
+        <v>97.2</v>
       </c>
       <c r="R84">
-        <v>1.8</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5390,13 +5396,13 @@
         <v>45</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D85" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -5414,7 +5420,7 @@
         <v>9588.799999999999</v>
       </c>
       <c r="J85">
-        <v>2429.7</v>
+        <v>2413.1</v>
       </c>
       <c r="L85">
         <v>2277.34</v>
@@ -5426,13 +5432,13 @@
         <v>0</v>
       </c>
       <c r="P85">
-        <v>130</v>
+        <v>63.6</v>
       </c>
       <c r="Q85">
-        <v>130</v>
+        <v>63.6</v>
       </c>
       <c r="R85">
-        <v>1.36</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5440,13 +5446,13 @@
         <v>46</v>
       </c>
       <c r="B86" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D86" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -5464,7 +5470,7 @@
         <v>9589.85</v>
       </c>
       <c r="J86">
-        <v>411.8</v>
+        <v>419.4</v>
       </c>
       <c r="L86">
         <v>396.1</v>
@@ -5476,13 +5482,13 @@
         <v>0</v>
       </c>
       <c r="P86">
-        <v>-118.45</v>
+        <v>56.35</v>
       </c>
       <c r="Q86">
-        <v>-118.45</v>
+        <v>56.35</v>
       </c>
       <c r="R86">
-        <v>-1.24</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5490,13 +5496,13 @@
         <v>46</v>
       </c>
       <c r="B87" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C87" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D87" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -5514,7 +5520,7 @@
         <v>8993.6</v>
       </c>
       <c r="J87">
-        <v>1307.4</v>
+        <v>1300.2</v>
       </c>
       <c r="L87">
         <v>1220.56</v>
@@ -5526,13 +5532,13 @@
         <v>0</v>
       </c>
       <c r="P87">
-        <v>158.2</v>
+        <v>107.8</v>
       </c>
       <c r="Q87">
-        <v>158.2</v>
+        <v>107.8</v>
       </c>
       <c r="R87">
-        <v>1.76</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -5540,10 +5546,10 @@
         <v>46</v>
       </c>
       <c r="B88" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C88" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D88" t="s">
         <v>121</v>
@@ -5558,7 +5564,7 @@
         <v>2</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <v>9838</v>
@@ -5566,23 +5572,29 @@
       <c r="J88">
         <v>4714</v>
       </c>
+      <c r="K88" t="s">
+        <v>49</v>
+      </c>
       <c r="L88">
         <v>4673.05</v>
       </c>
       <c r="M88">
-        <v>0</v>
+        <v>4673.05</v>
+      </c>
+      <c r="N88" t="s">
+        <v>128</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>-491.8999999999996</v>
       </c>
       <c r="P88">
-        <v>-410</v>
+        <v>0</v>
       </c>
       <c r="Q88">
-        <v>-410</v>
+        <v>-491.8999999999996</v>
       </c>
       <c r="R88">
-        <v>-4.17</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -5590,13 +5602,13 @@
         <v>46</v>
       </c>
       <c r="B89" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C89" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D89" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -5614,7 +5626,7 @@
         <v>9791.1</v>
       </c>
       <c r="J89">
-        <v>916.2</v>
+        <v>922.85</v>
       </c>
       <c r="L89">
         <v>845.6</v>
@@ -5626,13 +5638,13 @@
         <v>0</v>
       </c>
       <c r="P89">
-        <v>287.1</v>
+        <v>360.25</v>
       </c>
       <c r="Q89">
-        <v>287.1</v>
+        <v>360.25</v>
       </c>
       <c r="R89">
-        <v>2.93</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -5640,13 +5652,13 @@
         <v>47</v>
       </c>
       <c r="B90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C90" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D90" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -5664,7 +5676,7 @@
         <v>9117.200000000001</v>
       </c>
       <c r="J90">
-        <v>2345.4</v>
+        <v>2358.6</v>
       </c>
       <c r="L90">
         <v>2165.34</v>
@@ -5676,13 +5688,13 @@
         <v>0</v>
       </c>
       <c r="P90">
-        <v>264.4</v>
+        <v>317.2</v>
       </c>
       <c r="Q90">
-        <v>264.4</v>
+        <v>317.2</v>
       </c>
       <c r="R90">
-        <v>2.9</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -5690,13 +5702,13 @@
         <v>47</v>
       </c>
       <c r="B91" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C91" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D91" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -5714,7 +5726,7 @@
         <v>9723.450000000001</v>
       </c>
       <c r="J91">
-        <v>303.35</v>
+        <v>304.8</v>
       </c>
       <c r="L91">
         <v>279.92</v>
@@ -5726,13 +5738,13 @@
         <v>0</v>
       </c>
       <c r="P91">
-        <v>287.1</v>
+        <v>334.95</v>
       </c>
       <c r="Q91">
-        <v>287.1</v>
+        <v>334.95</v>
       </c>
       <c r="R91">
-        <v>2.95</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -5740,13 +5752,13 @@
         <v>47</v>
       </c>
       <c r="B92" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C92" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D92" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -5776,7 +5788,7 @@
         <v>714.75</v>
       </c>
       <c r="N92" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O92">
         <v>-653.8999999999994</v>
@@ -5796,13 +5808,13 @@
         <v>47</v>
       </c>
       <c r="B93" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C93" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D93" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -5820,7 +5832,7 @@
         <v>9961.9</v>
       </c>
       <c r="J93">
-        <v>130.27</v>
+        <v>131.03</v>
       </c>
       <c r="L93">
         <v>119.79</v>
@@ -5832,13 +5844,13 @@
         <v>0</v>
       </c>
       <c r="P93">
-        <v>329.43</v>
+        <v>389.47</v>
       </c>
       <c r="Q93">
-        <v>329.43</v>
+        <v>389.47</v>
       </c>
       <c r="R93">
-        <v>3.31</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -5846,13 +5858,13 @@
         <v>47</v>
       </c>
       <c r="B94" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C94" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D94" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -5870,7 +5882,7 @@
         <v>9935.1</v>
       </c>
       <c r="J94">
-        <v>176.46</v>
+        <v>180.19</v>
       </c>
       <c r="L94">
         <v>165.59</v>
@@ -5882,13 +5894,13 @@
         <v>0</v>
       </c>
       <c r="P94">
-        <v>123.12</v>
+        <v>335.73</v>
       </c>
       <c r="Q94">
-        <v>123.12</v>
+        <v>335.73</v>
       </c>
       <c r="R94">
-        <v>1.24</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -5896,13 +5908,13 @@
         <v>48</v>
       </c>
       <c r="B95" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C95" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D95" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -5920,7 +5932,7 @@
         <v>9962.25</v>
       </c>
       <c r="J95">
-        <v>664.15</v>
+        <v>661.4</v>
       </c>
       <c r="L95">
         <v>630.9400000000001</v>
@@ -5932,13 +5944,13 @@
         <v>0</v>
       </c>
       <c r="P95">
-        <v>0</v>
+        <v>-41.25</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>-41.25</v>
       </c>
       <c r="R95">
-        <v>0</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -5946,13 +5958,13 @@
         <v>48</v>
       </c>
       <c r="B96" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C96" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D96" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -5970,7 +5982,7 @@
         <v>9906.1</v>
       </c>
       <c r="J96">
-        <v>430.7</v>
+        <v>427.7</v>
       </c>
       <c r="L96">
         <v>409.16</v>
@@ -5982,12 +5994,162 @@
         <v>0</v>
       </c>
       <c r="P96">
-        <v>0</v>
+        <v>-69</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>-69</v>
       </c>
       <c r="R96">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
+      <c r="A97" t="s">
+        <v>49</v>
+      </c>
+      <c r="B97" t="s">
+        <v>63</v>
+      </c>
+      <c r="C97" t="s">
+        <v>120</v>
+      </c>
+      <c r="D97" t="s">
+        <v>122</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>1178</v>
+      </c>
+      <c r="G97">
+        <v>8</v>
+      </c>
+      <c r="H97">
+        <v>8</v>
+      </c>
+      <c r="I97">
+        <v>9424</v>
+      </c>
+      <c r="J97">
+        <v>1178</v>
+      </c>
+      <c r="L97">
+        <v>1119.1</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
+      <c r="A98" t="s">
+        <v>49</v>
+      </c>
+      <c r="B98" t="s">
+        <v>86</v>
+      </c>
+      <c r="C98" t="s">
+        <v>120</v>
+      </c>
+      <c r="D98" t="s">
+        <v>122</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>430.95</v>
+      </c>
+      <c r="G98">
+        <v>23</v>
+      </c>
+      <c r="H98">
+        <v>23</v>
+      </c>
+      <c r="I98">
+        <v>9911.85</v>
+      </c>
+      <c r="J98">
+        <v>430.95</v>
+      </c>
+      <c r="L98">
+        <v>409.4</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="A99" t="s">
+        <v>49</v>
+      </c>
+      <c r="B99" t="s">
+        <v>90</v>
+      </c>
+      <c r="C99" t="s">
+        <v>118</v>
+      </c>
+      <c r="D99" t="s">
+        <v>122</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>3931.3</v>
+      </c>
+      <c r="G99">
+        <v>2</v>
+      </c>
+      <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99">
+        <v>7862.6</v>
+      </c>
+      <c r="J99">
+        <v>3931.3</v>
+      </c>
+      <c r="L99">
+        <v>3734.74</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
         <v>0</v>
       </c>
     </row>

--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="132">
   <si>
     <t>Buy Date</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>2026-02-24</t>
+  </si>
+  <si>
+    <t>2026-02-25</t>
   </si>
   <si>
     <t>ADANIENT</t>
@@ -770,7 +773,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S99"/>
+  <dimension ref="A1:S100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -850,13 +853,13 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -886,7 +889,7 @@
         <v>2093.04</v>
       </c>
       <c r="N2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O2">
         <v>-440.6399999999994</v>
@@ -906,13 +909,13 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -930,7 +933,7 @@
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1387.6</v>
+        <v>1403</v>
       </c>
       <c r="L3">
         <v>1293.6</v>
@@ -942,13 +945,13 @@
         <v>492.8000000000002</v>
       </c>
       <c r="P3">
-        <v>622.4</v>
+        <v>684</v>
       </c>
       <c r="Q3">
-        <v>1115.2</v>
+        <v>1176.8</v>
       </c>
       <c r="R3">
-        <v>11.31</v>
+        <v>11.94</v>
       </c>
       <c r="S3" t="s">
         <v>34</v>
@@ -959,13 +962,13 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -995,7 +998,7 @@
         <v>5739.43</v>
       </c>
       <c r="N4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O4">
         <v>-302.0699999999997</v>
@@ -1015,13 +1018,13 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1039,7 +1042,7 @@
         <v>8527.200000000001</v>
       </c>
       <c r="J5">
-        <v>2879.3</v>
+        <v>2878.4</v>
       </c>
       <c r="L5">
         <v>2700.28</v>
@@ -1051,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>110.7</v>
+        <v>108</v>
       </c>
       <c r="Q5">
-        <v>110.7</v>
+        <v>108</v>
       </c>
       <c r="R5">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1065,13 +1068,13 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1101,7 +1104,7 @@
         <v>2293.3</v>
       </c>
       <c r="N6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1121,13 +1124,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1145,7 +1148,7 @@
         <v>8960</v>
       </c>
       <c r="J7">
-        <v>1320</v>
+        <v>1323.4</v>
       </c>
       <c r="L7">
         <v>1216</v>
@@ -1157,13 +1160,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>280</v>
+        <v>303.8</v>
       </c>
       <c r="Q7">
-        <v>280</v>
+        <v>303.8</v>
       </c>
       <c r="R7">
-        <v>3.12</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1171,13 +1174,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1207,7 +1210,7 @@
         <v>3066.4</v>
       </c>
       <c r="N8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O8">
         <v>-522.8999999999992</v>
@@ -1227,13 +1230,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1263,7 +1266,7 @@
         <v>2901.59</v>
       </c>
       <c r="N9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O9">
         <v>-458.1300000000001</v>
@@ -1283,13 +1286,13 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1319,7 +1322,7 @@
         <v>2922.11</v>
       </c>
       <c r="N10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O10">
         <v>-461.3699999999999</v>
@@ -1339,13 +1342,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1366,7 +1369,7 @@
         <v>183.56</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L11">
         <v>180.92</v>
@@ -1375,7 +1378,7 @@
         <v>180.92</v>
       </c>
       <c r="N11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O11">
         <v>749.6499999999999</v>
@@ -1390,7 +1393,7 @@
         <v>7.5</v>
       </c>
       <c r="S11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1398,13 +1401,13 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1434,7 +1437,7 @@
         <v>1651</v>
       </c>
       <c r="N12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O12">
         <v>599.5200000000004</v>
@@ -1457,13 +1460,13 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1493,7 +1496,7 @@
         <v>732.4</v>
       </c>
       <c r="N13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O13">
         <v>-462.6000000000008</v>
@@ -1513,13 +1516,13 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1549,7 +1552,7 @@
         <v>651.2</v>
       </c>
       <c r="N14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1569,13 +1572,13 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1605,7 +1608,7 @@
         <v>1135.44</v>
       </c>
       <c r="N15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O15">
         <v>-478.0799999999999</v>
@@ -1625,13 +1628,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1661,7 +1664,7 @@
         <v>5731.82</v>
       </c>
       <c r="N16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O16">
         <v>-301.6800000000003</v>
@@ -1681,13 +1684,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1705,7 +1708,7 @@
         <v>9282</v>
       </c>
       <c r="J17">
-        <v>9829</v>
+        <v>10097</v>
       </c>
       <c r="L17">
         <v>9282</v>
@@ -1717,13 +1720,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>547</v>
+        <v>815</v>
       </c>
       <c r="Q17">
-        <v>547</v>
+        <v>815</v>
       </c>
       <c r="R17">
-        <v>5.89</v>
+        <v>8.779999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1731,13 +1734,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1767,7 +1770,7 @@
         <v>282.8</v>
       </c>
       <c r="N18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1787,13 +1790,13 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1823,7 +1826,7 @@
         <v>1342.35</v>
       </c>
       <c r="N19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O19">
         <v>-494.5500000000006</v>
@@ -1843,13 +1846,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1879,7 +1882,7 @@
         <v>5425.45</v>
       </c>
       <c r="N20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O20">
         <v>-285.5500000000002</v>
@@ -1899,13 +1902,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1926,7 +1929,7 @@
         <v>132.36</v>
       </c>
       <c r="K21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L21">
         <v>128.5</v>
@@ -1935,7 +1938,7 @@
         <v>128.499</v>
       </c>
       <c r="N21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O21">
         <v>495.639</v>
@@ -1955,13 +1958,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1982,7 +1985,7 @@
         <v>4021.8</v>
       </c>
       <c r="K22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L22">
         <v>3974.1</v>
@@ -1991,7 +1994,7 @@
         <v>3974.1</v>
       </c>
       <c r="N22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -2011,13 +2014,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2047,7 +2050,7 @@
         <v>972.9400000000001</v>
       </c>
       <c r="N23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O23">
         <v>-460.8900000000003</v>
@@ -2067,13 +2070,13 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2103,7 +2106,7 @@
         <v>158.14</v>
       </c>
       <c r="N24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O24">
         <v>-499.2000000000013</v>
@@ -2123,13 +2126,13 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2159,7 +2162,7 @@
         <v>1001.11</v>
       </c>
       <c r="N25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O25">
         <v>-474.2099999999995</v>
@@ -2179,13 +2182,13 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2206,7 +2209,7 @@
         <v>267.45</v>
       </c>
       <c r="K26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L26">
         <v>253.98</v>
@@ -2215,7 +2218,7 @@
         <v>252</v>
       </c>
       <c r="N26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O26">
         <v>-567.9500000000008</v>
@@ -2235,13 +2238,13 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2271,7 +2274,7 @@
         <v>951.52</v>
       </c>
       <c r="N27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O27">
         <v>-450.7200000000004</v>
@@ -2291,13 +2294,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2327,7 +2330,7 @@
         <v>1880.9</v>
       </c>
       <c r="N28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O28">
         <v>-495</v>
@@ -2347,13 +2350,13 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2383,7 +2386,7 @@
         <v>854</v>
       </c>
       <c r="N29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O29">
         <v>-523.0499999999995</v>
@@ -2403,13 +2406,13 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2439,7 +2442,7 @@
         <v>6310.38</v>
       </c>
       <c r="N30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O30">
         <v>-332.1199999999999</v>
@@ -2459,13 +2462,13 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2486,7 +2489,7 @@
         <v>546.75</v>
       </c>
       <c r="K31" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L31">
         <v>541.83</v>
@@ -2495,7 +2498,7 @@
         <v>541.83</v>
       </c>
       <c r="N31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O31">
         <v>-484.8399999999997</v>
@@ -2515,13 +2518,13 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2551,7 +2554,7 @@
         <v>738.96</v>
       </c>
       <c r="N32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O32">
         <v>-466.6799999999998</v>
@@ -2571,13 +2574,13 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2607,7 +2610,7 @@
         <v>637.64</v>
       </c>
       <c r="N33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O33">
         <v>-469.8400000000008</v>
@@ -2627,13 +2630,13 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2654,7 +2657,7 @@
         <v>1728.7</v>
       </c>
       <c r="K34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L34">
         <v>1693.47</v>
@@ -2663,7 +2666,7 @@
         <v>1693.47</v>
       </c>
       <c r="N34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O34">
         <v>-445.6499999999994</v>
@@ -2683,13 +2686,13 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2710,7 +2713,7 @@
         <v>414.55</v>
       </c>
       <c r="K35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L35">
         <v>409.31</v>
@@ -2719,7 +2722,7 @@
         <v>409.31</v>
       </c>
       <c r="N35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O35">
         <v>-495.4200000000005</v>
@@ -2739,13 +2742,13 @@
         <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2775,7 +2778,7 @@
         <v>4769.95</v>
       </c>
       <c r="N36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O36">
         <v>-251.0500000000001</v>
@@ -2795,13 +2798,13 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2831,7 +2834,7 @@
         <v>109.86</v>
       </c>
       <c r="N37" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O37">
         <v>-497.0800000000001</v>
@@ -2851,13 +2854,13 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -2887,7 +2890,7 @@
         <v>439.27</v>
       </c>
       <c r="N38" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O38">
         <v>711.2249999999999</v>
@@ -2910,13 +2913,13 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2946,7 +2949,7 @@
         <v>260.54</v>
       </c>
       <c r="N39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O39">
         <v>-493.5599999999993</v>
@@ -2966,13 +2969,13 @@
         <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -3002,7 +3005,7 @@
         <v>1578.33</v>
       </c>
       <c r="N40" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O40">
         <v>-498.420000000001</v>
@@ -3022,13 +3025,13 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -3058,7 +3061,7 @@
         <v>2751.58</v>
       </c>
       <c r="N41" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O41">
         <v>-434.4600000000005</v>
@@ -3078,13 +3081,13 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D42" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3105,7 +3108,7 @@
         <v>1375.8</v>
       </c>
       <c r="K42" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L42">
         <v>1342.44</v>
@@ -3114,7 +3117,7 @@
         <v>1342.44</v>
       </c>
       <c r="N42" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42">
         <v>-494.619999999999</v>
@@ -3134,13 +3137,13 @@
         <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3161,7 +3164,7 @@
         <v>4056.4</v>
       </c>
       <c r="K43" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L43">
         <v>3853.58</v>
@@ -3170,7 +3173,7 @@
         <v>3853.58</v>
       </c>
       <c r="N43" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O43">
         <v>-405.6400000000003</v>
@@ -3190,13 +3193,13 @@
         <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D44" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3214,7 +3217,7 @@
         <v>9686.25</v>
       </c>
       <c r="J44">
-        <v>374.45</v>
+        <v>381.05</v>
       </c>
       <c r="L44">
         <v>358.75</v>
@@ -3226,13 +3229,13 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>423.9</v>
+        <v>602.1</v>
       </c>
       <c r="Q44">
-        <v>423.9</v>
+        <v>602.1</v>
       </c>
       <c r="R44">
-        <v>4.38</v>
+        <v>6.22</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -3240,13 +3243,13 @@
         <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C45" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D45" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3276,7 +3279,7 @@
         <v>1574</v>
       </c>
       <c r="N45" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O45">
         <v>-578.9999999999998</v>
@@ -3296,13 +3299,13 @@
         <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D46" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -3320,7 +3323,7 @@
         <v>9697.799999999999</v>
       </c>
       <c r="J46">
-        <v>382.75</v>
+        <v>384.9</v>
       </c>
       <c r="L46">
         <v>363.67</v>
@@ -3332,13 +3335,13 @@
         <v>484.8900000000007</v>
       </c>
       <c r="P46">
-        <v>509.6</v>
+        <v>539.7</v>
       </c>
       <c r="Q46">
-        <v>994.49</v>
+        <v>1024.59</v>
       </c>
       <c r="R46">
-        <v>10.25</v>
+        <v>10.57</v>
       </c>
       <c r="S46" t="s">
         <v>49</v>
@@ -3349,13 +3352,13 @@
         <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3385,7 +3388,7 @@
         <v>2947.18</v>
       </c>
       <c r="N47" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O47">
         <v>-465.360000000001</v>
@@ -3405,13 +3408,13 @@
         <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C48" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D48" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3429,7 +3432,7 @@
         <v>7448.2</v>
       </c>
       <c r="J48">
-        <v>3849.3</v>
+        <v>3888.2</v>
       </c>
       <c r="L48">
         <v>3724.1</v>
@@ -3441,13 +3444,13 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>250.4</v>
+        <v>328.2</v>
       </c>
       <c r="Q48">
-        <v>250.4</v>
+        <v>328.2</v>
       </c>
       <c r="R48">
-        <v>3.36</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -3455,13 +3458,13 @@
         <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D49" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -3491,7 +3494,7 @@
         <v>3074.61</v>
       </c>
       <c r="N49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O49">
         <v>585.6400000000008</v>
@@ -3514,13 +3517,13 @@
         <v>32</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D50" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3550,7 +3553,7 @@
         <v>1982.08</v>
       </c>
       <c r="N50" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O50">
         <v>-417.2800000000007</v>
@@ -3570,13 +3573,13 @@
         <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C51" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D51" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3606,7 +3609,7 @@
         <v>520.6</v>
       </c>
       <c r="N51" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O51">
         <v>-493.1999999999996</v>
@@ -3626,13 +3629,13 @@
         <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C52" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D52" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E52">
         <v>3</v>
@@ -3662,7 +3665,7 @@
         <v>466.6</v>
       </c>
       <c r="N52" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O52">
         <v>1137.180000000001</v>
@@ -3685,13 +3688,13 @@
         <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D53" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3721,7 +3724,7 @@
         <v>185.38</v>
       </c>
       <c r="N53" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O53">
         <v>-118.190000000001</v>
@@ -3741,13 +3744,13 @@
         <v>34</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C54" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D54" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -3777,7 +3780,7 @@
         <v>4173.96</v>
       </c>
       <c r="N54" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O54">
         <v>596.2800000000007</v>
@@ -3800,13 +3803,13 @@
         <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D55" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -3824,7 +3827,7 @@
         <v>9973.5</v>
       </c>
       <c r="J55">
-        <v>2183</v>
+        <v>2231.7</v>
       </c>
       <c r="L55">
         <v>2094.43</v>
@@ -3836,13 +3839,13 @@
         <v>398.9400000000001</v>
       </c>
       <c r="P55">
-        <v>564.9</v>
+        <v>711</v>
       </c>
       <c r="Q55">
-        <v>963.84</v>
+        <v>1109.94</v>
       </c>
       <c r="R55">
-        <v>9.66</v>
+        <v>11.13</v>
       </c>
       <c r="S55" t="s">
         <v>38</v>
@@ -3853,13 +3856,13 @@
         <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C56" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D56" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3889,7 +3892,7 @@
         <v>814.2</v>
       </c>
       <c r="N56" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O56">
         <v>-490.599999999999</v>
@@ -3909,13 +3912,13 @@
         <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C57" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D57" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3933,7 +3936,7 @@
         <v>9578.25</v>
       </c>
       <c r="J57">
-        <v>611.65</v>
+        <v>611.2</v>
       </c>
       <c r="L57">
         <v>606.62</v>
@@ -3945,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="P57">
-        <v>-403.5</v>
+        <v>-410.25</v>
       </c>
       <c r="Q57">
-        <v>-403.5</v>
+        <v>-410.25</v>
       </c>
       <c r="R57">
-        <v>-4.21</v>
+        <v>-4.28</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -3959,13 +3962,13 @@
         <v>36</v>
       </c>
       <c r="B58" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C58" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D58" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3995,7 +3998,7 @@
         <v>922.92</v>
       </c>
       <c r="N58" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O58">
         <v>-485.8000000000004</v>
@@ -4015,13 +4018,13 @@
         <v>37</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C59" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D59" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -4051,7 +4054,7 @@
         <v>172.84</v>
       </c>
       <c r="N59" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O59">
         <v>740.73</v>
@@ -4074,13 +4077,13 @@
         <v>37</v>
       </c>
       <c r="B60" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C60" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D60" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -4098,7 +4101,7 @@
         <v>9944.179999999998</v>
       </c>
       <c r="J60">
-        <v>167.86</v>
+        <v>170</v>
       </c>
       <c r="L60">
         <v>152.37</v>
@@ -4110,13 +4113,13 @@
         <v>0</v>
       </c>
       <c r="P60">
-        <v>463.14</v>
+        <v>595.8200000000001</v>
       </c>
       <c r="Q60">
-        <v>463.14</v>
+        <v>595.8200000000001</v>
       </c>
       <c r="R60">
-        <v>4.66</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -4124,13 +4127,13 @@
         <v>37</v>
       </c>
       <c r="B61" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C61" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D61" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E61">
         <v>2</v>
@@ -4148,7 +4151,7 @@
         <v>9933</v>
       </c>
       <c r="J61">
-        <v>490.25</v>
+        <v>490.05</v>
       </c>
       <c r="L61">
         <v>474.08</v>
@@ -4160,13 +4163,13 @@
         <v>496.6500000000004</v>
       </c>
       <c r="P61">
-        <v>426.25</v>
+        <v>424.05</v>
       </c>
       <c r="Q61">
-        <v>922.9</v>
+        <v>920.7</v>
       </c>
       <c r="R61">
-        <v>9.289999999999999</v>
+        <v>9.27</v>
       </c>
       <c r="S61" t="s">
         <v>48</v>
@@ -4177,13 +4180,13 @@
         <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C62" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D62" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E62">
         <v>3</v>
@@ -4213,7 +4216,7 @@
         <v>967.15</v>
       </c>
       <c r="N62" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O62">
         <v>1167.96</v>
@@ -4228,7 +4231,7 @@
         <v>12.58</v>
       </c>
       <c r="S62" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -4236,13 +4239,13 @@
         <v>38</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C63" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D63" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -4272,7 +4275,7 @@
         <v>116.49</v>
       </c>
       <c r="N63" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O63">
         <v>-496.5300000000008</v>
@@ -4292,13 +4295,13 @@
         <v>38</v>
       </c>
       <c r="B64" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C64" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D64" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -4328,7 +4331,7 @@
         <v>412.3</v>
       </c>
       <c r="N64" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O64">
         <v>-497.1999999999993</v>
@@ -4348,13 +4351,13 @@
         <v>38</v>
       </c>
       <c r="B65" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C65" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D65" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -4372,7 +4375,7 @@
         <v>9407.4</v>
       </c>
       <c r="J65">
-        <v>1555.4</v>
+        <v>1528.7</v>
       </c>
       <c r="L65">
         <v>1489.51</v>
@@ -4384,13 +4387,13 @@
         <v>0</v>
       </c>
       <c r="P65">
-        <v>-75</v>
+        <v>-235.2</v>
       </c>
       <c r="Q65">
-        <v>-75</v>
+        <v>-235.2</v>
       </c>
       <c r="R65">
-        <v>-0.8</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4398,13 +4401,13 @@
         <v>38</v>
       </c>
       <c r="B66" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C66" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D66" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -4422,7 +4425,7 @@
         <v>9877.15</v>
       </c>
       <c r="J66">
-        <v>276.5</v>
+        <v>277.45</v>
       </c>
       <c r="L66">
         <v>253.6</v>
@@ -4434,13 +4437,13 @@
         <v>0</v>
       </c>
       <c r="P66">
-        <v>353.35</v>
+        <v>388.5</v>
       </c>
       <c r="Q66">
-        <v>353.35</v>
+        <v>388.5</v>
       </c>
       <c r="R66">
-        <v>3.58</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4448,13 +4451,13 @@
         <v>38</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D67" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -4484,7 +4487,7 @@
         <v>5558.93</v>
       </c>
       <c r="N67" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O67">
         <v>-292.5699999999997</v>
@@ -4504,13 +4507,13 @@
         <v>38</v>
       </c>
       <c r="B68" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C68" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D68" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -4540,7 +4543,7 @@
         <v>456.1</v>
       </c>
       <c r="N68" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O68">
         <v>-480</v>
@@ -4560,13 +4563,13 @@
         <v>38</v>
       </c>
       <c r="B69" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C69" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D69" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -4584,7 +4587,7 @@
         <v>8697.5</v>
       </c>
       <c r="J69">
-        <v>1735.1</v>
+        <v>1754.5</v>
       </c>
       <c r="L69">
         <v>1652.52</v>
@@ -4596,13 +4599,13 @@
         <v>0</v>
       </c>
       <c r="P69">
-        <v>-22</v>
+        <v>75</v>
       </c>
       <c r="Q69">
-        <v>-22</v>
+        <v>75</v>
       </c>
       <c r="R69">
-        <v>-0.25</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -4610,13 +4613,13 @@
         <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C70" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D70" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -4646,7 +4649,7 @@
         <v>4850</v>
       </c>
       <c r="N70" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O70">
         <v>-348.5</v>
@@ -4666,13 +4669,13 @@
         <v>39</v>
       </c>
       <c r="B71" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C71" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D71" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -4690,7 +4693,7 @@
         <v>9785.75</v>
       </c>
       <c r="J71">
-        <v>810.35</v>
+        <v>806.35</v>
       </c>
       <c r="L71">
         <v>752.75</v>
@@ -4702,13 +4705,13 @@
         <v>0</v>
       </c>
       <c r="P71">
-        <v>748.8</v>
+        <v>696.8</v>
       </c>
       <c r="Q71">
-        <v>748.8</v>
+        <v>696.8</v>
       </c>
       <c r="R71">
-        <v>7.65</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -4716,13 +4719,13 @@
         <v>40</v>
       </c>
       <c r="B72" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C72" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D72" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -4740,7 +4743,7 @@
         <v>9952.799999999999</v>
       </c>
       <c r="J72">
-        <v>131.56</v>
+        <v>133.24</v>
       </c>
       <c r="L72">
         <v>124.41</v>
@@ -4752,13 +4755,13 @@
         <v>0</v>
       </c>
       <c r="P72">
-        <v>572</v>
+        <v>706.4</v>
       </c>
       <c r="Q72">
-        <v>572</v>
+        <v>706.4</v>
       </c>
       <c r="R72">
-        <v>5.75</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -4766,13 +4769,13 @@
         <v>40</v>
       </c>
       <c r="B73" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C73" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D73" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -4802,7 +4805,7 @@
         <v>1540.62</v>
       </c>
       <c r="N73" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O73">
         <v>-486.4800000000009</v>
@@ -4822,13 +4825,13 @@
         <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C74" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -4858,7 +4861,7 @@
         <v>261.9</v>
       </c>
       <c r="N74" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O74">
         <v>-511.2000000000016</v>
@@ -4878,13 +4881,13 @@
         <v>41</v>
       </c>
       <c r="B75" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C75" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D75" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -4914,7 +4917,7 @@
         <v>141.6</v>
       </c>
       <c r="N75" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O75">
         <v>-499.1500000000011</v>
@@ -4934,13 +4937,13 @@
         <v>41</v>
       </c>
       <c r="B76" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C76" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D76" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -4970,7 +4973,7 @@
         <v>1134.58</v>
       </c>
       <c r="N76" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O76">
         <v>-477.7600000000002</v>
@@ -4990,13 +4993,13 @@
         <v>41</v>
       </c>
       <c r="B77" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C77" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D77" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -5026,7 +5029,7 @@
         <v>2835.37</v>
       </c>
       <c r="N77" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O77">
         <v>-447.6900000000001</v>
@@ -5046,13 +5049,13 @@
         <v>42</v>
       </c>
       <c r="B78" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D78" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -5070,7 +5073,7 @@
         <v>6019</v>
       </c>
       <c r="J78">
-        <v>6162.5</v>
+        <v>6158</v>
       </c>
       <c r="L78">
         <v>5718.05</v>
@@ -5082,13 +5085,13 @@
         <v>0</v>
       </c>
       <c r="P78">
-        <v>143.5</v>
+        <v>139</v>
       </c>
       <c r="Q78">
-        <v>143.5</v>
+        <v>139</v>
       </c>
       <c r="R78">
-        <v>2.38</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5096,13 +5099,13 @@
         <v>43</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D79" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -5120,7 +5123,7 @@
         <v>9647.1</v>
       </c>
       <c r="J79">
-        <v>518.15</v>
+        <v>515.15</v>
       </c>
       <c r="L79">
         <v>509.15</v>
@@ -5132,13 +5135,13 @@
         <v>0</v>
       </c>
       <c r="P79">
-        <v>-320.4</v>
+        <v>-374.4</v>
       </c>
       <c r="Q79">
-        <v>-320.4</v>
+        <v>-374.4</v>
       </c>
       <c r="R79">
-        <v>-3.32</v>
+        <v>-3.88</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5146,13 +5149,13 @@
         <v>44</v>
       </c>
       <c r="B80" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C80" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D80" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -5191,18 +5194,18 @@
         <v>2.05</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:19">
       <c r="A81" t="s">
         <v>44</v>
       </c>
       <c r="B81" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C81" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D81" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -5220,7 +5223,7 @@
         <v>9902.200000000001</v>
       </c>
       <c r="J81">
-        <v>1384.8</v>
+        <v>1400.5</v>
       </c>
       <c r="L81">
         <v>1343.87</v>
@@ -5232,30 +5235,30 @@
         <v>0</v>
       </c>
       <c r="P81">
-        <v>-208.6</v>
+        <v>-98.7</v>
       </c>
       <c r="Q81">
-        <v>-208.6</v>
+        <v>-98.7</v>
       </c>
       <c r="R81">
-        <v>-2.11</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19">
       <c r="A82" t="s">
         <v>44</v>
       </c>
       <c r="B82" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C82" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D82" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82">
         <v>287.45</v>
@@ -5264,45 +5267,48 @@
         <v>34</v>
       </c>
       <c r="H82">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I82">
         <v>9773.299999999999</v>
       </c>
       <c r="J82">
-        <v>313.1</v>
+        <v>315.85</v>
       </c>
       <c r="L82">
-        <v>287.45</v>
+        <v>301.82</v>
       </c>
       <c r="M82">
         <v>0</v>
       </c>
       <c r="O82">
-        <v>0</v>
+        <v>488.6650000000001</v>
       </c>
       <c r="P82">
-        <v>872.1</v>
+        <v>482.8</v>
       </c>
       <c r="Q82">
-        <v>872.1</v>
+        <v>971.47</v>
       </c>
       <c r="R82">
-        <v>8.92</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18">
+        <v>9.94</v>
+      </c>
+      <c r="S82" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19">
       <c r="A83" t="s">
         <v>44</v>
       </c>
       <c r="B83" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C83" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D83" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -5320,7 +5326,7 @@
         <v>9485.6</v>
       </c>
       <c r="J83">
-        <v>597.35</v>
+        <v>619.05</v>
       </c>
       <c r="L83">
         <v>563.21</v>
@@ -5332,27 +5338,27 @@
         <v>0</v>
       </c>
       <c r="P83">
-        <v>72</v>
+        <v>419.2</v>
       </c>
       <c r="Q83">
-        <v>72</v>
+        <v>419.2</v>
       </c>
       <c r="R83">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19">
       <c r="A84" t="s">
         <v>45</v>
       </c>
       <c r="B84" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C84" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D84" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -5370,7 +5376,7 @@
         <v>9114.75</v>
       </c>
       <c r="J84">
-        <v>1023.55</v>
+        <v>1021.05</v>
       </c>
       <c r="L84">
         <v>962.11</v>
@@ -5382,27 +5388,27 @@
         <v>0</v>
       </c>
       <c r="P84">
-        <v>97.2</v>
+        <v>74.7</v>
       </c>
       <c r="Q84">
-        <v>97.2</v>
+        <v>74.7</v>
       </c>
       <c r="R84">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19">
       <c r="A85" t="s">
         <v>45</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D85" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -5420,7 +5426,7 @@
         <v>9588.799999999999</v>
       </c>
       <c r="J85">
-        <v>2413.1</v>
+        <v>2416.4</v>
       </c>
       <c r="L85">
         <v>2277.34</v>
@@ -5432,27 +5438,27 @@
         <v>0</v>
       </c>
       <c r="P85">
-        <v>63.6</v>
+        <v>76.8</v>
       </c>
       <c r="Q85">
-        <v>63.6</v>
+        <v>76.8</v>
       </c>
       <c r="R85">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19">
       <c r="A86" t="s">
         <v>46</v>
       </c>
       <c r="B86" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C86" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D86" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -5470,7 +5476,7 @@
         <v>9589.85</v>
       </c>
       <c r="J86">
-        <v>419.4</v>
+        <v>423.6</v>
       </c>
       <c r="L86">
         <v>396.1</v>
@@ -5482,27 +5488,27 @@
         <v>0</v>
       </c>
       <c r="P86">
-        <v>56.35</v>
+        <v>152.95</v>
       </c>
       <c r="Q86">
-        <v>56.35</v>
+        <v>152.95</v>
       </c>
       <c r="R86">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19">
       <c r="A87" t="s">
         <v>46</v>
       </c>
       <c r="B87" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D87" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -5520,7 +5526,7 @@
         <v>8993.6</v>
       </c>
       <c r="J87">
-        <v>1300.2</v>
+        <v>1306.5</v>
       </c>
       <c r="L87">
         <v>1220.56</v>
@@ -5532,27 +5538,27 @@
         <v>0</v>
       </c>
       <c r="P87">
-        <v>107.8</v>
+        <v>151.9</v>
       </c>
       <c r="Q87">
-        <v>107.8</v>
+        <v>151.9</v>
       </c>
       <c r="R87">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19">
       <c r="A88" t="s">
         <v>46</v>
       </c>
       <c r="B88" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C88" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -5582,33 +5588,33 @@
         <v>4673.05</v>
       </c>
       <c r="N88" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O88">
-        <v>-491.8999999999996</v>
+        <v>-491.8999999999997</v>
       </c>
       <c r="P88">
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>-491.8999999999996</v>
+        <v>-491.8999999999997</v>
       </c>
       <c r="R88">
         <v>-5</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:19">
       <c r="A89" t="s">
         <v>46</v>
       </c>
       <c r="B89" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C89" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -5626,7 +5632,7 @@
         <v>9791.1</v>
       </c>
       <c r="J89">
-        <v>922.85</v>
+        <v>937.4</v>
       </c>
       <c r="L89">
         <v>845.6</v>
@@ -5638,27 +5644,27 @@
         <v>0</v>
       </c>
       <c r="P89">
-        <v>360.25</v>
+        <v>520.3</v>
       </c>
       <c r="Q89">
-        <v>360.25</v>
+        <v>520.3</v>
       </c>
       <c r="R89">
-        <v>3.68</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18">
+        <v>5.31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19">
       <c r="A90" t="s">
         <v>47</v>
       </c>
       <c r="B90" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C90" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D90" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -5676,7 +5682,7 @@
         <v>9117.200000000001</v>
       </c>
       <c r="J90">
-        <v>2358.6</v>
+        <v>2374.9</v>
       </c>
       <c r="L90">
         <v>2165.34</v>
@@ -5688,27 +5694,27 @@
         <v>0</v>
       </c>
       <c r="P90">
-        <v>317.2</v>
+        <v>382.4</v>
       </c>
       <c r="Q90">
-        <v>317.2</v>
+        <v>382.4</v>
       </c>
       <c r="R90">
-        <v>3.48</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18">
+        <v>4.19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19">
       <c r="A91" t="s">
         <v>47</v>
       </c>
       <c r="B91" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C91" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D91" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -5726,7 +5732,7 @@
         <v>9723.450000000001</v>
       </c>
       <c r="J91">
-        <v>304.8</v>
+        <v>307.25</v>
       </c>
       <c r="L91">
         <v>279.92</v>
@@ -5738,27 +5744,27 @@
         <v>0</v>
       </c>
       <c r="P91">
-        <v>334.95</v>
+        <v>415.8</v>
       </c>
       <c r="Q91">
-        <v>334.95</v>
+        <v>415.8</v>
       </c>
       <c r="R91">
-        <v>3.44</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19">
       <c r="A92" t="s">
         <v>47</v>
       </c>
       <c r="B92" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C92" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D92" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -5788,7 +5794,7 @@
         <v>714.75</v>
       </c>
       <c r="N92" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O92">
         <v>-653.8999999999994</v>
@@ -5803,18 +5809,18 @@
         <v>-6.57</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:19">
       <c r="A93" t="s">
         <v>47</v>
       </c>
       <c r="B93" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C93" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D93" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -5832,7 +5838,7 @@
         <v>9961.9</v>
       </c>
       <c r="J93">
-        <v>131.03</v>
+        <v>130.54</v>
       </c>
       <c r="L93">
         <v>119.79</v>
@@ -5844,27 +5850,27 @@
         <v>0</v>
       </c>
       <c r="P93">
-        <v>389.47</v>
+        <v>350.76</v>
       </c>
       <c r="Q93">
-        <v>389.47</v>
+        <v>350.76</v>
       </c>
       <c r="R93">
-        <v>3.91</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19">
       <c r="A94" t="s">
         <v>47</v>
       </c>
       <c r="B94" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C94" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D94" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -5882,7 +5888,7 @@
         <v>9935.1</v>
       </c>
       <c r="J94">
-        <v>180.19</v>
+        <v>183.03</v>
       </c>
       <c r="L94">
         <v>165.59</v>
@@ -5894,27 +5900,27 @@
         <v>0</v>
       </c>
       <c r="P94">
-        <v>335.73</v>
+        <v>497.61</v>
       </c>
       <c r="Q94">
-        <v>335.73</v>
+        <v>497.61</v>
       </c>
       <c r="R94">
-        <v>3.38</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19">
       <c r="A95" t="s">
         <v>48</v>
       </c>
       <c r="B95" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C95" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D95" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -5932,7 +5938,7 @@
         <v>9962.25</v>
       </c>
       <c r="J95">
-        <v>661.4</v>
+        <v>668.25</v>
       </c>
       <c r="L95">
         <v>630.9400000000001</v>
@@ -5944,27 +5950,27 @@
         <v>0</v>
       </c>
       <c r="P95">
-        <v>-41.25</v>
+        <v>61.5</v>
       </c>
       <c r="Q95">
-        <v>-41.25</v>
+        <v>61.5</v>
       </c>
       <c r="R95">
-        <v>-0.41</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19">
       <c r="A96" t="s">
         <v>48</v>
       </c>
       <c r="B96" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C96" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D96" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -5982,7 +5988,7 @@
         <v>9906.1</v>
       </c>
       <c r="J96">
-        <v>427.7</v>
+        <v>424.95</v>
       </c>
       <c r="L96">
         <v>409.16</v>
@@ -5994,13 +6000,13 @@
         <v>0</v>
       </c>
       <c r="P96">
-        <v>-69</v>
+        <v>-132.25</v>
       </c>
       <c r="Q96">
-        <v>-69</v>
+        <v>-132.25</v>
       </c>
       <c r="R96">
-        <v>-0.7</v>
+        <v>-1.34</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6008,13 +6014,13 @@
         <v>49</v>
       </c>
       <c r="B97" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C97" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D97" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -6032,7 +6038,7 @@
         <v>9424</v>
       </c>
       <c r="J97">
-        <v>1178</v>
+        <v>1172.3</v>
       </c>
       <c r="L97">
         <v>1119.1</v>
@@ -6044,13 +6050,13 @@
         <v>0</v>
       </c>
       <c r="P97">
-        <v>0</v>
+        <v>-45.6</v>
       </c>
       <c r="Q97">
-        <v>0</v>
+        <v>-45.6</v>
       </c>
       <c r="R97">
-        <v>0</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6058,13 +6064,13 @@
         <v>49</v>
       </c>
       <c r="B98" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C98" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D98" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -6082,7 +6088,7 @@
         <v>9911.85</v>
       </c>
       <c r="J98">
-        <v>430.95</v>
+        <v>438.6</v>
       </c>
       <c r="L98">
         <v>409.4</v>
@@ -6094,13 +6100,13 @@
         <v>0</v>
       </c>
       <c r="P98">
-        <v>0</v>
+        <v>175.95</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>175.95</v>
       </c>
       <c r="R98">
-        <v>0</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6108,13 +6114,13 @@
         <v>49</v>
       </c>
       <c r="B99" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C99" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D99" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -6132,7 +6138,7 @@
         <v>7862.6</v>
       </c>
       <c r="J99">
-        <v>3931.3</v>
+        <v>3922</v>
       </c>
       <c r="L99">
         <v>3734.74</v>
@@ -6144,12 +6150,62 @@
         <v>0</v>
       </c>
       <c r="P99">
-        <v>0</v>
+        <v>-18.6</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>-18.6</v>
       </c>
       <c r="R99">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
+      <c r="A100" t="s">
+        <v>50</v>
+      </c>
+      <c r="B100" t="s">
+        <v>69</v>
+      </c>
+      <c r="C100" t="s">
+        <v>121</v>
+      </c>
+      <c r="D100" t="s">
+        <v>123</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>5737.5</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>5737.5</v>
+      </c>
+      <c r="J100">
+        <v>5737.5</v>
+      </c>
+      <c r="L100">
+        <v>5450.62</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
         <v>0</v>
       </c>
     </row>

--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="133">
   <si>
     <t>Buy Date</t>
   </si>
@@ -401,6 +401,9 @@
   </si>
   <si>
     <t>2026-01-13</t>
+  </si>
+  <si>
+    <t>2026-02-26</t>
   </si>
   <si>
     <t>SL Hit</t>
@@ -889,7 +892,7 @@
         <v>2093.04</v>
       </c>
       <c r="N2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O2">
         <v>-440.6399999999994</v>
@@ -933,7 +936,7 @@
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1403</v>
+        <v>1395.5</v>
       </c>
       <c r="L3">
         <v>1293.6</v>
@@ -945,13 +948,13 @@
         <v>492.8000000000002</v>
       </c>
       <c r="P3">
-        <v>684</v>
+        <v>654</v>
       </c>
       <c r="Q3">
-        <v>1176.8</v>
+        <v>1146.8</v>
       </c>
       <c r="R3">
-        <v>11.94</v>
+        <v>11.64</v>
       </c>
       <c r="S3" t="s">
         <v>34</v>
@@ -998,7 +1001,7 @@
         <v>5739.43</v>
       </c>
       <c r="N4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O4">
         <v>-302.0699999999997</v>
@@ -1042,7 +1045,7 @@
         <v>8527.200000000001</v>
       </c>
       <c r="J5">
-        <v>2878.4</v>
+        <v>2863.5</v>
       </c>
       <c r="L5">
         <v>2700.28</v>
@@ -1054,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>108</v>
+        <v>63.3</v>
       </c>
       <c r="Q5">
-        <v>108</v>
+        <v>63.3</v>
       </c>
       <c r="R5">
-        <v>1.27</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1104,7 +1107,7 @@
         <v>2293.3</v>
       </c>
       <c r="N6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1148,7 +1151,7 @@
         <v>8960</v>
       </c>
       <c r="J7">
-        <v>1323.4</v>
+        <v>1318</v>
       </c>
       <c r="L7">
         <v>1216</v>
@@ -1160,13 +1163,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>303.8</v>
+        <v>266</v>
       </c>
       <c r="Q7">
-        <v>303.8</v>
+        <v>266</v>
       </c>
       <c r="R7">
-        <v>3.39</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1210,7 +1213,7 @@
         <v>3066.4</v>
       </c>
       <c r="N8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O8">
         <v>-522.8999999999992</v>
@@ -1266,7 +1269,7 @@
         <v>2901.59</v>
       </c>
       <c r="N9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O9">
         <v>-458.1300000000001</v>
@@ -1322,7 +1325,7 @@
         <v>2922.11</v>
       </c>
       <c r="N10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O10">
         <v>-461.3699999999999</v>
@@ -1378,7 +1381,7 @@
         <v>180.92</v>
       </c>
       <c r="N11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O11">
         <v>749.6499999999999</v>
@@ -1437,7 +1440,7 @@
         <v>1651</v>
       </c>
       <c r="N12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O12">
         <v>599.5200000000004</v>
@@ -1496,7 +1499,7 @@
         <v>732.4</v>
       </c>
       <c r="N13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O13">
         <v>-462.6000000000008</v>
@@ -1552,7 +1555,7 @@
         <v>651.2</v>
       </c>
       <c r="N14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1608,7 +1611,7 @@
         <v>1135.44</v>
       </c>
       <c r="N15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O15">
         <v>-478.0799999999999</v>
@@ -1664,7 +1667,7 @@
         <v>5731.82</v>
       </c>
       <c r="N16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O16">
         <v>-301.6800000000003</v>
@@ -1708,7 +1711,7 @@
         <v>9282</v>
       </c>
       <c r="J17">
-        <v>10097</v>
+        <v>10110</v>
       </c>
       <c r="L17">
         <v>9282</v>
@@ -1720,13 +1723,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>815</v>
+        <v>828</v>
       </c>
       <c r="Q17">
-        <v>815</v>
+        <v>828</v>
       </c>
       <c r="R17">
-        <v>8.779999999999999</v>
+        <v>8.92</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1770,7 +1773,7 @@
         <v>282.8</v>
       </c>
       <c r="N18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1826,7 +1829,7 @@
         <v>1342.35</v>
       </c>
       <c r="N19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O19">
         <v>-494.5500000000006</v>
@@ -1882,7 +1885,7 @@
         <v>5425.45</v>
       </c>
       <c r="N20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O20">
         <v>-285.5500000000002</v>
@@ -1938,7 +1941,7 @@
         <v>128.499</v>
       </c>
       <c r="N21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O21">
         <v>495.639</v>
@@ -1994,7 +1997,7 @@
         <v>3974.1</v>
       </c>
       <c r="N22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -2050,7 +2053,7 @@
         <v>972.9400000000001</v>
       </c>
       <c r="N23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O23">
         <v>-460.8900000000003</v>
@@ -2106,7 +2109,7 @@
         <v>158.14</v>
       </c>
       <c r="N24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O24">
         <v>-499.2000000000013</v>
@@ -2162,7 +2165,7 @@
         <v>1001.11</v>
       </c>
       <c r="N25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O25">
         <v>-474.2099999999995</v>
@@ -2218,7 +2221,7 @@
         <v>252</v>
       </c>
       <c r="N26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O26">
         <v>-567.9500000000008</v>
@@ -2274,7 +2277,7 @@
         <v>951.52</v>
       </c>
       <c r="N27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O27">
         <v>-450.7200000000004</v>
@@ -2330,7 +2333,7 @@
         <v>1880.9</v>
       </c>
       <c r="N28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O28">
         <v>-495</v>
@@ -2386,7 +2389,7 @@
         <v>854</v>
       </c>
       <c r="N29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O29">
         <v>-523.0499999999995</v>
@@ -2442,7 +2445,7 @@
         <v>6310.38</v>
       </c>
       <c r="N30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O30">
         <v>-332.1199999999999</v>
@@ -2498,7 +2501,7 @@
         <v>541.83</v>
       </c>
       <c r="N31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O31">
         <v>-484.8399999999997</v>
@@ -2554,7 +2557,7 @@
         <v>738.96</v>
       </c>
       <c r="N32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O32">
         <v>-466.6799999999998</v>
@@ -2610,7 +2613,7 @@
         <v>637.64</v>
       </c>
       <c r="N33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O33">
         <v>-469.8400000000008</v>
@@ -2666,7 +2669,7 @@
         <v>1693.47</v>
       </c>
       <c r="N34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O34">
         <v>-445.6499999999994</v>
@@ -2722,7 +2725,7 @@
         <v>409.31</v>
       </c>
       <c r="N35" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O35">
         <v>-495.4200000000005</v>
@@ -2778,7 +2781,7 @@
         <v>4769.95</v>
       </c>
       <c r="N36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O36">
         <v>-251.0500000000001</v>
@@ -2834,7 +2837,7 @@
         <v>109.86</v>
       </c>
       <c r="N37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O37">
         <v>-497.0800000000001</v>
@@ -2890,7 +2893,7 @@
         <v>439.27</v>
       </c>
       <c r="N38" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O38">
         <v>711.2249999999999</v>
@@ -2949,7 +2952,7 @@
         <v>260.54</v>
       </c>
       <c r="N39" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O39">
         <v>-493.5599999999993</v>
@@ -3005,7 +3008,7 @@
         <v>1578.33</v>
       </c>
       <c r="N40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O40">
         <v>-498.420000000001</v>
@@ -3061,7 +3064,7 @@
         <v>2751.58</v>
       </c>
       <c r="N41" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O41">
         <v>-434.4600000000005</v>
@@ -3117,7 +3120,7 @@
         <v>1342.44</v>
       </c>
       <c r="N42" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42">
         <v>-494.619999999999</v>
@@ -3173,7 +3176,7 @@
         <v>3853.58</v>
       </c>
       <c r="N43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43">
         <v>-405.6400000000003</v>
@@ -3217,7 +3220,7 @@
         <v>9686.25</v>
       </c>
       <c r="J44">
-        <v>381.05</v>
+        <v>386</v>
       </c>
       <c r="L44">
         <v>358.75</v>
@@ -3229,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>602.1</v>
+        <v>735.75</v>
       </c>
       <c r="Q44">
-        <v>602.1</v>
+        <v>735.75</v>
       </c>
       <c r="R44">
-        <v>6.22</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -3279,7 +3282,7 @@
         <v>1574</v>
       </c>
       <c r="N45" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O45">
         <v>-578.9999999999998</v>
@@ -3323,7 +3326,7 @@
         <v>9697.799999999999</v>
       </c>
       <c r="J46">
-        <v>384.9</v>
+        <v>381.9</v>
       </c>
       <c r="L46">
         <v>363.67</v>
@@ -3335,13 +3338,13 @@
         <v>484.8900000000007</v>
       </c>
       <c r="P46">
-        <v>539.7</v>
+        <v>497.7</v>
       </c>
       <c r="Q46">
-        <v>1024.59</v>
+        <v>982.59</v>
       </c>
       <c r="R46">
-        <v>10.57</v>
+        <v>10.13</v>
       </c>
       <c r="S46" t="s">
         <v>49</v>
@@ -3388,7 +3391,7 @@
         <v>2947.18</v>
       </c>
       <c r="N47" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O47">
         <v>-465.360000000001</v>
@@ -3432,7 +3435,7 @@
         <v>7448.2</v>
       </c>
       <c r="J48">
-        <v>3888.2</v>
+        <v>3865.6</v>
       </c>
       <c r="L48">
         <v>3724.1</v>
@@ -3444,13 +3447,13 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>328.2</v>
+        <v>283</v>
       </c>
       <c r="Q48">
-        <v>328.2</v>
+        <v>283</v>
       </c>
       <c r="R48">
-        <v>4.41</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -3494,7 +3497,7 @@
         <v>3074.61</v>
       </c>
       <c r="N49" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O49">
         <v>585.6400000000008</v>
@@ -3553,7 +3556,7 @@
         <v>1982.08</v>
       </c>
       <c r="N50" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O50">
         <v>-417.2800000000007</v>
@@ -3609,7 +3612,7 @@
         <v>520.6</v>
       </c>
       <c r="N51" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O51">
         <v>-493.1999999999996</v>
@@ -3665,7 +3668,7 @@
         <v>466.6</v>
       </c>
       <c r="N52" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O52">
         <v>1137.180000000001</v>
@@ -3724,7 +3727,7 @@
         <v>185.38</v>
       </c>
       <c r="N53" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O53">
         <v>-118.190000000001</v>
@@ -3780,7 +3783,7 @@
         <v>4173.96</v>
       </c>
       <c r="N54" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O54">
         <v>596.2800000000007</v>
@@ -3827,7 +3830,7 @@
         <v>9973.5</v>
       </c>
       <c r="J55">
-        <v>2231.7</v>
+        <v>2216.4</v>
       </c>
       <c r="L55">
         <v>2094.43</v>
@@ -3839,13 +3842,13 @@
         <v>398.9400000000001</v>
       </c>
       <c r="P55">
-        <v>711</v>
+        <v>665.1</v>
       </c>
       <c r="Q55">
-        <v>1109.94</v>
+        <v>1064.04</v>
       </c>
       <c r="R55">
-        <v>11.13</v>
+        <v>10.67</v>
       </c>
       <c r="S55" t="s">
         <v>38</v>
@@ -3892,7 +3895,7 @@
         <v>814.2</v>
       </c>
       <c r="N56" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O56">
         <v>-490.599999999999</v>
@@ -3918,7 +3921,7 @@
         <v>119</v>
       </c>
       <c r="D57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3930,7 +3933,7 @@
         <v>15</v>
       </c>
       <c r="H57">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>9578.25</v>
@@ -3938,23 +3941,29 @@
       <c r="J57">
         <v>611.2</v>
       </c>
+      <c r="K57" t="s">
+        <v>129</v>
+      </c>
       <c r="L57">
         <v>606.62</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>606.62</v>
+      </c>
+      <c r="N57" t="s">
+        <v>130</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>-478.9499999999992</v>
       </c>
       <c r="P57">
-        <v>-410.25</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>-410.25</v>
+        <v>-478.9499999999992</v>
       </c>
       <c r="R57">
-        <v>-4.28</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -3998,7 +4007,7 @@
         <v>922.92</v>
       </c>
       <c r="N58" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O58">
         <v>-485.8000000000004</v>
@@ -4054,7 +4063,7 @@
         <v>172.84</v>
       </c>
       <c r="N59" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O59">
         <v>740.73</v>
@@ -4101,7 +4110,7 @@
         <v>9944.179999999998</v>
       </c>
       <c r="J60">
-        <v>170</v>
+        <v>169.96</v>
       </c>
       <c r="L60">
         <v>152.37</v>
@@ -4113,13 +4122,13 @@
         <v>0</v>
       </c>
       <c r="P60">
-        <v>595.8200000000001</v>
+        <v>593.34</v>
       </c>
       <c r="Q60">
-        <v>595.8200000000001</v>
+        <v>593.34</v>
       </c>
       <c r="R60">
-        <v>5.99</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -4151,7 +4160,7 @@
         <v>9933</v>
       </c>
       <c r="J61">
-        <v>490.05</v>
+        <v>498.65</v>
       </c>
       <c r="L61">
         <v>474.08</v>
@@ -4163,13 +4172,13 @@
         <v>496.6500000000004</v>
       </c>
       <c r="P61">
-        <v>424.05</v>
+        <v>518.65</v>
       </c>
       <c r="Q61">
-        <v>920.7</v>
+        <v>1015.3</v>
       </c>
       <c r="R61">
-        <v>9.27</v>
+        <v>10.22</v>
       </c>
       <c r="S61" t="s">
         <v>48</v>
@@ -4216,7 +4225,7 @@
         <v>967.15</v>
       </c>
       <c r="N62" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O62">
         <v>1167.96</v>
@@ -4231,7 +4240,7 @@
         <v>12.58</v>
       </c>
       <c r="S62" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -4275,7 +4284,7 @@
         <v>116.49</v>
       </c>
       <c r="N63" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O63">
         <v>-496.5300000000008</v>
@@ -4331,7 +4340,7 @@
         <v>412.3</v>
       </c>
       <c r="N64" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O64">
         <v>-497.1999999999993</v>
@@ -4375,7 +4384,7 @@
         <v>9407.4</v>
       </c>
       <c r="J65">
-        <v>1528.7</v>
+        <v>1550.6</v>
       </c>
       <c r="L65">
         <v>1489.51</v>
@@ -4387,13 +4396,13 @@
         <v>0</v>
       </c>
       <c r="P65">
-        <v>-235.2</v>
+        <v>-103.8</v>
       </c>
       <c r="Q65">
-        <v>-235.2</v>
+        <v>-103.8</v>
       </c>
       <c r="R65">
-        <v>-2.5</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4425,7 +4434,7 @@
         <v>9877.15</v>
       </c>
       <c r="J66">
-        <v>277.45</v>
+        <v>280.1</v>
       </c>
       <c r="L66">
         <v>253.6</v>
@@ -4437,13 +4446,13 @@
         <v>0</v>
       </c>
       <c r="P66">
-        <v>388.5</v>
+        <v>486.55</v>
       </c>
       <c r="Q66">
-        <v>388.5</v>
+        <v>486.55</v>
       </c>
       <c r="R66">
-        <v>3.93</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4487,7 +4496,7 @@
         <v>5558.93</v>
       </c>
       <c r="N67" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O67">
         <v>-292.5699999999997</v>
@@ -4543,7 +4552,7 @@
         <v>456.1</v>
       </c>
       <c r="N68" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O68">
         <v>-480</v>
@@ -4569,7 +4578,7 @@
         <v>121</v>
       </c>
       <c r="D69" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -4581,7 +4590,7 @@
         <v>5</v>
       </c>
       <c r="H69">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>8697.5</v>
@@ -4589,23 +4598,29 @@
       <c r="J69">
         <v>1754.5</v>
       </c>
+      <c r="K69" t="s">
+        <v>129</v>
+      </c>
       <c r="L69">
         <v>1652.52</v>
       </c>
       <c r="M69">
-        <v>0</v>
+        <v>1652.52</v>
+      </c>
+      <c r="N69" t="s">
+        <v>130</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>-434.9000000000001</v>
       </c>
       <c r="P69">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>75</v>
+        <v>-434.9000000000001</v>
       </c>
       <c r="R69">
-        <v>0.86</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -4649,7 +4664,7 @@
         <v>4850</v>
       </c>
       <c r="N70" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O70">
         <v>-348.5</v>
@@ -4693,7 +4708,7 @@
         <v>9785.75</v>
       </c>
       <c r="J71">
-        <v>806.35</v>
+        <v>805.75</v>
       </c>
       <c r="L71">
         <v>752.75</v>
@@ -4705,13 +4720,13 @@
         <v>0</v>
       </c>
       <c r="P71">
-        <v>696.8</v>
+        <v>689</v>
       </c>
       <c r="Q71">
-        <v>696.8</v>
+        <v>689</v>
       </c>
       <c r="R71">
-        <v>7.12</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -4743,7 +4758,7 @@
         <v>9952.799999999999</v>
       </c>
       <c r="J72">
-        <v>133.24</v>
+        <v>135.31</v>
       </c>
       <c r="L72">
         <v>124.41</v>
@@ -4755,13 +4770,13 @@
         <v>0</v>
       </c>
       <c r="P72">
-        <v>706.4</v>
+        <v>872</v>
       </c>
       <c r="Q72">
-        <v>706.4</v>
+        <v>872</v>
       </c>
       <c r="R72">
-        <v>7.1</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -4805,7 +4820,7 @@
         <v>1540.62</v>
       </c>
       <c r="N73" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O73">
         <v>-486.4800000000009</v>
@@ -4861,7 +4876,7 @@
         <v>261.9</v>
       </c>
       <c r="N74" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O74">
         <v>-511.2000000000016</v>
@@ -4917,7 +4932,7 @@
         <v>141.6</v>
       </c>
       <c r="N75" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O75">
         <v>-499.1500000000011</v>
@@ -4973,7 +4988,7 @@
         <v>1134.58</v>
       </c>
       <c r="N76" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O76">
         <v>-477.7600000000002</v>
@@ -5029,7 +5044,7 @@
         <v>2835.37</v>
       </c>
       <c r="N77" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O77">
         <v>-447.6900000000001</v>
@@ -5073,7 +5088,7 @@
         <v>6019</v>
       </c>
       <c r="J78">
-        <v>6158</v>
+        <v>6137</v>
       </c>
       <c r="L78">
         <v>5718.05</v>
@@ -5085,13 +5100,13 @@
         <v>0</v>
       </c>
       <c r="P78">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="Q78">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="R78">
-        <v>2.31</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5123,7 +5138,7 @@
         <v>9647.1</v>
       </c>
       <c r="J79">
-        <v>515.15</v>
+        <v>516.1</v>
       </c>
       <c r="L79">
         <v>509.15</v>
@@ -5135,13 +5150,13 @@
         <v>0</v>
       </c>
       <c r="P79">
-        <v>-374.4</v>
+        <v>-357.3</v>
       </c>
       <c r="Q79">
-        <v>-374.4</v>
+        <v>-357.3</v>
       </c>
       <c r="R79">
-        <v>-3.88</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5173,7 +5188,7 @@
         <v>9713.200000000001</v>
       </c>
       <c r="J80">
-        <v>354</v>
+        <v>354.1</v>
       </c>
       <c r="L80">
         <v>329.55</v>
@@ -5185,13 +5200,13 @@
         <v>0</v>
       </c>
       <c r="P80">
-        <v>198.8</v>
+        <v>201.6</v>
       </c>
       <c r="Q80">
-        <v>198.8</v>
+        <v>201.6</v>
       </c>
       <c r="R80">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="81" spans="1:19">
@@ -5223,7 +5238,7 @@
         <v>9902.200000000001</v>
       </c>
       <c r="J81">
-        <v>1400.5</v>
+        <v>1404.9</v>
       </c>
       <c r="L81">
         <v>1343.87</v>
@@ -5235,13 +5250,13 @@
         <v>0</v>
       </c>
       <c r="P81">
-        <v>-98.7</v>
+        <v>-67.90000000000001</v>
       </c>
       <c r="Q81">
-        <v>-98.7</v>
+        <v>-67.90000000000001</v>
       </c>
       <c r="R81">
-        <v>-1</v>
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:19">
@@ -5273,7 +5288,7 @@
         <v>9773.299999999999</v>
       </c>
       <c r="J82">
-        <v>315.85</v>
+        <v>324.45</v>
       </c>
       <c r="L82">
         <v>301.82</v>
@@ -5285,13 +5300,13 @@
         <v>488.6650000000001</v>
       </c>
       <c r="P82">
-        <v>482.8</v>
+        <v>629</v>
       </c>
       <c r="Q82">
-        <v>971.47</v>
+        <v>1117.66</v>
       </c>
       <c r="R82">
-        <v>9.94</v>
+        <v>11.44</v>
       </c>
       <c r="S82" t="s">
         <v>50</v>
@@ -5326,7 +5341,7 @@
         <v>9485.6</v>
       </c>
       <c r="J83">
-        <v>619.05</v>
+        <v>609.8</v>
       </c>
       <c r="L83">
         <v>563.21</v>
@@ -5338,13 +5353,13 @@
         <v>0</v>
       </c>
       <c r="P83">
-        <v>419.2</v>
+        <v>271.2</v>
       </c>
       <c r="Q83">
-        <v>419.2</v>
+        <v>271.2</v>
       </c>
       <c r="R83">
-        <v>4.42</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="84" spans="1:19">
@@ -5376,7 +5391,7 @@
         <v>9114.75</v>
       </c>
       <c r="J84">
-        <v>1021.05</v>
+        <v>1012.95</v>
       </c>
       <c r="L84">
         <v>962.11</v>
@@ -5388,13 +5403,13 @@
         <v>0</v>
       </c>
       <c r="P84">
-        <v>74.7</v>
+        <v>1.8</v>
       </c>
       <c r="Q84">
-        <v>74.7</v>
+        <v>1.8</v>
       </c>
       <c r="R84">
-        <v>0.82</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="85" spans="1:19">
@@ -5426,7 +5441,7 @@
         <v>9588.799999999999</v>
       </c>
       <c r="J85">
-        <v>2416.4</v>
+        <v>2394.9</v>
       </c>
       <c r="L85">
         <v>2277.34</v>
@@ -5438,13 +5453,13 @@
         <v>0</v>
       </c>
       <c r="P85">
-        <v>76.8</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="Q85">
-        <v>76.8</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="R85">
-        <v>0.8</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="86" spans="1:19">
@@ -5476,7 +5491,7 @@
         <v>9589.85</v>
       </c>
       <c r="J86">
-        <v>423.6</v>
+        <v>420.6</v>
       </c>
       <c r="L86">
         <v>396.1</v>
@@ -5488,13 +5503,13 @@
         <v>0</v>
       </c>
       <c r="P86">
-        <v>152.95</v>
+        <v>83.95</v>
       </c>
       <c r="Q86">
-        <v>152.95</v>
+        <v>83.95</v>
       </c>
       <c r="R86">
-        <v>1.59</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="87" spans="1:19">
@@ -5526,7 +5541,7 @@
         <v>8993.6</v>
       </c>
       <c r="J87">
-        <v>1306.5</v>
+        <v>1319.3</v>
       </c>
       <c r="L87">
         <v>1220.56</v>
@@ -5538,13 +5553,13 @@
         <v>0</v>
       </c>
       <c r="P87">
-        <v>151.9</v>
+        <v>241.5</v>
       </c>
       <c r="Q87">
-        <v>151.9</v>
+        <v>241.5</v>
       </c>
       <c r="R87">
-        <v>1.69</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="88" spans="1:19">
@@ -5588,7 +5603,7 @@
         <v>4673.05</v>
       </c>
       <c r="N88" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O88">
         <v>-491.8999999999997</v>
@@ -5632,7 +5647,7 @@
         <v>9791.1</v>
       </c>
       <c r="J89">
-        <v>937.4</v>
+        <v>941.3</v>
       </c>
       <c r="L89">
         <v>845.6</v>
@@ -5644,13 +5659,13 @@
         <v>0</v>
       </c>
       <c r="P89">
-        <v>520.3</v>
+        <v>563.2</v>
       </c>
       <c r="Q89">
-        <v>520.3</v>
+        <v>563.2</v>
       </c>
       <c r="R89">
-        <v>5.31</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="90" spans="1:19">
@@ -5682,7 +5697,7 @@
         <v>9117.200000000001</v>
       </c>
       <c r="J90">
-        <v>2374.9</v>
+        <v>2383.3</v>
       </c>
       <c r="L90">
         <v>2165.34</v>
@@ -5694,13 +5709,13 @@
         <v>0</v>
       </c>
       <c r="P90">
-        <v>382.4</v>
+        <v>416</v>
       </c>
       <c r="Q90">
-        <v>382.4</v>
+        <v>416</v>
       </c>
       <c r="R90">
-        <v>4.19</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="91" spans="1:19">
@@ -5732,7 +5747,7 @@
         <v>9723.450000000001</v>
       </c>
       <c r="J91">
-        <v>307.25</v>
+        <v>303.25</v>
       </c>
       <c r="L91">
         <v>279.92</v>
@@ -5744,13 +5759,13 @@
         <v>0</v>
       </c>
       <c r="P91">
-        <v>415.8</v>
+        <v>283.8</v>
       </c>
       <c r="Q91">
-        <v>415.8</v>
+        <v>283.8</v>
       </c>
       <c r="R91">
-        <v>4.28</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="92" spans="1:19">
@@ -5794,7 +5809,7 @@
         <v>714.75</v>
       </c>
       <c r="N92" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O92">
         <v>-653.8999999999994</v>
@@ -5838,7 +5853,7 @@
         <v>9961.9</v>
       </c>
       <c r="J93">
-        <v>130.54</v>
+        <v>130.48</v>
       </c>
       <c r="L93">
         <v>119.79</v>
@@ -5850,13 +5865,13 @@
         <v>0</v>
       </c>
       <c r="P93">
-        <v>350.76</v>
+        <v>346.02</v>
       </c>
       <c r="Q93">
-        <v>350.76</v>
+        <v>346.02</v>
       </c>
       <c r="R93">
-        <v>3.52</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="94" spans="1:19">
@@ -5888,7 +5903,7 @@
         <v>9935.1</v>
       </c>
       <c r="J94">
-        <v>183.03</v>
+        <v>186.47</v>
       </c>
       <c r="L94">
         <v>165.59</v>
@@ -5900,13 +5915,13 @@
         <v>0</v>
       </c>
       <c r="P94">
-        <v>497.61</v>
+        <v>693.6900000000001</v>
       </c>
       <c r="Q94">
-        <v>497.61</v>
+        <v>693.6900000000001</v>
       </c>
       <c r="R94">
-        <v>5.01</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="95" spans="1:19">
@@ -5938,7 +5953,7 @@
         <v>9962.25</v>
       </c>
       <c r="J95">
-        <v>668.25</v>
+        <v>674.55</v>
       </c>
       <c r="L95">
         <v>630.9400000000001</v>
@@ -5950,13 +5965,13 @@
         <v>0</v>
       </c>
       <c r="P95">
-        <v>61.5</v>
+        <v>156</v>
       </c>
       <c r="Q95">
-        <v>61.5</v>
+        <v>156</v>
       </c>
       <c r="R95">
-        <v>0.62</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="96" spans="1:19">
@@ -5988,7 +6003,7 @@
         <v>9906.1</v>
       </c>
       <c r="J96">
-        <v>424.95</v>
+        <v>424.55</v>
       </c>
       <c r="L96">
         <v>409.16</v>
@@ -6000,13 +6015,13 @@
         <v>0</v>
       </c>
       <c r="P96">
-        <v>-132.25</v>
+        <v>-141.45</v>
       </c>
       <c r="Q96">
-        <v>-132.25</v>
+        <v>-141.45</v>
       </c>
       <c r="R96">
-        <v>-1.34</v>
+        <v>-1.43</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6038,7 +6053,7 @@
         <v>9424</v>
       </c>
       <c r="J97">
-        <v>1172.3</v>
+        <v>1159.5</v>
       </c>
       <c r="L97">
         <v>1119.1</v>
@@ -6050,13 +6065,13 @@
         <v>0</v>
       </c>
       <c r="P97">
-        <v>-45.6</v>
+        <v>-148</v>
       </c>
       <c r="Q97">
-        <v>-45.6</v>
+        <v>-148</v>
       </c>
       <c r="R97">
-        <v>-0.48</v>
+        <v>-1.57</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6088,7 +6103,7 @@
         <v>9911.85</v>
       </c>
       <c r="J98">
-        <v>438.6</v>
+        <v>433.5</v>
       </c>
       <c r="L98">
         <v>409.4</v>
@@ -6100,13 +6115,13 @@
         <v>0</v>
       </c>
       <c r="P98">
-        <v>175.95</v>
+        <v>58.65</v>
       </c>
       <c r="Q98">
-        <v>175.95</v>
+        <v>58.65</v>
       </c>
       <c r="R98">
-        <v>1.78</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6138,7 +6153,7 @@
         <v>7862.6</v>
       </c>
       <c r="J99">
-        <v>3922</v>
+        <v>3856</v>
       </c>
       <c r="L99">
         <v>3734.74</v>
@@ -6150,13 +6165,13 @@
         <v>0</v>
       </c>
       <c r="P99">
-        <v>-18.6</v>
+        <v>-150.6</v>
       </c>
       <c r="Q99">
-        <v>-18.6</v>
+        <v>-150.6</v>
       </c>
       <c r="R99">
-        <v>-0.24</v>
+        <v>-1.92</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6188,7 +6203,7 @@
         <v>5737.5</v>
       </c>
       <c r="J100">
-        <v>5737.5</v>
+        <v>5787</v>
       </c>
       <c r="L100">
         <v>5450.62</v>
@@ -6200,13 +6215,13 @@
         <v>0</v>
       </c>
       <c r="P100">
-        <v>0</v>
+        <v>49.5</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>49.5</v>
       </c>
       <c r="R100">
-        <v>0</v>
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>

--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="136">
   <si>
     <t>Buy Date</t>
   </si>
@@ -169,6 +169,9 @@
     <t>2026-02-25</t>
   </si>
   <si>
+    <t>2026-02-27</t>
+  </si>
+  <si>
     <t>ADANIENT</t>
   </si>
   <si>
@@ -371,6 +374,12 @@
   </si>
   <si>
     <t>KOTAKBANK</t>
+  </si>
+  <si>
+    <t>AMBUJACEM</t>
+  </si>
+  <si>
+    <t>AUBANK</t>
   </si>
   <si>
     <t>Value Buy</t>
@@ -776,7 +785,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S100"/>
+  <dimension ref="A1:S104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -856,13 +865,13 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -892,7 +901,7 @@
         <v>2093.04</v>
       </c>
       <c r="N2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O2">
         <v>-440.6399999999994</v>
@@ -912,13 +921,13 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -936,7 +945,7 @@
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1395.5</v>
+        <v>1383.9</v>
       </c>
       <c r="L3">
         <v>1293.6</v>
@@ -948,13 +957,13 @@
         <v>492.8000000000002</v>
       </c>
       <c r="P3">
-        <v>654</v>
+        <v>607.6</v>
       </c>
       <c r="Q3">
-        <v>1146.8</v>
+        <v>1100.4</v>
       </c>
       <c r="R3">
-        <v>11.64</v>
+        <v>11.16</v>
       </c>
       <c r="S3" t="s">
         <v>34</v>
@@ -965,13 +974,13 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1001,7 +1010,7 @@
         <v>5739.43</v>
       </c>
       <c r="N4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O4">
         <v>-302.0699999999997</v>
@@ -1021,13 +1030,13 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1045,7 +1054,7 @@
         <v>8527.200000000001</v>
       </c>
       <c r="J5">
-        <v>2863.5</v>
+        <v>2799.8</v>
       </c>
       <c r="L5">
         <v>2700.28</v>
@@ -1057,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>63.3</v>
+        <v>-127.8</v>
       </c>
       <c r="Q5">
-        <v>63.3</v>
+        <v>-127.8</v>
       </c>
       <c r="R5">
-        <v>0.74</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1071,13 +1080,13 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1107,7 +1116,7 @@
         <v>2293.3</v>
       </c>
       <c r="N6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1127,13 +1136,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1151,7 +1160,7 @@
         <v>8960</v>
       </c>
       <c r="J7">
-        <v>1318</v>
+        <v>1291.7</v>
       </c>
       <c r="L7">
         <v>1216</v>
@@ -1163,13 +1172,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>266</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="Q7">
-        <v>266</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="R7">
-        <v>2.97</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1177,13 +1186,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1213,7 +1222,7 @@
         <v>3066.4</v>
       </c>
       <c r="N8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O8">
         <v>-522.8999999999992</v>
@@ -1233,13 +1242,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1269,7 +1278,7 @@
         <v>2901.59</v>
       </c>
       <c r="N9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O9">
         <v>-458.1300000000001</v>
@@ -1289,13 +1298,13 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1325,7 +1334,7 @@
         <v>2922.11</v>
       </c>
       <c r="N10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O10">
         <v>-461.3699999999999</v>
@@ -1345,13 +1354,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1372,7 +1381,7 @@
         <v>183.56</v>
       </c>
       <c r="K11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L11">
         <v>180.92</v>
@@ -1381,7 +1390,7 @@
         <v>180.92</v>
       </c>
       <c r="N11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O11">
         <v>749.6499999999999</v>
@@ -1396,7 +1405,7 @@
         <v>7.5</v>
       </c>
       <c r="S11" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1404,13 +1413,13 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1440,7 +1449,7 @@
         <v>1651</v>
       </c>
       <c r="N12" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O12">
         <v>599.5200000000004</v>
@@ -1463,13 +1472,13 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1499,7 +1508,7 @@
         <v>732.4</v>
       </c>
       <c r="N13" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O13">
         <v>-462.6000000000008</v>
@@ -1519,13 +1528,13 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1555,7 +1564,7 @@
         <v>651.2</v>
       </c>
       <c r="N14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1575,13 +1584,13 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1611,7 +1620,7 @@
         <v>1135.44</v>
       </c>
       <c r="N15" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O15">
         <v>-478.0799999999999</v>
@@ -1631,13 +1640,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D16" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1667,7 +1676,7 @@
         <v>5731.82</v>
       </c>
       <c r="N16" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O16">
         <v>-301.6800000000003</v>
@@ -1687,13 +1696,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D17" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1711,7 +1720,7 @@
         <v>9282</v>
       </c>
       <c r="J17">
-        <v>10110</v>
+        <v>9972.5</v>
       </c>
       <c r="L17">
         <v>9282</v>
@@ -1723,13 +1732,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>828</v>
+        <v>690.5</v>
       </c>
       <c r="Q17">
-        <v>828</v>
+        <v>690.5</v>
       </c>
       <c r="R17">
-        <v>8.92</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1737,13 +1746,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1773,7 +1782,7 @@
         <v>282.8</v>
       </c>
       <c r="N18" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1793,13 +1802,13 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1829,7 +1838,7 @@
         <v>1342.35</v>
       </c>
       <c r="N19" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O19">
         <v>-494.5500000000006</v>
@@ -1849,13 +1858,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1885,7 +1894,7 @@
         <v>5425.45</v>
       </c>
       <c r="N20" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O20">
         <v>-285.5500000000002</v>
@@ -1905,13 +1914,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D21" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1932,7 +1941,7 @@
         <v>132.36</v>
       </c>
       <c r="K21" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L21">
         <v>128.5</v>
@@ -1941,7 +1950,7 @@
         <v>128.499</v>
       </c>
       <c r="N21" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O21">
         <v>495.639</v>
@@ -1961,13 +1970,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1988,7 +1997,7 @@
         <v>4021.8</v>
       </c>
       <c r="K22" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L22">
         <v>3974.1</v>
@@ -1997,7 +2006,7 @@
         <v>3974.1</v>
       </c>
       <c r="N22" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -2017,13 +2026,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2053,7 +2062,7 @@
         <v>972.9400000000001</v>
       </c>
       <c r="N23" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O23">
         <v>-460.8900000000003</v>
@@ -2073,13 +2082,13 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2109,7 +2118,7 @@
         <v>158.14</v>
       </c>
       <c r="N24" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O24">
         <v>-499.2000000000013</v>
@@ -2129,13 +2138,13 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D25" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2165,7 +2174,7 @@
         <v>1001.11</v>
       </c>
       <c r="N25" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O25">
         <v>-474.2099999999995</v>
@@ -2185,13 +2194,13 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D26" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2212,7 +2221,7 @@
         <v>267.45</v>
       </c>
       <c r="K26" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L26">
         <v>253.98</v>
@@ -2221,7 +2230,7 @@
         <v>252</v>
       </c>
       <c r="N26" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O26">
         <v>-567.9500000000008</v>
@@ -2241,13 +2250,13 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D27" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2277,7 +2286,7 @@
         <v>951.52</v>
       </c>
       <c r="N27" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O27">
         <v>-450.7200000000004</v>
@@ -2297,13 +2306,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2333,7 +2342,7 @@
         <v>1880.9</v>
       </c>
       <c r="N28" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O28">
         <v>-495</v>
@@ -2353,13 +2362,13 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D29" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2389,7 +2398,7 @@
         <v>854</v>
       </c>
       <c r="N29" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O29">
         <v>-523.0499999999995</v>
@@ -2409,13 +2418,13 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D30" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2445,7 +2454,7 @@
         <v>6310.38</v>
       </c>
       <c r="N30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O30">
         <v>-332.1199999999999</v>
@@ -2465,13 +2474,13 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2492,7 +2501,7 @@
         <v>546.75</v>
       </c>
       <c r="K31" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L31">
         <v>541.83</v>
@@ -2501,7 +2510,7 @@
         <v>541.83</v>
       </c>
       <c r="N31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O31">
         <v>-484.8399999999997</v>
@@ -2521,13 +2530,13 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D32" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2557,7 +2566,7 @@
         <v>738.96</v>
       </c>
       <c r="N32" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O32">
         <v>-466.6799999999998</v>
@@ -2577,13 +2586,13 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D33" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2613,7 +2622,7 @@
         <v>637.64</v>
       </c>
       <c r="N33" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O33">
         <v>-469.8400000000008</v>
@@ -2633,13 +2642,13 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D34" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2660,7 +2669,7 @@
         <v>1728.7</v>
       </c>
       <c r="K34" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L34">
         <v>1693.47</v>
@@ -2669,7 +2678,7 @@
         <v>1693.47</v>
       </c>
       <c r="N34" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O34">
         <v>-445.6499999999994</v>
@@ -2689,13 +2698,13 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2716,7 +2725,7 @@
         <v>414.55</v>
       </c>
       <c r="K35" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L35">
         <v>409.31</v>
@@ -2725,7 +2734,7 @@
         <v>409.31</v>
       </c>
       <c r="N35" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O35">
         <v>-495.4200000000005</v>
@@ -2745,13 +2754,13 @@
         <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2781,7 +2790,7 @@
         <v>4769.95</v>
       </c>
       <c r="N36" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O36">
         <v>-251.0500000000001</v>
@@ -2801,13 +2810,13 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D37" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2837,7 +2846,7 @@
         <v>109.86</v>
       </c>
       <c r="N37" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O37">
         <v>-497.0800000000001</v>
@@ -2857,13 +2866,13 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D38" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -2893,7 +2902,7 @@
         <v>439.27</v>
       </c>
       <c r="N38" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O38">
         <v>711.2249999999999</v>
@@ -2916,13 +2925,13 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D39" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2952,7 +2961,7 @@
         <v>260.54</v>
       </c>
       <c r="N39" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O39">
         <v>-493.5599999999993</v>
@@ -2972,13 +2981,13 @@
         <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C40" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D40" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -3008,7 +3017,7 @@
         <v>1578.33</v>
       </c>
       <c r="N40" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O40">
         <v>-498.420000000001</v>
@@ -3028,13 +3037,13 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D41" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -3064,7 +3073,7 @@
         <v>2751.58</v>
       </c>
       <c r="N41" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O41">
         <v>-434.4600000000005</v>
@@ -3084,13 +3093,13 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D42" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3111,7 +3120,7 @@
         <v>1375.8</v>
       </c>
       <c r="K42" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L42">
         <v>1342.44</v>
@@ -3120,7 +3129,7 @@
         <v>1342.44</v>
       </c>
       <c r="N42" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O42">
         <v>-494.619999999999</v>
@@ -3140,13 +3149,13 @@
         <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C43" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D43" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3167,7 +3176,7 @@
         <v>4056.4</v>
       </c>
       <c r="K43" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L43">
         <v>3853.58</v>
@@ -3176,7 +3185,7 @@
         <v>3853.58</v>
       </c>
       <c r="N43" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O43">
         <v>-405.6400000000003</v>
@@ -3196,13 +3205,13 @@
         <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D44" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3220,7 +3229,7 @@
         <v>9686.25</v>
       </c>
       <c r="J44">
-        <v>386</v>
+        <v>385.4</v>
       </c>
       <c r="L44">
         <v>358.75</v>
@@ -3232,13 +3241,13 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>735.75</v>
+        <v>719.55</v>
       </c>
       <c r="Q44">
-        <v>735.75</v>
+        <v>719.55</v>
       </c>
       <c r="R44">
-        <v>7.6</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -3246,13 +3255,13 @@
         <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C45" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D45" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3282,7 +3291,7 @@
         <v>1574</v>
       </c>
       <c r="N45" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O45">
         <v>-578.9999999999998</v>
@@ -3302,13 +3311,13 @@
         <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C46" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D46" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -3355,13 +3364,13 @@
         <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D47" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3391,7 +3400,7 @@
         <v>2947.18</v>
       </c>
       <c r="N47" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O47">
         <v>-465.360000000001</v>
@@ -3411,13 +3420,13 @@
         <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D48" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3435,7 +3444,7 @@
         <v>7448.2</v>
       </c>
       <c r="J48">
-        <v>3865.6</v>
+        <v>3847.6</v>
       </c>
       <c r="L48">
         <v>3724.1</v>
@@ -3447,13 +3456,13 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="Q48">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="R48">
-        <v>3.8</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -3461,13 +3470,13 @@
         <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D49" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -3497,7 +3506,7 @@
         <v>3074.61</v>
       </c>
       <c r="N49" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O49">
         <v>585.6400000000008</v>
@@ -3520,13 +3529,13 @@
         <v>32</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D50" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3556,7 +3565,7 @@
         <v>1982.08</v>
       </c>
       <c r="N50" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O50">
         <v>-417.2800000000007</v>
@@ -3576,13 +3585,13 @@
         <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C51" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D51" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3612,7 +3621,7 @@
         <v>520.6</v>
       </c>
       <c r="N51" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O51">
         <v>-493.1999999999996</v>
@@ -3632,13 +3641,13 @@
         <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C52" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D52" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E52">
         <v>3</v>
@@ -3668,7 +3677,7 @@
         <v>466.6</v>
       </c>
       <c r="N52" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O52">
         <v>1137.180000000001</v>
@@ -3691,13 +3700,13 @@
         <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D53" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3727,7 +3736,7 @@
         <v>185.38</v>
       </c>
       <c r="N53" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O53">
         <v>-118.190000000001</v>
@@ -3747,13 +3756,13 @@
         <v>34</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C54" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D54" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -3783,7 +3792,7 @@
         <v>4173.96</v>
       </c>
       <c r="N54" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O54">
         <v>596.2800000000007</v>
@@ -3806,13 +3815,13 @@
         <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C55" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D55" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -3830,7 +3839,7 @@
         <v>9973.5</v>
       </c>
       <c r="J55">
-        <v>2216.4</v>
+        <v>2161.8</v>
       </c>
       <c r="L55">
         <v>2094.43</v>
@@ -3842,13 +3851,13 @@
         <v>398.9400000000001</v>
       </c>
       <c r="P55">
-        <v>665.1</v>
+        <v>501.3</v>
       </c>
       <c r="Q55">
-        <v>1064.04</v>
+        <v>900.24</v>
       </c>
       <c r="R55">
-        <v>10.67</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="S55" t="s">
         <v>38</v>
@@ -3859,13 +3868,13 @@
         <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C56" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D56" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3895,7 +3904,7 @@
         <v>814.2</v>
       </c>
       <c r="N56" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O56">
         <v>-490.599999999999</v>
@@ -3915,13 +3924,13 @@
         <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C57" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D57" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3942,7 +3951,7 @@
         <v>611.2</v>
       </c>
       <c r="K57" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L57">
         <v>606.62</v>
@@ -3951,16 +3960,16 @@
         <v>606.62</v>
       </c>
       <c r="N57" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O57">
-        <v>-478.9499999999992</v>
+        <v>-478.9499999999993</v>
       </c>
       <c r="P57">
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>-478.9499999999992</v>
+        <v>-478.9499999999993</v>
       </c>
       <c r="R57">
         <v>-5</v>
@@ -3971,13 +3980,13 @@
         <v>36</v>
       </c>
       <c r="B58" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D58" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -4007,7 +4016,7 @@
         <v>922.92</v>
       </c>
       <c r="N58" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O58">
         <v>-485.8000000000004</v>
@@ -4027,13 +4036,13 @@
         <v>37</v>
       </c>
       <c r="B59" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C59" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D59" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -4063,7 +4072,7 @@
         <v>172.84</v>
       </c>
       <c r="N59" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O59">
         <v>740.73</v>
@@ -4086,13 +4095,13 @@
         <v>37</v>
       </c>
       <c r="B60" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C60" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D60" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -4110,7 +4119,7 @@
         <v>9944.179999999998</v>
       </c>
       <c r="J60">
-        <v>169.96</v>
+        <v>169.53</v>
       </c>
       <c r="L60">
         <v>152.37</v>
@@ -4122,13 +4131,13 @@
         <v>0</v>
       </c>
       <c r="P60">
-        <v>593.34</v>
+        <v>566.6799999999999</v>
       </c>
       <c r="Q60">
-        <v>593.34</v>
+        <v>566.6799999999999</v>
       </c>
       <c r="R60">
-        <v>5.97</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -4136,13 +4145,13 @@
         <v>37</v>
       </c>
       <c r="B61" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C61" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D61" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E61">
         <v>2</v>
@@ -4160,7 +4169,7 @@
         <v>9933</v>
       </c>
       <c r="J61">
-        <v>498.65</v>
+        <v>487.75</v>
       </c>
       <c r="L61">
         <v>474.08</v>
@@ -4172,13 +4181,13 @@
         <v>496.6500000000004</v>
       </c>
       <c r="P61">
-        <v>518.65</v>
+        <v>398.75</v>
       </c>
       <c r="Q61">
-        <v>1015.3</v>
+        <v>895.4</v>
       </c>
       <c r="R61">
-        <v>10.22</v>
+        <v>9.01</v>
       </c>
       <c r="S61" t="s">
         <v>48</v>
@@ -4189,13 +4198,13 @@
         <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C62" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D62" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E62">
         <v>3</v>
@@ -4225,7 +4234,7 @@
         <v>967.15</v>
       </c>
       <c r="N62" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O62">
         <v>1167.96</v>
@@ -4240,7 +4249,7 @@
         <v>12.58</v>
       </c>
       <c r="S62" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -4248,13 +4257,13 @@
         <v>38</v>
       </c>
       <c r="B63" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C63" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D63" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -4284,7 +4293,7 @@
         <v>116.49</v>
       </c>
       <c r="N63" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O63">
         <v>-496.5300000000008</v>
@@ -4304,13 +4313,13 @@
         <v>38</v>
       </c>
       <c r="B64" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C64" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D64" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -4340,7 +4349,7 @@
         <v>412.3</v>
       </c>
       <c r="N64" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O64">
         <v>-497.1999999999993</v>
@@ -4360,13 +4369,13 @@
         <v>38</v>
       </c>
       <c r="B65" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C65" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D65" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -4384,7 +4393,7 @@
         <v>9407.4</v>
       </c>
       <c r="J65">
-        <v>1550.6</v>
+        <v>1521</v>
       </c>
       <c r="L65">
         <v>1489.51</v>
@@ -4396,13 +4405,13 @@
         <v>0</v>
       </c>
       <c r="P65">
-        <v>-103.8</v>
+        <v>-281.4</v>
       </c>
       <c r="Q65">
-        <v>-103.8</v>
+        <v>-281.4</v>
       </c>
       <c r="R65">
-        <v>-1.1</v>
+        <v>-2.99</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4410,13 +4419,13 @@
         <v>38</v>
       </c>
       <c r="B66" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C66" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D66" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -4434,7 +4443,7 @@
         <v>9877.15</v>
       </c>
       <c r="J66">
-        <v>280.1</v>
+        <v>279.7</v>
       </c>
       <c r="L66">
         <v>253.6</v>
@@ -4446,13 +4455,13 @@
         <v>0</v>
       </c>
       <c r="P66">
-        <v>486.55</v>
+        <v>471.75</v>
       </c>
       <c r="Q66">
-        <v>486.55</v>
+        <v>471.75</v>
       </c>
       <c r="R66">
-        <v>4.93</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4460,13 +4469,13 @@
         <v>38</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D67" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -4496,7 +4505,7 @@
         <v>5558.93</v>
       </c>
       <c r="N67" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O67">
         <v>-292.5699999999997</v>
@@ -4516,13 +4525,13 @@
         <v>38</v>
       </c>
       <c r="B68" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C68" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D68" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -4552,7 +4561,7 @@
         <v>456.1</v>
       </c>
       <c r="N68" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O68">
         <v>-480</v>
@@ -4572,13 +4581,13 @@
         <v>38</v>
       </c>
       <c r="B69" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C69" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D69" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -4599,7 +4608,7 @@
         <v>1754.5</v>
       </c>
       <c r="K69" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L69">
         <v>1652.52</v>
@@ -4608,7 +4617,7 @@
         <v>1652.52</v>
       </c>
       <c r="N69" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O69">
         <v>-434.9000000000001</v>
@@ -4628,13 +4637,13 @@
         <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C70" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D70" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -4664,7 +4673,7 @@
         <v>4850</v>
       </c>
       <c r="N70" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O70">
         <v>-348.5</v>
@@ -4684,13 +4693,13 @@
         <v>39</v>
       </c>
       <c r="B71" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C71" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D71" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -4708,7 +4717,7 @@
         <v>9785.75</v>
       </c>
       <c r="J71">
-        <v>805.75</v>
+        <v>788.65</v>
       </c>
       <c r="L71">
         <v>752.75</v>
@@ -4720,13 +4729,13 @@
         <v>0</v>
       </c>
       <c r="P71">
-        <v>689</v>
+        <v>466.7</v>
       </c>
       <c r="Q71">
-        <v>689</v>
+        <v>466.7</v>
       </c>
       <c r="R71">
-        <v>7.04</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -4734,13 +4743,13 @@
         <v>40</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C72" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D72" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -4758,7 +4767,7 @@
         <v>9952.799999999999</v>
       </c>
       <c r="J72">
-        <v>135.31</v>
+        <v>133.34</v>
       </c>
       <c r="L72">
         <v>124.41</v>
@@ -4770,13 +4779,13 @@
         <v>0</v>
       </c>
       <c r="P72">
-        <v>872</v>
+        <v>714.4</v>
       </c>
       <c r="Q72">
-        <v>872</v>
+        <v>714.4</v>
       </c>
       <c r="R72">
-        <v>8.76</v>
+        <v>7.18</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -4784,13 +4793,13 @@
         <v>40</v>
       </c>
       <c r="B73" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C73" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D73" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -4820,7 +4829,7 @@
         <v>1540.62</v>
       </c>
       <c r="N73" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O73">
         <v>-486.4800000000009</v>
@@ -4840,13 +4849,13 @@
         <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C74" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D74" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -4876,7 +4885,7 @@
         <v>261.9</v>
       </c>
       <c r="N74" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O74">
         <v>-511.2000000000016</v>
@@ -4896,13 +4905,13 @@
         <v>41</v>
       </c>
       <c r="B75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C75" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D75" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -4932,7 +4941,7 @@
         <v>141.6</v>
       </c>
       <c r="N75" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O75">
         <v>-499.1500000000011</v>
@@ -4952,13 +4961,13 @@
         <v>41</v>
       </c>
       <c r="B76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C76" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D76" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -4988,7 +4997,7 @@
         <v>1134.58</v>
       </c>
       <c r="N76" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O76">
         <v>-477.7600000000002</v>
@@ -5008,13 +5017,13 @@
         <v>41</v>
       </c>
       <c r="B77" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C77" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D77" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -5044,7 +5053,7 @@
         <v>2835.37</v>
       </c>
       <c r="N77" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O77">
         <v>-447.6900000000001</v>
@@ -5064,13 +5073,13 @@
         <v>42</v>
       </c>
       <c r="B78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C78" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D78" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -5088,7 +5097,7 @@
         <v>6019</v>
       </c>
       <c r="J78">
-        <v>6137</v>
+        <v>6002.5</v>
       </c>
       <c r="L78">
         <v>5718.05</v>
@@ -5100,13 +5109,13 @@
         <v>0</v>
       </c>
       <c r="P78">
-        <v>118</v>
+        <v>-16.5</v>
       </c>
       <c r="Q78">
-        <v>118</v>
+        <v>-16.5</v>
       </c>
       <c r="R78">
-        <v>1.96</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5114,13 +5123,13 @@
         <v>43</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D79" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -5138,7 +5147,7 @@
         <v>9647.1</v>
       </c>
       <c r="J79">
-        <v>516.1</v>
+        <v>512</v>
       </c>
       <c r="L79">
         <v>509.15</v>
@@ -5150,13 +5159,13 @@
         <v>0</v>
       </c>
       <c r="P79">
-        <v>-357.3</v>
+        <v>-431.1</v>
       </c>
       <c r="Q79">
-        <v>-357.3</v>
+        <v>-431.1</v>
       </c>
       <c r="R79">
-        <v>-3.7</v>
+        <v>-4.47</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5164,13 +5173,13 @@
         <v>44</v>
       </c>
       <c r="B80" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C80" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D80" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -5188,7 +5197,7 @@
         <v>9713.200000000001</v>
       </c>
       <c r="J80">
-        <v>354.1</v>
+        <v>349.8</v>
       </c>
       <c r="L80">
         <v>329.55</v>
@@ -5200,13 +5209,13 @@
         <v>0</v>
       </c>
       <c r="P80">
-        <v>201.6</v>
+        <v>81.2</v>
       </c>
       <c r="Q80">
-        <v>201.6</v>
+        <v>81.2</v>
       </c>
       <c r="R80">
-        <v>2.08</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="81" spans="1:19">
@@ -5214,13 +5223,13 @@
         <v>44</v>
       </c>
       <c r="B81" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C81" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D81" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -5238,7 +5247,7 @@
         <v>9902.200000000001</v>
       </c>
       <c r="J81">
-        <v>1404.9</v>
+        <v>1378.9</v>
       </c>
       <c r="L81">
         <v>1343.87</v>
@@ -5250,13 +5259,13 @@
         <v>0</v>
       </c>
       <c r="P81">
-        <v>-67.90000000000001</v>
+        <v>-249.9</v>
       </c>
       <c r="Q81">
-        <v>-67.90000000000001</v>
+        <v>-249.9</v>
       </c>
       <c r="R81">
-        <v>-0.6899999999999999</v>
+        <v>-2.52</v>
       </c>
     </row>
     <row r="82" spans="1:19">
@@ -5264,13 +5273,13 @@
         <v>44</v>
       </c>
       <c r="B82" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C82" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D82" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E82">
         <v>2</v>
@@ -5288,7 +5297,7 @@
         <v>9773.299999999999</v>
       </c>
       <c r="J82">
-        <v>324.45</v>
+        <v>321.95</v>
       </c>
       <c r="L82">
         <v>301.82</v>
@@ -5300,13 +5309,13 @@
         <v>488.6650000000001</v>
       </c>
       <c r="P82">
-        <v>629</v>
+        <v>586.5</v>
       </c>
       <c r="Q82">
-        <v>1117.66</v>
+        <v>1075.16</v>
       </c>
       <c r="R82">
-        <v>11.44</v>
+        <v>11</v>
       </c>
       <c r="S82" t="s">
         <v>50</v>
@@ -5317,13 +5326,13 @@
         <v>44</v>
       </c>
       <c r="B83" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C83" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D83" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -5341,7 +5350,7 @@
         <v>9485.6</v>
       </c>
       <c r="J83">
-        <v>609.8</v>
+        <v>603.8</v>
       </c>
       <c r="L83">
         <v>563.21</v>
@@ -5353,13 +5362,13 @@
         <v>0</v>
       </c>
       <c r="P83">
-        <v>271.2</v>
+        <v>175.2</v>
       </c>
       <c r="Q83">
-        <v>271.2</v>
+        <v>175.2</v>
       </c>
       <c r="R83">
-        <v>2.86</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="84" spans="1:19">
@@ -5367,13 +5376,13 @@
         <v>45</v>
       </c>
       <c r="B84" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C84" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D84" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -5391,7 +5400,7 @@
         <v>9114.75</v>
       </c>
       <c r="J84">
-        <v>1012.95</v>
+        <v>995.9</v>
       </c>
       <c r="L84">
         <v>962.11</v>
@@ -5403,13 +5412,13 @@
         <v>0</v>
       </c>
       <c r="P84">
-        <v>1.8</v>
+        <v>-151.65</v>
       </c>
       <c r="Q84">
-        <v>1.8</v>
+        <v>-151.65</v>
       </c>
       <c r="R84">
-        <v>0.02</v>
+        <v>-1.66</v>
       </c>
     </row>
     <row r="85" spans="1:19">
@@ -5417,13 +5426,13 @@
         <v>45</v>
       </c>
       <c r="B85" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C85" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D85" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -5441,7 +5450,7 @@
         <v>9588.799999999999</v>
       </c>
       <c r="J85">
-        <v>2394.9</v>
+        <v>2376.2</v>
       </c>
       <c r="L85">
         <v>2277.34</v>
@@ -5453,13 +5462,13 @@
         <v>0</v>
       </c>
       <c r="P85">
-        <v>-9.199999999999999</v>
+        <v>-84</v>
       </c>
       <c r="Q85">
-        <v>-9.199999999999999</v>
+        <v>-84</v>
       </c>
       <c r="R85">
-        <v>-0.1</v>
+        <v>-0.88</v>
       </c>
     </row>
     <row r="86" spans="1:19">
@@ -5467,13 +5476,13 @@
         <v>46</v>
       </c>
       <c r="B86" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C86" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D86" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -5491,7 +5500,7 @@
         <v>9589.85</v>
       </c>
       <c r="J86">
-        <v>420.6</v>
+        <v>413.8</v>
       </c>
       <c r="L86">
         <v>396.1</v>
@@ -5503,13 +5512,13 @@
         <v>0</v>
       </c>
       <c r="P86">
-        <v>83.95</v>
+        <v>-72.45</v>
       </c>
       <c r="Q86">
-        <v>83.95</v>
+        <v>-72.45</v>
       </c>
       <c r="R86">
-        <v>0.88</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="87" spans="1:19">
@@ -5517,13 +5526,13 @@
         <v>46</v>
       </c>
       <c r="B87" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C87" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D87" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -5541,7 +5550,7 @@
         <v>8993.6</v>
       </c>
       <c r="J87">
-        <v>1319.3</v>
+        <v>1286.3</v>
       </c>
       <c r="L87">
         <v>1220.56</v>
@@ -5553,13 +5562,13 @@
         <v>0</v>
       </c>
       <c r="P87">
-        <v>241.5</v>
+        <v>10.5</v>
       </c>
       <c r="Q87">
-        <v>241.5</v>
+        <v>10.5</v>
       </c>
       <c r="R87">
-        <v>2.69</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="88" spans="1:19">
@@ -5567,13 +5576,13 @@
         <v>46</v>
       </c>
       <c r="B88" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C88" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D88" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -5603,7 +5612,7 @@
         <v>4673.05</v>
       </c>
       <c r="N88" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O88">
         <v>-491.8999999999997</v>
@@ -5623,13 +5632,13 @@
         <v>46</v>
       </c>
       <c r="B89" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C89" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D89" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -5647,7 +5656,7 @@
         <v>9791.1</v>
       </c>
       <c r="J89">
-        <v>941.3</v>
+        <v>924.7</v>
       </c>
       <c r="L89">
         <v>845.6</v>
@@ -5659,13 +5668,13 @@
         <v>0</v>
       </c>
       <c r="P89">
-        <v>563.2</v>
+        <v>380.6</v>
       </c>
       <c r="Q89">
-        <v>563.2</v>
+        <v>380.6</v>
       </c>
       <c r="R89">
-        <v>5.75</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="90" spans="1:19">
@@ -5673,13 +5682,13 @@
         <v>47</v>
       </c>
       <c r="B90" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C90" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D90" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -5697,7 +5706,7 @@
         <v>9117.200000000001</v>
       </c>
       <c r="J90">
-        <v>2383.3</v>
+        <v>2338.1</v>
       </c>
       <c r="L90">
         <v>2165.34</v>
@@ -5709,13 +5718,13 @@
         <v>0</v>
       </c>
       <c r="P90">
-        <v>416</v>
+        <v>235.2</v>
       </c>
       <c r="Q90">
-        <v>416</v>
+        <v>235.2</v>
       </c>
       <c r="R90">
-        <v>4.56</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="91" spans="1:19">
@@ -5723,13 +5732,13 @@
         <v>47</v>
       </c>
       <c r="B91" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C91" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D91" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -5747,7 +5756,7 @@
         <v>9723.450000000001</v>
       </c>
       <c r="J91">
-        <v>303.25</v>
+        <v>298.65</v>
       </c>
       <c r="L91">
         <v>279.92</v>
@@ -5759,13 +5768,13 @@
         <v>0</v>
       </c>
       <c r="P91">
-        <v>283.8</v>
+        <v>132</v>
       </c>
       <c r="Q91">
-        <v>283.8</v>
+        <v>132</v>
       </c>
       <c r="R91">
-        <v>2.92</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="92" spans="1:19">
@@ -5773,13 +5782,13 @@
         <v>47</v>
       </c>
       <c r="B92" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C92" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D92" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -5809,7 +5818,7 @@
         <v>714.75</v>
       </c>
       <c r="N92" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O92">
         <v>-653.8999999999994</v>
@@ -5829,13 +5838,13 @@
         <v>47</v>
       </c>
       <c r="B93" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C93" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D93" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -5853,7 +5862,7 @@
         <v>9961.9</v>
       </c>
       <c r="J93">
-        <v>130.48</v>
+        <v>129.44</v>
       </c>
       <c r="L93">
         <v>119.79</v>
@@ -5865,13 +5874,13 @@
         <v>0</v>
       </c>
       <c r="P93">
-        <v>346.02</v>
+        <v>263.86</v>
       </c>
       <c r="Q93">
-        <v>346.02</v>
+        <v>263.86</v>
       </c>
       <c r="R93">
-        <v>3.47</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="94" spans="1:19">
@@ -5879,16 +5888,16 @@
         <v>47</v>
       </c>
       <c r="B94" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C94" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D94" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
         <v>174.3</v>
@@ -5903,10 +5912,10 @@
         <v>9935.1</v>
       </c>
       <c r="J94">
-        <v>186.47</v>
+        <v>187.47</v>
       </c>
       <c r="L94">
-        <v>165.59</v>
+        <v>174.3</v>
       </c>
       <c r="M94">
         <v>0</v>
@@ -5915,13 +5924,13 @@
         <v>0</v>
       </c>
       <c r="P94">
-        <v>693.6900000000001</v>
+        <v>750.6900000000001</v>
       </c>
       <c r="Q94">
-        <v>693.6900000000001</v>
+        <v>750.6900000000001</v>
       </c>
       <c r="R94">
-        <v>6.98</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="95" spans="1:19">
@@ -5929,13 +5938,13 @@
         <v>48</v>
       </c>
       <c r="B95" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C95" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D95" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -5953,7 +5962,7 @@
         <v>9962.25</v>
       </c>
       <c r="J95">
-        <v>674.55</v>
+        <v>654.5</v>
       </c>
       <c r="L95">
         <v>630.9400000000001</v>
@@ -5965,13 +5974,13 @@
         <v>0</v>
       </c>
       <c r="P95">
-        <v>156</v>
+        <v>-144.75</v>
       </c>
       <c r="Q95">
-        <v>156</v>
+        <v>-144.75</v>
       </c>
       <c r="R95">
-        <v>1.57</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="96" spans="1:19">
@@ -5979,13 +5988,13 @@
         <v>48</v>
       </c>
       <c r="B96" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C96" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D96" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -6003,7 +6012,7 @@
         <v>9906.1</v>
       </c>
       <c r="J96">
-        <v>424.55</v>
+        <v>415.2</v>
       </c>
       <c r="L96">
         <v>409.16</v>
@@ -6015,13 +6024,13 @@
         <v>0</v>
       </c>
       <c r="P96">
-        <v>-141.45</v>
+        <v>-356.5</v>
       </c>
       <c r="Q96">
-        <v>-141.45</v>
+        <v>-356.5</v>
       </c>
       <c r="R96">
-        <v>-1.43</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6029,13 +6038,13 @@
         <v>49</v>
       </c>
       <c r="B97" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C97" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D97" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -6053,7 +6062,7 @@
         <v>9424</v>
       </c>
       <c r="J97">
-        <v>1159.5</v>
+        <v>1141</v>
       </c>
       <c r="L97">
         <v>1119.1</v>
@@ -6065,13 +6074,13 @@
         <v>0</v>
       </c>
       <c r="P97">
-        <v>-148</v>
+        <v>-296</v>
       </c>
       <c r="Q97">
-        <v>-148</v>
+        <v>-296</v>
       </c>
       <c r="R97">
-        <v>-1.57</v>
+        <v>-3.14</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6079,13 +6088,13 @@
         <v>49</v>
       </c>
       <c r="B98" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C98" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D98" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -6103,7 +6112,7 @@
         <v>9911.85</v>
       </c>
       <c r="J98">
-        <v>433.5</v>
+        <v>430.65</v>
       </c>
       <c r="L98">
         <v>409.4</v>
@@ -6115,13 +6124,13 @@
         <v>0</v>
       </c>
       <c r="P98">
-        <v>58.65</v>
+        <v>-6.9</v>
       </c>
       <c r="Q98">
-        <v>58.65</v>
+        <v>-6.9</v>
       </c>
       <c r="R98">
-        <v>0.59</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6129,13 +6138,13 @@
         <v>49</v>
       </c>
       <c r="B99" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C99" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D99" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -6153,7 +6162,7 @@
         <v>7862.6</v>
       </c>
       <c r="J99">
-        <v>3856</v>
+        <v>3899.5</v>
       </c>
       <c r="L99">
         <v>3734.74</v>
@@ -6165,13 +6174,13 @@
         <v>0</v>
       </c>
       <c r="P99">
-        <v>-150.6</v>
+        <v>-63.6</v>
       </c>
       <c r="Q99">
-        <v>-150.6</v>
+        <v>-63.6</v>
       </c>
       <c r="R99">
-        <v>-1.92</v>
+        <v>-0.8100000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6179,13 +6188,13 @@
         <v>50</v>
       </c>
       <c r="B100" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C100" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D100" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -6203,7 +6212,7 @@
         <v>5737.5</v>
       </c>
       <c r="J100">
-        <v>5787</v>
+        <v>5710</v>
       </c>
       <c r="L100">
         <v>5450.62</v>
@@ -6215,13 +6224,213 @@
         <v>0</v>
       </c>
       <c r="P100">
-        <v>49.5</v>
+        <v>-27.5</v>
       </c>
       <c r="Q100">
-        <v>49.5</v>
+        <v>-27.5</v>
       </c>
       <c r="R100">
-        <v>0.86</v>
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
+      <c r="A101" t="s">
+        <v>51</v>
+      </c>
+      <c r="B101" t="s">
+        <v>100</v>
+      </c>
+      <c r="C101" t="s">
+        <v>122</v>
+      </c>
+      <c r="D101" t="s">
+        <v>126</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>988.25</v>
+      </c>
+      <c r="G101">
+        <v>10</v>
+      </c>
+      <c r="H101">
+        <v>10</v>
+      </c>
+      <c r="I101">
+        <v>9882.5</v>
+      </c>
+      <c r="J101">
+        <v>988.25</v>
+      </c>
+      <c r="L101">
+        <v>938.84</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
+      <c r="A102" t="s">
+        <v>51</v>
+      </c>
+      <c r="B102" t="s">
+        <v>120</v>
+      </c>
+      <c r="C102" t="s">
+        <v>122</v>
+      </c>
+      <c r="D102" t="s">
+        <v>126</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>500.4</v>
+      </c>
+      <c r="G102">
+        <v>19</v>
+      </c>
+      <c r="H102">
+        <v>19</v>
+      </c>
+      <c r="I102">
+        <v>9507.6</v>
+      </c>
+      <c r="J102">
+        <v>500.4</v>
+      </c>
+      <c r="L102">
+        <v>475.38</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="R102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
+      <c r="A103" t="s">
+        <v>51</v>
+      </c>
+      <c r="B103" t="s">
+        <v>121</v>
+      </c>
+      <c r="C103" t="s">
+        <v>123</v>
+      </c>
+      <c r="D103" t="s">
+        <v>126</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>958.35</v>
+      </c>
+      <c r="G103">
+        <v>10</v>
+      </c>
+      <c r="H103">
+        <v>10</v>
+      </c>
+      <c r="I103">
+        <v>9583.5</v>
+      </c>
+      <c r="J103">
+        <v>958.35</v>
+      </c>
+      <c r="L103">
+        <v>910.4299999999999</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
+      <c r="A104" t="s">
+        <v>51</v>
+      </c>
+      <c r="B104" t="s">
+        <v>99</v>
+      </c>
+      <c r="C104" t="s">
+        <v>122</v>
+      </c>
+      <c r="D104" t="s">
+        <v>126</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>603.85</v>
+      </c>
+      <c r="G104">
+        <v>16</v>
+      </c>
+      <c r="H104">
+        <v>16</v>
+      </c>
+      <c r="I104">
+        <v>9661.6</v>
+      </c>
+      <c r="J104">
+        <v>603.85</v>
+      </c>
+      <c r="L104">
+        <v>573.66</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Paper Trading Simulator/paper_trade_book.xlsx
+++ b/Paper Trading Simulator/paper_trade_book.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="137">
   <si>
     <t>Buy Date</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>2026-02-27</t>
+  </si>
+  <si>
+    <t>2026-03-02</t>
   </si>
   <si>
     <t>ADANIENT</t>
@@ -785,7 +788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S104"/>
+  <dimension ref="A1:S107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -865,13 +868,13 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -901,7 +904,7 @@
         <v>2093.04</v>
       </c>
       <c r="N2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O2">
         <v>-440.6399999999994</v>
@@ -921,13 +924,13 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -945,7 +948,7 @@
         <v>9856</v>
       </c>
       <c r="J3">
-        <v>1383.9</v>
+        <v>1372.3</v>
       </c>
       <c r="L3">
         <v>1293.6</v>
@@ -957,13 +960,13 @@
         <v>492.8000000000002</v>
       </c>
       <c r="P3">
-        <v>607.6</v>
+        <v>561.2</v>
       </c>
       <c r="Q3">
-        <v>1100.4</v>
+        <v>1054</v>
       </c>
       <c r="R3">
-        <v>11.16</v>
+        <v>10.69</v>
       </c>
       <c r="S3" t="s">
         <v>34</v>
@@ -974,13 +977,13 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1010,7 +1013,7 @@
         <v>5739.43</v>
       </c>
       <c r="N4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O4">
         <v>-302.0699999999997</v>
@@ -1030,10 +1033,10 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
         <v>126</v>
@@ -1048,7 +1051,7 @@
         <v>3</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>8527.200000000001</v>
@@ -1056,23 +1059,29 @@
       <c r="J5">
         <v>2799.8</v>
       </c>
+      <c r="K5" t="s">
+        <v>52</v>
+      </c>
       <c r="L5">
         <v>2700.28</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>2700.28</v>
+      </c>
+      <c r="N5" t="s">
+        <v>134</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>-426.3599999999997</v>
       </c>
       <c r="P5">
-        <v>-127.8</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-127.8</v>
+        <v>-426.3599999999997</v>
       </c>
       <c r="R5">
-        <v>-1.5</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1080,13 +1089,13 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1116,7 +1125,7 @@
         <v>2293.3</v>
       </c>
       <c r="N6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1136,13 +1145,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1160,7 +1169,7 @@
         <v>8960</v>
       </c>
       <c r="J7">
-        <v>1291.7</v>
+        <v>1279.7</v>
       </c>
       <c r="L7">
         <v>1216</v>
@@ -1172,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>81.90000000000001</v>
+        <v>-2.1</v>
       </c>
       <c r="Q7">
-        <v>81.90000000000001</v>
+        <v>-2.1</v>
       </c>
       <c r="R7">
-        <v>0.91</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1186,13 +1195,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1222,7 +1231,7 @@
         <v>3066.4</v>
       </c>
       <c r="N8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O8">
         <v>-522.8999999999992</v>
@@ -1242,13 +1251,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1278,7 +1287,7 @@
         <v>2901.59</v>
       </c>
       <c r="N9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O9">
         <v>-458.1300000000001</v>
@@ -1298,13 +1307,13 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1334,7 +1343,7 @@
         <v>2922.11</v>
       </c>
       <c r="N10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O10">
         <v>-461.3699999999999</v>
@@ -1354,13 +1363,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1381,7 +1390,7 @@
         <v>183.56</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L11">
         <v>180.92</v>
@@ -1390,7 +1399,7 @@
         <v>180.92</v>
       </c>
       <c r="N11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O11">
         <v>749.6499999999999</v>
@@ -1405,7 +1414,7 @@
         <v>7.5</v>
       </c>
       <c r="S11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1413,13 +1422,13 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1449,7 +1458,7 @@
         <v>1651</v>
       </c>
       <c r="N12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O12">
         <v>599.5200000000004</v>
@@ -1472,13 +1481,13 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1508,7 +1517,7 @@
         <v>732.4</v>
       </c>
       <c r="N13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O13">
         <v>-462.6000000000008</v>
@@ -1528,13 +1537,13 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1564,7 +1573,7 @@
         <v>651.2</v>
       </c>
       <c r="N14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1584,13 +1593,13 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1620,7 +1629,7 @@
         <v>1135.44</v>
       </c>
       <c r="N15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O15">
         <v>-478.0799999999999</v>
@@ -1640,13 +1649,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1676,7 +1685,7 @@
         <v>5731.82</v>
       </c>
       <c r="N16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O16">
         <v>-301.6800000000003</v>
@@ -1696,13 +1705,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1720,7 +1729,7 @@
         <v>9282</v>
       </c>
       <c r="J17">
-        <v>9972.5</v>
+        <v>9776</v>
       </c>
       <c r="L17">
         <v>9282</v>
@@ -1732,13 +1741,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>690.5</v>
+        <v>494</v>
       </c>
       <c r="Q17">
-        <v>690.5</v>
+        <v>494</v>
       </c>
       <c r="R17">
-        <v>7.44</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1746,13 +1755,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1782,7 +1791,7 @@
         <v>282.8</v>
       </c>
       <c r="N18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1802,13 +1811,13 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1838,7 +1847,7 @@
         <v>1342.35</v>
       </c>
       <c r="N19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O19">
         <v>-494.5500000000006</v>
@@ -1858,13 +1867,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1894,7 +1903,7 @@
         <v>5425.45</v>
       </c>
       <c r="N20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O20">
         <v>-285.5500000000002</v>
@@ -1914,13 +1923,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1941,7 +1950,7 @@
         <v>132.36</v>
       </c>
       <c r="K21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L21">
         <v>128.5</v>
@@ -1950,7 +1959,7 @@
         <v>128.499</v>
       </c>
       <c r="N21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O21">
         <v>495.639</v>
@@ -1970,13 +1979,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1997,7 +2006,7 @@
         <v>4021.8</v>
       </c>
       <c r="K22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L22">
         <v>3974.1</v>
@@ -2006,7 +2015,7 @@
         <v>3974.1</v>
       </c>
       <c r="N22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -2026,13 +2035,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2062,7 +2071,7 @@
         <v>972.9400000000001</v>
       </c>
       <c r="N23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O23">
         <v>-460.8900000000003</v>
@@ -2082,13 +2091,13 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2118,7 +2127,7 @@
         <v>158.14</v>
       </c>
       <c r="N24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O24">
         <v>-499.2000000000013</v>
@@ -2138,13 +2147,13 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2174,7 +2183,7 @@
         <v>1001.11</v>
       </c>
       <c r="N25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O25">
         <v>-474.2099999999995</v>
@@ -2194,13 +2203,13 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2221,7 +2230,7 @@
         <v>267.45</v>
       </c>
       <c r="K26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L26">
         <v>253.98</v>
@@ -2230,7 +2239,7 @@
         <v>252</v>
       </c>
       <c r="N26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O26">
         <v>-567.9500000000008</v>
@@ -2250,13 +2259,13 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2286,7 +2295,7 @@
         <v>951.52</v>
       </c>
       <c r="N27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O27">
         <v>-450.7200000000004</v>
@@ -2306,13 +2315,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2342,7 +2351,7 @@
         <v>1880.9</v>
       </c>
       <c r="N28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O28">
         <v>-495</v>
@@ -2362,13 +2371,13 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2398,7 +2407,7 @@
         <v>854</v>
       </c>
       <c r="N29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O29">
         <v>-523.0499999999995</v>
@@ -2418,13 +2427,13 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2454,7 +2463,7 @@
         <v>6310.38</v>
       </c>
       <c r="N30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O30">
         <v>-332.1199999999999</v>
@@ -2474,13 +2483,13 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2501,7 +2510,7 @@
         <v>546.75</v>
       </c>
       <c r="K31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L31">
         <v>541.83</v>
@@ -2510,7 +2519,7 @@
         <v>541.83</v>
       </c>
       <c r="N31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O31">
         <v>-484.8399999999997</v>
@@ -2530,13 +2539,13 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2566,7 +2575,7 @@
         <v>738.96</v>
       </c>
       <c r="N32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O32">
         <v>-466.6799999999998</v>
@@ -2586,13 +2595,13 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D33" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2622,7 +2631,7 @@
         <v>637.64</v>
       </c>
       <c r="N33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O33">
         <v>-469.8400000000008</v>
@@ -2642,13 +2651,13 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2669,7 +2678,7 @@
         <v>1728.7</v>
       </c>
       <c r="K34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L34">
         <v>1693.47</v>
@@ -2678,7 +2687,7 @@
         <v>1693.47</v>
       </c>
       <c r="N34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O34">
         <v>-445.6499999999994</v>
@@ -2698,13 +2707,13 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D35" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2725,7 +2734,7 @@
         <v>414.55</v>
       </c>
       <c r="K35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L35">
         <v>409.31</v>
@@ -2734,7 +2743,7 @@
         <v>409.31</v>
       </c>
       <c r="N35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O35">
         <v>-495.4200000000005</v>
@@ -2754,13 +2763,13 @@
         <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2790,7 +2799,7 @@
         <v>4769.95</v>
       </c>
       <c r="N36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O36">
         <v>-251.0500000000001</v>
@@ -2810,13 +2819,13 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D37" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2846,7 +2855,7 @@
         <v>109.86</v>
       </c>
       <c r="N37" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O37">
         <v>-497.0800000000001</v>
@@ -2866,13 +2875,13 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D38" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -2902,7 +2911,7 @@
         <v>439.27</v>
       </c>
       <c r="N38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O38">
         <v>711.2249999999999</v>
@@ -2925,13 +2934,13 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2961,7 +2970,7 @@
         <v>260.54</v>
       </c>
       <c r="N39" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O39">
         <v>-493.5599999999993</v>
@@ -2981,13 +2990,13 @@
         <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C40" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -3017,7 +3026,7 @@
         <v>1578.33</v>
       </c>
       <c r="N40" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O40">
         <v>-498.420000000001</v>
@@ -3037,13 +3046,13 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -3073,7 +3082,7 @@
         <v>2751.58</v>
       </c>
       <c r="N41" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O41">
         <v>-434.4600000000005</v>
@@ -3093,13 +3102,13 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3120,7 +3129,7 @@
         <v>1375.8</v>
       </c>
       <c r="K42" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L42">
         <v>1342.44</v>
@@ -3129,7 +3138,7 @@
         <v>1342.44</v>
       </c>
       <c r="N42" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O42">
         <v>-494.619999999999</v>
@@ -3149,13 +3158,13 @@
         <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3176,7 +3185,7 @@
         <v>4056.4</v>
       </c>
       <c r="K43" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L43">
         <v>3853.58</v>
@@ -3185,7 +3194,7 @@
         <v>3853.58</v>
       </c>
       <c r="N43" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O43">
         <v>-405.6400000000003</v>
@@ -3205,13 +3214,13 @@
         <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C44" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D44" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3229,7 +3238,7 @@
         <v>9686.25</v>
       </c>
       <c r="J44">
-        <v>385.4</v>
+        <v>374.8</v>
       </c>
       <c r="L44">
         <v>358.75</v>
@@ -3241,13 +3250,13 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>719.55</v>
+        <v>433.35</v>
       </c>
       <c r="Q44">
-        <v>719.55</v>
+        <v>433.35</v>
       </c>
       <c r="R44">
-        <v>7.43</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -3255,13 +3264,13 @@
         <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D45" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3291,7 +3300,7 @@
         <v>1574</v>
       </c>
       <c r="N45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O45">
         <v>-578.9999999999998</v>
@@ -3311,13 +3320,13 @@
         <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C46" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D46" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -3335,7 +3344,7 @@
         <v>9697.799999999999</v>
       </c>
       <c r="J46">
-        <v>381.9</v>
+        <v>377.55</v>
       </c>
       <c r="L46">
         <v>363.67</v>
@@ -3347,13 +3356,13 @@
         <v>484.8900000000007</v>
       </c>
       <c r="P46">
-        <v>497.7</v>
+        <v>436.8</v>
       </c>
       <c r="Q46">
-        <v>982.59</v>
+        <v>921.6900000000001</v>
       </c>
       <c r="R46">
-        <v>10.13</v>
+        <v>9.5</v>
       </c>
       <c r="S46" t="s">
         <v>49</v>
@@ -3364,13 +3373,13 @@
         <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C47" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D47" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3400,7 +3409,7 @@
         <v>2947.18</v>
       </c>
       <c r="N47" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O47">
         <v>-465.360000000001</v>
@@ -3420,10 +3429,10 @@
         <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D48" t="s">
         <v>126</v>
@@ -3438,7 +3447,7 @@
         <v>2</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>7448.2</v>
@@ -3446,23 +3455,29 @@
       <c r="J48">
         <v>3847.6</v>
       </c>
+      <c r="K48" t="s">
+        <v>52</v>
+      </c>
       <c r="L48">
         <v>3724.1</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>3700</v>
+      </c>
+      <c r="N48" t="s">
+        <v>135</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>-48.19999999999982</v>
       </c>
       <c r="P48">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>247</v>
+        <v>-48.19999999999982</v>
       </c>
       <c r="R48">
-        <v>3.32</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -3470,13 +3485,13 @@
         <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -3506,7 +3521,7 @@
         <v>3074.61</v>
       </c>
       <c r="N49" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O49">
         <v>585.6400000000008</v>
@@ -3529,13 +3544,13 @@
         <v>32</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D50" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3565,7 +3580,7 @@
         <v>1982.08</v>
       </c>
       <c r="N50" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O50">
         <v>-417.2800000000007</v>
@@ -3585,13 +3600,13 @@
         <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C51" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D51" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3621,7 +3636,7 @@
         <v>520.6</v>
       </c>
       <c r="N51" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O51">
         <v>-493.1999999999996</v>
@@ -3641,13 +3656,13 @@
         <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C52" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E52">
         <v>3</v>
@@ -3677,7 +3692,7 @@
         <v>466.6</v>
       </c>
       <c r="N52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O52">
         <v>1137.180000000001</v>
@@ -3700,13 +3715,13 @@
         <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D53" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3736,7 +3751,7 @@
         <v>185.38</v>
       </c>
       <c r="N53" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O53">
         <v>-118.190000000001</v>
@@ -3756,13 +3771,13 @@
         <v>34</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C54" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D54" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -3792,7 +3807,7 @@
         <v>4173.96</v>
       </c>
       <c r="N54" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O54">
         <v>596.2800000000007</v>
@@ -3815,10 +3830,10 @@
         <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D55" t="s">
         <v>126</v>
@@ -3833,7 +3848,7 @@
         <v>5</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>9973.5</v>
@@ -3841,23 +3856,29 @@
       <c r="J55">
         <v>2161.8</v>
       </c>
+      <c r="K55" t="s">
+        <v>52</v>
+      </c>
       <c r="L55">
         <v>2094.43</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>2093</v>
+      </c>
+      <c r="N55" t="s">
+        <v>135</v>
       </c>
       <c r="O55">
-        <v>398.9400000000001</v>
+        <v>693.8399999999999</v>
       </c>
       <c r="P55">
-        <v>501.3</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>900.24</v>
+        <v>693.8399999999999</v>
       </c>
       <c r="R55">
-        <v>9.029999999999999</v>
+        <v>6.96</v>
       </c>
       <c r="S55" t="s">
         <v>38</v>
@@ -3868,13 +3889,13 @@
         <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C56" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D56" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3904,7 +3925,7 @@
         <v>814.2</v>
       </c>
       <c r="N56" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O56">
         <v>-490.599999999999</v>
@@ -3924,13 +3945,13 @@
         <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D57" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3951,7 +3972,7 @@
         <v>611.2</v>
       </c>
       <c r="K57" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L57">
         <v>606.62</v>
@@ -3960,7 +3981,7 @@
         <v>606.62</v>
       </c>
       <c r="N57" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O57">
         <v>-478.9499999999993</v>
@@ -3980,13 +4001,13 @@
         <v>36</v>
       </c>
       <c r="B58" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C58" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D58" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -4016,7 +4037,7 @@
         <v>922.92</v>
       </c>
       <c r="N58" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O58">
         <v>-485.8000000000004</v>
@@ -4036,13 +4057,13 @@
         <v>37</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C59" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D59" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -4072,7 +4093,7 @@
         <v>172.84</v>
       </c>
       <c r="N59" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O59">
         <v>740.73</v>
@@ -4095,13 +4116,13 @@
         <v>37</v>
       </c>
       <c r="B60" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C60" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D60" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -4119,7 +4140,7 @@
         <v>9944.179999999998</v>
       </c>
       <c r="J60">
-        <v>169.53</v>
+        <v>165.07</v>
       </c>
       <c r="L60">
         <v>152.37</v>
@@ -4131,13 +4152,13 @@
         <v>0</v>
       </c>
       <c r="P60">
-        <v>566.6799999999999</v>
+        <v>290.16</v>
       </c>
       <c r="Q60">
-        <v>566.6799999999999</v>
+        <v>290.16</v>
       </c>
       <c r="R60">
-        <v>5.7</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -4145,10 +4166,10 @@
         <v>37</v>
       </c>
       <c r="B61" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C61" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D61" t="s">
         <v>126</v>
@@ -4163,7 +4184,7 @@
         <v>22</v>
       </c>
       <c r="H61">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I61">
         <v>9933</v>
@@ -4171,23 +4192,29 @@
       <c r="J61">
         <v>487.75</v>
       </c>
+      <c r="K61" t="s">
+        <v>52</v>
+      </c>
       <c r="L61">
         <v>474.08</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>468</v>
+      </c>
+      <c r="N61" t="s">
+        <v>135</v>
       </c>
       <c r="O61">
-        <v>496.6500000000004</v>
+        <v>678.1500000000003</v>
       </c>
       <c r="P61">
-        <v>398.75</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>895.4</v>
+        <v>678.1500000000003</v>
       </c>
       <c r="R61">
-        <v>9.01</v>
+        <v>6.83</v>
       </c>
       <c r="S61" t="s">
         <v>48</v>
@@ -4198,13 +4225,13 @@
         <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C62" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D62" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E62">
         <v>3</v>
@@ -4234,7 +4261,7 @@
         <v>967.15</v>
       </c>
       <c r="N62" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O62">
         <v>1167.96</v>
@@ -4249,7 +4276,7 @@
         <v>12.58</v>
       </c>
       <c r="S62" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -4257,13 +4284,13 @@
         <v>38</v>
       </c>
       <c r="B63" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C63" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D63" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -4293,7 +4320,7 @@
         <v>116.49</v>
       </c>
       <c r="N63" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O63">
         <v>-496.5300000000008</v>
@@ -4313,13 +4340,13 @@
         <v>38</v>
       </c>
       <c r="B64" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C64" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D64" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -4349,7 +4376,7 @@
         <v>412.3</v>
       </c>
       <c r="N64" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O64">
         <v>-497.1999999999993</v>
@@ -4369,10 +4396,10 @@
         <v>38</v>
       </c>
       <c r="B65" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C65" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D65" t="s">
         <v>126</v>
@@ -4387,7 +4414,7 @@
         <v>6</v>
       </c>
       <c r="H65">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>9407.4</v>
@@ -4395,23 +4422,29 @@
       <c r="J65">
         <v>1521</v>
       </c>
+      <c r="K65" t="s">
+        <v>52</v>
+      </c>
       <c r="L65">
         <v>1489.51</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>1462</v>
+      </c>
+      <c r="N65" t="s">
+        <v>135</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>-635.4000000000005</v>
       </c>
       <c r="P65">
-        <v>-281.4</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>-281.4</v>
+        <v>-635.4000000000005</v>
       </c>
       <c r="R65">
-        <v>-2.99</v>
+        <v>-6.75</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4419,16 +4452,16 @@
         <v>38</v>
       </c>
       <c r="B66" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C66" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D66" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
         <v>266.95</v>
@@ -4443,10 +4476,10 @@
         <v>9877.15</v>
       </c>
       <c r="J66">
-        <v>279.7</v>
+        <v>282.2</v>
       </c>
       <c r="L66">
-        <v>253.6</v>
+        <v>266.95</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -4455,13 +4488,13 @@
         <v>0</v>
       </c>
       <c r="P66">
-        <v>471.75</v>
+        <v>564.25</v>
       </c>
       <c r="Q66">
-        <v>471.75</v>
+        <v>564.25</v>
       </c>
       <c r="R66">
-        <v>4.78</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4469,13 +4502,13 @@
         <v>38</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D67" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -4505,7 +4538,7 @@
         <v>5558.93</v>
       </c>
       <c r="N67" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O67">
         <v>-292.5699999999997</v>
@@ -4525,13 +4558,13 @@
         <v>38</v>
       </c>
       <c r="B68" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C68" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D68" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -4561,7 +4594,7 @@
         <v>456.1</v>
       </c>
       <c r="N68" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O68">
         <v>-480</v>
@@ -4581,13 +4614,13 @@
         <v>38</v>
       </c>
       <c r="B69" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C69" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D69" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -4608,7 +4641,7 @@
         <v>1754.5</v>
       </c>
       <c r="K69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L69">
         <v>1652.52</v>
@@ -4617,7 +4650,7 @@
         <v>1652.52</v>
       </c>
       <c r="N69" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O69">
         <v>-434.9000000000001</v>
@@ -4637,13 +4670,13 @@
         <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C70" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D70" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -4673,7 +4706,7 @@
         <v>4850</v>
       </c>
       <c r="N70" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O70">
         <v>-348.5</v>
@@ -4693,13 +4726,13 @@
         <v>39</v>
       </c>
       <c r="B71" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C71" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D71" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -4717,7 +4750,7 @@
         <v>9785.75</v>
       </c>
       <c r="J71">
-        <v>788.65</v>
+        <v>779.15</v>
       </c>
       <c r="L71">
         <v>752.75</v>
@@ -4729,13 +4762,13 @@
         <v>0</v>
       </c>
       <c r="P71">
-        <v>466.7</v>
+        <v>343.2</v>
       </c>
       <c r="Q71">
-        <v>466.7</v>
+        <v>343.2</v>
       </c>
       <c r="R71">
-        <v>4.77</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -4743,13 +4776,13 @@
         <v>40</v>
       </c>
       <c r="B72" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C72" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D72" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -4767,7 +4800,7 @@
         <v>9952.799999999999</v>
       </c>
       <c r="J72">
-        <v>133.34</v>
+        <v>128.65</v>
       </c>
       <c r="L72">
         <v>124.41</v>
@@ -4779,13 +4812,13 @@
         <v>0</v>
       </c>
       <c r="P72">
-        <v>714.4</v>
+        <v>339.2</v>
       </c>
       <c r="Q72">
-        <v>714.4</v>
+        <v>339.2</v>
       </c>
       <c r="R72">
-        <v>7.18</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -4793,13 +4826,13 @@
         <v>40</v>
       </c>
       <c r="B73" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C73" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D73" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -4829,7 +4862,7 @@
         <v>1540.62</v>
       </c>
       <c r="N73" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O73">
         <v>-486.4800000000009</v>
@@ -4849,13 +4882,13 @@
         <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C74" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D74" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -4885,7 +4918,7 @@
         <v>261.9</v>
       </c>
       <c r="N74" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O74">
         <v>-511.2000000000016</v>
@@ -4905,13 +4938,13 @@
         <v>41</v>
       </c>
       <c r="B75" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C75" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D75" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -4941,7 +4974,7 @@
         <v>141.6</v>
       </c>
       <c r="N75" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O75">
         <v>-499.1500000000011</v>
@@ -4961,13 +4994,13 @@
         <v>41</v>
       </c>
       <c r="B76" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C76" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D76" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -4997,7 +5030,7 @@
         <v>1134.58</v>
       </c>
       <c r="N76" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O76">
         <v>-477.7600000000002</v>
@@ -5017,13 +5050,13 @@
         <v>41</v>
       </c>
       <c r="B77" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C77" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D77" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -5053,7 +5086,7 @@
         <v>2835.37</v>
       </c>
       <c r="N77" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O77">
         <v>-447.6900000000001</v>
@@ -5073,13 +5106,13 @@
         <v>42</v>
       </c>
       <c r="B78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C78" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D78" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -5097,7 +5130,7 @@
         <v>6019</v>
       </c>
       <c r="J78">
-        <v>6002.5</v>
+        <v>5959</v>
       </c>
       <c r="L78">
         <v>5718.05</v>
@@ -5109,13 +5142,13 @@
         <v>0</v>
       </c>
       <c r="P78">
-        <v>-16.5</v>
+        <v>-60</v>
       </c>
       <c r="Q78">
-        <v>-16.5</v>
+        <v>-60</v>
       </c>
       <c r="R78">
-        <v>-0.27</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5123,10 +5156,10 @@
         <v>43</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D79" t="s">
         <v>126</v>
@@ -5141,7 +5174,7 @@
         <v>18</v>
       </c>
       <c r="H79">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <v>9647.1</v>
@@ -5149,23 +5182,29 @@
       <c r="J79">
         <v>512</v>
       </c>
+      <c r="K79" t="s">
+        <v>52</v>
+      </c>
       <c r="L79">
         <v>509.15</v>
       </c>
       <c r="M79">
-        <v>0</v>
+        <v>489.85</v>
+      </c>
+      <c r="N79" t="s">
+        <v>135</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>-829.8000000000004</v>
       </c>
       <c r="P79">
-        <v>-431.1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>-431.1</v>
+        <v>-829.8000000000004</v>
       </c>
       <c r="R79">
-        <v>-4.47</v>
+        <v>-8.6</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5173,13 +5212,13 @@
         <v>44</v>
       </c>
       <c r="B80" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C80" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D80" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -5197,7 +5236,7 @@
         <v>9713.200000000001</v>
       </c>
       <c r="J80">
-        <v>349.8</v>
+        <v>338.95</v>
       </c>
       <c r="L80">
         <v>329.55</v>
@@ -5209,13 +5248,13 @@
         <v>0</v>
       </c>
       <c r="P80">
-        <v>81.2</v>
+        <v>-222.6</v>
       </c>
       <c r="Q80">
-        <v>81.2</v>
+        <v>-222.6</v>
       </c>
       <c r="R80">
-        <v>0.84</v>
+        <v>-2.29</v>
       </c>
     </row>
     <row r="81" spans="1:19">
@@ -5223,13 +5262,13 @@
         <v>44</v>
       </c>
       <c r="B81" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C81" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D81" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -5247,7 +5286,7 @@
         <v>9902.200000000001</v>
       </c>
       <c r="J81">
-        <v>1378.9</v>
+        <v>1374</v>
       </c>
       <c r="L81">
         <v>1343.87</v>
@@ -5259,13 +5298,13 @@
         <v>0</v>
       </c>
       <c r="P81">
-        <v>-249.9</v>
+        <v>-284.2</v>
       </c>
       <c r="Q81">
-        <v>-249.9</v>
+        <v>-284.2</v>
       </c>
       <c r="R81">
-        <v>-2.52</v>
+        <v>-2.87</v>
       </c>
     </row>
     <row r="82" spans="1:19">
@@ -5273,13 +5312,13 @@
         <v>44</v>
       </c>
       <c r="B82" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C82" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D82" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E82">
         <v>2</v>
@@ -5297,7 +5336,7 @@
         <v>9773.299999999999</v>
       </c>
       <c r="J82">
-        <v>321.95</v>
+        <v>315.2</v>
       </c>
       <c r="L82">
         <v>301.82</v>
@@ -5309,13 +5348,13 @@
         <v>488.6650000000001</v>
       </c>
       <c r="P82">
-        <v>586.5</v>
+        <v>471.75</v>
       </c>
       <c r="Q82">
-        <v>1075.16</v>
+        <v>960.42</v>
       </c>
       <c r="R82">
-        <v>11</v>
+        <v>9.83</v>
       </c>
       <c r="S82" t="s">
         <v>50</v>
@@ -5326,13 +5365,13 @@
         <v>44</v>
       </c>
       <c r="B83" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C83" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D83" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -5350,7 +5389,7 @@
         <v>9485.6</v>
       </c>
       <c r="J83">
-        <v>603.8</v>
+        <v>617.65</v>
       </c>
       <c r="L83">
         <v>563.21</v>
@@ -5362,13 +5401,13 @@
         <v>0</v>
       </c>
       <c r="P83">
-        <v>175.2</v>
+        <v>396.8</v>
       </c>
       <c r="Q83">
-        <v>175.2</v>
+        <v>396.8</v>
       </c>
       <c r="R83">
-        <v>1.85</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="84" spans="1:19">
@@ -5376,13 +5415,13 @@
         <v>45</v>
       </c>
       <c r="B84" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C84" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D84" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -5400,7 +5439,7 @@
         <v>9114.75</v>
       </c>
       <c r="J84">
-        <v>995.9</v>
+        <v>978.25</v>
       </c>
       <c r="L84">
         <v>962.11</v>
@@ -5412,13 +5451,13 @@
         <v>0</v>
       </c>
       <c r="P84">
-        <v>-151.65</v>
+        <v>-310.5</v>
       </c>
       <c r="Q84">
-        <v>-151.65</v>
+        <v>-310.5</v>
       </c>
       <c r="R84">
-        <v>-1.66</v>
+        <v>-3.41</v>
       </c>
     </row>
     <row r="85" spans="1:19">
@@ -5426,13 +5465,13 @@
         <v>45</v>
       </c>
       <c r="B85" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C85" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D85" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -5450,7 +5489,7 @@
         <v>9588.799999999999</v>
       </c>
       <c r="J85">
-        <v>2376.2</v>
+        <v>2307.1</v>
       </c>
       <c r="L85">
         <v>2277.34</v>
@@ -5462,13 +5501,13 @@
         <v>0</v>
       </c>
       <c r="P85">
-        <v>-84</v>
+        <v>-360.4</v>
       </c>
       <c r="Q85">
-        <v>-84</v>
+        <v>-360.4</v>
       </c>
       <c r="R85">
-        <v>-0.88</v>
+        <v>-3.76</v>
       </c>
     </row>
     <row r="86" spans="1:19">
@@ -5476,13 +5515,13 @@
         <v>46</v>
       </c>
       <c r="B86" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C86" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D86" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -5500,7 +5539,7 @@
         <v>9589.85</v>
       </c>
       <c r="J86">
-        <v>413.8</v>
+        <v>406.2</v>
       </c>
       <c r="L86">
         <v>396.1</v>
@@ -5512,13 +5551,13 @@
         <v>0</v>
       </c>
       <c r="P86">
-        <v>-72.45</v>
+        <v>-247.25</v>
       </c>
       <c r="Q86">
-        <v>-72.45</v>
+        <v>-247.25</v>
       </c>
       <c r="R86">
-        <v>-0.76</v>
+        <v>-2.58</v>
       </c>
     </row>
     <row r="87" spans="1:19">
@@ -5526,13 +5565,13 @@
         <v>46</v>
       </c>
       <c r="B87" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C87" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D87" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -5550,7 +5589,7 @@
         <v>8993.6</v>
       </c>
       <c r="J87">
-        <v>1286.3</v>
+        <v>1294.4</v>
       </c>
       <c r="L87">
         <v>1220.56</v>
@@ -5562,13 +5601,13 @@
         <v>0</v>
       </c>
       <c r="P87">
-        <v>10.5</v>
+        <v>67.2</v>
       </c>
       <c r="Q87">
-        <v>10.5</v>
+        <v>67.2</v>
       </c>
       <c r="R87">
-        <v>0.12</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="88" spans="1:19">
@@ -5576,13 +5615,13 @@
         <v>46</v>
       </c>
       <c r="B88" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C88" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D88" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -5612,7 +5651,7 @@
         <v>4673.05</v>
       </c>
       <c r="N88" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O88">
         <v>-491.8999999999997</v>
@@ -5632,13 +5671,13 @@
         <v>46</v>
       </c>
       <c r="B89" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C89" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D89" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -5656,7 +5695,7 @@
         <v>9791.1</v>
       </c>
       <c r="J89">
-        <v>924.7</v>
+        <v>940</v>
       </c>
       <c r="L89">
         <v>845.6</v>
@@ -5668,13 +5707,13 @@
         <v>0</v>
       </c>
       <c r="P89">
-        <v>380.6</v>
+        <v>548.9</v>
       </c>
       <c r="Q89">
-        <v>380.6</v>
+        <v>548.9</v>
       </c>
       <c r="R89">
-        <v>3.89</v>
+        <v>5.61</v>
       </c>
     </row>
     <row r="90" spans="1:19">
@@ -5682,13 +5721,13 @@
         <v>47</v>
       </c>
       <c r="B90" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C90" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D90" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -5706,7 +5745,7 @@
         <v>9117.200000000001</v>
       </c>
       <c r="J90">
-        <v>2338.1</v>
+        <v>2320.6</v>
       </c>
       <c r="L90">
         <v>2165.34</v>
@@ -5718,13 +5757,13 @@
         <v>0</v>
       </c>
       <c r="P90">
-        <v>235.2</v>
+        <v>165.2</v>
       </c>
       <c r="Q90">
-        <v>235.2</v>
+        <v>165.2</v>
       </c>
       <c r="R90">
-        <v>2.58</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="91" spans="1:19">
@@ -5732,13 +5771,13 @@
         <v>47</v>
       </c>
       <c r="B91" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D91" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -5756,7 +5795,7 @@
         <v>9723.450000000001</v>
       </c>
       <c r="J91">
-        <v>298.65</v>
+        <v>296.8</v>
       </c>
       <c r="L91">
         <v>279.92</v>
@@ -5768,13 +5807,13 @@
         <v>0</v>
       </c>
       <c r="P91">
-        <v>132</v>
+        <v>70.95</v>
       </c>
       <c r="Q91">
-        <v>132</v>
+        <v>70.95</v>
       </c>
       <c r="R91">
-        <v>1.36</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="92" spans="1:19">
@@ -5782,13 +5821,13 @@
         <v>47</v>
       </c>
       <c r="B92" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C92" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D92" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -5818,7 +5857,7 @@
         <v>714.75</v>
       </c>
       <c r="N92" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O92">
         <v>-653.8999999999994</v>
@@ -5838,13 +5877,13 @@
         <v>47</v>
       </c>
       <c r="B93" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C93" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D93" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -5862,7 +5901,7 @@
         <v>9961.9</v>
       </c>
       <c r="J93">
-        <v>129.44</v>
+        <v>126.05</v>
       </c>
       <c r="L93">
         <v>119.79</v>
@@ -5874,13 +5913,13 @@
         <v>0</v>
       </c>
       <c r="P93">
-        <v>263.86</v>
+        <v>-3.95</v>
       </c>
       <c r="Q93">
-        <v>263.86</v>
+        <v>-3.95</v>
       </c>
       <c r="R93">
-        <v>2.65</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="94" spans="1:19">
@@ -5888,13 +5927,13 @@
         <v>47</v>
       </c>
       <c r="B94" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C94" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D94" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -5912,7 +5951,7 @@
         <v>9935.1</v>
       </c>
       <c r="J94">
-        <v>187.47</v>
+        <v>179.11</v>
       </c>
       <c r="L94">
         <v>174.3</v>
@@ -5924,13 +5963,13 @@
         <v>0</v>
       </c>
       <c r="P94">
-        <v>750.6900000000001</v>
+        <v>274.17</v>
       </c>
       <c r="Q94">
-        <v>750.6900000000001</v>
+        <v>274.17</v>
       </c>
       <c r="R94">
-        <v>7.56</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="95" spans="1:19">
@@ -5938,13 +5977,13 @@
         <v>48</v>
       </c>
       <c r="B95" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C95" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D95" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -5962,7 +6001,7 @@
         <v>9962.25</v>
       </c>
       <c r="J95">
-        <v>654.5</v>
+        <v>653.55</v>
       </c>
       <c r="L95">
         <v>630.9400000000001</v>
@@ -5974,13 +6013,13 @@
         <v>0</v>
       </c>
       <c r="P95">
-        <v>-144.75</v>
+        <v>-159</v>
       </c>
       <c r="Q95">
-        <v>-144.75</v>
+        <v>-159</v>
       </c>
       <c r="R95">
-        <v>-1.45</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="96" spans="1:19">
@@ -5988,10 +6027,10 @@
         <v>48</v>
       </c>
       <c r="B96" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C96" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D96" t="s">
         <v>126</v>
@@ -6006,7 +6045,7 @@
         <v>23</v>
       </c>
       <c r="H96">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>9906.1</v>
@@ -6014,23 +6053,29 @@
       <c r="J96">
         <v>415.2</v>
       </c>
+      <c r="K96" t="s">
+        <v>52</v>
+      </c>
       <c r="L96">
         <v>409.16</v>
       </c>
       <c r="M96">
-        <v>0</v>
+        <v>409.16</v>
+      </c>
+      <c r="N96" t="s">
+        <v>134</v>
       </c>
       <c r="O96">
-        <v>0</v>
+        <v>-495.4199999999992</v>
       </c>
       <c r="P96">
-        <v>-356.5</v>
+        <v>0</v>
       </c>
       <c r="Q96">
-        <v>-356.5</v>
+        <v>-495.4199999999992</v>
       </c>
       <c r="R96">
-        <v>-3.6</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6038,10 +6083,10 @@
         <v>49</v>
       </c>
       <c r="B97" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C97" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D97" t="s">
         <v>126</v>
@@ -6056,7 +6101,7 @@
         <v>8</v>
       </c>
       <c r="H97">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <v>9424</v>
@@ -6064,23 +6109,29 @@
       <c r="J97">
         <v>1141</v>
       </c>
+      <c r="K97" t="s">
+        <v>52</v>
+      </c>
       <c r="L97">
         <v>1119.1</v>
       </c>
       <c r="M97">
-        <v>0</v>
+        <v>1110.8</v>
+      </c>
+      <c r="N97" t="s">
+        <v>135</v>
       </c>
       <c r="O97">
-        <v>0</v>
+        <v>-537.6000000000004</v>
       </c>
       <c r="P97">
-        <v>-296</v>
+        <v>0</v>
       </c>
       <c r="Q97">
-        <v>-296</v>
+        <v>-537.6000000000004</v>
       </c>
       <c r="R97">
-        <v>-3.14</v>
+        <v>-5.7</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6088,13 +6139,13 @@
         <v>49</v>
       </c>
       <c r="B98" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C98" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D98" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -6112,7 +6163,7 @@
         <v>9911.85</v>
       </c>
       <c r="J98">
-        <v>430.65</v>
+        <v>426.25</v>
       </c>
       <c r="L98">
         <v>409.4</v>
@@ -6124,13 +6175,13 @@
         <v>0</v>
       </c>
       <c r="P98">
-        <v>-6.9</v>
+        <v>-108.1</v>
       </c>
       <c r="Q98">
-        <v>-6.9</v>
+        <v>-108.1</v>
       </c>
       <c r="R98">
-        <v>-0.07000000000000001</v>
+        <v>-1.09</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6138,13 +6189,13 @@
         <v>49</v>
       </c>
       <c r="B99" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C99" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D99" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -6162,7 +6213,7 @@
         <v>7862.6</v>
       </c>
       <c r="J99">
-        <v>3899.5</v>
+        <v>3848.5</v>
       </c>
       <c r="L99">
         <v>3734.74</v>
@@ -6174,13 +6225,13 @@
         <v>0</v>
       </c>
       <c r="P99">
-        <v>-63.6</v>
+        <v>-165.6</v>
       </c>
       <c r="Q99">
-        <v>-63.6</v>
+        <v>-165.6</v>
       </c>
       <c r="R99">
-        <v>-0.8100000000000001</v>
+        <v>-2.11</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6188,13 +6239,13 @@
         <v>50</v>
       </c>
       <c r="B100" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C100" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D100" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -6212,7 +6263,7 @@
         <v>5737.5</v>
       </c>
       <c r="J100">
-        <v>5710</v>
+        <v>5591.5</v>
       </c>
       <c r="L100">
         <v>5450.62</v>
@@ -6224,13 +6275,13 @@
         <v>0</v>
       </c>
       <c r="P100">
-        <v>-27.5</v>
+        <v>-146</v>
       </c>
       <c r="Q100">
-        <v>-27.5</v>
+        <v>-146</v>
       </c>
       <c r="R100">
-        <v>-0.48</v>
+        <v>-2.54</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6238,13 +6289,13 @@
         <v>51</v>
       </c>
       <c r="B101" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D101" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -6262,7 +6313,7 @@
         <v>9882.5</v>
       </c>
       <c r="J101">
-        <v>988.25</v>
+        <v>966.2</v>
       </c>
       <c r="L101">
         <v>938.84</v>
@@ -6274,13 +6325,13 @@
         <v>0</v>
       </c>
       <c r="P101">
-        <v>0</v>
+        <v>-220.5</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>-220.5</v>
       </c>
       <c r="R101">
-        <v>0</v>
+        <v>-2.23</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6288,13 +6339,13 @@
         <v>51</v>
       </c>
       <c r="B102" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C102" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D102" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -6312,7 +6363,7 @@
         <v>9507.6</v>
       </c>
       <c r="J102">
-        <v>500.4</v>
+        <v>490.75</v>
       </c>
       <c r="L102">
         <v>475.38</v>
@@ -6324,13 +6375,13 @@
         <v>0</v>
       </c>
       <c r="P102">
-        <v>0</v>
+        <v>-183.35</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>-183.35</v>
       </c>
       <c r="R102">
-        <v>0</v>
+        <v>-1.93</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6338,10 +6389,10 @@
         <v>51</v>
       </c>
       <c r="B103" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C103" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D103" t="s">
         <v>126</v>
@@ -6356,7 +6407,7 @@
         <v>10</v>
       </c>
       <c r="H103">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>9583.5</v>
@@ -6364,23 +6415,29 @@
       <c r="J103">
         <v>958.35</v>
       </c>
+      <c r="K103" t="s">
+        <v>52</v>
+      </c>
       <c r="L103">
         <v>910.4299999999999</v>
       </c>
       <c r="M103">
-        <v>0</v>
+        <v>895.05</v>
+      </c>
+      <c r="N103" t="s">
+        <v>135</v>
       </c>
       <c r="O103">
-        <v>0</v>
+        <v>-633.0000000000007</v>
       </c>
       <c r="P103">
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>0</v>
+        <v>-633.0000000000007</v>
       </c>
       <c r="R103">
-        <v>0</v>
+        <v>-6.61</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6388,13 +6445,13 @@
         <v>51</v>
       </c>
       <c r="B104" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C104" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D104" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -6412,7 +6469,7 @@
         <v>9661.6</v>
       </c>
       <c r="J104">
-        <v>603.85</v>
+        <v>590.2</v>
       </c>
       <c r="L104">
         <v>573.66</v>
@@ -6424,12 +6481,162 @@
         <v>0</v>
       </c>
       <c r="P104">
-        <v>0</v>
+        <v>-218.4</v>
       </c>
       <c r="Q104">
-        <v>0</v>
+        <v>-218.4</v>
       </c>
       <c r="R104">
+        <v>-2.26</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18">
+      <c r="A105" t="s">
+        <v>52</v>
+      </c>
+      <c r="B105" t="s">
+        <v>85</v>
+      </c>
+      <c r="C105" t="s">
+        <v>125</v>
+      </c>
+      <c r="D105" t="s">
+        <v>127</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>1752.5</v>
+      </c>
+      <c r="G105">
+        <v>5</v>
+      </c>
+      <c r="H105">
+        <v>5</v>
+      </c>
+      <c r="I105">
+        <v>8762.5</v>
+      </c>
+      <c r="J105">
+        <v>1752.5</v>
+      </c>
+      <c r="L105">
+        <v>1664.88</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
+      <c r="A106" t="s">
+        <v>52</v>
+      </c>
+      <c r="B106" t="s">
+        <v>70</v>
+      </c>
+      <c r="C106" t="s">
+        <v>123</v>
+      </c>
+      <c r="D106" t="s">
+        <v>127</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>1354</v>
+      </c>
+      <c r="G106">
+        <v>7</v>
+      </c>
+      <c r="H106">
+        <v>7</v>
+      </c>
+      <c r="I106">
+        <v>9478</v>
+      </c>
+      <c r="J106">
+        <v>1354</v>
+      </c>
+      <c r="L106">
+        <v>1286.3</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="R106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
+      <c r="A107" t="s">
+        <v>52</v>
+      </c>
+      <c r="B107" t="s">
+        <v>99</v>
+      </c>
+      <c r="C107" t="s">
+        <v>123</v>
+      </c>
+      <c r="D107" t="s">
+        <v>127</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>903.55</v>
+      </c>
+      <c r="G107">
+        <v>11</v>
+      </c>
+      <c r="H107">
+        <v>11</v>
+      </c>
+      <c r="I107">
+        <v>9939.049999999999</v>
+      </c>
+      <c r="J107">
+        <v>903.55</v>
+      </c>
+      <c r="L107">
+        <v>858.37</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="R107">
         <v>0</v>
       </c>
     </row>
